--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,251 +502,250 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2k4Es0xg4Fr7G0xSrhu5</t>
+          <t>H6phWzLnkONAcrf6heCr</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kitty</t>
+          <t>shafr1929</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>122.428</v>
+        <v>27.568</v>
       </c>
       <c r="D2" t="n">
-        <v>2.040466666666667</v>
+        <v>0.4594666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>30e5trqFiazZaJwEgF9y</t>
+          <t>E6TkbYo7RqnPfweYw0Ze</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10914638</v>
+        <v>1230</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Gahahzhhx</t>
+          <t>Hi, I was searching for "Colombo to kandy" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45937.44748001157</v>
+        <v>45938.52681467593</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4ZjXMCOMiKmcAEgRREwe</t>
+          <t>7QKVclnQJVYKnhdR13D1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">hii
+          <t xml:space="preserve">Hi shafr1929, Thank you for bringing this to our attention. How can we assist you?
 </t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45937.44889700232</v>
+        <v>45938.52713375</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PrdVhXrTJws9TxQ7pWZj</t>
+          <t>H6phWzLnkONAcrf6heCr</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>manisha</t>
+          <t>shafr1929</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2262.261</v>
+        <v>26.479</v>
       </c>
       <c r="D3" t="n">
-        <v>37.70435</v>
+        <v>0.4413166666666666</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>b3crKOGYK5aXLRTg4PeU</t>
+          <t>ygP4L4lRLuEg1M9TnEWm</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4823</v>
+        <v>1230</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi i cant book flight</t>
+          <t>Hi, I was searching for "Kakndy" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45937.53860857639</v>
+        <v>45938.53214108796</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>JEeF0LGKmNm6udm9QEEg</t>
+          <t>skTSR5xuiUUOpw55mvMY</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello! Thank you for reaching out to us.
-How can I assist you today?
+          <t xml:space="preserve">Hi shafr1929, I apologize for the inconvenience. It seems there may have been a typo in your search for "Colombo to Kandy." Let me assist you in finding the information you need. Please provide me with your travel dates and any specific preferences so I can help you with your booking.
 </t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45937.56479215278</v>
+        <v>45938.53244755787</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cd0VfPfyIVeQaHXUSM1G</t>
+          <t>H6phWzLnkONAcrf6heCr</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sanara1</t>
+          <t>shafr1929</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>143.563</v>
+        <v>16.418</v>
       </c>
       <c r="D4" t="n">
-        <v>2.392716666666666</v>
+        <v>0.2736333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0UFwplZsnmkRIyGWfRUj</t>
+          <t>NWabpBtrLW0bpiNyM8ho</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10918838</v>
+        <v>1230</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>If I make a reservation at sheraton for 2 people I get to bring 1 more person right? So should I make the reservation for 3 or 2 people?</t>
+          <t>Hi, I was searching for "Colombo to kandy" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45937.56382313657</v>
+        <v>45938.53225753472</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>EE4wObfbVyFC2rvlWSDh</t>
+          <t>skTSR5xuiUUOpw55mvMY</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>you can put the pax count as 3</t>
+          <t xml:space="preserve">Hi shafr1929, I apologize for the inconvenience. It seems there may have been a typo in your search for "Colombo to Kandy." Let me assist you in finding the information you need. Please provide me with your travel dates and any specific preferences so I can help you with your booking.
+</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45937.56548474537</v>
+        <v>45938.53244755787</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cd0VfPfyIVeQaHXUSM1G</t>
+          <t>H6phWzLnkONAcrf6heCr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sanara1</t>
+          <t>shafr1929</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>145.821</v>
+        <v>17.806</v>
       </c>
       <c r="D5" t="n">
-        <v>2.43035</v>
+        <v>0.2967666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>E9Xjb5PVKNf44MoCwYJk</t>
+          <t>xQsNMYx37TwZfMMzXOHY</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10918838</v>
+        <v>1230</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ok thank you</t>
+          <t>Hi, I was searching for "Colombo to.kandy" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45937.57535615741</v>
+        <v>45938.53280033565</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HpqeM3lZQveOTMjjY7iH</t>
+          <t>Dypj0xKzrc7JESVkBNUC</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">you welcome! feel free to ask any other clarification from us
-</t>
+          <t>Hi shafr1929, I apologize for the inconvenience. It seems there may have been a typo in your search for "Colombo to Kandy." Let me assist you in finding the information you need. Please provide me with your travel dates and any specific preferences so I can help you with your booking.</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45937.57704390046</v>
+        <v>45938.53300642361</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hMV9WIfdUIcnPn4FKiTF</t>
+          <t>H6phWzLnkONAcrf6heCr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>kitty</t>
+          <t>shafr1929</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80.999</v>
+        <v>5.975</v>
       </c>
       <c r="D6" t="n">
-        <v>1.349983333333333</v>
+        <v>0.09958333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>nHAFfp1SE5XboFc18tew</t>
+          <t>JSe69zFYYTg5e9CgcE2N</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10914638</v>
+        <v>1230</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "nnnnnn" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Colombo to kandy" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45937.48426976852</v>
+        <v>45938.53474179398</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>DL0OgOnZwTQ8l2cf1UEr</t>
+          <t>gWDv2b5HOlzKse4YYnFS</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -756,221 +755,11 @@
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45937.48520725694</v>
+        <v>45938.53481094907</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>hMV9WIfdUIcnPn4FKiTF</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>kitty</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>44.959</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7493166666666667</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>PDZuOv21SPwCJ0xgbMnw</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10914638</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "nnnnnn" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>45937.48468689815</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>DL0OgOnZwTQ8l2cf1UEr</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">hi
-</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>45937.48520725694</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>hMV9WIfdUIcnPn4FKiTF</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>kitty</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>12.754</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.2125666666666667</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>pHYdqM0QcYHuBmigpeoU</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10914638</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "nnnnnn" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>45937.48505964121</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>DL0OgOnZwTQ8l2cf1UEr</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">hi
-</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>45937.48520725694</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>hMV9WIfdUIcnPn4FKiTF</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>kitty</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>83.973</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.39955</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HRxVsfKuba5G9kMw6nc5</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10914638</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Qaz" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>45937.51145858796</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>ZkLP45X6HJEJSfAkDw6S</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Hi Kitty, I'm sorry but I couldn't find any results for "Qaz" in our database. Can you please provide more information or clarify what you're looking for so I can assist you better?</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>45937.51243049769</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Michelle Xavier</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>hMV9WIfdUIcnPn4FKiTF</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>kitty</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>72.36199999999999</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.206033333333333</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>M88bDiJfRyuUrA7XL1dW</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10914638</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Qaz" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>45937.51159297454</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>ZkLP45X6HJEJSfAkDw6S</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Hi Kitty, I'm sorry but I couldn't find any results for "Qaz" in our database. Can you please provide more information or clarify what you're looking for so I can assist you better?</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>45937.51243049769</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,207 +502,204 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>H6phWzLnkONAcrf6heCr</t>
+          <t>AbX0Fd9NRImFtqh9e25G</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>shafr1929</t>
+          <t>hirunierasha</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27.568</v>
+        <v>93.111</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4594666666666667</v>
+        <v>1.55185</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>E6TkbYo7RqnPfweYw0Ze</t>
+          <t>rkNGVl77KrIFpwDOjrfN</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1230</v>
+        <v>1634</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Colombo to kandy" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hightea" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45938.52681467593</v>
+        <v>45940.34102664352</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7QKVclnQJVYKnhdR13D1</t>
+          <t>FcoLob3orLW4xPsmXyM8</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi shafr1929, Thank you for bringing this to our attention. How can we assist you?
-</t>
+          <t>Hi Hirunierasha, I apologize for the confusion. It seems like there might have been a typo in your search. Are you looking for information on "High Tea"? Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45938.52713375</v>
+        <v>45940.34210431713</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>H6phWzLnkONAcrf6heCr</t>
+          <t>AbX0Fd9NRImFtqh9e25G</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>shafr1929</t>
+          <t>hirunierasha</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26.479</v>
+        <v>90.431</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4413166666666666</v>
+        <v>1.507183333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ygP4L4lRLuEg1M9TnEWm</t>
+          <t>8nzjS3cQvRMQXPyAkefO</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1230</v>
+        <v>1634</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kakndy" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hitea" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45938.53214108796</v>
+        <v>45940.34105766204</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>skTSR5xuiUUOpw55mvMY</t>
+          <t>FcoLob3orLW4xPsmXyM8</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi shafr1929, I apologize for the inconvenience. It seems there may have been a typo in your search for "Colombo to Kandy." Let me assist you in finding the information you need. Please provide me with your travel dates and any specific preferences so I can help you with your booking.
-</t>
+          <t>Hi Hirunierasha, I apologize for the confusion. It seems like there might have been a typo in your search. Are you looking for information on "High Tea"? Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45938.53244755787</v>
+        <v>45940.34210431713</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>H6phWzLnkONAcrf6heCr</t>
+          <t>AbX0Fd9NRImFtqh9e25G</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>shafr1929</t>
+          <t>hirunierasha</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.418</v>
+        <v>83.682</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2736333333333333</v>
+        <v>1.3947</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NWabpBtrLW0bpiNyM8ho</t>
+          <t>YHMsfelTEjXKszrdMCqO</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1230</v>
+        <v>1634</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Colombo to kandy" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Highyea" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45938.53225753472</v>
+        <v>45940.34113577546</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>skTSR5xuiUUOpw55mvMY</t>
+          <t>FcoLob3orLW4xPsmXyM8</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi shafr1929, I apologize for the inconvenience. It seems there may have been a typo in your search for "Colombo to Kandy." Let me assist you in finding the information you need. Please provide me with your travel dates and any specific preferences so I can help you with your booking.
-</t>
+          <t>Hi Hirunierasha, I apologize for the confusion. It seems like there might have been a typo in your search. Are you looking for information on "High Tea"? Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45938.53244755787</v>
+        <v>45940.34210431713</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>H6phWzLnkONAcrf6heCr</t>
+          <t>NYzD9zlAprt3oHiyyta2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>shafr1929</t>
+          <t>dollar</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.806</v>
+        <v>18.597</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2967666666666667</v>
+        <v>0.30995</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>xQsNMYx37TwZfMMzXOHY</t>
+          <t>mXANCgq3UH7N9tBldXTd</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1230</v>
+        <v>10914643</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Colombo to.kandy" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ghilkg" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45938.53280033565</v>
+        <v>45940.64720631945</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Dypj0xKzrc7JESVkBNUC</t>
+          <t>P3ULDVSUpRubrP12VXB3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hi shafr1929, I apologize for the inconvenience. It seems there may have been a typo in your search for "Colombo to Kandy." Let me assist you in finding the information you need. Please provide me with your travel dates and any specific preferences so I can help you with your booking.</t>
+          <t>Hi Dollar! I'm sorry, but I couldn't find any results for "Ghilkg." Can you please provide me with more information about what you're looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45938.53300642361</v>
+        <v>45940.6474215625</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -713,53 +710,583 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>H6phWzLnkONAcrf6heCr</t>
+          <t>TVjJsCQXxPJXHuO6zq9T</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>shafr1929</t>
+          <t>Shaby</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.975</v>
+        <v>90.21599999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09958333333333333</v>
+        <v>1.5036</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>JSe69zFYYTg5e9CgcE2N</t>
+          <t>h05VLsoYtmmYUMZBx75H</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1230</v>
+        <v>10919086</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Colombo to kandy" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45938.53474179398</v>
+        <v>45940.75148915509</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>gWDv2b5HOlzKse4YYnFS</t>
+          <t>Fce0fGrDbvjGKEQORKQC</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">hi
+          <t>Hi Shaby! How can I assist you today?</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>45940.75253332176</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>cd0VfPfyIVeQaHXUSM1G</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sanara1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28.789</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4798166666666667</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>VqRuw5fZXflxL1YTnqX3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>10918838</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hi 
+Can I cancel my reservation for the dinner buffet on the 19th please</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>45940.50837981481</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>e5QUu1wFScMo2t0FHf9r</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Before you cancel would you like to reschedule it to another date?
 </t>
         </is>
       </c>
-      <c r="K6" s="2" t="n">
-        <v>45938.53481094907</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="K7" s="2" t="n">
+        <v>45940.50871302083</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>cd0VfPfyIVeQaHXUSM1G</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sanara1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>56.132</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9355333333333333</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>mIzvWw2G2PcHfoYY57d3</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>10918838</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No thank you</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>45940.50997747685</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>VmtvPQont01YG0jOEdV6</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Okay you can cancel it in the app itself. Please go to the order history page and click on the order you want to cancel. There will be an option to cancel, kindly click that to cancel with a valid reason.
+</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>45940.51062715278</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>cd0VfPfyIVeQaHXUSM1G</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sanara1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>44.004</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7333999999999999</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>M02Ob0VkTmW7g2vaX8qw</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>10918838</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ok thank you</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>45940.51096728009</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>VXSyimoNVhxugfkuXgRB</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You're Welcome.
+</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>45940.51147658565</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pXmJgtpFFgmpq3kfSIzF</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>fnilu3325</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>78.53</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.308833333333333</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ZVJBvG03wEiOChGOwOEG</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>10917649</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hi Team i want to check whether this is confirmed</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>45940.51303465278</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>rAhKH6pUiWq2sir0lOEA</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes indeed its confirmed for 12th Oct.
+</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>45940.51394356482</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pXmJgtpFFgmpq3kfSIzF</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>fnilu3325</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>18.978</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3163</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>bOrgeLxvKNolG0c1uyhC</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>10917649</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>So when they ask about the booking i need to tell the order number is it?</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45940.51459449074</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>NGdq6TPquaaPbRsuorMd</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes show them the voucher and let them know your name and the order ID.
+</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>45940.51481414352</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pXmJgtpFFgmpq3kfSIzF</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>fnilu3325</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>37.464</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6244</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>czYLvX8XsQGREJI2eUrN</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>10917649</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Thank You</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45940.51525082176</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1TZskjRtxKGQSm29JMvI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No worries, Its our pleasure!
+</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>45940.51568443287</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pXmJgtpFFgmpq3kfSIzF</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>fnilu3325</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>17.191</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2865166666666666</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>JeXc46dklf8VczGacigd</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>10917649</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>There is another order for 12th Oct 
+Order Id 7203 
+can check that also confirmed</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45940.51770037037</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0uiF25K1jMtrcej8uUIa</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes both are combined and confirmed for the same date.
+</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>45940.51789934028</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pXmJgtpFFgmpq3kfSIzF</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fnilu3325</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>9.541</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1590166666666667</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HEjoVo6YiHUpZF6tunyF</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>10917649</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Thank You 🙏</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45940.51806045139</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Es8OLcvDu2HWdDo26iEa</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No worries! Have a nice day!
+</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>45940.51817087963</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>yXIpyhvwAJWm5dLU1z1P</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>natasha1993</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>81.185</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.353083333333333</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2u4iaiXtQpRTapzG01Lu</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>10917343</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45940.45536626157</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>bYBFMERevw7TIOOlkHWj</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Hi Natasha! How can I assist you today?</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>45940.45630590278</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>yXIpyhvwAJWm5dLU1z1P</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>natasha1993</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>57.62</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9603333333333333</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>sHHwAhahlqVoi0iVJ9qX</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>10917343</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>So I have won a manicure session from pure nail studio. How to redeem that?</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45940.45563900463</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>bYBFMERevw7TIOOlkHWj</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Hi Natasha! How can I assist you today?</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>45940.45630590278</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>shamraz</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,791 +502,477 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AbX0Fd9NRImFtqh9e25G</t>
+          <t>hTjxcVJddQXltpK6zZ0l</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hirunierasha</t>
+          <t>Amanda_H</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>93.111</v>
+        <v>6052.087</v>
       </c>
       <c r="D2" t="n">
-        <v>1.55185</v>
+        <v>100.8681166666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>rkNGVl77KrIFpwDOjrfN</t>
+          <t>b88s9EbqULF6PCJLMDpg</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1634</v>
+        <v>10919008</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hightea" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hey could you please check, the discounted galle face hotel lunch buffet price is not coming when I try to pay, per person it’s LKR 4200 something with the discount noh, but when I’m trying to pay it shows LKR 5000 something per person , so when checking out discount is not applying it seems</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45940.34102664352</v>
+        <v>45942.54467320602</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>FcoLob3orLW4xPsmXyM8</t>
+          <t>N5kA9sn0mbdOYcbQth5k</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hi Hirunierasha, I apologize for the confusion. It seems like there might have been a typo in your search. Are you looking for information on "High Tea"? Let me know how I can assist you further.</t>
+          <t xml:space="preserve">Please allow us sometime, we are checking on this. we will get back to you. 
+</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45940.34210431713</v>
+        <v>45942.61472050926</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AbX0Fd9NRImFtqh9e25G</t>
+          <t>kfl8NamMp5FmLoaqw3BU</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hirunierasha</t>
+          <t>Sanja</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>90.431</v>
+        <v>97.31</v>
       </c>
       <c r="D3" t="n">
-        <v>1.507183333333333</v>
+        <v>1.621833333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8nzjS3cQvRMQXPyAkefO</t>
+          <t>R2PCpTkH1h30eEmZWLUO</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1634</v>
+        <v>10918943</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hitea" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi i paid for a buffet cinnamon grand hotel colombo deal but it doesnt show me on your App</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45940.34105766204</v>
+        <v>45942.63726796296</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>FcoLob3orLW4xPsmXyM8</t>
+          <t>fgEWU0lQimVP0HxtnaCb</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hi Hirunierasha, I apologize for the confusion. It seems like there might have been a typo in your search. Are you looking for information on "High Tea"? Let me know how I can assist you further.</t>
+          <t xml:space="preserve">Hi Thank you for contacting aahaas
+</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45940.34210431713</v>
+        <v>45942.63839423611</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AbX0Fd9NRImFtqh9e25G</t>
+          <t>kfl8NamMp5FmLoaqw3BU</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hirunierasha</t>
+          <t>Sanja</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>83.682</v>
+        <v>82.43000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>1.3947</v>
+        <v>1.373833333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>YHMsfelTEjXKszrdMCqO</t>
+          <t>a0FsM65TRfVhF86SKaJL</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1634</v>
+        <v>10918943</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Highyea" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>In my bank the Transaction done</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45940.34113577546</v>
+        <v>45942.63744018519</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>FcoLob3orLW4xPsmXyM8</t>
+          <t>fgEWU0lQimVP0HxtnaCb</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hi Hirunierasha, I apologize for the confusion. It seems like there might have been a typo in your search. Are you looking for information on "High Tea"? Let me know how I can assist you further.</t>
+          <t xml:space="preserve">Hi Thank you for contacting aahaas
+</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45940.34210431713</v>
+        <v>45942.63839423611</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NYzD9zlAprt3oHiyyta2</t>
+          <t>kfl8NamMp5FmLoaqw3BU</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dollar</t>
+          <t>Sanja</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18.597</v>
+        <v>92.229</v>
       </c>
       <c r="D5" t="n">
-        <v>0.30995</v>
+        <v>1.53715</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>mXANCgq3UH7N9tBldXTd</t>
+          <t>vloYLuToVhZ3b4IHHwJU</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10914643</v>
+        <v>10918943</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ghilkg" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>I didnt get that</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45940.64720631945</v>
+        <v>45942.6395537037</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>P3ULDVSUpRubrP12VXB3</t>
+          <t>K7GXNpswqD2RpdivJSu6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hi Dollar! I'm sorry, but I couldn't find any results for "Ghilkg." Can you please provide me with more information about what you're looking for so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">Let us check on this, we will get back to you with regards to this
+</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45940.6474215625</v>
+        <v>45942.64062116898</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TVjJsCQXxPJXHuO6zq9T</t>
+          <t>kfl8NamMp5FmLoaqw3BU</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Shaby</t>
+          <t>Sanja</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>90.21599999999999</v>
+        <v>84.48099999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5036</v>
+        <v>1.408016666666666</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>h05VLsoYtmmYUMZBx75H</t>
+          <t>34kExNFQ2X8ght2hi8oA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10919086</v>
+        <v>10918943</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>Thats the Problem</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45940.75148915509</v>
+        <v>45942.63964337963</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Fce0fGrDbvjGKEQORKQC</t>
+          <t>K7GXNpswqD2RpdivJSu6</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hi Shaby! How can I assist you today?</t>
+          <t xml:space="preserve">Let us check on this, we will get back to you with regards to this
+</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45940.75253332176</v>
+        <v>45942.64062116898</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cd0VfPfyIVeQaHXUSM1G</t>
+          <t>kfl8NamMp5FmLoaqw3BU</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sanara1</t>
+          <t>Sanja</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28.789</v>
+        <v>33.183</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4798166666666667</v>
+        <v>0.55305</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>VqRuw5fZXflxL1YTnqX3</t>
+          <t>G4VKYoQAcKnDwEsWjBBf</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10918838</v>
+        <v>10918943</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi 
-Can I cancel my reservation for the dinner buffet on the 19th please</t>
+          <t>12'397.32lkr</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45940.50837981481</v>
+        <v>45942.64023710648</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>e5QUu1wFScMo2t0FHf9r</t>
+          <t>K7GXNpswqD2RpdivJSu6</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Before you cancel would you like to reschedule it to another date?
+          <t xml:space="preserve">Let us check on this, we will get back to you with regards to this
 </t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45940.50871302083</v>
+        <v>45942.64062116898</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cd0VfPfyIVeQaHXUSM1G</t>
+          <t>kfl8NamMp5FmLoaqw3BU</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sanara1</t>
+          <t>Sanja</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>56.132</v>
+        <v>19.311</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9355333333333333</v>
+        <v>0.32185</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>mIzvWw2G2PcHfoYY57d3</t>
+          <t>PYs7aENZVE7RtLpzAtB4</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10918838</v>
+        <v>10918943</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>No thank you</t>
+          <t>Apple holidays pvt LTd</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45940.50997747685</v>
+        <v>45942.64039766203</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>VmtvPQont01YG0jOEdV6</t>
+          <t>K7GXNpswqD2RpdivJSu6</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Okay you can cancel it in the app itself. Please go to the order history page and click on the order you want to cancel. There will be an option to cancel, kindly click that to cancel with a valid reason.
+          <t xml:space="preserve">Let us check on this, we will get back to you with regards to this
 </t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45940.51062715278</v>
+        <v>45942.64062116898</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cd0VfPfyIVeQaHXUSM1G</t>
+          <t>kfl8NamMp5FmLoaqw3BU</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sanara1</t>
+          <t>Sanja</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44.004</v>
+        <v>12.058</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7333999999999999</v>
+        <v>0.2009666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>M02Ob0VkTmW7g2vaX8qw</t>
+          <t>NYr59QIpFBzD2jPRSZPu</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10918838</v>
+        <v>10918943</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ok thank you</t>
+          <t>Was charged</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45940.51096728009</v>
+        <v>45942.6404816088</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>VXSyimoNVhxugfkuXgRB</t>
+          <t>K7GXNpswqD2RpdivJSu6</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">You're Welcome.
+          <t xml:space="preserve">Let us check on this, we will get back to you with regards to this
 </t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45940.51147658565</v>
+        <v>45942.64062116898</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pXmJgtpFFgmpq3kfSIzF</t>
+          <t>kfl8NamMp5FmLoaqw3BU</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>fnilu3325</t>
+          <t>Sanja</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>78.53</v>
+        <v>107.495</v>
       </c>
       <c r="D10" t="n">
-        <v>1.308833333333333</v>
+        <v>1.791583333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ZVJBvG03wEiOChGOwOEG</t>
+          <t>wJI3JpaHkjlT5nnsV3uN</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10917649</v>
+        <v>10918943</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hi Team i want to check whether this is confirmed</t>
+          <t>00 94 77 850 3805</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45940.51303465278</v>
+        <v>45942.64228976852</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>rAhKH6pUiWq2sir0lOEA</t>
+          <t>nTQjIFfM6w3Kd2hWWfp7</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yes indeed its confirmed for 12th Oct.
+          <t xml:space="preserve">We are checking on this. Please allow us sometime to sort this issue.
 </t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45940.51394356482</v>
+        <v>45942.64353392361</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>pXmJgtpFFgmpq3kfSIzF</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>fnilu3325</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>18.978</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.3163</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>bOrgeLxvKNolG0c1uyhC</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10917649</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>So when they ask about the booking i need to tell the order number is it?</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>45940.51459449074</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>NGdq6TPquaaPbRsuorMd</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yes show them the voucher and let them know your name and the order ID.
-</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>45940.51481414352</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>pXmJgtpFFgmpq3kfSIzF</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>fnilu3325</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>37.464</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.6244</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>czYLvX8XsQGREJI2eUrN</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10917649</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Thank You</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>45940.51525082176</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1TZskjRtxKGQSm29JMvI</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">No worries, Its our pleasure!
-</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>45940.51568443287</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>pXmJgtpFFgmpq3kfSIzF</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>fnilu3325</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>17.191</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.2865166666666666</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>JeXc46dklf8VczGacigd</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10917649</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>There is another order for 12th Oct 
-Order Id 7203 
-can check that also confirmed</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>45940.51770037037</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0uiF25K1jMtrcej8uUIa</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yes both are combined and confirmed for the same date.
-</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>45940.51789934028</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>pXmJgtpFFgmpq3kfSIzF</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>fnilu3325</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>9.541</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1590166666666667</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>HEjoVo6YiHUpZF6tunyF</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10917649</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Thank You 🙏</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>45940.51806045139</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Es8OLcvDu2HWdDo26iEa</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">No worries! Have a nice day!
-</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>45940.51817087963</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>yXIpyhvwAJWm5dLU1z1P</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>natasha1993</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>81.185</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.353083333333333</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2u4iaiXtQpRTapzG01Lu</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10917343</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Hello</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>45940.45536626157</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>bYBFMERevw7TIOOlkHWj</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Hi Natasha! How can I assist you today?</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>45940.45630590278</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>shamraz</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>yXIpyhvwAJWm5dLU1z1P</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>natasha1993</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>57.62</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.9603333333333333</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>sHHwAhahlqVoi0iVJ9qX</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10917343</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>So I have won a manicure session from pure nail studio. How to redeem that?</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>45940.45563900463</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>bYBFMERevw7TIOOlkHWj</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Hi Natasha! How can I assist you today?</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>45940.45630590278</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,49 +502,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hTjxcVJddQXltpK6zZ0l</t>
+          <t>3q1IHxG0nxbX2pRDVby4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amanda_H</t>
+          <t>Embark</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6052.087</v>
+        <v>68.069</v>
       </c>
       <c r="D2" t="n">
-        <v>100.8681166666667</v>
+        <v>1.134483333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>b88s9EbqULF6PCJLMDpg</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10919008</v>
+          <t>SFpoM7PCbNrCnBDyAqGR</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10914654</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hey could you please check, the discounted galle face hotel lunch buffet price is not coming when I try to pay, per person it’s LKR 4200 something with the discount noh, but when I’m trying to pay it shows LKR 5000 something per person , so when checking out discount is not applying it seems</t>
+          <t>Nsnsjs</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45942.54467320602</v>
+        <v>45943.44103396991</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N5kA9sn0mbdOYcbQth5k</t>
+          <t>XZXU2d2Rf3Ws7RB336Hc</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please allow us sometime, we are checking on this. we will get back to you. 
-</t>
+          <t>Hello Embark! Thank you for reaching out to us. How can I assist you today?</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45942.61472050926</v>
+        <v>45943.44182180556</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -555,49 +556,50 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>kfl8NamMp5FmLoaqw3BU</t>
+          <t>ILWQFbLAj9c2pOs9v8dx</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sanja</t>
+          <t>Embark</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>97.31</v>
+        <v>94.72199999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>1.621833333333333</v>
+        <v>1.5787</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>R2PCpTkH1h30eEmZWLUO</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10918943</v>
+          <t>eSk6gK4EERZt8qNFcql8</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10914654</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi i paid for a buffet cinnamon grand hotel colombo deal but it doesnt show me on your App</t>
+          <t>Hi, I was searching for "Curl" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45942.63726796296</v>
+        <v>45943.50061423611</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>fgEWU0lQimVP0HxtnaCb</t>
+          <t>9PThVEJGtE6RWSHNDx7a</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi Thank you for contacting aahaas
-</t>
+          <t>Hi Embark! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about what you're searching for? I'd be happy to assist you in finding the information you need.</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45942.63839423611</v>
+        <v>45943.50171055555</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -608,49 +610,50 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>kfl8NamMp5FmLoaqw3BU</t>
+          <t>ILWQFbLAj9c2pOs9v8dx</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sanja</t>
+          <t>Embark</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>82.43000000000001</v>
+        <v>76.19199999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>1.373833333333333</v>
+        <v>1.269866666666666</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>a0FsM65TRfVhF86SKaJL</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10918943</v>
+          <t>FfCztYDizMdkUWUU1QyQ</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10914654</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>In my bank the Transaction done</t>
+          <t>Hi, I was searching for "Curl" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45942.63744018519</v>
+        <v>45943.50082870371</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>fgEWU0lQimVP0HxtnaCb</t>
+          <t>9PThVEJGtE6RWSHNDx7a</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi Thank you for contacting aahaas
-</t>
+          <t>Hi Embark! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about what you're searching for? I'd be happy to assist you in finding the information you need.</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45942.63839423611</v>
+        <v>45943.50171055555</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -661,49 +664,51 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>kfl8NamMp5FmLoaqw3BU</t>
+          <t>ILWQFbLAj9c2pOs9v8dx</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sanja</t>
+          <t>Embark</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>92.229</v>
+        <v>87.452</v>
       </c>
       <c r="D5" t="n">
-        <v>1.53715</v>
+        <v>1.457533333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>vloYLuToVhZ3b4IHHwJU</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10918943</v>
+          <t>FvwzPfAUzuVnSbtXLb34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10914654</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>I didnt get that</t>
+          <t>Hi, I was searching for "D" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45942.6395537037</v>
+        <v>45943.52725442129</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>K7GXNpswqD2RpdivJSu6</t>
+          <t>2g5WKJRye7GPtdwBe1WB</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Let us check on this, we will get back to you with regards to this
+          <t xml:space="preserve">Hi
 </t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45942.64062116898</v>
+        <v>45943.52826659722</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -714,49 +719,54 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>kfl8NamMp5FmLoaqw3BU</t>
+          <t>J6qFSPf6tnF1T4IOV1R9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sanja</t>
+          <t>Dillonhris</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>84.48099999999999</v>
+        <v>98.523</v>
       </c>
       <c r="D6" t="n">
-        <v>1.408016666666666</v>
+        <v>1.64205</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>34kExNFQ2X8ght2hi8oA</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10918943</v>
+          <t>cozckRi4d1k5QaJACCap</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10919063</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Thats the Problem</t>
+          <t>Their s a notification 
+me colombo high tea offer
+So how can i find that details 
+I try to search but cant get</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45942.63964337963</v>
+        <v>45943.69280627315</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>K7GXNpswqD2RpdivJSu6</t>
+          <t>luTRSCUonDIsU8qDKxiF</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Let us check on this, we will get back to you with regards to this
+          <t xml:space="preserve">Hi
 </t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45942.64062116898</v>
+        <v>45943.69394658565</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -767,49 +777,51 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>kfl8NamMp5FmLoaqw3BU</t>
+          <t>M19pozi4jOthfZSfPKXH</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sanja</t>
+          <t>account</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33.183</v>
+        <v>84.114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.55305</v>
+        <v>1.4019</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>G4VKYoQAcKnDwEsWjBBf</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10918943</v>
+          <t>BmPga6jYxJJXB145SkRd</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10914649</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12'397.32lkr</t>
+          <t>Hi, I was searching for "Shiatsu Massage By KashiSpa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45942.64023710648</v>
+        <v>45943.43709402778</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>K7GXNpswqD2RpdivJSu6</t>
+          <t>ZXIbxBtfKhmAZYsgzwFd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Let us check on this, we will get back to you with regards to this
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
 </t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45942.64062116898</v>
+        <v>45943.43806756944</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -820,157 +832,542 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>kfl8NamMp5FmLoaqw3BU</t>
+          <t>Q7SG32mOUdQ0LmprOWrU</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sanja</t>
+          <t>hwishara</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19.311</v>
+        <v>103.704</v>
       </c>
       <c r="D8" t="n">
-        <v>0.32185</v>
+        <v>1.7284</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PYs7aENZVE7RtLpzAtB4</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10918943</v>
+          <t>p9EgBGPAUXLWTWkrY4ON</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10918508</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Apple holidays pvt LTd</t>
+          <t>Hi i have booked a ticked and need to change the return date</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45942.64039766203</v>
+        <v>45943.80563508102</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>K7GXNpswqD2RpdivJSu6</t>
+          <t>u3K68aNFwNUJwZpF38KC</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Let us check on this, we will get back to you with regards to this
+          <t xml:space="preserve">Hello 
 </t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45942.64062116898</v>
+        <v>45943.8068353588</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shehan_darwish</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>kfl8NamMp5FmLoaqw3BU</t>
+          <t>Q7SG32mOUdQ0LmprOWrU</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sanja</t>
+          <t>hwishara</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12.058</v>
+        <v>95.02500000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2009666666666667</v>
+        <v>1.58375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NYr59QIpFBzD2jPRSZPu</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10918943</v>
+          <t>vglwOxLqbKfRRdyXi3j3</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10918508</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Was charged</t>
+          <t>Air ticket *</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45942.6404816088</v>
+        <v>45943.80573553241</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>K7GXNpswqD2RpdivJSu6</t>
+          <t>u3K68aNFwNUJwZpF38KC</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Let us check on this, we will get back to you with regards to this
+          <t xml:space="preserve">Hello 
 </t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45942.64062116898</v>
+        <v>45943.8068353588</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shehan_darwish</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>kfl8NamMp5FmLoaqw3BU</t>
+          <t>Q7SG32mOUdQ0LmprOWrU</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sanja</t>
+          <t>hwishara</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>107.495</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>1.791583333333333</v>
+        <v>0.152</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>wJI3JpaHkjlT5nnsV3uN</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10918943</v>
+          <t>Q3GCipv5mlxh56Qyquii</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10918508</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>00 94 77 850 3805</t>
+          <t>Order 7329</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45942.64228976852</v>
+        <v>45943.80687569444</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>nTQjIFfM6w3Kd2hWWfp7</t>
+          <t>V12Ljfl7h5tdFuSlhPpn</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">We are checking on this. Please allow us sometime to sort this issue.
+          <t>Can i have the order id</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>45943.80698125</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>shehan_darwish</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q7SG32mOUdQ0LmprOWrU</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>hwishara</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>425.118</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.0853</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>UN82pVuC7Jjd4W6xd2cy</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10918508</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45943.80766765046</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>n54grD5h58k8HExwKK25</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">yes can i know the dates that needed to be changed
 </t>
         </is>
       </c>
-      <c r="K10" s="2" t="n">
-        <v>45942.64353392361</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="K11" s="2" t="n">
+        <v>45943.81258799769</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>shehan_darwish</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Q7SG32mOUdQ0LmprOWrU</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>hwishara</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>73.107</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.21845</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>X3WcTcj9QySbJfRg06bD</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10918508</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Order 7329</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45943.81174185185</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>n54grD5h58k8HExwKK25</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">yes can i know the dates that needed to be changed
+</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>45943.81258799769</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>shehan_darwish</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Q7SG32mOUdQ0LmprOWrU</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hwishara</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>10.551</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.17585</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>lOr5PQSZgzqpXfYd5oJc</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10918508</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Return date 26?</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45943.81246587963</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>n54grD5h58k8HExwKK25</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">yes can i know the dates that needed to be changed
+</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>45943.81258799769</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>shehan_darwish</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Q7SG32mOUdQ0LmprOWrU</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>hwishara</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>55.061</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9176833333333333</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>i03KCOfG9aEBSsl2GfR5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10918508</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>17th</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45943.81279290509</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>htSZfgzpRHqKEN1LeatC</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">when is your departure date
+</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>45943.81343018518</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>shehan_darwish</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Q7SG32mOUdQ0LmprOWrU</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>hwishara</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>266.573</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.442883333333333</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Ck8OIVRW4ztkuUOCuqsb</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10918508</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Thanks</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45943.81398767361</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>mhy21KxsalshPVjjDSCU</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>i have informed the reservation team can you kindly contact us in the morning to 071 174 4227 via WhatsApp. I have already informed them you just need to contact this number in the morning so they will guide you ahead</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>45943.81707300926</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>shehan_darwish</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>iHT34N3AxCwBNdf1gehh</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>account</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>87.751</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.462516666666667</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>hxz2IeT1Rra0312IAmAP</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10914649</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45943.39307318287</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ZfbkmY3HTXl62CD5R0Zw</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rfgyuijo
+</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>45943.39408881944</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>vWJW8qpNDhdc51uxgCgh</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>388.309</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.471816666666667</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>uW5O8MuW0FdI1gH153r4</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>AHS_Guest</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Privare" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45943.52369364583</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>aOYpjJOoLW2hovKfIku6</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>45943.52818796296</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Dishmi</t>
         </is>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,874 +502,732 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3q1IHxG0nxbX2pRDVby4</t>
+          <t>01ZKhdiZltgQu6CpQx7e</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Embark</t>
+          <t>abdul7653</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>68.069</v>
+        <v>34.419</v>
       </c>
       <c r="D2" t="n">
-        <v>1.134483333333333</v>
+        <v>0.57365</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SFpoM7PCbNrCnBDyAqGR</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10914654</t>
-        </is>
+          <t>OhnoC8Q4ldIpVhenygyj</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3759</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nsnsjs</t>
+          <t>Hi, I was searching for "Speed bay" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45943.44103396991</v>
+        <v>45946.74072667824</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>XZXU2d2Rf3Ws7RB336Hc</t>
+          <t>ynO5RHQwqqiBZwJEyGgZ</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hello Embark! Thank you for reaching out to us. How can I assist you today?</t>
+          <t>Hi Abdul7653! I'm sorry, but I couldn't find any information on "Speed bay." Can you provide me with more details so I can better assist you in finding what you're looking for? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45943.44182180556</v>
+        <v>45946.7411250463</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ILWQFbLAj9c2pOs9v8dx</t>
+          <t>2KQ96SgHabtvBrVh2pBF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Embark</t>
+          <t>5898pv6y7p@privaterelay.appleid.com</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>94.72199999999999</v>
+        <v>773.985</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5787</v>
+        <v>12.89975</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>eSk6gK4EERZt8qNFcql8</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10914654</t>
-        </is>
+          <t>luHdWssyD4CbgJW2tijI</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>633</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Curl" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kar" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45943.50061423611</v>
+        <v>45946.75279925926</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9PThVEJGtE6RWSHNDx7a</t>
+          <t>OoXfVYco2Xu2DbYUIedT</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hi Embark! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about what you're searching for? I'd be happy to assist you in finding the information you need.</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45943.50171055555</v>
+        <v>45946.76175741898</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ILWQFbLAj9c2pOs9v8dx</t>
+          <t>2KQ96SgHabtvBrVh2pBF</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Embark</t>
+          <t>5898pv6y7p@privaterelay.appleid.com</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>76.19199999999999</v>
+        <v>772.54</v>
       </c>
       <c r="D4" t="n">
-        <v>1.269866666666666</v>
+        <v>12.87566666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FfCztYDizMdkUWUU1QyQ</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10914654</t>
-        </is>
+          <t>8mouYDEB3pJ8vtq8c9Fn</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>633</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Curl" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kart" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45943.50082870371</v>
+        <v>45946.7528159838</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>9PThVEJGtE6RWSHNDx7a</t>
+          <t>OoXfVYco2Xu2DbYUIedT</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hi Embark! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about what you're searching for? I'd be happy to assist you in finding the information you need.</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45943.50171055555</v>
+        <v>45946.76175741898</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ILWQFbLAj9c2pOs9v8dx</t>
+          <t>2KQ96SgHabtvBrVh2pBF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Embark</t>
+          <t>5898pv6y7p@privaterelay.appleid.com</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>87.452</v>
+        <v>770.301</v>
       </c>
       <c r="D5" t="n">
-        <v>1.457533333333333</v>
+        <v>12.83835</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FvwzPfAUzuVnSbtXLb34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10914654</t>
-        </is>
+          <t>WZcx7amAl8UsPAlCtPuR</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>633</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "D" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Karting" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45943.52725442129</v>
+        <v>45946.75284189815</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2g5WKJRye7GPtdwBe1WB</t>
+          <t>OoXfVYco2Xu2DbYUIedT</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45943.52826659722</v>
+        <v>45946.76175741898</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>J6qFSPf6tnF1T4IOV1R9</t>
+          <t>2KQ96SgHabtvBrVh2pBF</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dillonhris</t>
+          <t>5898pv6y7p@privaterelay.appleid.com</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>98.523</v>
+        <v>687.171</v>
       </c>
       <c r="D6" t="n">
-        <v>1.64205</v>
+        <v>11.45285</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>cozckRi4d1k5QaJACCap</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10919063</t>
-        </is>
+          <t>eO3JJGGcvHbhFH2faD5J</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>633</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Their s a notification 
-me colombo high tea offer
-So how can i find that details 
-I try to search but cant get</t>
+          <t>Hi, I was searching for "Cinno" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45943.69280627315</v>
+        <v>45946.75380405092</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>luTRSCUonDIsU8qDKxiF</t>
+          <t>OoXfVYco2Xu2DbYUIedT</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45943.69394658565</v>
+        <v>45946.76175741898</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M19pozi4jOthfZSfPKXH</t>
+          <t>2KQ96SgHabtvBrVh2pBF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>account</t>
+          <t>5898pv6y7p@privaterelay.appleid.com</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>84.114</v>
+        <v>599.646</v>
       </c>
       <c r="D7" t="n">
-        <v>1.4019</v>
+        <v>9.9941</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BmPga6jYxJJXB145SkRd</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10914649</t>
-        </is>
+          <t>uEGSJQRIMF7GhakXKdBQ</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>633</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Shiatsu Massage By KashiSpa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Shirt" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45943.43709402778</v>
+        <v>45946.75481707176</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ZXIbxBtfKhmAZYsgzwFd</t>
+          <t>OoXfVYco2Xu2DbYUIedT</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
-</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45943.43806756944</v>
+        <v>45946.76175741898</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q7SG32mOUdQ0LmprOWrU</t>
+          <t>2KQ96SgHabtvBrVh2pBF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>hwishara</t>
+          <t>5898pv6y7p@privaterelay.appleid.com</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>103.704</v>
+        <v>593.049</v>
       </c>
       <c r="D8" t="n">
-        <v>1.7284</v>
+        <v>9.88415</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>p9EgBGPAUXLWTWkrY4ON</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10918508</t>
-        </is>
+          <t>JinFubHEKRxkcRiNvGVC</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>633</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hi i have booked a ticked and need to change the return date</t>
+          <t>Hi, I was searching for "Tea" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45943.80563508102</v>
+        <v>45946.75489342592</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>u3K68aNFwNUJwZpF38KC</t>
+          <t>OoXfVYco2Xu2DbYUIedT</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello 
-</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45943.8068353588</v>
+        <v>45946.76175741898</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>shehan_darwish</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q7SG32mOUdQ0LmprOWrU</t>
+          <t>2KQ96SgHabtvBrVh2pBF</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>hwishara</t>
+          <t>5898pv6y7p@privaterelay.appleid.com</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>95.02500000000001</v>
+        <v>582.189</v>
       </c>
       <c r="D9" t="n">
-        <v>1.58375</v>
+        <v>9.703149999999999</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>vglwOxLqbKfRRdyXi3j3</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10918508</t>
-        </is>
+          <t>9hzpV5ntZmwTW6fPIHIz</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>633</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Air ticket *</t>
+          <t>Hi, I was searching for "Tea" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45943.80573553241</v>
+        <v>45946.75501912037</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>u3K68aNFwNUJwZpF38KC</t>
+          <t>OoXfVYco2Xu2DbYUIedT</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello 
-</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45943.8068353588</v>
+        <v>45946.76175741898</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>shehan_darwish</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q7SG32mOUdQ0LmprOWrU</t>
+          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>hwishara</t>
+          <t>Ammar Anees</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.119999999999999</v>
+        <v>765.2380000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.152</v>
+        <v>12.75396666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Q3GCipv5mlxh56Qyquii</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>10918508</t>
-        </is>
+          <t>2BPppHdgQYgCTCQKTUz6</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>4220</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Order 7329</t>
+          <t>Hi, I was searching for "Pine tree" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45943.80687569444</v>
+        <v>45946.75271328704</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>V12Ljfl7h5tdFuSlhPpn</t>
+          <t>YG2TkZ5DSMdRaBjpvv9D</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Can i have the order id</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45943.80698125</v>
+        <v>45946.76157020833</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>shehan_darwish</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q7SG32mOUdQ0LmprOWrU</t>
+          <t>C0s4PSGAvFSBRXt7HYCY</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>hwishara</t>
+          <t>nuwan28</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>425.118</v>
+        <v>55.623</v>
       </c>
       <c r="D11" t="n">
-        <v>7.0853</v>
+        <v>0.9270499999999999</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>UN82pVuC7Jjd4W6xd2cy</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>10918508</t>
-        </is>
+          <t>lxhnjkINjyiTinaO5Cmz</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>10919354</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>??</t>
+          <t>Is the way book lunch buffet?</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45943.80766765046</v>
+        <v>45946.54422771991</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>n54grD5h58k8HExwKK25</t>
+          <t>S1Nh68abAnCrGNRX1snm</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">yes can i know the dates that needed to be changed
+          <t xml:space="preserve">Are you referring to the Lunch Buffet at cinnamon life?
 </t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45943.81258799769</v>
+        <v>45946.54487150463</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>shehan_darwish</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q7SG32mOUdQ0LmprOWrU</t>
+          <t>C0s4PSGAvFSBRXt7HYCY</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>hwishara</t>
+          <t>nuwan28</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>73.107</v>
+        <v>56.747</v>
       </c>
       <c r="D12" t="n">
-        <v>1.21845</v>
+        <v>0.9457833333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>X3WcTcj9QySbJfRg06bD</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10918508</t>
-        </is>
+          <t>zhytQT0nwZudsYvYsWL2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>10919354</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Order 7329</t>
+          <t>Yes, cinnamon life at city of dream</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45943.81174185185</v>
+        <v>45946.54557837963</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>n54grD5h58k8HExwKK25</t>
+          <t>AOL7qtfXKcrOKjFbJuVo</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">yes can i know the dates that needed to be changed
+          <t xml:space="preserve">The product you are having a conversation in now is for the cinnamon life hotel. Kindly Type Lunch buffet at Cinnamon life to find the product.
 </t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45943.81258799769</v>
+        <v>45946.54623517361</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>shehan_darwish</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q7SG32mOUdQ0LmprOWrU</t>
+          <t>NAzZj9EbwdrVmQ7UMSM8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>hwishara</t>
+          <t>Vaushah 1562</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10.551</v>
+        <v>349.448</v>
       </c>
       <c r="D13" t="n">
-        <v>0.17585</v>
+        <v>5.824133333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>lOr5PQSZgzqpXfYd5oJc</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>10918508</t>
-        </is>
+          <t>RdMXOe2L9xPwKPs9XNLe</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>36</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Return date 26?</t>
+          <t>Hi, I was searching for "Sap" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45943.81246587963</v>
+        <v>45946.75788482639</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>n54grD5h58k8HExwKK25</t>
+          <t>oPeOr0zAjZxhb6x4klme</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">yes can i know the dates that needed to be changed
-</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45943.81258799769</v>
+        <v>45946.76192936343</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>shehan_darwish</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q7SG32mOUdQ0LmprOWrU</t>
+          <t>NAzZj9EbwdrVmQ7UMSM8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>hwishara</t>
+          <t>Vaushah 1562</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>55.061</v>
+        <v>308.57</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9176833333333333</v>
+        <v>5.142833333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>i03KCOfG9aEBSsl2GfR5</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>10918508</t>
-        </is>
+          <t>TLGtDOSIGKVlTCCJGc3I</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>36</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>17th</t>
+          <t>Hi, I was searching for "Spa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45943.81279290509</v>
+        <v>45946.75835795139</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>htSZfgzpRHqKEN1LeatC</t>
+          <t>oPeOr0zAjZxhb6x4klme</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">when is your departure date
-</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45943.81343018518</v>
+        <v>45946.76192936343</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>shehan_darwish</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q7SG32mOUdQ0LmprOWrU</t>
+          <t>looxZuyUQRZi08FCl3iS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>hwishara</t>
+          <t>abdul7653</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>266.573</v>
+        <v>360.569</v>
       </c>
       <c r="D15" t="n">
-        <v>4.442883333333333</v>
+        <v>6.009483333333334</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ck8OIVRW4ztkuUOCuqsb</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>10918508</t>
-        </is>
+          <t>RXHFxFPE3uXE3hZONtYl</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3759</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Thanks</t>
+          <t>Hiii
+When will I get my refund?????????</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45943.81398767361</v>
+        <v>45946.77154670139</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>mhy21KxsalshPVjjDSCU</t>
+          <t>ab2di5vFWpuENDpuWBSt</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>i have informed the reservation team can you kindly contact us in the morning to 071 174 4227 via WhatsApp. I have already informed them you just need to contact this number in the morning so they will guide you ahead</t>
+          <t xml:space="preserve">You will get it later
+</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45943.81707300926</v>
+        <v>45946.7757199537</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>shehan_darwish</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>iHT34N3AxCwBNdf1gehh</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>account</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>87.751</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.462516666666667</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>hxz2IeT1Rra0312IAmAP</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>10914649</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>45943.39307318287</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>ZfbkmY3HTXl62CD5R0Zw</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">rfgyuijo
-</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>45943.39408881944</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>vWJW8qpNDhdc51uxgCgh</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>388.309</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6.471816666666667</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>uW5O8MuW0FdI1gH153r4</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>AHS_Guest</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Privare" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>45943.52369364583</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>aOYpjJOoLW2hovKfIku6</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hi
-</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>45943.52818796296</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,732 +502,489 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01ZKhdiZltgQu6CpQx7e</t>
+          <t>5yozsrQaLvcL9t5og9rp</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>abdul7653</t>
+          <t>sau.g5428</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34.419</v>
+        <v>94.869</v>
       </c>
       <c r="D2" t="n">
-        <v>0.57365</v>
+        <v>1.58115</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OhnoC8Q4ldIpVhenygyj</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3759</v>
+          <t>ysPfWwI5UAk2nDnVY12X</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10910310</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Speed bay" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sofi" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45946.74072667824</v>
+        <v>45947.47351943287</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ynO5RHQwqqiBZwJEyGgZ</t>
+          <t>6qQdoC52fvav9Lq8LZlt</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hi Abdul7653! I'm sorry, but I couldn't find any information on "Speed bay." Can you provide me with more details so I can better assist you in finding what you're looking for? Let me know how I can help!</t>
+          <t>Hi Sau.g5428, I'm sorry, but could you please provide me with more information about "Sofi" so that I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45946.7411250463</v>
+        <v>45947.47461745371</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2KQ96SgHabtvBrVh2pBF</t>
+          <t>FmgCl7qSxg4EWv03bifU</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5898pv6y7p@privaterelay.appleid.com</t>
+          <t>Shaluka</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>773.985</v>
+        <v>121.966</v>
       </c>
       <c r="D3" t="n">
-        <v>12.89975</v>
+        <v>2.032766666666666</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>luHdWssyD4CbgJW2tijI</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>633</v>
+          <t>qn0qionr5pyQcPb79CPJ</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10919402</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kar" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sofia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45946.75279925926</v>
+        <v>45947.98199196759</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>OoXfVYco2Xu2DbYUIedT</t>
+          <t>6SXicJsPvd33U4KbubkI</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t xml:space="preserve">Hi, how can we assist you?
+</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45946.76175741898</v>
+        <v>45947.98340361111</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2KQ96SgHabtvBrVh2pBF</t>
+          <t>FmgCl7qSxg4EWv03bifU</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5898pv6y7p@privaterelay.appleid.com</t>
+          <t>Shaluka</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>772.54</v>
+        <v>118.699</v>
       </c>
       <c r="D4" t="n">
-        <v>12.87566666666667</v>
+        <v>1.978316666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8mouYDEB3pJ8vtq8c9Fn</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>633</v>
+          <t>LHlPDKfmbSLbMsE9DTZT</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10919402</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kart" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45946.7528159838</v>
+        <v>45947.99225631944</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>OoXfVYco2Xu2DbYUIedT</t>
+          <t>6kTcspnxxOUtrPXGcxrb</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t xml:space="preserve">Hi
+</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45946.76175741898</v>
+        <v>45947.99363015046</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2KQ96SgHabtvBrVh2pBF</t>
+          <t>FmgCl7qSxg4EWv03bifU</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5898pv6y7p@privaterelay.appleid.com</t>
+          <t>Shaluka</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>770.301</v>
+        <v>12.233</v>
       </c>
       <c r="D5" t="n">
-        <v>12.83835</v>
+        <v>0.2038833333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WZcx7amAl8UsPAlCtPuR</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>633</v>
+          <t>IGXnIgyPyFGhLjbptS73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10919402</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Karting" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Marr" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45946.75284189815</v>
+        <v>45947.99348856482</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>OoXfVYco2Xu2DbYUIedT</t>
+          <t>6kTcspnxxOUtrPXGcxrb</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t xml:space="preserve">Hi
+</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45946.76175741898</v>
+        <v>45947.99363015046</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2KQ96SgHabtvBrVh2pBF</t>
+          <t>U2LVg6PPPxh4TlYBjFQo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5898pv6y7p@privaterelay.appleid.com</t>
+          <t>dabar4462</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>687.171</v>
+        <v>96.398</v>
       </c>
       <c r="D6" t="n">
-        <v>11.45285</v>
+        <v>1.606633333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>eO3JJGGcvHbhFH2faD5J</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>633</v>
+          <t>g3rhgWYbs1rUz0gNhBu6</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10917369</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinno" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi Can i know more details regarding your Radisson brunch offer</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45946.75380405092</v>
+        <v>45947.4673825463</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>OoXfVYco2Xu2DbYUIedT</t>
+          <t>HJFNvS5VFfJWHGMezd42</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t xml:space="preserve">Hi, thank you for reaching out to us.
+</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45946.76175741898</v>
+        <v>45947.46849826389</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2KQ96SgHabtvBrVh2pBF</t>
+          <t>U2LVg6PPPxh4TlYBjFQo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5898pv6y7p@privaterelay.appleid.com</t>
+          <t>dabar4462</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>599.646</v>
+        <v>24.53</v>
       </c>
       <c r="D7" t="n">
-        <v>9.9941</v>
+        <v>0.4088333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>uEGSJQRIMF7GhakXKdBQ</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>633</v>
+          <t>bLykgPmgsA8WRijpMGLQ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10917369</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Shirt" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>I saw something called beer brunch is that still available?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45946.75481707176</v>
+        <v>45947.47142443287</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>OoXfVYco2Xu2DbYUIedT</t>
+          <t>7oHpeZofJp1AVHvhh7Gs</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>Is there anything else I can assist you 
+with?</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45946.76175741898</v>
+        <v>45947.47170834491</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2KQ96SgHabtvBrVh2pBF</t>
+          <t>U2LVg6PPPxh4TlYBjFQo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5898pv6y7p@privaterelay.appleid.com</t>
+          <t>dabar4462</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>593.049</v>
+        <v>130.194</v>
       </c>
       <c r="D8" t="n">
-        <v>9.88415</v>
+        <v>2.1699</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>JinFubHEKRxkcRiNvGVC</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>633</v>
+          <t>nu27nGTvgtDYc7lMWS9q</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10917369</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Tea" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Per person getting 4 beers?</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45946.75489342592</v>
+        <v>45947.4750153588</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>OoXfVYco2Xu2DbYUIedT</t>
+          <t>4nfCJ4djNLalqIx4z6tv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t xml:space="preserve">Yes, it is for per person
+</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45946.76175741898</v>
+        <v>45947.4765222338</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2KQ96SgHabtvBrVh2pBF</t>
+          <t>U2LVg6PPPxh4TlYBjFQo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5898pv6y7p@privaterelay.appleid.com</t>
+          <t>dabar4462</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>582.189</v>
+        <v>135.943</v>
       </c>
       <c r="D9" t="n">
-        <v>9.703149999999999</v>
+        <v>2.265716666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9hzpV5ntZmwTW6fPIHIz</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>633</v>
+          <t>iHHqmK1KUdqWXaQBeqVX</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10917369</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Tea" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Could you please confirm whether the lunch buffet offer at Cinnamon Life applies on weekends as well?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45946.75501912037</v>
+        <v>45947.51275025463</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>OoXfVYco2Xu2DbYUIedT</t>
+          <t>9WBRJ44WWov9MQ10IA8x</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t xml:space="preserve">Yes, it does apply on weekends as well. 
+</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45946.76175741898</v>
+        <v>45947.51432366898</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ammar Anees</t>
-        </is>
-      </c>
+          <t>vWJW8qpNDhdc51uxgCgh</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>765.2380000000001</v>
+        <v>99.316</v>
       </c>
       <c r="D10" t="n">
-        <v>12.75396666666667</v>
+        <v>1.655266666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2BPppHdgQYgCTCQKTUz6</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4220</v>
+          <t>QWaL23Jdv7r1T5qgoKTy</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>AHS_Guest</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Pine tree" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi ... I can't register... Why ?</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45946.75271328704</v>
+        <v>45947.52615802083</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>YG2TkZ5DSMdRaBjpvv9D</t>
+          <t>Qa1kK8tsVIwuXvPFoH1i</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>Chvuvugu, we apologize for any inconvenience you may have experienced while trying to register. Please provide us with more details so that we can assist you in completing the registration process. Thank you for your patience.</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45946.76157020833</v>
+        <v>45947.52730751158</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>C0s4PSGAvFSBRXt7HYCY</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>nuwan28</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>55.623</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9270499999999999</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>lxhnjkINjyiTinaO5Cmz</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10919354</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Is the way book lunch buffet?</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>45946.54422771991</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>S1Nh68abAnCrGNRX1snm</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Are you referring to the Lunch Buffet at cinnamon life?
-</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>45946.54487150463</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>C0s4PSGAvFSBRXt7HYCY</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>nuwan28</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>56.747</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.9457833333333333</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>zhytQT0nwZudsYvYsWL2</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10919354</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes, cinnamon life at city of dream</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>45946.54557837963</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>AOL7qtfXKcrOKjFbJuVo</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The product you are having a conversation in now is for the cinnamon life hotel. Kindly Type Lunch buffet at Cinnamon life to find the product.
-</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>45946.54623517361</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>NAzZj9EbwdrVmQ7UMSM8</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Vaushah 1562</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>349.448</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5.824133333333333</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>RdMXOe2L9xPwKPs9XNLe</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>36</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Sap" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>45946.75788482639</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>oPeOr0zAjZxhb6x4klme</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Hi</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>45946.76192936343</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>NAzZj9EbwdrVmQ7UMSM8</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Vaushah 1562</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>308.57</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5.142833333333333</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TLGtDOSIGKVlTCCJGc3I</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>36</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Spa" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>45946.75835795139</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>oPeOr0zAjZxhb6x4klme</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Hi</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>45946.76192936343</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>looxZuyUQRZi08FCl3iS</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>abdul7653</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>360.569</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6.009483333333334</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>RXHFxFPE3uXE3hZONtYl</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3759</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Hiii
-When will I get my refund?????????</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>45946.77154670139</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>ab2di5vFWpuENDpuWBSt</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">You will get it later
-</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>45946.7757199537</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,150 +502,145 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5yozsrQaLvcL9t5og9rp</t>
+          <t>1eFEDFCjn3EtrBmhAdwh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sau.g5428</t>
+          <t>thake7933</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>94.869</v>
+        <v>136.747</v>
       </c>
       <c r="D2" t="n">
-        <v>1.58115</v>
+        <v>2.279116666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ysPfWwI5UAk2nDnVY12X</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10910310</t>
-        </is>
+          <t>ZqxhOagJD8A3YuQhnf4x</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>10918096</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sofi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Rooms for fam" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45947.47351943287</v>
+        <v>45949.6500625</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>6qQdoC52fvav9Lq8LZlt</t>
+          <t>kyOiIINV1DpJRhClsDMf</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hi Sau.g5428, I'm sorry, but could you please provide me with more information about "Sofi" so that I can assist you better? Thank you!</t>
+          <t xml:space="preserve">Hi
+</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45947.47461745371</v>
+        <v>45949.65164521991</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FmgCl7qSxg4EWv03bifU</t>
+          <t>1eFEDFCjn3EtrBmhAdwh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shaluka</t>
+          <t>thake7933</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>121.966</v>
+        <v>136.644</v>
       </c>
       <c r="D3" t="n">
-        <v>2.032766666666666</v>
+        <v>2.2774</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>qn0qionr5pyQcPb79CPJ</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10919402</t>
-        </is>
+          <t>AOW6kz5FRM9crbJKLTu2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>10918096</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sofia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Rooms" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45947.98199196759</v>
+        <v>45949.65006369213</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6SXicJsPvd33U4KbubkI</t>
+          <t>kyOiIINV1DpJRhClsDMf</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi, how can we assist you?
+          <t xml:space="preserve">Hi
 </t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45947.98340361111</v>
+        <v>45949.65164521991</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FmgCl7qSxg4EWv03bifU</t>
+          <t>1eFEDFCjn3EtrBmhAdwh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Shaluka</t>
+          <t>thake7933</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>118.699</v>
+        <v>132.987</v>
       </c>
       <c r="D4" t="n">
-        <v>1.978316666666667</v>
+        <v>2.21645</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LHlPDKfmbSLbMsE9DTZT</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10919402</t>
-        </is>
+          <t>us5oBk2faB1lDfTbBNx4</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>10918096</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Rooms for fam" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45947.99225631944</v>
+        <v>45949.65010601852</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6kTcspnxxOUtrPXGcxrb</t>
+          <t>kyOiIINV1DpJRhClsDMf</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -655,52 +650,50 @@
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45947.99363015046</v>
+        <v>45949.65164521991</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FmgCl7qSxg4EWv03bifU</t>
+          <t>1eFEDFCjn3EtrBmhAdwh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Shaluka</t>
+          <t>thake7933</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12.233</v>
+        <v>130.664</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2038833333333333</v>
+        <v>2.177733333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>IGXnIgyPyFGhLjbptS73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10919402</t>
-        </is>
+          <t>tx79BOvrPGY0MsFHgp9u</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>10918096</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Marr" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Rooms for fam" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45947.99348856482</v>
+        <v>45949.6501329051</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6kTcspnxxOUtrPXGcxrb</t>
+          <t>kyOiIINV1DpJRhClsDMf</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -710,281 +703,2169 @@
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45947.99363015046</v>
+        <v>45949.65164521991</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>U2LVg6PPPxh4TlYBjFQo</t>
+          <t>1eFEDFCjn3EtrBmhAdwh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dabar4462</t>
+          <t>thake7933</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>96.398</v>
+        <v>126.426</v>
       </c>
       <c r="D6" t="n">
-        <v>1.606633333333333</v>
+        <v>2.1071</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>g3rhgWYbs1rUz0gNhBu6</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10917369</t>
-        </is>
+          <t>I1vcc3RLDDTIIhkvYEuo</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>10918096</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi Can i know more details regarding your Radisson brunch offer</t>
+          <t>Hi, I was searching for "Rooms for fam" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45947.4673825463</v>
+        <v>45949.65018195602</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>HJFNvS5VFfJWHGMezd42</t>
+          <t>kyOiIINV1DpJRhClsDMf</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi, thank you for reaching out to us.
+          <t xml:space="preserve">Hi
 </t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45947.46849826389</v>
+        <v>45949.65164521991</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>U2LVg6PPPxh4TlYBjFQo</t>
+          <t>47XdJLZaUwwzxXw6RZt3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dabar4462</t>
+          <t>pribal27</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24.53</v>
+        <v>3104.791</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4088333333333333</v>
+        <v>51.74651666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>bLykgPmgsA8WRijpMGLQ</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10917369</t>
-        </is>
+          <t>TAKHu23fqG1OB02b6YWT</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>10919254</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>I saw something called beer brunch is that still available?</t>
+          <t>Hi, I was searching for "Sndyo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45947.47142443287</v>
+        <v>45949.7834818287</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>7oHpeZofJp1AVHvhh7Gs</t>
+          <t>XgTNsoKKAjuQruTgc5Ie</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Is there anything else I can assist you 
-with?</t>
+          <t>Hi pribal27, I apologize for the inconvenience. Can you please provide me with more details about what you are looking for so I can better assist you in your search? Thank you.</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45947.47170834491</v>
+        <v>45949.81941690972</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>U2LVg6PPPxh4TlYBjFQo</t>
+          <t>47XdJLZaUwwzxXw6RZt3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dabar4462</t>
+          <t>pribal27</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>130.194</v>
+        <v>3102.364</v>
       </c>
       <c r="D8" t="n">
-        <v>2.1699</v>
+        <v>51.70606666666666</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>nu27nGTvgtDYc7lMWS9q</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10917369</t>
-        </is>
+          <t>EynVWxAjRAqdxBnb7TVC</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>10919254</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Per person getting 4 beers?</t>
+          <t>Hi, I was searching for "Sim" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45947.4750153588</v>
+        <v>45949.78350991898</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4nfCJ4djNLalqIx4z6tv</t>
+          <t>XgTNsoKKAjuQruTgc5Ie</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yes, it is for per person
-</t>
+          <t>Hi pribal27, I apologize for the inconvenience. Can you please provide me with more details about what you are looking for so I can better assist you in your search? Thank you.</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45947.4765222338</v>
+        <v>45949.81941690972</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>U2LVg6PPPxh4TlYBjFQo</t>
+          <t>47XdJLZaUwwzxXw6RZt3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dabar4462</t>
+          <t>pribal27</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>135.943</v>
+        <v>3100.866</v>
       </c>
       <c r="D9" t="n">
-        <v>2.265716666666667</v>
+        <v>51.6811</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>iHHqmK1KUdqWXaQBeqVX</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10917369</t>
-        </is>
+          <t>ri5JtVzF4Rph8V0YVMog</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>10919254</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Could you please confirm whether the lunch buffet offer at Cinnamon Life applies on weekends as well?</t>
+          <t>Hi, I was searching for "Sind" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45947.51275025463</v>
+        <v>45949.78352725694</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>9WBRJ44WWov9MQ10IA8x</t>
+          <t>XgTNsoKKAjuQruTgc5Ie</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yes, it does apply on weekends as well. 
-</t>
+          <t>Hi pribal27, I apologize for the inconvenience. Can you please provide me with more details about what you are looking for so I can better assist you in your search? Thank you.</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45947.51432366898</v>
+        <v>45949.81941690972</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vWJW8qpNDhdc51uxgCgh</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>8gX0WP7zCUsz7wlmeiqc</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>achintha</t>
+        </is>
+      </c>
       <c r="C10" t="n">
-        <v>99.316</v>
+        <v>75.55800000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>1.655266666666667</v>
+        <v>1.2593</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>QWaL23Jdv7r1T5qgoKTy</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>AHS_Guest</t>
-        </is>
+          <t>GIu4ieacSYh74DNVynyX</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>10918193</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hi ... I can't register... Why ?</t>
+          <t>Hi, I was searching for "Hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45947.52615802083</v>
+        <v>45949.34415193287</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Qa1kK8tsVIwuXvPFoH1i</t>
+          <t>gep1Tla3wQplySJOqsem</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Chvuvugu, we apologize for any inconvenience you may have experienced while trying to register. Please provide us with more details so that we can assist you in completing the registration process. Thank you for your patience.</t>
+          <t xml:space="preserve">Hi
+</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45947.52730751158</v>
+        <v>45949.34502644676</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dba9qQsGer0pxUw4jdXc</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>szx9pd24qg@privaterelay.appleid.com</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>80.691</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.34485</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ygt7y0azdFhLYmntB1wM</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>10919435</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Negam" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45949.30813258102</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>EPq5vNp4hkOOg3XmgoGs</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HI
+</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>45949.30906650463</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ExbFYZXG5NTkP1Un3vpI</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>samanalie</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>76.496</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.274933333333333</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>vCo2EPSd0IkAwaPO9cLi</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>10913636</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Sofia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45949.4455994213</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>lKfmKjCb0CnwubxoXdXY</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>45949.44648479167</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FmgCl7qSxg4EWv03bifU</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Shaluka</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>79.07299999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.317883333333333</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nC2x4YYDfpUgPvUKV7VS</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>10919402</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Grandbe" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45949.57979677083</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>UVxsYGEotR940dNbuXfm</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>45949.5807119676</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HFIoOzgArQA6HJtmb4PV</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>vimukthi53</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>9154.146000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>152.5691</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0BdRn4vLJDlnj1mBGY3a</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>10919454</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bangcock" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45949.71299570602</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2W9iK5Vo1EKLg0vkzt02</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Hi vimukthi53, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search so that I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>45949.81894646991</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HFIoOzgArQA6HJtmb4PV</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>vimukthi53</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>9149.509</v>
+      </c>
+      <c r="D15" t="n">
+        <v>152.4918166666667</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>zjPHLpCYNoPtIirJkwgo</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>10919454</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bancock" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45949.713049375</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2W9iK5Vo1EKLg0vkzt02</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Hi vimukthi53, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search so that I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>45949.81894646991</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HFIoOzgArQA6HJtmb4PV</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>vimukthi53</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>9142.576999999999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>152.3762833333333</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>b7lMEqAEUsyMdck6BnT0</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>10919454</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45949.71312960648</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2W9iK5Vo1EKLg0vkzt02</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Hi vimukthi53, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search so that I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>45949.81894646991</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ive2CbhJaIv85wOtK5Nu</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ishara123</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>443.27</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7.387833333333333</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>nhqkmdzNHhfK3Wkc5ZT2</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>10919453</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Malay" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45949.97042443287</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0pdcetusaTYcpNqkm1z2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Ishara123, I'm sorry for the inconvenience.contact us to +94 71 174 4227 to get your request Done </t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>45949.97555487268</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MAq4XLCpT0sHQld6X30Q</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Anuruddha Suraweera</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>78.887</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.314783333333333</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>7IrE8w0HM0STcPz1lENG</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>10919440</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Rental Apa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45949.43973137732</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>3epmxtGvmWniJl6hDQmd</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>45949.44064442129</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MAq4XLCpT0sHQld6X30Q</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Anuruddha Suraweera</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>54.883</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9147166666666667</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>jD9FeBTMAgWKuqoPHLAo</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>10919440</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Rental" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45949.44000920139</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>3epmxtGvmWniJl6hDQmd</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>45949.44064442129</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>N9PhwNqZDGHyKmM1RGSG</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TharusikaRod</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>97.79900000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.629983333333333</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7h8J9IUnWcJkobBqjl1X</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>8044</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Sofia col" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45949.58105645833</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DPGiH6G6KjcJCLsprTUX</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>45949.58218839121</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>N9PhwNqZDGHyKmM1RGSG</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TharusikaRod</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>63.84</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>jPjQkjvKRAD6GgvdWaBs</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>8044</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Sofia colombo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45949.58144950232</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DPGiH6G6KjcJCLsprTUX</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>45949.58218839121</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ptbr1bJ26UklJsTN9qmA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Rakshanah Radhakrishnan</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>121.392</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.0232</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SdWNDeedEpKN4elUIO6f</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>10919459</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bali" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45949.9014165625</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>EFzqq2Rym8DnduMsP4RD</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Hello Rakshanah Radhakrishnan! I'm sorry you couldn't find what you were looking for. Bali is a popular destination, and I'd be happy to assist you in finding the perfect vacation package. Can you please provide me with more details on your travel preferences so I can better assist you?</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>45949.9028215625</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ptbr1bJ26UklJsTN9qmA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Rakshanah Radhakrishnan</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>196.605</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.27675</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SuEGI4E1ncT7WCSeZ1q3</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>10919459</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Thaila" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45949.90347100695</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>M6SSbXgvuruprA60Fisx</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Hi Rakshanah Radhakrishnan! I'm sorry you couldn't find what you were looking for. Please contact us to +94 71 174 4227 to assist you with your requirments</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>45949.90574652778</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Q2Ky5Z2wz7xXjbmUkIuV</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>chathura0525</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>78.45699999999999</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.307616666666667</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>IBhIGhRTl7JEyeK58drH</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>10916409</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Yamato" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45949.67945416667</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>4C063L6oYiEvzfJxrji2</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>45949.6803622338</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SZ63QGz1DeL7xOAt013e</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>deepnamo</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>86.392</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.439866666666667</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MIINBpjyivc62Pu36Uul</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>10919183</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Kngai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45949.5812757176</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>gdQJFRxIFnIMWAqdWn6A</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi 
+</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>45949.582275625</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SZ63QGz1DeL7xOAt013e</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>deepnamo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>84.13500000000001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.40225</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>EG4DmGEliJjXe6lfeiNA</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>10919183</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Kings" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45949.58130184028</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>gdQJFRxIFnIMWAqdWn6A</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi 
+</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>45949.582275625</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>hAIUqnnkuRmYt7B7YrHP</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>tissa</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2998.744</v>
+      </c>
+      <c r="D27" t="n">
+        <v>49.97906666666667</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>KggepGFenVO3IGF2cOIa</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>10919450</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45949.78489315973</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>CL7Do6MbJ4hmKY7VVrYk</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Hi Istissa, I'm sorry but we don't have any results for "Bang" in our database. Can you provide more details or clarify what you're looking for so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>45949.81960084491</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ih5DEUjaTiYFhz4YzW0C</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>rehan5145</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>84.548</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.409133333333333</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>FS3aTFV9WCZVCTTZEOtL</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>10910395</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Sho" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45949.63901148148</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>pMXA2EbbVbOedlw9R82H</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>45949.63999004629</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ih5DEUjaTiYFhz4YzW0C</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rehan5145</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>83.066</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.384433333333333</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>yJDYmUKvXF3dZdwrKDHx</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>10910395</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Short term" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45949.63902863426</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>pMXA2EbbVbOedlw9R82H</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>45949.63999004629</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>jf4ZRaOYP9kzLJcpuTWa</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nuwa05</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1300.258</v>
+      </c>
+      <c r="D30" t="n">
+        <v>21.67096666666667</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>KPPW5E8obyAG3JPKkhD6</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>10916703</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Restaure" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45949.42051596065</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>3QGq2iSKpHucfTuvy4PZ</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>45949.43556524305</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>kRM8cH9I7uPwy9bhAYKC</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>RuwindaPremasiri94</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>508.463</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8.474383333333334</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>sMXBto87LXYo7s0QbotX</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>10919399</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>45949.81388097222</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>SqQnP7yh2xoa8GeWqrbp</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Hi RuwindaPremasiri94, I apologize for the inconvenience. It seems like there might have been a temporary issue with our search results. Let me help you find information about Malaysia. Can you please provide me with more details about what you are looking for in Malaysia?</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>45949.81976596064</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>mFGfVOevcEdZNHTPZfHd</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>G P</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>126.795</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.11325</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>c4v7p48kRjDR2uJX1sz4</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>10919451</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45949.68811775463</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>6VYVqh0KitFMBAmc7nbo</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Hi,Thank you for reaching out for Aahaas</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>45949.68958528935</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>mk3Pr2PggsXWmBQShzfe</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>shamalka123</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>156.293</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.604883333333333</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5CfvMa6ujTyOV8rwaPN0</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>10918984</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>45949.97967237268</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>tlHi8vnyaxye4aBaAB4f</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Hi shamalka123! I'm sorry that you couldn't find any results for "Thailand." Let me assist you with that. Kindly contact us to +94 71 174 4227</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>45949.98148131945</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>oGCwKiyXvI4aCE0NblTR</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>fawaz</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3821.452</v>
+      </c>
+      <c r="D34" t="n">
+        <v>63.69086666666667</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>qoMaZ07p9piuqE7L0lDE</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>10919456</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bbga" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>45949.77498731481</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Q7eH7PdkM492Lw2mu6on</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Hi Fawaz! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Bbga" or "Bangkoka" so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>45949.81921708334</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>oGCwKiyXvI4aCE0NblTR</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>fawaz</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3818.832</v>
+      </c>
+      <c r="D35" t="n">
+        <v>63.6472</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>vuAyWLkPELTbJ9RSLUnf</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>10919456</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bangkoka" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>45949.77501763889</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Q7eH7PdkM492Lw2mu6on</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Hi Fawaz! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Bbga" or "Bangkoka" so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>45949.81921708334</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>oi512aGn4kl96aSdFDJH</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>nirmani19</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>235.107</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.91845</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>BbHkQqYk1YgrfXAF7qCD</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>10919449</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Dinner" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>45949.65205427083</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>meTWQQb0rvwG1EoQKsHk</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi nirmani19! I apologize for the inconvenience. Can you please provide me with more details about the type of dinner you are looking for? This will help me assist you better.
+</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>45949.65477541667</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>oi512aGn4kl96aSdFDJH</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>nirmani19</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>121.181</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.019683333333333</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>LnwlnJQXrqfiwCkQgzEa</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>10919449</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Inis" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>45949.65898122685</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>UuFSm2B7s6xE9O6vXlVW</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>45949.66038378472</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>oi512aGn4kl96aSdFDJH</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>nirmani19</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>59.229</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.98715</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ilIlJBmRXPOPGvjaGES7</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>10919449</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Ibis Bugis" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>45949.65969826389</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>UuFSm2B7s6xE9O6vXlVW</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>45949.66038378472</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>oi512aGn4kl96aSdFDJH</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>nirmani19</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>12.467</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2077833333333333</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ZGvuoTFqsrwfzddqxA6D</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>10919449</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Inis" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>45949.66023949074</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>UuFSm2B7s6xE9O6vXlVW</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>45949.66038378472</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>zIU640L30xUw1vVNBZNf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>sampathrsn@gmail.com</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>78.80500000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.313416666666667</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>gdwHCSb2R2RmMiG3NFaN</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>10919438</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>45949.34362442129</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>PjwYRIjewYaRLtqBY8Lp</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>45949.3445365162</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>zIU640L30xUw1vVNBZNf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>sampathrsn@gmail.com</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>77.611</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.293516666666667</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>CzV94HfTv4GS9HplNZpN</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>10919438</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45949.34363824074</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>PjwYRIjewYaRLtqBY8Lp</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>45949.3445365162</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>zIU640L30xUw1vVNBZNf</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>sampathrsn@gmail.com</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>78.042</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.3007</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>IlF6Cv3PhDMCDdKNN60J</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>10919438</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "PaBangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>45949.34708990741</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>swE12aTBMqMVxSkU7iQz</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>45949.34799317129</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>zIU640L30xUw1vVNBZNf</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>sampathrsn@gmail.com</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>75.119</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.251983333333333</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>cORptHrmn4sTgsbuAAg4</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>10919438</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "PatatunamBangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>45949.34712373843</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>swE12aTBMqMVxSkU7iQz</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>45949.34799317129</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>zIU640L30xUw1vVNBZNf</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>sampathrsn@gmail.com</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>74.01000000000001</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.2335</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>9LRvJkWaRaH0DhREeY2T</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>10919438</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Patatunam,Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>45949.34713657408</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>swE12aTBMqMVxSkU7iQz</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>45949.34799317129</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>zIU640L30xUw1vVNBZNf</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>sampathrsn@gmail.com</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>65.163</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.08605</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ZCkNwVPQVvumF1BQ1FWs</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>10919438</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Paratu" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>45949.34723896991</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>swE12aTBMqMVxSkU7iQz</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>45949.34799317129</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>zIU640L30xUw1vVNBZNf</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>sampathrsn@gmail.com</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>54.103</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9017166666666667</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>g1s5LtfYn5EVXLiWFrdH</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>10919438</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Kc place ," but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>45949.34736697916</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>swE12aTBMqMVxSkU7iQz</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi
+</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>45949.34799317129</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,261 +502,261 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1eFEDFCjn3EtrBmhAdwh</t>
+          <t>4HvnnfuXngGgbVX3iwOB</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>thake7933</t>
+          <t>lathika</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>136.747</v>
+        <v>119.135</v>
       </c>
       <c r="D2" t="n">
-        <v>2.279116666666667</v>
+        <v>1.985583333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ZqxhOagJD8A3YuQhnf4x</t>
+          <t>fkrdgBVc5k8pXvyfXILs</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10918096</v>
+        <v>4642</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Rooms for fam" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Singa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45949.6500625</v>
+        <v>45950.70179821759</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>kyOiIINV1DpJRhClsDMf</t>
+          <t>q1pMgWGPSfivijA5LDxR</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
+          <t xml:space="preserve">Thank you for reaching out to Aahaas.
 </t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45949.65164521991</v>
+        <v>45950.70317709491</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1eFEDFCjn3EtrBmhAdwh</t>
+          <t>4HvnnfuXngGgbVX3iwOB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>thake7933</t>
+          <t>lathika</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>136.644</v>
+        <v>93.629</v>
       </c>
       <c r="D3" t="n">
-        <v>2.2774</v>
+        <v>1.560483333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AOW6kz5FRM9crbJKLTu2</t>
+          <t>rbN02o5fRf3xA4m0Xqrb</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10918096</v>
+        <v>4642</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Rooms" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Singapore" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45949.65006369213</v>
+        <v>45950.70433842592</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>kyOiIINV1DpJRhClsDMf</t>
+          <t>MdXl3Q2eLKPDFJTRonD5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
+          <t xml:space="preserve">How can we assist you?
 </t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45949.65164521991</v>
+        <v>45950.70542209491</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1eFEDFCjn3EtrBmhAdwh</t>
+          <t>4HvnnfuXngGgbVX3iwOB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>thake7933</t>
+          <t>lathika</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>132.987</v>
+        <v>123.325</v>
       </c>
       <c r="D4" t="n">
-        <v>2.21645</v>
+        <v>2.055416666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>us5oBk2faB1lDfTbBNx4</t>
+          <t>SdGWe6dD7TNYYYgval8D</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10918096</v>
+        <v>4642</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Rooms for fam" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Singapore" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45949.65010601852</v>
+        <v>45950.71200929398</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>kyOiIINV1DpJRhClsDMf</t>
+          <t>YMauChQD4ZNAsALdzvPm</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
+          <t xml:space="preserve">drop a message if you need any assiatance.
 </t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45949.65164521991</v>
+        <v>45950.71343666667</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1eFEDFCjn3EtrBmhAdwh</t>
+          <t>4HvnnfuXngGgbVX3iwOB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>thake7933</t>
+          <t>lathika</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>130.664</v>
+        <v>204.523</v>
       </c>
       <c r="D5" t="n">
-        <v>2.177733333333333</v>
+        <v>3.408716666666666</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>tx79BOvrPGY0MsFHgp9u</t>
+          <t>0Q3mA6aMjGM4SQqCVBG0</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10918096</v>
+        <v>4642</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Rooms for fam" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Singapore  universal studio, garden by the bay merlion park,zoo, shopping" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45949.6501329051</v>
+        <v>45950.71409357639</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>kyOiIINV1DpJRhClsDMf</t>
+          <t>XZpNWAvwDT4iYzIFAkbH</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
+          <t xml:space="preserve">drop a message if you need any assiatance.drop a message if you need any assiatance.
 </t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45949.65164521991</v>
+        <v>45950.71646074074</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1eFEDFCjn3EtrBmhAdwh</t>
+          <t>5aTixbKl31Rpxun1KWiB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>thake7933</t>
+          <t>Hashanlakindu</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>126.426</v>
+        <v>83.01900000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>2.1071</v>
+        <v>1.38365</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>I1vcc3RLDDTIIhkvYEuo</t>
+          <t>FuovP9FauaWWcamL54sD</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10918096</v>
+        <v>10919083</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Rooms for fam" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Coloo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45949.65018195602</v>
+        <v>45950.65786980324</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>kyOiIINV1DpJRhClsDMf</t>
+          <t>YMRw5Qp2WUlhwusOAdC4</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
+          <t xml:space="preserve">hi
 </t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45949.65164521991</v>
+        <v>45950.65883067129</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -767,205 +767,208 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>47XdJLZaUwwzxXw6RZt3</t>
+          <t>5aTixbKl31Rpxun1KWiB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pribal27</t>
+          <t>Hashanlakindu</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3104.791</v>
+        <v>130.324</v>
       </c>
       <c r="D7" t="n">
-        <v>51.74651666666667</v>
+        <v>2.172066666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TAKHu23fqG1OB02b6YWT</t>
+          <t>wFHzY4rw8dNZKmiaBcHP</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10919254</v>
+        <v>10919083</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sndyo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Coul" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45949.7834818287</v>
+        <v>45950.79569615741</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>XgTNsoKKAjuQruTgc5Ie</t>
+          <t>yLSO7iXgrsG9k09JwQfN</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hi pribal27, I apologize for the inconvenience. Can you please provide me with more details about what you are looking for so I can better assist you in your search? Thank you.</t>
+          <t xml:space="preserve">Drop a message if you need any assistance.
+</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45949.81941690972</v>
+        <v>45950.79720453704</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>47XdJLZaUwwzxXw6RZt3</t>
+          <t>5aTixbKl31Rpxun1KWiB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pribal27</t>
+          <t>Hashanlakindu</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3102.364</v>
+        <v>127.792</v>
       </c>
       <c r="D8" t="n">
-        <v>51.70606666666666</v>
+        <v>2.129866666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EynVWxAjRAqdxBnb7TVC</t>
+          <t>gUKlkSxBTzAJlxylFZDY</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10919254</v>
+        <v>10919083</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sim" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Calu" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45949.78350991898</v>
+        <v>45950.79572546297</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>XgTNsoKKAjuQruTgc5Ie</t>
+          <t>yLSO7iXgrsG9k09JwQfN</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hi pribal27, I apologize for the inconvenience. Can you please provide me with more details about what you are looking for so I can better assist you in your search? Thank you.</t>
+          <t xml:space="preserve">Drop a message if you need any assistance.
+</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45949.81941690972</v>
+        <v>45950.79720453704</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>47XdJLZaUwwzxXw6RZt3</t>
+          <t>83Sn1UfrPrlwpENsi92y</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pribal27</t>
+          <t>Sineka1997</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3100.866</v>
+        <v>119.165</v>
       </c>
       <c r="D9" t="n">
-        <v>51.6811</v>
+        <v>1.986083333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ri5JtVzF4Rph8V0YVMog</t>
+          <t>2GMYCUC1pvRrT1gmO6Oh</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10919254</v>
+        <v>10914604</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sind" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dublo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45949.78352725694</v>
+        <v>45950.65445224537</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>XgTNsoKKAjuQruTgc5Ie</t>
+          <t>ngaNQmvNuDcXOw1tn0wt</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Hi pribal27, I apologize for the inconvenience. Can you please provide me with more details about what you are looking for so I can better assist you in your search? Thank you.</t>
+          <t xml:space="preserve">Hi, thank you for reaching out to Aahaas.
+</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45949.81941690972</v>
+        <v>45950.65583146991</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8gX0WP7zCUsz7wlmeiqc</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>achintha</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>75.55800000000001</v>
+        <v>84.13</v>
       </c>
       <c r="D10" t="n">
-        <v>1.2593</v>
+        <v>1.402166666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GIu4ieacSYh74DNVynyX</t>
+          <t>n0mRjsU0q8hTgBUS8ADN</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10918193</v>
+        <v>10916927</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Manicure rupe" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45949.34415193287</v>
+        <v>45950.56919275463</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>gep1Tla3wQplySJOqsem</t>
+          <t>FuAWEFjPPTowLQ292uke</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
 </t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45949.34502644676</v>
+        <v>45950.57016648148</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -976,102 +979,102 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dba9qQsGer0pxUw4jdXc</t>
+          <t>BHWRBfKcRg4SrazuoDdP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>szx9pd24qg@privaterelay.appleid.com</t>
+          <t>Hashanlakindu</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>80.691</v>
+        <v>111.872</v>
       </c>
       <c r="D11" t="n">
-        <v>1.34485</v>
+        <v>1.864533333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ygt7y0azdFhLYmntB1wM</t>
+          <t>BJwD5TzDS9N1llcL9OEE</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10919435</v>
+        <v>10919083</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Negam" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hiar length aka ta price change wanawada ?</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45949.30813258102</v>
+        <v>45950.79887822916</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>EPq5vNp4hkOOg3XmgoGs</t>
+          <t>QJ0ZI50Za0m2N8Og5XO6</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">HI
+          <t xml:space="preserve">Thank you reaching out to Aahaas.
 </t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45949.30906650463</v>
+        <v>45950.80017304398</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ExbFYZXG5NTkP1Un3vpI</t>
+          <t>BWVQItgnwxpYNXV8BhTj</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>samanalie</t>
+          <t>MARAN</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>76.496</v>
+        <v>89.604</v>
       </c>
       <c r="D12" t="n">
-        <v>1.274933333333333</v>
+        <v>1.4934</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>vCo2EPSd0IkAwaPO9cLi</t>
+          <t>kJoxq1cJqwFfnJdK16Kk</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10913636</v>
+        <v>10918641</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sofia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bffeu" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45949.4455994213</v>
+        <v>45950.47886123843</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>lKfmKjCb0CnwubxoXdXY</t>
+          <t>MC8qPQIKtQh3x5VSf9dX</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
 </t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45949.44648479167</v>
+        <v>45950.47989832176</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1082,39 +1085,39 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FmgCl7qSxg4EWv03bifU</t>
+          <t>CvjmhmuWfnkvLtxGXhCC</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Shaluka</t>
+          <t>Sujith Prashan Sekar 77877</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>79.07299999999999</v>
+        <v>78.538</v>
       </c>
       <c r="D13" t="n">
-        <v>1.317883333333333</v>
+        <v>1.308966666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>nC2x4YYDfpUgPvUKV7VS</t>
+          <t>6Q6akXcfaqMOdsatHdy8</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10919402</v>
+        <v>10918212</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Grandbe" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinner buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45949.57979677083</v>
+        <v>45950.4152959838</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>UVxsYGEotR940dNbuXfm</t>
+          <t>IBux4l77guIQDt0OWzZV</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1124,7 +1127,7 @@
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45949.5807119676</v>
+        <v>45950.41620498843</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1135,257 +1138,261 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HFIoOzgArQA6HJtmb4PV</t>
+          <t>CvjmhmuWfnkvLtxGXhCC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>vimukthi53</t>
+          <t>Sujith Prashan Sekar 77877</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9154.146000000001</v>
+        <v>78.18899999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>152.5691</v>
+        <v>1.30315</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0BdRn4vLJDlnj1mBGY3a</t>
+          <t>drDzonl5y5TTkBO0GPkV</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10919454</v>
+        <v>10918212</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bangcock" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinner" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45949.71299570602</v>
+        <v>45950.41530002315</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2W9iK5Vo1EKLg0vkzt02</t>
+          <t>IBux4l77guIQDt0OWzZV</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Hi vimukthi53, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search so that I can assist you better? Thank you!</t>
+          <t xml:space="preserve">Hi
+</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45949.81894646991</v>
+        <v>45950.41620498843</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HFIoOzgArQA6HJtmb4PV</t>
+          <t>FIumjEAPemmkVDF83SqK</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>vimukthi53</t>
+          <t>denethdesilva</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9149.509</v>
+        <v>110.698</v>
       </c>
       <c r="D15" t="n">
-        <v>152.4918166666667</v>
+        <v>1.844966666666667</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>zjPHLpCYNoPtIirJkwgo</t>
+          <t>dgdGz4Kv9NvBg9X8yCJe</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10919454</v>
+        <v>10919466</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bancock" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45949.713049375</v>
+        <v>45950.79489569445</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2W9iK5Vo1EKLg0vkzt02</t>
+          <t>3Kc1jT7M3YkwRDMhhYOX</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Hi vimukthi53, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search so that I can assist you better? Thank you!</t>
+          <t xml:space="preserve">Hi, how can we assist you?
+</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45949.81894646991</v>
+        <v>45950.7961769213</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HFIoOzgArQA6HJtmb4PV</t>
+          <t>FIumjEAPemmkVDF83SqK</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>vimukthi53</t>
+          <t>denethdesilva</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9142.576999999999</v>
+        <v>106.243</v>
       </c>
       <c r="D16" t="n">
-        <v>152.3762833333333</v>
+        <v>1.770716666666666</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>b7lMEqAEUsyMdck6BnT0</t>
+          <t>4VUqZ7KZroy6EYCQY9eU</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10919454</v>
+        <v>10919466</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thank" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45949.71312960648</v>
+        <v>45950.79494725695</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2W9iK5Vo1EKLg0vkzt02</t>
+          <t>3Kc1jT7M3YkwRDMhhYOX</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Hi vimukthi53, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search so that I can assist you better? Thank you!</t>
+          <t xml:space="preserve">Hi, how can we assist you?
+</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45949.81894646991</v>
+        <v>45950.7961769213</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ive2CbhJaIv85wOtK5Nu</t>
+          <t>G5SATkBPAOINVnKzVSwy</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ishara123</t>
+          <t>Hashanlakindu</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443.27</v>
+        <v>100.048</v>
       </c>
       <c r="D17" t="n">
-        <v>7.387833333333333</v>
+        <v>1.667466666666667</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>nhqkmdzNHhfK3Wkc5ZT2</t>
+          <t>QZt4STTygQlDR8dyrc0C</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10919453</v>
+        <v>10919083</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malay" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Full hair akamada ma price</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45949.97042443287</v>
+        <v>45950.79217565972</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0pdcetusaTYcpNqkm1z2</t>
+          <t>cKWKMDXPDHftyNCfRAPE</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi Ishara123, I'm sorry for the inconvenience.contact us to +94 71 174 4227 to get your request Done </t>
+          <t xml:space="preserve">Hi, thank you for reaching out to Aahaas.
+</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45949.97555487268</v>
+        <v>45950.79333362269</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MAq4XLCpT0sHQld6X30Q</t>
+          <t>JF6LOSQF8zZcHtCukq5a</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Anuruddha Suraweera</t>
+          <t>dihansi</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>78.887</v>
+        <v>103.446</v>
       </c>
       <c r="D18" t="n">
-        <v>1.314783333333333</v>
+        <v>1.7241</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7IrE8w0HM0STcPz1lENG</t>
+          <t>G9x7QYQ4v7XcV4i0H3db</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10919440</v>
+        <v>10919473</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Rental Apa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lunch bufffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45949.43973137732</v>
+        <v>45950.58988320602</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3epmxtGvmWniJl6hDQmd</t>
+          <t>MCMByOjb0S5rhNUunD2n</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
 </t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45949.44064442129</v>
+        <v>45950.59108049769</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1396,49 +1403,49 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MAq4XLCpT0sHQld6X30Q</t>
+          <t>JF6LOSQF8zZcHtCukq5a</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Anuruddha Suraweera</t>
+          <t>dihansi</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>54.883</v>
+        <v>96.991</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9147166666666667</v>
+        <v>1.616516666666667</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>jD9FeBTMAgWKuqoPHLAo</t>
+          <t>8TSW6wfeRaDWFrjReqVm</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10919440</v>
+        <v>10919473</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Rental" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lunch buffets" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45949.44000920139</v>
+        <v>45950.58995791667</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3epmxtGvmWniJl6hDQmd</t>
+          <t>MCMByOjb0S5rhNUunD2n</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
 </t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45949.44064442129</v>
+        <v>45950.59108049769</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1449,154 +1456,152 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>N9PhwNqZDGHyKmM1RGSG</t>
+          <t>NqHbFsZcexkZPMX1zpx0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TharusikaRod</t>
+          <t>DanuBro</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>97.79900000000001</v>
+        <v>146.441</v>
       </c>
       <c r="D20" t="n">
-        <v>1.629983333333333</v>
+        <v>2.440683333333333</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7h8J9IUnWcJkobBqjl1X</t>
+          <t>hjMA35iwuDJd1zDHyl8v</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8044</v>
+        <v>10919492</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sofia col" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Pearl bay" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45949.58105645833</v>
+        <v>45950.88901840278</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>DPGiH6G6KjcJCLsprTUX</t>
+          <t>Sh8SRdP8QKLJ3mLA150l</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi DanuBro! Thank you for reaching out to us. kindly contact us to +94 71 174 4227</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45949.58218839121</v>
+        <v>45950.89071332176</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>N9PhwNqZDGHyKmM1RGSG</t>
+          <t>NqHbFsZcexkZPMX1zpx0</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TharusikaRod</t>
+          <t>DanuBro</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>63.84</v>
+        <v>53.168</v>
       </c>
       <c r="D21" t="n">
-        <v>1.064</v>
+        <v>0.8861333333333333</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>jPjQkjvKRAD6GgvdWaBs</t>
+          <t>HRdgmdL05TDEupXasO2l</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8044</v>
+        <v>10919492</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sofia colombo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Pearl bay" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45949.58144950232</v>
+        <v>45950.89009795139</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>DPGiH6G6KjcJCLsprTUX</t>
+          <t>Sh8SRdP8QKLJ3mLA150l</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi DanuBro! Thank you for reaching out to us. kindly contact us to +94 71 174 4227</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45949.58218839121</v>
+        <v>45950.89071332176</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ptbr1bJ26UklJsTN9qmA</t>
+          <t>NqHbFsZcexkZPMX1zpx0</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rakshanah Radhakrishnan</t>
+          <t>DanuBro</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>121.392</v>
+        <v>7.051</v>
       </c>
       <c r="D22" t="n">
-        <v>2.0232</v>
+        <v>0.1175166666666667</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SdWNDeedEpKN4elUIO6f</t>
+          <t>5uZZVsVRtfXipeLJRuQC</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10919459</v>
+        <v>10919492</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bali" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Pearl bay" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45949.9014165625</v>
+        <v>45950.89063171297</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>EFzqq2Rym8DnduMsP4RD</t>
+          <t>Sh8SRdP8QKLJ3mLA150l</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Hello Rakshanah Radhakrishnan! I'm sorry you couldn't find what you were looking for. Bali is a popular destination, and I'd be happy to assist you in finding the perfect vacation package. Can you please provide me with more details on your travel preferences so I can better assist you?</t>
+          <t>Hi DanuBro! Thank you for reaching out to us. kindly contact us to +94 71 174 4227</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45949.9028215625</v>
+        <v>45950.89071332176</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1607,48 +1612,49 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ptbr1bJ26UklJsTN9qmA</t>
+          <t>NqHbFsZcexkZPMX1zpx0</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rakshanah Radhakrishnan</t>
+          <t>DanuBro</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>196.605</v>
+        <v>97.69</v>
       </c>
       <c r="D23" t="n">
-        <v>3.27675</v>
+        <v>1.628166666666667</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SuEGI4E1ncT7WCSeZ1q3</t>
+          <t>C4uFUHONGCNyKh7rrwYU</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10919459</v>
+        <v>10919492</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thaila" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Pearl b" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45949.90347100695</v>
+        <v>45950.89187369213</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>M6SSbXgvuruprA60Fisx</t>
+          <t>oozIuCVQJH8AmGVzGxPe</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Hi Rakshanah Radhakrishnan! I'm sorry you couldn't find what you were looking for. Please contact us to +94 71 174 4227 to assist you with your requirments</t>
+          <t xml:space="preserve">Hi DanuBro! Thank you for reaching out to us. kindly contact us to +94 71 174 4227
+</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45949.90574652778</v>
+        <v>45950.89300436342</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1659,133 +1665,133 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q2Ky5Z2wz7xXjbmUkIuV</t>
+          <t>U2sSm78tD0F2Y7yP5H6J</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>chathura0525</t>
+          <t>rajivsmailman</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>78.45699999999999</v>
+        <v>108.846</v>
       </c>
       <c r="D24" t="n">
-        <v>1.307616666666667</v>
+        <v>1.8141</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>IBhIGhRTl7JEyeK58drH</t>
+          <t>0LO73FGWONjrf1B3kV7v</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10916409</v>
+        <v>1675</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Yamato" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kingsbury" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45949.67945416667</v>
+        <v>45950.46446380787</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>4C063L6oYiEvzfJxrji2</t>
+          <t>NYEddMgWzTW0rhF3eGg3</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
+          <t xml:space="preserve">Hi, how can I assist you?
 </t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45949.6803622338</v>
+        <v>45950.46572359954</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SZ63QGz1DeL7xOAt013e</t>
+          <t>YKqInNtHjlHWqICHvSJB</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>deepnamo</t>
+          <t>ferna3305</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>86.392</v>
+        <v>112.656</v>
       </c>
       <c r="D25" t="n">
-        <v>1.439866666666667</v>
+        <v>1.8776</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MIINBpjyivc62Pu36Uul</t>
+          <t>Q8TF9EcHsVq2pBAz0kme</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10919183</v>
+        <v>10918820</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kngai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Chill co" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45949.5812757176</v>
+        <v>45950.71071061343</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>gdQJFRxIFnIMWAqdWn6A</t>
+          <t>ZAc6x4egvhJKTlPtQf5t</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi 
+          <t xml:space="preserve">Thank you for reaching out to Aahaas.
 </t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45949.582275625</v>
+        <v>45950.71201450231</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SZ63QGz1DeL7xOAt013e</t>
+          <t>YKqInNtHjlHWqICHvSJB</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>deepnamo</t>
+          <t>ferna3305</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>84.13500000000001</v>
+        <v>87.459</v>
       </c>
       <c r="D26" t="n">
-        <v>1.40225</v>
+        <v>1.45765</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EG4DmGEliJjXe6lfeiNA</t>
+          <t>FdI5DI8pUBaVGoGtGmnB</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10919183</v>
+        <v>10918820</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1793,1079 +1799,2131 @@
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45949.58130184028</v>
+        <v>45950.71790497685</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>gdQJFRxIFnIMWAqdWn6A</t>
+          <t>wrCJEtnmGpOXccbYg650</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi 
+          <t xml:space="preserve">drop a message if you need any assiatance.
 </t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45949.582275625</v>
+        <v>45950.7189172338</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hAIUqnnkuRmYt7B7YrHP</t>
+          <t>aLmREYhD4yzXzrbnKffl</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tissa</t>
+          <t>sethu</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2998.744</v>
+        <v>287.674</v>
       </c>
       <c r="D27" t="n">
-        <v>49.97906666666667</v>
+        <v>4.794566666666666</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KggepGFenVO3IGF2cOIa</t>
+          <t>VXpSLotT99fAqb64WTtS</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10919450</v>
+        <v>10912395</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Jetwing li" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45949.78489315973</v>
+        <v>45950.63109013889</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>CL7Do6MbJ4hmKY7VVrYk</t>
+          <t>C4E9rDLRlD0lUdMhNWQ7</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Hi Istissa, I'm sorry but we don't have any results for "Bang" in our database. Can you provide more details or clarify what you're looking for so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
+</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45949.81960084491</v>
+        <v>45950.63441969908</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ih5DEUjaTiYFhz4YzW0C</t>
+          <t>gvFfza1bnGufx4wjMRA4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>rehan5145</t>
+          <t>shehan07</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>84.548</v>
+        <v>141.644</v>
       </c>
       <c r="D28" t="n">
-        <v>1.409133333333333</v>
+        <v>2.360733333333334</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FS3aTFV9WCZVCTTZEOtL</t>
+          <t>g5U1Mf1MfRUbjcQylF2v</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>10910395</v>
+        <v>10913600</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sho" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45949.63901148148</v>
+        <v>45950.9266544213</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>pMXA2EbbVbOedlw9R82H</t>
+          <t>9ofhunbrBM9rOL4n5qQt</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
+          <t xml:space="preserve">Hi Shehan07! I'm sorry that you couldn't find any results for Thailand. kindly contact us to +94 71 174 4227
 </t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45949.63999004629</v>
+        <v>45950.92829381944</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ih5DEUjaTiYFhz4YzW0C</t>
+          <t>gvFfza1bnGufx4wjMRA4</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>rehan5145</t>
+          <t>shehan07</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>83.066</v>
+        <v>41.391</v>
       </c>
       <c r="D29" t="n">
-        <v>1.384433333333333</v>
+        <v>0.68985</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>yJDYmUKvXF3dZdwrKDHx</t>
+          <t>mT3DsCFa0vo7ODvzxJKB</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>10910395</v>
+        <v>10913600</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Short term" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45949.63902863426</v>
+        <v>45950.92781475694</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>pMXA2EbbVbOedlw9R82H</t>
+          <t>9ofhunbrBM9rOL4n5qQt</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
+          <t xml:space="preserve">Hi Shehan07! I'm sorry that you couldn't find any results for Thailand. kindly contact us to +94 71 174 4227
 </t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45949.63999004629</v>
+        <v>45950.92829381944</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>jf4ZRaOYP9kzLJcpuTWa</t>
+          <t>gvFfza1bnGufx4wjMRA4</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nuwa05</t>
+          <t>shehan07</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1300.258</v>
+        <v>37.849</v>
       </c>
       <c r="D30" t="n">
-        <v>21.67096666666667</v>
+        <v>0.6308166666666666</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KPPW5E8obyAG3JPKkhD6</t>
+          <t>BguXMjNyqdE9IxhXVtTM</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>10916703</v>
+        <v>10913600</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Restaure" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bankok" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45949.42051596065</v>
+        <v>45950.92785575231</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3QGq2iSKpHucfTuvy4PZ</t>
+          <t>9ofhunbrBM9rOL4n5qQt</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
+          <t xml:space="preserve">Hi Shehan07! I'm sorry that you couldn't find any results for Thailand. kindly contact us to +94 71 174 4227
 </t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45949.43556524305</v>
+        <v>45950.92829381944</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>kRM8cH9I7uPwy9bhAYKC</t>
+          <t>hTvypZBLIpIIrYCUKHjS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RuwindaPremasiri94</t>
+          <t>supun7641</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>508.463</v>
+        <v>92.358</v>
       </c>
       <c r="D31" t="n">
-        <v>8.474383333333334</v>
+        <v>1.5393</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sMXBto87LXYo7s0QbotX</t>
+          <t>mXFEPhGzWqXn8dg5zMfu</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>10919399</v>
+        <v>10919472</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thail" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45949.81388097222</v>
+        <v>45950.53702861111</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>SqQnP7yh2xoa8GeWqrbp</t>
+          <t>vVt0lOmawpe1xFsvmTpk</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Hi RuwindaPremasiri94, I apologize for the inconvenience. It seems like there might have been a temporary issue with our search results. Let me help you find information about Malaysia. Can you please provide me with more details about what you are looking for in Malaysia?</t>
+          <t xml:space="preserve">Hi Supun, Thank you for reaching out to aahaas
+</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45949.81976596064</v>
+        <v>45950.53809756944</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mFGfVOevcEdZNHTPZfHd</t>
+          <t>hTvypZBLIpIIrYCUKHjS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>G P</t>
+          <t>supun7641</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>126.795</v>
+        <v>78.408</v>
       </c>
       <c r="D32" t="n">
-        <v>2.11325</v>
+        <v>1.3068</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>c4v7p48kRjDR2uJX1sz4</t>
+          <t>0KrUmo18cNFnYO01VUA8</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>10919451</v>
+        <v>10919472</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Banko" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45949.68811775463</v>
+        <v>45950.53719006944</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>6VYVqh0KitFMBAmc7nbo</t>
+          <t>vVt0lOmawpe1xFsvmTpk</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Hi,Thank you for reaching out for Aahaas</t>
+          <t xml:space="preserve">Hi Supun, Thank you for reaching out to aahaas
+</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>45949.68958528935</v>
+        <v>45950.53809756944</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mk3Pr2PggsXWmBQShzfe</t>
+          <t>mm8Ya0q7V9XXpJKnFBhB</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>shamalka123</t>
+          <t>Jayaniwickramasinghe</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>156.293</v>
+        <v>101.219</v>
       </c>
       <c r="D33" t="n">
-        <v>2.604883333333333</v>
+        <v>1.686983333333333</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5CfvMa6ujTyOV8rwaPN0</t>
+          <t>b14H0wlvjnneLzp8TcIv</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10918984</v>
+        <v>10911740</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Langka" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45949.97967237268</v>
+        <v>45950.51862129629</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>tlHi8vnyaxye4aBaAB4f</t>
+          <t>SuDaW6Gdakbfy7rmeh2s</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Hi shamalka123! I'm sorry that you couldn't find any results for "Thailand." Let me assist you with that. Kindly contact us to +94 71 174 4227</t>
+          <t xml:space="preserve">Hi, thank you for reaching to Aahaas.
+</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>45949.98148131945</v>
+        <v>45950.5197928125</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>oGCwKiyXvI4aCE0NblTR</t>
+          <t>pnzga7ZeLaY91fDUFAy4</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>fawaz</t>
+          <t>Vasanthakumar lushanth</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3821.452</v>
+        <v>98.473</v>
       </c>
       <c r="D34" t="n">
-        <v>63.69086666666667</v>
+        <v>1.641216666666667</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>qoMaZ07p9piuqE7L0lDE</t>
+          <t>uY0jjEVy1ZRZkgTykrWY</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10919456</v>
+        <v>10919360</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bbga" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Nuw" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45949.77498731481</v>
+        <v>45950.86624266204</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Q7eH7PdkM492Lw2mu6on</t>
+          <t>anjUrS6bGXpfA4htoKP4</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Hi Fawaz! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Bbga" or "Bangkoka" so I can assist you better? Thank you!</t>
+          <t>Hi Vasanthakumar Lushanth, I'm sorry but I couldn't find any results for "Nuw." Can you please provide me with more details so that I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>45949.81921708334</v>
+        <v>45950.86738239583</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>oGCwKiyXvI4aCE0NblTR</t>
+          <t>q22WOph8sB1Vti7QU221</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>fawaz</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3818.832</v>
+        <v>119.229</v>
       </c>
       <c r="D35" t="n">
-        <v>63.6472</v>
+        <v>1.98715</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>vuAyWLkPELTbJ9RSLUnf</t>
+          <t>VtBNL67sz0D7ZZIPIgNi</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>10919456</v>
+        <v>10919491</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bangkoka" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sri" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45949.77501763889</v>
+        <v>45950.86694225694</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Q7eH7PdkM492Lw2mu6on</t>
+          <t>1Upzk1Ta6vQPId0lreON</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Hi Fawaz! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Bbga" or "Bangkoka" so I can assist you better? Thank you!</t>
+          <t>Hi there! I'm sorry you're having trouble finding what you're looking for. Let me help you with that. Are you looking for hotels in Sri Lanka? Let me know if you need any assistance.</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45949.81921708334</v>
+        <v>45950.86832222222</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>oi512aGn4kl96aSdFDJH</t>
+          <t>q22WOph8sB1Vti7QU221</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>nirmani19</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>235.107</v>
+        <v>119.181</v>
       </c>
       <c r="D36" t="n">
-        <v>3.91845</v>
+        <v>1.98635</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>BbHkQqYk1YgrfXAF7qCD</t>
+          <t>ovE73HVJd0G95hdNdiiM</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10919449</v>
+        <v>10919491</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dinner" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sr" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45949.65205427083</v>
+        <v>45950.8669428125</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>meTWQQb0rvwG1EoQKsHk</t>
+          <t>1Upzk1Ta6vQPId0lreON</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi nirmani19! I apologize for the inconvenience. Can you please provide me with more details about the type of dinner you are looking for? This will help me assist you better.
-</t>
+          <t>Hi there! I'm sorry you're having trouble finding what you're looking for. Let me help you with that. Are you looking for hotels in Sri Lanka? Let me know if you need any assistance.</t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45949.65477541667</v>
+        <v>45950.86832222222</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>oi512aGn4kl96aSdFDJH</t>
+          <t>q22WOph8sB1Vti7QU221</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>nirmani19</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>121.181</v>
+        <v>116.911</v>
       </c>
       <c r="D37" t="n">
-        <v>2.019683333333333</v>
+        <v>1.948516666666667</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>LnwlnJQXrqfiwCkQgzEa</t>
+          <t>CdvUrB1RSL3jbVXR0fVS</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10919449</v>
+        <v>10919491</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Inis" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sril" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45949.65898122685</v>
+        <v>45950.86696908565</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>UuFSm2B7s6xE9O6vXlVW</t>
+          <t>1Upzk1Ta6vQPId0lreON</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi there! I'm sorry you're having trouble finding what you're looking for. Let me help you with that. Are you looking for hotels in Sri Lanka? Let me know if you need any assistance.</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>45949.66038378472</v>
+        <v>45950.86832222222</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>oi512aGn4kl96aSdFDJH</t>
+          <t>q22WOph8sB1Vti7QU221</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>nirmani19</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>59.229</v>
+        <v>116.242</v>
       </c>
       <c r="D38" t="n">
-        <v>0.98715</v>
+        <v>1.937366666666667</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ilIlJBmRXPOPGvjaGES7</t>
+          <t>Ji5HSpTYks6UjAD1THig</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10919449</v>
+        <v>10919491</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ibis Bugis" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Srila" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45949.65969826389</v>
+        <v>45950.86697682871</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>UuFSm2B7s6xE9O6vXlVW</t>
+          <t>1Upzk1Ta6vQPId0lreON</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi there! I'm sorry you're having trouble finding what you're looking for. Let me help you with that. Are you looking for hotels in Sri Lanka? Let me know if you need any assistance.</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>45949.66038378472</v>
+        <v>45950.86832222222</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>oi512aGn4kl96aSdFDJH</t>
+          <t>q22WOph8sB1Vti7QU221</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>nirmani19</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>12.467</v>
+        <v>114.679</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2077833333333333</v>
+        <v>1.911316666666667</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ZGvuoTFqsrwfzddqxA6D</t>
+          <t>K0W3RkWM9SmnlcUohhnL</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>10919449</v>
+        <v>10919491</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Inis" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Srilanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45949.66023949074</v>
+        <v>45950.86699491898</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>UuFSm2B7s6xE9O6vXlVW</t>
+          <t>1Upzk1Ta6vQPId0lreON</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi there! I'm sorry you're having trouble finding what you're looking for. Let me help you with that. Are you looking for hotels in Sri Lanka? Let me know if you need any assistance.</t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>45949.66038378472</v>
+        <v>45950.86832222222</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>zIU640L30xUw1vVNBZNf</t>
+          <t>q22WOph8sB1Vti7QU221</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>sampathrsn@gmail.com</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>78.80500000000001</v>
+        <v>113.666</v>
       </c>
       <c r="D40" t="n">
-        <v>1.313416666666667</v>
+        <v>1.894433333333333</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gdwHCSb2R2RmMiG3NFaN</t>
+          <t>Hzy3o1o2FrMsAVUmNu9R</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10919438</v>
+        <v>10919491</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Srilanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45949.34362442129</v>
+        <v>45950.86700664352</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>PjwYRIjewYaRLtqBY8Lp</t>
+          <t>1Upzk1Ta6vQPId0lreON</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi there! I'm sorry you're having trouble finding what you're looking for. Let me help you with that. Are you looking for hotels in Sri Lanka? Let me know if you need any assistance.</t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>45949.3445365162</v>
+        <v>45950.86832222222</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>zIU640L30xUw1vVNBZNf</t>
+          <t>q22WOph8sB1Vti7QU221</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>sampathrsn@gmail.com</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>77.611</v>
+        <v>112.634</v>
       </c>
       <c r="D41" t="n">
-        <v>1.293516666666667</v>
+        <v>1.877233333333333</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CzV94HfTv4GS9HplNZpN</t>
+          <t>dSfIRsqS9DVyI5RyWMU0</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10919438</v>
+        <v>10919491</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Srilanka  h" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45949.34363824074</v>
+        <v>45950.86701858796</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>PjwYRIjewYaRLtqBY8Lp</t>
+          <t>1Upzk1Ta6vQPId0lreON</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi there! I'm sorry you're having trouble finding what you're looking for. Let me help you with that. Are you looking for hotels in Sri Lanka? Let me know if you need any assistance.</t>
         </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>45949.3445365162</v>
+        <v>45950.86832222222</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>zIU640L30xUw1vVNBZNf</t>
+          <t>q22WOph8sB1Vti7QU221</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>sampathrsn@gmail.com</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>78.042</v>
+        <v>112.105</v>
       </c>
       <c r="D42" t="n">
-        <v>1.3007</v>
+        <v>1.868416666666667</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>IlF6Cv3PhDMCDdKNN60J</t>
+          <t>VusIprYVw0ktu0C8g0OT</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>10919438</v>
+        <v>10919491</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "PaBangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Srilanka  ho" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45949.34708990741</v>
+        <v>45950.86702471065</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>swE12aTBMqMVxSkU7iQz</t>
+          <t>1Upzk1Ta6vQPId0lreON</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi there! I'm sorry you're having trouble finding what you're looking for. Let me help you with that. Are you looking for hotels in Sri Lanka? Let me know if you need any assistance.</t>
         </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>45949.34799317129</v>
+        <v>45950.86832222222</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>zIU640L30xUw1vVNBZNf</t>
+          <t>q22WOph8sB1Vti7QU221</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sampathrsn@gmail.com</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>75.119</v>
+        <v>111.272</v>
       </c>
       <c r="D43" t="n">
-        <v>1.251983333333333</v>
+        <v>1.854533333333333</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>cORptHrmn4sTgsbuAAg4</t>
+          <t>Llou3KO8GnuisKM3hUl1</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>10919438</v>
+        <v>10919491</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "PatatunamBangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Srilanka  hot" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45949.34712373843</v>
+        <v>45950.86703435185</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>swE12aTBMqMVxSkU7iQz</t>
+          <t>1Upzk1Ta6vQPId0lreON</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi there! I'm sorry you're having trouble finding what you're looking for. Let me help you with that. Are you looking for hotels in Sri Lanka? Let me know if you need any assistance.</t>
         </is>
       </c>
       <c r="K43" s="2" t="n">
-        <v>45949.34799317129</v>
+        <v>45950.86832222222</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>zIU640L30xUw1vVNBZNf</t>
+          <t>q22WOph8sB1Vti7QU221</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>sampathrsn@gmail.com</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>74.01000000000001</v>
+        <v>110.472</v>
       </c>
       <c r="D44" t="n">
-        <v>1.2335</v>
+        <v>1.8412</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>9LRvJkWaRaH0DhREeY2T</t>
+          <t>FleAn4R17Ojft0vpPuJs</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>10919438</v>
+        <v>10919491</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Patatunam,Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Srilanka  hote" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45949.34713657408</v>
+        <v>45950.86704361111</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>swE12aTBMqMVxSkU7iQz</t>
+          <t>1Upzk1Ta6vQPId0lreON</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi there! I'm sorry you're having trouble finding what you're looking for. Let me help you with that. Are you looking for hotels in Sri Lanka? Let me know if you need any assistance.</t>
         </is>
       </c>
       <c r="K44" s="2" t="n">
-        <v>45949.34799317129</v>
+        <v>45950.86832222222</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>zIU640L30xUw1vVNBZNf</t>
+          <t>q22WOph8sB1Vti7QU221</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>sampathrsn@gmail.com</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>65.163</v>
+        <v>108.333</v>
       </c>
       <c r="D45" t="n">
-        <v>1.08605</v>
+        <v>1.80555</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ZCkNwVPQVvumF1BQ1FWs</t>
+          <t>wQb84rSIFnVdfgqmHO4A</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>10919438</v>
+        <v>10919491</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Paratu" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Srilanka  hotels" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45949.34723896991</v>
+        <v>45950.86706836805</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>swE12aTBMqMVxSkU7iQz</t>
+          <t>1Upzk1Ta6vQPId0lreON</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi there! I'm sorry you're having trouble finding what you're looking for. Let me help you with that. Are you looking for hotels in Sri Lanka? Let me know if you need any assistance.</t>
         </is>
       </c>
       <c r="K45" s="2" t="n">
-        <v>45949.34799317129</v>
+        <v>45950.86832222222</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>zIU640L30xUw1vVNBZNf</t>
+          <t>sDYEgfGAweKUwnqLQrFi</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>sampathrsn@gmail.com</t>
+          <t>Aashiff</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>54.103</v>
+        <v>196.93</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9017166666666667</v>
+        <v>3.282166666666667</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>g1s5LtfYn5EVXLiWFrdH</t>
+          <t>C1gwL1cL0huyP9INs9Au</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>10919438</v>
+        <v>10917455</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kc place ," but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Amaayah" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>45949.34736697916</v>
+        <v>45950.95422922454</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>swE12aTBMqMVxSkU7iQz</t>
+          <t>uX957kHFxOq0WMSkcK2L</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
+          <t xml:space="preserve">Hi Aashiff, I'm sorry but it appears that we do not have any information on "Amaayah" at the moment. Is there anything else I can assist you with? Let me know how I can help! kindly Contact us to +94 71 174 4227
 </t>
         </is>
       </c>
       <c r="K46" s="2" t="n">
-        <v>45949.34799317129</v>
+        <v>45950.95650850695</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>sDYEgfGAweKUwnqLQrFi</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Aashiff</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>14.615</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2435833333333333</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>wqH1uoVTbiwJhbeZhRcM</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>10917455</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Amaya lunch" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>45950.95633935185</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>uX957kHFxOq0WMSkcK2L</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Aashiff, I'm sorry but it appears that we do not have any information on "Amaayah" at the moment. Is there anything else I can assist you with? Let me know how I can help! kindly Contact us to +94 71 174 4227
+</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>45950.95650850695</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>tHmkVry8oNqlBwqBDSjp</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Mila27</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1465.602</v>
+      </c>
+      <c r="D48" t="n">
+        <v>24.4267</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>dtzVOk2gS5OQWiiGxPtn</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>10919493</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Day outs" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>45950.9387055324</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>CnQ2gzN6a6bzKvR6JVLv</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Mila27, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the type of day outs you are interested in? I'd be happy to help you find the perfect option for you. Let me know how I can assist you further.kindly contact us to +94 71 174 4227
+</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>45950.95566851852</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>x5k1TE5kiLqFbchzkL6n</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>info.8663</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>90.011</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.500183333333333</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>XNcL8PYF6Y8DtzNPk2kG</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>10919482</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Serago" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>45950.68460800926</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>qvrlbMeYAxJjlJZl1j2t</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
+</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>45950.68564980324</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
           <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>x5k1TE5kiLqFbchzkL6n</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>info.8663</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>89.917</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.498616666666667</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>7B4Q7018DjHyL99i3UP1</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>10919482</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Sera" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>45950.68460909722</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>qvrlbMeYAxJjlJZl1j2t</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
+</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>45950.68564980324</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>x5k1TE5kiLqFbchzkL6n</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>info.8663</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>88.70099999999999</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.47835</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>kdfpNiNVQNyhDvScEZf6</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>10919482</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Seraton" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>45950.6846231713</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>qvrlbMeYAxJjlJZl1j2t</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
+</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>45950.68564980324</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>x5k1TE5kiLqFbchzkL6n</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>info.8663</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>87.74299999999999</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.462383333333333</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>3FA9Nson85Kzlfp2rEzM</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>10919482</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Seraton" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>45950.68463425926</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>qvrlbMeYAxJjlJZl1j2t</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
+</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>45950.68564980324</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>x5k1TE5kiLqFbchzkL6n</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>info.8663</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>86.042</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.434033333333333</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>gnTpeE8ZuXBkEd21PeMS</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>10919482</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Seraton colombo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>45950.68465394676</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>qvrlbMeYAxJjlJZl1j2t</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
+</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="n">
+        <v>45950.68564980324</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>x5k1TE5kiLqFbchzkL6n</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>info.8663</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>18.972</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.3162</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0cIV5MipvhhzW64I5tY4</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>10919482</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "dinner buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>45950.68543021991</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>qvrlbMeYAxJjlJZl1j2t</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
+</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>45950.68564980324</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>xsndyVLElvOJFuLQ2MGQ</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>yas</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>102.004</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.700066666666667</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>rpNQYXkdtWq4YQSPYCE3</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>10919485</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Dtpe" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>45950.97952353009</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>NIqOsgPi3meNUZIyDkFx</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Hi Yas! Thank you for reaching out. I apologize for the confusion, it seems like there might have been a typo in your search. Could you please provide me with more information or clarify what you are looking for so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>45950.98070413194</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>xsndyVLElvOJFuLQ2MGQ</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>yas</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>33.341</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5556833333333333</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Zetuw1Id55R1Pbo4obvV</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>10919485</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Detox" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>45950.98031824074</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>NIqOsgPi3meNUZIyDkFx</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Hi Yas! Thank you for reaching out. I apologize for the confusion, it seems like there might have been a typo in your search. Could you please provide me with more information or clarify what you are looking for so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>45950.98070413194</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>xsndyVLElvOJFuLQ2MGQ</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>yas</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>122.715</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.04525</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>yjSfzYTbjrlhCcIslCc7</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>10919485</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Whal" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>45950.98207453704</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>JcpLQD1L9y3u0f6cjXPG</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hi can i know what is the product you are trying to search 
+</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>45950.98349484953</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>zC5NMPuu09cfsvTHYnmz</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DilharaWijesekara</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>87.432</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.4572</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>OOpDSMcyeyZyEhEjjUpK</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>10919470</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "AME" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>45950.51951467593</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Vr5iIB9xz07oni0kp5XU</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
+</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>45950.52052662037</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>zC5NMPuu09cfsvTHYnmz</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DilharaWijesekara</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>87.364</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.456066666666667</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NVL2RzkMp98d2kD1FL8n</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>10919470</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "A" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>45950.51951546296</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Vr5iIB9xz07oni0kp5XU</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
+</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>45950.52052662037</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>zC5NMPuu09cfsvTHYnmz</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DilharaWijesekara</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>87.14400000000001</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.4524</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>t9a9phQ7kOa9fgb0sbMt</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>10919470</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "A" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>45950.51951800926</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Vr5iIB9xz07oni0kp5XU</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
+</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>45950.52052662037</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>zC5NMPuu09cfsvTHYnmz</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DilharaWijesekara</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>85.241</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.420683333333333</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>MiK95DbtMBNhH9hi5qft</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>10919470</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Ame" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>45950.51954003472</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Vr5iIB9xz07oni0kp5XU</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
+</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>45950.52052662037</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>zC5NMPuu09cfsvTHYnmz</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DilharaWijesekara</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>82.904</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.381733333333333</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>yct5XoZcDhZqEn4ZsAUU</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>10919470</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Ameni" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>45950.51956708333</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Vr5iIB9xz07oni0kp5XU</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
+</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>45950.52052662037</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>zC5NMPuu09cfsvTHYnmz</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DilharaWijesekara</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>80.57599999999999</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.342933333333333</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2WBTn4LBSdcB6Oz2XYKp</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>10919470</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Amenia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>45950.51959402778</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Vr5iIB9xz07oni0kp5XU</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Thank you for reaching out to aahaas
+</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>45950.52052662037</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>zC5NMPuu09cfsvTHYnmz</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DilharaWijesekara</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>113.263</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.887716666666667</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>FKKEFb8PvUtGpRtl2jDH</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>10919470</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Hot" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>45950.5215128588</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>0131ZUlLteG5ZGgHoMSx</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">How may I assist you today?
+</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="n">
+        <v>45950.52282377315</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>zC5NMPuu09cfsvTHYnmz</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DilharaWijesekara</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>53.067</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.88445</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>oRQKXM4OSXomaLYmRRub</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>10919470</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Hote" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>45950.52220957176</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0131ZUlLteG5ZGgHoMSx</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">How may I assist you today?
+</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="n">
+        <v>45950.52282377315</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>zM9JTEczGbwKUSOWvmfn</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>laksh6136</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1135.815</v>
+      </c>
+      <c r="D66" t="n">
+        <v>18.93025</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>TlxuL3MV0XIUKR2TxWTS</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>10918408</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Sip and p" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>45950.76432603009</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>k422dn6dV3pApKnd4aiN</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi, thank you for reaching out to Aahaas.
+</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>45950.77747203704</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>shahil</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,100 +502,104 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AU0oFaXluhQkfm6rH0ct</t>
+          <t>0W1pG8GthqZpXNMMOWVU</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>inforamzan</t>
+          <t>Cinnamon</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>104.341</v>
+        <v>17.582</v>
       </c>
       <c r="D2" t="n">
-        <v>1.739016666666667</v>
+        <v>0.2930333333333334</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>oli8iq7YpjiMDpPxmEVz</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10919426</v>
+          <t>wGSB6F4MIyvPPV3TvG2G</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10919324</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ban" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Merm" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45948.73950658565</v>
+        <v>45951.59853689815</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>G0whENvNOahj60uFtmCF</t>
+          <t>z1g8GFm0PLrhQj7mCBo3</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hi,  I apologize for the confusion. Could you please provide me with more information about what you are looking for so I can assist you better? Thank you!</t>
+          <t>Hi Cinnamon! Thank you for reaching out. Can you please provide me with more details about what you are looking for? I would be happy to assist you in finding the information you need.</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45948.74071423611</v>
+        <v>45951.59874039352</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LkxoY0Y2PD3zHeiye94Q</t>
+          <t>1IcM9x1W1XqhDUlI8Dzc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rosemanoj</t>
+          <t>pulasthi anjana</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.561</v>
+        <v>28.343</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35935</v>
+        <v>0.4723833333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>pqhCwooo5wJ9tRUm9gkI</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10919233</v>
+          <t>B4O47mCVGvHfo6YDI5vU</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10919529</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Zoo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lunch" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45948.5172234838</v>
+        <v>45951.8154315625</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>x1YXGy7OPHMIOc3kGkMR</t>
+          <t>YEbdx2FVIqXNUNlITfYh</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hi Rosemanoj, I'm sorry that you couldn't find any results for "Zoo." Can you please provide me with more details about what you're looking for so I can assist you better? Thank you!</t>
+          <t>Hi Pulasthi Anjana, I'm sorry that you're having trouble finding a lunch buffet near your location. Can you provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45948.51747303241</v>
+        <v>45951.81575960648</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -606,48 +610,50 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VWOMBtiEqe7ggqjuzjdM</t>
+          <t>1IcM9x1W1XqhDUlI8Dzc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nath</t>
+          <t>pulasthi anjana</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31.395</v>
+        <v>27.246</v>
       </c>
       <c r="D4" t="n">
-        <v>0.52325</v>
+        <v>0.4541</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>wksfWThsvQpQcDyfbI0q</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10919386</v>
+          <t>8BPJSrgEGY1UOdqenYAC</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10919529</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Barvelona" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lunch" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45948.48151570602</v>
+        <v>45951.81544425926</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>MQu8Evpuw4bTaAsCNtvY</t>
+          <t>YEbdx2FVIqXNUNlITfYh</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hi Isnath, I apologize for the inconvenience. Let me know how I can assist you further.</t>
+          <t>Hi Pulasthi Anjana, I'm sorry that you're having trouble finding a lunch buffet near your location. Can you provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45948.48187907408</v>
+        <v>45951.81575960648</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -658,48 +664,50 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VWOMBtiEqe7ggqjuzjdM</t>
+          <t>1IcM9x1W1XqhDUlI8Dzc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nath</t>
+          <t>pulasthi anjana</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29.62</v>
+        <v>24.942</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4936666666666667</v>
+        <v>0.4157</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>JCZjEZ8qw0u3z7VnGFLg</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10919386</v>
+          <t>8Bqd0SNVzUDESOWVERi4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10919529</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Barcelona cada" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lunch buff" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45948.48153625</v>
+        <v>45951.81547092593</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>MQu8Evpuw4bTaAsCNtvY</t>
+          <t>YEbdx2FVIqXNUNlITfYh</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hi Isnath, I apologize for the inconvenience. Let me know how I can assist you further.</t>
+          <t>Hi Pulasthi Anjana, I'm sorry that you're having trouble finding a lunch buffet near your location. Can you provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45948.48187907408</v>
+        <v>45951.81575960648</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -710,48 +718,50 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VWOMBtiEqe7ggqjuzjdM</t>
+          <t>1IcM9x1W1XqhDUlI8Dzc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>nath</t>
+          <t>pulasthi anjana</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>182.258</v>
+        <v>23.745</v>
       </c>
       <c r="D6" t="n">
-        <v>3.037633333333333</v>
+        <v>0.39575</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>yJxZiURz8KKeQbq65uje</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10919386</v>
+          <t>aa52sglANk9UbBqnPh60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10919529</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ghjjkjgfg" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lunch buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45948.49690326389</v>
+        <v>45951.81548478009</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>BDst8reiV327GjyhWUem</t>
+          <t>YEbdx2FVIqXNUNlITfYh</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>Hi Pulasthi Anjana, I'm sorry that you're having trouble finding a lunch buffet near your location. Can you provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45948.49901273148</v>
+        <v>45951.81575960648</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -762,48 +772,50 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>g047RWnENJYb63P4DHFH</t>
+          <t>1IcM9x1W1XqhDUlI8Dzc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Angi</t>
+          <t>pulasthi anjana</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16.656</v>
+        <v>21.585</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2776</v>
+        <v>0.35975</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>bCN3jB9CV7R05hAq31r2</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10919417</v>
+          <t>ODVhFFQMRQdpaKd7L3ji</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10919529</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Go" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lunch buffet near" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45948.55631237268</v>
+        <v>45951.81550978009</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Jx2CQmKmf9bU7asgaGnc</t>
+          <t>YEbdx2FVIqXNUNlITfYh</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hi Angi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Pulasthi Anjana, I'm sorry that you're having trouble finding a lunch buffet near your location. Can you provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45948.55650515046</v>
+        <v>45951.81575960648</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -814,102 +826,4153 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>g047RWnENJYb63P4DHFH</t>
+          <t>1IcM9x1W1XqhDUlI8Dzc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Angi</t>
+          <t>pulasthi anjana</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10758.181</v>
+        <v>20.945</v>
       </c>
       <c r="D8" t="n">
-        <v>179.3030166666667</v>
+        <v>0.3490833333333334</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>lq1eIxUQQ3JOUMzKpwxE</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10919417</v>
+          <t>5hxxnb09h6ihVzR5W2aT</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10919529</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Gocar" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lunch buffet near t" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45948.5566902662</v>
+        <v>45951.8155171875</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>oGHSF3ieZJ32okCL6BDi</t>
+          <t>YEbdx2FVIqXNUNlITfYh</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hi Angi! I'm sorry you couldn't find what you were looking for. Let me assist you in finding the information you need. Thank you for reaching out!</t>
+          <t>Hi Pulasthi Anjana, I'm sorry that you're having trouble finding a lunch buffet near your location. Can you provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45948.68120625</v>
+        <v>45951.81575960648</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>uRZ6x6YhHylqEMmlirkS</t>
+          <t>1IcM9x1W1XqhDUlI8Dzc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Charge</t>
+          <t>pulasthi anjana</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>106.615</v>
+        <v>19.723</v>
       </c>
       <c r="D9" t="n">
-        <v>1.776916666666666</v>
+        <v>0.3287166666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>wFS888vOxCJFQlBVuAbW</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10914701</v>
+          <t>xKoN4yPArshRqBw3INR1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10919529</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>zdxfcghjk</t>
+          <t>Hi, I was searching for "Lunch buffet near to" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45948.50627199074</v>
+        <v>45951.81553133102</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>dR1epyrt25GAshFveFJE</t>
+          <t>YEbdx2FVIqXNUNlITfYh</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>Hi Pulasthi Anjana, I'm sorry that you're having trouble finding a lunch buffet near your location. Can you provide me with more details so I can assist you better?</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>45951.81575960648</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1IcM9x1W1XqhDUlI8Dzc</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pulasthi anjana</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>17.687</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2947833333333333</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>aHPon6pfmF0kNoVRIp7u</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10919529</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Lunch buffet near to nitt" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>45951.81555489583</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>YEbdx2FVIqXNUNlITfYh</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Hi Pulasthi Anjana, I'm sorry that you're having trouble finding a lunch buffet near your location. Can you provide me with more details so I can assist you better?</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>45951.81575960648</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1IcM9x1W1XqhDUlI8Dzc</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pulasthi anjana</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16.524</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2754</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>UUvVPWCpdVNSBK3mlpWt</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10919529</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Lunch buffet near to nittabuwa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>45951.81556835648</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>YEbdx2FVIqXNUNlITfYh</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Hi Pulasthi Anjana, I'm sorry that you're having trouble finding a lunch buffet near your location. Can you provide me with more details so I can assist you better?</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>45951.81575960648</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1IcM9x1W1XqhDUlI8Dzc</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>pulasthi anjana</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>17.043</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.28405</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>qOInRGxPwhZdKoUtcLFK</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10919529</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Lunch buffet near to nittabuwa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45951.81603640047</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>h1mOP4pMy4L3cYN89O8z</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Hi Pulasthi Anjana, I'm sorry that you couldn't find any lunch buffets near Nittabuwa. Let me do some research and get back to you with some options. Thank you for reaching out!</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>45951.81623365741</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2mOsmFTTFcarBTJ9oDBW</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Madu85</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>85.35299999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.42255</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>kzvYKEduucc74sj45T6d</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10912599</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Ranwe" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45951.61244096065</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>yP8FC9FWIr37xXt6JGCe</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Hi Madu85, I'm sorry we couldn't find what you were looking for. Can you provide me with more details so I can assist you better?</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>45951.61342884259</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2mOsmFTTFcarBTJ9oDBW</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Madu85</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>85.01600000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.416933333333333</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>RfDnChtxCAzMVMJx52cp</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10912599</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Ranweli" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45951.61244486111</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>yP8FC9FWIr37xXt6JGCe</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Hi Madu85, I'm sorry we couldn't find what you were looking for. Can you provide me with more details so I can assist you better?</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>45951.61342884259</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5GySnsWGUlHRUAJRZhY1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>kkj007</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>116.953</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.949216666666667</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5YZLnIazkKJ7vHbvljwY</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10919531</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45951.86040207176</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>roRBlSmcEqAQTh0DLm7L</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hi kindly contact us to +94 71 174 4227
+</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>45951.86175569444</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Au2LM8fMq5KyqMPpusaI</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Anjai</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>80.501</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.341683333333333</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>AGC9fcrgEV3VQCqVT080</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10919524</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Ban" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45951.67019290509</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>8rhZdXEBT455BkofwRpj</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Hi Anjai, I'm sorry for the inconvenience. Could you please provide me with more details about what you're looking for so I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>45951.67112462963</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Au2LM8fMq5KyqMPpusaI</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Anjai</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2.123</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03538333333333334</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0jj5xQCR0SrsvQkkXteA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10919524</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bankhok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45951.67110005787</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>8rhZdXEBT455BkofwRpj</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Hi Anjai, I'm sorry for the inconvenience. Could you please provide me with more details about what you're looking for so I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>45951.67112462963</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B4cEFoEv53dXhdVbc6tx</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Narada Devinda pathirana</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>14.507</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.2417833333333333</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0jNbyeHUSE0Td8kHUBwq</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10919514</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bank" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45951.57400445602</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>qdAsnCtdusE4E8w8ubQN</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Hi Narada Devinda Pathirana, I'm sorry for the inconvenience. As a travel agency, we do not offer banking services. Is there anything else travel-related I can assist you with today?</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>45951.57417236111</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BqRvvP42o1e1BW8JsuIy</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>nathu</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>79.11</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.3185</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>zcJTXGaN5yuiBYRo7Fg9</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10914647</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Qa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45951.4072711574</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>oFcKMh15qgEDT1a9a9d0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi, Thank you for reaching out to Aahaas
+How May I Assist you Today?
+</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>45951.40818678241</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BqRvvP42o1e1BW8JsuIy</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>nathu</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>134.797</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.246616666666667</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MFDZORzmHwpw7FZXuXdW</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10914647</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Sri lanka sightseeing" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45951.47519475695</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>sd3VinfnDDOBPQgJYgqP</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Nathu
+</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>45951.47675490741</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BqRvvP42o1e1BW8JsuIy</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>nathu</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>91.56</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>8T89EsQ6vSg9P9ve3sPk</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10914647</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Cultural&amp;" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45951.47569518519</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>sd3VinfnDDOBPQgJYgqP</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Nathu
+</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>45951.47675490741</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BqRvvP42o1e1BW8JsuIy</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>nathu</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>86.361</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.43935</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>S2AbVPTndC18E3pStS9T</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10914647</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Cultural &amp; Hi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45951.4757553588</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>sd3VinfnDDOBPQgJYgqP</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Nathu
+</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>45951.47675490741</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cdkw2Ssg7SipyeoVaZ8Q</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Senali Gunasinghe</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>9.975999999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1662666666666666</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NvoPHdQBZ49BpnbO6wk8</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10919527</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Hi</t>
         </is>
       </c>
-      <c r="K9" s="2" t="n">
-        <v>45948.50750596065</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="H23" s="2" t="n">
+        <v>45951.7708303125</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>b3PKttBY7fMwUFp9HOvR</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello, How can we assist you?
+</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>45951.77094577546</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cdkw2Ssg7SipyeoVaZ8Q</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Senali Gunasinghe</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>58.259</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9709833333333333</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ubY0QoEXu8Rv0STxENgn</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10919527</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Do you have inter connected rooms?</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45951.77132901621</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>XD5jtsEKnogIoKprirQX</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If there is interconnecting rooms, in the room availability where the rates are showcasing, it would show the room Ma'am.
+</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>45951.77200331019</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cdkw2Ssg7SipyeoVaZ8Q</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Senali Gunasinghe</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>31.354</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5225666666666666</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>PbwaKfkpm8pByJ1XYyeC</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10919527</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>I need a double room &amp;  triple room</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45951.77164041666</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>XD5jtsEKnogIoKprirQX</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If there is interconnecting rooms, in the room availability where the rates are showcasing, it would show the room Ma'am.
+</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>45951.77200331019</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cdkw2Ssg7SipyeoVaZ8Q</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Senali Gunasinghe</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>16.651</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.2775166666666667</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>dRQyk0p5IhOlrIY3pkgi</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10919527</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Its not in the room availability</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45951.77251626158</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>nvF9gJquSj9GMgMhR6Ud</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Can be absolutely booked, fill the details in the requested criteria and you will be able to add the booking to the cart
+</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>45951.77270898148</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cdkw2Ssg7SipyeoVaZ8Q</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Senali Gunasinghe</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2.965</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.04941666666666666</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>isTI7ISpyyuUOvQoVhqq</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10919527</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Thats why i wanted to ask personally</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45951.77267466435</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>nvF9gJquSj9GMgMhR6Ud</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Can be absolutely booked, fill the details in the requested criteria and you will be able to add the booking to the cart
+</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>45951.77270898148</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Cdkw2Ssg7SipyeoVaZ8Q</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Senali Gunasinghe</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>49.554</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8259000000000001</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>TXPavEIkW1U9mIaz1eZh</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10919527</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Ok thank u</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45951.77331642361</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>yM0dpvFfAam3xrRsg686</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No worries, Happy to assist. What i would suggest is using our hotel search which is located near the star rating line to search for rooms in the area that you want.
+</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>45951.77388996528</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EKh3tMj3NEUVv8Xtq6zp</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hasan7329</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>42.816</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7136</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ACiSwmc96tkklFJ1lRya</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10915597</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Singapore" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45951.77890894676</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>igEGxScWKtcVWBwu3Nw8</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Hi Hasan7329! I apologize for the inconvenience. It seems like there may have been a technical issue with the search results. Let me assist you in finding information about Singapore. What specifically are you looking for in Singapore? Feel free to provide more details so I can better assist you. Thank you!</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>45951.77940450232</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>FPI550pp9rbLIBf9hESc</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Praneesh</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1966666666666667</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SjqdDe3LiPcK65GPIURv</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10919519</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Food" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45951.62178971065</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>XUWKNET8T28OmgD7eC25</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Hi Praneesh, I apologize for the inconvenience. Could you please provide me with more details about the type of food you are looking for? This will help me better assist you in finding what you need. Thank you!</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>45951.62192628472</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>I4sd8jZaHWwQBL20sZjf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>roshiniis</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>82.01600000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.366933333333333</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>AsmHqtOGM1yxrG6Gojnb</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10917859</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>45951.28660265046</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>K5b5c2vhsCnjz4My04wg</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi, Thank you for reaching out to Aahaas
+How May I Assist you Today?
+</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>45951.28755190972</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>I4sd8jZaHWwQBL20sZjf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>roshiniis</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>90.745</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.512416666666667</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0eHTbsb0VWx9qMMnKIHI</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10917859</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bank" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45951.28759476852</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>AvYf0DyXijuz6IujQcgh</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please share your requirement with us, We will asisst you further
+</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>45951.28864505787</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>I4sd8jZaHWwQBL20sZjf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>roshiniis</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>77.166</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.2861</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Rr1tFYD4jHScxV6ZfFmn</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10917859</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Huket" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>45951.28775193287</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>AvYf0DyXijuz6IujQcgh</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please share your requirement with us, We will asisst you further
+</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>45951.28864505787</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>I4sd8jZaHWwQBL20sZjf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>roshiniis</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>69.744</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.1624</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>y8rQ7piBbO3RibrOPXKf</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10917859</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Phuket" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>45951.28783783565</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>AvYf0DyXijuz6IujQcgh</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please share your requirement with us, We will asisst you further
+</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>45951.28864505787</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>J3c69MoSK8nQelfcEObx</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Senali Gunasinghe</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>22.898</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.3816333333333333</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>qgNKNVugdHtlFdmO4DNn</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10919527</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Interconn" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>45951.77429513889</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>hHwfLDnjcVcFUuyBESli</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Hi Senali Gunasinghe, thank you for reaching out. I apologize for any confusion. Could you please provide me with more details about what you are looking for in regards to "Interconn" or "Interconnected rooms"? This will help me assist you better. Thank you.</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>45951.77456016203</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>J3c69MoSK8nQelfcEObx</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Senali Gunasinghe</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.3345</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>7LGpQ5UZa3XP5EbIUAhe</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10919527</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Interconnected rooms" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>45951.77432787037</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>hHwfLDnjcVcFUuyBESli</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Hi Senali Gunasinghe, thank you for reaching out. I apologize for any confusion. Could you please provide me with more details about what you are looking for in regards to "Interconn" or "Interconnected rooms"? This will help me assist you better. Thank you.</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>45951.77456016203</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>McGq04CTBJzIyYNIxkYq</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Dimithri600</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>18.785</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.3130833333333333</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>uSJVda6W1HByr6wRLc4i</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10919515</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Srila ka" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>45951.57999309028</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>52kSQPzG5kcqUUBYMQPf</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Hello Dimithri600, I'm sorry but I couldn't find any results for "Srila ka" in our app. Can you please provide me with more information or clarify what you are looking for so I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>45951.58021050926</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NvGqIteFzfKrrlaHpYY3</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>IsuSan</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>91.444</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.524066666666667</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ZPYFtVLmMpVLj9vn4pDf</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>10914693</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Foot" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>45951.45961883102</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>kwwEFhCXzj8gg5knnkSI</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Hi Isusan, 
+Thank you for reaching out to Aahaas
+How May I Assist you Today?</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>45951.46067721065</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NvGqIteFzfKrrlaHpYY3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>IsuSan</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>9.497999999999999</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1583</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Ccq1KXAdjhXzxBCwsGjI</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>10914693</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Dinning" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>45951.46056728009</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>kwwEFhCXzj8gg5knnkSI</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Hi Isusan, 
+Thank you for reaching out to Aahaas
+How May I Assist you Today?</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>45951.46067721065</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NvGqIteFzfKrrlaHpYY3</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>IsuSan</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>686.817</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11.44695</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>punFgDg5L0AgrkBkQhNF</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10914693</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Din3" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>45951.46087540509</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>tYM5WTXqHNzUnW4lD0FM</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Isusan, 
+Thank you for reaching out to Aahaas
+How May I Assist you Today?
+</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>45951.46882467593</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NvGqIteFzfKrrlaHpYY3</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>IsuSan</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>81.28700000000001</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.354783333333333</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>U3oAw3peh0dS92enSqH4</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>10914693</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Dinn8ng" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45951.46788385417</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>tYM5WTXqHNzUnW4lD0FM</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Isusan, 
+Thank you for reaching out to Aahaas
+How May I Assist you Today?
+</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>45951.46882467593</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NvGqIteFzfKrrlaHpYY3</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>IsuSan</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>77.527</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.292116666666667</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>7b4JWAcvLczSQYtxds74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>10914693</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Dinning" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>45951.46792737269</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>tYM5WTXqHNzUnW4lD0FM</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Isusan, 
+Thank you for reaching out to Aahaas
+How May I Assist you Today?
+</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>45951.46882467593</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PaBXPdUVp8YX8o88frCd</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>nish1993</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>96.84399999999999</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.614066666666667</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>UkgAKK2vSN1yRoJEKJc9</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>10919538</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Mald" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>45951.95731988426</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>lRjMb9GTIq5B1AUArUPD</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Hi isnish1993, I apologize for the inconvenience. Could you please provide me with more details about "Mald" so that I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>45951.95844076389</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>XBfpm95SA8yNrA5j9god</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Hetti  Perera</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>13.634</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.2272333333333333</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>pcppKDN99HuCLrmOte4r</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>10919520</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Sri la" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>45951.63625060185</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>lluRQRZz84HfudoGxRhv</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Hi Hetti Perera! I'm sorry that you couldn't find what you were looking for. Could you please provide me with more details about your search for "Sri la" so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>45951.63640840278</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>XBfpm95SA8yNrA5j9god</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Hetti  Perera</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>21.023</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.3503833333333333</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>6Y2R154gaVE7lo6EGiIX</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>10919520</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Sri lanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>45951.637579375</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>3DOBqAKr4acmJo0yYrhL</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Hi Hetti Perera! Thank you for reaching out. I apologize for the inconvenience. Let me help you find information on Sri Lanka. What specific details are you looking for? Let's make sure you have all the information you need for your travel plans.</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>45951.63782269676</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>XBfpm95SA8yNrA5j9god</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Hetti  Perera</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>17.644</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.2940666666666666</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>yRTlJqQeNjn8h763O0uw</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>10919520</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Sri lanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>45951.63849890047</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>FoYGeZlqyoRlwzQS9TmC</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Hi Hetti Perera! I'm sorry you couldn't find what you were looking for. Let me assist you in finding information on Sri Lanka. Feel free to ask any questions you may have. Let's make sure you have all the details you need for your travel plans.</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>45951.63870311343</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>XBfpm95SA8yNrA5j9god</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Hetti  Perera</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>410.371</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6.839516666666666</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ske14AohFSrQLVsBhMJI</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>10919520</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Sri lanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>45951.63912770833</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>qmHhcUoTOqaaIQloRuLF</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Hi Hetti Perera! I'm sorry you couldn't find the information you were looking for on Sri Lanka. Let me help you out with that. What specific details are you interested in learning about? Feel free to ask any questions you may have. Let's make sure you have all the information you need for your travel plans.</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>45951.64387737268</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>XBfpm95SA8yNrA5j9god</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Hetti  Perera</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>289.234</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.820566666666666</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>gtiAJ3ztQQ5xvE7SHdVi</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>10919520</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Sri lanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>45951.64052975694</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>qmHhcUoTOqaaIQloRuLF</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Hi Hetti Perera! I'm sorry you couldn't find the information you were looking for on Sri Lanka. Let me help you out with that. What specific details are you interested in learning about? Feel free to ask any questions you may have. Let's make sure you have all the information you need for your travel plans.</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>45951.64387737268</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Zg82DVAmCaovmEa5KVCC</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>kapithask</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>97.702</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.628366666666667</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>oUTFLa49PnToIu61AYuW</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Dam" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>45951.85120365741</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>AGA8w4c3kdrW7Q6GM69x</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Hi Kapithask, I apologize for the inconvenience. Could you please provide me with more details about "Dam", "Dambu", or "Dambulla" so that I can assist you better in finding what you are looking for? Thank you!</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>45951.85233446759</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Zg82DVAmCaovmEa5KVCC</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>kapithask</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>97.017</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.61695</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>d2Sl6le3B7YB9zVTxwQe</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Dambu" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>45951.85121158565</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>AGA8w4c3kdrW7Q6GM69x</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Hi Kapithask, I apologize for the inconvenience. Could you please provide me with more details about "Dam", "Dambu", or "Dambulla" so that I can assist you better in finding what you are looking for? Thank you!</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>45951.85233446759</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Zg82DVAmCaovmEa5KVCC</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>kapithask</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>96.09</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.6015</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Tuyk3JiI7z7nxbZvCd9E</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Dambulla" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>45951.85122231481</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>AGA8w4c3kdrW7Q6GM69x</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Hi Kapithask, I apologize for the inconvenience. Could you please provide me with more details about "Dam", "Dambu", or "Dambulla" so that I can assist you better in finding what you are looking for? Thank you!</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>45951.85233446759</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>cDiMnZYpXeMYUsasOqoE</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Riksanmix</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>92.054</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.534233333333333</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>nL2aY2rfllnaW9NK5jfh</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>45951.94923835648</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>DVTypxxCm6bqc41LYyCw</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Hi Riksanmix! How can I assist you today?</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>45951.95030379629</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>cDiMnZYpXeMYUsasOqoE</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Riksanmix</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>93.197</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.553283333333333</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>qQ1X4MH58mmQMMgulmvY</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Skg to muc on 22-10-2025</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>45951.9509058912</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>WwPxU6DdAwMD8CuPCCjQ</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">have you booked it sir
+</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="n">
+        <v>45951.95198456018</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>cDiMnZYpXeMYUsasOqoE</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Riksanmix</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>48.808</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.8134666666666667</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>qsqKqBleLlZit1Xh8Vld</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>45951.95141965277</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>WwPxU6DdAwMD8CuPCCjQ</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">have you booked it sir
+</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>45951.95198456018</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>cDiMnZYpXeMYUsasOqoE</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Riksanmix</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.4235</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>VZf3TUBns8EXZLYceeLH</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Aegean airline</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>45951.95214311343</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>5Konci96l9q4BpZElcFG</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">are you searching for it sir 
+</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>45951.95243721065</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>cDiMnZYpXeMYUsasOqoE</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Riksanmix</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>90.59699999999999</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.50995</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>WJjM4sYV5bcQhwIcQFLA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Hand carry available?</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>45951.95247887731</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>x4cKe3hikOcDGOcCWFJs</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">did you check through our app sir? if its available it will show 
+</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>45951.9535274537</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>cDiMnZYpXeMYUsasOqoE</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Riksanmix</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>16.677</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.27795</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>GXfqUuGRZbG9TTPdyCyi</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Showing not available</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>45951.95333443287</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>x4cKe3hikOcDGOcCWFJs</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">did you check through our app sir? if its available it will show 
+</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>45951.9535274537</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>cDiMnZYpXeMYUsasOqoE</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Riksanmix</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>41.564</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.6927333333333333</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>7XY6SjwvqtiNfXLvAGN2</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Can I have your mobile number?</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>45951.95392626157</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>tNc5dQR6WVb8K0R7KapN</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">did you try any other airlines sir
+</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>45951.95440732639</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>dq3nuMQ1vMW8lhiopwC0</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>82.419</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.37365</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>RfxMOnorUMpG9WSnYGzx</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Dinn" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>45951.54690934028</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>mQUv5fDqLIR09A58PfcL</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi, Thank you for reaching out to Aahaas
+How May I Assist you Today?
+</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>45951.54786326389</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>dq3nuMQ1vMW8lhiopwC0</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>80.61</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.3435</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>LEJdb5lk3KyX8qQPa07f</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Dinner buff" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>45951.54693027778</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>mQUv5fDqLIR09A58PfcL</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi, Thank you for reaching out to Aahaas
+How May I Assist you Today?
+</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>45951.54786326389</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>dq3nuMQ1vMW8lhiopwC0</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>79.729</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.328816666666667</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>dwcIalfLER7BDiPYCGGL</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Dinner buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>45951.54694047454</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>mQUv5fDqLIR09A58PfcL</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi, Thank you for reaching out to Aahaas
+How May I Assist you Today?
+</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>45951.54786326389</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>eR2LOmcsypVjxJxA0Y9S</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>amand9308</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>114.602</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.910033333333333</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>ntKD8XXKcV90Hh3vS9Oc</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>10919539</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Sri" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>45951.98710017361</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>rpzO4BY653qBq6CvjlB3</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Hi amand9308, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search for "Sri" or "Sri Lanka" so I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>45951.98842658565</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>eR2LOmcsypVjxJxA0Y9S</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>amand9308</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>85.167</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.41945</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>tbvekpTtKXX2JqCA4nSK</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10919539</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Sri lanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>45951.98744085648</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>rpzO4BY653qBq6CvjlB3</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Hi amand9308, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search for "Sri" or "Sri Lanka" so I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>45951.98842658565</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>iCbroVgv1h9mjTNSe05f</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>zaynaxx_</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>81.505</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.358416666666667</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>ZYdQeDB0pF7oKCqix4cT</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>10918987</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Evening tea" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>45951.60004082176</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>vpqNwb9ag1wb13LxXjQu</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi, Thank you for reaching out to Aahaas
+How May I Assist you Today?
+</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="n">
+        <v>45951.60098416667</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>jHHEHbsWoaiZbKdVwUDu</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>nathu</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>15.162</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>tXeFC6Z6vqg6Rxq22pGX</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>10914647</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Naaathuuu</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>45951.40043349537</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>hl8rCulNuC3l5VnaQN8K</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Hello Isnathu! How can we assist you today?</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="n">
+        <v>45951.40060898148</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>jHHEHbsWoaiZbKdVwUDu</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>nathu</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>54.977</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9162833333333332</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>39NlIsoFEhqsJmGvrVGr</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>10914647</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>45951.40061671296</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>fPvAq9fZySoVK6AyxR6w</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Hello Isnathu! How can we assist you today? Feel free to ask any questions or share any concerns you may have. We're here to help make your travel experience smooth and enjoyable.</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>45951.40125302083</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>jHHEHbsWoaiZbKdVwUDu</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>nathu</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>10.615</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.1769166666666667</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>t73gWU2C2voxM66d7g1g</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>10914647</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>45951.40113016203</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>fPvAq9fZySoVK6AyxR6w</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Hello Isnathu! How can we assist you today? Feel free to ask any questions or share any concerns you may have. We're here to help make your travel experience smooth and enjoyable.</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="n">
+        <v>45951.40125302083</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ndqZUySVysPmOLz1aUAR</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>yesha8996</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>593.833</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9.897216666666667</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>qHyxSuHucyzxtxCZf84S</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>10912284</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Hotep" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>45951.75002728009</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>w2tvGIuP9eAa4X5ryoOX</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Hi yesha8996, I'm sorry but I couldn't find any matches for "Hotep" in our database. Can you please provide more details about what you are looking for so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="n">
+        <v>45951.75690034722</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>vWJW8qpNDhdc51uxgCgh</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="n">
+        <v>5926.848</v>
+      </c>
+      <c r="D69" t="n">
+        <v>98.7808</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ol6OhDz4aQooSrtG0HaU</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>AHS_Guest</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Budget full b" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>45951.20103118056</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>jZIEEGyyJFzuyaDigqlh</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hi
+</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="n">
+        <v>45951.26962895833</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>vWJW8qpNDhdc51uxgCgh</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="n">
+        <v>5921.178</v>
+      </c>
+      <c r="D70" t="n">
+        <v>98.6863</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>c1Nq1ZWzWv1nKnWiTQT3</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>AHS_Guest</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Budget ha" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>45951.20109680555</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>jZIEEGyyJFzuyaDigqlh</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hi
+</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="n">
+        <v>45951.26962895833</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>zc7vgSohcX0q6IvPNOhU</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.4886666666666667</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>D6Cleu6pq7HDGxC6AS2P</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>We need a cake for wedding couple</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>45951.55178270833</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>eOTgFYmqA68pUUZTT5u8</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello Adhir!
+</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="n">
+        <v>45951.55212206019</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>zc7vgSohcX0q6IvPNOhU</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>24.083</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.4013833333333333</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>au3llJZDQz9OisnkPTXF</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>It’s possible to arrange</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>45951.55184332176</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>eOTgFYmqA68pUUZTT5u8</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello Adhir!
+</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="n">
+        <v>45951.55212206019</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>zc7vgSohcX0q6IvPNOhU</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>27.633</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.46055</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>EktsKU7o4WQZAHrwF1Mg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Not anniversary… wedding surprise dinner buffet for them so we need to give them piece of cake</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>45951.56326909722</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>bpKOBfm6teAJJYIftOmk</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For cinnamon grand right? May i know the date you are looking to book for?
+</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="n">
+        <v>45951.56358892361</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>zc7vgSohcX0q6IvPNOhU</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.3595</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>dJvFvTZ68fDEUKg0FOLQ</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Like a congratulations</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>45951.56333927083</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>bpKOBfm6teAJJYIftOmk</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For cinnamon grand right? May i know the date you are looking to book for?
+</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="n">
+        <v>45951.56358892361</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>zc7vgSohcX0q6IvPNOhU</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.3755</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>owpNfHldSniazrejfrtB</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Yes cinnamon Grand place restaurant…. Tonight dinner buffet.</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>45951.5638940162</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>J8P72jkRVMjUoG9aks98</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please allow us some moment to check on it and get back to you shortly.
+</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="n">
+        <v>45951.56415478009</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>zc7vgSohcX0q6IvPNOhU</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>84.952</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.415866666666667</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>pj3W4bp4g2ERzfNr3CjR</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Ok thank you</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>45951.56429928241</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>z2XSOgHuBjj4YtGHH9LZ</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">May i know how many pax count is looking forward to go today?
+</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>45951.56528252314</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>zc7vgSohcX0q6IvPNOhU</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>81.05200000000001</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.350866666666667</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>3jVigS07A2asOjZsMrOS</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2 pax</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>45951.56867416667</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>vRmsrC58gAabs7WIlHiH</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Yes, Can absolutely be done. We can also arrange a complimentary cake piece as per your request.</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="n">
+        <v>45951.56961226852</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>zc7vgSohcX0q6IvPNOhU</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>21.086</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.3514333333333333</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>ADqHM0IuaKUWLx36x1Ft</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Ok shall I make a reservation through the Aahaas app?</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>45951.57021407408</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>m0TPaw6AcnSaRroA36ZY</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes, You will have to make the reservation via the Aahaas App.
+</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>45951.570458125</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>zc7vgSohcX0q6IvPNOhU</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>35.937</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.59895</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>nCUmPbkoh7HXZyKOBwxS</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Couple name’s Natalian &amp; Navodya</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>45951.57098721065</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>FhBd5w8SmIOb2HHhv68X</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You have to fill the details in the product you are in and add to the cart.
+</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>45951.57140314815</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>zc7vgSohcX0q6IvPNOhU</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>21.851</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.3641833333333333</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>CIyNivZPKsZO8xOc9hF8</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Ok noted</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>45951.57514960648</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>mKOo7QmaTVYoM7nBJ1u4</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Let me know if you require further assistance, We will be happy to help!
+</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>45951.57540251157</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>zc7vgSohcX0q6IvPNOhU</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>40.116</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.6686</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>QXgGTuSp49OvDlOIBij7</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>I did the order . Order ID 7659</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>45951.59482528935</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>428xFQCUbyhDoM4aI2jn</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Awesome, We will arrange accordingly. Thank you for placing your trust on us!
+</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>45951.59528959491</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>zc7vgSohcX0q6IvPNOhU</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>71.806</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.196766666666667</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>vU6Olzb3mq6iEWceOu46</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Order ID 7596</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>45951.59542083334</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>GHs50v166IBsTT9Yf5II</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noted on your request. We will arrange
+</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>45951.5962519213</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>zc7vgSohcX0q6IvPNOhU</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.3185</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>83sC8WNkr08Ty7YkNxAl</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Order ID 7596 
+Please arrange the piece of cake and write congratulations…</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>45951.59603074074</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>GHs50v166IBsTT9Yf5II</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noted on your request. We will arrange
+</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>45951.5962519213</v>
+      </c>
+      <c r="L83" t="inlineStr">
         <is>
           <t>Alesha.H</t>
         </is>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,361 +502,375 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0W1pG8GthqZpXNMMOWVU</t>
+          <t>22HIY2PagsWQ2UO1Be6Y</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cinnamon</t>
+          <t>dillon</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>90.94499999999999</v>
+        <v>848.932</v>
       </c>
       <c r="D2" t="n">
-        <v>1.51575</v>
+        <v>14.14886666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ZR7VZ3ccYMcRuSAXwnkR</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10919324</v>
+          <t>kzecGpkLtkaSe87rzeGQ</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10914308</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Coupleday" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi im unable to select booking date</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45952.70955714121</v>
+        <v>45953.78074579861</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>EAR2PsDQBJrFkxCcP1QN</t>
+          <t>5TXJFRIM2rfahtHcz5dd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">HI?
-</t>
+          <t>Hello Dillon, thank you for reaching out. I apologize for the inconvenience you're experiencing with selecting a booking date. Could you please provide me with more details so I can assist you further? Thank you.</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45952.71060974537</v>
+        <v>45953.79057140047</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5rmnHsMbwMagyAOB44B6</t>
+          <t>3XfAVcREFGydkANo1ee2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>harindara</t>
+          <t>Chaluka Bimsara</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1336.147</v>
+        <v>21.592</v>
       </c>
       <c r="D3" t="n">
-        <v>22.26911666666667</v>
+        <v>0.3598666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>dzH0bex389HnMsl10Jw7</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10918058</v>
+          <t>1xPMbi8niw8aaAH5BG4V</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10911212</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Jap" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Singap" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45952.59756637731</v>
+        <v>45953.86007653935</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>62IwsqDVRMWIZUGRU1rx</t>
+          <t>KpiTCplcwXkbh5aMvbld</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hi Harindara, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Chaluka Bimsara, I apologize for the inconvenience. It seems like there may have been a typo in your search. Could you please provide more information about what you are looking for in Singapore so that I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45952.61303104167</v>
+        <v>45953.86032644676</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>636fa4ALbrEuklNNDd71</t>
+          <t>47XdJLZaUwwzxXw6RZt3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Harshanifj</t>
+          <t>pribal27</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>99.892</v>
+        <v>86.44799999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>1.664866666666666</v>
+        <v>1.4408</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>anngAQnEYljGB36sVT5B</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10919568</v>
+          <t>mF5zOHzjuPm4uLhcZSYn</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10919254</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Q Sindy" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45952.90908380787</v>
+        <v>45953.458466875</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>JlSHboUKeVwtdVpzu6EQ</t>
+          <t>v1JLkjQLxXX5s4fJ2RuK</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hi Harshanifj! I'm sorry, but I couldn't find any specific information on "Bang". Could you please provide me with more details or context so I can better assist you? Thank you!</t>
+          <t>Hi pribal27, I apologize for the inconvenience. Can you please provide me with more details about your travel preferences so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45952.91023996528</v>
+        <v>45953.45946743056</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6vyQ3DlFZcTWuHzU1ztU</t>
+          <t>5LZNTAvB3gjuimQQf77r</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>thuwa6119</t>
+          <t>nissy</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>86.816</v>
+        <v>39.499</v>
       </c>
       <c r="D5" t="n">
-        <v>1.446933333333333</v>
+        <v>0.6583166666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>64nZJSI2wh7dFikfB8qF</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10919540</v>
+          <t>jmUuY3gH0rxSNAuai4VR</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10918719</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hteli" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45952.04310322917</v>
+        <v>45953.84092887732</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>XMGnlg1RdGThvExza2Dm</t>
+          <t>3l57CsmTYegHcFVSV28P</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hi isthuwa6119! I'm sorry, but I couldn't find any specific details for "Bang". Could you please provide me with more information so I can assist you better? Thank you!</t>
+          <t>Hi Nissy! I'm sorry, but I couldn't find any results for "Hteli." Could you please provide me with more information or clarify what you're looking for so I can better assist you? Thank you!</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45952.04410804399</v>
+        <v>45953.84138604167</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8MEgNb7yiTot6RwwtS6O</t>
+          <t>7tFwgU0JpkMyuu3YCeZb</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>malik6880</t>
+          <t>boomi</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>84.741</v>
+        <v>97.812</v>
       </c>
       <c r="D6" t="n">
-        <v>1.41235</v>
+        <v>1.6302</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>tVnORKs3asMAyYMKq1pt</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10919543</v>
+          <t>gxIAfBBJEzpSvcw6PiiK</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10919537</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Maly" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sıvı" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45952.27506686343</v>
+        <v>45953.25580224537</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>hgv81sdm4ZqQ0bghUoNS</t>
+          <t>NN0qTEKlXpjV7Tn8wWus</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hi Malik6880, thank you for reaching out. I apologize for the inconvenience. Can you please provide me with more details about what you are looking for so that I can assist you better? Thank you.</t>
+          <t>Hi boomi! I'm sorry, but I couldn't find any specific results for "Sıvı". Could you please provide me with more details or clarify what you're looking for so I can assist you better?</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45952.27604766204</v>
+        <v>45953.2569343287</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8MEgNb7yiTot6RwwtS6O</t>
+          <t>AWnRyT5Epfb5l42iCODQ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>malik6880</t>
+          <t>riyaj5646</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>79.848</v>
+        <v>212.589</v>
       </c>
       <c r="D7" t="n">
-        <v>1.3308</v>
+        <v>3.54315</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>tv95Iv6FEnm9IcXd4VOp</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10919543</v>
+          <t>gMU0xW1SUvHYF7dRs56i</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10911306</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kuala" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ramada d" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45952.27512349537</v>
+        <v>45953.21239230324</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>hgv81sdm4ZqQ0bghUoNS</t>
+          <t>BEDbLWVl5zaA5w9NeKyv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hi Malik6880, thank you for reaching out. I apologize for the inconvenience. Can you please provide me with more details about what you are looking for so that I can assist you better? Thank you.</t>
+          <t xml:space="preserve">you can simply book the ramada dinner buffet that is visible in our home page 
+</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45952.27604766204</v>
+        <v>45953.21485282407</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8MEgNb7yiTot6RwwtS6O</t>
+          <t>H3my8WEys5qFpxcif2k5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>malik6880</t>
+          <t>yohan9552</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40.452</v>
+        <v>82.741</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6742</v>
+        <v>1.379016666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fDdkiE3H74X3dFhYNk3A</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10919543</v>
+          <t>en3Gm35pZMOwTieJgTNm</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10910911</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kuala amour" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hilto" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45952.27557946759</v>
+        <v>45953.57488465278</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>hgv81sdm4ZqQ0bghUoNS</t>
+          <t>aljVjfBgzbBCJG2WS1en</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hi Malik6880, thank you for reaching out. I apologize for the inconvenience. Can you please provide me with more details about what you are looking for so that I can assist you better? Thank you.</t>
+          <t>Hi yohan9552, I apologize for the confusion. It seems like there might have been a typo in your search. Did you mean "Hilton" by any chance? Let me know how I can assist you further!</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45952.27604766204</v>
+        <v>45953.57584230324</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -867,1197 +881,1240 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9kekUqwDyv4MwENZtw2L</t>
+          <t>HAPKZAYkYoVU4xLe6A5P</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dhanrakshan</t>
+          <t>sobin Boss 77</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>82.687</v>
+        <v>113.489</v>
       </c>
       <c r="D9" t="n">
-        <v>1.378116666666667</v>
+        <v>1.891483333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8CcL9ijTKjiztY7GHgZs</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10917704</v>
+          <t>zjSNBj0e80iuaSVXm0N7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10919586</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Fullbody" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45952.30294787037</v>
+        <v>45953.5536868287</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>SLOLpIRrknuPxneJTTFY</t>
+          <t>IuIzIAMsWDiEegQvetw6</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Hi Dhanrakshan, I apologize for the inconvenience. Can you please provide me with more details about "Fullbody" so I can better assist you in finding what you're looking for? Thank you for reaching out.</t>
+          <t>Hi Sobin Boss 77, I'm sorry that you couldn't find any results for "Thailand." Let me assist you in finding the information you need. Can you provide me with more details about what you're looking for in Thailand so I can better help you? Thank you!</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45952.30390489583</v>
+        <v>45953.5550003588</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CC9dVEYq3Lo45ygoub18</t>
+          <t>KZMWViNFE92iCGXXnGQq</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jeewadith</t>
+          <t>Sheema</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.468</v>
+        <v>86.29600000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3411333333333333</v>
+        <v>1.438266666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>QrKC6KMi6NICRoGWPtZ6</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10919561</v>
+          <t>behYIShPcUl2IqWB4n29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10919587</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Wet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45952.76143405092</v>
+        <v>45953.57756186343</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>9a6uVIJTWQJraAzdtsnm</t>
+          <t>Xh2evlxgHLDl2w1Wy0mD</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Hi Jeewadith, I'm sorry to hear that you couldn't find what you were looking for. Can you please provide me with more details about the type of "Wet" you are searching for so I can better assist you? Thank you!</t>
+          <t>Hi Sheema! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about the type of buffet you are searching for? I'll do my best to assist you in finding the perfect option for your travel plans.</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45952.76167094908</v>
+        <v>45953.57856065972</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CC9dVEYq3Lo45ygoub18</t>
+          <t>L9FrHOi7eNWw33qfRcm8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jeewadith</t>
+          <t>Gagana</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>27.408</v>
+        <v>104.662</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4568</v>
+        <v>1.744366666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>F4g03aCjiyF4OS1sncDB</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10919561</v>
+          <t>N7uzXrCWikGVZlX43Zpk</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8054</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Wetwat" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "18+" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45952.76262685185</v>
+        <v>45953.47702</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>bFr9b5LwaKdK5PfA6OJ8</t>
+          <t>GG5LccBFAHeLx9uecFae</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Hi Jeewadith, I'm sorry to hear that you couldn't find what you were looking for. Can you please provide me with more details about "Wetwat" so I can better assist you? Thank you!</t>
+          <t xml:space="preserve">Hi Gagana, I'm sorry to hear that you couldn't find what you were looking for.  Let me know if you need any assistance with your travel plans.
+</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45952.76294407407</v>
+        <v>45953.47823136574</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HGutvQxMYCdcS8QDVHpa</t>
+          <t>Oe94SrB5DUEWLZE6ByTo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Vish_H</t>
+          <t>NuflanNasar</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484.627</v>
+        <v>30.96</v>
       </c>
       <c r="D12" t="n">
-        <v>8.077116666666667</v>
+        <v>0.516</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8G1Fijuv97ymoKXlMXZV</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10916715</v>
+          <t>swIySRaNzCi1aJ5VdQlv</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10911915</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Me colombo high tea" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Neg" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45952.20236550926</v>
+        <v>45953.87877387732</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>aLTK70TI0zJG1TuETvlv</t>
+          <t>m4t2FOS0InJhmfS1UpMo</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi sir you can find our me colombo offer on our home page
-</t>
+          <t>Hi Nuflan Nasar, I'm sorry that you couldn't find what you were looking for. Negombo is a beautiful destination in Sri Lanka known for its beaches and vibrant culture. Let me assist you in finding the information you need. Can you please provide me with more details on your travel preferences or requirements?</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45952.20797461805</v>
+        <v>45953.87913221065</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HGutvQxMYCdcS8QDVHpa</t>
+          <t>Oe94SrB5DUEWLZE6ByTo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Vish_H</t>
+          <t>NuflanNasar</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8.292999999999999</v>
+        <v>30.247</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1382166666666667</v>
+        <v>0.5041166666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2iOujlho7XyuyuVJKVEQ</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10916715</v>
+          <t>FrGUXg0YOoQirJZMYvlA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10911915</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Coupl" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Negombo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45952.20787863426</v>
+        <v>45953.87878212963</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aLTK70TI0zJG1TuETvlv</t>
+          <t>m4t2FOS0InJhmfS1UpMo</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi sir you can find our me colombo offer on our home page
-</t>
+          <t>Hi Nuflan Nasar, I'm sorry that you couldn't find what you were looking for. Negombo is a beautiful destination in Sri Lanka known for its beaches and vibrant culture. Let me assist you in finding the information you need. Can you please provide me with more details on your travel preferences or requirements?</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45952.20797461805</v>
+        <v>45953.87913221065</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>I3OzQcZ77TbZKhuDcERX</t>
+          <t>PQoLXCRMPgcLsjQ1Gylt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Disaagi</t>
+          <t>AsithaRajapakse</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>93.18300000000001</v>
+        <v>90.807</v>
       </c>
       <c r="D14" t="n">
-        <v>1.55305</v>
+        <v>1.51345</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>lduVqH88ImP6UdHyj8F8</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4243</v>
+          <t>8R8UfhB1gHw1PbKy2XmZ</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10919600</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "That" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thal" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45952.4547131713</v>
+        <v>45953.98186144676</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Y1IICuoxZAnZvIzEj5nH</t>
+          <t>1mcagLMCDnCAzy43jjOy</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Hi Disaagi! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "That" so I can assist you better?</t>
+          <t>Hi AsithaRajapakse, I'm sorry but I couldn't find any information on "Thal." Could you please provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45952.45579167824</v>
+        <v>45953.98291245371</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JxU8kMiPDgSswuX9omTj</t>
+          <t>PaBXPdUVp8YX8o88frCd</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Madwa98</t>
+          <t>nish1993</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>102.97</v>
+        <v>29.406</v>
       </c>
       <c r="D15" t="n">
-        <v>1.716166666666667</v>
+        <v>0.4901</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>dFyMKn0lwQZGOpiQGvLQ</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10919566</v>
+          <t>VxLIY9VUAAdyjM3PLfaS</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10919538</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "thaila" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Avem" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45952.88463368056</v>
+        <v>45953.85554858796</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>tkje1yPnJBKgZGnCuwLZ</t>
+          <t>VkS3S7UKVI2spYdPAKXi</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Hi Madwa98, I'm sorry that you couldn't find what you were looking for. Could you please provide me with more details so I can assist you better? Thank you.</t>
+          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45952.88582546296</v>
+        <v>45953.85588893518</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>JxU8kMiPDgSswuX9omTj</t>
+          <t>PaBXPdUVp8YX8o88frCd</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Madwa98</t>
+          <t>nish1993</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>89.003</v>
+        <v>29.343</v>
       </c>
       <c r="D16" t="n">
-        <v>1.483383333333333</v>
+        <v>0.48905</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>w8Eme6qidEp62G4VQSze</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10919566</v>
+          <t>kB3Yn3eSIX1EvKGxlFta</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10919538</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "bank" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ave" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45952.88479533565</v>
+        <v>45953.85554931713</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>tkje1yPnJBKgZGnCuwLZ</t>
+          <t>VkS3S7UKVI2spYdPAKXi</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Hi Madwa98, I'm sorry that you couldn't find what you were looking for. Could you please provide me with more details so I can assist you better? Thank you.</t>
+          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45952.88582546296</v>
+        <v>45953.85588893518</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>L9FrHOi7eNWw33qfRcm8</t>
+          <t>PaBXPdUVp8YX8o88frCd</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gagana</t>
+          <t>nish1993</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>109.485</v>
+        <v>28.837</v>
       </c>
       <c r="D17" t="n">
-        <v>1.82475</v>
+        <v>0.4806166666666666</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FlIMZMDvw5nDhNONLuwB</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8054</v>
+          <t>j8wRfZKolhx48rjSwsTV</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10919538</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Nuwaraeliya" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Aven" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45952.5268037037</v>
+        <v>45953.85555517361</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>ftWYgcqvKU0oRJ8TBfbm</t>
+          <t>VkS3S7UKVI2spYdPAKXi</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Hi Gagana, I apologize for the inconvenience. It seems like there may have been a typo in your search. Nuwara Eliya is a beautiful city in Sri Lanka known for its stunning landscapes and cool climate. How can I assist you further with your travel plans to Nuwara Eliya? Let me know if you need any assistance.</t>
+          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45952.5280708912</v>
+        <v>45953.85588893518</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>L9FrHOi7eNWw33qfRcm8</t>
+          <t>PaBXPdUVp8YX8o88frCd</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gagana</t>
+          <t>nish1993</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>91.934</v>
+        <v>27.959</v>
       </c>
       <c r="D18" t="n">
-        <v>1.532233333333333</v>
+        <v>0.4659833333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>n1zHGZMeDLBJd5DOR5u9</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8054</v>
+          <t>nwYI82hAgzfHCeFgqlvU</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10919538</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Jagg" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Avenr" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45952.53032071759</v>
+        <v>45953.85556533565</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>VDcEWgy5QZp0OAJe2lwg</t>
+          <t>VkS3S7UKVI2spYdPAKXi</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Hi Gagana, I'm sorry to hear that you couldn't find what you were looking for. Jaffna is a vibrant city in northern How can I assist you further with your travel plans to Jaffna? Let me know if you need any help.</t>
+          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45952.53138476852</v>
+        <v>45953.85588893518</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>L9FrHOi7eNWw33qfRcm8</t>
+          <t>PaBXPdUVp8YX8o88frCd</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gagana</t>
+          <t>nish1993</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>90.623</v>
+        <v>27.1</v>
       </c>
       <c r="D19" t="n">
-        <v>1.510383333333333</v>
+        <v>0.4516666666666667</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gFsMekw87kMxPgJYMipj</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8054</v>
+          <t>zNAYYwHu1kjEjLk6GrJT</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10919538</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Jaffna" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Avenra" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45952.53033589121</v>
+        <v>45953.85557527778</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>VDcEWgy5QZp0OAJe2lwg</t>
+          <t>VkS3S7UKVI2spYdPAKXi</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Hi Gagana, I'm sorry to hear that you couldn't find what you were looking for. Jaffna is a vibrant city in northern How can I assist you further with your travel plans to Jaffna? Let me know if you need any help.</t>
+          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45952.53138476852</v>
+        <v>45953.85588893518</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>L9FrHOi7eNWw33qfRcm8</t>
+          <t>PaBXPdUVp8YX8o88frCd</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gagana</t>
+          <t>nish1993</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>73.164</v>
+        <v>22.73</v>
       </c>
       <c r="D20" t="n">
-        <v>1.2194</v>
+        <v>0.3788333333333334</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5XmfeHg2IUrqgb5Ezorw</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8054</v>
+          <t>MtxKr7cm1SgaLrvsJxX8</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10919538</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Jaffna" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Avenra" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45952.53053796296</v>
+        <v>45953.85562585648</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>VDcEWgy5QZp0OAJe2lwg</t>
+          <t>VkS3S7UKVI2spYdPAKXi</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Hi Gagana, I'm sorry to hear that you couldn't find what you were looking for. Jaffna is a vibrant city in northern How can I assist you further with your travel plans to Jaffna? Let me know if you need any help.</t>
+          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45952.53138476852</v>
+        <v>45953.85588893518</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lz8Fazriy3jU1Aev7nwS</t>
+          <t>PaBXPdUVp8YX8o88frCd</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ckavi6254</t>
+          <t>nish1993</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>124.085</v>
+        <v>21.34</v>
       </c>
       <c r="D21" t="n">
-        <v>2.068083333333333</v>
+        <v>0.3556666666666667</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>79AoZYVLs5VNrAXZx5jQ</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10919571</v>
+          <t>afqSS5KCfL3PNoeNQp4L</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10919538</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Taila" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Avenra gan" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45952.95002971065</v>
+        <v>45953.85564194444</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>ltD4rp86zwV1trDsD2T4</t>
+          <t>VkS3S7UKVI2spYdPAKXi</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">kindly contact us to +94 71 174 4227
-</t>
+          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45952.95146587963</v>
+        <v>45953.85588893518</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lz8Fazriy3jU1Aev7nwS</t>
+          <t>PaBXPdUVp8YX8o88frCd</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ckavi6254</t>
+          <t>nish1993</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>116.29</v>
+        <v>19.893</v>
       </c>
       <c r="D22" t="n">
-        <v>1.938166666666667</v>
+        <v>0.33155</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ZyZGiXuuOwnIV3YOpBIq</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10919571</v>
+          <t>UyUMTEiCNyZ0a2XVafjT</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10919538</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Avenra gangaa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45952.95011993055</v>
+        <v>45953.85565869213</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ltD4rp86zwV1trDsD2T4</t>
+          <t>VkS3S7UKVI2spYdPAKXi</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">kindly contact us to +94 71 174 4227
-</t>
+          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45952.95146587963</v>
+        <v>45953.85588893518</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lz8Fazriy3jU1Aev7nwS</t>
+          <t>PaBXPdUVp8YX8o88frCd</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ckavi6254</t>
+          <t>nish1993</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>86.818</v>
+        <v>19.136</v>
       </c>
       <c r="D23" t="n">
-        <v>1.446966666666667</v>
+        <v>0.3189333333333333</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>nJbjTG8C4RvVRolUKGlY</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10919571</v>
+          <t>szi3tvCyAWNvkGpmt0NJ</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10919538</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Singa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Avenra gangaar" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45952.95296841435</v>
+        <v>45953.8556674537</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8HK57JHz2uI1qbDVXmFh</t>
+          <t>VkS3S7UKVI2spYdPAKXi</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Admin: Hi ckavi6254, thank you for reaching out. I'm sorry that you couldn't find what you were looking for. Please feel free to contact us at +94 71 174 4227 so we can assist you further.</t>
+          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45952.95397325231</v>
+        <v>45953.85588893518</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MUTyDep1O5dKjGRCER7I</t>
+          <t>PaBXPdUVp8YX8o88frCd</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sadiiliyanage</t>
+          <t>nish1993</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>86.61199999999999</v>
+        <v>18.417</v>
       </c>
       <c r="D24" t="n">
-        <v>1.443533333333333</v>
+        <v>0.30695</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>9u831DdWYIE9s3Y5QVIl</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10915070</v>
+          <t>QHqylC3Nvi08fl0objAD</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10919538</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>Hi, I was searching for "Avenra gangaara" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45952.67989287037</v>
+        <v>45953.85567577546</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>p33FX8eVUa9ubuC4oycL</t>
+          <t>VkS3S7UKVI2spYdPAKXi</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Hello, Sadiliyanage! How can I assist you today?</t>
+          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45952.68089532408</v>
+        <v>45953.85588893518</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MUTyDep1O5dKjGRCER7I</t>
+          <t>PaBXPdUVp8YX8o88frCd</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sadiiliyanage</t>
+          <t>nish1993</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>72.26300000000001</v>
+        <v>1.993</v>
       </c>
       <c r="D25" t="n">
-        <v>1.204383333333333</v>
+        <v>0.03321666666666667</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DO1nT19OJSNxCkVwx10h</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10915070</v>
+          <t>PapShYhFZsKNltNmuIRq</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10919538</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>i want book on 25 for dinner</t>
+          <t>Hi, I was searching for "Avenra" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45952.68005894676</v>
+        <v>45953.85586586806</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>p33FX8eVUa9ubuC4oycL</t>
+          <t>VkS3S7UKVI2spYdPAKXi</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Hello, Sadiliyanage! How can I assist you today?</t>
+          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45952.68089532408</v>
+        <v>45953.85588893518</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MUTyDep1O5dKjGRCER7I</t>
+          <t>PaBXPdUVp8YX8o88frCd</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sadiiliyanage</t>
+          <t>nish1993</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>56.056</v>
+        <v>23.833</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9342666666666666</v>
+        <v>0.3972166666666667</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>jiB2D7mZ963MRDYtgvES</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10915070</v>
+          <t>YX5yRpr6KM4Q8kOqP9Sm</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10919538</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Available ?</t>
+          <t>Hi, I was searching for "Aven" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45952.68024652778</v>
+        <v>45953.85714807871</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>p33FX8eVUa9ubuC4oycL</t>
+          <t>m35u2ZxJvE5GHVAYxETP</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Hello, Sadiliyanage! How can I assist you today?</t>
+          <t>Hi isnish1993, I apologize for the inconvenience. Unfortunately, we do not currently have any listings for "Avenra," "Aven," or "Gan." If you have any other destinations or preferences in mind, please feel free to share them with me so I can assist you further. Thank you for considering us for your travel needs.</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45952.68089532408</v>
+        <v>45953.85742392361</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MUTyDep1O5dKjGRCER7I</t>
+          <t>PaBXPdUVp8YX8o88frCd</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>sadiiliyanage</t>
+          <t>nish1993</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>43.136</v>
+        <v>19.169</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7189333333333334</v>
+        <v>0.3194833333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>smPosbFJQyvTjoh3uEdC</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10915070</v>
+          <t>fnbMO02MzqMLWdGwSjiO</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10919538</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>076837465</t>
+          <t>Hi, I was searching for "Gan" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45952.68206094908</v>
+        <v>45953.85720206019</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>mDA0NOmSoixwuNkpQqu5</t>
+          <t>m35u2ZxJvE5GHVAYxETP</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kindly share an active whatsApp number with us. 
-</t>
+          <t>Hi isnish1993, I apologize for the inconvenience. Unfortunately, we do not currently have any listings for "Avenra," "Aven," or "Gan." If you have any other destinations or preferences in mind, please feel free to share them with me so I can assist you further. Thank you for considering us for your travel needs.</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45952.68256020833</v>
+        <v>45953.85742392361</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOP4h5NllLbRKb4cbXF8</t>
+          <t>PaBXPdUVp8YX8o88frCd</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>thilelp</t>
+          <t>nish1993</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>635.85</v>
+        <v>17.12</v>
       </c>
       <c r="D28" t="n">
-        <v>10.5975</v>
+        <v>0.2853333333333333</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>P8aA70hdVVtYlhWkLImG</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10919237</v>
+          <t>mm656SJmErmaH1r0v59A</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10919538</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bankon" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Gan" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45952.60601532408</v>
+        <v>45953.85767429398</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>cWfHSDnQnS4SX8c7LzQb</t>
+          <t>EAPUiksP25amKbsd0BRP</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Hi Thilelp! I'm sorry, but we don't have any information on "Bankon." Is there anything else I can assist you with today?</t>
+          <t>Hi isnish1993, I appreciate you reaching out to us. I'm sorry to hear that we don't currently have listings for "Gan" or "Gang." If you have any other destinations in mind or need assistance with anything else, please let me know. I'm here to help!</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45952.61337469907</v>
+        <v>45953.85787244213</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TtKb1DANNY4dzE9J3ywC</t>
+          <t>PaBXPdUVp8YX8o88frCd</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Rashini Warnakuka</t>
+          <t>nish1993</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>86.048</v>
+        <v>13.59</v>
       </c>
       <c r="D29" t="n">
-        <v>1.434133333333333</v>
+        <v>0.2265</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>yUGFQBwe1TtFVbIA7uSs</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10919559</v>
+          <t>4WVpFhilqcGbeKXfUo5L</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10919538</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinnaml" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Gang" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45952.71767858796</v>
+        <v>45953.85771515047</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>OqRJsz0CP67WjFNwKvJN</t>
+          <t>EAPUiksP25amKbsd0BRP</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Hi Rashini, I'm sorry but I couldn't find any information on "Cinnaml" in our database. Could you please provide me with more details or clarify what you are looking for? I'd be happy to assist you further.</t>
+          <t>Hi isnish1993, I appreciate you reaching out to us. I'm sorry to hear that we don't currently have listings for "Gan" or "Gang." If you have any other destinations in mind or need assistance with anything else, please let me know. I'm here to help!</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45952.71867451389</v>
+        <v>45953.85787244213</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>V9uZg0UoaT6f7psM9fML</t>
+          <t>QO5EOE5PfvlmCqZ4wDIT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Anjaleeperera</t>
+          <t>oveen</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>298.248</v>
+        <v>106.669</v>
       </c>
       <c r="D30" t="n">
-        <v>4.9708</v>
+        <v>1.777816666666667</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sBDbdeqNHbfGiXScH9Op</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>10918874</v>
+          <t>pJOzCynQpRDZPSXjmMWY</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10919598</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45952.49787594908</v>
+        <v>45953.93862005787</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2Iwyt0fqIaz1dqmeMcrK</t>
+          <t>D2aEUJyAmrMVa7P3Y1oS</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Hi Anjaleeperera, I'm sorry but we currently do not have any listings for Hilton. Is there another hotel or location you are interested in? Let me know how I can assist you further.</t>
+          <t xml:space="preserve">Hi Oveen, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about what you mean by "bang" so I can assist you better? Thank you!
+</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45952.50132789352</v>
+        <v>45953.93985465278</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>V9uZg0UoaT6f7psM9fML</t>
+          <t>UmCORR33Bu9S0MtDc6tc</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Anjaleeperera</t>
+          <t>razih9640</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>38.534</v>
+        <v>147.062</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6422333333333333</v>
+        <v>2.451033333333334</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>qZE01qRxbQIdQRB23ROv</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>10918874</v>
+          <t>yCvBkMMKTBr5oJueXywR</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10919510</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kingsbury" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sr" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45952.50088189815</v>
+        <v>45953.43963378472</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2Iwyt0fqIaz1dqmeMcrK</t>
+          <t>laUjZwt7hwqC2SDeuRth</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Hi Anjaleeperera, I'm sorry but we currently do not have any listings for Hilton. Is there another hotel or location you are interested in? Let me know how I can assist you further.</t>
+          <t>Hi razih9640, I'm sorry you couldn't find what you were looking for. Let me assist you in your search for "Sr" or "Comolm". Please provide me with more information so I can help you better. Thank you!</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45952.50132789352</v>
+        <v>45953.44133589121</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2068,48 +2125,50 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>V9uZg0UoaT6f7psM9fML</t>
+          <t>UmCORR33Bu9S0MtDc6tc</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Anjaleeperera</t>
+          <t>razih9640</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>18.762</v>
+        <v>142.78</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3127</v>
+        <v>2.379666666666667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EKVU536ZzKCH8XPYVIhs</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>10918874</v>
+          <t>5UC9gXwtyU9H6RPpdqCt</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10919510</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Shra" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Comolm" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45952.50111074074</v>
+        <v>45953.43968334491</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2Iwyt0fqIaz1dqmeMcrK</t>
+          <t>laUjZwt7hwqC2SDeuRth</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Hi Anjaleeperera, I'm sorry but we currently do not have any listings for Hilton. Is there another hotel or location you are interested in? Let me know how I can assist you further.</t>
+          <t>Hi razih9640, I'm sorry you couldn't find what you were looking for. Let me assist you in your search for "Sr" or "Comolm". Please provide me with more information so I can help you better. Thank you!</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>45952.50132789352</v>
+        <v>45953.44133589121</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2120,48 +2179,50 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>V9uZg0UoaT6f7psM9fML</t>
+          <t>VvEwG9GeXre8f9NjZRyo</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Anjaleeperera</t>
+          <t>SewwandiY</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5.682</v>
+        <v>85.758</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09470000000000001</v>
+        <v>1.4293</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>vadhXoB8xfuojJLGSvim</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10918874</v>
+          <t>Edpyjnb0nDAnNG7gLsWg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10913303</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Shran" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thaia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45952.50126212963</v>
+        <v>45953.67739775463</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2Iwyt0fqIaz1dqmeMcrK</t>
+          <t>R7oBWEPCUqHfCGtjfe8S</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Hi Anjaleeperera, I'm sorry but we currently do not have any listings for Hilton. Is there another hotel or location you are interested in? Let me know how I can assist you further.</t>
+          <t>Hi Sewwandi, I'm sorry but I couldn't find any information on "Thaia". Could you please provide more details or clarify what you're looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>45952.50132789352</v>
+        <v>45953.67839032407</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2172,48 +2233,50 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>V9uZg0UoaT6f7psM9fML</t>
+          <t>Wfgj4h4FRDTzSIt0JdtO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Anjaleeperera</t>
+          <t>chathurikas</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>45.285</v>
+        <v>84.389</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7547499999999999</v>
+        <v>1.406483333333333</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>YjKpZo32AsIN2V1VxA9c</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10918874</v>
+          <t>FKIMtLxcoX0EpIdzbdZF</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10918116</t>
+        </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sran" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dis" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45952.50135217592</v>
+        <v>45953.4523294213</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TtmZrjuCAh1hBJg4QquW</t>
+          <t>7ETQmBZlq8pEeivixFfE</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Hi Anjaleeperera, I'm sorry but we currently do not have any listings for Kingsbury. Is there another hotel or location you are interested in? Let me know how I can assist you further.</t>
+          <t>Hi Chathurika, I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. Can you please provide more details or context so I can better assist you in finding what you're looking for? Thank you for your patience.</t>
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>45952.50187630787</v>
+        <v>45953.45330614584</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2224,100 +2287,104 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>V9uZg0UoaT6f7psM9fML</t>
+          <t>Wfgj4h4FRDTzSIt0JdtO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Anjaleeperera</t>
+          <t>chathurikas</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>44.54</v>
+        <v>79.009</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7423333333333333</v>
+        <v>1.316816666666667</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>9c81zpcqOgXuFUI7r7gW</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>10918874</v>
+          <t>OQNjncoK0tSss2c0GmxV</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10918116</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Tc" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Off" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45952.85014914352</v>
+        <v>45953.45239168982</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>4m8fWxhzN6XTuhONKWLd</t>
+          <t>7ETQmBZlq8pEeivixFfE</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Hi Anjaleeperera, I apologize for the inconvenience. It seems that we do not have any listings matching your search terms at the moment. Is there a different destination or hotel you are interested in exploring? Let me know how I can assist you further.</t>
+          <t>Hi Chathurika, I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. Can you please provide more details or context so I can better assist you in finding what you're looking for? Thank you for your patience.</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45952.85066465277</v>
+        <v>45953.45330614584</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>V9uZg0UoaT6f7psM9fML</t>
+          <t>dq3nuMQ1vMW8lhiopwC0</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Anjaleeperera</t>
+          <t>Adhir</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>39.357</v>
+        <v>38.116</v>
       </c>
       <c r="D36" t="n">
-        <v>0.65595</v>
+        <v>0.6352666666666666</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>tS7yD8GTieu2nIKMLCRy</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10918874</v>
+          <t>uDb6DDtMxnlhxe3BVmFR</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Itc" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Mov" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45952.85020913195</v>
+        <v>45953.81878105324</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4m8fWxhzN6XTuhONKWLd</t>
+          <t>P060EqQqPpGSVWmncx4y</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Hi Anjaleeperera, I apologize for the inconvenience. It seems that we do not have any listings matching your search terms at the moment. Is there a different destination or hotel you are interested in exploring? Let me know how I can assist you further.</t>
+          <t>Hi Adhir, I'm sorry, but I couldn't find any results for "Mov". Can you please provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45952.85066465277</v>
+        <v>45953.81922221064</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2328,100 +2395,104 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>V9uZg0UoaT6f7psM9fML</t>
+          <t>hiRbgoTaZbegoHuPschO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Anjaleeperera</t>
+          <t>ragit3935</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>35.596</v>
+        <v>87.804</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5932666666666666</v>
+        <v>1.4634</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>8cG3lcJHZg5XQVFXn07c</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>10918874</v>
+          <t>3cdoXcm96DZXyKAz5d2B</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10910234</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Rath" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Radees" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45952.85025266204</v>
+        <v>45953.50857680556</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>4m8fWxhzN6XTuhONKWLd</t>
+          <t>nlHuZ0MrpkTNQ4t8UDEJ</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Hi Anjaleeperera, I apologize for the inconvenience. It seems that we do not have any listings matching your search terms at the moment. Is there a different destination or hotel you are interested in exploring? Let me know how I can assist you further.</t>
+          <t>Hello ragit3935, I'm sorry but it seems like "Radees" and "Radeetion" are not terms or destinations that we currently offer. Can you please provide me with more information or specific details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>45952.85066465277</v>
+        <v>45953.50959305555</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>cd0VfPfyIVeQaHXUSM1G</t>
+          <t>hiRbgoTaZbegoHuPschO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sanara1</t>
+          <t>ragit3935</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>125.359</v>
+        <v>83.274</v>
       </c>
       <c r="D38" t="n">
-        <v>2.089316666666666</v>
+        <v>1.3879</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>34eq5zzM9M1rM59OlqeO</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>10918838</v>
+          <t>UsMzzoAg5zgIJV0h5jXx</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>10910234</t>
+        </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hi can I know the progress on the refund. Because it has been 11 days now</t>
+          <t>Hi, I was searching for "Radeetion" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45952.71035787037</v>
+        <v>45953.50862923611</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0sjtnBHg11ITixLu6J2X</t>
+          <t>nlHuZ0MrpkTNQ4t8UDEJ</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Hi Sanara1, thank you for your patience. I will check on the progress of your refund and get back to you as soon as possible. Thank you for reaching out.</t>
+          <t>Hello ragit3935, I'm sorry but it seems like "Radees" and "Radeetion" are not terms or destinations that we currently offer. Can you please provide me with more information or specific details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>45952.71180878472</v>
+        <v>45953.50959305555</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2432,48 +2503,50 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>dOly3uYvT9a2iUCoD0No</t>
+          <t>k3hGw3tT85XaSDOYYo9q</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>iromi71</t>
+          <t>samyee</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>89.629</v>
+        <v>87.96299999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>1.493816666666667</v>
+        <v>1.46605</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Mh1KvkI7Sxloe0LcoKM0</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>7341</v>
+          <t>6FzRmLH3ijOU4oazJLov</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>10913907</t>
+        </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bali" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sri" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45952.59276628472</v>
+        <v>45953.57939488426</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>ufyKfQ3ZXnOVJPm4WUSr</t>
+          <t>xqU7xfx2boiXQMGfWNL6</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Hello iromi71! I'm sorry that you couldn't find what you were looking for. Bali is a beautiful destination, known for its stunning beaches and rich culture. Let me assist you in finding the perfect Bali package for your next getaway. Feel free to provide me with more details on your preferences so that I can customize a package just for you. Let's make your dream trip to Bali a reality!</t>
+          <t>Hi Samyee, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Sri" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>45952.59380365741</v>
+        <v>45953.58041297454</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2484,48 +2557,50 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>dOly3uYvT9a2iUCoD0No</t>
+          <t>k3hGw3tT85XaSDOYYo9q</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>iromi71</t>
+          <t>samyee</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>84.494</v>
+        <v>73.51900000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>1.408233333333333</v>
+        <v>1.225316666666667</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>7PPv4UZQTdobegzabbOe</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>7341</v>
+          <t>IJ5025Jo5iSt0ZVTfhNk</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10913907</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ball" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sri lanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45952.59282571759</v>
+        <v>45953.57956206019</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>ufyKfQ3ZXnOVJPm4WUSr</t>
+          <t>xqU7xfx2boiXQMGfWNL6</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Hello iromi71! I'm sorry that you couldn't find what you were looking for. Bali is a beautiful destination, known for its stunning beaches and rich culture. Let me assist you in finding the perfect Bali package for your next getaway. Feel free to provide me with more details on your preferences so that I can customize a package just for you. Let's make your dream trip to Bali a reality!</t>
+          <t>Hi Samyee, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Sri" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>45952.59380365741</v>
+        <v>45953.58041297454</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2536,49 +2611,50 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>dq3nuMQ1vMW8lhiopwC0</t>
+          <t>nqwZX3jg7f9iMYIG4JdU</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Adhir</t>
+          <t>Hivini</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>213.697</v>
+        <v>84.169</v>
       </c>
       <c r="D41" t="n">
-        <v>3.561616666666667</v>
+        <v>1.402816666666667</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>GQcNKwaVU2KXp9tMwkgZ</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>10917111</v>
+          <t>l6oYZQcnXGXd62uWzDUp</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>10916768</t>
+        </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Shero" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "KIMG" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45952.61073159723</v>
+        <v>45953.63241315972</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>XRoVxeFlH2T7nF0Bd2m5</t>
+          <t>vNf8cgEXxxnfkEAMoIle</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Hi Adhir, I'm sorry, but I couldn't find any results for "Shero". Can you please provide me with more details so I can assist you better?</t>
+          <t>Hi Hivini, I apologize for the inconvenience. It seems like "KIMG" and "KINGSBS" may not be specific keywords related to travel. Can you please provide more information or details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>45952.61320494213</v>
+        <v>45953.63338733796</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2589,257 +2665,269 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>gtFbiPZDZyIm0DhRJmAt</t>
+          <t>nqwZX3jg7f9iMYIG4JdU</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>hind</t>
+          <t>Hivini</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>127.407</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>2.12345</v>
+        <v>1.31</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0L9yekQWslRRkkstnjqC</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>10919572</v>
+          <t>CpKCujC40L8aLDIx9Og0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>10916768</t>
+        </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffets" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "KINGSBS" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45952.98016856481</v>
+        <v>45953.63247761574</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>vIpwjalfscdKeXHu8USM</t>
+          <t>vNf8cgEXxxnfkEAMoIle</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Hi you can find our buffet offers in the home page</t>
+          <t>Hi Hivini, I apologize for the inconvenience. It seems like "KIMG" and "KINGSBS" may not be specific keywords related to travel. Can you please provide more information or details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>45952.98164318287</v>
+        <v>45953.63338733796</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>k0gire9mrdygvKPMRdVy</t>
+          <t>ouV4ZpG3Rlaa9JBxepXI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sachithra1993</t>
+          <t>Ruvini</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>81.069</v>
+        <v>93.499</v>
       </c>
       <c r="D43" t="n">
-        <v>1.35115</v>
+        <v>1.558316666666667</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>8CzIB6WpJUE5ylAEFrQo</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>8795</v>
+          <t>hfIGNXPugDK2eNDSw43r</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>10914600</t>
+        </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "KL" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinrn" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45952.32925114583</v>
+        <v>45953.58124796296</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>YzSBFSjmMxhCM5fIVLhN</t>
+          <t>Cg7kJZfs2PrinDbFm8u0</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Hi Sachithra1993, I'm sorry you couldn't find what you were looking for. Can you please provide more details about "KL" so I can assist you better? Thanks!</t>
+          <t>Hi Ruvini, I'm sorry but I'm not familiar with "Dinrn." Could you please provide me with more information or details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K43" s="2" t="n">
-        <v>45952.33018944444</v>
+        <v>45953.58233012731</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>kRM8cH9I7uPwy9bhAYKC</t>
+          <t>tE4bk1fl6W2BM0EJfbKY</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RuwindaPremasiri94</t>
+          <t>sugit3610</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>161.969</v>
+        <v>125.397</v>
       </c>
       <c r="D44" t="n">
-        <v>2.699483333333333</v>
+        <v>2.08995</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>79JXkQpUknWm6Yatzwn7</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>10919399</v>
+          <t>cd7m8Z04KST9gcP3Bu9H</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>10919575</t>
+        </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffets" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dubao" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45952.4995578588</v>
+        <v>45953.15248459491</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4KGFP8teFne8g8hIN1lB</t>
+          <t>N5iaTAjIErVA9KdfQCkE</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Admin: Hi RuwindaPremasiri94, I'm sorry you couldn't find what you were looking for. Let me assist you in finding information about buffets in Malaysia. Let's see what we can find together!</t>
+          <t xml:space="preserve">contact us to +94 71 174 4227 to assist you further 
+</t>
         </is>
       </c>
       <c r="K44" s="2" t="n">
-        <v>45952.5014325</v>
+        <v>45953.15393594907</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>mFGfVOevcEdZNHTPZfHd</t>
+          <t>tE4bk1fl6W2BM0EJfbKY</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>G P</t>
+          <t>sugit3610</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>146.018</v>
+        <v>115.72</v>
       </c>
       <c r="D45" t="n">
-        <v>2.433633333333333</v>
+        <v>1.928666666666667</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>XiSfM2JZeS9SeOd479Q0</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>10919451</v>
+          <t>3ySCmd2pj0oDd6hG0MhP</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>10919575</t>
+        </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45952.62660356482</v>
+        <v>45953.15259659723</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Oo1p8oCZUwPNs6bb5UAx</t>
+          <t>N5iaTAjIErVA9KdfQCkE</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi 
+          <t xml:space="preserve">contact us to +94 71 174 4227 to assist you further 
 </t>
         </is>
       </c>
       <c r="K45" s="2" t="n">
-        <v>45952.62829358796</v>
+        <v>45953.15393594907</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>q81qxkZKHIZuxmsC7LKi</t>
+          <t>tE4bk1fl6W2BM0EJfbKY</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nims</t>
+          <t>sugit3610</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>185.751</v>
+        <v>104.867</v>
       </c>
       <c r="D46" t="n">
-        <v>3.09585</v>
+        <v>1.747783333333333</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ome3en63ATtara5wYW3a</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>5484</v>
+          <t>cz9IBqfgE3suZ7CHaTjD</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>10919575</t>
+        </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hello</t>
+          <t>Hi, I was searching for "Dnai" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>45952.98271857639</v>
+        <v>45953.15272221065</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>fZg8uZAdahC9UO5kvJRS</t>
+          <t>N5iaTAjIErVA9KdfQCkE</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello Nims! we have to check whether Cooking facilities are available at the accommodation you're interested in. Let me know if you need any more information. </t>
+          <t xml:space="preserve">contact us to +94 71 174 4227 to assist you further 
+</t>
         </is>
       </c>
       <c r="K46" s="2" t="n">
-        <v>45952.98486847222</v>
+        <v>45953.15393594907</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2850,100 +2938,100 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>q81qxkZKHIZuxmsC7LKi</t>
+          <t>uDNYcARmHFBvX6DWD1cB</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nims</t>
+          <t>Nimashi27</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>171.984</v>
+        <v>88.706</v>
       </c>
       <c r="D47" t="n">
-        <v>2.8664</v>
+        <v>1.478433333333333</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sy8x7bmN9a7P3zMTcqUO</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>5484</v>
+          <t>voHLYMNGrDjYfhmgSpEQ</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>10919562</t>
+        </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Is there cooking facilities available ?</t>
+          <t>Hi, I was searching for "Accommodation" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
-        <v>45952.98287791666</v>
+        <v>45953.59101958333</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>fZg8uZAdahC9UO5kvJRS</t>
+          <t>hE3m5JS7CoxuTZAcnsBg</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello Nims! we have to check whether Cooking facilities are available at the accommodation you're interested in. Let me know if you need any more information. </t>
+          <t>Hi Nimashi27, I apologize for the inconvenience. It seems there may have been a technical issue with the search results. Can you please provide me with more details about the type of accommodation you are looking for? I'll do my best to assist you in finding the perfect accommodation for your needs. Thank you for reaching out to us!</t>
         </is>
       </c>
       <c r="K47" s="2" t="n">
-        <v>45952.98486847222</v>
+        <v>45953.59204627314</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>wwIexF4JBXxFf93xs3o5</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ranid2040</t>
-        </is>
-      </c>
+          <t>vWJW8qpNDhdc51uxgCgh</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>92.14400000000001</v>
+        <v>333.636</v>
       </c>
       <c r="D48" t="n">
-        <v>1.535733333333333</v>
+        <v>5.5606</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>oHtrK3e27RdqeOsEPjOW</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>10919074</v>
+          <t>s860SpDfq7Z4rFTIt45o</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>AHS_Guest</t>
+        </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Granz" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sri lanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
-        <v>45952.06494747685</v>
+        <v>45953.01903248842</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>o6bTMBUJxiAV2QvfoH7s</t>
+          <t>hmP0NZ1ltH05cWVnygWl</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Hi ranid2040, I'm sorry but we don't currently have any information on "Granz." Is there anything else I can help you with today? Feel free to ask any questions you may have.</t>
+          <t>Hi, thank you for reaching out. I'm sorry that you couldn't find the specific information you were looking for. Can you please provide me with more details so that I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K48" s="2" t="n">
-        <v>45952.06601395833</v>
+        <v>45953.02289401621</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2954,258 +3042,106 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>zqU8XyBLHzbfQMgNi3L0</t>
+          <t>ymV1SMovKmjR5JRVHptl</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Asara Anudi</t>
+          <t>Jayahansi</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>122.262</v>
+        <v>145.621</v>
       </c>
       <c r="D49" t="n">
-        <v>2.0377</v>
+        <v>2.427016666666667</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>oGJ8iNMvSEPh4sNUK0mA</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>10914613</v>
+          <t>aXNCjgFq00GEGbNYBCg6</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5803</t>
+        </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Shangri" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Shanghai" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45952.43965380787</v>
+        <v>45953.61396799768</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>StQIGJ8aE8wQ1r7TA7M4</t>
+          <t>rsjRGLWHSAyfYb59qqBO</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Hi Asara Anudi! I apologize for not being able to find the specific results you were looking for. Can you please provide me with more details or specifics so I can assist you better? Thank you for your patience.</t>
+          <t>Hi Jayahansi, I'm sorry that you couldn't find what you were looking for. Shanghai is a popular destination and we would be happy to help you plan your trip there. Can you please provide me with more details about your travel preferences so we can assist you better?</t>
         </is>
       </c>
       <c r="K49" s="2" t="n">
-        <v>45952.44106887731</v>
+        <v>45953.61565342593</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>zqU8XyBLHzbfQMgNi3L0</t>
+          <t>zFWapDjiJ3O11m45OA7e</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Asara Anudi</t>
+          <t>zilva</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>114.262</v>
+        <v>85.548</v>
       </c>
       <c r="D50" t="n">
-        <v>1.904366666666667</v>
+        <v>1.4258</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Nj1emG1zdfOV6HDoijPK</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>10914613</v>
+          <t>i8hR9JSZMnI0laCZlf5R</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>10910746</t>
+        </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Shangri-la ham" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Taba" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45952.43974640047</v>
+        <v>45953.74454188658</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>StQIGJ8aE8wQ1r7TA7M4</t>
+          <t>shaZRhNLcBd1TVuE2tpU</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Hi Asara Anudi! I apologize for not being able to find the specific results you were looking for. Can you please provide me with more details or specifics so I can assist you better? Thank you for your patience.</t>
+          <t>Hi Zilva, I'm sorry but we currently don't have any information on "Taba." Could you please provide more details so that we can assist you better?</t>
         </is>
       </c>
       <c r="K50" s="2" t="n">
-        <v>45952.44106887731</v>
+        <v>45953.74553202546</v>
       </c>
       <c r="L50" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>zqU8XyBLHzbfQMgNi3L0</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Asara Anudi</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>111.062</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1.851033333333333</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>t3QzjJSwlYPcEK2gzn4p</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>10914613</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Shangri-la hambanthota" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>45952.4397834375</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>StQIGJ8aE8wQ1r7TA7M4</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Hi Asara Anudi! I apologize for not being able to find the specific results you were looking for. Can you please provide me with more details or specifics so I can assist you better? Thank you for your patience.</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="n">
-        <v>45952.44106887731</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>zqU8XyBLHzbfQMgNi3L0</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Asara Anudi</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>90.821</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1.513683333333333</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>oz1F6QvxXiCmN4VLkTDr</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>10914613</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Shangri-la hamban" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>45952.44001770833</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>StQIGJ8aE8wQ1r7TA7M4</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Hi Asara Anudi! I apologize for not being able to find the specific results you were looking for. Can you please provide me with more details or specifics so I can assist you better? Thank you for your patience.</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="n">
-        <v>45952.44106887731</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>zqU8XyBLHzbfQMgNi3L0</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Asara Anudi</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>86.429</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1.440483333333333</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>v5IFRReKWsFWScPAqQRx</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>10914613</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Riu" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>45952.44006854167</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>StQIGJ8aE8wQ1r7TA7M4</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Hi Asara Anudi! I apologize for not being able to find the specific results you were looking for. Can you please provide me with more details or specifics so I can assist you better? Thank you for your patience.</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="n">
-        <v>45952.44106887731</v>
-      </c>
-      <c r="L53" t="inlineStr">
         <is>
           <t>Dishmi</t>
         </is>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,429 +502,429 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22HIY2PagsWQ2UO1Be6Y</t>
+          <t>5mdbWcEp5Ij9uQsDhIfJ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dillon</t>
+          <t>ImashiDeSilva</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>848.932</v>
+        <v>87.29900000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>14.14886666666667</v>
+        <v>1.454983333333334</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>kzecGpkLtkaSe87rzeGQ</t>
+          <t>kj1xyO4dnc8iDonSMcXI</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10914308</t>
+          <t>10917573</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi im unable to select booking date</t>
+          <t>Hi, I was searching for "Amagi" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45953.78074579861</v>
+        <v>45954.29935533565</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5TXJFRIM2rfahtHcz5dd</t>
+          <t>9IdVUeLHEYCrqq7t70H1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hello Dillon, thank you for reaching out. I apologize for the inconvenience you're experiencing with selecting a booking date. Could you please provide me with more details so I can assist you further? Thank you.</t>
+          <t>Hi ImashiDeSilva! Thank you for reaching out. I'm sorry you couldn't find what you were looking for. Could you please provide me with more details about "Amagi" so I can assist you better?</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45953.79057140047</v>
+        <v>45954.30036574074</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3XfAVcREFGydkANo1ee2</t>
+          <t>6espVitucDaDxVYLCPrH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chaluka Bimsara</t>
+          <t>ruwanm</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.592</v>
+        <v>99.02500000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3598666666666667</v>
+        <v>1.650416666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1xPMbi8niw8aaAH5BG4V</t>
+          <t>aNfgElHgy7FJyI0dGEw5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10911212</t>
+          <t>10917246</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Singap" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bentota" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45953.86007653935</v>
+        <v>45954.87751315972</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>KpiTCplcwXkbh5aMvbld</t>
+          <t>7v280rz6c9tdijjKs9eq</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hi Chaluka Bimsara, I apologize for the inconvenience. It seems like there may have been a typo in your search. Could you please provide more information about what you are looking for in Singapore so that I can assist you better? Thank you!</t>
+          <t>Hi ruwanm, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search for "Bentota" so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45953.86032644676</v>
+        <v>45954.87865928241</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>47XdJLZaUwwzxXw6RZt3</t>
+          <t>78f4hnMryV6skgTWkj20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pribal27</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>86.44799999999999</v>
+        <v>123.647</v>
       </c>
       <c r="D4" t="n">
-        <v>1.4408</v>
+        <v>2.060783333333334</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>mF5zOHzjuPm4uLhcZSYn</t>
+          <t>opshXKv9IdI32481VTgu</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10919254</t>
+          <t>10919546</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Q Sindy" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "It is clear" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45953.458466875</v>
+        <v>45954.03569385417</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>v1JLkjQLxXX5s4fJ2RuK</t>
+          <t>BdPOGa5tf94gPcgV5OEW</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hi pribal27, I apologize for the inconvenience. Can you please provide me with more details about your travel preferences so I can assist you better? Thank you.</t>
+          <t>Hi Dubai, I apologize for the inconvenience. It seems like there might have been a misunderstanding. Could you please provide me with more details or a specific topic related to "It is clear" so that I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45953.45946743056</v>
+        <v>45954.03712495371</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5LZNTAvB3gjuimQQf77r</t>
+          <t>78f4hnMryV6skgTWkj20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nissy</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39.499</v>
+        <v>86.595</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6583166666666667</v>
+        <v>1.44325</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>jmUuY3gH0rxSNAuai4VR</t>
+          <t>rjQ2LVV1FcNGKqN4rCOb</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10918719</t>
+          <t>10919546</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hteli" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "ra20bee" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45953.84092887732</v>
+        <v>45954.03738121528</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3l57CsmTYegHcFVSV28P</t>
+          <t>cfGlmJ20XKOG4xbOQU9W</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hi Nissy! I'm sorry, but I couldn't find any results for "Hteli." Could you please provide me with more information or clarify what you're looking for so I can better assist you? Thank you!</t>
+          <t>Admin: Hi Dubai, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details or keywords related to "ra20bee" so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45953.84138604167</v>
+        <v>45954.03838347222</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7tFwgU0JpkMyuu3YCeZb</t>
+          <t>78f4hnMryV6skgTWkj20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>boomi</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>97.812</v>
+        <v>81.545</v>
       </c>
       <c r="D6" t="n">
-        <v>1.6302</v>
+        <v>1.359083333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gxIAfBBJEzpSvcw6PiiK</t>
+          <t>0UCeUMy2oaOUXV5bc93o</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10919537</t>
+          <t>10919546</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sıvı" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "ra20bee" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45953.25580224537</v>
+        <v>45954.0451646412</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>NN0qTEKlXpjV7Tn8wWus</t>
+          <t>AIn870Gp2UtYWuL5J1x0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hi boomi! I'm sorry, but I couldn't find any specific results for "Sıvı". Could you please provide me with more details or clarify what you're looking for so I can assist you better?</t>
+          <t>Hi Dubai, I'm sorry you couldn't find what you were looking for. Let me see if I can help you with your search for "ra20bee". Let's see if we can find what you need together.</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45953.2569343287</v>
+        <v>45954.04610844907</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AWnRyT5Epfb5l42iCODQ</t>
+          <t>78f4hnMryV6skgTWkj20</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>riyaj5646</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>212.589</v>
+        <v>277.303</v>
       </c>
       <c r="D7" t="n">
-        <v>3.54315</v>
+        <v>4.621716666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>gMU0xW1SUvHYF7dRs56i</t>
+          <t>8mgSnVGlgemGwydhjPwI</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10911306</t>
+          <t>10919546</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ramada d" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Can I transfer money to my name via Western Union?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45953.21239230324</v>
+        <v>45954.04729355324</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BEDbLWVl5zaA5w9NeKyv</t>
+          <t>KUyMX6aErGa8azGF756g</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">you can simply book the ramada dinner buffet that is visible in our home page 
-</t>
+          <t>Kindly hold on. will get back with you.</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45953.21485282407</v>
+        <v>45954.0505030787</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>H3my8WEys5qFpxcif2k5</t>
+          <t>78f4hnMryV6skgTWkj20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>yohan9552</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>82.741</v>
+        <v>96.03</v>
       </c>
       <c r="D8" t="n">
-        <v>1.379016666666667</v>
+        <v>1.6005</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>en3Gm35pZMOwTieJgTNm</t>
+          <t>ersgifUhDmd2MrJ9KSzW</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10910911</t>
+          <t>10919546</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hilto" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "https://vm.tiktok.com/ZNHvQXSCQaquK-zWshK/" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45953.57488465278</v>
+        <v>45954.69490560185</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>aljVjfBgzbBCJG2WS1en</t>
+          <t>qCrPasJTsefVXjCibh8q</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hi yohan9552, I apologize for the confusion. It seems like there might have been a typo in your search. Did you mean "Hilton" by any chance? Let me know how I can assist you further!</t>
+          <t>Hi Dubai, I apologize for the inconvenience you're facing. Let me look into this for you and see if I can find what you're looking for. Thank you for your patience!</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45953.57584230324</v>
+        <v>45954.69601706019</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HAPKZAYkYoVU4xLe6A5P</t>
+          <t>78f4hnMryV6skgTWkj20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sobin Boss 77</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>113.489</v>
+        <v>109.058</v>
       </c>
       <c r="D9" t="n">
-        <v>1.891483333333333</v>
+        <v>1.817633333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>zjSNBj0e80iuaSVXm0N7</t>
+          <t>upSGuydrUE0Dyw7Ypdst</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10919586</t>
+          <t>10919546</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>https://vm.tiktok.com/ZNHvQXSCQaquK-zWshK/</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45953.5536868287</v>
+        <v>45954.69621273148</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>IuIzIAMsWDiEegQvetw6</t>
+          <t>sWygxpdBrpUwobbwgUCZ</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Hi Sobin Boss 77, I'm sorry that you couldn't find any results for "Thailand." Let me assist you in finding the information you need. Can you provide me with more details about what you're looking for in Thailand so I can better help you? Thank you!</t>
+          <t xml:space="preserve">
+ Hi Dubai! Thank you for sharing the link with me. Let me take a look and see if I can find what you're searching for. I appreciate your patience!</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45953.5550003588</v>
+        <v>45954.69747497685</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -935,159 +935,158 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KZMWViNFE92iCGXXnGQq</t>
+          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sheema</t>
+          <t>Ammar Anees</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>86.29600000000001</v>
+        <v>3480.72</v>
       </c>
       <c r="D10" t="n">
-        <v>1.438266666666667</v>
+        <v>58.01199999999999</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>behYIShPcUl2IqWB4n29</t>
+          <t>XASAKrqjuswF5hZw1K9x</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10919587</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bubble" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45953.57756186343</v>
+        <v>45954.71712569444</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Xh2evlxgHLDl2w1Wy0mD</t>
+          <t>uyM3q1OLsluynk2atqgj</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Hi Sheema! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about the type of buffet you are searching for? I'll do my best to assist you in finding the perfect option for your travel plans.</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45953.57856065972</v>
+        <v>45954.75741180556</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L9FrHOi7eNWw33qfRcm8</t>
+          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gagana</t>
+          <t>Ammar Anees</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>104.662</v>
+        <v>3394.356</v>
       </c>
       <c r="D11" t="n">
-        <v>1.744366666666667</v>
+        <v>56.5726</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>N7uzXrCWikGVZlX43Zpk</t>
+          <t>S7CORwhqp9pGjbBK7NCT</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8054</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "18+" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bubble" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45953.47702</v>
+        <v>45954.71812527778</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>GG5LccBFAHeLx9uecFae</t>
+          <t>uyM3q1OLsluynk2atqgj</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi Gagana, I'm sorry to hear that you couldn't find what you were looking for.  Let me know if you need any assistance with your travel plans.
-</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45953.47823136574</v>
+        <v>45954.75741180556</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Oe94SrB5DUEWLZE6ByTo</t>
+          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NuflanNasar</t>
+          <t>Ammar Anees</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30.96</v>
+        <v>3376.536</v>
       </c>
       <c r="D12" t="n">
-        <v>0.516</v>
+        <v>56.2756</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>swIySRaNzCi1aJ5VdQlv</t>
+          <t>NXna75Es8Emj9l6MIKxF</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10911915</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Neg" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bubble" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45953.87877387732</v>
+        <v>45954.71833152778</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>m4t2FOS0InJhmfS1UpMo</t>
+          <t>uyM3q1OLsluynk2atqgj</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Hi Nuflan Nasar, I'm sorry that you couldn't find what you were looking for. Negombo is a beautiful destination in Sri Lanka known for its beaches and vibrant culture. Let me assist you in finding the information you need. Can you please provide me with more details on your travel preferences or requirements?</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45953.87913221065</v>
+        <v>45954.75741180556</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1098,50 +1097,50 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Oe94SrB5DUEWLZE6ByTo</t>
+          <t>AL8hRHfDBGXBaDodrpNb</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NuflanNasar</t>
+          <t>Felomika</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30.247</v>
+        <v>2185.8</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5041166666666667</v>
+        <v>36.43</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FrGUXg0YOoQirJZMYvlA</t>
+          <t>oTguoYBuw0TCIX4MIJrE</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10911915</t>
+          <t>6052</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Negombo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Half boaed" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45953.87878212963</v>
+        <v>45954.73258651621</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>m4t2FOS0InJhmfS1UpMo</t>
+          <t>946k9ZtLRpX92InDx4iU</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Hi Nuflan Nasar, I'm sorry that you couldn't find what you were looking for. Negombo is a beautiful destination in Sri Lanka known for its beaches and vibrant culture. Let me assist you in finding the information you need. Can you please provide me with more details on your travel preferences or requirements?</t>
+          <t>Hi Felomika, I apologize for the confusion. It seems like there may have been a misunderstanding in your search. "Half board" typically refers to a meal plan that includes breakfast and either lunch or dinner. If you're looking for accommodations with half board options in Colombo, I can definitely help you with that. Let me know if you have any specific preferences or requirements so I can assist you further. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45953.87913221065</v>
+        <v>45954.75788512731</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1152,698 +1151,698 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PQoLXCRMPgcLsjQ1Gylt</t>
+          <t>AL8hRHfDBGXBaDodrpNb</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AsithaRajapakse</t>
+          <t>Felomika</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>90.807</v>
+        <v>2178.256</v>
       </c>
       <c r="D14" t="n">
-        <v>1.51345</v>
+        <v>36.30426666666666</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8R8UfhB1gHw1PbKy2XmZ</t>
+          <t>BvOHxP4FDtwkYlWgzuyc</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10919600</t>
+          <t>6052</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thal" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Half board colombo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45953.98186144676</v>
+        <v>45954.73267383102</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1mcagLMCDnCAzy43jjOy</t>
+          <t>946k9ZtLRpX92InDx4iU</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Hi AsithaRajapakse, I'm sorry but I couldn't find any information on "Thal." Could you please provide me with more details so I can assist you better?</t>
+          <t>Hi Felomika, I apologize for the confusion. It seems like there may have been a misunderstanding in your search. "Half board" typically refers to a meal plan that includes breakfast and either lunch or dinner. If you're looking for accommodations with half board options in Colombo, I can definitely help you with that. Let me know if you have any specific preferences or requirements so I can assist you further. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45953.98291245371</v>
+        <v>45954.75788512731</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PaBXPdUVp8YX8o88frCd</t>
+          <t>CCfNUAUsDmSC8ywomlrp</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>nish1993</t>
+          <t>Christeen0302</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29.406</v>
+        <v>104.946</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4901</v>
+        <v>1.7491</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VxLIY9VUAAdyjM3PLfaS</t>
+          <t>C7M9ImG4tnoS4ZvigOlh</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10919538</t>
+          <t>10916466</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Avem" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Jesmin" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45953.85554858796</v>
+        <v>45954.68071070602</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>VkS3S7UKVI2spYdPAKXi</t>
+          <t>PVHqCasx3Ih0b9lRez7H</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
+          <t>Hi Christeen0302, I apologize for not being able to find any results for "Jesmin." Can you please provide me with more details or clarify what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45953.85588893518</v>
+        <v>45954.6819253588</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PaBXPdUVp8YX8o88frCd</t>
+          <t>Eg3u1Qmvh8bAb7TcrVOK</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>nish1993</t>
+          <t>lokuwalgama</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29.343</v>
+        <v>97.496</v>
       </c>
       <c r="D16" t="n">
-        <v>0.48905</v>
+        <v>1.624933333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>kB3Yn3eSIX1EvKGxlFta</t>
+          <t>OUsuCC30XZ2gMI8penXk</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10919538</t>
+          <t>10919626</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ave" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sing" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45953.85554931713</v>
+        <v>45954.9253191551</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>VkS3S7UKVI2spYdPAKXi</t>
+          <t>BcjO62WvnsnIX1izPPrB</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
+          <t>Hi lokuwalgama, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45953.85588893518</v>
+        <v>45954.92644758102</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PaBXPdUVp8YX8o88frCd</t>
+          <t>Eg3u1Qmvh8bAb7TcrVOK</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>nish1993</t>
+          <t>lokuwalgama</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>28.837</v>
+        <v>92.617</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4806166666666666</v>
+        <v>1.543616666666667</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>j8wRfZKolhx48rjSwsTV</t>
+          <t>NIEwl7FwTbe19fUVwXUQ</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10919538</t>
+          <t>10919626</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Aven" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Malli" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45953.85555517361</v>
+        <v>45954.925375625</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>VkS3S7UKVI2spYdPAKXi</t>
+          <t>BcjO62WvnsnIX1izPPrB</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
+          <t>Hi lokuwalgama, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45953.85588893518</v>
+        <v>45954.92644758102</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PaBXPdUVp8YX8o88frCd</t>
+          <t>Eg3u1Qmvh8bAb7TcrVOK</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>nish1993</t>
+          <t>lokuwalgama</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>27.959</v>
+        <v>55.956</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4659833333333333</v>
+        <v>0.9326000000000001</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>nwYI82hAgzfHCeFgqlvU</t>
+          <t>OocuoFl6i0MQLDAPT6l7</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10919538</t>
+          <t>10919626</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Avenr" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Malli" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45953.85556533565</v>
+        <v>45954.92579994213</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>VkS3S7UKVI2spYdPAKXi</t>
+          <t>BcjO62WvnsnIX1izPPrB</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
+          <t>Hi lokuwalgama, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45953.85588893518</v>
+        <v>45954.92644758102</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PaBXPdUVp8YX8o88frCd</t>
+          <t>Eu8KUxMjuSa0IPH8Br2h</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>nish1993</t>
+          <t>ishanka</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27.1</v>
+        <v>106.542</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4516666666666667</v>
+        <v>1.7757</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>zNAYYwHu1kjEjLk6GrJT</t>
+          <t>uNdACSov439RnqfzgUek</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10919538</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Avenra" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sychelles" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45953.85557527778</v>
+        <v>45954.94121224537</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>VkS3S7UKVI2spYdPAKXi</t>
+          <t>NMFwnW0ZuSbiBedmICnF</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
+          <t>Hi Ishanka! Thank you for reaching out. I'm sorry, but it looks like there may be a spelling error in your search. Did you mean "Seychelles" instead of "Sychelles"? Let me know how I can assist you further in finding information about Seychelles.</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45953.85588893518</v>
+        <v>45954.94244537037</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PaBXPdUVp8YX8o88frCd</t>
+          <t>HIqVcwF15fejXXEkiXdv</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>nish1993</t>
+          <t>shreetirupati</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22.73</v>
+        <v>83.892</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3788333333333334</v>
+        <v>1.3982</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MtxKr7cm1SgaLrvsJxX8</t>
+          <t>PA6pFDuxLAAaVUeWQfQ6</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10919538</t>
+          <t>500</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Avenra" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "E" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45953.85562585648</v>
+        <v>45954.49234960648</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>VkS3S7UKVI2spYdPAKXi</t>
+          <t>UzYfnwRazVyZwlid1FlM</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
+          <t>Hello Shreetirupati! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45953.85588893518</v>
+        <v>45954.4933205787</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PaBXPdUVp8YX8o88frCd</t>
+          <t>JdXLBG1mEAvQqHCSzksm</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>nish1993</t>
+          <t>chamu3773</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21.34</v>
+        <v>90.538</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3556666666666667</v>
+        <v>1.508966666666667</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>afqSS5KCfL3PNoeNQp4L</t>
+          <t>aoYZ09FF54AfGRsfVrFe</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10919538</t>
+          <t>6748</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Avenra gan" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Malay" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45953.85564194444</v>
+        <v>45954.63524975695</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>VkS3S7UKVI2spYdPAKXi</t>
+          <t>V37yHGJCLIjVavqiJa7R</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
+          <t>Hello chamu3773, thank you for reaching out to us. I apologize for the inconvenience, but could you please provide more details about what you are looking for under "Malay"? This will help me assist you better. Thank you.</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45953.85588893518</v>
+        <v>45954.63629765046</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PaBXPdUVp8YX8o88frCd</t>
+          <t>Jy9KgQ92PcIuh13h3a2V</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>nish1993</t>
+          <t>Chameli317</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19.893</v>
+        <v>97.111</v>
       </c>
       <c r="D22" t="n">
-        <v>0.33155</v>
+        <v>1.618516666666667</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>UyUMTEiCNyZ0a2XVafjT</t>
+          <t>2q3jCs9Kewq8I8UyqhM1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10919538</t>
+          <t>10911490</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Avenra gangaa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kuala" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45953.85565869213</v>
+        <v>45954.47017571759</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>VkS3S7UKVI2spYdPAKXi</t>
+          <t>U3DxFncADNWRIjB76GK0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
+          <t>Hi Chameli317, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about the destination or type of travel you are interested in? I'd be happy to help you find the perfect option for your trip.</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45953.85588893518</v>
+        <v>45954.4712996875</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PaBXPdUVp8YX8o88frCd</t>
+          <t>P6aJegTbfjDcK0QbKBGm</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>nish1993</t>
+          <t>Faheema Kabeer</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19.136</v>
+        <v>96.393</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3189333333333333</v>
+        <v>1.60655</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>szi3tvCyAWNvkGpmt0NJ</t>
+          <t>hCTNKShHCcAHTJSUZyFH</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10919538</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Avenra gangaar" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sofiac" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45953.8556674537</v>
+        <v>45954.69506265046</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>VkS3S7UKVI2spYdPAKXi</t>
+          <t>pTKbHXgZ1cKdRwZw0CiX</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
+          <t>Hi Faheema, I'm sorry but I couldn't find any information on "Sofiac." Could you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45953.85588893518</v>
+        <v>45954.69617831019</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PaBXPdUVp8YX8o88frCd</t>
+          <t>T0i85yZO59DqcaUdfAR4</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>nish1993</t>
+          <t>Stuart</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>18.417</v>
+        <v>288.213</v>
       </c>
       <c r="D24" t="n">
-        <v>0.30695</v>
+        <v>4.80355</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>QHqylC3Nvi08fl0objAD</t>
+          <t>3oXoAqkoUVFd21WiNhyE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10919538</t>
+          <t>10918506</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Avenra gangaara" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Scwed" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45953.85567577546</v>
+        <v>45954.546649375</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>VkS3S7UKVI2spYdPAKXi</t>
+          <t>qgPEIXjbqX7FZhL3t7Eh</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
+          <t>Hi Stuart, I'm sorry but I couldn't find any information on "Scwed." Can you please provide me with more details or clarify what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45953.85588893518</v>
+        <v>45954.54998517361</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PaBXPdUVp8YX8o88frCd</t>
+          <t>TPhiA9YY6c17ocBe2EpP</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>nish1993</t>
+          <t>Davidu</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.993</v>
+        <v>145.595</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03321666666666667</v>
+        <v>2.426583333333333</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PapShYhFZsKNltNmuIRq</t>
+          <t>hEEZdqndctzx2z4bOwMP</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10919538</t>
+          <t>10910725</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Avenra" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Chag" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45953.85586586806</v>
+        <v>45954.49118725694</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>VkS3S7UKVI2spYdPAKXi</t>
+          <t>vSv2PT2W3yELQbRJUysW</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Hi isnish1993, I'm sorry but we currently do not have any listings for "Avenra," "Avenra gan," "Avenra gangaa," "Avenra gangaar," or "Avenra gangaara." If you have any other preferences or destinations in mind, feel free to let me know and I'll be happy to assist you in finding the perfect travel option for you. Thank you for considering us for your travel needs.</t>
+          <t>Hi Davidu, I'm sorry but I couldn't find any information on "Chag". Could you please provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45953.85588893518</v>
+        <v>45954.49287238426</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PaBXPdUVp8YX8o88frCd</t>
+          <t>Zk4SKZ9kI0hW0z4JSMWl</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>nish1993</t>
+          <t>muksithmuneer</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23.833</v>
+        <v>1012.782</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3972166666666667</v>
+        <v>16.8797</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>YX5yRpr6KM4Q8kOqP9Sm</t>
+          <t>eMQXvqdWW1hmmiNID200</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10919538</t>
+          <t>10912018</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Aven" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Malesia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45953.85714807871</v>
+        <v>45954.74676635417</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>m35u2ZxJvE5GHVAYxETP</t>
+          <t>BRqFHdJ0t6rIUog7WWWo</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Hi isnish1993, I apologize for the inconvenience. Unfortunately, we do not currently have any listings for "Avenra," "Aven," or "Gan." If you have any other destinations or preferences in mind, please feel free to share them with me so I can assist you further. Thank you for considering us for your travel needs.</t>
+          <t>Hi Muksithmuneer, I'm sorry but we do not have any information on "Malesia" in our database. Could you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45953.85742392361</v>
+        <v>45954.75848836805</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1854,537 +1853,536 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PaBXPdUVp8YX8o88frCd</t>
+          <t>eolPqKyWtgSwst3OtP9C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>nish1993</t>
+          <t>reetha1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19.169</v>
+        <v>90.876</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3194833333333333</v>
+        <v>1.5146</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>fnbMO02MzqMLWdGwSjiO</t>
+          <t>7UWn4P0Ozf2r6qZ5F2pq</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10919538</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Gan" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Phu Quoc One" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45953.85720206019</v>
+        <v>45954.53067061343</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>m35u2ZxJvE5GHVAYxETP</t>
+          <t>BsDrJ7rzOB4fgRoNcFnn</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Hi isnish1993, I apologize for the inconvenience. Unfortunately, we do not currently have any listings for "Avenra," "Aven," or "Gan." If you have any other destinations or preferences in mind, please feel free to share them with me so I can assist you further. Thank you for considering us for your travel needs.</t>
+          <t>Hi reetha1, thank you for reaching out. I'm sorry, but it seems like "Phu Quoc One" may not be a specific location or service. Can you provide more details or clarify what you are looking for so I can better assist you? Thank you.</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45953.85742392361</v>
+        <v>45954.53172241898</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PaBXPdUVp8YX8o88frCd</t>
+          <t>gvFfza1bnGufx4wjMRA4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>nish1993</t>
+          <t>shehan07</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17.12</v>
+        <v>103.148</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2853333333333333</v>
+        <v>1.719133333333333</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>mm656SJmErmaH1r0v59A</t>
+          <t>kGaCxrrhJnVFIkjxingG</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10919538</t>
+          <t>10913600</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Gan" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinner" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45953.85767429398</v>
+        <v>45954.57628002315</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>EAPUiksP25amKbsd0BRP</t>
+          <t>vLD0WZ2sXkLjo05Ii7F6</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Hi isnish1993, I appreciate you reaching out to us. I'm sorry to hear that we don't currently have listings for "Gan" or "Gang." If you have any other destinations in mind or need assistance with anything else, please let me know. I'm here to help!</t>
+          <t xml:space="preserve"> Hi Shehan07! I'm sorry that you couldn't find what you were looking for. Please feel free to contact us at +94 71 174 4227 for further assistance.</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45953.85787244213</v>
+        <v>45954.57747386574</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PaBXPdUVp8YX8o88frCd</t>
+          <t>gvFfza1bnGufx4wjMRA4</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>nish1993</t>
+          <t>shehan07</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>13.59</v>
+        <v>94.483</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2265</v>
+        <v>1.574716666666667</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4WVpFhilqcGbeKXfUo5L</t>
+          <t>w4u159EBp0Xq7IhR9ESk</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10919538</t>
+          <t>10913600</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Gang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buff" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45953.85771515047</v>
+        <v>45954.5763803125</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>EAPUiksP25amKbsd0BRP</t>
+          <t>vLD0WZ2sXkLjo05Ii7F6</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Hi isnish1993, I appreciate you reaching out to us. I'm sorry to hear that we don't currently have listings for "Gan" or "Gang." If you have any other destinations in mind or need assistance with anything else, please let me know. I'm here to help!</t>
+          <t xml:space="preserve"> Hi Shehan07! I'm sorry that you couldn't find what you were looking for. Please feel free to contact us at +94 71 174 4227 for further assistance.</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45953.85787244213</v>
+        <v>45954.57747386574</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>QO5EOE5PfvlmCqZ4wDIT</t>
+          <t>gvFfza1bnGufx4wjMRA4</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>oveen</t>
+          <t>shehan07</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>106.669</v>
+        <v>93.497</v>
       </c>
       <c r="D30" t="n">
-        <v>1.777816666666667</v>
+        <v>1.558283333333333</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>pJOzCynQpRDZPSXjmMWY</t>
+          <t>RaUi9mQ1tgLqYf2XPzor</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>10919598</t>
+          <t>10913600</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45953.93862005787</v>
+        <v>45954.57639172453</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>D2aEUJyAmrMVa7P3Y1oS</t>
+          <t>vLD0WZ2sXkLjo05Ii7F6</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi Oveen, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about what you mean by "bang" so I can assist you better? Thank you!
-</t>
+          <t xml:space="preserve"> Hi Shehan07! I'm sorry that you couldn't find what you were looking for. Please feel free to contact us at +94 71 174 4227 for further assistance.</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45953.93985465278</v>
+        <v>45954.57747386574</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UmCORR33Bu9S0MtDc6tc</t>
+          <t>mRnLONGHcSq1BbRYfH5L</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>razih9640</t>
+          <t>husna</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>147.062</v>
+        <v>93.611</v>
       </c>
       <c r="D31" t="n">
-        <v>2.451033333333334</v>
+        <v>1.560183333333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>yCvBkMMKTBr5oJueXywR</t>
+          <t>qtAw7FtDeuIzFXCcmKHB</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10919510</t>
+          <t>10916751</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sr" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Eravur" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45953.43963378472</v>
+        <v>45954.48435030093</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>laUjZwt7hwqC2SDeuRth</t>
+          <t>3O2CPykT6gS5EKimJCZ1</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Hi razih9640, I'm sorry you couldn't find what you were looking for. Let me assist you in your search for "Sr" or "Comolm". Please provide me with more information so I can help you better. Thank you!</t>
+          <t>Hi Husna, I'm sorry but we currently do not have any information on "Eravur". Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45953.44133589121</v>
+        <v>45954.48543376158</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UmCORR33Bu9S0MtDc6tc</t>
+          <t>ngCMVmNrHDKMJoFm5UP5</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>razih9640</t>
+          <t>nushk5638</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>142.78</v>
+        <v>11.569</v>
       </c>
       <c r="D32" t="n">
-        <v>2.379666666666667</v>
+        <v>0.1928166666666667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5UC9gXwtyU9H6RPpdqCt</t>
+          <t>Kr4nlM8X54IyvWvvM9k8</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10919510</t>
+          <t>10919622</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Comolm" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45953.43968334491</v>
+        <v>45954.80612575231</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>laUjZwt7hwqC2SDeuRth</t>
+          <t>VNMyhBXV6xdZhcBeoH1C</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Hi razih9640, I'm sorry you couldn't find what you were looking for. Let me assist you in your search for "Sr" or "Comolm". Please provide me with more information so I can help you better. Thank you!</t>
+          <t>Hi isnushk5638, I'm sorry that you couldn't find what you were looking for. It seems like there may have been a typo in your search. Are you looking for information about Bangkok, Thailand? Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>45953.44133589121</v>
+        <v>45954.80625965277</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>VvEwG9GeXre8f9NjZRyo</t>
+          <t>ngCMVmNrHDKMJoFm5UP5</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SewwandiY</t>
+          <t>nushk5638</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>85.758</v>
+        <v>11.489</v>
       </c>
       <c r="D33" t="n">
-        <v>1.4293</v>
+        <v>0.1914833333333333</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Edpyjnb0nDAnNG7gLsWg</t>
+          <t>r4URsS7NwD5T35anoxem</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10913303</t>
+          <t>10919622</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thaia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45953.67739775463</v>
+        <v>45954.80612667824</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>R7oBWEPCUqHfCGtjfe8S</t>
+          <t>VNMyhBXV6xdZhcBeoH1C</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Hi Sewwandi, I'm sorry but I couldn't find any information on "Thaia". Could you please provide more details or clarify what you're looking for so I can assist you better? Thank you.</t>
+          <t>Hi isnushk5638, I'm sorry that you couldn't find what you were looking for. It seems like there may have been a typo in your search. Are you looking for information about Bangkok, Thailand? Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>45953.67839032407</v>
+        <v>45954.80625965277</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Wfgj4h4FRDTzSIt0JdtO</t>
+          <t>ngCMVmNrHDKMJoFm5UP5</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>chathurikas</t>
+          <t>nushk5638</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>84.389</v>
+        <v>11.883</v>
       </c>
       <c r="D34" t="n">
-        <v>1.406483333333333</v>
+        <v>0.19805</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FKIMtLxcoX0EpIdzbdZF</t>
+          <t>lMjUn56lOcz1iYgkcTy6</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10918116</t>
+          <t>10919622</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dis" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45953.4523294213</v>
+        <v>45954.80657524306</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>7ETQmBZlq8pEeivixFfE</t>
+          <t>JxgJzqzCawVwcOgOE7DB</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Hi Chathurika, I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. Can you please provide more details or context so I can better assist you in finding what you're looking for? Thank you for your patience.</t>
+          <t>Hi isnushk5638, I'm sorry you couldn't find what you were looking for. Let me help you with that. Are you searching for information about Bangkok, Thailand? Let me know if there's anything specific you need assistance with.</t>
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>45953.45330614584</v>
+        <v>45954.80671277778</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Wfgj4h4FRDTzSIt0JdtO</t>
+          <t>nodiPT7zaohar0UbmlNV</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>chathurikas</t>
+          <t>Chamali93</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>79.009</v>
+        <v>2963.822</v>
       </c>
       <c r="D35" t="n">
-        <v>1.316816666666667</v>
+        <v>49.39703333333333</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>OQNjncoK0tSss2c0GmxV</t>
+          <t>ZMYoFbhOz0W2cGFk8Gfc</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10918116</t>
+          <t>10913559</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Off" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Amari" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45953.45239168982</v>
+        <v>45954.72333425926</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>7ETQmBZlq8pEeivixFfE</t>
+          <t>IufDflGMXKIGK7QtCo2s</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Hi Chathurika, I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. Can you please provide more details or context so I can better assist you in finding what you're looking for? Thank you for your patience.</t>
+          <t>Hello Chamali93, thank you for reaching out. I apologize for the inconvenience, but could you please provide me with more details about the specific "Amari" or "Amari colom" you are looking for? This will help me assist you better in finding what you are searching for. Thank you!</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45953.45330614584</v>
+        <v>45954.75763775463</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>dq3nuMQ1vMW8lhiopwC0</t>
+          <t>nodiPT7zaohar0UbmlNV</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Adhir</t>
+          <t>Chamali93</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>38.116</v>
+        <v>2822.59</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6352666666666666</v>
+        <v>47.04316666666667</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>uDb6DDtMxnlhxe3BVmFR</t>
+          <t>8464O0UwIAIybftXhpcn</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>10917111</t>
+          <t>10913559</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Mov" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Amari colom" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45953.81878105324</v>
+        <v>45954.72496888889</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>P060EqQqPpGSVWmncx4y</t>
+          <t>IufDflGMXKIGK7QtCo2s</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Hi Adhir, I'm sorry, but I couldn't find any results for "Mov". Can you please provide me with more details so I can assist you better?</t>
+          <t>Hello Chamali93, thank you for reaching out. I apologize for the inconvenience, but could you please provide me with more details about the specific "Amari" or "Amari colom" you are looking for? This will help me assist you better in finding what you are searching for. Thank you!</t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45953.81922221064</v>
+        <v>45954.75763775463</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2395,597 +2393,591 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>hiRbgoTaZbegoHuPschO</t>
+          <t>ojsppIEpHLZIZ1Y8lhIP</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ragit3935</t>
+          <t>mohamedzain</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>87.804</v>
+        <v>87.95399999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>1.4634</v>
+        <v>1.4659</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3cdoXcm96DZXyKAz5d2B</t>
+          <t>64G2ZRHTLc37nUmZ7rJX</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10910234</t>
+          <t>10918703</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Radees" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kingsb" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45953.50857680556</v>
+        <v>45954.5746978588</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>nlHuZ0MrpkTNQ4t8UDEJ</t>
+          <t>Mk9E84ftSBTRDCfS8w0v</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Hello ragit3935, I'm sorry but it seems like "Radees" and "Radeetion" are not terms or destinations that we currently offer. Can you please provide me with more information or specific details about what you are looking for so I can assist you better? Thank you!</t>
+          <t>Hi Mohamedzain! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>45953.50959305555</v>
+        <v>45954.57571584491</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>hiRbgoTaZbegoHuPschO</t>
+          <t>pleEpVU2Dac2VVTdn5ox</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ragit3935</t>
+          <t>1983roshan</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>83.274</v>
+        <v>18.062</v>
       </c>
       <c r="D38" t="n">
-        <v>1.3879</v>
+        <v>0.3010333333333334</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>UsMzzoAg5zgIJV0h5jXx</t>
+          <t>9nGx07VNUcCElPZbNy9L</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10910234</t>
+          <t>10919590</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Radeetion" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sing" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45953.50862923611</v>
+        <v>45954.83315114583</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>nlHuZ0MrpkTNQ4t8UDEJ</t>
+          <t>4D6GZrvhfy19vHKciigh</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Hello ragit3935, I'm sorry but it seems like "Radees" and "Radeetion" are not terms or destinations that we currently offer. Can you please provide me with more information or specific details about what you are looking for so I can assist you better? Thank you!</t>
+          <t>Hi 1983roshan, I'm sorry for the confusion. Unfortunately, we do not have any information on "Sing" at the moment. Is there anything else I can assist you with?</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>45953.50959305555</v>
+        <v>45954.83336019676</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>k3hGw3tT85XaSDOYYo9q</t>
+          <t>qHH3CZMDORWOSJ3wJMEA</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>samyee</t>
+          <t>Tharana Egodage 750</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>87.96299999999999</v>
+        <v>1003.68</v>
       </c>
       <c r="D39" t="n">
-        <v>1.46605</v>
+        <v>16.728</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6FzRmLH3ijOU4oazJLov</t>
+          <t>EPr4tR94MUc8abIstNkM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>10913907</t>
+          <t>10919617</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sri" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kingsb" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45953.57939488426</v>
+        <v>45954.74669644676</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>xqU7xfx2boiXQMGfWNL6</t>
+          <t>E9Wn5UyQhzaZhOGczYrg</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Hi Samyee, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Sri" so I can assist you better? Thank you!</t>
+          <t>Hi Tharana Egodage 750, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>45953.58041297454</v>
+        <v>45954.75831311342</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>k3hGw3tT85XaSDOYYo9q</t>
+          <t>qHH3CZMDORWOSJ3wJMEA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>samyee</t>
+          <t>Tharana Egodage 750</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>73.51900000000001</v>
+        <v>1002.848</v>
       </c>
       <c r="D40" t="n">
-        <v>1.225316666666667</v>
+        <v>16.71413333333333</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>IJ5025Jo5iSt0ZVTfhNk</t>
+          <t>pQ2HeiqLYhwqco4ql6fI</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>10913907</t>
+          <t>10919617</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sri lanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kins" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45953.57956206019</v>
+        <v>45954.74670607639</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>xqU7xfx2boiXQMGfWNL6</t>
+          <t>E9Wn5UyQhzaZhOGczYrg</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Hi Samyee, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Sri" so I can assist you better? Thank you!</t>
+          <t>Hi Tharana Egodage 750, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>45953.58041297454</v>
+        <v>45954.75831311342</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>nqwZX3jg7f9iMYIG4JdU</t>
+          <t>qMj0jEGYSVmiTY2sFGxV</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hivini</t>
+          <t>Piumianu</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>84.169</v>
+        <v>129.058</v>
       </c>
       <c r="D41" t="n">
-        <v>1.402816666666667</v>
+        <v>2.150966666666667</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>l6oYZQcnXGXd62uWzDUp</t>
+          <t>5w9wJIj401kybP54cgQE</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>10916768</t>
+          <t>10917309</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "KIMG" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45953.63241315972</v>
+        <v>45954.12255626157</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>vNf8cgEXxxnfkEAMoIle</t>
+          <t>zj1ayZUl3IdWvOYfoHl6</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Hi Hivini, I apologize for the inconvenience. It seems like "KIMG" and "KINGSBS" may not be specific keywords related to travel. Can you please provide more information or details about what you are looking for so I can assist you better? Thank you!</t>
+          <t>Hi Piumianu, I'm sorry you couldn't find what you were looking for. Let me assist you in finding information about Thailand, Bangkok, or any other destination you have in mind. Feel free to provide more details so I can help you better. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>45953.63338733796</v>
+        <v>45954.12404998842</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>nqwZX3jg7f9iMYIG4JdU</t>
+          <t>qMj0jEGYSVmiTY2sFGxV</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hivini</t>
+          <t>Piumianu</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>78.59999999999999</v>
+        <v>98.393</v>
       </c>
       <c r="D42" t="n">
-        <v>1.31</v>
+        <v>1.639883333333333</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CpKCujC40L8aLDIx9Og0</t>
+          <t>GjgahLezz9JCyJYAKMe1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>10916768</t>
+          <t>10917309</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "KINGSBS" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45953.63247761574</v>
+        <v>45954.12291118056</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>vNf8cgEXxxnfkEAMoIle</t>
+          <t>zj1ayZUl3IdWvOYfoHl6</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Hi Hivini, I apologize for the inconvenience. It seems like "KIMG" and "KINGSBS" may not be specific keywords related to travel. Can you please provide more information or details about what you are looking for so I can assist you better? Thank you!</t>
+          <t>Hi Piumianu, I'm sorry you couldn't find what you were looking for. Let me assist you in finding information about Thailand, Bangkok, or any other destination you have in mind. Feel free to provide more details so I can help you better. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>45953.63338733796</v>
+        <v>45954.12404998842</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ouV4ZpG3Rlaa9JBxepXI</t>
+          <t>qMj0jEGYSVmiTY2sFGxV</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ruvini</t>
+          <t>Piumianu</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>93.499</v>
+        <v>89.032</v>
       </c>
       <c r="D43" t="n">
-        <v>1.558316666666667</v>
+        <v>1.483866666666667</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>hfIGNXPugDK2eNDSw43r</t>
+          <t>th9MRmz4JyHZx5OjJU2H</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>10914600</t>
+          <t>10917309</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dinrn" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ba" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45953.58124796296</v>
+        <v>45954.12301952546</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Cg7kJZfs2PrinDbFm8u0</t>
+          <t>zj1ayZUl3IdWvOYfoHl6</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Hi Ruvini, I'm sorry but I'm not familiar with "Dinrn." Could you please provide me with more information or details so I can assist you better? Thank you!</t>
+          <t>Hi Piumianu, I'm sorry you couldn't find what you were looking for. Let me assist you in finding information about Thailand, Bangkok, or any other destination you have in mind. Feel free to provide more details so I can help you better. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K43" s="2" t="n">
-        <v>45953.58233012731</v>
+        <v>45954.12404998842</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>tE4bk1fl6W2BM0EJfbKY</t>
+          <t>tAqNhEdG6gkZYHChV4ct</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>sugit3610</t>
+          <t>Jude999</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>125.397</v>
+        <v>10.994</v>
       </c>
       <c r="D44" t="n">
-        <v>2.08995</v>
+        <v>0.1832333333333333</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>cd7m8Z04KST9gcP3Bu9H</t>
+          <t>ecAqhdfVcrsAaLGV4BMV</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>10919575</t>
+          <t>10919211</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dubao" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "HoAhungalla" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45953.15248459491</v>
+        <v>45954.80445559027</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>N5iaTAjIErVA9KdfQCkE</t>
+          <t>trJrtLfCifz8jHuxLCNO</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">contact us to +94 71 174 4227 to assist you further 
-</t>
+          <t>Hi Jude999, I apologize for the confusion. It seems like there might be a typo in the search term "HoAhungalla." Could you please provide me with more information or clarify your request so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K44" s="2" t="n">
-        <v>45953.15393594907</v>
+        <v>45954.80458283565</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>tE4bk1fl6W2BM0EJfbKY</t>
+          <t>tAqNhEdG6gkZYHChV4ct</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>sugit3610</t>
+          <t>Jude999</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>115.72</v>
+        <v>44.015</v>
       </c>
       <c r="D45" t="n">
-        <v>1.928666666666667</v>
+        <v>0.7335833333333334</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3ySCmd2pj0oDd6hG0MhP</t>
+          <t>39hMR2HoJZY30rOVRXq6</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>10919575</t>
+          <t>10919211</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ahungalla" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45953.15259659723</v>
+        <v>45954.80551113426</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>N5iaTAjIErVA9KdfQCkE</t>
+          <t>jzOcR2MxsYHsnLH4KQhM</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve">contact us to +94 71 174 4227 to assist you further 
+          <t xml:space="preserve">Hi Jude999! Thank you for reaching out. I'll do my best to help you find information on Ahungalla. Could you clarify what in Ahungalla would you like to explore?
 </t>
         </is>
       </c>
       <c r="K45" s="2" t="n">
-        <v>45953.15393594907</v>
+        <v>45954.80602056713</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>tE4bk1fl6W2BM0EJfbKY</t>
+          <t>vQydir5iwFFDKN236PdS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>sugit3610</t>
+          <t>Vijith Madushan</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>104.867</v>
+        <v>18.208</v>
       </c>
       <c r="D46" t="n">
-        <v>1.747783333333333</v>
+        <v>0.3034666666666667</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>cz9IBqfgE3suZ7CHaTjD</t>
+          <t>GdYTEsekoGc1S8gkpTQu</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>10919575</t>
+          <t>10918068</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dnai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sports massage" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>45953.15272221065</v>
+        <v>45954.79766440972</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>N5iaTAjIErVA9KdfQCkE</t>
+          <t>PiQxApnRY1WUhd436oR3</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve">contact us to +94 71 174 4227 to assist you further 
-</t>
+          <t>Hi Vijith Madushan, I apologize for the inconvenience. We currently do not offer sports massage services. However, we do have a variety of other relaxing and rejuvenating options available. Please let me know if you would like more information on any of our other services. Thank you for reaching out.</t>
         </is>
       </c>
       <c r="K46" s="2" t="n">
-        <v>45953.15393594907</v>
+        <v>45954.79787515046</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>uDNYcARmHFBvX6DWD1cB</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Nimashi27</t>
-        </is>
-      </c>
+          <t>vWJW8qpNDhdc51uxgCgh</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>88.706</v>
+        <v>95.366</v>
       </c>
       <c r="D47" t="n">
-        <v>1.478433333333333</v>
+        <v>1.589433333333333</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>voHLYMNGrDjYfhmgSpEQ</t>
+          <t>liIODdAqjGL1kgS5hSuZ</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>10919562</t>
+          <t>AHS_Guest</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Accommodation" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinninh" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
-        <v>45953.59101958333</v>
+        <v>45954.54156775463</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>hE3m5JS7CoxuTZAcnsBg</t>
+          <t>PGSdwXfKAvbs7AuuVUsX</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Hi Nimashi27, I apologize for the inconvenience. It seems there may have been a technical issue with the search results. Can you please provide me with more details about the type of accommodation you are looking for? I'll do my best to assist you in finding the perfect accommodation for your needs. Thank you for reaching out to us!</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can help you better? Thank you!</t>
         </is>
       </c>
       <c r="K47" s="2" t="n">
-        <v>45953.59204627314</v>
+        <v>45954.54267152778</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
@@ -2997,14 +2989,14 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>333.636</v>
+        <v>3868.831</v>
       </c>
       <c r="D48" t="n">
-        <v>5.5606</v>
+        <v>64.48051666666667</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>s860SpDfq7Z4rFTIt45o</t>
+          <t>ou4C8gKKCkPCaUxwA8OG</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3014,136 +3006,78 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sri lanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Barbecue" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
-        <v>45953.01903248842</v>
+        <v>45954.71226600694</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>hmP0NZ1ltH05cWVnygWl</t>
+          <t>Xqobon6uhO2yhzMHL0eq</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Hi, thank you for reaching out. I'm sorry that you couldn't find the specific information you were looking for. Can you please provide me with more details so that I can assist you better? Thank you!</t>
+          <t>Hi, I'm sorry you couldn't find what you were looking for. Let me assist you in finding information on "Jetwing". Please hold on while I search for the details. Thank you for your patience!</t>
         </is>
       </c>
       <c r="K48" s="2" t="n">
-        <v>45953.02289401621</v>
+        <v>45954.75704414352</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ymV1SMovKmjR5JRVHptl</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Jayahansi</t>
-        </is>
-      </c>
+          <t>vWJW8qpNDhdc51uxgCgh</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>145.621</v>
+        <v>3816.646</v>
       </c>
       <c r="D49" t="n">
-        <v>2.427016666666667</v>
+        <v>63.61076666666667</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>aXNCjgFq00GEGbNYBCg6</t>
+          <t>db8q2ZHUnEOdf9b6E7N4</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>5803</t>
+          <t>AHS_Guest</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Shanghai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Jetwing" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45953.61396799768</v>
+        <v>45954.71287</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>rsjRGLWHSAyfYb59qqBO</t>
+          <t>Xqobon6uhO2yhzMHL0eq</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Hi Jayahansi, I'm sorry that you couldn't find what you were looking for. Shanghai is a popular destination and we would be happy to help you plan your trip there. Can you please provide me with more details about your travel preferences so we can assist you better?</t>
+          <t>Hi, I'm sorry you couldn't find what you were looking for. Let me assist you in finding information on "Jetwing". Please hold on while I search for the details. Thank you for your patience!</t>
         </is>
       </c>
       <c r="K49" s="2" t="n">
-        <v>45953.61565342593</v>
+        <v>45954.75704414352</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>zFWapDjiJ3O11m45OA7e</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>zilva</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>85.548</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1.4258</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>i8hR9JSZMnI0laCZlf5R</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>10910746</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Taba" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>45953.74454188658</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>shaZRhNLcBd1TVuE2tpU</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Hi Zilva, I'm sorry but we currently don't have any information on "Taba." Could you please provide more details so that we can assist you better?</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="n">
-        <v>45953.74553202546</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,104 +502,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5mdbWcEp5Ij9uQsDhIfJ</t>
+          <t>0W1pG8GthqZpXNMMOWVU</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ImashiDeSilva</t>
+          <t>Cinnamon</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>87.29900000000001</v>
+        <v>92.995</v>
       </c>
       <c r="D2" t="n">
-        <v>1.454983333333334</v>
+        <v>1.549916666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>kj1xyO4dnc8iDonSMcXI</t>
+          <t>w3mGWGeUsoZzfpYoTQ9I</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10917573</t>
+          <t>10919324</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Amagi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Full bi" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45954.29935533565</v>
+        <v>45956.0250233449</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>9IdVUeLHEYCrqq7t70H1</t>
+          <t>p3Vx6qUJ5mBuFMatOjGd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hi ImashiDeSilva! Thank you for reaching out. I'm sorry you couldn't find what you were looking for. Could you please provide me with more details about "Amagi" so I can assist you better?</t>
+          <t>Admin: Hi Cinnamon! I appreciate you reaching out. Let me double-check our database to see if I can find what you're looking for. Give me just a moment to assist you.</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45954.30036574074</v>
+        <v>45956.02609967592</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6espVitucDaDxVYLCPrH</t>
+          <t>78f4hnMryV6skgTWkj20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ruwanm</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>99.02500000000001</v>
+        <v>105.99</v>
       </c>
       <c r="D3" t="n">
-        <v>1.650416666666667</v>
+        <v>1.7665</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>aNfgElHgy7FJyI0dGEw5</t>
+          <t>MlRZeddwkVgJlQDJhWRV</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10917246</t>
+          <t>10919546</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bentota" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "U" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45954.87751315972</v>
+        <v>45956.94206429398</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>7v280rz6c9tdijjKs9eq</t>
+          <t>RwKVqZv73PGrUinhUzMa</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hi ruwanm, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search for "Bentota" so I can assist you better? Thank you.</t>
+          <t xml:space="preserve"> 
+ Hi Dubai! Thanks for reaching out. Let me check on that for you and see if I can find what you're looking for. Just give me a moment to investigate. Appreciate your understanding!</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45954.87865928241</v>
+        <v>45956.94329103009</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -610,50 +611,50 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>78f4hnMryV6skgTWkj20</t>
+          <t>8dcc1qD5i6LwjJnXxvkO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>tcnpe5060</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>123.647</v>
+        <v>102.391</v>
       </c>
       <c r="D4" t="n">
-        <v>2.060783333333334</v>
+        <v>1.706516666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>opshXKv9IdI32481VTgu</t>
+          <t>dOQtYE1ri70mwxYnr6sv</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10919546</t>
+          <t>10919686</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "It is clear" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Banko" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45954.03569385417</v>
+        <v>45956.9373137037</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>BdPOGa5tf94gPcgV5OEW</t>
+          <t>w3rMpvYekJvDfYjWxVWU</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hi Dubai, I apologize for the inconvenience. It seems like there might have been a misunderstanding. Could you please provide me with more details or a specific topic related to "It is clear" so that I can assist you better? Thank you.</t>
+          <t>Hello tcnpe5060, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for? I would be happy to assist you in finding the information you need.</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45954.03712495371</v>
+        <v>45956.93849878472</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -664,50 +665,50 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>78f4hnMryV6skgTWkj20</t>
+          <t>8dcc1qD5i6LwjJnXxvkO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>tcnpe5060</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>86.595</v>
+        <v>96.994</v>
       </c>
       <c r="D5" t="n">
-        <v>1.44325</v>
+        <v>1.616566666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>rjQ2LVV1FcNGKqN4rCOb</t>
+          <t>daQI8VUbqNqV6NrWyFup</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10919546</t>
+          <t>10919686</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "ra20bee" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thai" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45954.03738121528</v>
+        <v>45956.93737616898</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>cfGlmJ20XKOG4xbOQU9W</t>
+          <t>w3rMpvYekJvDfYjWxVWU</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Admin: Hi Dubai, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details or keywords related to "ra20bee" so I can assist you better? Thank you.</t>
+          <t>Hello tcnpe5060, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for? I would be happy to assist you in finding the information you need.</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45954.03838347222</v>
+        <v>45956.93849878472</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -718,807 +719,811 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>78f4hnMryV6skgTWkj20</t>
+          <t>9oJmp9gEV66CIa4JIUYs</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>rosha7889</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>81.545</v>
+        <v>176.549</v>
       </c>
       <c r="D6" t="n">
-        <v>1.359083333333333</v>
+        <v>2.942483333333334</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0UCeUMy2oaOUXV5bc93o</t>
+          <t>2mlV3EFyBW958YQSF14c</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10919546</t>
+          <t>10915190</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "ra20bee" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Night buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45954.0451646412</v>
+        <v>45956.41059467592</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>AIn870Gp2UtYWuL5J1x0</t>
+          <t>vkvX9qv5oVTnlxilRWuC</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hi Dubai, I'm sorry you couldn't find what you were looking for. Let me see if I can help you with your search for "ra20bee". Let's see if we can find what you need together.</t>
+          <t>Hi Rosha, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Night Buffet
+" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45954.04610844907</v>
+        <v>45956.41263806713</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>78f4hnMryV6skgTWkj20</t>
+          <t>9oJmp9gEV66CIa4JIUYs</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>rosha7889</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>277.303</v>
+        <v>115.39</v>
       </c>
       <c r="D7" t="n">
-        <v>4.621716666666667</v>
+        <v>1.923166666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8mgSnVGlgemGwydhjPwI</t>
+          <t>WMFZIaXtYbGo9CZOks8z</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10919546</t>
+          <t>10915190</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Can I transfer money to my name via Western Union?</t>
+          <t>Hi, I was searching for "Abroa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45954.04729355324</v>
+        <v>45956.41399274306</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>KUyMX6aErGa8azGF756g</t>
+          <t>3CpnVcMI0X3549aLyIZK</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Kindly hold on. will get back with you.</t>
+          <t>Hi Rosha, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for regarding "Abroa", "Chennai", and "China"? This will help me assist you better. Thank you!</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45954.0505030787</v>
+        <v>45956.41532827546</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>78f4hnMryV6skgTWkj20</t>
+          <t>9oJmp9gEV66CIa4JIUYs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>rosha7889</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>96.03</v>
+        <v>105.08</v>
       </c>
       <c r="D8" t="n">
-        <v>1.6005</v>
+        <v>1.751333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ersgifUhDmd2MrJ9KSzW</t>
+          <t>UiaY5r32brNZTickPBm0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10919546</t>
+          <t>10915190</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "https://vm.tiktok.com/ZNHvQXSCQaquK-zWshK/" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Chennai" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45954.69490560185</v>
+        <v>45956.41411207176</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>qCrPasJTsefVXjCibh8q</t>
+          <t>3CpnVcMI0X3549aLyIZK</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hi Dubai, I apologize for the inconvenience you're facing. Let me look into this for you and see if I can find what you're looking for. Thank you for your patience!</t>
+          <t>Hi Rosha, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for regarding "Abroa", "Chennai", and "China"? This will help me assist you better. Thank you!</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45954.69601706019</v>
+        <v>45956.41532827546</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>78f4hnMryV6skgTWkj20</t>
+          <t>9oJmp9gEV66CIa4JIUYs</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>rosha7889</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>109.058</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>1.817633333333333</v>
+        <v>1.395666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>upSGuydrUE0Dyw7Ypdst</t>
+          <t>hoApvqCnkTyAt5LkuqYr</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10919546</t>
+          <t>10915190</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://vm.tiktok.com/ZNHvQXSCQaquK-zWshK/</t>
+          <t>Hi, I was searching for "China" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45954.69621273148</v>
+        <v>45956.4143590625</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sWygxpdBrpUwobbwgUCZ</t>
+          <t>3CpnVcMI0X3549aLyIZK</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- Hi Dubai! Thank you for sharing the link with me. Let me take a look and see if I can find what you're searching for. I appreciate your patience!</t>
+          <t>Hi Rosha, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for regarding "Abroa", "Chennai", and "China"? This will help me assist you better. Thank you!</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45954.69747497685</v>
+        <v>45956.41532827546</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
+          <t>9oJmp9gEV66CIa4JIUYs</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ammar Anees</t>
+          <t>rosha7889</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3480.72</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>58.01199999999999</v>
+        <v>1.085</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>XASAKrqjuswF5hZw1K9x</t>
+          <t>4eIzdCc7WyxEK7LCnRN0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4220</t>
+          <t>10915190</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bubble" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Flights" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45954.71712569444</v>
+        <v>45956.41457480324</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>uyM3q1OLsluynk2atqgj</t>
+          <t>3CpnVcMI0X3549aLyIZK</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>Hi Rosha, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for regarding "Abroa", "Chennai", and "China"? This will help me assist you better. Thank you!</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45954.75741180556</v>
+        <v>45956.41532827546</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
+          <t>9vIV5oadASvIqeQzCxgU</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ammar Anees</t>
+          <t>ShamJ</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3394.356</v>
+        <v>123.622</v>
       </c>
       <c r="D11" t="n">
-        <v>56.5726</v>
+        <v>2.060366666666666</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>S7CORwhqp9pGjbBK7NCT</t>
+          <t>Wbgcg60SPl2Mk6RYRhGs</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4220</t>
+          <t>10915395</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bubble" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Over" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45954.71812527778</v>
+        <v>45956.95090758102</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>uyM3q1OLsluynk2atqgj</t>
+          <t>19DdNziFRFHlRLBAIskB</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>Hello ShamJ, I apologize for the inconvenience. It seems that we do not currently have any listings for "Over." Is there anything else I can assist you with in your search for travel options? Let me know if you need help with anything else.</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45954.75741180556</v>
+        <v>45956.9523383912</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
+          <t>Aibas2wNYzLutVPmkPC7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ammar Anees</t>
+          <t>Morin</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3376.536</v>
+        <v>116.949</v>
       </c>
       <c r="D12" t="n">
-        <v>56.2756</v>
+        <v>1.94915</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NXna75Es8Emj9l6MIKxF</t>
+          <t>QhQb0IGdwZ91fgNFjlbO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4220</t>
+          <t>10917960</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bubble" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Siri" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45954.71833152778</v>
+        <v>45956.78712597222</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>uyM3q1OLsluynk2atqgj</t>
+          <t>N7EGGNPplnpImS6xaeEK</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>Hi Morin, I'm sorry but we don't have information on "Siri" . If there's anything else you need help with, feel free to let us know!</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45954.75741180556</v>
+        <v>45956.78847954861</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AL8hRHfDBGXBaDodrpNb</t>
+          <t>Aibas2wNYzLutVPmkPC7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Felomika</t>
+          <t>Morin</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2185.8</v>
+        <v>100.833</v>
       </c>
       <c r="D13" t="n">
-        <v>36.43</v>
+        <v>1.68055</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>oTguoYBuw0TCIX4MIJrE</t>
+          <t>MGl0iNT4zYv0IPq6PcPJ</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6052</t>
+          <t>10917960</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Half boaed" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dog" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45954.73258651621</v>
+        <v>45956.81810900463</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>946k9ZtLRpX92InDx4iU</t>
+          <t>YeYS6JOdBdUsaurrdsRG</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Hi Felomika, I apologize for the confusion. It seems like there may have been a misunderstanding in your search. "Half board" typically refers to a meal plan that includes breakfast and either lunch or dinner. If you're looking for accommodations with half board options in Colombo, I can definitely help you with that. Let me know if you have any specific preferences or requirements so I can assist you further. Thank you for reaching out!</t>
+          <t>Hi Morin, I'm sorry but we don't have information on "Dog". If there's anything else  you need help with, feel free to let me know!</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45954.75788512731</v>
+        <v>45956.81927605324</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AL8hRHfDBGXBaDodrpNb</t>
+          <t>EKh3tMj3NEUVv8Xtq6zp</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Felomika</t>
+          <t>hasan7329</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2178.256</v>
+        <v>87.03400000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>36.30426666666666</v>
+        <v>1.450566666666667</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>BvOHxP4FDtwkYlWgzuyc</t>
+          <t>moKw9YYvdVGWMZTIglxq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6052</t>
+          <t>10915597</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Half board colombo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hotels in p" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45954.73267383102</v>
+        <v>45956.39304590278</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>946k9ZtLRpX92InDx4iU</t>
+          <t>Th5mM7QGEwyvGO9IY3SU</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Hi Felomika, I apologize for the confusion. It seems like there may have been a misunderstanding in your search. "Half board" typically refers to a meal plan that includes breakfast and either lunch or dinner. If you're looking for accommodations with half board options in Colombo, I can definitely help you with that. Let me know if you have any specific preferences or requirements so I can assist you further. Thank you for reaching out!</t>
+          <t xml:space="preserve">
+ Hi Hasan7329! I'm sorry to hear you're having trouble finding what you're looking for. I'll do my best to assist you. Can you please provide me with more details about your search so I can help you find the information you need? Thank you!</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45954.75788512731</v>
+        <v>45956.39405324074</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CCfNUAUsDmSC8ywomlrp</t>
+          <t>EKh3tMj3NEUVv8Xtq6zp</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Christeen0302</t>
+          <t>hasan7329</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>104.946</v>
+        <v>39.891</v>
       </c>
       <c r="D15" t="n">
-        <v>1.7491</v>
+        <v>0.6648499999999999</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>C7M9ImG4tnoS4ZvigOlh</t>
+          <t>t2Gdh3Ie80Dz95a1bmiV</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10916466</t>
+          <t>10915597</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Jesmin" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thai" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45954.68071070602</v>
+        <v>45956.39359153935</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>PVHqCasx3Ih0b9lRez7H</t>
+          <t>Th5mM7QGEwyvGO9IY3SU</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Hi Christeen0302, I apologize for not being able to find any results for "Jesmin." Can you please provide me with more details or clarify what you are looking for so I can assist you better? Thank you.</t>
+          <t xml:space="preserve">
+ Hi Hasan7329! I'm sorry to hear you're having trouble finding what you're looking for. I'll do my best to assist you. Can you please provide me with more details about your search so I can help you find the information you need? Thank you!</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45954.6819253588</v>
+        <v>45956.39405324074</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Eg3u1Qmvh8bAb7TcrVOK</t>
+          <t>Gsj4sglw7oIiEb9s8Ba8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>lokuwalgama</t>
+          <t>Ramzan Marzook</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>97.496</v>
+        <v>119.039</v>
       </c>
       <c r="D16" t="n">
-        <v>1.624933333333333</v>
+        <v>1.983983333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>OUsuCC30XZ2gMI8penXk</t>
+          <t>a54MJYaEEfdVWXLQFv0i</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10919626</t>
+          <t>7338</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sing" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Yesterday I made a dinner buffet at cinnamon Grand for 2 pax… but unfortunately yesterday it’s fully occupied and from the Aahaas they said me they transferred to today. It’s confirmed right?</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45954.9253191551</v>
+        <v>45956.76346043981</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>BcjO62WvnsnIX1izPPrB</t>
+          <t>fbAZ6xsT2KmCRnMjIDCH</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Hi lokuwalgama, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t xml:space="preserve">sir send me your order id
+</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45954.92644758102</v>
+        <v>45956.76483820602</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Eg3u1Qmvh8bAb7TcrVOK</t>
+          <t>Gsj4sglw7oIiEb9s8Ba8</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>lokuwalgama</t>
+          <t>Ramzan Marzook</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>92.617</v>
+        <v>39.531</v>
       </c>
       <c r="D17" t="n">
-        <v>1.543616666666667</v>
+        <v>0.6588499999999999</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NIEwl7FwTbe19fUVwXUQ</t>
+          <t>51Bnk68vwZGnNydCr0AS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10919626</t>
+          <t>7338</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malli" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>7653</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45954.925375625</v>
+        <v>45956.76438067129</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>BcjO62WvnsnIX1izPPrB</t>
+          <t>fbAZ6xsT2KmCRnMjIDCH</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Hi lokuwalgama, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t xml:space="preserve">sir send me your order id
+</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45954.92644758102</v>
+        <v>45956.76483820602</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Eg3u1Qmvh8bAb7TcrVOK</t>
+          <t>Gsj4sglw7oIiEb9s8Ba8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>lokuwalgama</t>
+          <t>Ramzan Marzook</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>55.956</v>
+        <v>192.39</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9326000000000001</v>
+        <v>3.2065</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OocuoFl6i0MQLDAPT6l7</t>
+          <t>xWPfuRzZ7QJv7WKmoY2c</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10919626</t>
+          <t>7338</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malli" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>7653</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45954.92579994213</v>
+        <v>45956.76504099537</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>BcjO62WvnsnIX1izPPrB</t>
+          <t>CVvIpHEN06Gz1KDxnMYA</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Hi lokuwalgama, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t>yes sir it is confirmed. enjoy your wonderful dinner. have a nice day!</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45954.92644758102</v>
+        <v>45956.76726773148</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Eu8KUxMjuSa0IPH8Br2h</t>
+          <t>Gsj4sglw7oIiEb9s8Ba8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ishanka</t>
+          <t>Ramzan Marzook</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>106.542</v>
+        <v>33.282</v>
       </c>
       <c r="D19" t="n">
-        <v>1.7757</v>
+        <v>0.5547</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>uNdACSov439RnqfzgUek</t>
+          <t>bjudeUAZhWHbq5inxmtl</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>7338</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sychelles" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Okay thank you</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45954.94121224537</v>
+        <v>45956.76688252314</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>NMFwnW0ZuSbiBedmICnF</t>
+          <t>CVvIpHEN06Gz1KDxnMYA</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Hi Ishanka! Thank you for reaching out. I'm sorry, but it looks like there may be a spelling error in your search. Did you mean "Seychelles" instead of "Sychelles"? Let me know how I can assist you further in finding information about Seychelles.</t>
+          <t>yes sir it is confirmed. enjoy your wonderful dinner. have a nice day!</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45954.94244537037</v>
+        <v>45956.76726773148</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HIqVcwF15fejXXEkiXdv</t>
+          <t>HdKXZWiI3ooQ8p8q4HiB</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>shreetirupati</t>
+          <t>Lasindu</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>83.892</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>1.3982</v>
+        <v>1.376666666666666</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PA6pFDuxLAAaVUeWQfQ6</t>
+          <t>fSk3m42m7KBBk4Yy7sSm</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>10914221</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "E" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Double tree" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45954.49234960648</v>
+        <v>45956.62465835648</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>UzYfnwRazVyZwlid1FlM</t>
+          <t>9lv66OLfsHmRN0Zz1Jt3</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Hello Shreetirupati! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better?</t>
+          <t>Hi Lasindu, I apologize for the inconvenience. It seems like there may have been a search error. "DoubleTree by Hilton" is a popular hotel chain, and I can help you find the information you need. Please provide me with the specific location or dates you are looking for, and I'll be happy to assist you further. Thank you for reaching out.</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45954.4933205787</v>
+        <v>45956.625614375</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1529,50 +1534,50 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>JdXLBG1mEAvQqHCSzksm</t>
+          <t>HdKXZWiI3ooQ8p8q4HiB</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>chamu3773</t>
+          <t>Lasindu</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>90.538</v>
+        <v>80.366</v>
       </c>
       <c r="D21" t="n">
-        <v>1.508966666666667</v>
+        <v>1.339433333333333</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>aoYZ09FF54AfGRsfVrFe</t>
+          <t>KSLctpCfSzyov6yt383y</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6748</t>
+          <t>10914221</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malay" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Double tree by hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45954.63524975695</v>
+        <v>45956.62468421296</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>V37yHGJCLIjVavqiJa7R</t>
+          <t>9lv66OLfsHmRN0Zz1Jt3</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Hello chamu3773, thank you for reaching out to us. I apologize for the inconvenience, but could you please provide more details about what you are looking for under "Malay"? This will help me assist you better. Thank you.</t>
+          <t>Hi Lasindu, I apologize for the inconvenience. It seems like there may have been a search error. "DoubleTree by Hilton" is a popular hotel chain, and I can help you find the information you need. Please provide me with the specific location or dates you are looking for, and I'll be happy to assist you further. Thank you for reaching out.</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45954.63629765046</v>
+        <v>45956.625614375</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1583,1501 +1588,1004 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jy9KgQ92PcIuh13h3a2V</t>
+          <t>VwkoFTedgtHvYbP59HSN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chameli317</t>
+          <t>IsuriS</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>97.111</v>
+        <v>139.774</v>
       </c>
       <c r="D22" t="n">
-        <v>1.618516666666667</v>
+        <v>2.329566666666667</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2q3jCs9Kewq8I8UyqhM1</t>
+          <t>4oHqJkGP2Oial0bpoyQ5</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10911490</t>
+          <t>10919683</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kuala" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hair treatment" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45954.47017571759</v>
+        <v>45956.8067368287</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>U3DxFncADNWRIjB76GK0</t>
+          <t>DIPrL6wk47Hz1wXg6boN</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Hi Chameli317, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about the destination or type of travel you are interested in? I'd be happy to help you find the perfect option for your trip.</t>
+          <t>Hi IsuriS, kindly contact us to +94 71 174 4227</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45954.4712996875</v>
+        <v>45956.80835458334</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P6aJegTbfjDcK0QbKBGm</t>
+          <t>bs2rsKzQBVqnWddk0sxG</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Faheema Kabeer</t>
+          <t>Imalka1990</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>96.393</v>
+        <v>83.732</v>
       </c>
       <c r="D23" t="n">
-        <v>1.60655</v>
+        <v>1.395533333333333</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>hCTNKShHCcAHTJSUZyFH</t>
+          <t>6PBGNW2Vd3GftbnLewE5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>10918607</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sofiac" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45954.69506265046</v>
+        <v>45956.635134375</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>pTKbHXgZ1cKdRwZw0CiX</t>
+          <t>lXMYVnRDgx1OG0QznZlZ</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Hi Faheema, I'm sorry but I couldn't find any information on "Sofiac." Could you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Imalka1990! How can I assist you today?</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45954.69617831019</v>
+        <v>45956.63610349537</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>T0i85yZO59DqcaUdfAR4</t>
+          <t>hkMmPSrEoTXzmo8h8bK0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Stuart</t>
+          <t>Mohamed Rizwan Abdul Razzak</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>288.213</v>
+        <v>92.015</v>
       </c>
       <c r="D24" t="n">
-        <v>4.80355</v>
+        <v>1.533583333333333</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3oXoAqkoUVFd21WiNhyE</t>
+          <t>XpO3ekluXY3RknSCIphF</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10918506</t>
+          <t>7421</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Scwed" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kandy" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45954.546649375</v>
+        <v>45956.98329619213</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>qgPEIXjbqX7FZhL3t7Eh</t>
+          <t>GebhFFzVW7HrZhIf8UJ2</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Hi Stuart, I'm sorry but I couldn't find any information on "Scwed." Can you please provide me with more details or clarify what you are looking for so I can assist you better? Thank you.</t>
+          <t>Hi Mohamed Rizwan Abdul Razzak, I'm sorry but we don't have any results for "Kandy" or "Kand" at the moment. Is there anything else I can assist you with? Let me know how else I can help!</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45954.54998517361</v>
+        <v>45956.98436118056</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TPhiA9YY6c17ocBe2EpP</t>
+          <t>hkMmPSrEoTXzmo8h8bK0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Davidu</t>
+          <t>Mohamed Rizwan Abdul Razzak</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>145.595</v>
+        <v>91.827</v>
       </c>
       <c r="D25" t="n">
-        <v>2.426583333333333</v>
+        <v>1.53045</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>hEEZdqndctzx2z4bOwMP</t>
+          <t>w1pDKMsh4PUpzr4eTs9f</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10910725</t>
+          <t>7421</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Chag" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kand" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45954.49118725694</v>
+        <v>45956.98329836805</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>vSv2PT2W3yELQbRJUysW</t>
+          <t>GebhFFzVW7HrZhIf8UJ2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Hi Davidu, I'm sorry but I couldn't find any information on "Chag". Could you please provide me with more details so I can assist you better?</t>
+          <t>Hi Mohamed Rizwan Abdul Razzak, I'm sorry but we don't have any results for "Kandy" or "Kand" at the moment. Is there anything else I can assist you with? Let me know how else I can help!</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45954.49287238426</v>
+        <v>45956.98436118056</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Zk4SKZ9kI0hW0z4JSMWl</t>
+          <t>hkMmPSrEoTXzmo8h8bK0</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>muksithmuneer</t>
+          <t>Mohamed Rizwan Abdul Razzak</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1012.782</v>
+        <v>36.436</v>
       </c>
       <c r="D26" t="n">
-        <v>16.8797</v>
+        <v>0.6072666666666666</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>eMQXvqdWW1hmmiNID200</t>
+          <t>w7kCNIbewJT8ztTMiMgU</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10912018</t>
+          <t>7421</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malesia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kandy" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45954.74676635417</v>
+        <v>45956.98393946759</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>BRqFHdJ0t6rIUog7WWWo</t>
+          <t>GebhFFzVW7HrZhIf8UJ2</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Hi Muksithmuneer, I'm sorry but we do not have any information on "Malesia" in our database. Could you please provide me with more details so I can assist you better? Thank you.</t>
+          <t>Hi Mohamed Rizwan Abdul Razzak, I'm sorry but we don't have any results for "Kandy" or "Kand" at the moment. Is there anything else I can assist you with? Let me know how else I can help!</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45954.75848836805</v>
+        <v>45956.98436118056</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>eolPqKyWtgSwst3OtP9C</t>
+          <t>kUOrJK0BQjPdKUkV3yuJ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>reetha1</t>
+          <t>Dasuni Navodya</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>90.876</v>
+        <v>85.03100000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>1.5146</v>
+        <v>1.417183333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7UWn4P0Ozf2r6qZ5F2pq</t>
+          <t>SVHFK44ABSqn6dAS0PjJ</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>10912977</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Phu Quoc One" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Grandb" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45954.53067061343</v>
+        <v>45956.32966604167</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>BsDrJ7rzOB4fgRoNcFnn</t>
+          <t>90q43Mb77KmMp7R8aFMD</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Hi reetha1, thank you for reaching out. I'm sorry, but it seems like "Phu Quoc One" may not be a specific location or service. Can you provide more details or clarify what you are looking for so I can better assist you? Thank you.</t>
+          <t>Hi Dasuni Navodya, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Grandb" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45954.53172241898</v>
+        <v>45956.33065019676</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>gvFfza1bnGufx4wjMRA4</t>
+          <t>kUOrJK0BQjPdKUkV3yuJ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>shehan07</t>
+          <t>Dasuni Navodya</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>103.148</v>
+        <v>30.331</v>
       </c>
       <c r="D28" t="n">
-        <v>1.719133333333333</v>
+        <v>0.5055166666666666</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>kGaCxrrhJnVFIkjxingG</t>
+          <t>qsQTezRIfOHxRFBtg7R1</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10913600</t>
+          <t>10912977</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dinner" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Grand be" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45954.57628002315</v>
+        <v>45956.33029914352</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>vLD0WZ2sXkLjo05Ii7F6</t>
+          <t>90q43Mb77KmMp7R8aFMD</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Shehan07! I'm sorry that you couldn't find what you were looking for. Please feel free to contact us at +94 71 174 4227 for further assistance.</t>
+          <t>Hi Dasuni Navodya, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Grandb" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45954.57747386574</v>
+        <v>45956.33065019676</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>gvFfza1bnGufx4wjMRA4</t>
+          <t>kjq7o194PvMRZXiCmy5b</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>shehan07</t>
+          <t>Dilumi</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>94.483</v>
+        <v>83.34999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>1.574716666666667</v>
+        <v>1.389166666666667</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>w4u159EBp0Xq7IhR9ESk</t>
+          <t>bFFyjtBiFBGpKN9Cs9n5</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10913600</t>
+          <t>10918694</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buff" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hitel" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45954.5763803125</v>
+        <v>45956.64655674768</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>vLD0WZ2sXkLjo05Ii7F6</t>
+          <t>8lowKzDghpZUbZ39uZzi</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Shehan07! I'm sorry that you couldn't find what you were looking for. Please feel free to contact us at +94 71 174 4227 for further assistance.</t>
+          <t>Hi Dilumi, I'm sorry but I couldn't find any information on "Hitel." Could you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45954.57747386574</v>
+        <v>45956.64752144676</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>gvFfza1bnGufx4wjMRA4</t>
+          <t>kjq7o194PvMRZXiCmy5b</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>shehan07</t>
+          <t>Dilumi</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>93.497</v>
+        <v>77.63200000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>1.558283333333333</v>
+        <v>1.293866666666667</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>RaUi9mQ1tgLqYf2XPzor</t>
+          <t>vYrbEjMdLtQ06zS7rICf</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>10913600</t>
+          <t>10918694</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hotel" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45954.57639172453</v>
+        <v>45956.64808206019</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>vLD0WZ2sXkLjo05Ii7F6</t>
+          <t>6POObHjKNcsmLbMkTBI3</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Shehan07! I'm sorry that you couldn't find what you were looking for. Please feel free to contact us at +94 71 174 4227 for further assistance.</t>
+          <t>Hi Dilumi, I apologize for the confusion. Thank you for clarifying that you were searching for a "Hotel." Can you please provide me with more details such as the location, dates, and any specific preferences you have? I'll do my best to find the perfect hotel for you. Thank you!</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45954.57747386574</v>
+        <v>45956.64898057871</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mRnLONGHcSq1BbRYfH5L</t>
+          <t>tVhVyGcruxyPFzTQYLaX</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>husna</t>
+          <t>lasit5492</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>93.611</v>
+        <v>78.827</v>
       </c>
       <c r="D31" t="n">
-        <v>1.560183333333333</v>
+        <v>1.313783333333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>qtAw7FtDeuIzFXCcmKHB</t>
+          <t>mC1Z3nrqAuycRZgUtouB</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10916751</t>
+          <t>10919516</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Eravur" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "high tes" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45954.48435030093</v>
+        <v>45956.60880023148</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3O2CPykT6gS5EKimJCZ1</t>
+          <t>UapJfQCOr8x5mSovDLEM</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Hi Husna, I'm sorry but we currently do not have any information on "Eravur". Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Isla, it seems like you're looking for something related to "high tes." Could you please provide more information or clarify what you're searching for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45954.48543376158</v>
+        <v>45956.60971258102</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ngCMVmNrHDKMJoFm5UP5</t>
+          <t>vQydir5iwFFDKN236PdS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>nushk5638</t>
+          <t>Vijith Madushan</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>11.569</v>
+        <v>115.031</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1928166666666667</v>
+        <v>1.917183333333333</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Kr4nlM8X54IyvWvvM9k8</t>
+          <t>w64TmgnhRrAONPvsTSw7</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10919622</t>
+          <t>10918068</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45954.80612575231</v>
+        <v>45956.77569349537</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>VNMyhBXV6xdZhcBeoH1C</t>
+          <t>OAZInnfljabwZjpyWoXD</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Hi isnushk5638, I'm sorry that you couldn't find what you were looking for. It seems like there may have been a typo in your search. Are you looking for information about Bangkok, Thailand? Let me know how I can assist you further.</t>
+          <t xml:space="preserve">you can find buffet offers in our home page sir
+</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>45954.80625965277</v>
+        <v>45956.77702487269</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ngCMVmNrHDKMJoFm5UP5</t>
+          <t>vQydir5iwFFDKN236PdS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>nushk5638</t>
+          <t>Vijith Madushan</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11.489</v>
+        <v>74.959</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1914833333333333</v>
+        <v>1.249316666666667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>r4URsS7NwD5T35anoxem</t>
+          <t>SRdqikakt53aI78NoC6s</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10919622</t>
+          <t>10918068</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45954.80612667824</v>
+        <v>45956.77615729166</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>VNMyhBXV6xdZhcBeoH1C</t>
+          <t>OAZInnfljabwZjpyWoXD</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Hi isnushk5638, I'm sorry that you couldn't find what you were looking for. It seems like there may have been a typo in your search. Are you looking for information about Bangkok, Thailand? Let me know how I can assist you further.</t>
+          <t xml:space="preserve">you can find buffet offers in our home page sir
+</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>45954.80625965277</v>
+        <v>45956.77702487269</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ngCMVmNrHDKMJoFm5UP5</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>nushk5638</t>
-        </is>
-      </c>
+          <t>vWJW8qpNDhdc51uxgCgh</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>11.883</v>
+        <v>96.217</v>
       </c>
       <c r="D34" t="n">
-        <v>0.19805</v>
+        <v>1.603616666666667</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>lMjUn56lOcz1iYgkcTy6</t>
+          <t>cESc6f9ZkWhRd6y8jJOT</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10919622</t>
+          <t>AHS_Guest</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "M" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45954.80657524306</v>
+        <v>45956.45840119213</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>JxgJzqzCawVwcOgOE7DB</t>
+          <t>tC0v7aia4XzTyTbDXm3e</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Hi isnushk5638, I'm sorry you couldn't find what you were looking for. Let me help you with that. Are you searching for information about Bangkok, Thailand? Let me know if there's anything specific you need assistance with.</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>45954.80671277778</v>
+        <v>45956.45951481481</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>nodiPT7zaohar0UbmlNV</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Chamali93</t>
-        </is>
-      </c>
+          <t>vWJW8qpNDhdc51uxgCgh</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>2963.822</v>
+        <v>95.91</v>
       </c>
       <c r="D35" t="n">
-        <v>49.39703333333333</v>
+        <v>1.5985</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ZMYoFbhOz0W2cGFk8Gfc</t>
+          <t>HTSbsAL7ld8TU1z7OpwI</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10913559</t>
+          <t>AHS_Guest</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Amari" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ma" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45954.72333425926</v>
+        <v>45956.45840474537</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>IufDflGMXKIGK7QtCo2s</t>
+          <t>tC0v7aia4XzTyTbDXm3e</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Hello Chamali93, thank you for reaching out. I apologize for the inconvenience, but could you please provide me with more details about the specific "Amari" or "Amari colom" you are looking for? This will help me assist you better in finding what you are searching for. Thank you!</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45954.75763775463</v>
+        <v>45956.45951481481</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>nodiPT7zaohar0UbmlNV</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Chamali93</t>
-        </is>
-      </c>
+          <t>vWJW8qpNDhdc51uxgCgh</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>2822.59</v>
+        <v>94.33</v>
       </c>
       <c r="D36" t="n">
-        <v>47.04316666666667</v>
+        <v>1.572166666666667</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>8464O0UwIAIybftXhpcn</t>
+          <t>U4cEtU6KttSCaEf8NMwl</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>10913559</t>
+          <t>AHS_Guest</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Amari colom" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Marr" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45954.72496888889</v>
+        <v>45956.45842303241</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>IufDflGMXKIGK7QtCo2s</t>
+          <t>tC0v7aia4XzTyTbDXm3e</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Hello Chamali93, thank you for reaching out. I apologize for the inconvenience, but could you please provide me with more details about the specific "Amari" or "Amari colom" you are looking for? This will help me assist you better in finding what you are searching for. Thank you!</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45954.75763775463</v>
+        <v>45956.45951481481</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ojsppIEpHLZIZ1Y8lhIP</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>mohamedzain</t>
-        </is>
-      </c>
+          <t>vWJW8qpNDhdc51uxgCgh</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>87.95399999999999</v>
+        <v>93.43600000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>1.4659</v>
+        <v>1.557266666666667</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>64G2ZRHTLc37nUmZ7rJX</t>
+          <t>N5eeQEFBFLhNGs11z4jy</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10918703</t>
+          <t>AHS_Guest</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kingsb" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Marri" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45954.5746978588</v>
+        <v>45956.45843337963</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Mk9E84ftSBTRDCfS8w0v</t>
+          <t>tC0v7aia4XzTyTbDXm3e</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Hi Mohamedzain! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>45954.57571584491</v>
+        <v>45956.45951481481</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>pleEpVU2Dac2VVTdn5ox</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1983roshan</t>
-        </is>
-      </c>
+          <t>vWJW8qpNDhdc51uxgCgh</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>18.062</v>
+        <v>91.955</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3010333333333334</v>
+        <v>1.532583333333333</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>9nGx07VNUcCElPZbNy9L</t>
+          <t>gVOHxLcCvDh8OgDbFjfe</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10919590</t>
+          <t>AHS_Guest</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sing" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Marriot" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45954.83315114583</v>
+        <v>45956.45845052083</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>4D6GZrvhfy19vHKciigh</t>
+          <t>tC0v7aia4XzTyTbDXm3e</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Hi 1983roshan, I'm sorry for the confusion. Unfortunately, we do not have any information on "Sing" at the moment. Is there anything else I can assist you with?</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>45954.83336019676</v>
+        <v>45956.45951481481</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>qHH3CZMDORWOSJ3wJMEA</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Tharana Egodage 750</t>
-        </is>
-      </c>
+          <t>vWJW8qpNDhdc51uxgCgh</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>1003.68</v>
+        <v>64.13500000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>16.728</v>
+        <v>1.068916666666667</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>EPr4tR94MUc8abIstNkM</t>
+          <t>6tke1cnoACpJp8pspXdq</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>10919617</t>
+          <t>AHS_Guest</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kingsb" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Marriot" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45954.74669644676</v>
+        <v>45956.45877251157</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>E9Wn5UyQhzaZhOGczYrg</t>
+          <t>tC0v7aia4XzTyTbDXm3e</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Hi Tharana Egodage 750, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>45954.75831311342</v>
+        <v>45956.45951481481</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>qHH3CZMDORWOSJ3wJMEA</t>
+          <t>xDUXDlvM2bek6eDmvCPX</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tharana Egodage 750</t>
+          <t>DulminiAmarasinghe</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1002.848</v>
+        <v>81.798</v>
       </c>
       <c r="D40" t="n">
-        <v>16.71413333333333</v>
+        <v>1.3633</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>pQ2HeiqLYhwqco4ql6fI</t>
+          <t>HMOoX3KO9QAAK87ZrVT1</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>10919617</t>
+          <t>10916117</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kins" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cilo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45954.74670607639</v>
+        <v>45956.49317537037</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>E9Wn5UyQhzaZhOGczYrg</t>
+          <t>vDZmoHDI2ciIXSn0PsDs</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Hi Tharana Egodage 750, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t>Hi Dulmini Amarasinghe, I'm sorry but it seems like "Cilo" is not showing any results in our system. Could you please provide more details about what you are looking for so that I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>45954.75831311342</v>
+        <v>45956.49412210648</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>qMj0jEGYSVmiTY2sFGxV</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Piumianu</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>129.058</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2.150966666666667</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>5w9wJIj401kybP54cgQE</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>10917309</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>45954.12255626157</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>zj1ayZUl3IdWvOYfoHl6</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Hi Piumianu, I'm sorry you couldn't find what you were looking for. Let me assist you in finding information about Thailand, Bangkok, or any other destination you have in mind. Feel free to provide more details so I can help you better. Thank you for reaching out!</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="n">
-        <v>45954.12404998842</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>shahil</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>qMj0jEGYSVmiTY2sFGxV</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Piumianu</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>98.393</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1.639883333333333</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>GjgahLezz9JCyJYAKMe1</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>10917309</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>45954.12291118056</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>zj1ayZUl3IdWvOYfoHl6</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Hi Piumianu, I'm sorry you couldn't find what you were looking for. Let me assist you in finding information about Thailand, Bangkok, or any other destination you have in mind. Feel free to provide more details so I can help you better. Thank you for reaching out!</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="n">
-        <v>45954.12404998842</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>shahil</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>qMj0jEGYSVmiTY2sFGxV</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Piumianu</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>89.032</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1.483866666666667</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>th9MRmz4JyHZx5OjJU2H</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>10917309</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Ba" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>45954.12301952546</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>zj1ayZUl3IdWvOYfoHl6</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Hi Piumianu, I'm sorry you couldn't find what you were looking for. Let me assist you in finding information about Thailand, Bangkok, or any other destination you have in mind. Feel free to provide more details so I can help you better. Thank you for reaching out!</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="n">
-        <v>45954.12404998842</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>shahil</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>tAqNhEdG6gkZYHChV4ct</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Jude999</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>10.994</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.1832333333333333</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ecAqhdfVcrsAaLGV4BMV</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>10919211</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "HoAhungalla" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>45954.80445559027</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>trJrtLfCifz8jHuxLCNO</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Hi Jude999, I apologize for the confusion. It seems like there might be a typo in the search term "HoAhungalla." Could you please provide me with more information or clarify your request so I can assist you better? Thank you!</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="n">
-        <v>45954.80458283565</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>tAqNhEdG6gkZYHChV4ct</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Jude999</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>44.015</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.7335833333333334</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>39hMR2HoJZY30rOVRXq6</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>10919211</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Ahungalla" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>45954.80551113426</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>jzOcR2MxsYHsnLH4KQhM</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hi Jude999! Thank you for reaching out. I'll do my best to help you find information on Ahungalla. Could you clarify what in Ahungalla would you like to explore?
-</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="n">
-        <v>45954.80602056713</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>vQydir5iwFFDKN236PdS</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Vijith Madushan</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>18.208</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.3034666666666667</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>GdYTEsekoGc1S8gkpTQu</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>10918068</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Sports massage" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>45954.79766440972</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>PiQxApnRY1WUhd436oR3</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Hi Vijith Madushan, I apologize for the inconvenience. We currently do not offer sports massage services. However, we do have a variety of other relaxing and rejuvenating options available. Please let me know if you would like more information on any of our other services. Thank you for reaching out.</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="n">
-        <v>45954.79787515046</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>vWJW8qpNDhdc51uxgCgh</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="n">
-        <v>95.366</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.589433333333333</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>liIODdAqjGL1kgS5hSuZ</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>AHS_Guest</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Dinninh" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>45954.54156775463</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>PGSdwXfKAvbs7AuuVUsX</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can help you better? Thank you!</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="n">
-        <v>45954.54267152778</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Michelle Xavier</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>vWJW8qpNDhdc51uxgCgh</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="n">
-        <v>3868.831</v>
-      </c>
-      <c r="D48" t="n">
-        <v>64.48051666666667</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ou4C8gKKCkPCaUxwA8OG</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>AHS_Guest</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Barbecue" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>45954.71226600694</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Xqobon6uhO2yhzMHL0eq</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Hi, I'm sorry you couldn't find what you were looking for. Let me assist you in finding information on "Jetwing". Please hold on while I search for the details. Thank you for your patience!</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="n">
-        <v>45954.75704414352</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>vWJW8qpNDhdc51uxgCgh</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="n">
-        <v>3816.646</v>
-      </c>
-      <c r="D49" t="n">
-        <v>63.61076666666667</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>db8q2ZHUnEOdf9b6E7N4</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>AHS_Guest</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Jetwing" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>45954.71287</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Xqobon6uhO2yhzMHL0eq</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Hi, I'm sorry you couldn't find what you were looking for. Let me assist you in finding information on "Jetwing". Please hold on while I search for the details. Thank you for your patience!</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="n">
-        <v>45954.75704414352</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,105 +502,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0W1pG8GthqZpXNMMOWVU</t>
+          <t>5jtu2rMu10PMhexpSy72</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cinnamon</t>
+          <t>gayat4778</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>92.995</v>
+        <v>80.34399999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>1.549916666666667</v>
+        <v>1.339066666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>w3mGWGeUsoZzfpYoTQ9I</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10919324</t>
-        </is>
+          <t>HkvuIHshQGg3alPtQQ2D</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>6238</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Full bi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kam" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45956.0250233449</v>
+        <v>45957.58427953703</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>p3Vx6qUJ5mBuFMatOjGd</t>
+          <t>lfOapEI8QVUcw43nxOcq</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Admin: Hi Cinnamon! I appreciate you reaching out. Let me double-check our database to see if I can find what you're looking for. Give me just a moment to assist you.</t>
+          <t>Hi Gayat4778, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Kam" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45956.02609967592</v>
+        <v>45957.58520944444</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>78f4hnMryV6skgTWkj20</t>
+          <t>6qzAl7zQqT6lswCV1zjW</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>wnrymp52rc@privaterelay.appleid.com</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>105.99</v>
+        <v>96.051</v>
       </c>
       <c r="D3" t="n">
-        <v>1.7665</v>
+        <v>1.60085</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MlRZeddwkVgJlQDJhWRV</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10919546</t>
-        </is>
+          <t>YnGZqfVPaSv4ToxuMyCd</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>10919659</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "U" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lunch" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45956.94206429398</v>
+        <v>45957.08263859954</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>RwKVqZv73PGrUinhUzMa</t>
+          <t>kEIuxJ9aLaZtq527VhNE</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 
- Hi Dubai! Thanks for reaching out. Let me check on that for you and see if I can find what you're looking for. Just give me a moment to investigate. Appreciate your understanding!</t>
+          <t>Hi there! I'm sorry, but we don't offer specific lunch options through our travel agency. However, I'd be happy to assist you in finding great dining recommendations at your destination. Just let me know where you're headed, and I'll do my best to help!</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45956.94329103009</v>
+        <v>45957.08375030092</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -611,159 +606,152 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8dcc1qD5i6LwjJnXxvkO</t>
+          <t>6qzAl7zQqT6lswCV1zjW</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tcnpe5060</t>
+          <t>wnrymp52rc@privaterelay.appleid.com</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>102.391</v>
+        <v>78.688</v>
       </c>
       <c r="D4" t="n">
-        <v>1.706516666666667</v>
+        <v>1.311466666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>dOQtYE1ri70mwxYnr6sv</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10919686</t>
-        </is>
+          <t>GQ5mSO3sEIcgoJsJDXsp</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>10919659</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Banko" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Day ou" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45956.9373137037</v>
+        <v>45957.41371944444</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>w3rMpvYekJvDfYjWxVWU</t>
+          <t>z8yNmYgelYvs37rwTLaH</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hello tcnpe5060, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for? I would be happy to assist you in finding the information you need.</t>
+          <t>Hi there! I'm sorry, but we don't offer specific "Day out" options through our travel agency. However, I'd be happy to assist you in finding great activities and attractions at your destination. Just let me know where you're headed, and I'll do my best to help!</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45956.93849878472</v>
+        <v>45957.41463018519</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8dcc1qD5i6LwjJnXxvkO</t>
+          <t>AzUUAbl1lqKhZUsIvHzI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tcnpe5060</t>
+          <t>shenrod</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>96.994</v>
+        <v>86.699</v>
       </c>
       <c r="D5" t="n">
-        <v>1.616566666666667</v>
+        <v>1.444983333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>daQI8VUbqNqV6NrWyFup</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10919686</t>
-        </is>
+          <t>qj1azYXHHIl3WtUTcvtG</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>10919536</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "British" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45956.93737616898</v>
+        <v>45957.42283094907</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>w3rMpvYekJvDfYjWxVWU</t>
+          <t>EiEc1xJwf61GcFPbigfK</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hello tcnpe5060, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for? I would be happy to assist you in finding the information you need.</t>
+          <t>Hi Shenrod, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45956.93849878472</v>
+        <v>45957.42383440972</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9oJmp9gEV66CIa4JIUYs</t>
+          <t>CUw5CEu0q1Wgdg5w6BPn</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rosha7889</t>
+          <t>mbmakram</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>176.549</v>
+        <v>83.489</v>
       </c>
       <c r="D6" t="n">
-        <v>2.942483333333334</v>
+        <v>1.391483333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2mlV3EFyBW958YQSF14c</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10915190</t>
-        </is>
+          <t>HXBcOTW398ICtH7wIKcm</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>10917452</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Night buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buff" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45956.41059467592</v>
+        <v>45957.68591045139</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>vkvX9qv5oVTnlxilRWuC</t>
+          <t>yAPMmhqOWDEepGicplWm</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hi Rosha, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Night Buffet
-" so I can assist you better? Thank you!</t>
+          <t>Hi mbmakram! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Buff" so I can assist you better? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45956.41263806713</v>
+        <v>45957.68687675926</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -774,50 +762,48 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>9oJmp9gEV66CIa4JIUYs</t>
+          <t>CUw5CEu0q1Wgdg5w6BPn</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rosha7889</t>
+          <t>mbmakram</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>115.39</v>
+        <v>63.597</v>
       </c>
       <c r="D7" t="n">
-        <v>1.923166666666667</v>
+        <v>1.05995</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WMFZIaXtYbGo9CZOks8z</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10915190</t>
-        </is>
+          <t>VdV7J2UWt5slD0FATJMp</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>10917452</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Abroa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buff" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45956.41399274306</v>
+        <v>45957.68614068287</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3CpnVcMI0X3549aLyIZK</t>
+          <t>yAPMmhqOWDEepGicplWm</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hi Rosha, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for regarding "Abroa", "Chennai", and "China"? This will help me assist you better. Thank you!</t>
+          <t>Hi mbmakram! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Buff" so I can assist you better? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45956.41532827546</v>
+        <v>45957.68687675926</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -828,50 +814,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9oJmp9gEV66CIa4JIUYs</t>
+          <t>FedSeS3fslxe4jZcF4tt</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rosha7889</t>
+          <t>prran5532</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>105.08</v>
+        <v>65.241</v>
       </c>
       <c r="D8" t="n">
-        <v>1.751333333333333</v>
+        <v>1.08735</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>UiaY5r32brNZTickPBm0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10915190</t>
-        </is>
+          <t>q0CwmWn4Yooq1WSO9096</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>10910682</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Chennai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kamili" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45956.41411207176</v>
+        <v>45957.66723784722</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3CpnVcMI0X3549aLyIZK</t>
+          <t>oza81Ps5R8DCiqADOYtH</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hi Rosha, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for regarding "Abroa", "Chennai", and "China"? This will help me assist you better. Thank you!</t>
+          <t>Hello prran5532, thank you for reaching out to us. How can I assist you today?</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45956.41532827546</v>
+        <v>45957.66799295139</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -882,50 +866,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9oJmp9gEV66CIa4JIUYs</t>
+          <t>HGutvQxMYCdcS8QDVHpa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rosha7889</t>
+          <t>Vish_H</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>83.73999999999999</v>
+        <v>88.364</v>
       </c>
       <c r="D9" t="n">
-        <v>1.395666666666667</v>
+        <v>1.472733333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>hoApvqCnkTyAt5LkuqYr</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10915190</t>
-        </is>
+          <t>ULcli8H7MOSLmuA399Vj</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>10916715</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "China" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinner u" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45956.4143590625</v>
+        <v>45957.50688189815</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3CpnVcMI0X3549aLyIZK</t>
+          <t>wsf3Wirhvmgu5CC65rQU</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Hi Rosha, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for regarding "Abroa", "Chennai", and "China"? This will help me assist you better. Thank you!</t>
+          <t xml:space="preserve">Hi Vish_H, thank you for reaching out. We currently do not have any specific offers for "Dinner u" or "Dinner buffet" but we do offer a variety of dining options in our travel packages. Please let us know if you would like more information on dining options during your trip. </t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45956.41532827546</v>
+        <v>45957.50790462963</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -936,50 +918,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9oJmp9gEV66CIa4JIUYs</t>
+          <t>HGutvQxMYCdcS8QDVHpa</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rosha7889</t>
+          <t>Vish_H</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>65.09999999999999</v>
+        <v>88.319</v>
       </c>
       <c r="D10" t="n">
-        <v>1.085</v>
+        <v>1.471983333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4eIzdCc7WyxEK7LCnRN0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>10915190</t>
-        </is>
+          <t>cR6ANeJJFQUSSTlaQAGE</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>10916715</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Flights" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinner buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45956.41457480324</v>
+        <v>45957.50688241898</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3CpnVcMI0X3549aLyIZK</t>
+          <t>wsf3Wirhvmgu5CC65rQU</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Hi Rosha, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for regarding "Abroa", "Chennai", and "China"? This will help me assist you better. Thank you!</t>
+          <t xml:space="preserve">Hi Vish_H, thank you for reaching out. We currently do not have any specific offers for "Dinner u" or "Dinner buffet" but we do offer a variety of dining options in our travel packages. Please let us know if you would like more information on dining options during your trip. </t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45956.41532827546</v>
+        <v>45957.50790462963</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -990,213 +970,206 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9vIV5oadASvIqeQzCxgU</t>
+          <t>HGutvQxMYCdcS8QDVHpa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ShamJ</t>
+          <t>Vish_H</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>123.622</v>
+        <v>106.889</v>
       </c>
       <c r="D11" t="n">
-        <v>2.060366666666666</v>
+        <v>1.781483333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Wbgcg60SPl2Mk6RYRhGs</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>10915395</t>
-        </is>
+          <t>qZclUG1BmmZ4uDwAPW3Y</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>10916715</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Over" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinner" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45956.95090758102</v>
+        <v>45957.50927922453</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>19DdNziFRFHlRLBAIskB</t>
+          <t>gEXQ5qDC7ORGVtpJ5Upy</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Hello ShamJ, I apologize for the inconvenience. It seems that we do not currently have any listings for "Over." Is there anything else I can assist you with in your search for travel options? Let me know if you need help with anything else.</t>
+          <t>Hi Vish_H, I'm sorry you couldn't find what you were looking for in our search results. We offer a variety of dining offers in our App. 
+ so feel free to let us know if you need more information on dinner options during your trip.</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45956.9523383912</v>
+        <v>45957.51051636574</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aibas2wNYzLutVPmkPC7</t>
+          <t>HGutvQxMYCdcS8QDVHpa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Morin</t>
+          <t>Vish_H</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>116.949</v>
+        <v>106.795</v>
       </c>
       <c r="D12" t="n">
-        <v>1.94915</v>
+        <v>1.779916666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>QhQb0IGdwZ91fgNFjlbO</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10917960</t>
-        </is>
+          <t>TY5W0XyqeUugMIr1fZmf</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>10916715</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Siri" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinner buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45956.78712597222</v>
+        <v>45957.5092803125</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>N7EGGNPplnpImS6xaeEK</t>
+          <t>gEXQ5qDC7ORGVtpJ5Upy</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Hi Morin, I'm sorry but we don't have information on "Siri" . If there's anything else you need help with, feel free to let us know!</t>
+          <t>Hi Vish_H, I'm sorry you couldn't find what you were looking for in our search results. We offer a variety of dining offers in our App. 
+ so feel free to let us know if you need more information on dinner options during your trip.</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45956.78847954861</v>
+        <v>45957.51051636574</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aibas2wNYzLutVPmkPC7</t>
+          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Morin</t>
+          <t>tharuni</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>100.833</v>
+        <v>96.499</v>
       </c>
       <c r="D13" t="n">
-        <v>1.68055</v>
+        <v>1.608316666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MGl0iNT4zYv0IPq6PcPJ</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>10917960</t>
-        </is>
+          <t>WwByD0lkofO05s1Puv5E</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>10917441</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dog" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ya" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45956.81810900463</v>
+        <v>45957.56992538195</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>YeYS6JOdBdUsaurrdsRG</t>
+          <t>rmc5ielHeeAnAsb09Oo9</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Hi Morin, I'm sorry but we don't have information on "Dog". If there's anything else  you need help with, feel free to let me know!</t>
+          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45956.81927605324</v>
+        <v>45957.57104226852</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EKh3tMj3NEUVv8Xtq6zp</t>
+          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>hasan7329</t>
+          <t>tharuni</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>87.03400000000001</v>
+        <v>96.35599999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>1.450566666666667</v>
+        <v>1.605933333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>moKw9YYvdVGWMZTIglxq</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>10915597</t>
-        </is>
+          <t>4nuFihMOQtCvdODlFqLV</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>10917441</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hotels in p" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Yas i" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45956.39304590278</v>
+        <v>45957.56992703704</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Th5mM7QGEwyvGO9IY3SU</t>
+          <t>rmc5ielHeeAnAsb09Oo9</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- Hi Hasan7329! I'm sorry to hear you're having trouble finding what you're looking for. I'll do my best to assist you. Can you please provide me with more details about your search so I can help you find the information you need? Thank you!</t>
+          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45956.39405324074</v>
+        <v>45957.57104226852</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1207,51 +1180,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EKh3tMj3NEUVv8Xtq6zp</t>
+          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>hasan7329</t>
+          <t>tharuni</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>39.891</v>
+        <v>94.879</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6648499999999999</v>
+        <v>1.581316666666667</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>t2Gdh3Ie80Dz95a1bmiV</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>10915597</t>
-        </is>
+          <t>J5Lh94mJawjGyIUhCwGg</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>10917441</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Yas is" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45956.39359153935</v>
+        <v>45957.56994413194</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Th5mM7QGEwyvGO9IY3SU</t>
+          <t>rmc5ielHeeAnAsb09Oo9</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- Hi Hasan7329! I'm sorry to hear you're having trouble finding what you're looking for. I'll do my best to assist you. Can you please provide me with more details about your search so I can help you find the information you need? Thank you!</t>
+          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45956.39405324074</v>
+        <v>45957.57104226852</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1262,268 +1232,256 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Gsj4sglw7oIiEb9s8Ba8</t>
+          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ramzan Marzook</t>
+          <t>tharuni</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>119.039</v>
+        <v>93.837</v>
       </c>
       <c r="D16" t="n">
-        <v>1.983983333333333</v>
+        <v>1.56395</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>a54MJYaEEfdVWXLQFv0i</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7338</t>
-        </is>
+          <t>9MrPY4mWdDf0NOhxLTgo</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>10917441</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Yesterday I made a dinner buffet at cinnamon Grand for 2 pax… but unfortunately yesterday it’s fully occupied and from the Aahaas they said me they transferred to today. It’s confirmed right?</t>
+          <t>Hi, I was searching for "Yas Island" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45956.76346043981</v>
+        <v>45957.56995619213</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>fbAZ6xsT2KmCRnMjIDCH</t>
+          <t>rmc5ielHeeAnAsb09Oo9</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">sir send me your order id
-</t>
+          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45956.76483820602</v>
+        <v>45957.57104226852</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Gsj4sglw7oIiEb9s8Ba8</t>
+          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ramzan Marzook</t>
+          <t>tharuni</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>39.531</v>
+        <v>92.578</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6588499999999999</v>
+        <v>1.542966666666667</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>51Bnk68vwZGnNydCr0AS</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7338</t>
-        </is>
+          <t>MKOq6gX8KBsDyfDqXGbS</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>10917441</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>7653</t>
+          <t>Hi, I was searching for "Yas Island abu" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45956.76438067129</v>
+        <v>45957.56997076389</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>fbAZ6xsT2KmCRnMjIDCH</t>
+          <t>rmc5ielHeeAnAsb09Oo9</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">sir send me your order id
-</t>
+          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45956.76483820602</v>
+        <v>45957.57104226852</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gsj4sglw7oIiEb9s8Ba8</t>
+          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ramzan Marzook</t>
+          <t>tharuni</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>192.39</v>
+        <v>89.509</v>
       </c>
       <c r="D18" t="n">
-        <v>3.2065</v>
+        <v>1.491816666666667</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>xWPfuRzZ7QJv7WKmoY2c</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7338</t>
-        </is>
+          <t>xLrwVNWAduA4Aeqbb7uA</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>10917441</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7653</t>
+          <t>Hi, I was searching for "Yas Island ab" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45956.76504099537</v>
+        <v>45957.57000628472</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>CVvIpHEN06Gz1KDxnMYA</t>
+          <t>rmc5ielHeeAnAsb09Oo9</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>yes sir it is confirmed. enjoy your wonderful dinner. have a nice day!</t>
+          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45956.76726773148</v>
+        <v>45957.57104226852</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gsj4sglw7oIiEb9s8Ba8</t>
+          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ramzan Marzook</t>
+          <t>tharuni</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>33.282</v>
+        <v>88.649</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5547</v>
+        <v>1.477483333333333</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>bjudeUAZhWHbq5inxmtl</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>7338</t>
-        </is>
+          <t>sFI8gMbDqj5jnsNAVwde</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>10917441</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Okay thank you</t>
+          <t>Hi, I was searching for "Yas Island a" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45956.76688252314</v>
+        <v>45957.57001623842</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>CVvIpHEN06Gz1KDxnMYA</t>
+          <t>rmc5ielHeeAnAsb09Oo9</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>yes sir it is confirmed. enjoy your wonderful dinner. have a nice day!</t>
+          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45956.76726773148</v>
+        <v>45957.57104226852</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HdKXZWiI3ooQ8p8q4HiB</t>
+          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lasindu</t>
+          <t>tharuni</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>82.59999999999999</v>
+        <v>87.31999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>1.376666666666666</v>
+        <v>1.455333333333333</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fSk3m42m7KBBk4Yy7sSm</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>10914221</t>
-        </is>
+          <t>8J2CtSlOYMIQFzZxHc5F</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>10917441</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Double tree" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Yas Island ahbu" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45956.62465835648</v>
+        <v>45957.57003162037</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>9lv66OLfsHmRN0Zz1Jt3</t>
+          <t>rmc5ielHeeAnAsb09Oo9</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Hi Lasindu, I apologize for the inconvenience. It seems like there may have been a search error. "DoubleTree by Hilton" is a popular hotel chain, and I can help you find the information you need. Please provide me with the specific location or dates you are looking for, and I'll be happy to assist you further. Thank you for reaching out.</t>
+          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45956.625614375</v>
+        <v>45957.57104226852</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1534,50 +1492,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HdKXZWiI3ooQ8p8q4HiB</t>
+          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lasindu</t>
+          <t>tharuni</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>80.366</v>
+        <v>80.82899999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>1.339433333333333</v>
+        <v>1.34715</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KSLctpCfSzyov6yt383y</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>10914221</t>
-        </is>
+          <t>fAhrW9U830tlB7o5cvi7</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>10917441</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Double tree by hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Yas Island ah" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45956.62468421296</v>
+        <v>45957.57010674768</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>9lv66OLfsHmRN0Zz1Jt3</t>
+          <t>rmc5ielHeeAnAsb09Oo9</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Hi Lasindu, I apologize for the inconvenience. It seems like there may have been a search error. "DoubleTree by Hilton" is a popular hotel chain, and I can help you find the information you need. Please provide me with the specific location or dates you are looking for, and I'll be happy to assist you further. Thank you for reaching out.</t>
+          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45956.625614375</v>
+        <v>45957.57104226852</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1588,104 +1544,100 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>VwkoFTedgtHvYbP59HSN</t>
+          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>IsuriS</t>
+          <t>tharuni</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>139.774</v>
+        <v>68.04300000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>2.329566666666667</v>
+        <v>1.13405</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4oHqJkGP2Oial0bpoyQ5</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>10919683</t>
-        </is>
+          <t>eT1wwZwOZf5KxtrgEbgC</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>10917441</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hair treatment" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Yas Island a" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45956.8067368287</v>
+        <v>45957.57025473379</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>DIPrL6wk47Hz1wXg6boN</t>
+          <t>rmc5ielHeeAnAsb09Oo9</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Hi IsuriS, kindly contact us to +94 71 174 4227</t>
+          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45956.80835458334</v>
+        <v>45957.57104226852</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bs2rsKzQBVqnWddk0sxG</t>
+          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Imalka1990</t>
+          <t>tharuni</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>83.732</v>
+        <v>65.89400000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>1.395533333333333</v>
+        <v>1.098233333333333</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6PBGNW2Vd3GftbnLewE5</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>10918607</t>
-        </is>
+          <t>KIIG4RhtazXfJmqPuvTJ</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>10917441</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>Hi, I was searching for "Yas Island abhu d" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45956.635134375</v>
+        <v>45957.57027960648</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>lXMYVnRDgx1OG0QznZlZ</t>
+          <t>rmc5ielHeeAnAsb09Oo9</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Hi Imalka1990! How can I assist you today?</t>
+          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45956.63610349537</v>
+        <v>45957.57104226852</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1696,320 +1648,308 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hkMmPSrEoTXzmo8h8bK0</t>
+          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mohamed Rizwan Abdul Razzak</t>
+          <t>tharuni</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>92.015</v>
+        <v>64.417</v>
       </c>
       <c r="D24" t="n">
-        <v>1.533583333333333</v>
+        <v>1.073616666666667</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>XpO3ekluXY3RknSCIphF</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>7421</t>
-        </is>
+          <t>1elWnBNgdlCOPUz5waUE</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>10917441</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kandy" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Yas Island abhu dhabi" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45956.98329619213</v>
+        <v>45957.57029670139</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>GebhFFzVW7HrZhIf8UJ2</t>
+          <t>rmc5ielHeeAnAsb09Oo9</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Hi Mohamed Rizwan Abdul Razzak, I'm sorry but we don't have any results for "Kandy" or "Kand" at the moment. Is there anything else I can assist you with? Let me know how else I can help!</t>
+          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45956.98436118056</v>
+        <v>45957.57104226852</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hkMmPSrEoTXzmo8h8bK0</t>
+          <t>OnNG7oe2ywzaakKIqp0i</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mohamed Rizwan Abdul Razzak</t>
+          <t>safna</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>91.827</v>
+        <v>82.432</v>
       </c>
       <c r="D25" t="n">
-        <v>1.53045</v>
+        <v>1.373866666666667</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>w1pDKMsh4PUpzr4eTs9f</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>7421</t>
-        </is>
+          <t>7Ttyiloy8MvUvLC1aRTv</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>10919697</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hello 👋</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45956.98329836805</v>
+        <v>45957.55824806713</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>GebhFFzVW7HrZhIf8UJ2</t>
+          <t>RoDPciVgJVNvi9hN2kis</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Hi Mohamed Rizwan Abdul Razzak, I'm sorry but we don't have any results for "Kandy" or "Kand" at the moment. Is there anything else I can assist you with? Let me know how else I can help!</t>
+          <t>Hello Safna! Thank you for reaching out to us. How may I assist you today? 😊</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45956.98436118056</v>
+        <v>45957.5592021412</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hkMmPSrEoTXzmo8h8bK0</t>
+          <t>OnNG7oe2ywzaakKIqp0i</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mohamed Rizwan Abdul Razzak</t>
+          <t>safna</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>36.436</v>
+        <v>67.15300000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6072666666666666</v>
+        <v>1.119216666666667</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>w7kCNIbewJT8ztTMiMgU</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>7421</t>
-        </is>
+          <t>wC9z2ozEDuP9xDuDy9eA</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>10919697</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kandy" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>I want to book this package</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45956.98393946759</v>
+        <v>45957.55842490741</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>GebhFFzVW7HrZhIf8UJ2</t>
+          <t>RoDPciVgJVNvi9hN2kis</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Hi Mohamed Rizwan Abdul Razzak, I'm sorry but we don't have any results for "Kandy" or "Kand" at the moment. Is there anything else I can assist you with? Let me know how else I can help!</t>
+          <t>Hello Safna! Thank you for reaching out to us. How may I assist you today? 😊</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45956.98436118056</v>
+        <v>45957.5592021412</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>kUOrJK0BQjPdKUkV3yuJ</t>
+          <t>OzQdgVHGRLB2Hr1ELlde</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dasuni Navodya</t>
+          <t>chrys8994</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>85.03100000000001</v>
+        <v>2948.938</v>
       </c>
       <c r="D27" t="n">
-        <v>1.417183333333333</v>
+        <v>49.14896666666667</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SVHFK44ABSqn6dAS0PjJ</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>10912977</t>
-        </is>
+          <t>K6xOGAvuZt3M4kMdiH46</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>10919708</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Grandb" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45956.32966604167</v>
+        <v>45957.78514585648</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>90q43Mb77KmMp7R8aFMD</t>
+          <t>MxsdNMvxGvckJovDZq02</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Hi Dasuni Navodya, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Grandb" so I can assist you better? Thank you!</t>
+          <t>Hi chrys8994, I apologize for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45956.33065019676</v>
+        <v>45957.81927708333</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>kUOrJK0BQjPdKUkV3yuJ</t>
+          <t>OzQdgVHGRLB2Hr1ELlde</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dasuni Navodya</t>
+          <t>chrys8994</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>30.331</v>
+        <v>2940.23</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5055166666666666</v>
+        <v>49.00383333333333</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>qsQTezRIfOHxRFBtg7R1</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>10912977</t>
-        </is>
+          <t>hf1wmRtpYftrYN6LUQ3O</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>10919708</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Grand be" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Juras" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45956.33029914352</v>
+        <v>45957.78524664352</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>90q43Mb77KmMp7R8aFMD</t>
+          <t>MxsdNMvxGvckJovDZq02</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Hi Dasuni Navodya, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Grandb" so I can assist you better? Thank you!</t>
+          <t>Hi chrys8994, I apologize for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45956.33065019676</v>
+        <v>45957.81927708333</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>kjq7o194PvMRZXiCmy5b</t>
+          <t>Tg3ZVM50yeQY4laj8Cir</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dilumi</t>
+          <t>dinusha37</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>83.34999999999999</v>
+        <v>94.36</v>
       </c>
       <c r="D29" t="n">
-        <v>1.389166666666667</v>
+        <v>1.572666666666667</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>bFFyjtBiFBGpKN9Cs9n5</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>10918694</t>
-        </is>
+          <t>wUSzYbN4VAyucieoJ3EC</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>10917061</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hitel" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dubai" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45956.64655674768</v>
+        <v>45957.49868255787</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>8lowKzDghpZUbZ39uZzi</t>
+          <t>SWAaMxauOEnPPZkH9hIQ</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Hi Dilumi, I'm sorry but I couldn't find any information on "Hitel." Could you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi dinusha37, I'm sorry that you couldn't find any results for Dubai. Let me assist you with that. Dubai is a popular destination known for its stunning architecture, luxury shopping, and vibrant nightlife. Whether you're looking to explore the Burj Khalifa, shop at the Dubai Mall, or take a desert safari, Dubai has something for everyone. Please let me know if you need any further assistance in planning your trip to Dubai.</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45956.64752144676</v>
+        <v>45957.4997746875</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2020,50 +1960,49 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>kjq7o194PvMRZXiCmy5b</t>
+          <t>Tg3ZVM50yeQY4laj8Cir</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dilumi</t>
+          <t>dinusha37</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>77.63200000000001</v>
+        <v>85.44499999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>1.293866666666667</v>
+        <v>1.424083333333333</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>vYrbEjMdLtQ06zS7rICf</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>10918694</t>
-        </is>
+          <t>wC51lUyjYxcyIJT3jMbJ</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>10917061</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hotel" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dubai" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45956.64808206019</v>
+        <v>45957.52028719908</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>6POObHjKNcsmLbMkTBI3</t>
+          <t>TDf2b3VvbJTDUReDnxrN</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Hi Dilumi, I apologize for the confusion. Thank you for clarifying that you were searching for a "Hotel." Can you please provide me with more details such as the location, dates, and any specific preferences you have? I'll do my best to find the perfect hotel for you. Thank you!</t>
+          <t xml:space="preserve">
+Hi dinusha37, I apologize for the inconvenience. Dubai is a fantastic destination with plenty to offer. If you're looking for information or assistance with planning your trip to Dubai, feel free to ask. I'm here to help!</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45956.64898057871</v>
+        <v>45957.52127614583</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2074,50 +2013,49 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>tVhVyGcruxyPFzTQYLaX</t>
+          <t>Tg3ZVM50yeQY4laj8Cir</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>lasit5492</t>
+          <t>dinusha37</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>78.827</v>
+        <v>84.152</v>
       </c>
       <c r="D31" t="n">
-        <v>1.313783333333333</v>
+        <v>1.402533333333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>mC1Z3nrqAuycRZgUtouB</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>10919516</t>
-        </is>
+          <t>w7yRQh4z2vJbKFOZlDxN</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>10917061</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "high tes" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dubai" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45956.60880023148</v>
+        <v>45957.52030216435</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>UapJfQCOr8x5mSovDLEM</t>
+          <t>TDf2b3VvbJTDUReDnxrN</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Hi Isla, it seems like you're looking for something related to "high tes." Could you please provide more information or clarify what you're searching for so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">
+Hi dinusha37, I apologize for the inconvenience. Dubai is a fantastic destination with plenty to offer. If you're looking for information or assistance with planning your trip to Dubai, feel free to ask. I'm here to help!</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45956.60971258102</v>
+        <v>45957.52127614583</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2128,462 +2066,890 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>vQydir5iwFFDKN236PdS</t>
+          <t>aIi2GyRtC7lUKVuH4Nzi</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Vijith Madushan</t>
+          <t>safna</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>115.031</v>
+        <v>82.306</v>
       </c>
       <c r="D32" t="n">
-        <v>1.917183333333333</v>
+        <v>1.371766666666667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>w64TmgnhRrAONPvsTSw7</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>10918068</t>
-        </is>
+          <t>RyWY1c6UUc77N8dgttK5</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>10919697</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kotiy" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45956.77569349537</v>
+        <v>45957.54825011574</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>OAZInnfljabwZjpyWoXD</t>
+          <t>FB6kdvgu9SprsIZRlJpC</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">you can find buffet offers in our home page sir
-</t>
+          <t>Hi Safna! Thank you for reaching out. I'm sorry, but I couldn't find any information on "Kotiy." Can you provide me with more details so I can assist you better? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>45956.77702487269</v>
+        <v>45957.54920273148</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>vQydir5iwFFDKN236PdS</t>
+          <t>aljExj5IZ7Bhv6hgy739</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Vijith Madushan</t>
+          <t>LakshiRobinson</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>74.959</v>
+        <v>98.84699999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>1.249316666666667</v>
+        <v>1.64745</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SRdqikakt53aI78NoC6s</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>10918068</t>
-        </is>
+          <t>6dWusUQRPLAJZaM7sg89</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>6932</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Grandbrll" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45956.77615729166</v>
+        <v>45957.91566143519</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>OAZInnfljabwZjpyWoXD</t>
+          <t>ni8dA4xwFuukosio8RpN</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">you can find buffet offers in our home page sir
-</t>
+          <t>Hi Lakshi Robinson, thank you for reaching out. I apologize for the inconvenience, but it seems like "Grandbrll" may not be a valid search term. Could you please provide more details or clarify what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>45956.77702487269</v>
+        <v>45957.91680549768</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>vWJW8qpNDhdc51uxgCgh</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
+          <t>bEqwpT2fNp1JiJiEFWAm</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sethumi</t>
+        </is>
+      </c>
       <c r="C34" t="n">
-        <v>96.217</v>
+        <v>81.59</v>
       </c>
       <c r="D34" t="n">
-        <v>1.603616666666667</v>
+        <v>1.359833333333333</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cESc6f9ZkWhRd6y8jJOT</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>AHS_Guest</t>
-        </is>
+          <t>vJojNPNcHDu85VNbpEnU</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>10919696</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "M" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bangkok pa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45956.45840119213</v>
+        <v>45957.55573811343</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>tC0v7aia4XzTyTbDXm3e</t>
+          <t>y5LXL4yiWWSEcwWwpbd2</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">
+ Hi Sethumi! I'm sorry you couldn't find what you were looking for. Did you mean Bangkok, Thailand? Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>45956.45951481481</v>
+        <v>45957.55668244213</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>vWJW8qpNDhdc51uxgCgh</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
+          <t>cd0VfPfyIVeQaHXUSM1G</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>sanara1</t>
+        </is>
+      </c>
       <c r="C35" t="n">
-        <v>95.91</v>
+        <v>160.924</v>
       </c>
       <c r="D35" t="n">
-        <v>1.5985</v>
+        <v>2.682066666666667</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>HTSbsAL7ld8TU1z7OpwI</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>AHS_Guest</t>
-        </is>
+          <t>ZFMjj9j2gUnae2M9LHQL</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>10918838</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ma" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>It's been more than 2 weeks now. I still didn't get my refund</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45956.45840474537</v>
+        <v>45957.43863850694</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>tC0v7aia4XzTyTbDXm3e</t>
+          <t>Iks7kkGUJAXxkoaVxjtm</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">Hi Sanara. Please allow me some moments. I will check on this and get back to you. If it's convenient, Please share an active Whatsapp number  of yours. 
+</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45956.45951481481</v>
+        <v>45957.44050105324</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>vWJW8qpNDhdc51uxgCgh</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>cd0VfPfyIVeQaHXUSM1G</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>sanara1</t>
+        </is>
+      </c>
       <c r="C36" t="n">
-        <v>94.33</v>
+        <v>155.434</v>
       </c>
       <c r="D36" t="n">
-        <v>1.572166666666667</v>
+        <v>2.590566666666667</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>U4cEtU6KttSCaEf8NMwl</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>AHS_Guest</t>
-        </is>
+          <t>RoED1Fm2S3DyjXPyRvnz</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>10918838</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Marr" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Whatsapp - 0771668519
+Order Number - #VO7403</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45956.45842303241</v>
+        <v>45957.44228318287</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>tC0v7aia4XzTyTbDXm3e</t>
+          <t>CKJn6bb4yc7Gs1ppIgG4</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">Allow me some moments. I will check with my team and let you know with regards to your refund. 
+</t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45956.45951481481</v>
+        <v>45957.4440821875</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>vWJW8qpNDhdc51uxgCgh</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>h5zHe9ZiKNXvughAokL4</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Mihara</t>
+        </is>
+      </c>
       <c r="C37" t="n">
-        <v>93.43600000000001</v>
+        <v>113.492</v>
       </c>
       <c r="D37" t="n">
-        <v>1.557266666666667</v>
+        <v>1.891533333333334</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>N5eeQEFBFLhNGs11z4jy</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>AHS_Guest</t>
-        </is>
+          <t>nlLefw8yYu4zenTlC3Gj</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>10919650</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Marri" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Day o" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45956.45843337963</v>
+        <v>45957.22999274306</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>tC0v7aia4XzTyTbDXm3e</t>
+          <t>sKcTVr3Gnd1Vf1fZJ9X6</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search so I can assist you better? Thank you!</t>
+          <t>Hi Mihara, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>45956.45951481481</v>
+        <v>45957.23130630787</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>vWJW8qpNDhdc51uxgCgh</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
+          <t>h5zHe9ZiKNXvughAokL4</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Mihara</t>
+        </is>
+      </c>
       <c r="C38" t="n">
-        <v>91.955</v>
+        <v>4945.159</v>
       </c>
       <c r="D38" t="n">
-        <v>1.532583333333333</v>
+        <v>82.41931666666666</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>gVOHxLcCvDh8OgDbFjfe</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>AHS_Guest</t>
-        </is>
+          <t>ISASbd5BKcBI2jYm9u7N</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>10919650</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Marriot" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Day out" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45956.45845052083</v>
+        <v>45957.23805585648</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>tC0v7aia4XzTyTbDXm3e</t>
+          <t>u3MGU83Td0B8Fvdpm78k</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search so I can assist you better? Thank you!</t>
+          <t>Hi Ho
+w can we assist you today?</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>45956.45951481481</v>
+        <v>45957.29529149306</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>vWJW8qpNDhdc51uxgCgh</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>iFsAmSADMbb8U4eDUYSI</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>nikkita</t>
+        </is>
+      </c>
       <c r="C39" t="n">
-        <v>64.13500000000001</v>
+        <v>96.759</v>
       </c>
       <c r="D39" t="n">
-        <v>1.068916666666667</v>
+        <v>1.61265</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6tke1cnoACpJp8pspXdq</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>AHS_Guest</t>
-        </is>
+          <t>6r15Tu5lHDHcUvUx94zf</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>10919452</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Marriot" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bu" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45956.45877251157</v>
+        <v>45957.49875887731</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>tC0v7aia4XzTyTbDXm3e</t>
+          <t>swV3FCcaRBreJEUuIdlB</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">
+ Hi Nikita, I'm here to help! Can you please provide more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>45956.45951481481</v>
+        <v>45957.49987877315</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>xDUXDlvM2bek6eDmvCPX</t>
+          <t>iFsAmSADMbb8U4eDUYSI</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DulminiAmarasinghe</t>
+          <t>nikkita</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>81.798</v>
+        <v>54.588</v>
       </c>
       <c r="D40" t="n">
-        <v>1.3633</v>
+        <v>0.9098000000000001</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>HMOoX3KO9QAAK87ZrVT1</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>10916117</t>
-        </is>
+          <t>oIOqWm6Dm2NiTczZkf0O</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>10919452</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cilo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45956.49317537037</v>
+        <v>45957.49924696759</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>vDZmoHDI2ciIXSn0PsDs</t>
+          <t>swV3FCcaRBreJEUuIdlB</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Hi Dulmini Amarasinghe, I'm sorry but it seems like "Cilo" is not showing any results in our system. Could you please provide more details about what you are looking for so that I can assist you better? Thank you.</t>
+          <t xml:space="preserve">
+ Hi Nikita, I'm here to help! Can you please provide more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>45956.49412210648</v>
+        <v>45957.49987877315</v>
       </c>
       <c r="L40" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>k8wawpelNdJEyufLoOE4</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NFL</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>91.163</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.519383333333333</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>bjGSdYkXo0c8msbnSOE5</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>3817</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Thail" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45957.58834483796</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>WOkQKxTbm8NsVWIzrSU9</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Hi NFL, I'm sorry you couldn't find what you were looking for. Can you please provide me with more information about "Thail" so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>45957.58939996528</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>loCvkRw2sp3N1MtiGOcT</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Farha</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>102.697</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.711616666666667</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>G0hAeSCzNQadbHROyhYb</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2338</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Dinner buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>45957.68340179398</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>LxlTUIyeqSaCbLYZkd1Z</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Hi Farha, I apologize for the inconvenience. We currently do not have any dinner buffet options available in our search results. Is there anything else I can assist you with? Let me know if you have any other preferences or questions.</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>45957.68459041667</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ngCMVmNrHDKMJoFm5UP5</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>nushk5638</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>89.634</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.4939</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>elSkvH9GvYCJkTN0LOGS</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>10919622</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Hotel ban" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>45957.63553722222</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>9y98eduZ7Zr5oLlbVBJb</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Hi isnushk5638, I'm sorry you couldn't find the information you were looking for. Can you provide me with more details about the hotel you are searching for? I'll do my best to assist you.</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>45957.63657465278</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ngCMVmNrHDKMJoFm5UP5</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>nushk5638</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>68.955</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.14925</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>bNhc8RiHLWUi2djbTfAT</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>10919622</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bangko" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>45957.6357765625</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>9y98eduZ7Zr5oLlbVBJb</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Hi isnushk5638, I'm sorry you couldn't find the information you were looking for. Can you provide me with more details about the hotel you are searching for? I'll do my best to assist you.</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>45957.63657465278</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>oRn9qNIZuOj5phzntIMN</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>prran5532</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>55.262</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9210333333333334</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>hsMXetF0SiKRXFQuWFeF</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>10910682</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Ml" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>45957.66723731482</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>QQuvKjpKA6JlOGHTeixA</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Hello prran5532, thank you for reaching out to us. How can we assist you today?</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>45957.6678769213</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>thL5gnmIi2L7tuBCfadE</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>yasas6865</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>145.398</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.4233</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>oIyi6j5gpdy87TfGicdU</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>10919439</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Food" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>45957.84648625</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>mgkqDHrNVUdCxdYQoc2W</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Hi yasas6865! I'm sorry that you couldn't find any results for "Food". Can you please provide more details about the type of food you're looking for or any specific preferences? I'd be happy to help you find the information you need.</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>45957.84816909723</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>v1jmEb3tECFUgtaSnm5W</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>anujapramoth</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>86.51900000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.441983333333333</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>TRdJl0lSiU1z2QV5KKgx</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>10919704</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Dubai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>45957.67184804398</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>iTDBEbULKQdqVxGPBbpn</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Hi Anuja Pramoth! I'm sorry you couldn't find what you were looking for. Dubai is a popular destination and we have a lot of options for you to choose from. Can you please provide more details about your travel preferences so I can assist you better? Looking forward to helping you plan your trip to Dubai!"</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>45957.67284942129</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>wsgnogrrccJJP0FRttX9</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>RLH2706</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>86.479</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.441316666666667</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>qEZSGQxBNdEvBBQALlof</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>10913399</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Air fli" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>45957.52782225695</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>zJtcohoA5GTvESDwb99j</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Hi RLH2706, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the specific "Air fli" you are searching for so I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>45957.5288231713</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Dishmi</t>
         </is>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,27 +502,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5jtu2rMu10PMhexpSy72</t>
+          <t>1wdCV4ggDO73M5ptBcbo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gayat4778</t>
+          <t>Tharushics</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>80.34399999999999</v>
+        <v>92.819</v>
       </c>
       <c r="D2" t="n">
-        <v>1.339066666666667</v>
+        <v>1.546983333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HkvuIHshQGg3alPtQQ2D</t>
+          <t>LKKXgvDynW3BTlzgExnm</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6238</v>
+        <v>10918511</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -530,489 +530,488 @@
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45957.58427953703</v>
+        <v>45958.44311078704</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>lfOapEI8QVUcw43nxOcq</t>
+          <t>H1j2e1nos9WT5tTntmuL</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hi Gayat4778, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Kam" so I can assist you better? Thank you!</t>
+          <t>Hi Tharushics, I apologize for the inconvenience. Can you please provide me with more details about "Kam" so that I can better assist you in finding what you're looking for?</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45957.58520944444</v>
+        <v>45958.44418508102</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6qzAl7zQqT6lswCV1zjW</t>
+          <t>1wdCV4ggDO73M5ptBcbo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>wnrymp52rc@privaterelay.appleid.com</t>
+          <t>Tharushics</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>96.051</v>
+        <v>94.762</v>
       </c>
       <c r="D3" t="n">
-        <v>1.60085</v>
+        <v>1.579366666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>YnGZqfVPaSv4ToxuMyCd</t>
+          <t>iBotWSOuuAWa5IZqKfs5</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10919659</v>
+        <v>10918511</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Lunch" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kam" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45957.08263859954</v>
+        <v>45958.44557488426</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>kEIuxJ9aLaZtq527VhNE</t>
+          <t>lqN1dmFHOug7rdmEpcxf</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry, but we don't offer specific lunch options through our travel agency. However, I'd be happy to assist you in finding great dining recommendations at your destination. Just let me know where you're headed, and I'll do my best to help!</t>
+          <t>Hi Tharushics, I'm sorry that you couldn't find what you were looking for. Let me assist you in finding the information you need. Can you please provide me with more details about "Kam" so that I can help you better?</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45957.08375030092</v>
+        <v>45958.44667166666</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6qzAl7zQqT6lswCV1zjW</t>
+          <t>2aRJR435kryBp9BNngj5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>wnrymp52rc@privaterelay.appleid.com</t>
+          <t>SurangiPerera</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>78.688</v>
+        <v>92.756</v>
       </c>
       <c r="D4" t="n">
-        <v>1.311466666666667</v>
+        <v>1.545933333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GQ5mSO3sEIcgoJsJDXsp</t>
+          <t>it8Y4bZjwduxAqJ8lLhu</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10919659</v>
+        <v>4638</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Day ou" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Breakfast buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45957.41371944444</v>
+        <v>45958.48065605324</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>z8yNmYgelYvs37rwTLaH</t>
+          <t>NgJuQHGHaSMGS3FSvA7T</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry, but we don't offer specific "Day out" options through our travel agency. However, I'd be happy to assist you in finding great activities and attractions at your destination. Just let me know where you're headed, and I'll do my best to help!</t>
+          <t>Hi SurangiPerera, I'm sorry that you couldn't find any results for a breakfast buffet. Can you please provide me with more details about your search, such as the location or specific dates you are looking for? I'd be happy to assist you in finding the perfect breakfast buffet for your trip.</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45957.41463018519</v>
+        <v>45958.48172961806</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AzUUAbl1lqKhZUsIvHzI</t>
+          <t>4WLzCsQfITjL1cIIe77m</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>shenrod</t>
+          <t>shakila2030</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>86.699</v>
+        <v>91.021</v>
       </c>
       <c r="D5" t="n">
-        <v>1.444983333333333</v>
+        <v>1.517016666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>qj1azYXHHIl3WtUTcvtG</t>
+          <t>2O2swnqTRnf9iSeP8M9U</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10919536</v>
+        <v>10919721</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "British" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Apfia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45957.42283094907</v>
+        <v>45958.60225288194</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>EiEc1xJwf61GcFPbigfK</t>
+          <t>isoCUlNRA2bW1ov64txf</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hi Shenrod, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t>Hello Shakila2030! I'm sorry, but I couldn't find any information on "Apfia." Could you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45957.42383440972</v>
+        <v>45958.60330636574</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CUw5CEu0q1Wgdg5w6BPn</t>
+          <t>6zIq4QBZj1xRl2xXAHnX</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mbmakram</t>
+          <t>Tamari Seneviratne</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>83.489</v>
+        <v>27.408</v>
       </c>
       <c r="D6" t="n">
-        <v>1.391483333333333</v>
+        <v>0.4568</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>HXBcOTW398ICtH7wIKcm</t>
+          <t>MZRFCp9jN1IbyszzJ86j</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10917452</v>
+        <v>10919099</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buff" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Offers" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45957.68591045139</v>
+        <v>45958.77314599537</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>yAPMmhqOWDEepGicplWm</t>
+          <t>ESSri54fpWzQYvdgMEDy</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hi mbmakram! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Buff" so I can assist you better? Let me know how I can help!</t>
+          <t>Hi Tamari Seneviratne, please feel free to let me know your travel preferences so I can assist you in finding the best deals for your next trip. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45957.68687675926</v>
+        <v>45958.77346321759</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CUw5CEu0q1Wgdg5w6BPn</t>
+          <t>ABIp4WJ5cYKE0Kpn8UGW</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mbmakram</t>
+          <t>ImashiSandadevini</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63.597</v>
+        <v>91.34</v>
       </c>
       <c r="D7" t="n">
-        <v>1.05995</v>
+        <v>1.522333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>VdV7J2UWt5slD0FATJMp</t>
+          <t>86rnwl4QQKg8SBvbtorw</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10917452</v>
+        <v>10917975</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buff" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hgh tea biff" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45957.68614068287</v>
+        <v>45958.45630152777</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>yAPMmhqOWDEepGicplWm</t>
+          <t>QBzHKVmQLLfymTS5DFpU</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hi mbmakram! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Buff" so I can assist you better? Let me know how I can help!</t>
+          <t>Hi ImashiSandadevini! I'm sorry, but it seems like there might have been a typo in your search. Did you mean "High tea buffet" instead of "Hgh tea biff"? Let me know if that's what you're looking for and I can help you find some options for high tea buffets.</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45957.68687675926</v>
+        <v>45958.4573587037</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FedSeS3fslxe4jZcF4tt</t>
+          <t>ABIp4WJ5cYKE0Kpn8UGW</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>prran5532</t>
+          <t>ImashiSandadevini</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>65.241</v>
+        <v>3.889</v>
       </c>
       <c r="D8" t="n">
-        <v>1.08735</v>
+        <v>0.06481666666666668</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>q0CwmWn4Yooq1WSO9096</t>
+          <t>EIXY9U57HNnIP74NuEE3</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10910682</v>
+        <v>10917975</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kamili" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Highte" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45957.66723784722</v>
+        <v>45958.45731369213</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>oza81Ps5R8DCiqADOYtH</t>
+          <t>QBzHKVmQLLfymTS5DFpU</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hello prran5532, thank you for reaching out to us. How can I assist you today?</t>
+          <t>Hi ImashiSandadevini! I'm sorry, but it seems like there might have been a typo in your search. Did you mean "High tea buffet" instead of "Hgh tea biff"? Let me know if that's what you're looking for and I can help you find some options for high tea buffets.</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45957.66799295139</v>
+        <v>45958.4573587037</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HGutvQxMYCdcS8QDVHpa</t>
+          <t>ABIp4WJ5cYKE0Kpn8UGW</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vish_H</t>
+          <t>ImashiSandadevini</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>88.364</v>
+        <v>45.903</v>
       </c>
       <c r="D9" t="n">
-        <v>1.472733333333333</v>
+        <v>0.76505</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ULcli8H7MOSLmuA399Vj</t>
+          <t>QNe8bKjADwk7um3YeTBe</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10916715</v>
+        <v>10917975</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dinner u" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bif" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45957.50688189815</v>
+        <v>45958.4577669213</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>wsf3Wirhvmgu5CC65rQU</t>
+          <t>jk9tYxk8Ct6injjea6yx</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi Vish_H, thank you for reaching out. We currently do not have any specific offers for "Dinner u" or "Dinner buffet" but we do offer a variety of dining options in our travel packages. Please let us know if you would like more information on dining options during your trip. </t>
+          <t>Hi ImashiSandadevini! I apologize for the confusion. Did you mean "High tea buffet" instead of "Highte" in your search? Let me know if that's what you're looking for and I can assist you further.</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45957.50790462963</v>
+        <v>45958.45829820602</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HGutvQxMYCdcS8QDVHpa</t>
+          <t>AD4lZTIiuhzqUZF6Twd3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vish_H</t>
+          <t>kesar3206</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>88.319</v>
+        <v>2592.222</v>
       </c>
       <c r="D10" t="n">
-        <v>1.471983333333333</v>
+        <v>43.2037</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>cR6ANeJJFQUSSTlaQAGE</t>
+          <t>fIF0dNxnW5qkpKOfkDMQ</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10916715</v>
+        <v>10919727</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dinner buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thail" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45957.50688241898</v>
+        <v>45958.82346306713</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>wsf3Wirhvmgu5CC65rQU</t>
+          <t>jxLcoIA9DO6JB2QMK1K8</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi Vish_H, thank you for reaching out. We currently do not have any specific offers for "Dinner u" or "Dinner buffet" but we do offer a variety of dining options in our travel packages. Please let us know if you would like more information on dining options during your trip. </t>
+          <t>Hi kesar3206, I'm sorry but it looks like there may have been a typo in your search. Could you please provide more information about what you're looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45957.50790462963</v>
+        <v>45958.85346563657</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HGutvQxMYCdcS8QDVHpa</t>
+          <t>CDuGfq5Eh6c2OscTPdy5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vish_H</t>
+          <t>dinara96</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>106.889</v>
+        <v>80.318</v>
       </c>
       <c r="D11" t="n">
-        <v>1.781483333333333</v>
+        <v>1.338633333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>qZclUG1BmmZ4uDwAPW3Y</t>
+          <t>ZMMiJ6GcoCZr6jIRNSTA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10916715</v>
+        <v>10913731</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dinner" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sheraton" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45957.50927922453</v>
+        <v>45958.60828636574</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>gEXQ5qDC7ORGVtpJ5Upy</t>
+          <t>o98DU2WGCsrq1qEerOEZ</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Hi Vish_H, I'm sorry you couldn't find what you were looking for in our search results. We offer a variety of dining offers in our App. 
- so feel free to let us know if you need more information on dinner options during your trip.</t>
+          <t>Hi dinara96! I'm sorry, but we currently do not have any listings for Sheraton. Can I help you with any other hotel options or destinations? Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45957.51051636574</v>
+        <v>45958.60921597222</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1023,1249 +1022,1246 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HGutvQxMYCdcS8QDVHpa</t>
+          <t>Eu8KUxMjuSa0IPH8Br2h</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Vish_H</t>
+          <t>ishanka</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>106.795</v>
+        <v>119.054</v>
       </c>
       <c r="D12" t="n">
-        <v>1.779916666666667</v>
+        <v>1.984233333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TY5W0XyqeUugMIr1fZmf</t>
+          <t>YIxrJpjXFvevQZ5nAJbq</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10916715</v>
+        <v>1003</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dinner buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Maurit" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45957.5092803125</v>
+        <v>45958.89576149306</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>gEXQ5qDC7ORGVtpJ5Upy</t>
+          <t>Nx4Jo4hbvvoYDLWhx2ch</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Hi Vish_H, I'm sorry you couldn't find what you were looking for in our search results. We offer a variety of dining offers in our App. 
- so feel free to let us know if you need more information on dinner options during your trip.</t>
+          <t>Hi Ishanka! It looks like there may be a slight spelling error in your search again. Did you mean "Mauritius" instead of "Maurit"? Let me know how I can assist you further in finding information about Mauritius.</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45957.51051636574</v>
+        <v>45958.89713943287</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
+          <t>GIDnWQh7WdEnPyozrF1i</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tharuni</t>
+          <t>hell</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>96.499</v>
+        <v>87.968</v>
       </c>
       <c r="D13" t="n">
-        <v>1.608316666666667</v>
+        <v>1.466133333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WwByD0lkofO05s1Puv5E</t>
+          <t>Zb64Cw5pgSd2vHSGfWS8</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10917441</v>
+        <v>10919482</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ya" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Chvhhv</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45957.56992538195</v>
+        <v>45958.51930094908</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>rmc5ielHeeAnAsb09Oo9</t>
+          <t>AKsZIxsunig07HZPESqx</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
+          <t>Hello Hell! Thank you for reaching out to us. How can we assist you today? Let us know if you have any questions or need help with anything. We're here to make your travel experience as smooth as possible.</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45957.57104226852</v>
+        <v>45958.52031909722</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
+          <t>GdJ0mDdiB303U1nEmm6u</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tharuni</t>
+          <t>lakshiGowshi</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>96.35599999999999</v>
+        <v>116.01</v>
       </c>
       <c r="D14" t="n">
-        <v>1.605933333333333</v>
+        <v>1.9335</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4nuFihMOQtCvdODlFqLV</t>
+          <t>1kUpZqCap8lXIKycPZNP</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10917441</v>
+        <v>10919730</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Yas i" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Silka tower" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45957.56992703704</v>
+        <v>45958.98773652778</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>rmc5ielHeeAnAsb09Oo9</t>
+          <t>kbhFTMVxaeJNtfDbshJV</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
+          <t>Hi LakshiGowshi, thank you for reaching out. It seems like there may have been a typo in your search. Could you please provide me with more details about the "Silka tower" you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45957.57104226852</v>
+        <v>45958.98907923611</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
+          <t>GdJ0mDdiB303U1nEmm6u</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tharuni</t>
+          <t>lakshiGowshi</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>94.879</v>
+        <v>115.625</v>
       </c>
       <c r="D15" t="n">
-        <v>1.581316666666667</v>
+        <v>1.927083333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>J5Lh94mJawjGyIUhCwGg</t>
+          <t>MDrinvZBLdiTcRNc9WSC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10917441</v>
+        <v>10919730</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Yas is" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Silka towee" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45957.56994413194</v>
+        <v>45958.98774098379</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>rmc5ielHeeAnAsb09Oo9</t>
+          <t>kbhFTMVxaeJNtfDbshJV</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
+          <t>Hi LakshiGowshi, thank you for reaching out. It seems like there may have been a typo in your search. Could you please provide me with more details about the "Silka tower" you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45957.57104226852</v>
+        <v>45958.98907923611</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
+          <t>ISkVp6lGwbBoYcu2zeDd</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tharuni</t>
+          <t>pradeep90</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>93.837</v>
+        <v>91.099</v>
       </c>
       <c r="D16" t="n">
-        <v>1.56395</v>
+        <v>1.518316666666667</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9MrPY4mWdDf0NOhxLTgo</t>
+          <t>7Zx3I2F7yJOw2xCQ5NK6</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10917441</v>
+        <v>8131</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Yas Island" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kame" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45957.56995619213</v>
+        <v>45958.58725880787</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>rmc5ielHeeAnAsb09Oo9</t>
+          <t>cBufEo4ELiQtMyk4iEQb</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
+          <t>Hi pradeep90, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Kame" so that I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45957.57104226852</v>
+        <v>45958.58831319444</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
+          <t>MrnCXfIAiNGjGMatd3Xw</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tharuni</t>
+          <t>Mithma</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>92.578</v>
+        <v>15.299</v>
       </c>
       <c r="D17" t="n">
-        <v>1.542966666666667</v>
+        <v>0.2549833333333333</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MKOq6gX8KBsDyfDqXGbS</t>
+          <t>twyGawEXw4ccgwOh0POG</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10917441</v>
+        <v>10918019</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Yas Island abu" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Oak ra" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45957.56997076389</v>
+        <v>45958.72792332176</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>rmc5ielHeeAnAsb09Oo9</t>
+          <t>bg0a5RaFt2dGxeYmyGV7</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
+          <t>Hi Mithma, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details or specific keywords so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45957.57104226852</v>
+        <v>45958.72810039352</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
+          <t>Ou77ZMIanQ7X4m1sfd16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tharuni</t>
+          <t>Vidyantha</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>89.509</v>
+        <v>1282.044</v>
       </c>
       <c r="D18" t="n">
-        <v>1.491816666666667</v>
+        <v>21.3674</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>xLrwVNWAduA4Aeqbb7uA</t>
+          <t>pn9pJyTJwQv5K8SYSnvK</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10917441</v>
+        <v>10919728</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Yas Island ab" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Tour package Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45957.57000628472</v>
+        <v>45958.83927174768</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>rmc5ielHeeAnAsb09Oo9</t>
+          <t>IVNO7TehofYJcnszXNOF</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
+          <t>Hi Vidyantha, I'm sorry to hear that you couldn't find any results for "Tour package Malaysia." Let me assist you with that. Can you please provide me with more details about your travel preferences and dates so I can tailor a customized tour package for you? Looking forward to helping you plan your trip to Malaysia!</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45957.57104226852</v>
+        <v>45958.85411021991</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
+          <t>Ou77ZMIanQ7X4m1sfd16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tharuni</t>
+          <t>Vidyantha</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>88.649</v>
+        <v>1238.933</v>
       </c>
       <c r="D19" t="n">
-        <v>1.477483333333333</v>
+        <v>20.64888333333333</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sFI8gMbDqj5jnsNAVwde</t>
+          <t>joIAa76HuKUbmACtsjFo</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10917441</v>
+        <v>10919728</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Yas Island a" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Tour package Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45957.57001623842</v>
+        <v>45958.83977071759</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>rmc5ielHeeAnAsb09Oo9</t>
+          <t>IVNO7TehofYJcnszXNOF</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
+          <t>Hi Vidyantha, I'm sorry to hear that you couldn't find any results for "Tour package Malaysia." Let me assist you with that. Can you please provide me with more details about your travel preferences and dates so I can tailor a customized tour package for you? Looking forward to helping you plan your trip to Malaysia!</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45957.57104226852</v>
+        <v>45958.85411021991</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
+          <t>SQwoBRjxNTRBG80hRukW</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tharuni</t>
+          <t>kalum9281</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>87.31999999999999</v>
+        <v>87.86499999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>1.455333333333333</v>
+        <v>1.464416666666666</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8J2CtSlOYMIQFzZxHc5F</t>
+          <t>8j685vnE0xgwgbibXnHS</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10917441</v>
+        <v>10919719</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Yas Island ahbu" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45957.57003162037</v>
+        <v>45958.59583388889</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>rmc5ielHeeAnAsb09Oo9</t>
+          <t>9leFYtjCKWtNvOernCDe</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
+          <t>Hi kalum9281, I apologize for the inconvenience. It seems like there may have been a slight misspelling in your search query. Could you please provide me with more details so I can assist you in finding what you're looking for? Thank you!</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45957.57104226852</v>
+        <v>45958.59685084491</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
+          <t>SQwoBRjxNTRBG80hRukW</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>tharuni</t>
+          <t>kalum9281</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>80.82899999999999</v>
+        <v>87.492</v>
       </c>
       <c r="D21" t="n">
-        <v>1.34715</v>
+        <v>1.4582</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fAhrW9U830tlB7o5cvi7</t>
+          <t>otfg4M79992YkcgIaiov</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10917441</v>
+        <v>10919719</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Yas Island ah" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Banh" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45957.57010674768</v>
+        <v>45958.59583820602</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>rmc5ielHeeAnAsb09Oo9</t>
+          <t>9leFYtjCKWtNvOernCDe</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
+          <t>Hi kalum9281, I apologize for the inconvenience. It seems like there may have been a slight misspelling in your search query. Could you please provide me with more details so I can assist you in finding what you're looking for? Thank you!</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45957.57104226852</v>
+        <v>45958.59685084491</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
+          <t>SQwoBRjxNTRBG80hRukW</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>tharuni</t>
+          <t>kalum9281</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>68.04300000000001</v>
+        <v>86.321</v>
       </c>
       <c r="D22" t="n">
-        <v>1.13405</v>
+        <v>1.438683333333333</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>eT1wwZwOZf5KxtrgEbgC</t>
+          <t>Av2J1cGFDbBd2HbxQU1w</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10917441</v>
+        <v>10919719</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Yas Island a" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bankok" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45957.57025473379</v>
+        <v>45958.59585175926</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>rmc5ielHeeAnAsb09Oo9</t>
+          <t>9leFYtjCKWtNvOernCDe</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
+          <t>Hi kalum9281, I apologize for the inconvenience. It seems like there may have been a slight misspelling in your search query. Could you please provide me with more details so I can assist you in finding what you're looking for? Thank you!</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45957.57104226852</v>
+        <v>45958.59685084491</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
+          <t>SQwoBRjxNTRBG80hRukW</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tharuni</t>
+          <t>kalum9281</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>65.89400000000001</v>
+        <v>81.17100000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>1.098233333333333</v>
+        <v>1.35285</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KIIG4RhtazXfJmqPuvTJ</t>
+          <t>2ZtzVfpntuHuf6kTHdfM</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10917441</v>
+        <v>10919719</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Yas Island abhu d" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "China" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45957.57027960648</v>
+        <v>45958.59591136574</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>rmc5ielHeeAnAsb09Oo9</t>
+          <t>9leFYtjCKWtNvOernCDe</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
+          <t>Hi kalum9281, I apologize for the inconvenience. It seems like there may have been a slight misspelling in your search query. Could you please provide me with more details so I can assist you in finding what you're looking for? Thank you!</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45957.57104226852</v>
+        <v>45958.59685084491</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kr3PLwhtG5Z9SCWiIPtq</t>
+          <t>UAVYycq32cDcaRVIBjOA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tharuni</t>
+          <t>shahe9072</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>64.417</v>
+        <v>27.845</v>
       </c>
       <c r="D24" t="n">
-        <v>1.073616666666667</v>
+        <v>0.4640833333333333</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1elWnBNgdlCOPUz5waUE</t>
+          <t>f0DmTchBaCpupX7BtUBF</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10917441</v>
+        <v>10918900</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Yas Island abhu dhabi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45957.57029670139</v>
+        <v>45958.73712726852</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>rmc5ielHeeAnAsb09Oo9</t>
+          <t>WqnWgmPDJEjqlfyWvFtH</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Hi Ishtaruni, thank you for reaching out. Unfortunately, we do not have any information on "Yas Island" at the moment. If you have any other destination in mind or need assistance with anything else, feel free to let us know. We are here to help!</t>
+          <t xml:space="preserve">Hi shahe9072
+</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45957.57104226852</v>
+        <v>45958.73744954861</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OnNG7oe2ywzaakKIqp0i</t>
+          <t>UAVYycq32cDcaRVIBjOA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>safna</t>
+          <t>shahe9072</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>82.432</v>
+        <v>13.189</v>
       </c>
       <c r="D25" t="n">
-        <v>1.373866666666667</v>
+        <v>0.2198166666666667</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7Ttyiloy8MvUvLC1aRTv</t>
+          <t>skkU7BOMCgwe18YOj1Sq</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10919697</v>
+        <v>10918900</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hello 👋</t>
+          <t>Hi, I was searching for "Shera" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45957.55824806713</v>
+        <v>45958.73884938657</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>RoDPciVgJVNvi9hN2kis</t>
+          <t>vftsO8ciFQ282Z9Iypm8</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Hello Safna! Thank you for reaching out to us. How may I assist you today? 😊</t>
+          <t xml:space="preserve">
+Hi shahe9072, I apologize for any confusion. Can you please provide me with more details about what you are looking for with "Shera"? This way, I can better assist you in finding what you need. Thank you!</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45957.5592021412</v>
+        <v>45958.73900203704</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OnNG7oe2ywzaakKIqp0i</t>
+          <t>cvbUscdcgqgvJE7tJNMW</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>safna</t>
+          <t>SashikaDhananjani</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>67.15300000000001</v>
+        <v>98.36199999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>1.119216666666667</v>
+        <v>1.639366666666667</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>wC9z2ozEDuP9xDuDy9eA</t>
+          <t>3kEu0MShZVkdzRTOq0LR</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10919697</v>
+        <v>10918341</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>I want to book this package</t>
+          <t>Hi, I was searching for "Dining qa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45957.55842490741</v>
+        <v>45958.0127571875</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>RoDPciVgJVNvi9hN2kis</t>
+          <t>lQxt2CDOTQE6ntF4p3kv</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Hello Safna! Thank you for reaching out to us. How may I assist you today? 😊</t>
+          <t>Hi SashikaDhananjani, I'm sorry that you couldn't find what you were looking for. It seems like there may have been a misunderstanding in your search. Can you please provide me with more details about what you are looking for in terms of dining options? I'll do my best to assist you in finding the information you need. Thank you for reaching out.</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45957.5592021412</v>
+        <v>45958.01389563658</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OzQdgVHGRLB2Hr1ELlde</t>
+          <t>eMdDOoGdoipOPUhbGLHu</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>chrys8994</t>
+          <t>mafas7848</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2948.938</v>
+        <v>19.913</v>
       </c>
       <c r="D27" t="n">
-        <v>49.14896666666667</v>
+        <v>0.3318833333333334</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>K6xOGAvuZt3M4kMdiH46</t>
+          <t>oLZl7G91PMaPtiQmecvn</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10919708</v>
+        <v>10915484</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Coli" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45957.78514585648</v>
+        <v>45958.58914210648</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>MxsdNMvxGvckJovDZq02</t>
+          <t>40ZgXbHGjn4peH3gZcSK</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Hi chrys8994, I apologize for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
+          <t>Hi there! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45957.81927708333</v>
+        <v>45958.58937258102</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OzQdgVHGRLB2Hr1ELlde</t>
+          <t>eMdDOoGdoipOPUhbGLHu</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>chrys8994</t>
+          <t>mafas7848</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2940.23</v>
+        <v>16.712</v>
       </c>
       <c r="D28" t="n">
-        <v>49.00383333333333</v>
+        <v>0.2785333333333334</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>hf1wmRtpYftrYN6LUQ3O</t>
+          <t>mTuuS00Td3x7fwHaOf3Y</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>10919708</v>
+        <v>10915484</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Juras" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Gale" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45957.78524664352</v>
+        <v>45958.58917915509</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>MxsdNMvxGvckJovDZq02</t>
+          <t>40ZgXbHGjn4peH3gZcSK</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Hi chrys8994, I apologize for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
+          <t>Hi there! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45957.81927708333</v>
+        <v>45958.58937258102</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tg3ZVM50yeQY4laj8Cir</t>
+          <t>jfGEVpInXCgq6mUyZs8w</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>dinusha37</t>
+          <t>Thishala66</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>94.36</v>
+        <v>111.287</v>
       </c>
       <c r="D29" t="n">
-        <v>1.572666666666667</v>
+        <v>1.854783333333333</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>wUSzYbN4VAyucieoJ3EC</t>
+          <t>u0eNNRRjlNvo9sJe4oCf</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>10917061</v>
+        <v>10918238</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dubai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Itc" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45957.49868255787</v>
+        <v>45958.89101918982</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>SWAaMxauOEnPPZkH9hIQ</t>
+          <t>g7DMvXni8ioRzpapQ7Q1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Hi dinusha37, I'm sorry that you couldn't find any results for Dubai. Let me assist you with that. Dubai is a popular destination known for its stunning architecture, luxury shopping, and vibrant nightlife. Whether you're looking to explore the Burj Khalifa, shop at the Dubai Mall, or take a desert safari, Dubai has something for everyone. Please let me know if you need any further assistance in planning your trip to Dubai.</t>
+          <t>Hi Thishala66, I'm sorry but I couldn't find any information on "Itc" in relation to travel services. Can you please provide more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45957.4997746875</v>
+        <v>45958.89230723379</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tg3ZVM50yeQY4laj8Cir</t>
+          <t>kRM8cH9I7uPwy9bhAYKC</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>dinusha37</t>
+          <t>RuwindaPremasiri94</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>85.44499999999999</v>
+        <v>90.428</v>
       </c>
       <c r="D30" t="n">
-        <v>1.424083333333333</v>
+        <v>1.507133333333333</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>wC51lUyjYxcyIJT3jMbJ</t>
+          <t>Wak18glVYD6K8kvTgL85</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>10917061</v>
+        <v>10919399</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dubai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffer" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45957.52028719908</v>
+        <v>45958.48301674768</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TDf2b3VvbJTDUReDnxrN</t>
+          <t>pOTPf4Nl9gupKPmhunq3</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Hi dinusha37, I apologize for the inconvenience. Dubai is a fantastic destination with plenty to offer. If you're looking for information or assistance with planning your trip to Dubai, feel free to ask. I'm here to help!</t>
+          <t xml:space="preserve"> Hi RuwindaPremasiri94, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about what you are looking for so I can assist you better?</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45957.52127614583</v>
+        <v>45958.48406336806</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tg3ZVM50yeQY4laj8Cir</t>
+          <t>mUAzvyRBYBzdb6sWzsBf</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>dinusha37</t>
+          <t>Mithma</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>84.152</v>
+        <v>23.576</v>
       </c>
       <c r="D31" t="n">
-        <v>1.402533333333333</v>
+        <v>0.3929333333333334</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>w7yRQh4z2vJbKFOZlDxN</t>
+          <t>ACk7Kxx0mxfpWvftqvP1</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>10917061</v>
+        <v>10918019</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dubai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Oak ray" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45957.52030216435</v>
+        <v>45958.72792420139</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TDf2b3VvbJTDUReDnxrN</t>
+          <t>HU4rxra3RXFXbU1bykHx</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Hi dinusha37, I apologize for the inconvenience. Dubai is a fantastic destination with plenty to offer. If you're looking for information or assistance with planning your trip to Dubai, feel free to ask. I'm here to help!</t>
+          <t>Hello Mithma, I'm sorry but we don't have any information on "Oak ray" at the moment. Is there anything else I can assist you with?</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45957.52127614583</v>
+        <v>45958.72819707176</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>aIi2GyRtC7lUKVuH4Nzi</t>
+          <t>qr9DteTE6AdrD6lKyozL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>safna</t>
+          <t>MohammedHasfaque</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>82.306</v>
+        <v>143.521</v>
       </c>
       <c r="D32" t="n">
-        <v>1.371766666666667</v>
+        <v>2.392016666666666</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>RyWY1c6UUc77N8dgttK5</t>
+          <t>bvsis3gZC1FYOuevCiKm</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>10919697</v>
+        <v>10919731</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kotiy" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Unlimited buf" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45957.54825011574</v>
+        <v>45958.96579215278</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>FB6kdvgu9SprsIZRlJpC</t>
+          <t>tGObwFazKhqm1OGbE3eN</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Hi Safna! Thank you for reaching out. I'm sorry, but I couldn't find any information on "Kotiy." Can you provide me with more details so I can assist you better? Let me know how I can help!</t>
+          <t>Hi Mohammed! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about what you mean by "Unlimited buf" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>45957.54920273148</v>
+        <v>45958.96745327547</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>aljExj5IZ7Bhv6hgy739</t>
+          <t>r1Kp63Se6PMrl1Spl0li</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LakshiRobinson</t>
+          <t>vishw3403</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>98.84699999999999</v>
+        <v>17.842</v>
       </c>
       <c r="D33" t="n">
-        <v>1.64745</v>
+        <v>0.2973666666666667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6dWusUQRPLAJZaM7sg89</t>
+          <t>zCo9TAwlmUyXoyMBP4NZ</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6932</v>
+        <v>10915017</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Grandbrll" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ped" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45957.91566143519</v>
+        <v>45958.74294069444</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>ni8dA4xwFuukosio8RpN</t>
+          <t>cImqRIbHPKRFNK3L8bKA</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Hi Lakshi Robinson, thank you for reaching out. I apologize for the inconvenience, but it seems like "Grandbrll" may not be a valid search term. Could you please provide more details or clarify what you are looking for so I can assist you better? Thank you.</t>
+          <t>Hi Vishw3403, I'm sorry that you couldn't find what you were looking for. Can you please provide more details about your search so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>45957.91680549768</v>
+        <v>45958.74314719907</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bEqwpT2fNp1JiJiEFWAm</t>
+          <t>r1Kp63Se6PMrl1Spl0li</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sethumi</t>
+          <t>vishw3403</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>81.59</v>
+        <v>14.104</v>
       </c>
       <c r="D34" t="n">
-        <v>1.359833333333333</v>
+        <v>0.2350666666666666</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>vJojNPNcHDu85VNbpEnU</t>
+          <t>gZHnnI6cpxjhOGWq9zaK</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10919696</v>
+        <v>10915017</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bangkok pa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sal" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45957.55573811343</v>
+        <v>45958.74298395833</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>y5LXL4yiWWSEcwWwpbd2</t>
+          <t>cImqRIbHPKRFNK3L8bKA</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- Hi Sethumi! I'm sorry you couldn't find what you were looking for. Did you mean Bangkok, Thailand? Let me know how I can assist you further.</t>
+          <t>Hi Vishw3403, I'm sorry that you couldn't find what you were looking for. Can you please provide more details about your search so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>45957.55668244213</v>
+        <v>45958.74314719907</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>cd0VfPfyIVeQaHXUSM1G</t>
+          <t>wucCybgtsdoEOVRrF5QC</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>sanara1</t>
+          <t>Azuu</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>160.924</v>
+        <v>108.192</v>
       </c>
       <c r="D35" t="n">
-        <v>2.682066666666667</v>
+        <v>1.8032</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ZFMjj9j2gUnae2M9LHQL</t>
+          <t>r1S5k9A9CJBaKY2bvaYB</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>10918838</v>
+        <v>10917281</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>It's been more than 2 weeks now. I still didn't get my refund</t>
+          <t>Hi, I was searching for "Gotel" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45957.43863850694</v>
+        <v>45958.49072642361</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Iks7kkGUJAXxkoaVxjtm</t>
+          <t>iCwfQ09L5Sp8fo9C2yFj</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi Sanara. Please allow me some moments. I will check on this and get back to you. If it's convenient, Please share an active Whatsapp number  of yours. 
-</t>
+          <t>Hi Azuu! I'm sorry, but I couldn't find any information on "Gotel." Can you please provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45957.44050105324</v>
+        <v>45958.49197864583</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2276,261 +2272,256 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>cd0VfPfyIVeQaHXUSM1G</t>
+          <t>wvWLuPvAruFt7KPchRI5</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>sanara1</t>
+          <t>Msena</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>155.434</v>
+        <v>19.434</v>
       </c>
       <c r="D36" t="n">
-        <v>2.590566666666667</v>
+        <v>0.3239</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>RoED1Fm2S3DyjXPyRvnz</t>
+          <t>gVTWjTWW8S4zfyOG3jZJ</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10918838</v>
+        <v>10917664</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Whatsapp - 0771668519
-Order Number - #VO7403</t>
+          <t>Hi, I was searching for "Awrn" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45957.44228318287</v>
+        <v>45958.58944471065</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>CKJn6bb4yc7Gs1ppIgG4</t>
+          <t>WrQMRGZxWcTYxyqrHZxs</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Allow me some moments. I will check with my team and let you know with regards to your refund. 
-</t>
+          <t>Hi Msena, I'm sorry but it looks like the search term "Awrn" or "Aher" is not yielding any results. Can you please provide more details or specific keywords so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45957.4440821875</v>
+        <v>45958.5896696412</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>h5zHe9ZiKNXvughAokL4</t>
+          <t>wvWLuPvAruFt7KPchRI5</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mihara</t>
+          <t>Msena</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>113.492</v>
+        <v>6.515</v>
       </c>
       <c r="D37" t="n">
-        <v>1.891533333333334</v>
+        <v>0.1085833333333333</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>nlLefw8yYu4zenTlC3Gj</t>
+          <t>JswRHhIdrzpJeBoEhKWb</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10919650</v>
+        <v>10917664</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Day o" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Aher" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45957.22999274306</v>
+        <v>45958.58959423611</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sKcTVr3Gnd1Vf1fZJ9X6</t>
+          <t>WrQMRGZxWcTYxyqrHZxs</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Hi Mihara, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search so I can assist you better? Thank you!</t>
+          <t>Hi Msena, I'm sorry but it looks like the search term "Awrn" or "Aher" is not yielding any results. Can you please provide more details or specific keywords so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>45957.23130630787</v>
+        <v>45958.5896696412</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>h5zHe9ZiKNXvughAokL4</t>
+          <t>wvWLuPvAruFt7KPchRI5</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mihara</t>
+          <t>Msena</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4945.159</v>
+        <v>0.881</v>
       </c>
       <c r="D38" t="n">
-        <v>82.41931666666666</v>
+        <v>0.01468333333333333</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ISASbd5BKcBI2jYm9u7N</t>
+          <t>YGvspzs3L41cUNS0LSPP</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10919650</v>
+        <v>10917664</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Day out" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Where" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45957.23805585648</v>
+        <v>45958.58965944444</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>u3MGU83Td0B8Fvdpm78k</t>
+          <t>WrQMRGZxWcTYxyqrHZxs</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Hi Ho
-w can we assist you today?</t>
+          <t>Hi Msena, I'm sorry but it looks like the search term "Awrn" or "Aher" is not yielding any results. Can you please provide more details or specific keywords so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>45957.29529149306</v>
+        <v>45958.5896696412</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>iFsAmSADMbb8U4eDUYSI</t>
+          <t>x5k1TE5kiLqFbchzkL6n</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>nikkita</t>
+          <t>hell</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>96.759</v>
+        <v>92.527</v>
       </c>
       <c r="D39" t="n">
-        <v>1.61265</v>
+        <v>1.542116666666667</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6r15Tu5lHDHcUvUx94zf</t>
+          <t>HQKe3BIjsV5ByOJNMK9I</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>10919452</v>
+        <v>10919482</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bu" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "6rt77t7t7yg7yff6" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45957.49875887731</v>
+        <v>45958.50255155093</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>swV3FCcaRBreJEUuIdlB</t>
+          <t>6PSfaXqXuZtgSIn0O6SF</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- Hi Nikita, I'm here to help! Can you please provide more details about what you are looking for so I can assist you better? Thank you!</t>
+          <t xml:space="preserve"> Hi info.8663, I apologize for the inconvenience. It seems like the search term "6rt77t7t7yg7yff6" didn't yield any results. Could you please provide me with more information or specific details about what you're looking for so that I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>45957.49987877315</v>
+        <v>45958.50362246528</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>iFsAmSADMbb8U4eDUYSI</t>
+          <t>xPdXvIaVvgxcwglv08xW</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>nikkita</t>
+          <t>hell</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>54.588</v>
+        <v>83.68600000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9098000000000001</v>
+        <v>1.394766666666667</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>oIOqWm6Dm2NiTczZkf0O</t>
+          <t>qCgt3nL9HbNDc4HuiNmC</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10919452</v>
+        <v>10919482</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45957.49924696759</v>
+        <v>45958.50291834491</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>swV3FCcaRBreJEUuIdlB</t>
+          <t>kQK5QouPCpNXBzEw4BKR</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- Hi Nikita, I'm here to help! Can you please provide more details about what you are looking for so I can assist you better? Thank you!</t>
+          <t>Hello Hell! Thank you for reaching out to us. How can I assist you today with your travel plans? Feel free to ask me any questions you may have.</t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>45957.49987877315</v>
+        <v>45958.50388693287</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2541,417 +2532,210 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>k8wawpelNdJEyufLoOE4</t>
+          <t>xdUpuTcwhjOYixMyMDpi</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NFL</t>
+          <t>Madava</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>91.163</v>
+        <v>27.433</v>
       </c>
       <c r="D41" t="n">
-        <v>1.519383333333333</v>
+        <v>0.4572166666666667</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>bjGSdYkXo0c8msbnSOE5</t>
+          <t>hiUn4Sl3vStXCrmeY8E0</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3817</v>
+        <v>10919722</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thail" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sofia c" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45957.58834483796</v>
+        <v>45958.61903393519</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>WOkQKxTbm8NsVWIzrSU9</t>
+          <t>SPUro09uRW5FmFPPM3cD</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Hi NFL, I'm sorry you couldn't find what you were looking for. Can you please provide me with more information about "Thail" so I can assist you better? Thank you!</t>
+          <t>Hi Madava, I'm sorry but we currently do not have any results for "Sofia c." Is there any other specific destination or service you are looking for? Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>45957.58939996528</v>
+        <v>45958.61935144676</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>loCvkRw2sp3N1MtiGOcT</t>
+          <t>xdUpuTcwhjOYixMyMDpi</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Farha</t>
+          <t>Madava</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>102.697</v>
+        <v>13.133</v>
       </c>
       <c r="D42" t="n">
-        <v>1.711616666666667</v>
+        <v>0.2188833333333333</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>G0hAeSCzNQadbHROyhYb</t>
+          <t>15SFm3prJT8TRjnnsjVc</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2338</v>
+        <v>10919722</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dinner buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sofia colombo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45957.68340179398</v>
+        <v>45958.62076512731</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>LxlTUIyeqSaCbLYZkd1Z</t>
+          <t>eHsNe5ddnSodDBpJcfSN</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Hi Farha, I apologize for the inconvenience. We currently do not have any dinner buffet options available in our search results. Is there anything else I can assist you with? Let me know if you have any other preferences or questions.</t>
+          <t xml:space="preserve">You can find the Buffets that is provided at Sofia Colombo in the lifestyle category and in the Dining Sub Category.
+</t>
         </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>45957.68459041667</v>
+        <v>45958.62091712963</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ngCMVmNrHDKMJoFm5UP5</t>
+          <t>xdUpuTcwhjOYixMyMDpi</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>nushk5638</t>
+          <t>Madava</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>89.634</v>
+        <v>22.942</v>
       </c>
       <c r="D43" t="n">
-        <v>1.4939</v>
+        <v>0.3823666666666667</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>elSkvH9GvYCJkTN0LOGS</t>
+          <t>a2Ro7W0Gnb8XBdsmxn3W</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>10919622</v>
+        <v>10919722</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hotel ban" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sofia colombo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45957.63553722222</v>
+        <v>45958.62102565972</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>9y98eduZ7Zr5oLlbVBJb</t>
+          <t>qLtGTQCjB8FOfWviL6SX</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Hi isnushk5638, I'm sorry you couldn't find the information you were looking for. Can you provide me with more details about the hotel you are searching for? I'll do my best to assist you.</t>
+          <t xml:space="preserve">You can find the Buffets that is provided at Sofia Colombo in the lifestyle category and in the Dining Sub Category.
+</t>
         </is>
       </c>
       <c r="K43" s="2" t="n">
-        <v>45957.63657465278</v>
+        <v>45958.62129119213</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ngCMVmNrHDKMJoFm5UP5</t>
+          <t>z771DAWTXP40opmRrThv</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>nushk5638</t>
+          <t>nadeeshanip</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>68.955</v>
+        <v>314.812</v>
       </c>
       <c r="D44" t="n">
-        <v>1.14925</v>
+        <v>5.246866666666667</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>bNhc8RiHLWUi2djbTfAT</t>
+          <t>H0nJRiBvXawNWqSjoSpv</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>10919622</v>
+        <v>4750</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bangko" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Winter" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45957.6357765625</v>
+        <v>45958.85006690972</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>9y98eduZ7Zr5oLlbVBJb</t>
+          <t>lv5EEelrCldZzBsNQ5ly</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Hi isnushk5638, I'm sorry you couldn't find the information you were looking for. Can you provide me with more details about the hotel you are searching for? I'll do my best to assist you.</t>
+          <t>Hi Isnadeeshanip, I'm sorry to hear that you couldn't find any results for "Winter." Can you please provide me with more information about what you're looking for so I can better assist you? Thank you!</t>
         </is>
       </c>
       <c r="K44" s="2" t="n">
-        <v>45957.63657465278</v>
+        <v>45958.85371056713</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>oRn9qNIZuOj5phzntIMN</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>prran5532</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>55.262</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.9210333333333334</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>hsMXetF0SiKRXFQuWFeF</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>10910682</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Ml" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>45957.66723731482</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>QQuvKjpKA6JlOGHTeixA</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Hello prran5532, thank you for reaching out to us. How can we assist you today?</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="n">
-        <v>45957.6678769213</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>thL5gnmIi2L7tuBCfadE</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>yasas6865</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>145.398</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2.4233</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>oIyi6j5gpdy87TfGicdU</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>10919439</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Food" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>45957.84648625</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>mgkqDHrNVUdCxdYQoc2W</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Hi yasas6865! I'm sorry that you couldn't find any results for "Food". Can you please provide more details about the type of food you're looking for or any specific preferences? I'd be happy to help you find the information you need.</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="n">
-        <v>45957.84816909723</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
           <t>shamraz</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>v1jmEb3tECFUgtaSnm5W</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>anujapramoth</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>86.51900000000001</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.441983333333333</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>TRdJl0lSiU1z2QV5KKgx</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>10919704</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Dubai" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>45957.67184804398</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>iTDBEbULKQdqVxGPBbpn</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-"Hi Anuja Pramoth! I'm sorry you couldn't find what you were looking for. Dubai is a popular destination and we have a lot of options for you to choose from. Can you please provide more details about your travel preferences so I can assist you better? Looking forward to helping you plan your trip to Dubai!"</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="n">
-        <v>45957.67284942129</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>wsgnogrrccJJP0FRttX9</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>RLH2706</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>86.479</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1.441316666666667</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>qEZSGQxBNdEvBBQALlof</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>10913399</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Air fli" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>45957.52782225695</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>zJtcohoA5GTvESDwb99j</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Hi RLH2706, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the specific "Air fli" you are searching for so I can assist you better? Thank you.</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="n">
-        <v>45957.5288231713</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,204 +502,204 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1wdCV4ggDO73M5ptBcbo</t>
+          <t>0A3dzznFyvx1HeiL5hnw</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tharushics</t>
+          <t>hansindu</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>92.819</v>
+        <v>17.753</v>
       </c>
       <c r="D2" t="n">
-        <v>1.546983333333333</v>
+        <v>0.2958833333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LKKXgvDynW3BTlzgExnm</t>
+          <t>goxG9hLmFSYH8spS3P6P</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10918511</v>
+        <v>10914545</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kam" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Chilaw" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45958.44311078704</v>
+        <v>45959.49292824074</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>H1j2e1nos9WT5tTntmuL</t>
+          <t>1HNpDLDKp4kFVfUZlMMB</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hi Tharushics, I apologize for the inconvenience. Can you please provide me with more details about "Kam" so that I can better assist you in finding what you're looking for?</t>
+          <t>Hi Ishansindu! I'm sorry that you couldn't find any results for "Chilaw." Could you please provide me with more information about what you're looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45958.44418508102</v>
+        <v>45959.49313371528</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1wdCV4ggDO73M5ptBcbo</t>
+          <t>0A3dzznFyvx1HeiL5hnw</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tharushics</t>
+          <t>hansindu</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>94.762</v>
+        <v>74.72</v>
       </c>
       <c r="D3" t="n">
-        <v>1.579366666666667</v>
+        <v>1.245333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>iBotWSOuuAWa5IZqKfs5</t>
+          <t>ffzKqMbje0r76ImKquzn</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10918511</v>
+        <v>10914545</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kam" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Colo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45958.44557488426</v>
+        <v>45959.49338894676</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>lqN1dmFHOug7rdmEpcxf</t>
+          <t>fHBWwWJkLvWGoUMC4MpZ</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hi Tharushics, I'm sorry that you couldn't find what you were looking for. Let me assist you in finding the information you need. Can you please provide me with more details about "Kam" so that I can help you better?</t>
+          <t>Hi Ishansindu! I'm sorry you couldn't find any results for "Colo." Let me assist you in finding what you're looking for. Please provide me with more details so I can help you better. Thank you!</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45958.44667166666</v>
+        <v>45959.49425376157</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2aRJR435kryBp9BNngj5</t>
+          <t>2SK14s3O7z2mKeiFEjEZ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SurangiPerera</t>
+          <t>NadeethaD</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>92.756</v>
+        <v>18.148</v>
       </c>
       <c r="D4" t="n">
-        <v>1.545933333333333</v>
+        <v>0.3024666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>it8Y4bZjwduxAqJ8lLhu</t>
+          <t>3Wceyaz7870IrmVMyBhy</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4638</v>
+        <v>10919558</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Breakfast buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45958.48065605324</v>
+        <v>45959.49130163195</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>NgJuQHGHaSMGS3FSvA7T</t>
+          <t>Qiy3wDUafPJRqADwZMPC</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hi SurangiPerera, I'm sorry that you couldn't find any results for a breakfast buffet. Can you please provide me with more details about your search, such as the location or specific dates you are looking for? I'd be happy to assist you in finding the perfect breakfast buffet for your trip.</t>
+          <t>Hi Nadeetha, I'm sorry, but I couldn't find any results for "Bang" in our system. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45958.48172961806</v>
+        <v>45959.49151167824</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4WLzCsQfITjL1cIIe77m</t>
+          <t>4mOwJyveXIwTjLS61owT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>shakila2030</t>
+          <t>Mohommed</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>91.021</v>
+        <v>88.11</v>
       </c>
       <c r="D5" t="n">
-        <v>1.517016666666667</v>
+        <v>1.4685</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2O2swnqTRnf9iSeP8M9U</t>
+          <t>0gLrIB2HznuEFZZAbFyN</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10919721</v>
+        <v>10919736</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Apfia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bon" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45958.60225288194</v>
+        <v>45959.39169793981</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>isoCUlNRA2bW1ov64txf</t>
+          <t>eKtbxNT56zCd7RSwqUjf</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hello Shakila2030! I'm sorry, but I couldn't find any information on "Apfia." Could you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Mohommed, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45958.60330636574</v>
+        <v>45959.39271773148</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -710,100 +710,100 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6zIq4QBZj1xRl2xXAHnX</t>
+          <t>4mOwJyveXIwTjLS61owT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tamari Seneviratne</t>
+          <t>Mohommed</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27.408</v>
+        <v>57.287</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4568</v>
+        <v>0.9547833333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MZRFCp9jN1IbyszzJ86j</t>
+          <t>FVv5yMK0nXeFpdhcXM7G</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10919099</v>
+        <v>10919736</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Offers" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Benco" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45958.77314599537</v>
+        <v>45959.3920546875</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ESSri54fpWzQYvdgMEDy</t>
+          <t>eKtbxNT56zCd7RSwqUjf</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hi Tamari Seneviratne, please feel free to let me know your travel preferences so I can assist you in finding the best deals for your next trip. Thank you for reaching out!</t>
+          <t>Hi Mohommed, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45958.77346321759</v>
+        <v>45959.39271773148</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ABIp4WJ5cYKE0Kpn8UGW</t>
+          <t>4mOwJyveXIwTjLS61owT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ImashiSandadevini</t>
+          <t>Mohommed</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>91.34</v>
+        <v>17.338</v>
       </c>
       <c r="D7" t="n">
-        <v>1.522333333333333</v>
+        <v>0.2889666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86rnwl4QQKg8SBvbtorw</t>
+          <t>PMrS2CvGclMOwYX8kgxb</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10917975</v>
+        <v>10919736</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hgh tea biff" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bencon" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45958.45630152777</v>
+        <v>45959.39251706019</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>QBzHKVmQLLfymTS5DFpU</t>
+          <t>eKtbxNT56zCd7RSwqUjf</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hi ImashiSandadevini! I'm sorry, but it seems like there might have been a typo in your search. Did you mean "High tea buffet" instead of "Hgh tea biff"? Let me know if that's what you're looking for and I can help you find some options for high tea buffets.</t>
+          <t>Hi Mohommed, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45958.4573587037</v>
+        <v>45959.39271773148</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -814,48 +814,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ABIp4WJ5cYKE0Kpn8UGW</t>
+          <t>8EC02OKtzzxEXFNRa9X3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ImashiSandadevini</t>
+          <t>sppan6195</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.889</v>
+        <v>94.292</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06481666666666668</v>
+        <v>1.571533333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EIXY9U57HNnIP74NuEE3</t>
+          <t>gGIutQYrLwGAbNs31Mq1</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10917975</v>
+        <v>10919461</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Highte" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thai" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45958.45731369213</v>
+        <v>45959.32990379629</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>QBzHKVmQLLfymTS5DFpU</t>
+          <t>KvluCtdvVWovqK0j9VHB</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hi ImashiSandadevini! I'm sorry, but it seems like there might have been a typo in your search. Did you mean "High tea buffet" instead of "Hgh tea biff"? Let me know if that's what you're looking for and I can help you find some options for high tea buffets.</t>
+          <t>Hi there! I apologize for the inconvenience. We currently do not have any Thai packages available, but I can certainly look into customizing a trip for you. Please let me know your preferences, and I'll do my best to create a memorable Thai experience for you. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45958.4573587037</v>
+        <v>45959.33099513889</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -866,48 +866,48 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ABIp4WJ5cYKE0Kpn8UGW</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ImashiSandadevini</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45.903</v>
+        <v>91.681</v>
       </c>
       <c r="D9" t="n">
-        <v>0.76505</v>
+        <v>1.528016666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>QNe8bKjADwk7um3YeTBe</t>
+          <t>rFAaly2ZUHEwwx6wVyWE</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10917975</v>
+        <v>10916927</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bif" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Acr" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45958.4577669213</v>
+        <v>45959.38324131945</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>jk9tYxk8Ct6injjea6yx</t>
+          <t>zTZNoJAWMPhtkRnADGyb</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Hi ImashiSandadevini! I apologize for the confusion. Did you mean "High tea buffet" instead of "Highte" in your search? Let me know if that's what you're looking for and I can assist you further.</t>
+          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Acr" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45958.45829820602</v>
+        <v>45959.38430244213</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -918,204 +918,204 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AD4lZTIiuhzqUZF6Twd3</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kesar3206</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2592.222</v>
+        <v>78.63</v>
       </c>
       <c r="D10" t="n">
-        <v>43.2037</v>
+        <v>1.3105</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fIF0dNxnW5qkpKOfkDMQ</t>
+          <t>DipQLMulVA7e9B0H7QfO</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10919727</v>
+        <v>10916927</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thail" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Acyl" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45958.82346306713</v>
+        <v>45959.38339237269</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>jxLcoIA9DO6JB2QMK1K8</t>
+          <t>zTZNoJAWMPhtkRnADGyb</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Hi kesar3206, I'm sorry but it looks like there may have been a typo in your search. Could you please provide more information about what you're looking for so I can assist you better? Thank you!</t>
+          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Acr" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45958.85346563657</v>
+        <v>45959.38430244213</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CDuGfq5Eh6c2OscTPdy5</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>dinara96</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>80.318</v>
+        <v>77.479</v>
       </c>
       <c r="D11" t="n">
-        <v>1.338633333333333</v>
+        <v>1.291316666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ZMMiJ6GcoCZr6jIRNSTA</t>
+          <t>EjO8he3f2zpKAAlAvT6m</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10913731</v>
+        <v>10916927</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sheraton" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Acyr" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45958.60828636574</v>
+        <v>45959.38340569445</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>o98DU2WGCsrq1qEerOEZ</t>
+          <t>zTZNoJAWMPhtkRnADGyb</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Hi dinara96! I'm sorry, but we currently do not have any listings for Sheraton. Can I help you with any other hotel options or destinations? Let me know how I can assist you further.</t>
+          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Acr" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45958.60921597222</v>
+        <v>45959.38430244213</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Eu8KUxMjuSa0IPH8Br2h</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ishanka</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>119.054</v>
+        <v>72.64100000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>1.984233333333333</v>
+        <v>1.210683333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>YIxrJpjXFvevQZ5nAJbq</t>
+          <t>KI2V3O3MunTfCloMowte</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1003</v>
+        <v>10916927</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Maurit" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Acrylic" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45958.89576149306</v>
+        <v>45959.38346168982</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Nx4Jo4hbvvoYDLWhx2ch</t>
+          <t>zTZNoJAWMPhtkRnADGyb</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Hi Ishanka! It looks like there may be a slight spelling error in your search again. Did you mean "Mauritius" instead of "Maurit"? Let me know how I can assist you further in finding information about Mauritius.</t>
+          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Acr" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45958.89713943287</v>
+        <v>45959.38430244213</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GIDnWQh7WdEnPyozrF1i</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>hell</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>87.968</v>
+        <v>65.66800000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>1.466133333333333</v>
+        <v>1.094466666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Zb64Cw5pgSd2vHSGfWS8</t>
+          <t>sJurEHkZceA4qT60DSgb</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10919482</v>
+        <v>10916927</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chvhhv</t>
+          <t>Hi, I was searching for "Nails" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45958.51930094908</v>
+        <v>45959.38354239583</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>AKsZIxsunig07HZPESqx</t>
+          <t>zTZNoJAWMPhtkRnADGyb</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Hello Hell! Thank you for reaching out to us. How can we assist you today? Let us know if you have any questions or need help with anything. We're here to make your travel experience as smooth as possible.</t>
+          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Acr" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45958.52031909722</v>
+        <v>45959.38430244213</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1126,152 +1126,152 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GdJ0mDdiB303U1nEmm6u</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>lakshiGowshi</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>116.01</v>
+        <v>50.587</v>
       </c>
       <c r="D14" t="n">
-        <v>1.9335</v>
+        <v>0.8431166666666667</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1kUpZqCap8lXIKycPZNP</t>
+          <t>B89krnMSzC5IDfHOhkzj</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10919730</v>
+        <v>10916927</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Silka tower" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Acrylic nails" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45958.98773652778</v>
+        <v>45959.38371694445</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>kbhFTMVxaeJNtfDbshJV</t>
+          <t>zTZNoJAWMPhtkRnADGyb</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Hi LakshiGowshi, thank you for reaching out. It seems like there may have been a typo in your search. Could you please provide me with more details about the "Silka tower" you are looking for so I can assist you better? Thank you!</t>
+          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Acr" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45958.98907923611</v>
+        <v>45959.38430244213</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GdJ0mDdiB303U1nEmm6u</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>lakshiGowshi</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>115.625</v>
+        <v>40.136</v>
       </c>
       <c r="D15" t="n">
-        <v>1.927083333333333</v>
+        <v>0.6689333333333334</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MDrinvZBLdiTcRNc9WSC</t>
+          <t>6GtCDTYBpaH8fU14KyK8</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10919730</v>
+        <v>10916927</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Silka towee" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Rupe" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45958.98774098379</v>
+        <v>45959.38383790509</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>kbhFTMVxaeJNtfDbshJV</t>
+          <t>zTZNoJAWMPhtkRnADGyb</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Hi LakshiGowshi, thank you for reaching out. It seems like there may have been a typo in your search. Could you please provide me with more details about the "Silka tower" you are looking for so I can assist you better? Thank you!</t>
+          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Acr" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45958.98907923611</v>
+        <v>45959.38430244213</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ISkVp6lGwbBoYcu2zeDd</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pradeep90</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>91.099</v>
+        <v>35.188</v>
       </c>
       <c r="D16" t="n">
-        <v>1.518316666666667</v>
+        <v>0.5864666666666667</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7Zx3I2F7yJOw2xCQ5NK6</t>
+          <t>lJPA5mP7ks4fhKzW0vRj</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8131</v>
+        <v>10916927</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kame" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Type salon" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45958.58725880787</v>
+        <v>45959.38389517361</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>cBufEo4ELiQtMyk4iEQb</t>
+          <t>zTZNoJAWMPhtkRnADGyb</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Hi pradeep90, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Kame" so that I can assist you better? Thank you!</t>
+          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Acr" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45958.58831319444</v>
+        <v>45959.38430244213</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1282,48 +1282,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MrnCXfIAiNGjGMatd3Xw</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mithma</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15.299</v>
+        <v>17.72</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2549833333333333</v>
+        <v>0.2953333333333333</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>twyGawEXw4ccgwOh0POG</t>
+          <t>HDBe14oENgsMD1rY0vy6</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10918019</v>
+        <v>10916927</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Oak ra" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Salon" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45958.72792332176</v>
+        <v>45959.38436487268</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>bg0a5RaFt2dGxeYmyGV7</t>
+          <t>CuxAp0QDV2f2XAPRv7DX</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Hi Mithma, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details or specific keywords so I can assist you better? Thank you!</t>
+          <t>Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45958.72810039352</v>
+        <v>45959.38456996528</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1334,308 +1334,308 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ou77ZMIanQ7X4m1sfd16</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Vidyantha</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1282.044</v>
+        <v>82.292</v>
       </c>
       <c r="D18" t="n">
-        <v>21.3674</v>
+        <v>1.371533333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>pn9pJyTJwQv5K8SYSnvK</t>
+          <t>LMztpws2veepzolkdQPP</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10919728</v>
+        <v>10916927</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Tour package Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Nails" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45958.83927174768</v>
+        <v>45959.38485420139</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>IVNO7TehofYJcnszXNOF</t>
+          <t>qnLzLVIPCqSSPtf0vc9r</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Hi Vidyantha, I'm sorry to hear that you couldn't find any results for "Tour package Malaysia." Let me assist you with that. Can you please provide me with more details about your travel preferences and dates so I can tailor a customized tour package for you? Looking forward to helping you plan your trip to Malaysia!</t>
+          <t>Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45958.85411021991</v>
+        <v>45959.38580665509</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ou77ZMIanQ7X4m1sfd16</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Vidyantha</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1238.933</v>
+        <v>71.405</v>
       </c>
       <c r="D19" t="n">
-        <v>20.64888333333333</v>
+        <v>1.190083333333333</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>joIAa76HuKUbmACtsjFo</t>
+          <t>8crZQvRxIv4bUNPQEM0L</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10919728</v>
+        <v>10916927</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Tour package Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Rupe salon" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45958.83977071759</v>
+        <v>45959.38498020834</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>IVNO7TehofYJcnszXNOF</t>
+          <t>qnLzLVIPCqSSPtf0vc9r</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Hi Vidyantha, I'm sorry to hear that you couldn't find any results for "Tour package Malaysia." Let me assist you with that. Can you please provide me with more details about your travel preferences and dates so I can tailor a customized tour package for you? Looking forward to helping you plan your trip to Malaysia!</t>
+          <t>Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45958.85411021991</v>
+        <v>45959.38580665509</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SQwoBRjxNTRBG80hRukW</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>kalum9281</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>87.86499999999999</v>
+        <v>69.861</v>
       </c>
       <c r="D20" t="n">
-        <v>1.464416666666666</v>
+        <v>1.16435</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8j685vnE0xgwgbibXnHS</t>
+          <t>Vdcn1bTSwmdHuyfdjh7B</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10919719</v>
+        <v>10916927</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Nails" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45958.59583388889</v>
+        <v>45959.38499807871</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>9leFYtjCKWtNvOernCDe</t>
+          <t>qnLzLVIPCqSSPtf0vc9r</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Hi kalum9281, I apologize for the inconvenience. It seems like there may have been a slight misspelling in your search query. Could you please provide me with more details so I can assist you in finding what you're looking for? Thank you!</t>
+          <t>Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45958.59685084491</v>
+        <v>45959.38580665509</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SQwoBRjxNTRBG80hRukW</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>kalum9281</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>87.492</v>
+        <v>66.681</v>
       </c>
       <c r="D21" t="n">
-        <v>1.4582</v>
+        <v>1.11135</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>otfg4M79992YkcgIaiov</t>
+          <t>Tg1V0iiZvT8norLy5PNG</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10919719</v>
+        <v>10916927</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Banh" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Acry" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45958.59583820602</v>
+        <v>45959.38503488426</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>9leFYtjCKWtNvOernCDe</t>
+          <t>qnLzLVIPCqSSPtf0vc9r</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Hi kalum9281, I apologize for the inconvenience. It seems like there may have been a slight misspelling in your search query. Could you please provide me with more details so I can assist you in finding what you're looking for? Thank you!</t>
+          <t>Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45958.59685084491</v>
+        <v>45959.38580665509</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SQwoBRjxNTRBG80hRukW</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>kalum9281</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>86.321</v>
+        <v>57.413</v>
       </c>
       <c r="D22" t="n">
-        <v>1.438683333333333</v>
+        <v>0.9568833333333333</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Av2J1cGFDbBd2HbxQU1w</t>
+          <t>LhnN0W1Cw211QnTsiIGZ</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10919719</v>
+        <v>10916927</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bankok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Nails" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45958.59585175926</v>
+        <v>45959.38514215278</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>9leFYtjCKWtNvOernCDe</t>
+          <t>qnLzLVIPCqSSPtf0vc9r</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Hi kalum9281, I apologize for the inconvenience. It seems like there may have been a slight misspelling in your search query. Could you please provide me with more details so I can assist you in finding what you're looking for? Thank you!</t>
+          <t>Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45958.59685084491</v>
+        <v>45959.38580665509</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SQwoBRjxNTRBG80hRukW</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>kalum9281</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>81.17100000000001</v>
+        <v>87.261</v>
       </c>
       <c r="D23" t="n">
-        <v>1.35285</v>
+        <v>1.45435</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2ZtzVfpntuHuf6kTHdfM</t>
+          <t>iC9K46tr4IdpuEQ69Lsr</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10919719</v>
+        <v>10916927</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "China" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Nails" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45958.59591136574</v>
+        <v>45959.38602802083</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9leFYtjCKWtNvOernCDe</t>
+          <t>Dzg5TW0chZUbq1pGXWPo</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Hi kalum9281, I apologize for the inconvenience. It seems like there may have been a slight misspelling in your search query. Could you please provide me with more details so I can assist you in finding what you're looking for? Thank you!</t>
+          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45958.59685084491</v>
+        <v>45959.38703798611</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1646,258 +1646,257 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UAVYycq32cDcaRVIBjOA</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>shahe9072</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>27.845</v>
+        <v>80.92400000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4640833333333333</v>
+        <v>1.348733333333333</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>f0DmTchBaCpupX7BtUBF</t>
+          <t>Jn5srQYBMvlF65KcSNUw</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10918900</v>
+        <v>10916927</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Extension" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45958.73712726852</v>
+        <v>45959.38610136574</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>WqnWgmPDJEjqlfyWvFtH</t>
+          <t>Dzg5TW0chZUbq1pGXWPo</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi shahe9072
-</t>
+          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45958.73744954861</v>
+        <v>45959.38703798611</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UAVYycq32cDcaRVIBjOA</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>shahe9072</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>13.189</v>
+        <v>43.552</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2198166666666667</v>
+        <v>0.7258666666666667</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>skkU7BOMCgwe18YOj1Sq</t>
+          <t>lNAmKLMFpZwCP1hurVrl</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10918900</v>
+        <v>10916927</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Shera" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Nail" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45958.73884938657</v>
+        <v>45959.38653391204</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>vftsO8ciFQ282Z9Iypm8</t>
+          <t>Dzg5TW0chZUbq1pGXWPo</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Hi shahe9072, I apologize for any confusion. Can you please provide me with more details about what you are looking for with "Shera"? This way, I can better assist you in finding what you need. Thank you!</t>
+          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45958.73900203704</v>
+        <v>45959.38703798611</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>cvbUscdcgqgvJE7tJNMW</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SashikaDhananjani</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>98.36199999999999</v>
+        <v>13.265</v>
       </c>
       <c r="D26" t="n">
-        <v>1.639366666666667</v>
+        <v>0.2210833333333334</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3kEu0MShZVkdzRTOq0LR</t>
+          <t>OjxJeKQtO9HbhDMMJkC0</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10918341</v>
+        <v>10916927</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dining qa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Rup" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45958.0127571875</v>
+        <v>45959.38688445602</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>lQxt2CDOTQE6ntF4p3kv</t>
+          <t>Dzg5TW0chZUbq1pGXWPo</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Hi SashikaDhananjani, I'm sorry that you couldn't find what you were looking for. It seems like there may have been a misunderstanding in your search. Can you please provide me with more details about what you are looking for in terms of dining options? I'll do my best to assist you in finding the information you need. Thank you for reaching out.</t>
+          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45958.01389563658</v>
+        <v>45959.38703798611</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>eMdDOoGdoipOPUhbGLHu</t>
+          <t>99gwU3VjcnVVEnCuvDle</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mafas7848</t>
+          <t>DinithiT</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19.913</v>
+        <v>78.821</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3318833333333334</v>
+        <v>1.313683333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>oLZl7G91PMaPtiQmecvn</t>
+          <t>8CrB2pLW9Zj3LCIQIHGO</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10915484</v>
+        <v>10916927</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Coli" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Acry" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45958.58914210648</v>
+        <v>45959.38883087963</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>40ZgXbHGjn4peH3gZcSK</t>
+          <t>FBths5LK9KShb7mg7CJv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">
+ Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45958.58937258102</v>
+        <v>45959.38974315972</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>eMdDOoGdoipOPUhbGLHu</t>
+          <t>DrZ5btOVWwmPWzCqzpHq</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>mafas7848</t>
+          <t>Isuru96</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>16.712</v>
+        <v>36.064</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2785333333333334</v>
+        <v>0.6010666666666666</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>mTuuS00Td3x7fwHaOf3Y</t>
+          <t>iuKewt52RiIA6FCQsEPf</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>10915484</v>
+        <v>10919517</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Gale" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Glampinh" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45958.58917915509</v>
+        <v>45959.56847940973</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>40ZgXbHGjn4peH3gZcSK</t>
+          <t>dbwJuBf2mc9ONdtRa6zc</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Isuru96, I apologize for the confusion. It seems like there may have been a typo in your search. Did you mean "Glamping" instead of "Glampinh"? Glamping is a popular trend in travel where you can experience the great outdoors in luxury accommodations. Let me know if you would like more information on glamping options.</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45958.58937258102</v>
+        <v>45959.56889681713</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1908,620 +1907,624 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>jfGEVpInXCgq6mUyZs8w</t>
+          <t>I3OzQcZ77TbZKhuDcERX</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Thishala66</t>
+          <t>Disaagi</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>111.287</v>
+        <v>12.047</v>
       </c>
       <c r="D29" t="n">
-        <v>1.854783333333333</v>
+        <v>0.2007833333333333</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>u0eNNRRjlNvo9sJe4oCf</t>
+          <t>eaVjJzqSrNVuvaw1jwlz</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>10918238</v>
+        <v>4243</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Itc" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Gagana" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45958.89101918982</v>
+        <v>45959.65842502315</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>g7DMvXni8ioRzpapQ7Q1</t>
+          <t>qx8LYlDa4xAzyUXNKDed</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Hi Thishala66, I'm sorry but I couldn't find any information on "Itc" in relation to travel services. Can you please provide more details so I can assist you better?</t>
+          <t xml:space="preserve">Hi
+</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45958.89230723379</v>
+        <v>45959.65856445602</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>kRM8cH9I7uPwy9bhAYKC</t>
+          <t>I3OzQcZ77TbZKhuDcERX</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RuwindaPremasiri94</t>
+          <t>Disaagi</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>90.428</v>
+        <v>37.487</v>
       </c>
       <c r="D30" t="n">
-        <v>1.507133333333333</v>
+        <v>0.6247833333333334</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Wak18glVYD6K8kvTgL85</t>
+          <t>G1H5O71p3g5j4y6A5G8p</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>10919399</v>
+        <v>4243</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffer" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Gagana" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45958.48301674768</v>
+        <v>45959.6589382176</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>pOTPf4Nl9gupKPmhunq3</t>
+          <t>0vKKkZNlcVfcXqGNZqcT</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi RuwindaPremasiri94, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about what you are looking for so I can assist you better?</t>
+          <t xml:space="preserve">Hi
+</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45958.48406336806</v>
+        <v>45959.65937209491</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mUAzvyRBYBzdb6sWzsBf</t>
+          <t>I3OzQcZ77TbZKhuDcERX</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mithma</t>
+          <t>Disaagi</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>23.576</v>
+        <v>22.352</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3929333333333334</v>
+        <v>0.3725333333333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ACk7Kxx0mxfpWvftqvP1</t>
+          <t>lVcYrkc7u6AzMo6wrn28</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>10918019</v>
+        <v>4243</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Oak ray" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Parag" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45958.72792420139</v>
+        <v>45959.6591133912</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>HU4rxra3RXFXbU1bykHx</t>
+          <t>0vKKkZNlcVfcXqGNZqcT</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Hello Mithma, I'm sorry but we don't have any information on "Oak ray" at the moment. Is there anything else I can assist you with?</t>
+          <t xml:space="preserve">Hi
+</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45958.72819707176</v>
+        <v>45959.65937209491</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>qr9DteTE6AdrD6lKyozL</t>
+          <t>I3OzQcZ77TbZKhuDcERX</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MohammedHasfaque</t>
+          <t>Disaagi</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>143.521</v>
+        <v>78.86799999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>2.392016666666666</v>
+        <v>1.314466666666667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>bvsis3gZC1FYOuevCiKm</t>
+          <t>1LEnX4nYyqnSgSqpiKel</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>10919731</v>
+        <v>4243</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Unlimited buf" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Tandem" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45958.96579215278</v>
+        <v>45959.66190913194</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>tGObwFazKhqm1OGbE3eN</t>
+          <t>j1ckNYmQIJ7uRwfTnhwK</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Hi Mohammed! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about what you mean by "Unlimited buf" so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">Hi
+</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>45958.96745327547</v>
+        <v>45959.66282195602</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>r1Kp63Se6PMrl1Spl0li</t>
+          <t>MN6FIe4aNNVr5RSP33WJ</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>vishw3403</t>
+          <t>Shamindri Weerawardane 763899843</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17.842</v>
+        <v>80.142</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2973666666666667</v>
+        <v>1.3357</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>zCo9TAwlmUyXoyMBP4NZ</t>
+          <t>27pPwAodODtoZ0lRl2id</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10915017</v>
+        <v>10919230</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ped" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45958.74294069444</v>
+        <v>45959.39499172453</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>cImqRIbHPKRFNK3L8bKA</t>
+          <t>E2CgegPXmhJihD2b7hXp</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Hi Vishw3403, I'm sorry that you couldn't find what you were looking for. Can you please provide more details about your search so I can assist you better? Thank you!</t>
+          <t>Hi Shamindri! I'm sorry to hear that you couldn't find any results for "Buffet." Could you please provide me with more details about what kind of buffet you are looking for? I'd be happy to help you find the perfect dining option for your trip. Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>45958.74314719907</v>
+        <v>45959.39591929398</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>r1Kp63Se6PMrl1Spl0li</t>
+          <t>MN6FIe4aNNVr5RSP33WJ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>vishw3403</t>
+          <t>Shamindri Weerawardane 763899843</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>14.104</v>
+        <v>41.159</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2350666666666666</v>
+        <v>0.6859833333333333</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gZHnnI6cpxjhOGWq9zaK</t>
+          <t>DDjZSGyGjNYaSd7TDxoS</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10915017</v>
+        <v>10919230</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sal" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45958.74298395833</v>
+        <v>45959.39544291667</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>cImqRIbHPKRFNK3L8bKA</t>
+          <t>E2CgegPXmhJihD2b7hXp</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Hi Vishw3403, I'm sorry that you couldn't find what you were looking for. Can you please provide more details about your search so I can assist you better? Thank you!</t>
+          <t>Hi Shamindri! I'm sorry to hear that you couldn't find any results for "Buffet." Could you please provide me with more details about what kind of buffet you are looking for? I'd be happy to help you find the perfect dining option for your trip. Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>45958.74314719907</v>
+        <v>45959.39591929398</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>wucCybgtsdoEOVRrF5QC</t>
+          <t>PGNdDfAsoTS10ld29OmI</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Azuu</t>
+          <t>Kavinda Senarathne</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>108.192</v>
+        <v>113.203</v>
       </c>
       <c r="D35" t="n">
-        <v>1.8032</v>
+        <v>1.886716666666667</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>r1S5k9A9CJBaKY2bvaYB</t>
+          <t>IxKC0E2LjB8IDSb2DcRA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>10917281</v>
+        <v>10916339</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Gotel" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Outls" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45958.49072642361</v>
+        <v>45959.97054136574</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>iCwfQ09L5Sp8fo9C2yFj</t>
+          <t>6ztOvnve7PGYLZgWq2oA</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Hi Azuu! I'm sorry, but I couldn't find any information on "Gotel." Can you please provide me with more details so I can assist you better?</t>
+          <t>Hi Kavinda! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the Outpost you are searching for so I can assist you better?</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45958.49197864583</v>
+        <v>45959.97185158565</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>wvWLuPvAruFt7KPchRI5</t>
+          <t>PGNdDfAsoTS10ld29OmI</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Msena</t>
+          <t>Kavinda Senarathne</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19.434</v>
+        <v>110.513</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3239</v>
+        <v>1.841883333333333</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gVTWjTWW8S4zfyOG3jZJ</t>
+          <t>9TNzokC1FE8wSbBLB14b</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10917664</v>
+        <v>10916339</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Awrn" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Outpost" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45958.58944471065</v>
+        <v>45959.9705725</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>WrQMRGZxWcTYxyqrHZxs</t>
+          <t>6ztOvnve7PGYLZgWq2oA</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Hi Msena, I'm sorry but it looks like the search term "Awrn" or "Aher" is not yielding any results. Can you please provide more details or specific keywords so I can assist you better? Thank you!</t>
+          <t>Hi Kavinda! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the Outpost you are searching for so I can assist you better?</t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45958.5896696412</v>
+        <v>45959.97185158565</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>wvWLuPvAruFt7KPchRI5</t>
+          <t>PGNdDfAsoTS10ld29OmI</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Msena</t>
+          <t>Kavinda Senarathne</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6.515</v>
+        <v>105.138</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1085833333333333</v>
+        <v>1.7523</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>JswRHhIdrzpJeBoEhKWb</t>
+          <t>OEQGKUZrBCp8pIwItQiw</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10917664</v>
+        <v>10916339</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Aher" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Outpost we" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45958.58959423611</v>
+        <v>45959.97063471065</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>WrQMRGZxWcTYxyqrHZxs</t>
+          <t>6ztOvnve7PGYLZgWq2oA</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Hi Msena, I'm sorry but it looks like the search term "Awrn" or "Aher" is not yielding any results. Can you please provide more details or specific keywords so I can assist you better? Thank you!</t>
+          <t>Hi Kavinda! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the Outpost you are searching for so I can assist you better?</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>45958.5896696412</v>
+        <v>45959.97185158565</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>wvWLuPvAruFt7KPchRI5</t>
+          <t>PGNdDfAsoTS10ld29OmI</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Msena</t>
+          <t>Kavinda Senarathne</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.881</v>
+        <v>82.282</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01468333333333333</v>
+        <v>1.371366666666667</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>YGvspzs3L41cUNS0LSPP</t>
+          <t>e3xsFSIUgxLbjCAjJ6Zj</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10917664</v>
+        <v>10916339</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Where" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Six w" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45958.58965944444</v>
+        <v>45959.97089924769</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>WrQMRGZxWcTYxyqrHZxs</t>
+          <t>6ztOvnve7PGYLZgWq2oA</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Hi Msena, I'm sorry but it looks like the search term "Awrn" or "Aher" is not yielding any results. Can you please provide more details or specific keywords so I can assist you better? Thank you!</t>
+          <t>Hi Kavinda! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the Outpost you are searching for so I can assist you better?</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>45958.5896696412</v>
+        <v>45959.97185158565</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>x5k1TE5kiLqFbchzkL6n</t>
+          <t>PUEcSi50wbhk7EstYcRm</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>hell</t>
+          <t>NewNEW</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>92.527</v>
+        <v>15.884</v>
       </c>
       <c r="D39" t="n">
-        <v>1.542116666666667</v>
+        <v>0.2647333333333333</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>HQKe3BIjsV5ByOJNMK9I</t>
+          <t>cntaofZVklJsJ4ZG0xwh</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>10919482</v>
+        <v>10914711</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "6rt77t7t7yg7yff6" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>G7huh</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45958.50255155093</v>
+        <v>45959.69939791667</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>6PSfaXqXuZtgSIn0O6SF</t>
+          <t>PXowJhELOrKuBHDlbnbg</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi info.8663, I apologize for the inconvenience. It seems like the search term "6rt77t7t7yg7yff6" didn't yield any results. Could you please provide me with more information or specific details about what you're looking for so that I can assist you better? Thank you.</t>
+          <t>Hello NewNEW! Thank you for reaching out to us. How can we assist you today?</t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>45958.50362246528</v>
+        <v>45959.69958175926</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>xPdXvIaVvgxcwglv08xW</t>
+          <t>WWwCWLRozwghqvBhpgv0</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>hell</t>
+          <t>KalaniBandara</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>83.68600000000001</v>
+        <v>83.254</v>
       </c>
       <c r="D40" t="n">
-        <v>1.394766666666667</v>
+        <v>1.387566666666667</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>qCgt3nL9HbNDc4HuiNmC</t>
+          <t>q1ClK60BNzPZpik2TNpf</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10919482</v>
+        <v>10914165</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Hi, I was searching for "Cinnon life" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45958.50291834491</v>
+        <v>45959.55725648148</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>kQK5QouPCpNXBzEw4BKR</t>
+          <t>68SjitxAbYRORGVqnmFz</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Hello Hell! Thank you for reaching out to us. How can I assist you today with your travel plans? Feel free to ask me any questions you may have.</t>
+          <t>Hi KalaniBandara, I'm sorry but I couldn't find any information on "Cinnon life." Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>45958.50388693287</v>
+        <v>45959.55822006945</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2532,154 +2535,156 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>xdUpuTcwhjOYixMyMDpi</t>
+          <t>X0J5mpJzgpxjRRHCD2T5</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Madava</t>
+          <t>Ramiru23</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>27.433</v>
+        <v>83.32599999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4572166666666667</v>
+        <v>1.388766666666666</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>hiUn4Sl3vStXCrmeY8E0</t>
+          <t>7sr12guaxc3arsA9A5L3</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10919722</v>
+        <v>10919193</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sofia c" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hhh" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45958.61903393519</v>
+        <v>45959.46518393519</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>SPUro09uRW5FmFPPM3cD</t>
+          <t>AI2iQArDrcGO51H0k0oV</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Hi Madava, I'm sorry but we currently do not have any results for "Sofia c." Is there any other specific destination or service you are looking for? Let me know how I can assist you further.</t>
+          <t xml:space="preserve">Hi
+</t>
         </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>45958.61935144676</v>
+        <v>45959.46614835649</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>xdUpuTcwhjOYixMyMDpi</t>
+          <t>X0J5mpJzgpxjRRHCD2T5</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Madava</t>
+          <t>Ramiru23</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>13.133</v>
+        <v>69.904</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2188833333333333</v>
+        <v>1.165066666666667</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>15SFm3prJT8TRjnnsjVc</t>
+          <t>Tco2mjGCGH3pDfOC6yJ3</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>10919722</v>
+        <v>10919193</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sofia colombo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hhdj" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45958.62076512731</v>
+        <v>45959.4653392824</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>eHsNe5ddnSodDBpJcfSN</t>
+          <t>AI2iQArDrcGO51H0k0oV</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve">You can find the Buffets that is provided at Sofia Colombo in the lifestyle category and in the Dining Sub Category.
+          <t xml:space="preserve">Hi
 </t>
         </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>45958.62091712963</v>
+        <v>45959.46614835649</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>xdUpuTcwhjOYixMyMDpi</t>
+          <t>cd0VfPfyIVeQaHXUSM1G</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Madava</t>
+          <t>sanara1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>22.942</v>
+        <v>7527.379</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3823666666666667</v>
+        <v>125.4563166666667</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>a2Ro7W0Gnb8XBdsmxn3W</t>
+          <t>ae53YMisWYgI8av4LrAE</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>10919722</v>
+        <v>10918838</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sofia colombo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Any update on the refund? Cuz it's been 18 days already. You informed me it will only take 4-7 days</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45958.62102565972</v>
+        <v>45959.6435444676</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>qLtGTQCjB8FOfWviL6SX</t>
+          <t>b0E2BV8II4kAqyris6fm</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve">You can find the Buffets that is provided at Sofia Colombo in the lifestyle category and in the Dining Sub Category.
+          <t xml:space="preserve">Hello, Thank you for reaching out to Team Aahaas. We have initiated your refund today and you will receive it to your account by Friday. We are extremely sorry for the inconvenience and the delay.
+Thank you.
 </t>
         </is>
       </c>
       <c r="K43" s="2" t="n">
-        <v>45958.62129119213</v>
+        <v>45959.73066690972</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2690,52 +2695,468 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>z771DAWTXP40opmRrThv</t>
+          <t>fr8uLc2xLI1OAJfAT3bv</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>nadeeshanip</t>
+          <t>varunak</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>314.812</v>
+        <v>75.629</v>
       </c>
       <c r="D44" t="n">
-        <v>5.246866666666667</v>
+        <v>1.260483333333333</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>H0nJRiBvXawNWqSjoSpv</t>
+          <t>Q0WO4Qz2hkVlELmy8NHl</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4750</v>
+        <v>10919204</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Winter" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45958.85006690972</v>
+        <v>45959.73393863426</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>lv5EEelrCldZzBsNQ5ly</t>
+          <t>gWTv0vumAMQL2bv6pzzp</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Hi Isnadeeshanip, I'm sorry to hear that you couldn't find any results for "Winter." Can you please provide me with more information about what you're looking for so I can better assist you? Thank you!</t>
+          <t>Hi Varunak, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K44" s="2" t="n">
-        <v>45958.85371056713</v>
+        <v>45959.73481396991</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>fr8uLc2xLI1OAJfAT3bv</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>varunak</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>63.653</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.060883333333333</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>8gpTK9rh0uu23L1y8pjh</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>10919204</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Dinner bufet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>45959.73407724537</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>gWTv0vumAMQL2bv6pzzp</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Hi Varunak, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>45959.73481396991</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>gh8fV3ttLiC7b6adHnqU</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nadeesha Silva</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>90.056</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.500933333333333</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>tJj2KzfNdcDZYuZUnKgd</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>10919735</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "High" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>45959.37941815972</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>6he7OwQ6jCIEyD6JgNXq</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Hi Nadeesha Silva, thank you for reaching out. I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. Can you please provide me with more details about what you are looking for so that I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>45959.38046047454</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Michelle Xavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>gh8fV3ttLiC7b6adHnqU</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nadeesha Silva</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>90.012</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.5002</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>JyJGHtbEdViwNNpKIiIL</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>10919735</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Highte" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>45959.37941866898</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>6he7OwQ6jCIEyD6JgNXq</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Hi Nadeesha Silva, thank you for reaching out. I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. Can you please provide me with more details about what you are looking for so that I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>45959.38046047454</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Michelle Xavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>gh8fV3ttLiC7b6adHnqU</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nadeesha Silva</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>89.002</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.483366666666667</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2YYBwyJ7lcei6qL6gOA3</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>10919735</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Hightee" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>45959.37943035879</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>6he7OwQ6jCIEyD6JgNXq</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Hi Nadeesha Silva, thank you for reaching out. I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. Can you please provide me with more details about what you are looking for so that I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>45959.38046047454</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Michelle Xavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>gh8fV3ttLiC7b6adHnqU</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nadeesha Silva</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>88.157</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.469283333333333</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>O7nLKOfqlz7UAHMlFosl</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>10919735</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "High tee" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>45959.37944013889</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>6he7OwQ6jCIEyD6JgNXq</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Hi Nadeesha Silva, thank you for reaching out. I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. Can you please provide me with more details about what you are looking for so that I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>45959.38046047454</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Michelle Xavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>pvIF4gV93uUUX3cWu5WL</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>N. K. Eshani Perera</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>118.247</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.970783333333333</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>BE0cAFUURkCaCFSiCunE</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>10915530</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Shera" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>45959.60605233796</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>vp0ghOHRiDY1o69n3PpX</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Hi N. K. Eshani Perera, thank you for reaching out. I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Shera" so that I can assist you better?</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>45959.6074209375</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Michelle Xavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>wwIexF4JBXxFf93xs3o5</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ranid2040</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>16.105</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2684166666666667</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SPta3rZU8TWAccxQHIoL</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>10919074</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Skin care" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>45959.76122796296</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>CbftK5NJQBP8azAxZtoh</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Hi ranid2040, I'm sorry but we currently do not offer any information on "Skin care." Is there anything else I can assist you with today? Feel free to ask any questions you may have.</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>45959.76141436343</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>xhsfxO0GUUkNw5dpP2iu</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>HDush</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>100.55</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.675833333333333</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>f5IZ3hQFG93Ea3NOkdFd</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>2541</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Buy" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>45959.60610552083</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>ILcmxtLGAzJxkMFF3nFr</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Hi HDush, I'm sorry for the confusion. Could you please provide me with more information about what you are looking to purchase so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>45959.60726929398</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,48 +502,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0A3dzznFyvx1HeiL5hnw</t>
+          <t>4V8gfXE2eF3OijtiFTAp</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hansindu</t>
+          <t>anushkaheshan</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.753</v>
+        <v>28.528</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2958833333333333</v>
+        <v>0.4754666666666666</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>goxG9hLmFSYH8spS3P6P</t>
+          <t>JbdtsWuXXzJF03JYJNyt</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10914545</v>
+        <v>10913491</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Chilaw" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ranweli" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45959.49292824074</v>
+        <v>45960.73354052084</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1HNpDLDKp4kFVfUZlMMB</t>
+          <t>x6B0tyGXk1DnRQRNeNGB</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hi Ishansindu! I'm sorry that you couldn't find any results for "Chilaw." Could you please provide me with more information about what you're looking for so I can assist you better? Thank you!</t>
+          <t>Hi Anushka Heshan Is there anything else I can assist you with or any other destination you're interested in? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45959.49313371528</v>
+        <v>45960.73387070602</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -554,100 +554,100 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0A3dzznFyvx1HeiL5hnw</t>
+          <t>4V8gfXE2eF3OijtiFTAp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hansindu</t>
+          <t>anushkaheshan</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>74.72</v>
+        <v>28.034</v>
       </c>
       <c r="D3" t="n">
-        <v>1.245333333333333</v>
+        <v>0.4672333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ffzKqMbje0r76ImKquzn</t>
+          <t>z7wtmFhsHMz2qcRjjwDm</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10914545</v>
+        <v>10913491</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Colo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ranwali" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45959.49338894676</v>
+        <v>45960.73354623843</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>fHBWwWJkLvWGoUMC4MpZ</t>
+          <t>x6B0tyGXk1DnRQRNeNGB</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hi Ishansindu! I'm sorry you couldn't find any results for "Colo." Let me assist you in finding what you're looking for. Please provide me with more details so I can help you better. Thank you!</t>
+          <t>Hi Anushka Heshan Is there anything else I can assist you with or any other destination you're interested in? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45959.49425376157</v>
+        <v>45960.73387070602</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2SK14s3O7z2mKeiFEjEZ</t>
+          <t>4V8gfXE2eF3OijtiFTAp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NadeethaD</t>
+          <t>anushkaheshan</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.148</v>
+        <v>23.024</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3024666666666667</v>
+        <v>0.3837333333333334</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3Wceyaz7870IrmVMyBhy</t>
+          <t>ww4Hbs0PX0srdOPZ3Zl9</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10919558</v>
+        <v>10913491</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ranw" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45959.49130163195</v>
+        <v>45960.73360422454</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Qiy3wDUafPJRqADwZMPC</t>
+          <t>x6B0tyGXk1DnRQRNeNGB</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hi Nadeetha, I'm sorry, but I couldn't find any results for "Bang" in our system. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t>Hi Anushka Heshan Is there anything else I can assist you with or any other destination you're interested in? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45959.49151167824</v>
+        <v>45960.73387070602</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -658,360 +658,360 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4mOwJyveXIwTjLS61owT</t>
+          <t>4V8gfXE2eF3OijtiFTAp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mohommed</t>
+          <t>anushkaheshan</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>88.11</v>
+        <v>22.049</v>
       </c>
       <c r="D5" t="n">
-        <v>1.4685</v>
+        <v>0.3674833333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0gLrIB2HznuEFZZAbFyN</t>
+          <t>dIQL6DSkKzjPixePtp1J</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10919736</v>
+        <v>10913491</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bon" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ranweli" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45959.39169793981</v>
+        <v>45960.73361550926</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>eKtbxNT56zCd7RSwqUjf</t>
+          <t>x6B0tyGXk1DnRQRNeNGB</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hi Mohommed, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Anushka Heshan Is there anything else I can assist you with or any other destination you're interested in? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45959.39271773148</v>
+        <v>45960.73387070602</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4mOwJyveXIwTjLS61owT</t>
+          <t>4V8gfXE2eF3OijtiFTAp</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mohommed</t>
+          <t>anushkaheshan</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>57.287</v>
+        <v>10.393</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9547833333333333</v>
+        <v>0.1732166666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FVv5yMK0nXeFpdhcXM7G</t>
+          <t>jqcYOMfZlt8C1qkihTJj</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10919736</v>
+        <v>10913491</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Benco" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ranwe" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45959.3920546875</v>
+        <v>45960.73375041666</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>eKtbxNT56zCd7RSwqUjf</t>
+          <t>x6B0tyGXk1DnRQRNeNGB</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hi Mohommed, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Anushka Heshan Is there anything else I can assist you with or any other destination you're interested in? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45959.39271773148</v>
+        <v>45960.73387070602</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4mOwJyveXIwTjLS61owT</t>
+          <t>4V8gfXE2eF3OijtiFTAp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mohommed</t>
+          <t>anushkaheshan</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17.338</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2889666666666667</v>
+        <v>0.1648166666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PMrS2CvGclMOwYX8kgxb</t>
+          <t>0ZlvHxsiQaQM0L75voCj</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10919736</v>
+        <v>10913491</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bencon" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ranw" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45959.39251706019</v>
+        <v>45960.73375625</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>eKtbxNT56zCd7RSwqUjf</t>
+          <t>x6B0tyGXk1DnRQRNeNGB</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hi Mohommed, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Anushka Heshan Is there anything else I can assist you with or any other destination you're interested in? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45959.39271773148</v>
+        <v>45960.73387070602</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8EC02OKtzzxEXFNRa9X3</t>
+          <t>4V8gfXE2eF3OijtiFTAp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sppan6195</t>
+          <t>anushkaheshan</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>94.292</v>
+        <v>1.828</v>
       </c>
       <c r="D8" t="n">
-        <v>1.571533333333333</v>
+        <v>0.03046666666666666</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gGIutQYrLwGAbNs31Mq1</t>
+          <t>e17a4dOL3NTSGJoi7sjp</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10919461</v>
+        <v>10913491</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ranwali" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45959.32990379629</v>
+        <v>45960.73384954861</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>KvluCtdvVWovqK0j9VHB</t>
+          <t>x6B0tyGXk1DnRQRNeNGB</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hi there! I apologize for the inconvenience. We currently do not have any Thai packages available, but I can certainly look into customizing a trip for you. Please let me know your preferences, and I'll do my best to create a memorable Thai experience for you. Thank you for reaching out!</t>
+          <t>Hi Anushka Heshan Is there anything else I can assist you with or any other destination you're interested in? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45959.33099513889</v>
+        <v>45960.73387070602</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>4V8gfXE2eF3OijtiFTAp</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>anushkaheshan</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>91.681</v>
+        <v>0.583</v>
       </c>
       <c r="D9" t="n">
-        <v>1.528016666666667</v>
+        <v>0.009716666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>rFAaly2ZUHEwwx6wVyWE</t>
+          <t>Wlip0imKRTX5EQvqfybz</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10916927</v>
+        <v>10913491</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Acr" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ranwa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45959.38324131945</v>
+        <v>45960.73386395833</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>zTZNoJAWMPhtkRnADGyb</t>
+          <t>x6B0tyGXk1DnRQRNeNGB</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Acr" so I can assist you better? Thank you!</t>
+          <t>Hi Anushka Heshan Is there anything else I can assist you with or any other destination you're interested in? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45959.38430244213</v>
+        <v>45960.73387070602</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>4V8gfXE2eF3OijtiFTAp</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>anushkaheshan</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>78.63</v>
+        <v>174.586</v>
       </c>
       <c r="D10" t="n">
-        <v>1.3105</v>
+        <v>2.909766666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DipQLMulVA7e9B0H7QfO</t>
+          <t>Y87PCvlpCanrg8UvRTs9</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10916927</v>
+        <v>10913491</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Acyl" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ranw" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45959.38339237269</v>
+        <v>45960.73387119213</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>zTZNoJAWMPhtkRnADGyb</t>
+          <t>2V1P85hWJ31IntiZ5wdP</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Acr" so I can assist you better? Thank you!</t>
+          <t>Hi Anushka Heshan, I'm sorry but it seems like there might have been a misunderstanding. Could you please provide me with more details about "Ranw" or "Ranwali" so I can better assist you in finding what you're looking for? Thank you!</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45959.38430244213</v>
+        <v>45960.73589186343</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>4WLzCsQfITjL1cIIe77m</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>shakila2030</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>77.479</v>
+        <v>95.36499999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>1.291316666666667</v>
+        <v>1.589416666666666</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EjO8he3f2zpKAAlAvT6m</t>
+          <t>MkJr6vWtdh8q1bymjjXN</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10916927</v>
+        <v>10919721</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Acyr" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Shera" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45959.38340569445</v>
+        <v>45960.47493903936</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>zTZNoJAWMPhtkRnADGyb</t>
+          <t>l8eQ35ChuGNoVDiw3qDd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Acr" so I can assist you better? Thank you!</t>
+          <t xml:space="preserve"> Hi Shakila2030! I apologize for any inconvenience. Could you please provide me with more details about "Shera" so I can assist you in finding what you're looking for? Thank you!</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45959.38430244213</v>
+        <v>45960.47604280092</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1022,308 +1022,308 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>5jtu2rMu10PMhexpSy72</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>gayat4778</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>72.64100000000001</v>
+        <v>88.372</v>
       </c>
       <c r="D12" t="n">
-        <v>1.210683333333333</v>
+        <v>1.472866666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>KI2V3O3MunTfCloMowte</t>
+          <t>xqcl71Wgt7OzOKHyBj6F</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10916927</v>
+        <v>6238</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Acrylic" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Colombo buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45959.38346168982</v>
+        <v>45960.64538150463</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>zTZNoJAWMPhtkRnADGyb</t>
+          <t>8xjIRZq2omIJtYhwMHWW</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Acr" so I can assist you better? Thank you!</t>
+          <t>Hi Gayat4778, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about the "Colombo buffet" you are searching for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45959.38430244213</v>
+        <v>45960.64640432871</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>5jtu2rMu10PMhexpSy72</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>gayat4778</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>65.66800000000001</v>
+        <v>84.928</v>
       </c>
       <c r="D13" t="n">
-        <v>1.094466666666667</v>
+        <v>1.415466666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sJurEHkZceA4qT60DSgb</t>
+          <t>Ml8jOPO8dfvu4P6vdke5</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10916927</v>
+        <v>6238</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Nails" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45959.38354239583</v>
+        <v>45960.64665599537</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>zTZNoJAWMPhtkRnADGyb</t>
+          <t>pLb2aZkxFXnnKgNonl9o</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Acr" so I can assist you better? Thank you!</t>
+          <t>Hi Gayat4778, I apologize for the inconvenience. Can you please provide me with more details about the type of buffet you are looking for so I can better assist you in finding what you're looking for? Thank you!</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45959.38430244213</v>
+        <v>45960.64763895833</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>BRrtRefAYXFTk4oaKpkj</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>JaniJayawardhana</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>50.587</v>
+        <v>103.633</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8431166666666667</v>
+        <v>1.727216666666667</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>B89krnMSzC5IDfHOhkzj</t>
+          <t>W7Ml6G1ssp6oQnRBXdxM</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10916927</v>
+        <v>10916291</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Acrylic nails" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hotesl" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45959.38371694445</v>
+        <v>45960.93108043981</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>zTZNoJAWMPhtkRnADGyb</t>
+          <t>ZdkViLxYInWAToUopsjS</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Acr" so I can assist you better? Thank you!</t>
+          <t>Hi JaniJayawardhana, I apologize for the confusion. It looks like there may have been a typo in your search. Did you mean to search for "Hotels"? Let me know if there is anything specific you are looking for and I'll be happy to assist you further. Thank you!</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45959.38430244213</v>
+        <v>45960.93227989583</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>DpcAcrVraUpHR7XsJkkH</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>AMILA1986</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>40.136</v>
+        <v>15.424</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6689333333333334</v>
+        <v>0.2570666666666667</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6GtCDTYBpaH8fU14KyK8</t>
+          <t>GYHCNiYBUqyna01eNNem</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10916927</v>
+        <v>10919780</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Rupe" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "K" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45959.38383790509</v>
+        <v>45960.72321152778</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>zTZNoJAWMPhtkRnADGyb</t>
+          <t>3B94uTqz9sO8GSSL0Hhh</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Acr" so I can assist you better? Thank you!</t>
+          <t>Hi Amila1986, I'm sorry to hear that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45959.38430244213</v>
+        <v>45960.7233900463</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>ExbFYZXG5NTkP1Un3vpI</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>samanalie</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35.188</v>
+        <v>21.788</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5864666666666667</v>
+        <v>0.3631333333333334</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>lJPA5mP7ks4fhKzW0vRj</t>
+          <t>sssmIDrbFRBJClnYZut6</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10916927</v>
+        <v>10913636</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Type salon" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Maru" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45959.38389517361</v>
+        <v>45960.40975837963</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>zTZNoJAWMPhtkRnADGyb</t>
+          <t>por2Lh3jyZDKZvn2zIUD</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Acr" so I can assist you better? Thank you!</t>
+          <t>Admin: Hi Samanalie, I apologize for the confusion. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45959.38430244213</v>
+        <v>45960.41001055556</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>ExbFYZXG5NTkP1Un3vpI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>samanalie</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17.72</v>
+        <v>18.75</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2953333333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>HDBe14oENgsMD1rY0vy6</t>
+          <t>LlobOKHaxI1K46HURjUc</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10916927</v>
+        <v>10913636</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Salon" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Mario" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45959.38436487268</v>
+        <v>45960.40979354166</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>CuxAp0QDV2f2XAPRv7DX</t>
+          <t>por2Lh3jyZDKZvn2zIUD</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Admin: Hi Samanalie, I apologize for the confusion. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45959.38456996528</v>
+        <v>45960.41001055556</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1334,517 +1334,517 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>ExbFYZXG5NTkP1Un3vpI</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>samanalie</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>82.292</v>
+        <v>18.215</v>
       </c>
       <c r="D18" t="n">
-        <v>1.371533333333333</v>
+        <v>0.3035833333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LMztpws2veepzolkdQPP</t>
+          <t>Lbs89t2iHbBTlBEcaVyd</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10916927</v>
+        <v>10913636</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Nails" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Mariot" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45959.38485420139</v>
+        <v>45960.4097997338</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>qnLzLVIPCqSSPtf0vc9r</t>
+          <t>por2Lh3jyZDKZvn2zIUD</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Admin: Hi Samanalie, I apologize for the confusion. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45959.38580665509</v>
+        <v>45960.41001055556</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>FNIfTtyzVytH1WVr7rBk</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>hnimn5711</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>71.405</v>
+        <v>58.057</v>
       </c>
       <c r="D19" t="n">
-        <v>1.190083333333333</v>
+        <v>0.9676166666666667</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8crZQvRxIv4bUNPQEM0L</t>
+          <t>ju3UPzW7BDjd5VSdB3uW</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10916927</v>
+        <v>10919782</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Rupe salon" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Colombo buffer" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45959.38498020834</v>
+        <v>45960.7993890625</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>qnLzLVIPCqSSPtf0vc9r</t>
+          <t>gsYdbD0Iu8Rk9dKucgKL</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi hnimn5711! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45959.38580665509</v>
+        <v>45960.80006101852</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>FNIfTtyzVytH1WVr7rBk</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>hnimn5711</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>69.861</v>
+        <v>7.878</v>
       </c>
       <c r="D20" t="n">
-        <v>1.16435</v>
+        <v>0.1313</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Vdcn1bTSwmdHuyfdjh7B</t>
+          <t>sib5OtfO7RLl6xdwQ3Oy</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10916927</v>
+        <v>10919782</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Nails" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hotel" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45959.38499807871</v>
+        <v>45960.79996983796</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>qnLzLVIPCqSSPtf0vc9r</t>
+          <t>gsYdbD0Iu8Rk9dKucgKL</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi hnimn5711! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45959.38580665509</v>
+        <v>45960.80006101852</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>Fdjvv1zm36D0zmo2LQWq</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>shehi</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>66.681</v>
+        <v>16.857</v>
       </c>
       <c r="D21" t="n">
-        <v>1.11135</v>
+        <v>0.28095</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tg1V0iiZvT8norLy5PNG</t>
+          <t>wNddZycBgiIH25NXhWTC</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10916927</v>
+        <v>10917982</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Acry" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hotel offers" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45959.38503488426</v>
+        <v>45960.78969755787</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>qnLzLVIPCqSSPtf0vc9r</t>
+          <t>EqJVIcZfVdjbaa02ClMO</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Shehi, I'm sorry you couldn't find any hotel offers on our website. Let me assist you with that. Can you please provide me with your travel dates and destination so I can help you find the best deals? Thank you!</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45959.38580665509</v>
+        <v>45960.78989266204</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>FrINIPsvlxzABvL4anmt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>kckah8340</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>57.413</v>
+        <v>12.058</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9568833333333333</v>
+        <v>0.2009666666666667</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>LhnN0W1Cw211QnTsiIGZ</t>
+          <t>gDEpAJyGerN5siZ8sYDr</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10916927</v>
+        <v>10910330</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Nails" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Araliya b" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45959.38514215278</v>
+        <v>45960.61544635417</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>qnLzLVIPCqSSPtf0vc9r</t>
+          <t>DMZpbWzuUGx3xAz7RQr5</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi kckah8340, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Araliya b" or "Araliya be" so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45959.38580665509</v>
+        <v>45960.61558591435</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>FrINIPsvlxzABvL4anmt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>kckah8340</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>87.261</v>
+        <v>4.685</v>
       </c>
       <c r="D23" t="n">
-        <v>1.45435</v>
+        <v>0.07808333333333334</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>iC9K46tr4IdpuEQ69Lsr</t>
+          <t>xjDeHOBvz1XzbDS6XjXs</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10916927</v>
+        <v>10910330</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Nails" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Araliya be" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45959.38602802083</v>
+        <v>45960.61553168981</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Dzg5TW0chZUbq1pGXWPo</t>
+          <t>DMZpbWzuUGx3xAz7RQr5</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi kckah8340, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Araliya b" or "Araliya be" so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45959.38703798611</v>
+        <v>45960.61558591435</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>FrINIPsvlxzABvL4anmt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>kckah8340</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>80.92400000000001</v>
+        <v>3.046</v>
       </c>
       <c r="D24" t="n">
-        <v>1.348733333333333</v>
+        <v>0.05076666666666666</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jn5srQYBMvlF65KcSNUw</t>
+          <t>LXVYxyxuuYaQ5Zwwj8KW</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10916927</v>
+        <v>10910330</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Extension" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Araliya beach" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45959.38610136574</v>
+        <v>45960.61555065972</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Dzg5TW0chZUbq1pGXWPo</t>
+          <t>DMZpbWzuUGx3xAz7RQr5</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi kckah8340, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Araliya b" or "Araliya be" so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45959.38703798611</v>
+        <v>45960.61558591435</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>FrINIPsvlxzABvL4anmt</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>kckah8340</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>43.552</v>
+        <v>1.207</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7258666666666667</v>
+        <v>0.02011666666666667</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>lNAmKLMFpZwCP1hurVrl</t>
+          <t>aml5hgFrPwg0gEDcwoP9</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10916927</v>
+        <v>10910330</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Nail" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Araliya beach hotel" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45959.38653391204</v>
+        <v>45960.61557194444</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Dzg5TW0chZUbq1pGXWPo</t>
+          <t>DMZpbWzuUGx3xAz7RQr5</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi kckah8340, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Araliya b" or "Araliya be" so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45959.38703798611</v>
+        <v>45960.61558591435</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>LM7RYQCfCQE7Xa5WGcVl</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>venurak7</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>13.265</v>
+        <v>102.823</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2210833333333334</v>
+        <v>1.713716666666667</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>OjxJeKQtO9HbhDMMJkC0</t>
+          <t>ndZPBDFt1j5nNNO1nnLE</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10916927</v>
+        <v>8773</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Rup" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lunch" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45959.38688445602</v>
+        <v>45960.98408578704</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Dzg5TW0chZUbq1pGXWPo</t>
+          <t>bLp0wkfaMgVtH2bJgixh</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Venurak7, I'm sorry for the inconvenience. While we don't have specific lunch options listed on our website, we can certainly help you find some great dining options at your travel destination. Please let us know where you're heading, and we'll be happy to provide some recommendations.</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45959.38703798611</v>
+        <v>45960.98527586806</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>99gwU3VjcnVVEnCuvDle</t>
+          <t>MK64yYeOz3rj0QwrdTjt</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DinithiT</t>
+          <t>rcholidayshd</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>78.821</v>
+        <v>1256.026</v>
       </c>
       <c r="D27" t="n">
-        <v>1.313683333333333</v>
+        <v>20.93376666666667</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8CrB2pLW9Zj3LCIQIHGO</t>
+          <t>ZljXlDQavqVXcZ2o98qk</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10916927</v>
+        <v>1553</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Acry" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t xml:space="preserve">Please Share Email Id </t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45959.38883087963</v>
+        <v>45960.6312215625</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>FBths5LK9KShb7mg7CJv</t>
+          <t>KPUaSuJtZvLDwNByzAXd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- Hi Dinithi! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">Is it regarding a inquiry or products in the App? If it is regards to products in the App kindly send to info@aahaas.com or else send or if its regards to a B2B inquiry send to beteam@aahaas.com
+</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45959.38974315972</v>
+        <v>45960.64575890046</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1855,676 +1855,672 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DrZ5btOVWwmPWzCqzpHq</t>
+          <t>SK32ANBYuTq7nPyoDWsG</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Isuru96</t>
+          <t>AnjaliS</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>36.064</v>
+        <v>91.297</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6010666666666666</v>
+        <v>1.521616666666667</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>iuKewt52RiIA6FCQsEPf</t>
+          <t>6H8721qoWKgVdbhtwqF1</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>10919517</v>
+        <v>10911122</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Glampinh" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinnamon lid" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45959.56847940973</v>
+        <v>45960.66515728009</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>dbwJuBf2mc9ONdtRa6zc</t>
+          <t>3tMia9BbNIRBatAxKQ6v</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Hi Isuru96, I apologize for the confusion. It seems like there may have been a typo in your search. Did you mean "Glamping" instead of "Glampinh"? Glamping is a popular trend in travel where you can experience the great outdoors in luxury accommodations. Let me know if you would like more information on glamping options.</t>
+          <t>Hi Anjali! I'm sorry that you couldn't find the "Cinnamon lid" you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45959.56889681713</v>
+        <v>45960.66621395833</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I3OzQcZ77TbZKhuDcERX</t>
+          <t>SzkklhL9otCKAzg5Filg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Disaagi</t>
+          <t>rhxhdvzzkt@privaterelay.appleid.com</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>12.047</v>
+        <v>120.057</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2007833333333333</v>
+        <v>2.00095</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>eaVjJzqSrNVuvaw1jwlz</t>
+          <t>Wb2axTH22zXQLnt9KC4B</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4243</v>
+        <v>10919723</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Gagana" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Res" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45959.65842502315</v>
+        <v>45960.21693719907</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>qx8LYlDa4xAzyUXNKDed</t>
+          <t>FJnpSZ1Hb3SWweSryGs5</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi there! I apologize for any confusion. Can you please provide more details about what you're looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45959.65856445602</v>
+        <v>45960.21832674769</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>I3OzQcZ77TbZKhuDcERX</t>
+          <t>bJbtmPDC3LSHYgQTrzx8</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Disaagi</t>
+          <t>FionaK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>37.487</v>
+        <v>15.216</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6247833333333334</v>
+        <v>0.2536</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>G1H5O71p3g5j4y6A5G8p</t>
+          <t>WuDg5lirhU1zWEdk6tDJ</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4243</v>
+        <v>10914621</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Gagana" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45959.6589382176</v>
+        <v>45960.55792751157</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0vKKkZNlcVfcXqGNZqcT</t>
+          <t>gOxf4Cvl2HwUrucRFcWx</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi FionaK, I apologize for the confusion. It seems that we may not have any listings for Hilton at the moment. Is there a specific location or type of accommodation you are looking for? I'd be happy to assist you in finding the perfect stay for your trip. Let me know how I can help!</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45959.65937209491</v>
+        <v>45960.55810362269</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>I3OzQcZ77TbZKhuDcERX</t>
+          <t>baKmRfTQuZc7oLnsic5Z</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Disaagi</t>
+          <t>Sithari</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>22.352</v>
+        <v>15.431</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3725333333333333</v>
+        <v>0.2571833333333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>lVcYrkc7u6AzMo6wrn28</t>
+          <t>yFKCfoiOtYCSWopgfOQR</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4243</v>
+        <v>7512</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Parag" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thail" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45959.6591133912</v>
+        <v>45960.70659125</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0vKKkZNlcVfcXqGNZqcT</t>
+          <t>2S2JjNtVCeXAeDgZU1Of</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi Sithari, I'm sorry that you couldn't find what you were looking for. Could you please provide me with more information about "Thail" so that I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45959.65937209491</v>
+        <v>45960.70676984954</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>I3OzQcZ77TbZKhuDcERX</t>
+          <t>baKmRfTQuZc7oLnsic5Z</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Disaagi</t>
+          <t>Sithari</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>78.86799999999999</v>
+        <v>15.129</v>
       </c>
       <c r="D32" t="n">
-        <v>1.314466666666667</v>
+        <v>0.25215</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1LEnX4nYyqnSgSqpiKel</t>
+          <t>TuMfvBQeholNMLYyhug1</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4243</v>
+        <v>7512</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Tandem" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45959.66190913194</v>
+        <v>45960.7071765162</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>j1ckNYmQIJ7uRwfTnhwK</t>
+          <t>qmckZxRJuhav8ibiveod</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Admin: Hi Sithari! I apologize for the confusion. Yes, we do offer travel packages to Thailand! Let me help you find the perfect trip to Thailand that suits your preferences. Please provide me with more details on what you're looking for in your trip. Thank you!</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>45959.66282195602</v>
+        <v>45960.70735162037</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MN6FIe4aNNVr5RSP33WJ</t>
+          <t>d65Ya0kISGbmfFcmQAPi</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Shamindri Weerawardane 763899843</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>80.142</v>
+        <v>284.453</v>
       </c>
       <c r="D33" t="n">
-        <v>1.3357</v>
+        <v>4.740883333333333</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>27pPwAodODtoZ0lRl2id</t>
+          <t>SwCbACAL8vO7gVaC8OAV</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10919230</v>
+        <v>10919785</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Internati bu" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45959.39499172453</v>
+        <v>45960.84683991898</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>E2CgegPXmhJihD2b7hXp</t>
+          <t>sIuv398cDzhocCkAlmUM</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Hi Shamindri! I'm sorry to hear that you couldn't find any results for "Buffet." Could you please provide me with more details about what kind of buffet you are looking for? I'd be happy to help you find the perfect dining option for your trip. Let me know how I can assist you further.</t>
+          <t>Hello Vanessa, I'm sorry for the confusion. It seems like there might have been a typo in your search. Can you provide me with more information about what you're looking for so I can better assist you? Thank you!</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>45959.39591929398</v>
+        <v>45960.85013219908</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MN6FIe4aNNVr5RSP33WJ</t>
+          <t>d65Ya0kISGbmfFcmQAPi</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Shamindri Weerawardane 763899843</t>
+          <t>Vanessa</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>41.159</v>
+        <v>277.742</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6859833333333333</v>
+        <v>4.629033333333334</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>DDjZSGyGjNYaSd7TDxoS</t>
+          <t>6DGuoVDBE96r4ceysPOm</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10919230</v>
+        <v>10919785</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "International buffer" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45959.39544291667</v>
+        <v>45960.84691759259</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>E2CgegPXmhJihD2b7hXp</t>
+          <t>sIuv398cDzhocCkAlmUM</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Hi Shamindri! I'm sorry to hear that you couldn't find any results for "Buffet." Could you please provide me with more details about what kind of buffet you are looking for? I'd be happy to help you find the perfect dining option for your trip. Let me know how I can assist you further.</t>
+          <t>Hello Vanessa, I'm sorry for the confusion. It seems like there might have been a typo in your search. Can you provide me with more information about what you're looking for so I can better assist you? Thank you!</t>
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>45959.39591929398</v>
+        <v>45960.85013219908</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PGNdDfAsoTS10ld29OmI</t>
+          <t>fN5yxAG6eMpdgXGjeVSu</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kavinda Senarathne</t>
+          <t>Thisaraa</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>113.203</v>
+        <v>96.69499999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>1.886716666666667</v>
+        <v>1.611583333333333</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>IxKC0E2LjB8IDSb2DcRA</t>
+          <t>j6VU5HpOzTaj6micP0c5</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>10916339</v>
+        <v>10919778</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Outls" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Me colo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45959.97054136574</v>
+        <v>45960.62746724537</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>6ztOvnve7PGYLZgWq2oA</t>
+          <t>xSHu1AlyQUWBtQTFhkoy</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Hi Kavinda! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the Outpost you are searching for so I can assist you better?</t>
+          <t>Hi Thisaraa, I'm sorry but I couldn't find any information on "Me colo" or "High te". Can you please provide more details or clarify what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45959.97185158565</v>
+        <v>45960.62858640046</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PGNdDfAsoTS10ld29OmI</t>
+          <t>fN5yxAG6eMpdgXGjeVSu</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kavinda Senarathne</t>
+          <t>Thisaraa</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>110.513</v>
+        <v>90.31</v>
       </c>
       <c r="D36" t="n">
-        <v>1.841883333333333</v>
+        <v>1.505166666666667</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>9TNzokC1FE8wSbBLB14b</t>
+          <t>grFjWoGSUhYOSQOaedwW</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10916339</v>
+        <v>10919778</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Outpost" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "High te" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45959.9705725</v>
+        <v>45960.62754114583</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>6ztOvnve7PGYLZgWq2oA</t>
+          <t>xSHu1AlyQUWBtQTFhkoy</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Hi Kavinda! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the Outpost you are searching for so I can assist you better?</t>
+          <t>Hi Thisaraa, I'm sorry but I couldn't find any information on "Me colo" or "High te". Can you please provide more details or clarify what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45959.97185158565</v>
+        <v>45960.62858640046</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PGNdDfAsoTS10ld29OmI</t>
+          <t>fN5yxAG6eMpdgXGjeVSu</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Kavinda Senarathne</t>
+          <t>Thisaraa</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>105.138</v>
+        <v>62.225</v>
       </c>
       <c r="D37" t="n">
-        <v>1.7523</v>
+        <v>1.037083333333333</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>OEQGKUZrBCp8pIwItQiw</t>
+          <t>HgfxuvA6DCL8gOOrfEv1</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10916339</v>
+        <v>10919778</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Outpost we" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "High tea" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45959.97063471065</v>
+        <v>45960.6278662037</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>6ztOvnve7PGYLZgWq2oA</t>
+          <t>xSHu1AlyQUWBtQTFhkoy</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Hi Kavinda! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the Outpost you are searching for so I can assist you better?</t>
+          <t>Hi Thisaraa, I'm sorry but I couldn't find any information on "Me colo" or "High te". Can you please provide more details or clarify what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>45959.97185158565</v>
+        <v>45960.62858640046</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PGNdDfAsoTS10ld29OmI</t>
+          <t>gI1Lft7B2xQw7jori0Ym</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Kavinda Senarathne</t>
+          <t>Sanjana</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>82.282</v>
+        <v>9.19</v>
       </c>
       <c r="D38" t="n">
-        <v>1.371366666666667</v>
+        <v>0.1531666666666666</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>e3xsFSIUgxLbjCAjJ6Zj</t>
+          <t>0P2eZUFBSSFqRHZspZr2</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10916339</v>
+        <v>6211</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Six w" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Nails" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45959.97089924769</v>
+        <v>45960.43501479167</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>6ztOvnve7PGYLZgWq2oA</t>
+          <t>txWL6BMwjGWb0CcRyL9p</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Hi Kavinda! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the Outpost you are searching for so I can assist you better?</t>
+          <t>Hi Sanjana, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>45959.97185158565</v>
+        <v>45960.43512115741</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PUEcSi50wbhk7EstYcRm</t>
+          <t>pcfUAewwLgn9D3hBMVlB</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NewNEW</t>
+          <t>Ramesh Asanka</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15.884</v>
+        <v>111.346</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2647333333333333</v>
+        <v>1.855766666666667</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cntaofZVklJsJ4ZG0xwh</t>
+          <t>gVoHCbNctJZFKWsEGQTb</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>10914711</v>
+        <v>10919776</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>G7huh</t>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45959.69939791667</v>
+        <v>45960.61772582176</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>PXowJhELOrKuBHDlbnbg</t>
+          <t>R36Ly0ozNkvEAbaBBKqr</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Hello NewNEW! Thank you for reaching out to us. How can we assist you today?</t>
+          <t>Hi Ramesh, I'm sorry that you couldn't find any information on Thailand. Let me assist you with that. Thailand is a beautiful country known for its stunning beaches, rich culture, and delicious cuisine. Whether you're looking to relax on the beaches of Phuket, explore the bustling city of Bangkok, or visit the ancient temples in Chiang Mai, Thailand has something for everyone. Let me know if you need any help planning your trip to Thailand!</t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>45959.69958175926</v>
+        <v>45960.61901454861</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>WWwCWLRozwghqvBhpgv0</t>
+          <t>pcfUAewwLgn9D3hBMVlB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>KalaniBandara</t>
+          <t>Ramesh Asanka</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>83.254</v>
+        <v>71.705</v>
       </c>
       <c r="D40" t="n">
-        <v>1.387566666666667</v>
+        <v>1.195083333333333</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>q1ClK60BNzPZpik2TNpf</t>
+          <t>IIht9ixQUhYJblS9FLK5</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10914165</v>
+        <v>10919776</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinnon life" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45959.55725648148</v>
+        <v>45960.61818462963</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>68SjitxAbYRORGVqnmFz</t>
+          <t>R36Ly0ozNkvEAbaBBKqr</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Hi KalaniBandara, I'm sorry but I couldn't find any information on "Cinnon life." Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Ramesh, I'm sorry that you couldn't find any information on Thailand. Let me assist you with that. Thailand is a beautiful country known for its stunning beaches, rich culture, and delicious cuisine. Whether you're looking to relax on the beaches of Phuket, explore the bustling city of Bangkok, or visit the ancient temples in Chiang Mai, Thailand has something for everyone. Let me know if you need any help planning your trip to Thailand!</t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>45959.55822006945</v>
+        <v>45960.61901454861</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2535,49 +2531,48 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>X0J5mpJzgpxjRRHCD2T5</t>
+          <t>pcfUAewwLgn9D3hBMVlB</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ramiru23</t>
+          <t>Ramesh Asanka</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>83.32599999999999</v>
+        <v>12.306</v>
       </c>
       <c r="D41" t="n">
-        <v>1.388766666666666</v>
+        <v>0.2051</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7sr12guaxc3arsA9A5L3</t>
+          <t>ZRnVkUEckWpjeb8SgnOQ</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10919193</v>
+        <v>10919776</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hhh" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45959.46518393519</v>
+        <v>45960.61887211806</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>AI2iQArDrcGO51H0k0oV</t>
+          <t>R36Ly0ozNkvEAbaBBKqr</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi Ramesh, I'm sorry that you couldn't find any information on Thailand. Let me assist you with that. Thailand is a beautiful country known for its stunning beaches, rich culture, and delicious cuisine. Whether you're looking to relax on the beaches of Phuket, explore the bustling city of Bangkok, or visit the ancient temples in Chiang Mai, Thailand has something for everyone. Let me know if you need any help planning your trip to Thailand!</t>
         </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>45959.46614835649</v>
+        <v>45960.61901454861</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2588,155 +2583,152 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>X0J5mpJzgpxjRRHCD2T5</t>
+          <t>quH5z7pkhheiBIILEazF</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ramiru23</t>
+          <t>Gamithu</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>69.904</v>
+        <v>94.95999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>1.165066666666667</v>
+        <v>1.582666666666667</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Tco2mjGCGH3pDfOC6yJ3</t>
+          <t>o58OVWc3fYUsyaiTzTxM</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>10919193</v>
+        <v>10919770</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hhdj" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lunch v" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45959.4653392824</v>
+        <v>45960.55704886574</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>AI2iQArDrcGO51H0k0oV</t>
+          <t>1f3rytbaXyRivTAIXLZW</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi
-</t>
+          <t>Hi Gamithu! I apologize for the inconvenience. We currently do not offer a "Lunch buffet" option, but I can certainly help you find some great dining options for your trip. Let me know if you need any recommendations or assistance with anything else!</t>
         </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>45959.46614835649</v>
+        <v>45960.55814793982</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>cd0VfPfyIVeQaHXUSM1G</t>
+          <t>quH5z7pkhheiBIILEazF</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sanara1</t>
+          <t>Gamithu</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>7527.379</v>
+        <v>91.867</v>
       </c>
       <c r="D43" t="n">
-        <v>125.4563166666667</v>
+        <v>1.531116666666667</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ae53YMisWYgI8av4LrAE</t>
+          <t>o9eAb9amkQlvvyxU7DyF</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>10918838</v>
+        <v>10919770</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Any update on the refund? Cuz it's been 18 days already. You informed me it will only take 4-7 days</t>
+          <t>Hi, I was searching for "Lunch buffet." but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45959.6435444676</v>
+        <v>45960.55708466435</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>b0E2BV8II4kAqyris6fm</t>
+          <t>1f3rytbaXyRivTAIXLZW</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello, Thank you for reaching out to Team Aahaas. We have initiated your refund today and you will receive it to your account by Friday. We are extremely sorry for the inconvenience and the delay.
-Thank you.
-</t>
+          <t>Hi Gamithu! I apologize for the inconvenience. We currently do not offer a "Lunch buffet" option, but I can certainly help you find some great dining options for your trip. Let me know if you need any recommendations or assistance with anything else!</t>
         </is>
       </c>
       <c r="K43" s="2" t="n">
-        <v>45959.73066690972</v>
+        <v>45960.55814793982</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>fr8uLc2xLI1OAJfAT3bv</t>
+          <t>sRtOup7bKx7XFWswdvfE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>varunak</t>
+          <t>ranukadilshan</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>75.629</v>
+        <v>13.301</v>
       </c>
       <c r="D44" t="n">
-        <v>1.260483333333333</v>
+        <v>0.2216833333333333</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Q0WO4Qz2hkVlELmy8NHl</t>
+          <t>qp1NPW2ybPVo4WrWfkyX</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>10919204</v>
+        <v>10918228</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Serenity" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45959.73393863426</v>
+        <v>45960.57347466435</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>gWTv0vumAMQL2bv6pzzp</t>
+          <t>5afeK0LbNMBOHGRgPUf7</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Hi Varunak, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t>Hi Ranuka Dilshan, I'm sorry but we currently don't have any results for "Serenity" in our database. Is there anything else I can help you with today?</t>
         </is>
       </c>
       <c r="K44" s="2" t="n">
-        <v>45959.73481396991</v>
+        <v>45960.57362861111</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2747,48 +2739,48 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>fr8uLc2xLI1OAJfAT3bv</t>
+          <t>vQydir5iwFFDKN236PdS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>varunak</t>
+          <t>Vijith Madushan</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>63.653</v>
+        <v>23.258</v>
       </c>
       <c r="D45" t="n">
-        <v>1.060883333333333</v>
+        <v>0.3876333333333333</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>8gpTK9rh0uu23L1y8pjh</t>
+          <t>1hKzm3NXQ1oboprY75pA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>10919204</v>
+        <v>10918068</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dinner bufet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45959.73407724537</v>
+        <v>45960.46286152778</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>gWTv0vumAMQL2bv6pzzp</t>
+          <t>IDoXjymVM2jBAUazvtU5</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Hi Varunak, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t>Hi Vijith Madushan, thank you for reaching out. Let me know if there's anything specific you're looking for and I'll be happy to assist.</t>
         </is>
       </c>
       <c r="K45" s="2" t="n">
-        <v>45959.73481396991</v>
+        <v>45960.4631307176</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2799,48 +2791,48 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>gh8fV3ttLiC7b6adHnqU</t>
+          <t>w1XVfERljvBCJ6MO2BMV</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nadeesha Silva</t>
+          <t>rcholidayshd</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>90.056</v>
+        <v>230.476</v>
       </c>
       <c r="D46" t="n">
-        <v>1.500933333333333</v>
+        <v>3.841266666666667</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>tJj2KzfNdcDZYuZUnKgd</t>
+          <t>P1V3egqg4372xeW8lZVj</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>10919735</v>
+        <v>1553</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "High" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hello,</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>45959.37941815972</v>
+        <v>45960.60574103009</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>6he7OwQ6jCIEyD6JgNXq</t>
+          <t>MFI8UG4EeB4MFcBVs6GX</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Hi Nadeesha Silva, thank you for reaching out. I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. Can you please provide me with more details about what you are looking for so that I can assist you better? Thank you.</t>
+          <t xml:space="preserve"> Hi rcholidayshd, thank you for reaching out to us. We're here to help with any questions or assistance you may need. Let us know how we can make your travel experience even better!</t>
         </is>
       </c>
       <c r="K46" s="2" t="n">
-        <v>45959.38046047454</v>
+        <v>45960.60840857639</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2851,312 +2843,261 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>gh8fV3ttLiC7b6adHnqU</t>
+          <t>xagTlJbHdnXPe9UoKJ2n</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nadeesha Silva</t>
+          <t>Imali Samaranayake</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>90.012</v>
+        <v>96.905</v>
       </c>
       <c r="D47" t="n">
-        <v>1.5002</v>
+        <v>1.615083333333333</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>JyJGHtbEdViwNNpKIiIL</t>
+          <t>YYNtbyIPi27xayzaDOUZ</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>10919735</v>
+        <v>10918282</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Highte" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Waligama" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
-        <v>45959.37941866898</v>
+        <v>45960.87071978009</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>6he7OwQ6jCIEyD6JgNXq</t>
+          <t>P7BHh2cxBVNZC8VLHzC1</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Hi Nadeesha Silva, thank you for reaching out. I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. Can you please provide me with more details about what you are looking for so that I can assist you better? Thank you.</t>
+          <t>Hi Imali! I'm sorry, but it seems like there might have been a misunderstanding. Could you please provide me with more details about what you are looking for in Waligama? I'll do my best to assist you in finding the information you need. Thank you!</t>
         </is>
       </c>
       <c r="K47" s="2" t="n">
-        <v>45959.38046047454</v>
+        <v>45960.87184136574</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>gh8fV3ttLiC7b6adHnqU</t>
+          <t>ymV1SMovKmjR5JRVHptl</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Nadeesha Silva</t>
+          <t>Jayahansi</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>89.002</v>
+        <v>106.469</v>
       </c>
       <c r="D48" t="n">
-        <v>1.483366666666667</v>
+        <v>1.774483333333333</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2YYBwyJ7lcei6qL6gOA3</t>
+          <t>6VZvPLbVDj59ibDn6VDb</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>10919735</v>
+        <v>5803</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hightee" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Manali I’m" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
-        <v>45959.37943035879</v>
+        <v>45960.04418469907</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>6he7OwQ6jCIEyD6JgNXq</t>
+          <t>xV9pcUQGYouJQWEjIdsC</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Hi Nadeesha Silva, thank you for reaching out. I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. Can you please provide me with more details about what you are looking for so that I can assist you better? Thank you.</t>
+          <t>Admin: Hi Jayahansi, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your desired destination "Manali" so we can assist you better?</t>
         </is>
       </c>
       <c r="K48" s="2" t="n">
-        <v>45959.38046047454</v>
+        <v>45960.04541697917</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>gh8fV3ttLiC7b6adHnqU</t>
+          <t>z60eAeknr4CCitefVNyf</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nadeesha Silva</t>
+          <t>Aseneth</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>88.157</v>
+        <v>89.66200000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>1.469283333333333</v>
+        <v>1.494366666666667</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>O7nLKOfqlz7UAHMlFosl</t>
+          <t>Mkna22uXlzR6gRc5ntLB</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>10919735</v>
+        <v>10913786</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "High tee" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hotels in" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45959.37944013889</v>
+        <v>45960.65903141204</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>6he7OwQ6jCIEyD6JgNXq</t>
+          <t>eJNj4YiWjLGAD85noggQ</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Hi Nadeesha Silva, thank you for reaching out. I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. Can you please provide me with more details about what you are looking for so that I can assist you better? Thank you.</t>
+          <t>Hi Aseneth! I'm sorry you're having trouble finding hotels in your search. Can you please provide me with more details such as the destination you are looking to stay in, dates of your travel, and any specific preferences you may have? I'll do my best to assist you in finding the perfect accommodation for your trip.</t>
         </is>
       </c>
       <c r="K49" s="2" t="n">
-        <v>45959.38046047454</v>
+        <v>45960.66006916667</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>pvIF4gV93uUUX3cWu5WL</t>
+          <t>z60eAeknr4CCitefVNyf</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>N. K. Eshani Perera</t>
+          <t>Aseneth</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>118.247</v>
+        <v>86.123</v>
       </c>
       <c r="D50" t="n">
-        <v>1.970783333333333</v>
+        <v>1.435383333333333</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>BE0cAFUURkCaCFSiCunE</t>
+          <t>M6k838DVor9hw6ndwmAC</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>10915530</v>
+        <v>10913786</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Shera" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hotels" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45959.60605233796</v>
+        <v>45960.66216663195</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>vp0ghOHRiDY1o69n3PpX</t>
+          <t>ca8UabckE1gizitWLmEp</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Hi N. K. Eshani Perera, thank you for reaching out. I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Shera" so that I can assist you better?</t>
+          <t xml:space="preserve">
+ Hi Aseneth! I'm sorry to hear that you're having trouble finding hotels in your search. Can you please provide me with more details so I can assist you better? Let me know where you're looking to stay, your travel dates, and any specific preferences you may have. I'm here to help!</t>
         </is>
       </c>
       <c r="K50" s="2" t="n">
-        <v>45959.6074209375</v>
+        <v>45960.66316342592</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>wwIexF4JBXxFf93xs3o5</t>
+          <t>zHGLT5Scl1DKftUFci62</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ranid2040</t>
+          <t>JanithriK</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>16.105</v>
+        <v>20.599</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2684166666666667</v>
+        <v>0.3433166666666667</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SPta3rZU8TWAccxQHIoL</t>
+          <t>IL7GCGUnV0ucHNZIeu2b</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>10919074</v>
+        <v>7039</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Skin care" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Verticle" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
-        <v>45959.76122796296</v>
+        <v>45960.69455611111</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>CbftK5NJQBP8azAxZtoh</t>
+          <t>SRvT3GqIRhy1s7wkAF1t</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Hi ranid2040, I'm sorry but we currently do not offer any information on "Skin care." Is there anything else I can assist you with today? Feel free to ask any questions you may have.</t>
+          <t>Hi JanithriK, I apologize for the confusion. It seems like there might have been a typo in your search term. Could you please provide more details on what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K51" s="2" t="n">
-        <v>45959.76141436343</v>
+        <v>45960.69479452547</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>xhsfxO0GUUkNw5dpP2iu</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>HDush</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>100.55</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1.675833333333333</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>f5IZ3hQFG93Ea3NOkdFd</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>2541</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Buy" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>45959.60610552083</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>ILcmxtLGAzJxkMFF3nFr</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Hi HDush, I'm sorry for the confusion. Could you please provide me with more information about what you are looking to purchase so I can assist you better? Thank you!</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="n">
-        <v>45959.60726929398</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,412 +502,412 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4V8gfXE2eF3OijtiFTAp</t>
+          <t>1LywCBdosoAVM643kY4V</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>anushkaheshan</t>
+          <t>Shany</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28.528</v>
+        <v>95.40300000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4754666666666666</v>
+        <v>1.59005</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>JbdtsWuXXzJF03JYJNyt</t>
+          <t>eHqSXYAj5XsHGU0Eu6pD</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10913491</v>
+        <v>10919797</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ranweli" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Rmada" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45960.73354052084</v>
+        <v>45961.85644070602</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>x6B0tyGXk1DnRQRNeNGB</t>
+          <t>AV8DMhZ1okQ62nxehuMD</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hi Anushka Heshan Is there anything else I can assist you with or any other destination you're interested in? Let me know how I can help!</t>
+          <t>Hi Shany, I'm sorry, but I couldn't find any results for "Rmada" or "Ramada h". Can you please provide me with more information or clarify what you're looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45960.73387070602</v>
+        <v>45961.85754490741</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4V8gfXE2eF3OijtiFTAp</t>
+          <t>1LywCBdosoAVM643kY4V</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>anushkaheshan</t>
+          <t>Shany</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28.034</v>
+        <v>95.169</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4672333333333333</v>
+        <v>1.58615</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>z7wtmFhsHMz2qcRjjwDm</t>
+          <t>iHHIumAhIeMnr6JHKDVZ</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10913491</v>
+        <v>10919797</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ranwali" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ramada h" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45960.73354623843</v>
+        <v>45961.85644341436</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>x6B0tyGXk1DnRQRNeNGB</t>
+          <t>AV8DMhZ1okQ62nxehuMD</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hi Anushka Heshan Is there anything else I can assist you with or any other destination you're interested in? Let me know how I can help!</t>
+          <t>Hi Shany, I'm sorry, but I couldn't find any results for "Rmada" or "Ramada h". Can you please provide me with more information or clarify what you're looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45960.73387070602</v>
+        <v>45961.85754490741</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4V8gfXE2eF3OijtiFTAp</t>
+          <t>4HvnnfuXngGgbVX3iwOB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>anushkaheshan</t>
+          <t>lathika</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23.024</v>
+        <v>115.505</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3837333333333334</v>
+        <v>1.925083333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ww4Hbs0PX0srdOPZ3Zl9</t>
+          <t>YgsSx76OkRH7EXb63Ktz</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10913491</v>
+        <v>4642</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ranw" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hotel pr" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45960.73360422454</v>
+        <v>45961.57226972222</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>x6B0tyGXk1DnRQRNeNGB</t>
+          <t>mtUjvO4lplFpZT3KrJOK</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hi Anushka Heshan Is there anything else I can assist you with or any other destination you're interested in? Let me know how I can help!</t>
+          <t>Hi, I'm here to assist you with your search for hotels. Feel free to drop me a message if you need any help or recommendations. Thank you!</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45960.73387070602</v>
+        <v>45961.57360658565</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4V8gfXE2eF3OijtiFTAp</t>
+          <t>8gHlcZzIzXRhVPm45NHd</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>anushkaheshan</t>
+          <t>ushmi3360</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.049</v>
+        <v>97.416</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3674833333333333</v>
+        <v>1.6236</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>dIQL6DSkKzjPixePtp1J</t>
+          <t>n1GJFzSW08MqNF0T9juh</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10913491</v>
+        <v>10919803</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ranweli" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sri" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45960.73361550926</v>
+        <v>45961.85371510417</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>x6B0tyGXk1DnRQRNeNGB</t>
+          <t>QdJpvpjRuMotkkzaoyp6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hi Anushka Heshan Is there anything else I can assist you with or any other destination you're interested in? Let me know how I can help!</t>
+          <t>Hi Ushmi3360, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for? I'm here to help you find what you need.</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45960.73387070602</v>
+        <v>45961.85484260417</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4V8gfXE2eF3OijtiFTAp</t>
+          <t>BOBcXzJIuDzgzlQg7d70</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>anushkaheshan</t>
+          <t>sachiniathukorala555@gmail.com</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10.393</v>
+        <v>95.874</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1732166666666667</v>
+        <v>1.5979</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>jqcYOMfZlt8C1qkihTJj</t>
+          <t>rWphEwuVHYE2NowYeRNt</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10913491</v>
+        <v>10916557</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ranwe" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Virt" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45960.73375041666</v>
+        <v>45961.06399677083</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>x6B0tyGXk1DnRQRNeNGB</t>
+          <t>fzpOhL3jDxoWYGZOciW9</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hi Anushka Heshan Is there anything else I can assist you with or any other destination you're interested in? Let me know how I can help!</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Virt" so I can help you better? Thank you!</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45960.73387070602</v>
+        <v>45961.06510642361</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4V8gfXE2eF3OijtiFTAp</t>
+          <t>FVgb6yWQExIuUGPzCeW7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>anushkaheshan</t>
+          <t>lilan1389</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9.888999999999999</v>
+        <v>97.98099999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1648166666666667</v>
+        <v>1.633016666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0ZlvHxsiQaQM0L75voCj</t>
+          <t>dUtcleYXlqWKpFNHMIUm</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10913491</v>
+        <v>10919792</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ranw" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45960.73375625</v>
+        <v>45961.10197856482</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>x6B0tyGXk1DnRQRNeNGB</t>
+          <t>qEQmsf7hrsX0uTBtAVOG</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hi Anushka Heshan Is there anything else I can assist you with or any other destination you're interested in? Let me know how I can help!</t>
+          <t>Hello lilan1389! How can I assist you today?</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45960.73387070602</v>
+        <v>45961.10311260416</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4V8gfXE2eF3OijtiFTAp</t>
+          <t>FVgb6yWQExIuUGPzCeW7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>anushkaheshan</t>
+          <t>lilan1389</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.828</v>
+        <v>64.295</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03046666666666666</v>
+        <v>1.071583333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>e17a4dOL3NTSGJoi7sjp</t>
+          <t>97bOG8nR4sq85m4qREZD</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10913491</v>
+        <v>10919792</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ranwali" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Can I book air tickets for a group to Bangkok</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45960.73384954861</v>
+        <v>45961.10236844907</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>x6B0tyGXk1DnRQRNeNGB</t>
+          <t>qEQmsf7hrsX0uTBtAVOG</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hi Anushka Heshan Is there anything else I can assist you with or any other destination you're interested in? Let me know how I can help!</t>
+          <t>Hello lilan1389! How can I assist you today?</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45960.73387070602</v>
+        <v>45961.10311260416</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4V8gfXE2eF3OijtiFTAp</t>
+          <t>HjN460zU3Ncr9dGlJq7t</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>anushkaheshan</t>
+          <t>Watered595</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.583</v>
+        <v>17.644</v>
       </c>
       <c r="D9" t="n">
-        <v>0.009716666666666667</v>
+        <v>0.2940666666666666</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Wlip0imKRTX5EQvqfybz</t>
+          <t>HklxwTAAhkpsOuohw3cN</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10913491</v>
+        <v>10916175</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ranwa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Amaru" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45960.73386395833</v>
+        <v>45961.74189775463</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>x6B0tyGXk1DnRQRNeNGB</t>
+          <t>sqakRXBvjV5uMECSSuC5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Hi Anushka Heshan Is there anything else I can assist you with or any other destination you're interested in? Let me know how I can help!</t>
+          <t>Hello Watered595, thank you for reaching out. I'm sorry that we couldn't find any results for "Amaru" or "Amari." Can you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45960.73387070602</v>
+        <v>45961.74210196759</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -918,48 +918,48 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4V8gfXE2eF3OijtiFTAp</t>
+          <t>HjN460zU3Ncr9dGlJq7t</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>anushkaheshan</t>
+          <t>Watered595</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>174.586</v>
+        <v>17.493</v>
       </c>
       <c r="D10" t="n">
-        <v>2.909766666666667</v>
+        <v>0.29155</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Y87PCvlpCanrg8UvRTs9</t>
+          <t>j9EOH7ESAkdtiEiuCZ9a</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10913491</v>
+        <v>10916175</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ranw" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Amari" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45960.73387119213</v>
+        <v>45961.74189950232</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2V1P85hWJ31IntiZ5wdP</t>
+          <t>sqakRXBvjV5uMECSSuC5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Hi Anushka Heshan, I'm sorry but it seems like there might have been a misunderstanding. Could you please provide me with more details about "Ranw" or "Ranwali" so I can better assist you in finding what you're looking for? Thank you!</t>
+          <t>Hello Watered595, thank you for reaching out. I'm sorry that we couldn't find any results for "Amaru" or "Amari." Can you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45960.73589186343</v>
+        <v>45961.74210196759</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -970,568 +970,570 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4WLzCsQfITjL1cIIe77m</t>
+          <t>KbG0TjZvbAzi6vDGmTtT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>shakila2030</t>
+          <t>athee9019</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>95.36499999999999</v>
+        <v>100.59</v>
       </c>
       <c r="D11" t="n">
-        <v>1.589416666666666</v>
+        <v>1.6765</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MkJr6vWtdh8q1bymjjXN</t>
+          <t>bJHxthZAY52MGXZu1sQt</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10919721</v>
+        <v>7646</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Shera" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Shimk" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45960.47493903936</v>
+        <v>45961.95143407407</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>l8eQ35ChuGNoVDiw3qDd</t>
+          <t>cn56EUkilGDe0YF3vHhF</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Shakila2030! I apologize for any inconvenience. Could you please provide me with more details about "Shera" so I can assist you in finding what you're looking for? Thank you!</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Shimk", "Sashim", or "Sushi" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45960.47604280092</v>
+        <v>45961.95259831018</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5jtu2rMu10PMhexpSy72</t>
+          <t>KbG0TjZvbAzi6vDGmTtT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>gayat4778</t>
+          <t>athee9019</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>88.372</v>
+        <v>95.79000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>1.472866666666667</v>
+        <v>1.5965</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>xqcl71Wgt7OzOKHyBj6F</t>
+          <t>tzjji8X9FeIyg0uHXHJY</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6238</v>
+        <v>7646</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Colombo buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sashim" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45960.64538150463</v>
+        <v>45961.95148962963</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>8xjIRZq2omIJtYhwMHWW</t>
+          <t>cn56EUkilGDe0YF3vHhF</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Hi Gayat4778, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about the "Colombo buffet" you are searching for so I can assist you better? Thank you!</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Shimk", "Sashim", or "Sushi" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45960.64640432871</v>
+        <v>45961.95259831018</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5jtu2rMu10PMhexpSy72</t>
+          <t>KbG0TjZvbAzi6vDGmTtT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>gayat4778</t>
+          <t>athee9019</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>84.928</v>
+        <v>90.464</v>
       </c>
       <c r="D13" t="n">
-        <v>1.415466666666667</v>
+        <v>1.507733333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ml8jOPO8dfvu4P6vdke5</t>
+          <t>LEkDfMkTZ9PtQOKKHUjt</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6238</v>
+        <v>7646</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sushi" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45960.64665599537</v>
+        <v>45961.95155127315</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>pLb2aZkxFXnnKgNonl9o</t>
+          <t>cn56EUkilGDe0YF3vHhF</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Hi Gayat4778, I apologize for the inconvenience. Can you please provide me with more details about the type of buffet you are looking for so I can better assist you in finding what you're looking for? Thank you!</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Shimk", "Sashim", or "Sushi" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45960.64763895833</v>
+        <v>45961.95259831018</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRrtRefAYXFTk4oaKpkj</t>
+          <t>MPNMwZmaOnqzo5vMopqy</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>JaniJayawardhana</t>
+          <t>sandanijayawardena</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>103.633</v>
+        <v>94.01900000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>1.727216666666667</v>
+        <v>1.566983333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>W7Ml6G1ssp6oQnRBXdxM</t>
+          <t>2QAAsIzpMUNlLryaCY56</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10916291</v>
+        <v>10918589</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hotesl" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lunch" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45960.93108043981</v>
+        <v>45961.04551915509</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ZdkViLxYInWAToUopsjS</t>
+          <t>TGugkFNYxyJYxbN4MCc2</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Hi JaniJayawardhana, I apologize for the confusion. It looks like there may have been a typo in your search. Did you mean to search for "Hotels"? Let me know if there is anything specific you are looking for and I'll be happy to assist you further. Thank you!</t>
+          <t>Hi Sandani Jayawardena, I apologize for any confusion. We currently do not offer specific lunch options on our platform. Is there anything else I can assist you with today?</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45960.93227989583</v>
+        <v>45961.04660733796</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DpcAcrVraUpHR7XsJkkH</t>
+          <t>MPNMwZmaOnqzo5vMopqy</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AMILA1986</t>
+          <t>sandanijayawardena</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15.424</v>
+        <v>72.43600000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2570666666666667</v>
+        <v>1.207266666666667</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GYHCNiYBUqyna01eNNem</t>
+          <t>2QV05Iqcxw5DsCe2dyBf</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10919780</v>
+        <v>10918589</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "K" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lun" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45960.72321152778</v>
+        <v>45961.04576895833</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3B94uTqz9sO8GSSL0Hhh</t>
+          <t>TGugkFNYxyJYxbN4MCc2</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Hi Amila1986, I'm sorry to hear that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Sandani Jayawardena, I apologize for any confusion. We currently do not offer specific lunch options on our platform. Is there anything else I can assist you with today?</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45960.7233900463</v>
+        <v>45961.04660733796</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ExbFYZXG5NTkP1Un3vpI</t>
+          <t>Q2Ky5Z2wz7xXjbmUkIuV</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>samanalie</t>
+          <t>chathura0525</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21.788</v>
+        <v>103.189</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3631333333333334</v>
+        <v>1.719816666666667</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sssmIDrbFRBJClnYZut6</t>
+          <t>cq8YlUJ0t6xcZOP9ImJc</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10913636</v>
+        <v>10916409</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Maru" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dim" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45960.40975837963</v>
+        <v>45961.92971365741</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>por2Lh3jyZDKZvn2zIUD</t>
+          <t>vh57dxTDahU1y4ZcEfSD</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Admin: Hi Samanalie, I apologize for the confusion. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
+          <t xml:space="preserve">
+ Hi chathura0525, I apologize for the confusion. Could you please provide more details about what you're looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45960.41001055556</v>
+        <v>45961.93090797454</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ExbFYZXG5NTkP1Un3vpI</t>
+          <t>Q2Ky5Z2wz7xXjbmUkIuV</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>samanalie</t>
+          <t>chathura0525</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>18.75</v>
+        <v>100.413</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3125</v>
+        <v>1.67355</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LlobOKHaxI1K46HURjUc</t>
+          <t>nsbF2X2tN17c3noE7AxJ</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10913636</v>
+        <v>10916409</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Mario" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dum" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45960.40979354166</v>
+        <v>45961.92974578703</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>por2Lh3jyZDKZvn2zIUD</t>
+          <t>vh57dxTDahU1y4ZcEfSD</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Admin: Hi Samanalie, I apologize for the confusion. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
+          <t xml:space="preserve">
+ Hi chathura0525, I apologize for the confusion. Could you please provide more details about what you're looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45960.41001055556</v>
+        <v>45961.93090797454</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ExbFYZXG5NTkP1Un3vpI</t>
+          <t>RrwAgyof8vJgob1hM20i</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>samanalie</t>
+          <t>Chaamlife</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18.215</v>
+        <v>92.346</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3035833333333333</v>
+        <v>1.5391</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lbs89t2iHbBTlBEcaVyd</t>
+          <t>wxg4F2MdgRsNYJeRn0U9</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10913636</v>
+        <v>10919794</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Mariot" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ta" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45960.4097997338</v>
+        <v>45961.42861559028</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>por2Lh3jyZDKZvn2zIUD</t>
+          <t>FSfJCgOnCdLKrsOGrdzK</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Admin: Hi Samanalie, I apologize for the confusion. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
+          <t>Hi Chaamlife, I apologize for the inconvenience. It seems like there may have been a misunderstanding. Could you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45960.41001055556</v>
+        <v>45961.42968440972</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FNIfTtyzVytH1WVr7rBk</t>
+          <t>RrwAgyof8vJgob1hM20i</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>hnimn5711</t>
+          <t>Chaamlife</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>58.057</v>
+        <v>90.432</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9676166666666667</v>
+        <v>1.5072</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ju3UPzW7BDjd5VSdB3uW</t>
+          <t>pSB6hyvOMtTTVkVhP8vw</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10919782</v>
+        <v>10919794</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Colombo buffer" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Colo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45960.7993890625</v>
+        <v>45961.43189443287</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>gsYdbD0Iu8Rk9dKucgKL</t>
+          <t>ZuDC7i8qk4fxan1Xp5Dp</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Hi hnimn5711! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Chaamlife, I apologize for the confusion. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you for reaching out.</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45960.80006101852</v>
+        <v>45961.43294109953</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FNIfTtyzVytH1WVr7rBk</t>
+          <t>Yu2oi2v7uKAArHjy6dBN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>hnimn5711</t>
+          <t>bag</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.878</v>
+        <v>96.755</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1313</v>
+        <v>1.612583333333333</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sib5OtfO7RLl6xdwQ3Oy</t>
+          <t>vyJn7tuhdoCL0uazUguq</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10919782</v>
+        <v>10914715</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hotel" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Uggi</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45960.79996983796</v>
+        <v>45961.4857937963</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>gsYdbD0Iu8Rk9dKucgKL</t>
+          <t>eIfndp80aw4ZZAzX0Ojv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Hi hnimn5711! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hello Bag! Thank you for reaching out to us. How can I assist you today?</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45960.80006101852</v>
+        <v>45961.48691364584</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fdjvv1zm36D0zmo2LQWq</t>
+          <t>afNMewDAW7A23tHiaUQh</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>shehi</t>
+          <t>9xphnrppvf@privaterelay.appleid.com</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16.857</v>
+        <v>15.773</v>
       </c>
       <c r="D21" t="n">
-        <v>0.28095</v>
+        <v>0.2628833333333333</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>wNddZycBgiIH25NXhWTC</t>
+          <t>UpD8wKdj7vCo27vALFb3</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10917982</v>
+        <v>10914597</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hotel offers" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Matata" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45960.78969755787</v>
+        <v>45961.7198968287</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>EqJVIcZfVdjbaa02ClMO</t>
+          <t>pQnkQdGBqs9yUiEF5xxM</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Hi Shehi, I'm sorry you couldn't find any hotel offers on our website. Let me assist you with that. Can you please provide me with your travel dates and destination so I can help you find the best deals? Thank you!</t>
+          <t>Hi there! I'm sorry, but I couldn't find any results for "Matata." Could you please provide me with more information about what you're looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45960.78989266204</v>
+        <v>45961.72007938658</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1542,48 +1544,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FrINIPsvlxzABvL4anmt</t>
+          <t>ih8sVustDXTFNvdYxZMh</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>kckah8340</t>
+          <t>Farshad11</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>12.058</v>
+        <v>28.218</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2009666666666667</v>
+        <v>0.4703</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>gDEpAJyGerN5siZ8sYDr</t>
+          <t>rCxcFPTq6obFX2Sigwgb</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10910330</v>
+        <v>10919628</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Araliya b" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sri Lanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45960.61544635417</v>
+        <v>45961.47413797454</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>DMZpbWzuUGx3xAz7RQr5</t>
+          <t>oVAGhS7dL8EBSIMkWgNy</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Hi kckah8340, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Araliya b" or "Araliya be" so I can assist you better? Thank you.</t>
+          <t>Hi Farshad11! Thank you for reaching out. I apologize for the inconvenience. Is there another destination you are interested in? Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45960.61558591435</v>
+        <v>45961.47446457176</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1594,152 +1596,152 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FrINIPsvlxzABvL4anmt</t>
+          <t>ih8sVustDXTFNvdYxZMh</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>kckah8340</t>
+          <t>Farshad11</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4.685</v>
+        <v>175.073</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07808333333333334</v>
+        <v>2.917883333333334</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>xjDeHOBvz1XzbDS6XjXs</t>
+          <t>UHfJDmIFm5cSPhmL0Dab</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10910330</v>
+        <v>10919628</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Araliya be" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sri Lanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45960.61553168981</v>
+        <v>45961.47488695602</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>DMZpbWzuUGx3xAz7RQr5</t>
+          <t>OuaIIS3pMtYauKNUiEEF</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Hi kckah8340, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Araliya b" or "Araliya be" so I can assist you better? Thank you.</t>
+          <t xml:space="preserve">Could you please specify what are you searching for in Sri Lanka? </t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45960.61558591435</v>
+        <v>45961.47691326389</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FrINIPsvlxzABvL4anmt</t>
+          <t>jjsb7pJo319XGO5RfWVM</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>kckah8340</t>
+          <t>madus8032</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3.046</v>
+        <v>99.28700000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05076666666666666</v>
+        <v>1.654783333333333</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>LXVYxyxuuYaQ5Zwwj8KW</t>
+          <t>6eFUb5JiERf0i5hAsg4D</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10910330</v>
+        <v>10919805</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Araliya beach" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dayout" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45960.61555065972</v>
+        <v>45961.99571090277</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>DMZpbWzuUGx3xAz7RQr5</t>
+          <t>C8Qapu74svTgJc9TcRa9</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Hi kckah8340, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Araliya b" or "Araliya be" so I can assist you better? Thank you.</t>
+          <t>Hi madus8032! I'm sorry, but it seems like "Dayout" is not a specific travel destination or package that we offer. Can you please provide more details or preferences so that I can help you find the perfect day out experience? Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45960.61558591435</v>
+        <v>45961.99686005787</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FrINIPsvlxzABvL4anmt</t>
+          <t>mk7UKD9KnAWCt9PlrH0q</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>kckah8340</t>
+          <t>shaun</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.207</v>
+        <v>20.632</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02011666666666667</v>
+        <v>0.3438666666666667</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>aml5hgFrPwg0gEDcwoP9</t>
+          <t>QSXwko0tqZmoUlDf6hzE</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10910330</v>
+        <v>10919799</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Araliya beach hotel" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "SC" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45960.61557194444</v>
+        <v>45961.7157153125</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>DMZpbWzuUGx3xAz7RQr5</t>
+          <t>oid35oMZ95LC6odcCBax</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Hi kckah8340, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Araliya b" or "Araliya be" so I can assist you better? Thank you.</t>
+          <t>Hi Shaun, I'm sorry you couldn't find what you were looking for. Can you please provide more information about "SC" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45960.61558591435</v>
+        <v>45961.7159541088</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1750,48 +1752,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LM7RYQCfCQE7Xa5WGcVl</t>
+          <t>uaqIPeqpwZT25QA4JAOo</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>venurak7</t>
+          <t>Sharfana773900698</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>102.823</v>
+        <v>810.106</v>
       </c>
       <c r="D26" t="n">
-        <v>1.713716666666667</v>
+        <v>13.50176666666667</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ndZPBDFt1j5nNNO1nnLE</t>
+          <t>jKW1EyGxg8AF5t1YePIJ</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>8773</v>
+        <v>10919033</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Lunch" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hair colorin" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45960.98408578704</v>
+        <v>45961.84565174769</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>bLp0wkfaMgVtH2bJgixh</t>
+          <t>ndae8rILtoR31O8n0D3K</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Hi Venurak7, I'm sorry for the inconvenience. While we don't have specific lunch options listed on our website, we can certainly help you find some great dining options at your travel destination. Please let us know where you're heading, and we'll be happy to provide some recommendations.</t>
+          <t>Hi Sharfana773900698, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about the specific hair colorin you are searching for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45960.98527586806</v>
+        <v>45961.85502797454</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1802,1302 +1804,260 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MK64yYeOz3rj0QwrdTjt</t>
+          <t>w2unVO056m5EPQvcfz10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>rcholidayshd</t>
+          <t>sabeena</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1256.026</v>
+        <v>12.289</v>
       </c>
       <c r="D27" t="n">
-        <v>20.93376666666667</v>
+        <v>0.2048166666666667</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ZljXlDQavqVXcZ2o98qk</t>
+          <t>tJs7hniw5MgbUG7Jp5Go</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1553</v>
+        <v>6580</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please Share Email Id </t>
+          <t>Hi, I was searching for "Sub" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45960.6312215625</v>
+        <v>45961.37890296296</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>KPUaSuJtZvLDwNByzAXd</t>
+          <t>2IZFmMVjom9kd8599c1b</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Is it regarding a inquiry or products in the App? If it is regards to products in the App kindly send to info@aahaas.com or else send or if its regards to a B2B inquiry send to beteam@aahaas.com
-</t>
+          <t>Hi Isabeena! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the "Sub" you are searching for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45960.64575890046</v>
+        <v>45961.37904519676</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SK32ANBYuTq7nPyoDWsG</t>
+          <t>xRVEXXAd60Q57r57woL0</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AnjaliS</t>
+          <t>sharunya</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>91.297</v>
+        <v>15.065</v>
       </c>
       <c r="D28" t="n">
-        <v>1.521616666666667</v>
+        <v>0.2510833333333333</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6H8721qoWKgVdbhtwqF1</t>
+          <t>AdU5Zst7lRECHCyoP7wL</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>10911122</v>
+        <v>7235</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinnamon lid" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "No no" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45960.66515728009</v>
+        <v>45961.73152895833</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3tMia9BbNIRBatAxKQ6v</t>
+          <t>Gk6VSFYWgWHUjUa7WN1d</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Hi Anjali! I'm sorry that you couldn't find the "Cinnamon lid" you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Sharunya, I apologize for the inconvenience. Could you please provide more information about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45960.66621395833</v>
+        <v>45961.73170332176</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SzkklhL9otCKAzg5Filg</t>
+          <t>yzbQWh41EM00cYifExXA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>rhxhdvzzkt@privaterelay.appleid.com</t>
+          <t>bf26nzkzjd@privaterelay.appleid.com</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>120.057</v>
+        <v>1940.304</v>
       </c>
       <c r="D29" t="n">
-        <v>2.00095</v>
+        <v>32.3384</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Wb2axTH22zXQLnt9KC4B</t>
+          <t>mhr23nxwwgz7qH42oc8E</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>10919723</v>
+        <v>10919802</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Res" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Colo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45960.21693719907</v>
+        <v>45961.83272092592</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>FJnpSZ1Hb3SWweSryGs5</t>
+          <t>3YyzSIDR1pyop1z6AJfA</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Hi there! I apologize for any confusion. Can you please provide more details about what you're looking for so I can assist you better? Thank you!</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you provide me with more details about your search so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45960.21832674769</v>
+        <v>45961.85517814815</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>bJbtmPDC3LSHYgQTrzx8</t>
+          <t>yzbQWh41EM00cYifExXA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FionaK</t>
+          <t>bf26nzkzjd@privaterelay.appleid.com</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15.216</v>
+        <v>1854.468</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2536</v>
+        <v>30.9078</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WuDg5lirhU1zWEdk6tDJ</t>
+          <t>TqodMFu8liR6L1UUZZrV</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>10914621</v>
+        <v>10919802</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Colombo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45960.55792751157</v>
+        <v>45961.83371439815</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>gOxf4Cvl2HwUrucRFcWx</t>
+          <t>3YyzSIDR1pyop1z6AJfA</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Hi FionaK, I apologize for the confusion. It seems that we may not have any listings for Hilton at the moment. Is there a specific location or type of accommodation you are looking for? I'd be happy to assist you in finding the perfect stay for your trip. Let me know how I can help!</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you provide me with more details about your search so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45960.55810362269</v>
+        <v>45961.85517814815</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>baKmRfTQuZc7oLnsic5Z</t>
+          <t>yzbQWh41EM00cYifExXA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sithari</t>
+          <t>bf26nzkzjd@privaterelay.appleid.com</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15.431</v>
+        <v>1766.863</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2571833333333333</v>
+        <v>29.44771666666667</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>yFKCfoiOtYCSWopgfOQR</t>
+          <t>4VLfckVVY2sAXkgSIxRX</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>7512</v>
+        <v>10919802</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thail" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Day out" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45960.70659125</v>
+        <v>45961.8347283449</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2S2JjNtVCeXAeDgZU1Of</t>
+          <t>3YyzSIDR1pyop1z6AJfA</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Hi Sithari, I'm sorry that you couldn't find what you were looking for. Could you please provide me with more information about "Thail" so that I can assist you better? Thank you!</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you provide me with more details about your search so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45960.70676984954</v>
+        <v>45961.85517814815</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>baKmRfTQuZc7oLnsic5Z</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Sithari</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>15.129</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.25215</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>TuMfvBQeholNMLYyhug1</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>7512</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>45960.7071765162</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>qmckZxRJuhav8ibiveod</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Admin: Hi Sithari! I apologize for the confusion. Yes, we do offer travel packages to Thailand! Let me help you find the perfect trip to Thailand that suits your preferences. Please provide me with more details on what you're looking for in your trip. Thank you!</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>45960.70735162037</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>d65Ya0kISGbmfFcmQAPi</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Vanessa</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>284.453</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4.740883333333333</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>SwCbACAL8vO7gVaC8OAV</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10919785</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Internati bu" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>45960.84683991898</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>sIuv398cDzhocCkAlmUM</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Hello Vanessa, I'm sorry for the confusion. It seems like there might have been a typo in your search. Can you provide me with more information about what you're looking for so I can better assist you? Thank you!</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="n">
-        <v>45960.85013219908</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>d65Ya0kISGbmfFcmQAPi</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Vanessa</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>277.742</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4.629033333333334</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>6DGuoVDBE96r4ceysPOm</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10919785</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "International buffer" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>45960.84691759259</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>sIuv398cDzhocCkAlmUM</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Hello Vanessa, I'm sorry for the confusion. It seems like there might have been a typo in your search. Can you provide me with more information about what you're looking for so I can better assist you? Thank you!</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="n">
-        <v>45960.85013219908</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>fN5yxAG6eMpdgXGjeVSu</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Thisaraa</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>96.69499999999999</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1.611583333333333</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>j6VU5HpOzTaj6micP0c5</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>10919778</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Me colo" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>45960.62746724537</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>xSHu1AlyQUWBtQTFhkoy</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Hi Thisaraa, I'm sorry but I couldn't find any information on "Me colo" or "High te". Can you please provide more details or clarify what you are looking for so I can assist you better? Thank you.</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="n">
-        <v>45960.62858640046</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>fN5yxAG6eMpdgXGjeVSu</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Thisaraa</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>90.31</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1.505166666666667</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>grFjWoGSUhYOSQOaedwW</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10919778</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "High te" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>45960.62754114583</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>xSHu1AlyQUWBtQTFhkoy</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Hi Thisaraa, I'm sorry but I couldn't find any information on "Me colo" or "High te". Can you please provide more details or clarify what you are looking for so I can assist you better? Thank you.</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="n">
-        <v>45960.62858640046</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>fN5yxAG6eMpdgXGjeVSu</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Thisaraa</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>62.225</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1.037083333333333</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>HgfxuvA6DCL8gOOrfEv1</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>10919778</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "High tea" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>45960.6278662037</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>xSHu1AlyQUWBtQTFhkoy</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Hi Thisaraa, I'm sorry but I couldn't find any information on "Me colo" or "High te". Can you please provide more details or clarify what you are looking for so I can assist you better? Thank you.</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="n">
-        <v>45960.62858640046</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>gI1Lft7B2xQw7jori0Ym</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Sanjana</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.1531666666666666</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0P2eZUFBSSFqRHZspZr2</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>6211</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Nails" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>45960.43501479167</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>txWL6BMwjGWb0CcRyL9p</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Hi Sanjana, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better?</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="n">
-        <v>45960.43512115741</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>pcfUAewwLgn9D3hBMVlB</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Ramesh Asanka</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>111.346</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1.855766666666667</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>gVoHCbNctJZFKWsEGQTb</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>10919776</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>45960.61772582176</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>R36Ly0ozNkvEAbaBBKqr</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Hi Ramesh, I'm sorry that you couldn't find any information on Thailand. Let me assist you with that. Thailand is a beautiful country known for its stunning beaches, rich culture, and delicious cuisine. Whether you're looking to relax on the beaches of Phuket, explore the bustling city of Bangkok, or visit the ancient temples in Chiang Mai, Thailand has something for everyone. Let me know if you need any help planning your trip to Thailand!</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="n">
-        <v>45960.61901454861</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>pcfUAewwLgn9D3hBMVlB</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Ramesh Asanka</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>71.705</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1.195083333333333</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>IIht9ixQUhYJblS9FLK5</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>10919776</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>45960.61818462963</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>R36Ly0ozNkvEAbaBBKqr</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Hi Ramesh, I'm sorry that you couldn't find any information on Thailand. Let me assist you with that. Thailand is a beautiful country known for its stunning beaches, rich culture, and delicious cuisine. Whether you're looking to relax on the beaches of Phuket, explore the bustling city of Bangkok, or visit the ancient temples in Chiang Mai, Thailand has something for everyone. Let me know if you need any help planning your trip to Thailand!</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="n">
-        <v>45960.61901454861</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>pcfUAewwLgn9D3hBMVlB</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Ramesh Asanka</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>12.306</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.2051</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ZRnVkUEckWpjeb8SgnOQ</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>10919776</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>45960.61887211806</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>R36Ly0ozNkvEAbaBBKqr</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Hi Ramesh, I'm sorry that you couldn't find any information on Thailand. Let me assist you with that. Thailand is a beautiful country known for its stunning beaches, rich culture, and delicious cuisine. Whether you're looking to relax on the beaches of Phuket, explore the bustling city of Bangkok, or visit the ancient temples in Chiang Mai, Thailand has something for everyone. Let me know if you need any help planning your trip to Thailand!</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="n">
-        <v>45960.61901454861</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>quH5z7pkhheiBIILEazF</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Gamithu</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>94.95999999999999</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1.582666666666667</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>o58OVWc3fYUsyaiTzTxM</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>10919770</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Lunch v" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>45960.55704886574</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1f3rytbaXyRivTAIXLZW</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Hi Gamithu! I apologize for the inconvenience. We currently do not offer a "Lunch buffet" option, but I can certainly help you find some great dining options for your trip. Let me know if you need any recommendations or assistance with anything else!</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="n">
-        <v>45960.55814793982</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Michelle Xavier</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>quH5z7pkhheiBIILEazF</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Gamithu</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>91.867</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1.531116666666667</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>o9eAb9amkQlvvyxU7DyF</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>10919770</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Lunch buffet." but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>45960.55708466435</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1f3rytbaXyRivTAIXLZW</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Hi Gamithu! I apologize for the inconvenience. We currently do not offer a "Lunch buffet" option, but I can certainly help you find some great dining options for your trip. Let me know if you need any recommendations or assistance with anything else!</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="n">
-        <v>45960.55814793982</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Michelle Xavier</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>sRtOup7bKx7XFWswdvfE</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ranukadilshan</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>13.301</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.2216833333333333</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>qp1NPW2ybPVo4WrWfkyX</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>10918228</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Serenity" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>45960.57347466435</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>5afeK0LbNMBOHGRgPUf7</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Hi Ranuka Dilshan, I'm sorry but we currently don't have any results for "Serenity" in our database. Is there anything else I can help you with today?</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="n">
-        <v>45960.57362861111</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>vQydir5iwFFDKN236PdS</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Vijith Madushan</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>23.258</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.3876333333333333</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1hKzm3NXQ1oboprY75pA</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>10918068</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>45960.46286152778</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>IDoXjymVM2jBAUazvtU5</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Hi Vijith Madushan, thank you for reaching out. Let me know if there's anything specific you're looking for and I'll be happy to assist.</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="n">
-        <v>45960.4631307176</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>w1XVfERljvBCJ6MO2BMV</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>rcholidayshd</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>230.476</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.841266666666667</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>P1V3egqg4372xeW8lZVj</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>1553</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Hello,</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>45960.60574103009</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>MFI8UG4EeB4MFcBVs6GX</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Hi rcholidayshd, thank you for reaching out to us. We're here to help with any questions or assistance you may need. Let us know how we can make your travel experience even better!</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="n">
-        <v>45960.60840857639</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Michelle Xavier</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>xagTlJbHdnXPe9UoKJ2n</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Imali Samaranayake</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>96.905</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.615083333333333</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>YYNtbyIPi27xayzaDOUZ</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>10918282</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Waligama" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>45960.87071978009</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>P7BHh2cxBVNZC8VLHzC1</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Hi Imali! I'm sorry, but it seems like there might have been a misunderstanding. Could you please provide me with more details about what you are looking for in Waligama? I'll do my best to assist you in finding the information you need. Thank you!</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="n">
-        <v>45960.87184136574</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
           <t>shahil</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ymV1SMovKmjR5JRVHptl</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Jayahansi</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>106.469</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1.774483333333333</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>6VZvPLbVDj59ibDn6VDb</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>5803</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Manali I’m" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>45960.04418469907</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>xV9pcUQGYouJQWEjIdsC</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Admin: Hi Jayahansi, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your desired destination "Manali" so we can assist you better?</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="n">
-        <v>45960.04541697917</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>shamraz</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>z60eAeknr4CCitefVNyf</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Aseneth</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>89.66200000000001</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1.494366666666667</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Mkna22uXlzR6gRc5ntLB</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>10913786</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Hotels in" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>45960.65903141204</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>eJNj4YiWjLGAD85noggQ</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Hi Aseneth! I'm sorry you're having trouble finding hotels in your search. Can you please provide me with more details such as the destination you are looking to stay in, dates of your travel, and any specific preferences you may have? I'll do my best to assist you in finding the perfect accommodation for your trip.</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="n">
-        <v>45960.66006916667</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>z60eAeknr4CCitefVNyf</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Aseneth</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>86.123</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1.435383333333333</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>M6k838DVor9hw6ndwmAC</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>10913786</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Hotels" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>45960.66216663195</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>ca8UabckE1gizitWLmEp</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- Hi Aseneth! I'm sorry to hear that you're having trouble finding hotels in your search. Can you please provide me with more details so I can assist you better? Let me know where you're looking to stay, your travel dates, and any specific preferences you may have. I'm here to help!</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="n">
-        <v>45960.66316342592</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>zHGLT5Scl1DKftUFci62</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>JanithriK</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>20.599</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.3433166666666667</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>IL7GCGUnV0ucHNZIeu2b</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>7039</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Verticle" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>45960.69455611111</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>SRvT3GqIRhy1s7wkAF1t</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Hi JanithriK, I apologize for the confusion. It seems like there might have been a typo in your search term. Could you please provide more details on what you are looking for so I can assist you better? Thank you.</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="n">
-        <v>45960.69479452547</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Alesha.H</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,204 +502,205 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1LywCBdosoAVM643kY4V</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Shany</t>
-        </is>
-      </c>
+          <t>3KXWCh0XkbYeDdW7sFD0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>95.40300000000001</v>
+        <v>123.409</v>
       </c>
       <c r="D2" t="n">
-        <v>1.59005</v>
+        <v>2.056816666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>eHqSXYAj5XsHGU0Eu6pD</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10919797</v>
+          <t>oZos3KbvQN2m7XgtKJxE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>AHS_Guest</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Rmada" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, 
+Can you explain the packages.Thank you</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45961.85644070602</v>
+        <v>45963.35720246527</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>AV8DMhZ1okQ62nxehuMD</t>
+          <t>q6GDs2hvi7O7Z2CkzZh3</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hi Shany, I'm sorry, but I couldn't find any results for "Rmada" or "Ramada h". Can you please provide me with more information or clarify what you're looking for so I can assist you better? Thank you.</t>
+          <t xml:space="preserve">Hello! Sure, Thank you for reaching out to Aahaas
+</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45961.85754490741</v>
+        <v>45963.35863081019</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1LywCBdosoAVM643kY4V</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Shany</t>
-        </is>
-      </c>
+          <t>3KXWCh0XkbYeDdW7sFD0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>95.169</v>
+        <v>1787.994</v>
       </c>
       <c r="D3" t="n">
-        <v>1.58615</v>
+        <v>29.7999</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>iHHIumAhIeMnr6JHKDVZ</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10919797</v>
+          <t>UPIjdhIx7eRN0DC3I9qU</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>AHS_Guest</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ramada h" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Thanks for the information.i want to know there two packages rate shown.can you explain it.</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45961.85644341436</v>
+        <v>45963.80989407407</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>AV8DMhZ1okQ62nxehuMD</t>
+          <t>43Mfasi9k1vNg8IvoQA7</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hi Shany, I'm sorry, but I couldn't find any results for "Rmada" or "Ramada h". Can you please provide me with more information or clarify what you're looking for so I can assist you better? Thank you.</t>
+          <t xml:space="preserve">can you kindly let us know what are two package names is shown
+</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45961.85754490741</v>
+        <v>45963.83058844908</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4HvnnfuXngGgbVX3iwOB</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>lathika</t>
-        </is>
-      </c>
+          <t>3KXWCh0XkbYeDdW7sFD0</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>115.505</v>
+        <v>1578.638</v>
       </c>
       <c r="D4" t="n">
-        <v>1.925083333333333</v>
+        <v>26.31063333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>YgsSx76OkRH7EXb63Ktz</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4642</v>
+          <t>5LCJ3RpAmCj4aBQlnCSx</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>AHS_Guest</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hotel pr" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, first package rate is 4815 , and second one package rate is 5077.what is the different for this two amount</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45961.57226972222</v>
+        <v>45963.83567255787</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>mtUjvO4lplFpZT3KrJOK</t>
+          <t>BoCnC8657FwAtjwjnDCB</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hi, I'm here to assist you with your search for hotels. Feel free to drop me a message if you need any help or recommendations. Thank you!</t>
+          <t xml:space="preserve">yres sir it will show two names to the packages what are the names
+</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45961.57360658565</v>
+        <v>45963.85394383102</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8gHlcZzIzXRhVPm45NHd</t>
+          <t>54fATAocjMzkyWM6Yity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ushmi3360</t>
+          <t>Sakunthala</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>97.416</v>
+        <v>121.475</v>
       </c>
       <c r="D5" t="n">
-        <v>1.6236</v>
+        <v>2.024583333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>n1GJFzSW08MqNF0T9juh</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10919803</v>
+          <t>Z5uPSvPo3Px1ONYSgTcY</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10917260</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sri" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Airt" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45961.85371510417</v>
+        <v>45963.1121025</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>QdJpvpjRuMotkkzaoyp6</t>
+          <t>JuLUnGZ0orubXpsE3Q4m</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hi Ushmi3360, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for? I'm here to help you find what you need.</t>
+          <t xml:space="preserve">
+Hi Sakunthala! I'm sorry, but I couldn't find any results for "Airt." Can you please provide me with more details so I can help you find what you're looking for? Thank you!</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45961.85484260417</v>
+        <v>45963.11350846065</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -710,48 +711,51 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BOBcXzJIuDzgzlQg7d70</t>
+          <t>54fATAocjMzkyWM6Yity</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sachiniathukorala555@gmail.com</t>
+          <t>Sakunthala</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>95.874</v>
+        <v>104.68</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5979</v>
+        <v>1.744666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>rWphEwuVHYE2NowYeRNt</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10916557</v>
+          <t>yDcsfPWoTHxYKAXbX8wO</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10917260</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Virt" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Travr" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45961.06399677083</v>
+        <v>45963.11229688657</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>fzpOhL3jDxoWYGZOciW9</t>
+          <t>JuLUnGZ0orubXpsE3Q4m</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Virt" so I can help you better? Thank you!</t>
+          <t xml:space="preserve">
+Hi Sakunthala! I'm sorry, but I couldn't find any results for "Airt." Can you please provide me with more details so I can help you find what you're looking for? Thank you!</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45961.06510642361</v>
+        <v>45963.11350846065</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -762,1038 +766,1077 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FVgb6yWQExIuUGPzCeW7</t>
+          <t>6k0rKQp2yBOeddLWCgiO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>lilan1389</t>
+          <t>Kalindu99</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>97.98099999999999</v>
+        <v>4824.778</v>
       </c>
       <c r="D7" t="n">
-        <v>1.633016666666667</v>
+        <v>80.41296666666668</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>dUtcleYXlqWKpFNHMIUm</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10919792</v>
+          <t>EkHdF20Rx9lh3KQ1LXJU</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10919832</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>Hi, I was searching for "Marin" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45961.10197856482</v>
+        <v>45963.51948024306</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>qEQmsf7hrsX0uTBtAVOG</t>
+          <t>2DTtJgYgO3a4NiS2F2kH</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hello lilan1389! How can I assist you today?</t>
+          <t>Hi Kalindu99, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Marin" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45961.10311260416</v>
+        <v>45963.57532258102</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FVgb6yWQExIuUGPzCeW7</t>
+          <t>8gX0WP7zCUsz7wlmeiqc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>lilan1389</t>
+          <t>achintha</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>64.295</v>
+        <v>102.521</v>
       </c>
       <c r="D8" t="n">
-        <v>1.071583333333333</v>
+        <v>1.708683333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>97bOG8nR4sq85m4qREZD</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10919792</v>
+          <t>GK4FmJzSAVnwDJK8utMl</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10918193</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Can I book air tickets for a group to Bangkok</t>
+          <t>Hi, I was searching for "Bufff" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45961.10236844907</v>
+        <v>45963.289268125</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>qEQmsf7hrsX0uTBtAVOG</t>
+          <t>mWwgOpckLq19Epm1eiot</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hello lilan1389! How can I assist you today?</t>
+          <t xml:space="preserve">
+Hi Sachintha! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Bufff" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45961.10311260416</v>
+        <v>45963.29045471064</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HjN460zU3Ncr9dGlJq7t</t>
+          <t>AF6EMDSibqZAOs9x3fbe</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Watered595</t>
+          <t>ChamiRodrigo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17.644</v>
+        <v>110.721</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2940666666666666</v>
+        <v>1.84535</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>HklxwTAAhkpsOuohw3cN</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10916175</v>
+          <t>zfQmrtz8a5S0gawF0YdA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10919833</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Amaru" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45961.74189775463</v>
+        <v>45963.78530717592</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sqakRXBvjV5uMECSSuC5</t>
+          <t>UXkZqmmMZPGidmbPyvks</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Hello Watered595, thank you for reaching out. I'm sorry that we couldn't find any results for "Amaru" or "Amari." Can you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
+          <t>Hi ChamiRodrigo, I apologize for the inconvenience. It seems like there may have been an error in our search results. Let me double-check and see if I can find some options for you in Bangkok. Thank you for bringing this to our attention.</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45961.74210196759</v>
+        <v>45963.78658866898</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HjN460zU3Ncr9dGlJq7t</t>
+          <t>AlA7BajMwIosiroMx34H</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Watered595</t>
+          <t>sehan9984</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17.493</v>
+        <v>100.165</v>
       </c>
       <c r="D10" t="n">
-        <v>0.29155</v>
+        <v>1.669416666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>j9EOH7ESAkdtiEiuCZ9a</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10916175</v>
+          <t>4dSItQBnpIefPxNCP7Si</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10918458</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Amari" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinner buffe" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45961.74189950232</v>
+        <v>45963.92497547454</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sqakRXBvjV5uMECSSuC5</t>
+          <t>817rnSQYKLBbM46Qwryu</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Hello Watered595, thank you for reaching out. I'm sorry that we couldn't find any results for "Amaru" or "Amari." Can you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
+          <t>Hi Sehan9984, I'm sorry that you couldn't find what you were looking for. We currently do not offer any dinner buffets, but we would be happy to help you find other dining options or activities for your trip. Let us know if there's anything else we can assist you with!</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45961.74210196759</v>
+        <v>45963.92613479167</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KbG0TjZvbAzi6vDGmTtT</t>
+          <t>AxDEWFfOR22lA8veabz8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>athee9019</t>
+          <t>oshadi11</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>100.59</v>
+        <v>151.177</v>
       </c>
       <c r="D11" t="n">
-        <v>1.6765</v>
+        <v>2.519616666666666</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>bJHxthZAY52MGXZu1sQt</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7646</v>
+          <t>rL2tyvPDubkPEnTj7pga</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10918008</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Shimk" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Mala" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45961.95143407407</v>
+        <v>45963.43993726852</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>cn56EUkilGDe0YF3vHhF</t>
+          <t>0FU5C6qrbcZAoTIaji2h</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Shimk", "Sashim", or "Sushi" so I can assist you better? Thank you!</t>
+          <t>Hi Ishadi11, I apologize for the inconvenience. It seems like there may have been a typo in your search. Can you please provide me with more information about what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45961.95259831018</v>
+        <v>45963.44168700231</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KbG0TjZvbAzi6vDGmTtT</t>
+          <t>AxDEWFfOR22lA8veabz8</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>athee9019</t>
+          <t>oshadi11</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>95.79000000000001</v>
+        <v>147.857</v>
       </c>
       <c r="D12" t="n">
-        <v>1.5965</v>
+        <v>2.464283333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>tzjji8X9FeIyg0uHXHJY</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7646</v>
+          <t>5LAx9Cl5s4m0jPWDOJr3</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10918008</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sashim" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Maleysua" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45961.95148962963</v>
+        <v>45963.43997569445</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>cn56EUkilGDe0YF3vHhF</t>
+          <t>0FU5C6qrbcZAoTIaji2h</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Shimk", "Sashim", or "Sushi" so I can assist you better? Thank you!</t>
+          <t>Hi Ishadi11, I apologize for the inconvenience. It seems like there may have been a typo in your search. Can you please provide me with more information about what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45961.95259831018</v>
+        <v>45963.44168700231</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KbG0TjZvbAzi6vDGmTtT</t>
+          <t>ED1gPM9gMYFxXzIugl59</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>athee9019</t>
+          <t>Yaseen Issadeen</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>90.464</v>
+        <v>112.287</v>
       </c>
       <c r="D13" t="n">
-        <v>1.507733333333333</v>
+        <v>1.87145</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>LEkDfMkTZ9PtQOKKHUjt</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7646</v>
+          <t>W9nKpoiksAmHjga7EAXr</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10918453</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sushi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Go ca" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45961.95155127315</v>
+        <v>45963.62596645833</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>cn56EUkilGDe0YF3vHhF</t>
+          <t>hcWy0bLlQ287L4Jw9E2E</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Shimk", "Sashim", or "Sushi" so I can assist you better? Thank you!</t>
+          <t>Hi Yaseen! I apologize for the inconvenience. It seems like there may have been a typo in your search. Can you provide more details about what you're looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45961.95259831018</v>
+        <v>45963.62726607639</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MPNMwZmaOnqzo5vMopqy</t>
+          <t>ED1gPM9gMYFxXzIugl59</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sandanijayawardena</t>
+          <t>Yaseen Issadeen</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>94.01900000000001</v>
+        <v>104.62</v>
       </c>
       <c r="D14" t="n">
-        <v>1.566983333333333</v>
+        <v>1.743666666666667</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2QAAsIzpMUNlLryaCY56</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10918589</v>
+          <t>RUETbkOFClX1W4jttzuj</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10918453</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Lunch" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kart f" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45961.04551915509</v>
+        <v>45963.62605519676</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TGugkFNYxyJYxbN4MCc2</t>
+          <t>hcWy0bLlQ287L4Jw9E2E</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Hi Sandani Jayawardena, I apologize for any confusion. We currently do not offer specific lunch options on our platform. Is there anything else I can assist you with today?</t>
+          <t>Hi Yaseen! I apologize for the inconvenience. It seems like there may have been a typo in your search. Can you provide more details about what you're looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45961.04660733796</v>
+        <v>45963.62726607639</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MPNMwZmaOnqzo5vMopqy</t>
+          <t>Gg18sBVcECsqflji4soz</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sandanijayawardena</t>
+          <t>Sandali  Attanayake</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>72.43600000000001</v>
+        <v>97.17400000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>1.207266666666667</v>
+        <v>1.619566666666667</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2QV05Iqcxw5DsCe2dyBf</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10918589</v>
+          <t>34LRA5vgWD7bUEW9X6He</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10914753</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Lun" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Phuke" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45961.04576895833</v>
+        <v>45963.57694582176</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>TGugkFNYxyJYxbN4MCc2</t>
+          <t>2tDlfdYLYnOvePxY523J</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Hi Sandani Jayawardena, I apologize for any confusion. We currently do not offer specific lunch options on our platform. Is there anything else I can assist you with today?</t>
+          <t>Hi Sandali, I'm sorry but I couldn't find any information on "Phuke." Could you please provide me with more details about what you're looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45961.04660733796</v>
+        <v>45963.57807052083</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q2Ky5Z2wz7xXjbmUkIuV</t>
+          <t>Gg18sBVcECsqflji4soz</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>chathura0525</t>
+          <t>Sandali  Attanayake</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>103.189</v>
+        <v>114.036</v>
       </c>
       <c r="D16" t="n">
-        <v>1.719816666666667</v>
+        <v>1.9006</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>cq8YlUJ0t6xcZOP9ImJc</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10916409</v>
+          <t>NIClE4MljvxmR8scBYRb</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10914753</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dim" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thaila" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45961.92971365741</v>
+        <v>45963.58261113426</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>vh57dxTDahU1y4ZcEfSD</t>
+          <t>qV7HZsNY7JSABhkfTav4</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- Hi chathura0525, I apologize for the confusion. Could you please provide more details about what you're looking for so I can assist you better? Thank you.</t>
+          <t>Admin: Hi Sandali, I'm sorry but I couldn't find any information on "Thaila." Could you please provide me with more details about what you're looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45961.93090797454</v>
+        <v>45963.58393099537</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q2Ky5Z2wz7xXjbmUkIuV</t>
+          <t>Gg18sBVcECsqflji4soz</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>chathura0525</t>
+          <t>Sandali  Attanayake</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>100.413</v>
+        <v>100.044</v>
       </c>
       <c r="D17" t="n">
-        <v>1.67355</v>
+        <v>1.6674</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>nsbF2X2tN17c3noE7AxJ</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10916409</v>
+          <t>k2zdcWfw9BBjbQOPYSyA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10914753</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dum" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45961.92974578703</v>
+        <v>45963.58409787037</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>vh57dxTDahU1y4ZcEfSD</t>
+          <t>ILCVONN89ADVkDKDQjc9</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- Hi chathura0525, I apologize for the confusion. Could you please provide more details about what you're looking for so I can assist you better? Thank you.</t>
+          <t>Hi Sandali, I'm sorry you weren't able to find the information you were looking for on Thailand. Could you please provide me with more details on what specifically you are interested in so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45961.93090797454</v>
+        <v>45963.58525578704</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RrwAgyof8vJgob1hM20i</t>
+          <t>HzRECoiKBBCJR2DE3MKY</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chaamlife</t>
+          <t>aaqilah</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>92.346</v>
+        <v>122.863</v>
       </c>
       <c r="D18" t="n">
-        <v>1.5391</v>
+        <v>2.047716666666667</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>wxg4F2MdgRsNYJeRn0U9</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10919794</v>
+          <t>p7YrS44icCsOL7ioGwBJ</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10919837</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ta" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dam" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45961.42861559028</v>
+        <v>45963.68518059028</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>FSfJCgOnCdLKrsOGrdzK</t>
+          <t>TzOwt1iQASPdVYcaanVG</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Hi Chaamlife, I apologize for the inconvenience. It seems like there may have been a misunderstanding. Could you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
+          <t>Hi Isaqilah, I apologize for the inconvenience. It seems like you are looking for information on Dambulla and Sigiriya. These are both popular tourist destinations in Sri Lanka known for their historical and cultural significance. I can provide you with more details if you'd like. Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45961.42968440972</v>
+        <v>45963.68660261574</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RrwAgyof8vJgob1hM20i</t>
+          <t>HzRECoiKBBCJR2DE3MKY</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chaamlife</t>
+          <t>aaqilah</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>90.432</v>
+        <v>119.856</v>
       </c>
       <c r="D19" t="n">
-        <v>1.5072</v>
+        <v>1.9976</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>pSB6hyvOMtTTVkVhP8vw</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10919794</v>
+          <t>XtIcIedfTMMsjsiPSjFA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10919837</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Colo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dambulla si" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45961.43189443287</v>
+        <v>45963.68521539352</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ZuDC7i8qk4fxan1Xp5Dp</t>
+          <t>TzOwt1iQASPdVYcaanVG</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Hi Chaamlife, I apologize for the confusion. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you for reaching out.</t>
+          <t>Hi Isaqilah, I apologize for the inconvenience. It seems like you are looking for information on Dambulla and Sigiriya. These are both popular tourist destinations in Sri Lanka known for their historical and cultural significance. I can provide you with more details if you'd like. Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45961.43294109953</v>
+        <v>45963.68660261574</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Yu2oi2v7uKAArHjy6dBN</t>
+          <t>HzRECoiKBBCJR2DE3MKY</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bag</t>
+          <t>aaqilah</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>96.755</v>
+        <v>118.651</v>
       </c>
       <c r="D20" t="n">
-        <v>1.612583333333333</v>
+        <v>1.977516666666667</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>vyJn7tuhdoCL0uazUguq</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10914715</v>
+          <t>5vPubqa7KUcnjBAOntcY</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10919837</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Uggi</t>
+          <t>Hi, I was searching for "Dambulla sigiriy" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45961.4857937963</v>
+        <v>45963.68522934028</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>eIfndp80aw4ZZAzX0Ojv</t>
+          <t>TzOwt1iQASPdVYcaanVG</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Hello Bag! Thank you for reaching out to us. How can I assist you today?</t>
+          <t>Hi Isaqilah, I apologize for the inconvenience. It seems like you are looking for information on Dambulla and Sigiriya. These are both popular tourist destinations in Sri Lanka known for their historical and cultural significance. I can provide you with more details if you'd like. Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45961.48691364584</v>
+        <v>45963.68660261574</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>afNMewDAW7A23tHiaUQh</t>
+          <t>HzRECoiKBBCJR2DE3MKY</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9xphnrppvf@privaterelay.appleid.com</t>
+          <t>aaqilah</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15.773</v>
+        <v>117.67</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2628833333333333</v>
+        <v>1.961166666666667</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>UpD8wKdj7vCo27vALFb3</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10914597</v>
+          <t>zSdiXKOF7jQmUNuFiTV2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10919837</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Matata" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dambulla sigiriya" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45961.7198968287</v>
+        <v>45963.68524069445</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>pQnkQdGBqs9yUiEF5xxM</t>
+          <t>TzOwt1iQASPdVYcaanVG</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry, but I couldn't find any results for "Matata." Could you please provide me with more information about what you're looking for so I can assist you better? Thank you!</t>
+          <t>Hi Isaqilah, I apologize for the inconvenience. It seems like you are looking for information on Dambulla and Sigiriya. These are both popular tourist destinations in Sri Lanka known for their historical and cultural significance. I can provide you with more details if you'd like. Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45961.72007938658</v>
+        <v>45963.68660261574</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ih8sVustDXTFNvdYxZMh</t>
+          <t>ISkVp6lGwbBoYcu2zeDd</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Farshad11</t>
+          <t>pradeep90</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>28.218</v>
+        <v>942.482</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4703</v>
+        <v>15.70803333333333</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>rCxcFPTq6obFX2Sigwgb</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10919628</v>
+          <t>C7OYFWlNsdcNOzntGCWx</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8131</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sri Lanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dayoi" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45961.47413797454</v>
+        <v>45963.56383722222</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>oVAGhS7dL8EBSIMkWgNy</t>
+          <t>Esh3r7igWPubD183QWxm</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Hi Farshad11! Thank you for reaching out. I apologize for the inconvenience. Is there another destination you are interested in? Let me know how I can assist you further.</t>
+          <t>Admin: Hi pradeep90, I'm sorry that you couldn't find what you were looking for. Let me check our database and see if I can find any information on "Dayoi" for you. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45961.47446457176</v>
+        <v>45963.57474557871</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ih8sVustDXTFNvdYxZMh</t>
+          <t>SjPRbWIG6Lc8kh9JkRlt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Farshad11</t>
+          <t>Dulanma</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>175.073</v>
+        <v>110.248</v>
       </c>
       <c r="D23" t="n">
-        <v>2.917883333333334</v>
+        <v>1.837466666666667</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>UHfJDmIFm5cSPhmL0Dab</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10919628</v>
+          <t>7WBFAF4IiXciwZQCl88A</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10911782</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sri Lanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinnamon life" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45961.47488695602</v>
+        <v>45963.782601875</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>OuaIIS3pMtYauKNUiEEF</t>
+          <t>WXMVvm26vQrbt2Soceu9</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Could you please specify what are you searching for in Sri Lanka? </t>
+          <t>Hi Dulanma, I'm sorry but we don't have any information on "Cinnamon life" at the moment. Is there anything else I can assist you with today?</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45961.47691326389</v>
+        <v>45963.78387789352</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>jjsb7pJo319XGO5RfWVM</t>
+          <t>TD1GzjwDP1x79iecxULx</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>madus8032</t>
+          <t>LakminiAdikari</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>99.28700000000001</v>
+        <v>133.425</v>
       </c>
       <c r="D24" t="n">
-        <v>1.654783333333333</v>
+        <v>2.22375</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6eFUb5JiERf0i5hAsg4D</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10919805</v>
+          <t>9rXAoaEhfWVMk8z38dO4</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10917189</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dayout" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45961.99571090277</v>
+        <v>45963.84502430556</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>C8Qapu74svTgJc9TcRa9</t>
+          <t>7HRjdkHBGdvdfvAr77Uc</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Hi madus8032! I'm sorry, but it seems like "Dayout" is not a specific travel destination or package that we offer. Can you please provide more details or preferences so that I can help you find the perfect day out experience? Let me know how I can assist you further.</t>
+          <t>Hi LakminiAdikari, I apologize for the inconvenience. Let me know how I can help!</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45961.99686005787</v>
+        <v>45963.84656857639</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mk7UKD9KnAWCt9PlrH0q</t>
+          <t>TD1GzjwDP1x79iecxULx</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>shaun</t>
+          <t>LakminiAdikari</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20.632</v>
+        <v>121.933</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3438666666666667</v>
+        <v>2.032216666666667</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>QSXwko0tqZmoUlDf6hzE</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10919799</v>
+          <t>EkamwW8dQx1DkS5rlC9C</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10917189</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "SC" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45961.7157153125</v>
+        <v>45963.85623567129</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>oid35oMZ95LC6odcCBax</t>
+          <t>hLBrqXfKYuu2LJHAZf86</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Hi Shaun, I'm sorry you couldn't find what you were looking for. Can you please provide more information about "SC" so I can assist you better? Thank you!</t>
+          <t>Hi LakminiAdikari, I'm sorry you couldn't find what you were looking for. Let me assist you in finding the perfect buffet option for your travel plans. Please provide me with more details so I can better help you. Thank you!</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45961.7159541088</v>
+        <v>45963.85764693287</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>uaqIPeqpwZT25QA4JAOo</t>
+          <t>UmwfD9seyE2r6W0pMPpg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sharfana773900698</t>
+          <t>kisalwathsara@icloud.com</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>810.106</v>
+        <v>99.48699999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>13.50176666666667</v>
+        <v>1.658116666666667</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>jKW1EyGxg8AF5t1YePIJ</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10919033</v>
+          <t>Yg4EB92YR7ChvE1ZzbTi</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10910239</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hair colorin" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinno" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45961.84565174769</v>
+        <v>45963.97921025463</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>ndae8rILtoR31O8n0D3K</t>
+          <t>TEH72tCXgRD03I9U5Rku</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Hi Sharfana773900698, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about the specific hair colorin you are searching for so I can assist you better? Thank you!</t>
+          <t>Hi there! I'm sorry, but I couldn't find any information on "Cinno." Can you please provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45961.85502797454</v>
+        <v>45963.98036172453</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1804,260 +1847,1413 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>w2unVO056m5EPQvcfz10</t>
+          <t>UsvmO7QBcN1r0luEoi2h</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>sabeena</t>
+          <t>bhashini</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>12.289</v>
+        <v>96.367</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2048166666666667</v>
+        <v>1.606116666666667</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>tJs7hniw5MgbUG7Jp5Go</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6580</v>
+          <t>P4RwDWnvqitSGe0cezFQ</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10915961</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sub" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "High tea" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45961.37890296296</v>
+        <v>45963.88631611111</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2IZFmMVjom9kd8599c1b</t>
+          <t>RGOibGE8EAQxfemwDr1u</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Hi Isabeena! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the "Sub" you are searching for so I can assist you better? Thank you!</t>
+          <t>Hi Bhashini! I'm sorry that you couldn't find any results for "High tea." Let me assist you in finding the perfect high tea experience for you. Can you please provide me with more details such as location, date, and any preferences you may have? I'll do my best to find the ideal option for you.</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45961.37904519676</v>
+        <v>45963.88743146991</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>xRVEXXAd60Q57r57woL0</t>
+          <t>VuCv3NvGqtxQbzl6A2wh</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>sharunya</t>
+          <t>Jethro Fernando</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15.065</v>
+        <v>120.226</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2510833333333333</v>
+        <v>2.003766666666666</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AdU5Zst7lRECHCyoP7wL</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>7235</v>
+          <t>aeBtgePIbgkImu2qpj8c</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10918991</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "No no" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hotels" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45961.73152895833</v>
+        <v>45963.43634986111</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Gk6VSFYWgWHUjUa7WN1d</t>
+          <t>Sk53bWwIcHmXSSKXW8wk</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Hi Sharunya, I apologize for the inconvenience. Could you please provide more information about what you are looking for so I can assist you better? Thank you!</t>
+          <t>Hi Jethro! I'm sorry you couldn't find any hotels in your search. Can you please provide me with more details such as the location, dates, and any specific preferences you have? I'd be happy to help you find the perfect hotel for your stay.</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45961.73170332176</v>
+        <v>45963.43774136574</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>yzbQWh41EM00cYifExXA</t>
+          <t>WWwCWLRozwghqvBhpgv0</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bf26nzkzjd@privaterelay.appleid.com</t>
+          <t>KalaniBandara</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1940.304</v>
+        <v>118.709</v>
       </c>
       <c r="D29" t="n">
-        <v>32.3384</v>
+        <v>1.978483333333333</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>mhr23nxwwgz7qH42oc8E</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10919802</v>
+          <t>7GxbmY1ZXCpY6TostMhe</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10914165</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Colo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45961.83272092592</v>
+        <v>45963.82243582176</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3YyzSIDR1pyop1z6AJfA</t>
+          <t>h3nZ2vmy3j4do2UB4e24</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you provide me with more details about your search so I can assist you better? Thank you!</t>
+          <t>Admin: Hi KalaniBandara, I'm sorry but I couldn't find any information on "Malaysia." Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45961.85517814815</v>
+        <v>45963.82380976852</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>yzbQWh41EM00cYifExXA</t>
+          <t>XlLV10CIl2qrLPb22I5P</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bf26nzkzjd@privaterelay.appleid.com</t>
+          <t>Limali</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1854.468</v>
+        <v>94.39700000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>30.9078</v>
+        <v>1.573283333333333</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TqodMFu8liR6L1UUZZrV</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>10919802</v>
+          <t>J54wbSmaLZzFkqJ6qLTN</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10911963</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Colombo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hotel o" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45961.83371439815</v>
+        <v>45963.3643575926</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3YyzSIDR1pyop1z6AJfA</t>
+          <t>XA74OaPBWtUgy93OlVy4</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you provide me with more details about your search so I can assist you better? Thank you!</t>
+          <t>Hi Limali! I'm sorry, but I couldn't find any specific hotel called "Hotel o." Could you provide me with more details or the location you are looking for? I'll do my best to assist you in finding the perfect accommodation for your stay.</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45961.85517814815</v>
+        <v>45963.36545015046</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>yzbQWh41EM00cYifExXA</t>
+          <t>YATiqLw4c0eZcR5i4Tcl</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bf26nzkzjd@privaterelay.appleid.com</t>
+          <t>Mohamed Naushad Badurdeen</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1766.863</v>
+        <v>93.996</v>
       </c>
       <c r="D31" t="n">
-        <v>29.44771666666667</v>
+        <v>1.5666</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4VLfckVVY2sAXkgSIxRX</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>10919802</v>
+          <t>HeqTHklw5DlhAbCTQWMo</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10912848</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Day out" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kual" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45961.8347283449</v>
+        <v>45963.00660899306</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3YyzSIDR1pyop1z6AJfA</t>
+          <t>0chYVWWaiHtFj1An9MCB</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you provide me with more details about your search so I can assist you better? Thank you!</t>
+          <t>Hi Mohamed Naushad Badurdeen, I'm sorry, but I couldn't find any information on "Kual." Could you please provide me with more details or clarify what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45961.85517814815</v>
+        <v>45963.00769690972</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>shahil</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Zff5DnPpH7siWZ4pETyG</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>nivdf1514</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>95.328</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.5888</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>jyhUAE7WrUnwLQWy6xxe</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10919744</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Is the 25% offer available when I’m going to the checkout it’s not there</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45963.38226765046</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Fqi4KDCgvUPb2Xb5HfVU</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello isnivdf1514, thank you for reaching out.
+</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>45963.38337098379</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Zff5DnPpH7siWZ4pETyG</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>nivdf1514</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>161.179</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.686316666666667</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>JjUvJS7dzrkMZMX0o4iv</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10919744</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0763363832</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>45963.7053059375</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>BgXSRR0G6PZTV0sIJfnk</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">we will check and get back to you
+</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>45963.70717143518</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>cd0VfPfyIVeQaHXUSM1G</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>sanara1</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2085.769</v>
+      </c>
+      <c r="D34" t="n">
+        <v>34.76281666666667</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WBc8TB2pGOpuTtR6VnYu</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10918838</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>It's Sunday and I still didn't get my refund eventho u said you'll send it by friday</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>45963.81462180556</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ndXHdJXou7UKI6mlEDWT</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello, thank you for informing us that you have not received the refund.
+We have taken this into notice and we will check with the bank first thing tomorrow morning. If you did not receive the refund by 12 noon tomorrow, please give us a call on our Whatsapp number. We will connect immediately to resolve it.
+We really understand your frustration and we extremely apologize for this situation.
+</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>45963.83876265046</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eOoCntjNAr1jqVZnTUVK</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pula</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>97.419</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.62365</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1TIJXD0TIW5NpJDzRhD1</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5882</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Tail" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>45963.00099291667</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>V3kqUvtCSIDRfTi5hcL9</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Hi Pula! I apologize for the inconvenience. It seems like there may have been a typo in your search query. Could you please provide more details or clarify what you are looking for so that I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>45963.00212045139</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>shahil</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>eOoCntjNAr1jqVZnTUVK</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>pula</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>95.11</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.585166666666667</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>iZ21ZHO1h2LmleUKvHCV</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5882</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Thail" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>45963.0010196412</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>V3kqUvtCSIDRfTi5hcL9</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Hi Pula! I apologize for the inconvenience. It seems like there may have been a typo in your search query. Could you please provide more details or clarify what you are looking for so that I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>45963.00212045139</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>shahil</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>eOoCntjNAr1jqVZnTUVK</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>pula</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>88.66500000000001</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.47775</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SdLdJsdndoFtoTTSsCEK</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5882</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Tha" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>45963.00109423611</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>V3kqUvtCSIDRfTi5hcL9</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Hi Pula! I apologize for the inconvenience. It seems like there may have been a typo in your search query. Could you please provide more details or clarify what you are looking for so that I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>45963.00212045139</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>shahil</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>eOoCntjNAr1jqVZnTUVK</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pula</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>84.69199999999999</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.411533333333333</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>N2Dq8GZih6aV0ST7J8st</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5882</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Tha" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>45963.00114021991</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>V3kqUvtCSIDRfTi5hcL9</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Hi Pula! I apologize for the inconvenience. It seems like there may have been a typo in your search query. Could you please provide more details or clarify what you are looking for so that I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>45963.00212045139</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>shahil</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>gvFfza1bnGufx4wjMRA4</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>shehan07</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>148.922</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.482033333333333</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ERhud2GjgovZwlikQfPq</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>10913600</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>45963.85895774305</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>zpYmfXYxI2e3GxfjyGBI</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Hi Shehan07! I apologize for the inconvenience. It seems like there may have been a technical issue with the search results. Can you please provide me with more details about what you are looking for in Thailand so I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>45963.86068137731</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>shahil</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>gvFfza1bnGufx4wjMRA4</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>shehan07</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>130.89</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.1815</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>b1R2k0r2g9SPXyvj3Zzc</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10913600</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Tgai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>45963.85916644676</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>zpYmfXYxI2e3GxfjyGBI</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Hi Shehan07! I apologize for the inconvenience. It seems like there may have been a technical issue with the search results. Can you please provide me with more details about what you are looking for in Thailand so I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>45963.86068137731</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>shahil</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>gvFfza1bnGufx4wjMRA4</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>shehan07</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>129.118</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.151966666666667</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>yRw2kPqY1TIdeIUqsS5c</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>10913600</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Thai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45963.85918695602</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>zpYmfXYxI2e3GxfjyGBI</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Hi Shehan07! I apologize for the inconvenience. It seems like there may have been a technical issue with the search results. Can you please provide me with more details about what you are looking for in Thailand so I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>45963.86068137731</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>shahil</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>gvFfza1bnGufx4wjMRA4</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>shehan07</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>124.19</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.069833333333333</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ljJSxgFkRFPKMQokZ4CZ</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>10913600</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>45963.85924399306</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>zpYmfXYxI2e3GxfjyGBI</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Hi Shehan07! I apologize for the inconvenience. It seems like there may have been a technical issue with the search results. Can you please provide me with more details about what you are looking for in Thailand so I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>45963.86068137731</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>shahil</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>nSmw1gXLpq4XCDxJClnT</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ruwaiziya</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>111.147</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.85245</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>UPZg8Kzl6fHKt70plvlR</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>10916414</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Byob" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>45963.78346863426</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>u4B79ZAusskOpp1XKOGo</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Hi Ruwaiziya, I'm sorry but we don't have any results for "Byob" in our database. Can you please provide me with more details or clarify what you're looking for so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>45963.78475505787</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>pheRsuUQ9go0ZeMbluks</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Dinithim</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>107.256</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.7876</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>19cpbWFet07Esl0u9TE6</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8476</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Candy l" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>45963.4502793287</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>LlQnSlWpfLyWCZ2baY8n</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Hi Dinithim, I apologize for the inconvenience. Can you please provide me with more details about the "Candy l" you are looking for so I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>45963.45152071759</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>pheRsuUQ9go0ZeMbluks</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Dinithim</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>68.919</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.14865</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20kg1C3TaGfDEAnD2Kv1</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8476</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Candy land dubai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>45963.45072304398</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>LlQnSlWpfLyWCZ2baY8n</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Hi Dinithim, I apologize for the inconvenience. Can you please provide me with more details about the "Candy l" you are looking for so I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>45963.45152071759</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>sxgZfTWjuhS7AVxTfkF9</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>prk1979</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>331.997</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5.533283333333333</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>a6HHt3CfHgeTvTszQNcU</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>10910263</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>45963.04602967593</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>xWlv7Pdgc7tcVfHg1G0A</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Hi prk1979, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Bang" so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>45963.04987223379</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>shahil</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>v3UTNR9BDpud5yLEo5Z5</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>68fxcpysdf@privaterelay.appleid.com</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>3403.033</v>
+      </c>
+      <c r="D47" t="n">
+        <v>56.71721666666667</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>5iGP4xxwzG1XV0U1DdKr</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>10914976</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Cinnamon gr" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>45963.53569763889</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>qv4BXobznzv6fPiSU1Ot</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Hi there! I'm sorry, but I couldn't find any specific results for "Cinnamon gr." Can you please provide me with more information or clarify what you're looking for so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>45963.57508459491</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>w5jYRlU2Ht6iGJ4VbDYR</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>afnan</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5465.322</v>
+      </c>
+      <c r="D48" t="n">
+        <v>91.0887</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Qs4K7BqbUnLg4IDHUVDH</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>10919693</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Yiwu" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>45963.51226207176</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Hw6UhmVfwxcLLxadQ5sa</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Hi Afnan! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>45963.57551811342</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>w5jYRlU2Ht6iGJ4VbDYR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>afnan</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>5462.268</v>
+      </c>
+      <c r="D49" t="n">
+        <v>91.0378</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>CeMLC4bJd55mR93GThMR</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>10919693</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Yiwu night" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>45963.51229741898</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Hw6UhmVfwxcLLxadQ5sa</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Hi Afnan! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>45963.57551811342</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>w5jYRlU2Ht6iGJ4VbDYR</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>afnan</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5460.26</v>
+      </c>
+      <c r="D50" t="n">
+        <v>91.00433333333334</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>y8h5mvk362cy2nvMh4XM</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>10919693</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Yiwu night market" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>45963.51232065972</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Hw6UhmVfwxcLLxadQ5sa</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Hi Afnan! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>45963.57551811342</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>w5jYRlU2Ht6iGJ4VbDYR</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>afnan</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5432.352</v>
+      </c>
+      <c r="D51" t="n">
+        <v>90.53919999999999</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>pizxnI4q8rt48CYqYznv</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>10919693</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Yi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>45963.51264366898</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Hw6UhmVfwxcLLxadQ5sa</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Hi Afnan! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>45963.57551811342</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>w5jYRlU2Ht6iGJ4VbDYR</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>afnan</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>5431.142</v>
+      </c>
+      <c r="D52" t="n">
+        <v>90.51903333333333</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>LK8HspD6KGQAdMrWNNfA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>10919693</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Yiwu" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>45963.51265767361</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Hw6UhmVfwxcLLxadQ5sa</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Hi Afnan! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>45963.57551811342</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>shamraz</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,48 +502,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3KXWCh0XkbYeDdW7sFD0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>0mBP4Atm3hS08q4DS6ba</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mifra</t>
+        </is>
+      </c>
       <c r="C2" t="n">
-        <v>123.409</v>
+        <v>103.535</v>
       </c>
       <c r="D2" t="n">
-        <v>2.056816666666667</v>
+        <v>1.725583333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>oZos3KbvQN2m7XgtKJxE</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>AHS_Guest</t>
-        </is>
+          <t>LFHgHjBCF9Yv26TBBy5U</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>10915473</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, 
-Can you explain the packages.Thank you</t>
+          <t>Hi, I was searching for "Cinna" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45963.35720246527</v>
+        <v>45964.43579703704</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>q6GDs2hvi7O7Z2CkzZh3</t>
+          <t>TdASd8XpWMCnAXqr6Rwi</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello! Sure, Thank you for reaching out to Aahaas
-</t>
+          <t>Hi Mifra, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Cinna" so that I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45963.35863081019</v>
+        <v>45964.4369953588</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -554,317 +554,309 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3KXWCh0XkbYeDdW7sFD0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2s8fYaqOKXlKpSKaMQWC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ieshani</t>
+        </is>
+      </c>
       <c r="C3" t="n">
-        <v>1787.994</v>
+        <v>127.385</v>
       </c>
       <c r="D3" t="n">
-        <v>29.7999</v>
+        <v>2.123083333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>UPIjdhIx7eRN0DC3I9qU</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>AHS_Guest</t>
-        </is>
+          <t>uweUEQuEqRf4AKfv0UZg</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>10918840</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Thanks for the information.i want to know there two packages rate shown.can you explain it.</t>
+          <t>Hi, I was searching for "high" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45963.80989407407</v>
+        <v>45964.71236337963</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>43Mfasi9k1vNg8IvoQA7</t>
+          <t>Uxnwhp5nDRZ3cObgiIs5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">can you kindly let us know what are two package names is shown
-</t>
+          <t>Hi Ieshani, I'm sorry that you couldn't find what you were looking for. It looks like there may have been a misunderstanding in the search term. Can you please provide me with more details on what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45963.83058844908</v>
+        <v>45964.71383774305</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3KXWCh0XkbYeDdW7sFD0</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2s8fYaqOKXlKpSKaMQWC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ieshani</t>
+        </is>
+      </c>
       <c r="C4" t="n">
-        <v>1578.638</v>
+        <v>126.953</v>
       </c>
       <c r="D4" t="n">
-        <v>26.31063333333333</v>
+        <v>2.115883333333334</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5LCJ3RpAmCj4aBQlnCSx</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>AHS_Guest</t>
-        </is>
+          <t>BjeUqSZof9U11jvHsBYc</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>10918840</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, first package rate is 4815 , and second one package rate is 5077.what is the different for this two amount</t>
+          <t>Hi, I was searching for "hightea" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45963.83567255787</v>
+        <v>45964.71236837963</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>BoCnC8657FwAtjwjnDCB</t>
+          <t>Uxnwhp5nDRZ3cObgiIs5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">yres sir it will show two names to the packages what are the names
-</t>
+          <t>Hi Ieshani, I'm sorry that you couldn't find what you were looking for. It looks like there may have been a misunderstanding in the search term. Can you please provide me with more details on what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45963.85394383102</v>
+        <v>45964.71383774305</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>54fATAocjMzkyWM6Yity</t>
+          <t>2s8fYaqOKXlKpSKaMQWC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sakunthala</t>
+          <t>ieshani</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>121.475</v>
+        <v>19.145</v>
       </c>
       <c r="D5" t="n">
-        <v>2.024583333333333</v>
+        <v>0.3190833333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Z5uPSvPo3Px1ONYSgTcY</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10917260</t>
-        </is>
+          <t>mRret4exbZlo4aFq3AX3</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>10918840</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Airt" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "shang" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45963.1121025</v>
+        <v>45964.71361615741</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>JuLUnGZ0orubXpsE3Q4m</t>
+          <t>Uxnwhp5nDRZ3cObgiIs5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Hi Sakunthala! I'm sorry, but I couldn't find any results for "Airt." Can you please provide me with more details so I can help you find what you're looking for? Thank you!</t>
+          <t>Hi Ieshani, I'm sorry that you couldn't find what you were looking for. It looks like there may have been a misunderstanding in the search term. Can you please provide me with more details on what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45963.11350846065</v>
+        <v>45964.71383774305</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>54fATAocjMzkyWM6Yity</t>
+          <t>5JChye2zzop9rRrWt0Yi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sakunthala</t>
+          <t>Yomashi Ayodya</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>104.68</v>
+        <v>102.862</v>
       </c>
       <c r="D6" t="n">
-        <v>1.744666666666667</v>
+        <v>1.714366666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>yDcsfPWoTHxYKAXbX8wO</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10917260</t>
-        </is>
+          <t>B6FiCWVG7sgpH7RY4tSt</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>10916747</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Travr" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Idn" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45963.11229688657</v>
+        <v>45964.49854306713</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>JuLUnGZ0orubXpsE3Q4m</t>
+          <t>zXmosEX8sjKdi4geZsbs</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Hi Sakunthala! I'm sorry, but I couldn't find any results for "Airt." Can you please provide me with more details so I can help you find what you're looking for? Thank you!</t>
+          <t>Hi Yomashi Ayodya! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Idn" so I can better assist you? Thank you!</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45963.11350846065</v>
+        <v>45964.49973359954</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>info@aahaas.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6k0rKQp2yBOeddLWCgiO</t>
+          <t>5kVcia37yfePUiDijX0C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kalindu99</t>
+          <t>Hashika</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4824.778</v>
+        <v>94.84999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>80.41296666666668</v>
+        <v>1.580833333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EkHdF20Rx9lh3KQ1LXJU</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10919832</t>
-        </is>
+          <t>Mwv4H7RqIdqbPvZclYux</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>10919836</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Marin" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bali" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45963.51948024306</v>
+        <v>45964.52974202546</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2DTtJgYgO3a4NiS2F2kH</t>
+          <t>ndk4FLEb1DK60khirfY9</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hi Kalindu99, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Marin" so I can assist you better? Thank you!</t>
+          <t>Hi Hashika! I'm sorry you couldn't find what you were looking for. Bali is a popular destination and we would love to help you plan your trip there. Can you please provide more details on your travel preferences so we can assist you better?</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45963.57532258102</v>
+        <v>45964.53083982639</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8gX0WP7zCUsz7wlmeiqc</t>
+          <t>5kVcia37yfePUiDijX0C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>achintha</t>
+          <t>Hashika</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>102.521</v>
+        <v>99.06999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>1.708683333333333</v>
+        <v>1.651166666666666</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>GK4FmJzSAVnwDJK8utMl</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10918193</t>
-        </is>
+          <t>saIWiAoXNvJa1ZESxCX3</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>10919836</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bufff" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bali" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45963.289268125</v>
+        <v>45964.53120767361</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>mWwgOpckLq19Epm1eiot</t>
+          <t>1NQUwepfR9j6tz31Bs4v</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Hi Sachintha! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Bufff" so I can assist you better? Thank you!</t>
+          <t>Hi Hashika! I'm sorry you couldn't find what you were looking for. 
+Can you please provide more details on your travel preferences so we can assist you in planning the perfect trip to Bali?</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45963.29045471064</v>
+        <v>45964.53235431713</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -875,158 +867,152 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AF6EMDSibqZAOs9x3fbe</t>
+          <t>BVudKF4c5w9bONl6E3Ww</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ChamiRodrigo</t>
+          <t>Dinukas93</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>110.721</v>
+        <v>148.274</v>
       </c>
       <c r="D9" t="n">
-        <v>1.84535</v>
+        <v>2.471233333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>zfQmrtz8a5S0gawF0YdA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10919833</t>
-        </is>
+          <t>t5MNpH6bCl69rZn8ZP18</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1544</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Malabar hills" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45963.78530717592</v>
+        <v>45964.82891247685</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>UXkZqmmMZPGidmbPyvks</t>
+          <t>kE1wql7AnToXxyKpWFO7</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Hi ChamiRodrigo, I apologize for the inconvenience. It seems like there may have been an error in our search results. Let me double-check and see if I can find some options for you in Bangkok. Thank you for bringing this to our attention.</t>
+          <t>Hi Dinukas93! I appreciate you reaching out.Can you please provide more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45963.78658866898</v>
+        <v>45964.83062861111</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AlA7BajMwIosiroMx34H</t>
+          <t>Fj3uojta5dAKzwdnmGUr</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sehan9984</t>
+          <t>Mehroon</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>100.165</v>
+        <v>99.075</v>
       </c>
       <c r="D10" t="n">
-        <v>1.669416666666667</v>
+        <v>1.65125</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4dSItQBnpIefPxNCP7Si</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>10918458</t>
-        </is>
+          <t>O6bVr34Ub3m3jiljvL75</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>10916382</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dinner buffe" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Nails" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45963.92497547454</v>
+        <v>45964.31143915509</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>817rnSQYKLBbM46Qwryu</t>
+          <t>zbzTZmR33DRjKkPuI35E</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Hi Sehan9984, I'm sorry that you couldn't find what you were looking for. We currently do not offer any dinner buffets, but we would be happy to help you find other dining options or activities for your trip. Let us know if there's anything else we can assist you with!</t>
+          <t>Hi Mehroon, I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. Could you please provide me with more details about the type of "Nails" you are looking for? I would be happy to assist you in finding what you need. Thank you for reaching out.</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45963.92613479167</v>
+        <v>45964.31258585648</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AxDEWFfOR22lA8veabz8</t>
+          <t>Fj3uojta5dAKzwdnmGUr</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>oshadi11</t>
+          <t>Mehroon</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>151.177</v>
+        <v>61.673</v>
       </c>
       <c r="D11" t="n">
-        <v>2.519616666666666</v>
+        <v>1.027883333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>rL2tyvPDubkPEnTj7pga</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>10918008</t>
-        </is>
+          <t>eLwtkCIAbqltlSK12nQc</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>10916382</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Mala" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Naup" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45963.43993726852</v>
+        <v>45964.31187204861</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0FU5C6qrbcZAoTIaji2h</t>
+          <t>zbzTZmR33DRjKkPuI35E</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Hi Ishadi11, I apologize for the inconvenience. It seems like there may have been a typo in your search. Can you please provide me with more information about what you are looking for so I can assist you better? Thank you.</t>
+          <t>Hi Mehroon, I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. Could you please provide me with more details about the type of "Nails" you are looking for? I would be happy to assist you in finding what you need. Thank you for reaching out.</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45963.44168700231</v>
+        <v>45964.31258585648</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1037,50 +1023,48 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AxDEWFfOR22lA8veabz8</t>
+          <t>KalYJKcZG1zuoqnXP0nW</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>oshadi11</t>
+          <t>MASDG</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>147.857</v>
+        <v>97.76600000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>2.464283333333333</v>
+        <v>1.629433333333334</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5LAx9Cl5s4m0jPWDOJr3</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10918008</t>
-        </is>
+          <t>qaKDnqlFPaI5efq4tx1r</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>8241</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Maleysua" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Travel to" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45963.43997569445</v>
+        <v>45964.36010543982</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0FU5C6qrbcZAoTIaji2h</t>
+          <t>8mIVTJXRcfrydEQjA4Ey</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Hi Ishadi11, I apologize for the inconvenience. It seems like there may have been a typo in your search. Can you please provide me with more information about what you are looking for so I can assist you better? Thank you.</t>
+          <t>Hi MASDG, I'm sorry for the confusion. Could you please provide me with more information about the specific destination you are looking to travel to? I'll do my best to assist you in finding the perfect travel options. Thank you for reaching out.</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45963.44168700231</v>
+        <v>45964.36123699074</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1091,212 +1075,204 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ED1gPM9gMYFxXzIugl59</t>
+          <t>RfxMtpDQR7hwdutnir88</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Yaseen Issadeen</t>
+          <t>mindu5915</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>112.287</v>
+        <v>114.562</v>
       </c>
       <c r="D13" t="n">
-        <v>1.87145</v>
+        <v>1.909366666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>W9nKpoiksAmHjga7EAXr</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>10918453</t>
-        </is>
+          <t>DdFXrsmjf272fmEmginc</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>10912142</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Go ca" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bills" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45963.62596645833</v>
+        <v>45964.46834743056</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>hcWy0bLlQ287L4Jw9E2E</t>
+          <t>EDG8fyvybRCs7tGah43y</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Hi Yaseen! I apologize for the inconvenience. It seems like there may have been a typo in your search. Can you provide more details about what you're looking for so I can assist you better? Thank you!</t>
+          <t>Hi mindu5915, I'm sorry but we don't currently offer any packages or services related to "Bills." Is there anything else I can assist you with today?</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45963.62726607639</v>
+        <v>45964.46967337963</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>info@aahaas.com</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ED1gPM9gMYFxXzIugl59</t>
+          <t>Sq5SNmyJRRLgCFH3IZ3x</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Yaseen Issadeen</t>
+          <t>INW</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>104.62</v>
+        <v>107.822</v>
       </c>
       <c r="D14" t="n">
-        <v>1.743666666666667</v>
+        <v>1.797033333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RUETbkOFClX1W4jttzuj</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>10918453</t>
-        </is>
+          <t>V9xvwZXzSqKfEPXYmugi</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>10917190</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kart f" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Air" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45963.62605519676</v>
+        <v>45964.44227895833</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>hcWy0bLlQ287L4Jw9E2E</t>
+          <t>k1T0zXtNIyCfmu0dQTy5</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Hi Yaseen! I apologize for the inconvenience. It seems like there may have been a typo in your search. Can you provide more details about what you're looking for so I can assist you better? Thank you!</t>
+          <t>Hi INW, I apologize for the inconvenience. It seems like there might have been a misunderstanding in your search. Could you please provide me with more details about what you're looking for under the term "Air" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45963.62726607639</v>
+        <v>45964.44352689815</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>info@aahaas.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gg18sBVcECsqflji4soz</t>
+          <t>TPhiA9YY6c17ocBe2EpP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sandali  Attanayake</t>
+          <t>Davidu</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>97.17400000000001</v>
+        <v>104.886</v>
       </c>
       <c r="D15" t="n">
-        <v>1.619566666666667</v>
+        <v>1.7481</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>34LRA5vgWD7bUEW9X6He</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>10914753</t>
-        </is>
+          <t>T1MsKazeT8KalXL3U1dC</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>10910725</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Phuke" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Pott" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45963.57694582176</v>
+        <v>45964.99684170139</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2tDlfdYLYnOvePxY523J</t>
+          <t>ipwYvax4BukCLgYfrU8r</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Hi Sandali, I'm sorry but I couldn't find any information on "Phuke." Could you please provide me with more details about what you're looking for so I can assist you better? Thank you!</t>
+          <t>Admin: Hi Davidu, I apologize for the inconvenience. Can you please provide me with more details about what you're looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45963.57807052083</v>
+        <v>45964.99805565972</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Gg18sBVcECsqflji4soz</t>
+          <t>TPhiA9YY6c17ocBe2EpP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sandali  Attanayake</t>
+          <t>Davidu</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>114.036</v>
+        <v>82.361</v>
       </c>
       <c r="D16" t="n">
-        <v>1.9006</v>
+        <v>1.372683333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NIClE4MljvxmR8scBYRb</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>10914753</t>
-        </is>
+          <t>S1B1QUHUEeTkKz06KENR</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>10910725</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thaila" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Paint" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45963.58261113426</v>
+        <v>45964.9971024074</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>qV7HZsNY7JSABhkfTav4</t>
+          <t>ipwYvax4BukCLgYfrU8r</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Admin: Hi Sandali, I'm sorry but I couldn't find any information on "Thaila." Could you please provide me with more details about what you're looking for so I can assist you better? Thank you!</t>
+          <t>Admin: Hi Davidu, I apologize for the inconvenience. Can you please provide me with more details about what you're looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45963.58393099537</v>
+        <v>45964.99805565972</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1307,50 +1283,48 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Gg18sBVcECsqflji4soz</t>
+          <t>TnjGEwvldzp2eyLSOXDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sandali  Attanayake</t>
+          <t>ssena5024</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>100.044</v>
+        <v>109.683</v>
       </c>
       <c r="D17" t="n">
-        <v>1.6674</v>
+        <v>1.82805</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>k2zdcWfw9BBjbQOPYSyA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>10914753</t>
-        </is>
+          <t>zpAOmFJUIFKn7PP7WbNL</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>10919758</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bangkok to pu" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45963.58409787037</v>
+        <v>45964.87557400463</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>ILCVONN89ADVkDKDQjc9</t>
+          <t>VKKGwrEzD4Azr341yDOJ</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Hi Sandali, I'm sorry you weren't able to find the information you were looking for on Thailand. Could you please provide me with more details on what specifically you are interested in so I can assist you better? Thank you!</t>
+          <t>Hi Issena5024, I'm sorry for the inconvenience. It seems like there may be a slight error in the search terms you're using. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45963.58525578704</v>
+        <v>45964.8768434838</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1361,320 +1335,308 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HzRECoiKBBCJR2DE3MKY</t>
+          <t>TnjGEwvldzp2eyLSOXDT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>aaqilah</t>
+          <t>ssena5024</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>122.863</v>
+        <v>100.824</v>
       </c>
       <c r="D18" t="n">
-        <v>2.047716666666667</v>
+        <v>1.6804</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>p7YrS44icCsOL7ioGwBJ</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>10919837</t>
-        </is>
+          <t>rIaUuUsYAhBxmxhg1T8z</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>10919758</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dam" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bangkok to bea" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45963.68518059028</v>
+        <v>45964.87567653936</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TzOwt1iQASPdVYcaanVG</t>
+          <t>VKKGwrEzD4Azr341yDOJ</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Hi Isaqilah, I apologize for the inconvenience. It seems like you are looking for information on Dambulla and Sigiriya. These are both popular tourist destinations in Sri Lanka known for their historical and cultural significance. I can provide you with more details if you'd like. Let me know how I can assist you further.</t>
+          <t>Hi Issena5024, I'm sorry for the inconvenience. It seems like there may be a slight error in the search terms you're using. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45963.68660261574</v>
+        <v>45964.8768434838</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HzRECoiKBBCJR2DE3MKY</t>
+          <t>TnjGEwvldzp2eyLSOXDT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>aaqilah</t>
+          <t>ssena5024</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>119.856</v>
+        <v>103.088</v>
       </c>
       <c r="D19" t="n">
-        <v>1.9976</v>
+        <v>1.718133333333333</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>XtIcIedfTMMsjsiPSjFA</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>10919837</t>
-        </is>
+          <t>Js9PWYTRzthdLjgd9n9p</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>10919758</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dambulla si" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bangkok and p" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45963.68521539352</v>
+        <v>45964.91331759259</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TzOwt1iQASPdVYcaanVG</t>
+          <t>LIfMvnEblblpJirdUqQ9</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Hi Isaqilah, I apologize for the inconvenience. It seems like you are looking for information on Dambulla and Sigiriya. These are both popular tourist destinations in Sri Lanka known for their historical and cultural significance. I can provide you with more details if you'd like. Let me know how I can assist you further.</t>
+          <t>Hi Issena5024, I apologize for the inconvenience. It seems like there may be a slight error in the search terms you're using. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45963.68660261574</v>
+        <v>45964.91451074074</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HzRECoiKBBCJR2DE3MKY</t>
+          <t>UUMJtqmmuAd0XGJm4iiK</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>aaqilah</t>
+          <t>rasan9333</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>118.651</v>
+        <v>113.128</v>
       </c>
       <c r="D20" t="n">
-        <v>1.977516666666667</v>
+        <v>1.885466666666667</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5vPubqa7KUcnjBAOntcY</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>10919837</t>
-        </is>
+          <t>nCIMeCABXMpazwuREQvX</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>10919165</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dambulla sigiriy" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Swi" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45963.68522934028</v>
+        <v>45964.71880068287</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TzOwt1iQASPdVYcaanVG</t>
+          <t>ndfF9bNhOYyS2wVXUnox</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Hi Isaqilah, I apologize for the inconvenience. It seems like you are looking for information on Dambulla and Sigiriya. These are both popular tourist destinations in Sri Lanka known for their historical and cultural significance. I can provide you with more details if you'd like. Let me know how I can assist you further.</t>
+          <t>Hi rasan9333, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45963.68660261574</v>
+        <v>45964.72011003472</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HzRECoiKBBCJR2DE3MKY</t>
+          <t>UUMJtqmmuAd0XGJm4iiK</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>aaqilah</t>
+          <t>rasan9333</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>117.67</v>
+        <v>814.206</v>
       </c>
       <c r="D21" t="n">
-        <v>1.961166666666667</v>
+        <v>13.5701</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>zSdiXKOF7jQmUNuFiTV2</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>10919837</t>
-        </is>
+          <t>E3k4BwvJxd1vJRgdznb0</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>10919165</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dambulla sigiriya" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Swimming" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45963.68524069445</v>
+        <v>45964.72128429398</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TzOwt1iQASPdVYcaanVG</t>
+          <t>Ix9PHHy7eKduS95qwdHT</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Hi Isaqilah, I apologize for the inconvenience. It seems like you are looking for information on Dambulla and Sigiriya. These are both popular tourist destinations in Sri Lanka known for their historical and cultural significance. I can provide you with more details if you'd like. Let me know how I can assist you further.</t>
+          <t xml:space="preserve"> Hi rasan9333, I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. I can definitely help you find information on swimming activities. Could you please provide me with more details such as your location or any specific preferences you have? Let's make sure we find exactly what you're looking for.</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45963.68660261574</v>
+        <v>45964.73070797454</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ISkVp6lGwbBoYcu2zeDd</t>
+          <t>UUMJtqmmuAd0XGJm4iiK</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pradeep90</t>
+          <t>rasan9333</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>942.482</v>
+        <v>43.804</v>
       </c>
       <c r="D22" t="n">
-        <v>15.70803333333333</v>
+        <v>0.7300666666666668</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C7OYFWlNsdcNOzntGCWx</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>8131</t>
-        </is>
+          <t>vkESwm4l38Ay3llR8EEx</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>10919165</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dayoi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Swimming" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45963.56383722222</v>
+        <v>45964.73020098379</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Esh3r7igWPubD183QWxm</t>
+          <t>Ix9PHHy7eKduS95qwdHT</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Admin: Hi pradeep90, I'm sorry that you couldn't find what you were looking for. Let me check our database and see if I can find any information on "Dayoi" for you. Thank you for reaching out!</t>
+          <t xml:space="preserve"> Hi rasan9333, I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. I can definitely help you find information on swimming activities. Could you please provide me with more details such as your location or any specific preferences you have? Let's make sure we find exactly what you're looking for.</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45963.57474557871</v>
+        <v>45964.73070797454</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SjPRbWIG6Lc8kh9JkRlt</t>
+          <t>UqVFr3j9ziKeffQrvpnT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Dulanma</t>
+          <t>Fathima Shazmin</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>110.248</v>
+        <v>113.753</v>
       </c>
       <c r="D23" t="n">
-        <v>1.837466666666667</v>
+        <v>1.895883333333333</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7WBFAF4IiXciwZQCl88A</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>10911782</t>
-        </is>
+          <t>c6ti8eXxhP0RWGSVmacB</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>4073</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinnamon life" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "JC" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45963.782601875</v>
+        <v>45964.9167784838</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>WXMVvm26vQrbt2Soceu9</t>
+          <t>eMLb2Iy6vVcHkXzQlWaW</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Hi Dulanma, I'm sorry but we don't have any information on "Cinnamon life" at the moment. Is there anything else I can assist you with today?</t>
+          <t>Hi Fathima Shazmin, thank you for reaching out to us. I'm sorry, but I couldn't find any specific information on "JC". Could you please provide me with more details so I can better assist you?</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45963.78387789352</v>
+        <v>45964.91809506944</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1685,266 +1647,258 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TD1GzjwDP1x79iecxULx</t>
+          <t>V9uZg0UoaT6f7psM9fML</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LakminiAdikari</t>
+          <t>Anjaleeperera</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>133.425</v>
+        <v>104.099</v>
       </c>
       <c r="D24" t="n">
-        <v>2.22375</v>
+        <v>1.734983333333333</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>9rXAoaEhfWVMk8z38dO4</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>10917189</t>
-        </is>
+          <t>FghP7RDpsG1t00SifmnY</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>10918874</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Baylees" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45963.84502430556</v>
+        <v>45964.52830385417</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>7HRjdkHBGdvdfvAr77Uc</t>
+          <t>nkzKL4UGN7kctbr5L4aW</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Hi LakminiAdikari, I apologize for the inconvenience. Let me know how I can help!</t>
+          <t xml:space="preserve">
+Hi Anjaleeperera, I'm sorry that we couldn't find any results for "Baylees". Can you provide me with more information about what you're looking for so I can assist you better? Let me know how I can help.</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45963.84656857639</v>
+        <v>45964.5295087037</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TD1GzjwDP1x79iecxULx</t>
+          <t>b9zi4VZgj2vuQKMn5ofH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LakminiAdikari</t>
+          <t>Yuwani01</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>121.933</v>
+        <v>104.093</v>
       </c>
       <c r="D25" t="n">
-        <v>2.032216666666667</v>
+        <v>1.734883333333333</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EkamwW8dQx1DkS5rlC9C</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>10917189</t>
-        </is>
+          <t>rHy4wYgtHmSQkJgCgTqM</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>10918318</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Marri" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45963.85623567129</v>
+        <v>45964.70379326389</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>hLBrqXfKYuu2LJHAZf86</t>
+          <t>bRi6r13v4k9UaA8IUrn2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Hi LakminiAdikari, I'm sorry you couldn't find what you were looking for. Let me assist you in finding the perfect buffet option for your travel plans. Please provide me with more details so I can better help you. Thank you!</t>
+          <t>Hi Yuwani01, I'm sorry but I couldn't find any specific information on "Marri." Could you provide me with more details or perhaps a different spelling? I'll do my best to assist you further.</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45963.85764693287</v>
+        <v>45964.70499804398</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UmwfD9seyE2r6W0pMPpg</t>
+          <t>bczFsT5lwwEmqeCKmusb</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>kisalwathsara@icloud.com</t>
+          <t>thenu8481</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>99.48699999999999</v>
+        <v>114.369</v>
       </c>
       <c r="D26" t="n">
-        <v>1.658116666666667</v>
+        <v>1.90615</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Yg4EB92YR7ChvE1ZzbTi</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>10910239</t>
-        </is>
+          <t>6jTxWpUMvmZf0YsG7omp</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>10919856</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinno" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinner" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45963.97921025463</v>
+        <v>45964.83203440972</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TEH72tCXgRD03I9U5Rku</t>
+          <t>Zj3ambJIIbyI7GP7z26j</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry, but I couldn't find any information on "Cinno." Can you please provide me with more details so I can assist you better?</t>
+          <t>Hi there, I'm sorry for the inconvenience. It seems like our search didn't yield any results for "Dinner." Can you provide me with more details about what you're looking for so I can assist you better? Thank you, thenu8481!</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45963.98036172453</v>
+        <v>45964.833358125</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UsvmO7QBcN1r0luEoi2h</t>
+          <t>hek2l2pqez3uSWjvmiY8</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bhashini</t>
+          <t>Anushka kavinda</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>96.367</v>
+        <v>100.7</v>
       </c>
       <c r="D27" t="n">
-        <v>1.606116666666667</v>
+        <v>1.678333333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>P4RwDWnvqitSGe0cezFQ</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>10915961</t>
-        </is>
+          <t>i1UIp40Bqe5qY59aHH0J</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>10919854</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "High tea" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Vir" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45963.88631611111</v>
+        <v>45964.7312325</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>RGOibGE8EAQxfemwDr1u</t>
+          <t>P6SaQFqMKM2YzMMjGxp1</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Hi Bhashini! I'm sorry that you couldn't find any results for "High tea." Let me assist you in finding the perfect high tea experience for you. Can you please provide me with more details such as location, date, and any preferences you may have? I'll do my best to find the ideal option for you.</t>
+          <t>Hi Anushka! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Vir" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45963.88743146991</v>
+        <v>45964.73239800926</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>VuCv3NvGqtxQbzl6A2wh</t>
+          <t>nSmw1gXLpq4XCDxJClnT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jethro Fernando</t>
+          <t>Ruwaiziya</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>120.226</v>
+        <v>103.501</v>
       </c>
       <c r="D28" t="n">
-        <v>2.003766666666666</v>
+        <v>1.725016666666667</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>aeBtgePIbgkImu2qpj8c</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>10918991</t>
-        </is>
+          <t>9jUdn5Dzlzzn84QteOPN</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>10916414</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hotels" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "HGhi" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45963.43634986111</v>
+        <v>45964.49168873842</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Sk53bWwIcHmXSSKXW8wk</t>
+          <t>TTma5Mup2ai8xCVlM9Y8</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Hi Jethro! I'm sorry you couldn't find any hotels in your search. Can you please provide me with more details such as the location, dates, and any specific preferences you have? I'd be happy to help you find the perfect hotel for your stay.</t>
+          <t xml:space="preserve">
+ Hi Ruwaiziya, I apologize for the inconvenience. Could you please provide me with more details or clarify what you're looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45963.43774136574</v>
+        <v>45964.49288666667</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1955,1305 +1909,730 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>WWwCWLRozwghqvBhpgv0</t>
+          <t>nSmw1gXLpq4XCDxJClnT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KalaniBandara</t>
+          <t>Ruwaiziya</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>118.709</v>
+        <v>100.697</v>
       </c>
       <c r="D29" t="n">
-        <v>1.978483333333333</v>
+        <v>1.678283333333333</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7GxbmY1ZXCpY6TostMhe</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>10914165</t>
-        </is>
+          <t>nAjNOxLpcnyYwyzgdJ2C</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>10916414</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "High team" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45963.82243582176</v>
+        <v>45964.49172119213</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>h3nZ2vmy3j4do2UB4e24</t>
+          <t>TTma5Mup2ai8xCVlM9Y8</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Admin: Hi KalaniBandara, I'm sorry but I couldn't find any information on "Malaysia." Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">
+ Hi Ruwaiziya, I apologize for the inconvenience. Could you please provide me with more details or clarify what you're looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45963.82380976852</v>
+        <v>45964.49288666667</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>XlLV10CIl2qrLPb22I5P</t>
+          <t>sTOSTlWgZlQFgoD5iOEL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Limali</t>
+          <t>KenuliMethanga</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>94.39700000000001</v>
+        <v>658.692</v>
       </c>
       <c r="D30" t="n">
-        <v>1.573283333333333</v>
+        <v>10.9782</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>J54wbSmaLZzFkqJ6qLTN</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>10911963</t>
-        </is>
+          <t>YNoD98s0oYCRfL9eafnw</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>4268</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hotel o" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cho" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45963.3643575926</v>
+        <v>45964.72336875</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>XA74OaPBWtUgy93OlVy4</t>
+          <t>mlRQQddXOWzaKh2ufMLu</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Hi Limali! I'm sorry, but I couldn't find any specific hotel called "Hotel o." Could you provide me with more details or the location you are looking for? I'll do my best to assist you in finding the perfect accommodation for your stay.</t>
+          <t>Hi KenuliMethanga, I apologize for not being able to find the specific information you are looking for. Could you please provide me with more details so I can better assist you in finding what you need? Thank you for reaching out.</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45963.36545015046</v>
+        <v>45964.7309925</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>YATiqLw4c0eZcR5i4Tcl</t>
+          <t>sTOSTlWgZlQFgoD5iOEL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mohamed Naushad Badurdeen</t>
+          <t>KenuliMethanga</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>93.996</v>
+        <v>601.647</v>
       </c>
       <c r="D31" t="n">
-        <v>1.5666</v>
+        <v>10.02745</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>HeqTHklw5DlhAbCTQWMo</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>10912848</t>
-        </is>
+          <t>YEvfYbqQbsYIa934Nx8D</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>4268</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kual" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kith" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45963.00660899306</v>
+        <v>45964.72402899306</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0chYVWWaiHtFj1An9MCB</t>
+          <t>mlRQQddXOWzaKh2ufMLu</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Hi Mohamed Naushad Badurdeen, I'm sorry, but I couldn't find any information on "Kual." Could you please provide me with more details or clarify what you are looking for so I can assist you better? Thank you!</t>
+          <t>Hi KenuliMethanga, I apologize for not being able to find the specific information you are looking for. Could you please provide me with more details so I can better assist you in finding what you need? Thank you for reaching out.</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45963.00769690972</v>
+        <v>45964.7309925</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Zff5DnPpH7siWZ4pETyG</t>
+          <t>sTOSTlWgZlQFgoD5iOEL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>nivdf1514</t>
+          <t>KenuliMethanga</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>95.328</v>
+        <v>415.477</v>
       </c>
       <c r="D32" t="n">
-        <v>1.5888</v>
+        <v>6.924616666666666</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>jyhUAE7WrUnwLQWy6xxe</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>10919744</t>
-        </is>
+          <t>O2ujRWpLeep9qlwNcaRP</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>4268</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Is the 25% offer available when I’m going to the checkout it’s not there</t>
+          <t>Hi, I was searching for "The con" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45963.38226765046</v>
+        <v>45964.72618373843</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Fqi4KDCgvUPb2Xb5HfVU</t>
+          <t>mlRQQddXOWzaKh2ufMLu</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello isnivdf1514, thank you for reaching out.
-</t>
+          <t>Hi KenuliMethanga, I apologize for not being able to find the specific information you are looking for. Could you please provide me with more details so I can better assist you in finding what you need? Thank you for reaching out.</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>45963.38337098379</v>
+        <v>45964.7309925</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Zff5DnPpH7siWZ4pETyG</t>
+          <t>tdi9iVVULLPlzEQXhbcq</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>nivdf1514</t>
+          <t>User_ubwUS</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>161.179</v>
+        <v>45.588</v>
       </c>
       <c r="D33" t="n">
-        <v>2.686316666666667</v>
+        <v>0.7598</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>JjUvJS7dzrkMZMX0o4iv</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>10919744</t>
-        </is>
+          <t>FB37cdSw0MAXytPDWeNM</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>10919134</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0763363832</t>
+          <t>Hi, I was searching for "Jia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45963.7053059375</v>
+        <v>45964.42053466435</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>BgXSRR0G6PZTV0sIJfnk</t>
+          <t>JG3Ms2VL4VxVGIcEpEsp</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">we will check and get back to you
-</t>
+          <t>Hi User_ubwUS, I apologize for not being able to find what you were looking for. Could you please provide me with more information or specific details about "Jia" or "Haira" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>45963.70717143518</v>
+        <v>45964.42106230324</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cd0VfPfyIVeQaHXUSM1G</t>
+          <t>tdi9iVVULLPlzEQXhbcq</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sanara1</t>
+          <t>User_ubwUS</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2085.769</v>
+        <v>42.429</v>
       </c>
       <c r="D34" t="n">
-        <v>34.76281666666667</v>
+        <v>0.7071500000000001</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WBc8TB2pGOpuTtR6VnYu</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>10918838</t>
-        </is>
+          <t>L4UBbzyBRKxfM2rhm72O</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>10919134</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>It's Sunday and I still didn't get my refund eventho u said you'll send it by friday</t>
+          <t>Hi, I was searching for "Haira" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45963.81462180556</v>
+        <v>45964.42057122685</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>ndXHdJXou7UKI6mlEDWT</t>
+          <t>JG3Ms2VL4VxVGIcEpEsp</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hello, thank you for informing us that you have not received the refund.
-We have taken this into notice and we will check with the bank first thing tomorrow morning. If you did not receive the refund by 12 noon tomorrow, please give us a call on our Whatsapp number. We will connect immediately to resolve it.
-We really understand your frustration and we extremely apologize for this situation.
-</t>
+          <t>Hi User_ubwUS, I apologize for not being able to find what you were looking for. Could you please provide me with more information or specific details about "Jia" or "Haira" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>45963.83876265046</v>
+        <v>45964.42106230324</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>eOoCntjNAr1jqVZnTUVK</t>
+          <t>unqmNMyRq4EeBfIs4wip</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pula</t>
+          <t>thecontainerstore</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>97.419</v>
+        <v>105.037</v>
       </c>
       <c r="D35" t="n">
-        <v>1.62365</v>
+        <v>1.750616666666667</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1TIJXD0TIW5NpJDzRhD1</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5882</t>
-        </is>
+          <t>PhlwANViVHCOVihRjffp</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>10919441</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Tail" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sece" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45963.00099291667</v>
+        <v>45964.70239802083</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>V3kqUvtCSIDRfTi5hcL9</t>
+          <t>XkfSyHJe6JlFm0OeRtsV</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Hi Pula! I apologize for the inconvenience. It seems like there may have been a typo in your search query. Could you please provide more details or clarify what you are looking for so that I can assist you better? Thank you!</t>
+          <t>Hi thecontainerstore, I'm sorry but I couldn't find any results for "Sece." Could you please provide me with more information or clarify what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45963.00212045139</v>
+        <v>45964.70361372685</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>eOoCntjNAr1jqVZnTUVK</t>
+          <t>unqmNMyRq4EeBfIs4wip</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pula</t>
+          <t>thecontainerstore</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>95.11</v>
+        <v>82.684</v>
       </c>
       <c r="D36" t="n">
-        <v>1.585166666666667</v>
+        <v>1.378066666666667</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>iZ21ZHO1h2LmleUKvHCV</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>5882</t>
-        </is>
+          <t>4CB1Coa8Q0njIswW1pZO</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>10919441</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thail" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Wall hand" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45963.0010196412</v>
+        <v>45964.70265673611</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>V3kqUvtCSIDRfTi5hcL9</t>
+          <t>XkfSyHJe6JlFm0OeRtsV</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Hi Pula! I apologize for the inconvenience. It seems like there may have been a typo in your search query. Could you please provide more details or clarify what you are looking for so that I can assist you better? Thank you!</t>
+          <t>Hi thecontainerstore, I'm sorry but I couldn't find any results for "Sece." Could you please provide me with more information or clarify what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45963.00212045139</v>
+        <v>45964.70361372685</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>eOoCntjNAr1jqVZnTUVK</t>
+          <t>unqmNMyRq4EeBfIs4wip</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pula</t>
+          <t>thecontainerstore</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>88.66500000000001</v>
+        <v>62.375</v>
       </c>
       <c r="D37" t="n">
-        <v>1.47775</v>
+        <v>1.039583333333333</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SdLdJsdndoFtoTTSsCEK</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>5882</t>
-        </is>
+          <t>hGmvbUXPijVzewh2LV8u</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>10919441</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Tha" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Holdet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45963.00109423611</v>
+        <v>45964.70289179398</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>V3kqUvtCSIDRfTi5hcL9</t>
+          <t>XkfSyHJe6JlFm0OeRtsV</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Hi Pula! I apologize for the inconvenience. It seems like there may have been a typo in your search query. Could you please provide more details or clarify what you are looking for so that I can assist you better? Thank you!</t>
+          <t>Hi thecontainerstore, I'm sorry but I couldn't find any results for "Sece." Could you please provide me with more information or clarify what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>45963.00212045139</v>
+        <v>45964.70361372685</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>eOoCntjNAr1jqVZnTUVK</t>
+          <t>unqmNMyRq4EeBfIs4wip</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pula</t>
+          <t>thecontainerstore</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>84.69199999999999</v>
+        <v>40.894</v>
       </c>
       <c r="D38" t="n">
-        <v>1.411533333333333</v>
+        <v>0.6815666666666667</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>N2Dq8GZih6aV0ST7J8st</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>5882</t>
-        </is>
+          <t>LNoD84TVq1D4enMpUhTX</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>10919441</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Tha" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Knife h" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45963.00114021991</v>
+        <v>45964.70314041667</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>V3kqUvtCSIDRfTi5hcL9</t>
+          <t>XkfSyHJe6JlFm0OeRtsV</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Hi Pula! I apologize for the inconvenience. It seems like there may have been a typo in your search query. Could you please provide more details or clarify what you are looking for so that I can assist you better? Thank you!</t>
+          <t>Hi thecontainerstore, I'm sorry but I couldn't find any results for "Sece." Could you please provide me with more information or clarify what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>45963.00212045139</v>
+        <v>45964.70361372685</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>gvFfza1bnGufx4wjMRA4</t>
+          <t>unqmNMyRq4EeBfIs4wip</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>shehan07</t>
+          <t>thecontainerstore</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>148.922</v>
+        <v>7.353</v>
       </c>
       <c r="D39" t="n">
-        <v>2.482033333333333</v>
+        <v>0.12255</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ERhud2GjgovZwlikQfPq</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>10913600</t>
-        </is>
+          <t>UZAmndyCSVXNptRv55fP</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>10919441</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lau" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45963.85895774305</v>
+        <v>45964.70397252315</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>zpYmfXYxI2e3GxfjyGBI</t>
+          <t>EbvwObKO3axI5qTGzhdg</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Hi Shehan07! I apologize for the inconvenience. It seems like there may have been a technical issue with the search results. Can you please provide me with more details about what you are looking for in Thailand so I can assist you better? Thank you.</t>
+ Hi there! I'm sorry but I couldn't find any results for "Holdet." Can you provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>45963.86068137731</v>
+        <v>45964.70405762731</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>gvFfza1bnGufx4wjMRA4</t>
+          <t>unqmNMyRq4EeBfIs4wip</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>shehan07</t>
+          <t>thecontainerstore</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>130.89</v>
+        <v>62.221</v>
       </c>
       <c r="D40" t="n">
-        <v>2.1815</v>
+        <v>1.037016666666667</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>b1R2k0r2g9SPXyvj3Zzc</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>10913600</t>
-        </is>
+          <t>KOfuMRHcNI1B5GXXVgpp</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>10919441</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Tgai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Pods" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45963.85916644676</v>
+        <v>45964.704801875</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>zpYmfXYxI2e3GxfjyGBI</t>
+          <t>WMGhb6fQW2zzOcyuR9NH</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Hi Shehan07! I apologize for the inconvenience. It seems like there may have been a technical issue with the search results. Can you please provide me with more details about what you are looking for in Thailand so I can assist you better? Thank you.</t>
+          <t xml:space="preserve">  I'm sorry but I couldn't find any results for "Lau." Can you provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>45963.86068137731</v>
+        <v>45964.70552202546</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>gvFfza1bnGufx4wjMRA4</t>
+          <t>unqmNMyRq4EeBfIs4wip</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>shehan07</t>
+          <t>thecontainerstore</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>129.118</v>
+        <v>46.586</v>
       </c>
       <c r="D41" t="n">
-        <v>2.151966666666667</v>
+        <v>0.7764333333333333</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>yRw2kPqY1TIdeIUqsS5c</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>10913600</t>
-        </is>
+          <t>WwYDXZOGmxSv8Jm9e03o</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>10919441</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Chi" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45963.85918695602</v>
+        <v>45964.70561283565</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>zpYmfXYxI2e3GxfjyGBI</t>
+          <t>96x35YWqW8CCptWV5wcP</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Hi Shehan07! I apologize for the inconvenience. It seems like there may have been a technical issue with the search results. Can you please provide me with more details about what you are looking for in Thailand so I can assist you better? Thank you.</t>
+          <t>! I'm sorry but I couldn't find any results for "Pods." Can you provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>45963.86068137731</v>
+        <v>45964.70615202546</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>gvFfza1bnGufx4wjMRA4</t>
+          <t>unqmNMyRq4EeBfIs4wip</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>shehan07</t>
+          <t>thecontainerstore</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>124.19</v>
+        <v>44.886</v>
       </c>
       <c r="D42" t="n">
-        <v>2.069833333333333</v>
+        <v>0.7481000000000001</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ljJSxgFkRFPKMQokZ4CZ</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>10913600</t>
-        </is>
+          <t>4LBJUQBndJ8USx9oy3Ko</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>10919441</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Chop" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45963.85924399306</v>
+        <v>45964.70563251158</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>zpYmfXYxI2e3GxfjyGBI</t>
+          <t>96x35YWqW8CCptWV5wcP</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Hi Shehan07! I apologize for the inconvenience. It seems like there may have been a technical issue with the search results. Can you please provide me with more details about what you are looking for in Thailand so I can assist you better? Thank you.</t>
+          <t>! I'm sorry but I couldn't find any results for "Pods." Can you provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>45963.86068137731</v>
+        <v>45964.70615202546</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>shahil</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>nSmw1gXLpq4XCDxJClnT</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Ruwaiziya</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>111.147</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1.85245</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>UPZg8Kzl6fHKt70plvlR</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>10916414</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Byob" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>45963.78346863426</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>u4B79ZAusskOpp1XKOGo</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Hi Ruwaiziya, I'm sorry but we don't have any results for "Byob" in our database. Can you please provide me with more details or clarify what you're looking for so I can assist you better? Thank you!</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="n">
-        <v>45963.78475505787</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>shamraz</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>pheRsuUQ9go0ZeMbluks</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Dinithim</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>107.256</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1.7876</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>19cpbWFet07Esl0u9TE6</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>8476</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Candy l" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>45963.4502793287</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>LlQnSlWpfLyWCZ2baY8n</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Hi Dinithim, I apologize for the inconvenience. Can you please provide me with more details about the "Candy l" you are looking for so I can assist you better? Thank you.</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="n">
-        <v>45963.45152071759</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>pheRsuUQ9go0ZeMbluks</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Dinithim</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>68.919</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1.14865</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>20kg1C3TaGfDEAnD2Kv1</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>8476</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Candy land dubai" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>45963.45072304398</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>LlQnSlWpfLyWCZ2baY8n</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Hi Dinithim, I apologize for the inconvenience. Can you please provide me with more details about the "Candy l" you are looking for so I can assist you better? Thank you.</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="n">
-        <v>45963.45152071759</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Dishmi</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>sxgZfTWjuhS7AVxTfkF9</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>prk1979</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>331.997</v>
-      </c>
-      <c r="D46" t="n">
-        <v>5.533283333333333</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>a6HHt3CfHgeTvTszQNcU</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>10910263</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>45963.04602967593</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>xWlv7Pdgc7tcVfHg1G0A</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Hi prk1979, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Bang" so I can assist you better? Thank you!</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="n">
-        <v>45963.04987223379</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>shahil</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>v3UTNR9BDpud5yLEo5Z5</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>68fxcpysdf@privaterelay.appleid.com</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>3403.033</v>
-      </c>
-      <c r="D47" t="n">
-        <v>56.71721666666667</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>5iGP4xxwzG1XV0U1DdKr</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>10914976</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Cinnamon gr" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>45963.53569763889</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>qv4BXobznzv6fPiSU1Ot</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Hi there! I'm sorry, but I couldn't find any specific results for "Cinnamon gr." Can you please provide me with more information or clarify what you're looking for so I can assist you better? Thank you!</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="n">
-        <v>45963.57508459491</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>shamraz</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>w5jYRlU2Ht6iGJ4VbDYR</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>afnan</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>5465.322</v>
-      </c>
-      <c r="D48" t="n">
-        <v>91.0887</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Qs4K7BqbUnLg4IDHUVDH</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>10919693</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Yiwu" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>45963.51226207176</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Hw6UhmVfwxcLLxadQ5sa</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Hi Afnan! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="n">
-        <v>45963.57551811342</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>shamraz</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>w5jYRlU2Ht6iGJ4VbDYR</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>afnan</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>5462.268</v>
-      </c>
-      <c r="D49" t="n">
-        <v>91.0378</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>CeMLC4bJd55mR93GThMR</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>10919693</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Yiwu night" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>45963.51229741898</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Hw6UhmVfwxcLLxadQ5sa</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Hi Afnan! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="n">
-        <v>45963.57551811342</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>shamraz</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>w5jYRlU2Ht6iGJ4VbDYR</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>afnan</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>5460.26</v>
-      </c>
-      <c r="D50" t="n">
-        <v>91.00433333333334</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>y8h5mvk362cy2nvMh4XM</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>10919693</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Yiwu night market" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>45963.51232065972</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Hw6UhmVfwxcLLxadQ5sa</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Hi Afnan! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="n">
-        <v>45963.57551811342</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>shamraz</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>w5jYRlU2Ht6iGJ4VbDYR</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>afnan</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>5432.352</v>
-      </c>
-      <c r="D51" t="n">
-        <v>90.53919999999999</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>pizxnI4q8rt48CYqYznv</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>10919693</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Yi" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>45963.51264366898</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Hw6UhmVfwxcLLxadQ5sa</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Hi Afnan! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="n">
-        <v>45963.57551811342</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>shamraz</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>w5jYRlU2Ht6iGJ4VbDYR</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>afnan</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>5431.142</v>
-      </c>
-      <c r="D52" t="n">
-        <v>90.51903333333333</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>LK8HspD6KGQAdMrWNNfA</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>10919693</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Yiwu" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>45963.51265767361</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Hw6UhmVfwxcLLxadQ5sa</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Hi Afnan! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="n">
-        <v>45963.57551811342</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,308 +502,325 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0mBP4Atm3hS08q4DS6ba</t>
+          <t>1ZEiGOuOrYlVUCC7wVTw</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mifra</t>
+          <t>hameedsiddeek</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>103.535</v>
+        <v>338.716</v>
       </c>
       <c r="D2" t="n">
-        <v>1.725583333333333</v>
+        <v>5.645266666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LFHgHjBCF9Yv26TBBy5U</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10915473</v>
+          <t>Zx6rHPKpa0Z0W8FCa9iB</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4521</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinna" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "In" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45964.43579703704</v>
+        <v>45965.2589912037</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TdASd8XpWMCnAXqr6Rwi</t>
+          <t>gJumo4jYX2ZiahKlqSSg</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hi Mifra, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Cinna" so that I can assist you better? Thank you!</t>
+          <t>Hi Ishameedsiddeek, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45964.4369953588</v>
+        <v>45965.26291152778</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2s8fYaqOKXlKpSKaMQWC</t>
+          <t>2960hvB8Wyc0gcquldje</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ieshani</t>
+          <t>MadhushaniSilva</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>127.385</v>
+        <v>19.753</v>
       </c>
       <c r="D3" t="n">
-        <v>2.123083333333333</v>
+        <v>0.3292166666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>uweUEQuEqRf4AKfv0UZg</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10918840</v>
+          <t>Jj1gSvnGHTJayEd3MerQ</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10919873</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "high" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t xml:space="preserve">is this offer price available </t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45964.71236337963</v>
+        <v>45965.61364615741</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Uxnwhp5nDRZ3cObgiIs5</t>
+          <t>edTjscz2YtxYMqZGY60u</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hi Ieshani, I'm sorry that you couldn't find what you were looking for. It looks like there may have been a misunderstanding in the search term. Can you please provide me with more details on what you are looking for so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">Hi MadhushaniSilva, thank you for your interest in our offer.
+</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45964.71383774305</v>
+        <v>45965.61387478009</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2s8fYaqOKXlKpSKaMQWC</t>
+          <t>2960hvB8Wyc0gcquldje</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ieshani</t>
+          <t>MadhushaniSilva</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>126.953</v>
+        <v>257.217</v>
       </c>
       <c r="D4" t="n">
-        <v>2.115883333333334</v>
+        <v>4.28695</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BjeUqSZof9U11jvHsBYc</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10918840</v>
+          <t>kHcrD6PY7HV3BNXy9C9s</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10919873</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "hightea" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t xml:space="preserve">how to confirm my booking on 9th of november </t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45964.71236837963</v>
+        <v>45965.619776875</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Uxnwhp5nDRZ3cObgiIs5</t>
+          <t>nSRS3haP1owVuQ6dl7hC</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hi Ieshani, I'm sorry that you couldn't find what you were looking for. It looks like there may have been a misunderstanding in the search term. Can you please provide me with more details on what you are looking for so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">Will check the availability and let you know. 
+</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45964.71383774305</v>
+        <v>45965.62275392361</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2s8fYaqOKXlKpSKaMQWC</t>
+          <t>2960hvB8Wyc0gcquldje</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ieshani</t>
+          <t>MadhushaniSilva</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.145</v>
+        <v>1101.931</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3190833333333333</v>
+        <v>18.36551666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>mRret4exbZlo4aFq3AX3</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10918840</v>
+          <t>Plu9jembtTA6PIWGtYPo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10919873</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "shang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t xml:space="preserve">two adults </t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45964.71361615741</v>
+        <v>45965.64494313658</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Uxnwhp5nDRZ3cObgiIs5</t>
+          <t>EeYdKXhi37NAY0wjd2kE</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hi Ieshani, I'm sorry that you couldn't find what you were looking for. It looks like there may have been a misunderstanding in the search term. Can you please provide me with more details on what you are looking for so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">Hi Ma'am, I just checked with my team. Unfortunately the dinner buffet at Sofia Colombo is not available on Sundays. 
+</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45964.71383774305</v>
+        <v>45965.6576969676</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5JChye2zzop9rRrWt0Yi</t>
+          <t>2960hvB8Wyc0gcquldje</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yomashi Ayodya</t>
+          <t>MadhushaniSilva</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>102.862</v>
+        <v>172.966</v>
       </c>
       <c r="D6" t="n">
-        <v>1.714366666666667</v>
+        <v>2.882766666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>B6FiCWVG7sgpH7RY4tSt</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10916747</v>
+          <t>BSZGE9TaNDFr7zln0DWh</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10919873</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Idn" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>sorry 8th of november fine</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45964.49854306713</v>
+        <v>45965.65837116898</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>zXmosEX8sjKdi4geZsbs</t>
+          <t>Qx2poYkdzd1BNgcaN8QO</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hi Yomashi Ayodya! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Idn" so I can better assist you? Thank you!</t>
+          <t xml:space="preserve">Sorry, they are not operating
+ on this saturday. But the Buffet is available on This Thursday. </t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45964.49973359954</v>
+        <v>45965.66037309028</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>info@aahaas.com</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5kVcia37yfePUiDijX0C</t>
+          <t>2960hvB8Wyc0gcquldje</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hashika</t>
+          <t>MadhushaniSilva</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>94.84999999999999</v>
+        <v>121.504</v>
       </c>
       <c r="D7" t="n">
-        <v>1.580833333333333</v>
+        <v>2.025066666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mwv4H7RqIdqbPvZclYux</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10919836</v>
+          <t>NDU0esVUMMO16kSnbyBT</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10919873</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bali" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>two adults date - 8th of November Dinner buffet</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45964.52974202546</v>
+        <v>45965.65896679398</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ndk4FLEb1DK60khirfY9</t>
+          <t>Qx2poYkdzd1BNgcaN8QO</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hi Hashika! I'm sorry you couldn't find what you were looking for. Bali is a popular destination and we would love to help you plan your trip there. Can you please provide more details on your travel preferences so we can assist you better?</t>
+          <t xml:space="preserve">Sorry, they are not operating
+ on this saturday. But the Buffet is available on This Thursday. </t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45964.53083982639</v>
+        <v>45965.66037309028</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -814,49 +831,51 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5kVcia37yfePUiDijX0C</t>
+          <t>2960hvB8Wyc0gcquldje</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hashika</t>
+          <t>MadhushaniSilva</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>99.06999999999999</v>
+        <v>1744.6</v>
       </c>
       <c r="D8" t="n">
-        <v>1.651166666666666</v>
+        <v>29.07666666666666</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>saIWiAoXNvJa1ZESxCX3</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10919836</v>
+          <t>EOoeymcgRYvlFPkqHAdz</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10919873</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bali" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t xml:space="preserve">no this week Thursday not possible  </t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45964.53120767361</v>
+        <v>45965.66769428241</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1NQUwepfR9j6tz31Bs4v</t>
+          <t>dz5CryAGR41TxMaN6NND</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hi Hashika! I'm sorry you couldn't find what you were looking for. 
-Can you please provide more details on your travel preferences so we can assist you in planning the perfect trip to Bali?</t>
+          <t xml:space="preserve">We will check the availability with the hotel and get back to you. Could you kindly share an active whatsApp number with us?
+</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45964.53235431713</v>
+        <v>45965.68788641204</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -867,412 +886,431 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BVudKF4c5w9bONl6E3Ww</t>
+          <t>2960hvB8Wyc0gcquldje</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dinukas93</t>
+          <t>MadhushaniSilva</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>148.274</v>
+        <v>1722.498</v>
       </c>
       <c r="D9" t="n">
-        <v>2.471233333333333</v>
+        <v>28.7083</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>t5MNpH6bCl69rZn8ZP18</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1544</v>
+          <t>GOjIj2qh7qElQ9Frm1Wy</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10919873</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malabar hills" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t xml:space="preserve">how about next week any day </t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45964.82891247685</v>
+        <v>45965.66795009259</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>kE1wql7AnToXxyKpWFO7</t>
+          <t>dz5CryAGR41TxMaN6NND</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Hi Dinukas93! I appreciate you reaching out.Can you please provide more details about what you are looking for so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">We will check the availability with the hotel and get back to you. Could you kindly share an active whatsApp number with us?
+</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45964.83062861111</v>
+        <v>45965.68788641204</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fj3uojta5dAKzwdnmGUr</t>
+          <t>2960hvB8Wyc0gcquldje</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mehroon</t>
+          <t>MadhushaniSilva</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>99.075</v>
+        <v>53.275</v>
       </c>
       <c r="D10" t="n">
-        <v>1.65125</v>
+        <v>0.8879166666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>O6bVr34Ub3m3jiljvL75</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10916382</v>
+          <t>iWy44QbXtWsK32blCZuW</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10919873</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Nails" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t xml:space="preserve">yes </t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45964.31143915509</v>
+        <v>45965.69330857639</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>zbzTZmR33DRjKkPuI35E</t>
+          <t>vdiXl1kzdiZq7HzY2Kyi</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Hi Mehroon, I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. Could you please provide me with more details about the type of "Nails" you are looking for? I would be happy to assist you in finding what you need. Thank you for reaching out.</t>
+          <t xml:space="preserve">Alright noted is next Saturday ideal for you?
+</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45964.31258585648</v>
+        <v>45965.69392518519</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fj3uojta5dAKzwdnmGUr</t>
+          <t>2960hvB8Wyc0gcquldje</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mehroon</t>
+          <t>MadhushaniSilva</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>61.673</v>
+        <v>48.004</v>
       </c>
       <c r="D11" t="n">
-        <v>1.027883333333333</v>
+        <v>0.8000666666666666</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>eLwtkCIAbqltlSK12nQc</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10916382</v>
+          <t>IBIejdyGA575UYrbTAfo</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10919873</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Naup" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>0753402090</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45964.31187204861</v>
+        <v>45965.69336958334</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>zbzTZmR33DRjKkPuI35E</t>
+          <t>vdiXl1kzdiZq7HzY2Kyi</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Hi Mehroon, I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. Could you please provide me with more details about the type of "Nails" you are looking for? I would be happy to assist you in finding what you need. Thank you for reaching out.</t>
+          <t xml:space="preserve">Alright noted is next Saturday ideal for you?
+</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45964.31258585648</v>
+        <v>45965.69392518519</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KalYJKcZG1zuoqnXP0nW</t>
+          <t>2yw9Mrvt4w15MO74rEz0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MASDG</t>
+          <t>Dineth Pramuditha</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>97.76600000000001</v>
+        <v>119.835</v>
       </c>
       <c r="D12" t="n">
-        <v>1.629433333333334</v>
+        <v>1.99725</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>qaKDnqlFPaI5efq4tx1r</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8241</v>
+          <t>ZqT0GnxiBPv4gdaY9dCY</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10914668</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Travel to" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buff" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45964.36010543982</v>
+        <v>45965.91235655093</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>8mIVTJXRcfrydEQjA4Ey</t>
+          <t>5CfBw09RtwKt7cpXu0Hy</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Hi MASDG, I'm sorry for the confusion. Could you please provide me with more information about the specific destination you are looking to travel to? I'll do my best to assist you in finding the perfect travel options. Thank you for reaching out.</t>
+          <t>Hi Dineth Pramuditha, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Buff" so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45964.36123699074</v>
+        <v>45965.91374353009</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RfxMtpDQR7hwdutnir88</t>
+          <t>4FxmrGUsRwz9gI4qoDmf</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>mindu5915</t>
+          <t>l_chathuranga@icloud.com</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>114.562</v>
+        <v>104.84</v>
       </c>
       <c r="D13" t="n">
-        <v>1.909366666666667</v>
+        <v>1.747333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DdFXrsmjf272fmEmginc</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10912142</v>
+          <t>yXEhM6MZr30V8NjdQT4V</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10919877</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bills" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Malya" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45964.46834743056</v>
+        <v>45965.64111460648</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>EDG8fyvybRCs7tGah43y</t>
+          <t>ZQEHZ7Yae4A607zpdqhc</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Hi mindu5915, I'm sorry but we don't currently offer any packages or services related to "Bills." Is there anything else I can assist you with today?</t>
+          <t>Hello l_chathuranga@icloud.com! I'm sorry, but I couldn't find any information on "Malya." Could you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45964.46967337963</v>
+        <v>45965.64232803241</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>info@aahaas.com</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sq5SNmyJRRLgCFH3IZ3x</t>
+          <t>5LZNTAvB3gjuimQQf77r</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>INW</t>
+          <t>nissy</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>107.822</v>
+        <v>15.431</v>
       </c>
       <c r="D14" t="n">
-        <v>1.797033333333333</v>
+        <v>0.2571833333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>V9xvwZXzSqKfEPXYmugi</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10917190</v>
+          <t>lkdRotVtpEaxxdUHyzG1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10918719</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Air" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Day oac" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45964.44227895833</v>
+        <v>45965.59062921297</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>k1T0zXtNIyCfmu0dQTy5</t>
+          <t>KRmZWh4XD9WM4ZJ3nAQi</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Hi INW, I apologize for the inconvenience. It seems like there might have been a misunderstanding in your search. Could you please provide me with more details about what you're looking for under the term "Air" so I can assist you better? Thank you!</t>
+          <t>Hi Nissy! I'm sorry, but I couldn't find any results for "Day oac." Could you please provide me with more information or clarify what you're looking for so I can better assist you? Thank you!</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45964.44352689815</v>
+        <v>45965.5908078125</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>info@aahaas.com</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TPhiA9YY6c17ocBe2EpP</t>
+          <t>5LZNTAvB3gjuimQQf77r</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Davidu</t>
+          <t>nissy</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>104.886</v>
+        <v>8.393000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>1.7481</v>
+        <v>0.1398833333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>T1MsKazeT8KalXL3U1dC</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10910725</v>
+          <t>ICNguUUwz9PlJR5R4brY</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10918719</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Pott" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Day package" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45964.99684170139</v>
+        <v>45965.59133243056</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ipwYvax4BukCLgYfrU8r</t>
+          <t>UEmgzwOzg2gGQnNRzwOU</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Admin: Hi Davidu, I apologize for the inconvenience. Can you please provide me with more details about what you're looking for so I can assist you better? Thank you.</t>
+          <t>Hi Nissy! I'm sorry, but I couldn't find any results for "Day package." Can you please provide me with more details about what you're looking for so I can better assist you? Thank you!</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45964.99805565972</v>
+        <v>45965.59142957176</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TPhiA9YY6c17ocBe2EpP</t>
+          <t>5LZNTAvB3gjuimQQf77r</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Davidu</t>
+          <t>nissy</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>82.361</v>
+        <v>112.703</v>
       </c>
       <c r="D16" t="n">
-        <v>1.372683333333333</v>
+        <v>1.878383333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S1B1QUHUEeTkKz06KENR</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10910725</v>
+          <t>fEYBIFQXMTXDaMVrKabE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10918719</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Paint" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Daycation" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45964.9971024074</v>
+        <v>45965.98070604166</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ipwYvax4BukCLgYfrU8r</t>
+          <t>JBAqpfOBCstn6sxWsuyd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Admin: Hi Davidu, I apologize for the inconvenience. Can you please provide me with more details about what you're looking for so I can assist you better? Thank you.</t>
+          <t>Admin: Hi Nissy! I'm sorry, but I couldn't find any results for "Daycation." Can you please provide me with more details about what you're looking for so I can assist you better? Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45964.99805565972</v>
+        <v>45965.98201047454</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1283,48 +1321,50 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TnjGEwvldzp2eyLSOXDT</t>
+          <t>5LZNTAvB3gjuimQQf77r</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ssena5024</t>
+          <t>nissy</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>109.683</v>
+        <v>77.53</v>
       </c>
       <c r="D17" t="n">
-        <v>1.82805</v>
+        <v>1.292166666666667</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>zpAOmFJUIFKn7PP7WbNL</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10919758</v>
+          <t>SCKXzMVcWn5eeMwLbmLz</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10918719</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bangkok to pu" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Day out" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45964.87557400463</v>
+        <v>45965.98111313657</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>VKKGwrEzD4Azr341yDOJ</t>
+          <t>JBAqpfOBCstn6sxWsuyd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Hi Issena5024, I'm sorry for the inconvenience. It seems like there may be a slight error in the search terms you're using. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t>Admin: Hi Nissy! I'm sorry, but I couldn't find any results for "Daycation." Can you please provide me with more details about what you're looking for so I can assist you better? Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45964.8768434838</v>
+        <v>45965.98201047454</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1335,48 +1375,50 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TnjGEwvldzp2eyLSOXDT</t>
+          <t>6J8N4680WaK9EkyvcEdA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ssena5024</t>
+          <t>mahesh1991</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>100.824</v>
+        <v>119.169</v>
       </c>
       <c r="D18" t="n">
-        <v>1.6804</v>
+        <v>1.98615</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>rIaUuUsYAhBxmxhg1T8z</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10919758</v>
+          <t>Awp6NfGyYCHB3vsVdaBz</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10919890</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bangkok to bea" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Nuwa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45964.87567653936</v>
+        <v>45965.93113600695</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>VKKGwrEzD4Azr341yDOJ</t>
+          <t>YLaXzgiRlnIGiIg3VzAx</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Hi Issena5024, I'm sorry for the inconvenience. It seems like there may be a slight error in the search terms you're using. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t>Hi mahesh1991, I'm sorry but I couldn't find any specific information on "Nuwa". Could you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45964.8768434838</v>
+        <v>45965.93251527777</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1387,48 +1429,50 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TnjGEwvldzp2eyLSOXDT</t>
+          <t>Df9CMX1fJElPal1faDbm</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ssena5024</t>
+          <t>sayuri_hewage</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>103.088</v>
+        <v>503.693</v>
       </c>
       <c r="D19" t="n">
-        <v>1.718133333333333</v>
+        <v>8.394883333333333</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Js9PWYTRzthdLjgd9n9p</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10919758</v>
+          <t>BtpKSNEH7R9dV7AKPxvt</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5303</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bangkok and p" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Malasia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45964.91331759259</v>
+        <v>45965.94463306713</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>LIfMvnEblblpJirdUqQ9</t>
+          <t>tRcTaXh2GgBlF1pf9YUN</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Hi Issena5024, I apologize for the inconvenience. It seems like there may be a slight error in the search terms you're using. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t>Hello sayuri_hewage! Thank you for reaching out. It seems like there might have been a small typo in your search. Did you mean "Malaysia"? Let me help you find some information on that destination. Feel free to ask if you need any assistance!</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45964.91451074074</v>
+        <v>45965.95046284722</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1439,727 +1483,755 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UUMJtqmmuAd0XGJm4iiK</t>
+          <t>FAfvnH3GUe25CpSkRkah</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>rasan9333</t>
+          <t>mikfe7602</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>113.128</v>
+        <v>94.869</v>
       </c>
       <c r="D20" t="n">
-        <v>1.885466666666667</v>
+        <v>1.58115</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>nCIMeCABXMpazwuREQvX</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10919165</v>
+          <t>jsXn9pCQlWEpU3A4N7Oq</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10916023</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Swi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cina" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45964.71880068287</v>
+        <v>45965.52973688657</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>ndfF9bNhOYyS2wVXUnox</t>
+          <t>UbODy0r4JT4my4Xm0CCZ</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Hi rasan9333, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better?</t>
+          <t>Hi mikfe7602, thank you for reaching out to us. I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Cina" so that I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45964.72011003472</v>
+        <v>45965.5308349074</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UUMJtqmmuAd0XGJm4iiK</t>
+          <t>FAfvnH3GUe25CpSkRkah</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>rasan9333</t>
+          <t>mikfe7602</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>814.206</v>
+        <v>91.658</v>
       </c>
       <c r="D21" t="n">
-        <v>13.5701</v>
+        <v>1.527633333333333</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>E3k4BwvJxd1vJRgdznb0</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10919165</v>
+          <t>g1rxcvg13FU0qfrawdbq</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10916023</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Swimming" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinam" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45964.72128429398</v>
+        <v>45965.53085356481</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Ix9PHHy7eKduS95qwdHT</t>
+          <t>jjFfbtR580Xuri5sbUKq</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi rasan9333, I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. I can definitely help you find information on swimming activities. Could you please provide me with more details such as your location or any specific preferences you have? Let's make sure we find exactly what you're looking for.</t>
+          <t>Hi mikfe7602, I apologize for the inconvenience. Can you please provide me with more details or a different spelling of "Cinam" or "Cinnnam" so that I can assist you in finding what you're looking for? Thank you.</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45964.73070797454</v>
+        <v>45965.5319144213</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UUMJtqmmuAd0XGJm4iiK</t>
+          <t>FAfvnH3GUe25CpSkRkah</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>rasan9333</t>
+          <t>mikfe7602</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>43.804</v>
+        <v>84.378</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7300666666666668</v>
+        <v>1.4063</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>vkESwm4l38Ay3llR8EEx</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10919165</v>
+          <t>vdLwxZLHNImAEUCBSFCD</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10916023</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Swimming" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinnnam" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45964.73020098379</v>
+        <v>45965.53093782407</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Ix9PHHy7eKduS95qwdHT</t>
+          <t>jjFfbtR580Xuri5sbUKq</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi rasan9333, I apologize for the inconvenience. It seems like there may have been a misunderstanding in your search. I can definitely help you find information on swimming activities. Could you please provide me with more details such as your location or any specific preferences you have? Let's make sure we find exactly what you're looking for.</t>
+          <t>Hi mikfe7602, I apologize for the inconvenience. Can you please provide me with more details or a different spelling of "Cinam" or "Cinnnam" so that I can assist you in finding what you're looking for? Thank you.</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45964.73070797454</v>
+        <v>45965.5319144213</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UqVFr3j9ziKeffQrvpnT</t>
+          <t>FNIfTtyzVytH1WVr7rBk</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fathima Shazmin</t>
+          <t>hnimn5711</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>113.753</v>
+        <v>92.76300000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>1.895883333333333</v>
+        <v>1.54605</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>c6ti8eXxhP0RWGSVmacB</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4073</v>
+          <t>pMEFdhhMHswjnFBryGeE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10919782</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "JC" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinnamon lak" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45964.9167784838</v>
+        <v>45965.37488601852</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>eMLb2Iy6vVcHkXzQlWaW</t>
+          <t>uNiqUqjVPcU7WHEQPZEF</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Hi Fathima Shazmin, thank you for reaching out to us. I'm sorry, but I couldn't find any specific information on "JC". Could you please provide me with more details so I can better assist you?</t>
+          <t>Admin: Hi hnimn5711! Thank you for reaching out. I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Let me know how I can help.</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45964.91809506944</v>
+        <v>45965.37595966435</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>V9uZg0UoaT6f7psM9fML</t>
+          <t>FedSeS3fslxe4jZcF4tt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Anjaleeperera</t>
+          <t>prran5532</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>104.099</v>
+        <v>111.055</v>
       </c>
       <c r="D24" t="n">
-        <v>1.734983333333333</v>
+        <v>1.850916666666667</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FghP7RDpsG1t00SifmnY</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10918874</v>
+          <t>xWms1H6DTjd47irinGXX</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10910682</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Baylees" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Oersease" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45964.52830385417</v>
+        <v>45965.86865712963</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>nkzKL4UGN7kctbr5L4aW</t>
+          <t>2RQFc0RcEDNXXrm6HwDi</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Hi Anjaleeperera, I'm sorry that we couldn't find any results for "Baylees". Can you provide me with more information about what you're looking for so I can assist you better? Let me know how I can help.</t>
+          <t>Admin: Hi prran5532, I'm sorry but it seems like there might be a spelling error in your search. Can you please provide more details or try searching for a different keyword? I'll do my best to help you find what you're looking for.</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45964.5295087037</v>
+        <v>45965.86994248843</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>b9zi4VZgj2vuQKMn5ofH</t>
+          <t>FedSeS3fslxe4jZcF4tt</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Yuwani01</t>
+          <t>prran5532</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>104.093</v>
+        <v>106.215</v>
       </c>
       <c r="D25" t="n">
-        <v>1.734883333333333</v>
+        <v>1.77025</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>rHy4wYgtHmSQkJgCgTqM</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10918318</v>
+          <t>OLgXMrcNLfgz4EM1UnCv</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10910682</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Marri" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Oversease" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45964.70379326389</v>
+        <v>45965.86871314815</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>bRi6r13v4k9UaA8IUrn2</t>
+          <t>2RQFc0RcEDNXXrm6HwDi</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Hi Yuwani01, I'm sorry but I couldn't find any specific information on "Marri." Could you provide me with more details or perhaps a different spelling? I'll do my best to assist you further.</t>
+          <t>Admin: Hi prran5532, I'm sorry but it seems like there might be a spelling error in your search. Can you please provide more details or try searching for a different keyword? I'll do my best to help you find what you're looking for.</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45964.70499804398</v>
+        <v>45965.86994248843</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bczFsT5lwwEmqeCKmusb</t>
+          <t>FedSeS3fslxe4jZcF4tt</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>thenu8481</t>
+          <t>prran5532</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>114.369</v>
+        <v>90.084</v>
       </c>
       <c r="D26" t="n">
-        <v>1.90615</v>
+        <v>1.5014</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6jTxWpUMvmZf0YsG7omp</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10919856</v>
+          <t>dgITuXKmjGq0g3n1Bv8I</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10910682</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dinner" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45964.83203440972</v>
+        <v>45965.86889984953</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Zj3ambJIIbyI7GP7z26j</t>
+          <t>2RQFc0RcEDNXXrm6HwDi</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Hi there, I'm sorry for the inconvenience. It seems like our search didn't yield any results for "Dinner." Can you provide me with more details about what you're looking for so I can assist you better? Thank you, thenu8481!</t>
+          <t>Admin: Hi prran5532, I'm sorry but it seems like there might be a spelling error in your search. Can you please provide more details or try searching for a different keyword? I'll do my best to help you find what you're looking for.</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45964.833358125</v>
+        <v>45965.86994248843</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hek2l2pqez3uSWjvmiY8</t>
+          <t>FedSeS3fslxe4jZcF4tt</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Anushka kavinda</t>
+          <t>prran5532</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>100.7</v>
+        <v>133.196</v>
       </c>
       <c r="D27" t="n">
-        <v>1.678333333333333</v>
+        <v>2.219933333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>i1UIp40Bqe5qY59aHH0J</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>10919854</v>
+          <t>QGVdA1YvmqIN1zZPRLdh</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10910682</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Vir" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Flights" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45964.7312325</v>
+        <v>45965.89201516204</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>P6SaQFqMKM2YzMMjGxp1</t>
+          <t>5tONUohQeHu7leBje7QL</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Hi Anushka! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Vir" so I can assist you better? Thank you!</t>
+          <t>Hi prran5532, I'm sorry you're having trouble finding what you're looking for. Can you please provide more details about your search so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45964.73239800926</v>
+        <v>45965.89355678241</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>nSmw1gXLpq4XCDxJClnT</t>
+          <t>GfQol7o6EKZOQYOQVxoS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ruwaiziya</t>
+          <t>Shadini</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>103.501</v>
+        <v>44.682</v>
       </c>
       <c r="D28" t="n">
-        <v>1.725016666666667</v>
+        <v>0.7447</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>9jUdn5Dzlzzn84QteOPN</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10916414</v>
+          <t>u0Y3uGD7jOz0FbjjaMKj</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10918975</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "HGhi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>I need to plan a tour to another country</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45964.49168873842</v>
+        <v>45965.39265226852</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TTma5Mup2ai8xCVlM9Y8</t>
+          <t>ocV5pEsnhSU9hswVrBIR</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- Hi Ruwaiziya, I apologize for the inconvenience. Could you please provide me with more details or clarify what you're looking for so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">May i know for which country are you looking forward to travel?
+</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45964.49288666667</v>
+        <v>45965.3931694213</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>nSmw1gXLpq4XCDxJClnT</t>
+          <t>GfQol7o6EKZOQYOQVxoS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ruwaiziya</t>
+          <t>Shadini</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>100.697</v>
+        <v>226.278</v>
       </c>
       <c r="D29" t="n">
-        <v>1.678283333333333</v>
+        <v>3.7713</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>nAjNOxLpcnyYwyzgdJ2C</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10916414</v>
+          <t>YiuJRks6I35vD6UqGtwX</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10918975</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "High team" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Which country you suggest to travel.budget countries for a family</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45964.49172119213</v>
+        <v>45965.40864467592</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TTma5Mup2ai8xCVlM9Y8</t>
+          <t>3E4BCllYtLzHBF9V2oGv</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- Hi Ruwaiziya, I apologize for the inconvenience. Could you please provide me with more details or clarify what you're looking for so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">We will be dropping some budget friendly tour packages the upcoming days. Just for heads up the countries are Malaysia, Singapore, Maldives &amp; Thailand. We cannot provide you any further details. Please stay tuned and follow us in our social media to get more update in the near future.
+</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45964.49288666667</v>
+        <v>45965.41126363426</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sTOSTlWgZlQFgoD5iOEL</t>
+          <t>GfQol7o6EKZOQYOQVxoS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KenuliMethanga</t>
+          <t>Shadini</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>658.692</v>
+        <v>37.633</v>
       </c>
       <c r="D30" t="n">
-        <v>10.9782</v>
+        <v>0.6272166666666668</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>YNoD98s0oYCRfL9eafnw</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4268</v>
+          <t>4Qliht6bPCZ6HA5iGeJY</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10918975</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cho" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>How about vietnam</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45964.72336875</v>
+        <v>45965.49508369213</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>mlRQQddXOWzaKh2ufMLu</t>
+          <t>gnRQ4S1JGOCQeqBdNOL6</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Hi KenuliMethanga, I apologize for not being able to find the specific information you are looking for. Could you please provide me with more details so I can better assist you in finding what you need? Thank you for reaching out.</t>
+          <t xml:space="preserve">We are not offering a promo for vietnam
+</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45964.7309925</v>
+        <v>45965.49551925926</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sTOSTlWgZlQFgoD5iOEL</t>
+          <t>HON64Vng92CVMxUTqiTr</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>KenuliMethanga</t>
+          <t>Nabilah</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>601.647</v>
+        <v>11.48</v>
       </c>
       <c r="D31" t="n">
-        <v>10.02745</v>
+        <v>0.1913333333333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>YEvfYbqQbsYIa934Nx8D</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>4268</v>
+          <t>uaYpqqKIk3yNvOlUGZUx</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10917816</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kith" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffer" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45964.72402899306</v>
+        <v>45965.77745880787</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>mlRQQddXOWzaKh2ufMLu</t>
+          <t>rrgwT2sWNm7h4cdchIVK</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Hi KenuliMethanga, I apologize for not being able to find the specific information you are looking for. Could you please provide me with more details so I can better assist you in finding what you need? Thank you for reaching out.</t>
+          <t>Hi Nabilah! I'm sorry for the inconvenience. Could you please provide me with more details about what you are looking for? I'm here to help you find what you need.</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45964.7309925</v>
+        <v>45965.77759167824</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sTOSTlWgZlQFgoD5iOEL</t>
+          <t>HON64Vng92CVMxUTqiTr</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KenuliMethanga</t>
+          <t>Nabilah</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>415.477</v>
+        <v>9.175000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>6.924616666666666</v>
+        <v>0.1529166666666667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>O2ujRWpLeep9qlwNcaRP</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4268</v>
+          <t>7hWpI5LKI7ceQt5LeOuT</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10917816</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "The con" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45964.72618373843</v>
+        <v>45965.78348866898</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>mlRQQddXOWzaKh2ufMLu</t>
+          <t>q2JN6wvV7uEdmpPiopBo</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Hi KenuliMethanga, I apologize for not being able to find the specific information you are looking for. Could you please provide me with more details so I can better assist you in finding what you need? Thank you for reaching out.</t>
+          <t>Admin: Hi Nabilah! I apologize for the confusion. Could you please provide me with more details about the type of buffet you are looking for? I'm here to assist you in finding the perfect dining option for your trip.</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>45964.7309925</v>
+        <v>45965.78359486111</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>tdi9iVVULLPlzEQXhbcq</t>
+          <t>IG9UZJwss3sTMcbRa1nG</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>User_ubwUS</t>
+          <t>chint7236</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>45.588</v>
+        <v>13.246</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7598</v>
+        <v>0.2207666666666667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FB37cdSw0MAXytPDWeNM</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10919134</v>
+          <t>Nhw4xWfewBEmW6CMg328</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10918822</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Jia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Mala" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45964.42053466435</v>
+        <v>45965.78326244213</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>JG3Ms2VL4VxVGIcEpEsp</t>
+          <t>UqWtEwdxw1ZWNbuMtaAH</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Hi User_ubwUS, I apologize for not being able to find what you were looking for. Could you please provide me with more information or specific details about "Jia" or "Haira" so I can assist you better? Thank you!</t>
+          <t>Hello chint7236, I apologize for the inconvenience. Could you please provide me with more information about what you are looking for? This will help me assist you better. Thank you.</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>45964.42106230324</v>
+        <v>45965.78341575232</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2170,48 +2242,50 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>tdi9iVVULLPlzEQXhbcq</t>
+          <t>IG9UZJwss3sTMcbRa1nG</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>User_ubwUS</t>
+          <t>chint7236</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>42.429</v>
+        <v>11.396</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7071500000000001</v>
+        <v>0.1899333333333333</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>L4UBbzyBRKxfM2rhm72O</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10919134</v>
+          <t>uHhSUsa1tHOHJLAzjWeL</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10918822</t>
+        </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Haira" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Maly" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45964.42057122685</v>
+        <v>45965.78328385417</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>JG3Ms2VL4VxVGIcEpEsp</t>
+          <t>UqWtEwdxw1ZWNbuMtaAH</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Hi User_ubwUS, I apologize for not being able to find what you were looking for. Could you please provide me with more information or specific details about "Jia" or "Haira" so I can assist you better? Thank you!</t>
+          <t>Hello chint7236, I apologize for the inconvenience. Could you please provide me with more information about what you are looking for? This will help me assist you better. Thank you.</t>
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>45964.42106230324</v>
+        <v>45965.78341575232</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2222,417 +2296,2639 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>unqmNMyRq4EeBfIs4wip</t>
+          <t>IG9UZJwss3sTMcbRa1nG</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>thecontainerstore</t>
+          <t>chint7236</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>105.037</v>
+        <v>5.551</v>
       </c>
       <c r="D35" t="n">
-        <v>1.750616666666667</v>
+        <v>0.09251666666666666</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PhlwANViVHCOVihRjffp</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>10919441</v>
+          <t>CH2p8LTe7s7303NvgmS2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10918822</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sece" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Maley" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45964.70239802083</v>
+        <v>45965.78335150463</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>XkfSyHJe6JlFm0OeRtsV</t>
+          <t>UqWtEwdxw1ZWNbuMtaAH</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Hi thecontainerstore, I'm sorry but I couldn't find any results for "Sece." Could you please provide me with more information or clarify what you are looking for so I can assist you better? Thank you.</t>
+          <t>Hello chint7236, I apologize for the inconvenience. Could you please provide me with more information about what you are looking for? This will help me assist you better. Thank you.</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45964.70361372685</v>
+        <v>45965.78341575232</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>unqmNMyRq4EeBfIs4wip</t>
+          <t>KJvgEjYd4xITGSdhlY2Q</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>thecontainerstore</t>
+          <t>Zameem Ismail</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>82.684</v>
+        <v>91.89400000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>1.378066666666667</v>
+        <v>1.531566666666667</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4CB1Coa8Q0njIswW1pZO</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10919441</v>
+          <t>bEEdwY0S8j5otUS7tJwR</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Wall hand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Mala" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45964.70265673611</v>
+        <v>45965.53194239584</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>XkfSyHJe6JlFm0OeRtsV</t>
+          <t>0SkqQxfrQy8Z2yULiW2A</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Hi thecontainerstore, I'm sorry but I couldn't find any results for "Sece." Could you please provide me with more information or clarify what you are looking for so I can assist you better? Thank you.</t>
+          <t>Hi Zameem Ismail, I'm sorry to hear that you couldn't find what you were looking for. Can you please provide me with more details about "Mala" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45964.70361372685</v>
+        <v>45965.53300598379</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>unqmNMyRq4EeBfIs4wip</t>
+          <t>MrJI0k2eTDXd8GJn1Lwi</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>thecontainerstore</t>
+          <t>Ramzan Marzook</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>62.375</v>
+        <v>100.094</v>
       </c>
       <c r="D37" t="n">
-        <v>1.039583333333333</v>
+        <v>1.668233333333333</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>hGmvbUXPijVzewh2LV8u</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>10919441</v>
+          <t>CTubmCDsZ4QDFlkftxuV</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7338</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Holdet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lucn" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45964.70289179398</v>
+        <v>45965.43353678241</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>XkfSyHJe6JlFm0OeRtsV</t>
+          <t>DrYGZNGPcYasdif6xJpq</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Hi thecontainerstore, I'm sorry but I couldn't find any results for "Sece." Could you please provide me with more information or clarify what you are looking for so I can assist you better? Thank you.</t>
+          <t>Hi Ramzan Marzook, I'm sorry for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>45964.70361372685</v>
+        <v>45965.43469527778</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>unqmNMyRq4EeBfIs4wip</t>
+          <t>MrJI0k2eTDXd8GJn1Lwi</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>thecontainerstore</t>
+          <t>Ramzan Marzook</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>40.894</v>
+        <v>97.83499999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6815666666666667</v>
+        <v>1.630583333333333</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LNoD84TVq1D4enMpUhTX</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>10919441</v>
+          <t>xRQHWN17sHfG1edyXu7I</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7338</t>
+        </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Knife h" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lucc" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45964.70314041667</v>
+        <v>45965.43356292824</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>XkfSyHJe6JlFm0OeRtsV</t>
+          <t>DrYGZNGPcYasdif6xJpq</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Hi thecontainerstore, I'm sorry but I couldn't find any results for "Sece." Could you please provide me with more information or clarify what you are looking for so I can assist you better? Thank you.</t>
+          <t>Hi Ramzan Marzook, I'm sorry for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>45964.70361372685</v>
+        <v>45965.43469527778</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>unqmNMyRq4EeBfIs4wip</t>
+          <t>MrJI0k2eTDXd8GJn1Lwi</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>thecontainerstore</t>
+          <t>Ramzan Marzook</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7.353</v>
+        <v>89.74299999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.12255</v>
+        <v>1.495716666666667</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>UZAmndyCSVXNptRv55fP</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>10919441</v>
+          <t>ohJblRBq5qFXabaB7AP2</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7338</t>
+        </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Lau" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lunch buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45964.70397252315</v>
+        <v>45965.43365658565</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>EbvwObKO3axI5qTGzhdg</t>
+          <t>DrYGZNGPcYasdif6xJpq</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">
- Hi there! I'm sorry but I couldn't find any results for "Holdet." Can you provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Ramzan Marzook, I'm sorry for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>45964.70405762731</v>
+        <v>45965.43469527778</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>unqmNMyRq4EeBfIs4wip</t>
+          <t>MrJI0k2eTDXd8GJn1Lwi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>thecontainerstore</t>
+          <t>Ramzan Marzook</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>62.221</v>
+        <v>84.027</v>
       </c>
       <c r="D40" t="n">
-        <v>1.037016666666667</v>
+        <v>1.40045</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KOfuMRHcNI1B5GXXVgpp</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>10919441</v>
+          <t>H54fQx7TGHEoBkjbsehe</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7338</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Pods" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45964.704801875</v>
+        <v>45965.43372274306</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>WMGhb6fQW2zzOcyuR9NH</t>
+          <t>DrYGZNGPcYasdif6xJpq</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  I'm sorry but I couldn't find any results for "Lau." Can you provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Ramzan Marzook, I'm sorry for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>45964.70552202546</v>
+        <v>45965.43469527778</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>unqmNMyRq4EeBfIs4wip</t>
+          <t>MrJI0k2eTDXd8GJn1Lwi</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>thecontainerstore</t>
+          <t>Ramzan Marzook</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>46.586</v>
+        <v>46.299</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7764333333333333</v>
+        <v>0.7716499999999999</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WwYDXZOGmxSv8Jm9e03o</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>10919441</v>
+          <t>BiQ17JePtssaPMHXbVLO</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7338</t>
+        </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Chi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buff" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45964.70561283565</v>
+        <v>45965.43415940972</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>96x35YWqW8CCptWV5wcP</t>
+          <t>DrYGZNGPcYasdif6xJpq</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>! I'm sorry but I couldn't find any results for "Pods." Can you provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Ramzan Marzook, I'm sorry for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>45964.70615202546</v>
+        <v>45965.43469527778</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>unqmNMyRq4EeBfIs4wip</t>
+          <t>MrJI0k2eTDXd8GJn1Lwi</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>thecontainerstore</t>
+          <t>Ramzan Marzook</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>44.886</v>
+        <v>91.955</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7481000000000001</v>
+        <v>1.532583333333333</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4LBJUQBndJ8USx9oy3Ko</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>10919441</v>
+          <t>E3N9fajDxXXVqSRCE1l1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7338</t>
+        </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Chop" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Shear" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45964.70563251158</v>
+        <v>45965.69553010417</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>96x35YWqW8CCptWV5wcP</t>
+          <t>pT7pm8vVWcePpB33bKxJ</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>! I'm sorry but I couldn't find any results for "Pods." Can you provide me with more details so I can assist you better? Thank you!</t>
+          <t>Admin: Hi Ramzan Marzook, I apologize for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>45964.70615202546</v>
+        <v>45965.69659439815</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shahil</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Q2Ky5Z2wz7xXjbmUkIuV</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>chathura0525</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>79.376</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.322933333333334</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>IfT2l9gZB7zHKkn4pTVw</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>10916409</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Eliseo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>45965.61680113426</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>RYtFn9ehCsPqA723I6Tc</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Hi chathura0525, I'm sorry that you couldn't find what you were looking for. Could you please provide me with more details so I can assist you in finding the perfect travel option for you? Thank you.</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>45965.61771983797</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Michelle Xavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>R7wQietg05m1bEEaBHDG</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>newtharaka</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>94.004</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.566733333333333</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0u8imlBlE8yXtBu7mv6i</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6886</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Mala" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>45965.53112009259</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>uToIREWP2aVmHEkpVylw</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Hi newtharaka, I'm sorry, but we don't currently offer any packages or services related to "Mala." Is there something else I can assist you with today? Let me know how I can help!</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>45965.53220810185</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TB9IyjSeszoPTb3cErff</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Soe</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1780.004</v>
+      </c>
+      <c r="D45" t="n">
+        <v>29.66673333333333</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>AawqPIl11vUFY8KIlzgK</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>10919862</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Kashi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>45965.04021731482</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>VoYlqSdNWGa15fEpym2y</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Hi Soe, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about the specific "Kashi" you are referring to so that I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>45965.06081921297</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TB9IyjSeszoPTb3cErff</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Soe</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1428.301</v>
+      </c>
+      <c r="D46" t="n">
+        <v>23.80501666666667</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>gbg3VBoLyjtpyOzx1gY0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>10919862</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Kashi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>45965.04428795139</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>VoYlqSdNWGa15fEpym2y</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Hi Soe, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about the specific "Kashi" you are referring to so that I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>45965.06081921297</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TD1GzjwDP1x79iecxULx</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LakminiAdikari</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>14.981</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2496833333333333</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>3YMARuS2QPnLnICzKHxE</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>10917189</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>45965.72703293982</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>MHfjPN8yETvHDTit33Vv</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Hi LakminiAdikari, I'm sorry you couldn't find what you were looking for. Let me see if I can help you find the perfect buffet option for your trip. Can you please provide me with more details? Thank you!</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>45965.72720633102</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>UJI5mus30kOZtfRg0o9B</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>syash5270</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>102.358</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.705966666666667</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>xMFlePkhT20XNx3ngjma</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>10917442</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Malays" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>45965.67597745371</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>RsuSzV0lm7iwX2AzBRud</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Hi syash5270, I apologize for the inconvenience. It looks like there may have been a misunderstanding in your search. Could you please provide me with more information about what you are looking for so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>45965.67716215278</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Michelle Xavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>V9uZg0UoaT6f7psM9fML</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Anjaleeperera</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>12.131</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.2021833333333333</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>bRKDnf5RJ7AvAFRx1BJ3</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>10918874</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Hot" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>45965.45259802083</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>8kksqAKSv6LngjYrUKjG</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Hi Anjaleeperera, I'm sorry that we couldn't find any results for "Hot". Can you provide me with more details about what you're looking for so I can assist you better? Let me know how I can help.</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>45965.45273842593</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>VAowyYPsHSUQp0b1AvmI</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Oshadhiii</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>97.628</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.627133333333333</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1gh2FYLdZTdSAnoR5uku</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>10919874</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Ramadia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>45965.6231095949</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>kiXNvWC4KJ0aJEg1KRW2</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Hi Oshadhiii, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Ramadia" or "Ranmal" so that I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>45965.62423954861</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>VAowyYPsHSUQp0b1AvmI</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Oshadhiii</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>91.809</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.53015</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>EP6ZobEUQttGRBny0ojO</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>10919874</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Ranmal" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>45965.62317694444</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>kiXNvWC4KJ0aJEg1KRW2</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Hi Oshadhiii, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Ramadia" or "Ranmal" so that I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>45965.62423954861</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>WWwCWLRozwghqvBhpgv0</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>KalaniBandara</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>12.742</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.2123666666666667</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>8iHdtsCFKSr9kz3zsJoC</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>10914165</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Malsy" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>45965.70534452546</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>NOKkSxtsttZh7B3KYia4</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Admin: Hi KalaniBandara, I'm sorry but I couldn't find any information on "Malay." Can you please provide me with more details so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>45965.70549200231</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>WWwCWLRozwghqvBhpgv0</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>KalaniBandara</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.1608333333333333</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>m009crhidS1EJ7KGnj1S</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>10914165</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Malay" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>45965.7053803125</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>NOKkSxtsttZh7B3KYia4</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Admin: Hi KalaniBandara, I'm sorry but I couldn't find any information on "Malay." Can you please provide me with more details so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="n">
+        <v>45965.70549200231</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Z1ttdJfW8UkqkCuZ9N9p</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Dillonhris</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>124.756</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.079266666666667</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>7ercnAjrZIY5Y0c2YuOL</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>10919063</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>45965.54250780093</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>JdsPtQmGuzMPQfcB4En2</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Hi Dillonhris! Thank you for reaching out. I'm sorry to hear that you couldn't find what you were looking for. Let me assist you in finding information about Malaysia. Please provide me with more details so I can help you better.</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>45965.54395173611</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>shahil</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>b3zFVU3ELA5owPU7hK2m</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ChamilaS</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>95.608</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.593466666666667</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>nAeUPgPdrUycPshTkInp</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>10915479</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "geral" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>45965.40400766204</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>pr4eJy8KIMmK2OXmIDwN</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Hi ChamilaS, I'm sorry you couldn't find what you were looking for. Can you please provide more details or specific keywords so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>45965.40511423611</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>b3zFVU3ELA5owPU7hK2m</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ChamilaS</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>87.45699999999999</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.457616666666667</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>7ZYhrHqxEd6RWaO3nhZs</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>10915479</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "cak" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>45965.40410200231</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>pr4eJy8KIMmK2OXmIDwN</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Hi ChamilaS, I'm sorry you couldn't find what you were looking for. Can you please provide more details or specific keywords so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>45965.40511423611</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>dLhPyJE8d0S3lWqnShov</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Isuru Premaratne</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>113.23</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.887166666666667</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>VuGvOfeppVDRed7gNX91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>10919123</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Rmadaa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>45965.87450403936</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>7eWYt4dipJaMpMtdcp6E</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Hi Isuru! I'm sorry, but I couldn't find any information on "Rmadaa." Could you please provide me with more details so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>45965.87581457176</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>dq3nuMQ1vMW8lhiopwC0</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>sFoj19ZwmlbPREAMtvtG</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Day out" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>45965.57131085648</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>ipwvvX02r0nj7qSON5G0</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Hi Adhir, I'm sorry you couldn't find what you were looking for. Let me assist you in finding the perfect "Day out" experience. Please provide me with more details so I can help you better.</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>45965.57144071759</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>dq3nuMQ1vMW8lhiopwC0</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Adhir</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>8.839</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.1473166666666667</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>PHUEKBWyNJV5xwjrnUOS</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>10917111</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Day out" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>45965.57193724537</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>NyLThXnBGJHtIOqtlH34</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Hi Adhir, I'm sorry you couldn't find what you were looking for. Let me see if I can help you find the perfect "Day out" experience. Please provide me with more details so I can assist you better.</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>45965.57203954861</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>esqGYiVzLNoFVziNlfcG</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ashani Jayawardhana</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>94.69499999999999</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.57825</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>zRrk8yCCWmFa9sbhwFOO</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>10919838</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Day o" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>45965.62465613426</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>DV28dMWHon7xdbpeIHnW</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Hi Ashani, I'm sorry but I couldn't find any information on "Day o." Can you please provide me with more details so I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>45965.6257521412</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>fNNFKfajstK0NQC2p1Hg</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>fatim6184</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>16.797</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.27995</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>InGTnbyEE9mnVTs2plnc</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>10919884</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Malysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>45965.75563443287</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>HfNEOIyv7WwozF9tYXbT</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Hi Fatim6184! Thank you for reaching out. It seems like there may have been a typo in your search. Did you mean "Malaysia"? Let me know how I can assist you with your travel plans to Malaysia!</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>45965.75582884259</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>iCbroVgv1h9mjTNSe05f</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>zaynaxx_</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>12.792</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.2132</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>jRfEquV8XAQE4ZP3I47I</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>10918987</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>45965.49902428241</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>EEHZol5OsXnHzapuzXsX</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Admin: Hi zaynaxx_! Thank you for your interest in Malaysia. 
+</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>45965.49917233796</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>iPFZ2acAI7CIWyvYXsoe</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>lgjsp99</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>121.345</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.022416666666667</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>K4ZsG6sFPcuQPQjhlEZp</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10910793</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>45965.49597798611</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>mMjA7j6kGwvztfxeEZkP</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Hi lgjsp99, I apologize for the inconvenience. It seems there may have been a technical glitch in our search system. Let me assist you in finding information about Malaysia. Can you please provide me with more details about what specifically you are looking for in Malaysia?</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>45965.49738244213</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>shahil</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ntsMNrUq46tzcPR2MlI5</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Shalitha</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>95.276</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.587933333333333</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>P0rMEkUt81WkiwtK2KmD</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>10919866</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Dayout" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>45965.51755859954</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>g5otjfDaazW3jQwZ3HRE</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Hi Shalitha, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Dayout" so that I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="n">
+        <v>45965.51866133102</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>pRaggzifr4HnrZ6qZ71v</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>15.142</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.2523666666666667</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>tYrw8zg1HmssuCmXVJ6w</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>AHS_Guest</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Vzhhz</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>45965.45213828704</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>iTsR4AYLLZOzmHI4M5A8</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you today?</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="n">
+        <v>45965.45231354167</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>pTEbNcsGvWVGNiKlNVO8</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>yehan5128</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>94.416</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.5736</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MwpVG3msmJW5GsAyDsB2</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>10919882</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bugfets" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>45965.70430883102</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>iJy7CtX9i5YK1FwIRJHs</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Hi yehan5128! I'm sorry that you couldn't find what you were looking for. It seems like there might have been a small typo in your search. Did you mean "Buffets"? Let me know how I can assist you further!</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>45965.70540160879</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>shahil</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>pTEbNcsGvWVGNiKlNVO8</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>yehan5128</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>94.114</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.568566666666667</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Pm65JSmzwjOX7dhOF36G</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>10919882</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bugfe" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>45965.70431232639</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>iJy7CtX9i5YK1FwIRJHs</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Hi yehan5128! I'm sorry that you couldn't find what you were looking for. It seems like there might have been a small typo in your search. Did you mean "Buffets"? Let me know how I can assist you further!</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="n">
+        <v>45965.70540160879</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>shahil</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>pTEbNcsGvWVGNiKlNVO8</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>yehan5128</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>88.479</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.47465</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>6EjOECBLRdFK8tILKbs3</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>10919882</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Buffets" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>45965.7043775463</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>iJy7CtX9i5YK1FwIRJHs</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Hi yehan5128! I'm sorry that you couldn't find what you were looking for. It seems like there might have been a small typo in your search. Did you mean "Buffets"? Let me know how I can assist you further!</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="n">
+        <v>45965.70540160879</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>shahil</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>qMSVZ5mQrS9sDJr5AJrm</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Foretag</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>93.131</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.552183333333333</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>AXMh713fm7sKyDTn4ZLP</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bali" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>45965.64221839121</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>xsdaxw9KNGHfnq4OwVba</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Hi Foretag, I'm sorry that you couldn't find any results for Bali. It seems like there may have been a technical issue. Let me assist you in finding the information you need. Would you like help with booking a trip to Bali or do you have any specific questions about the destination?</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="n">
+        <v>45965.64329629629</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>qMSVZ5mQrS9sDJr5AJrm</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Foretag</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>86.581</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.443016666666667</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0ClIksuxO0lmjAhjIuwA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bali" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>45965.64229420139</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>xsdaxw9KNGHfnq4OwVba</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Hi Foretag, I'm sorry that you couldn't find any results for Bali. It seems like there may have been a technical issue. Let me assist you in finding the information you need. Would you like help with booking a trip to Bali or do you have any specific questions about the destination?</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="n">
+        <v>45965.64329629629</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>rrGTVsbnMbsquTrfuBLc</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>sivav1739</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>93.107</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.551783333333333</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>9AN6FbZrb0Ud6sjuPBRZ</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8472</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Sail" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>45965.51361129629</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>KG8toqGkzqIrLKd55umF</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Hi sivav1739, I'm sorry that you couldn't find "Sail" in our search results. Can you please provide me with more details about what you are looking for so that I can assist you better? Thank you.</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="n">
+        <v>45965.51468892361</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Dishmi</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>slBlpn4mqHSlOPoOBKKM</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>surajdias</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>12.824</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.2137333333333333</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>qDF66FK1v9JXIthm3rX7</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8173</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "singa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>45965.57518582176</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>od7DMy3iHL2nvTuXK9G2</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Hi Surajdias! I'm sorry to hear that you couldn't find what you were looking for. Can you please provide me with more details about "singa" so that I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="n">
+        <v>45965.57533424768</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>slBlpn4mqHSlOPoOBKKM</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>surajdias</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>7.313</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.1218833333333333</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>FksRWd40YNDmM2uIuoUu</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8173</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "malay" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>45965.57543135417</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>fGLOZh8fC6pxeU4jltts</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Hi Surajdias! I'm sorry you couldn't find what you were looking for. Let me help you out with your search for "malay." Let me know more details so I can assist you better. Thank you!</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="n">
+        <v>45965.57551599537</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>slBlpn4mqHSlOPoOBKKM</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>surajdias</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>4.686</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0781</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>SUIssN00wOmovufw0Gkx</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8173</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "thai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>45965.57558690972</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>bPMyt6m6d146mZH0eoV2</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malaysia Getaway Delight – 3 Nights 
+Pack your bags for an unforgettable Malaysia escape! 
+Package Includes 
+•	3 Nights at 3★ Hotel (Ramada Encore or similar) – BB basis
+•	Private Airport Transfers (Pick up &amp; drop off)
+•	Kuala Lumpur Shared City Tour (3½ hrs.)
+•	Genting Highland Excursion
+Cost Per Person:
+Adult – LKR 29,000 pp
+Child – LKR 21,750 pp
+(Children below 3 years – FOC)
+📌Offer Highlights:
+Book By: 30th November
+Travel Before: 20th December
+Minimum: 2 Pax per booking
+Experience the best of Malaysia with this limited-time offer before it’s gone! 🌆✨
+👉 Download our app to unlock more exclusive offers like this.
+</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="n">
+        <v>45965.57564114584</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>vTkSemJ1312N5LIoBPjI</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>User_xOqlu</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>207.184</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.453066666666667</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>kdMFbGkfcYK9BsF1Dsne</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>10919888</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Buffer" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>45965.86290770833</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>ejdjZUfWHiCa2G7LRiSb</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Hi User_xOqlu, I apologize for the inconvenience. It seems like we don't currently have any results for "Buffer" or "Chola" in our database. Can you provide more details or preferences so I can assist you better in finding what you're looking for? Thank you.</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="n">
+        <v>45965.86530567129</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>vTkSemJ1312N5LIoBPjI</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>User_xOqlu</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>135.379</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.256316666666666</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NPn94TDv9rfjRJElwnVo</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>10919888</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Chola" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>45965.86373878472</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>ejdjZUfWHiCa2G7LRiSb</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Hi User_xOqlu, I apologize for the inconvenience. It seems like we don't currently have any results for "Buffer" or "Chola" in our database. Can you provide more details or preferences so I can assist you better in finding what you're looking for? Thank you.</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>45965.86530567129</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>vWJW8qpNDhdc51uxgCgh</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="n">
+        <v>94.679</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.577983333333333</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>EWGQ3kmfO6YXJQAhVbsr</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>AHS_Guest</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Privare" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>45965.44127010417</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>87wVxw70yJXgsecdXH3N</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="n">
+        <v>45965.44236592593</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Michelle Xavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>w8Mr3Nikg0LOqPvwFtbM</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>rizmina</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>14.679</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.24465</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>GItmnWOR37XHUmQ7bH5V</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>10919849</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Cinamon" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>45965.42282155093</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>e4Ub3ocfhi50BlmO7D0j</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Hi Rizmina, I'm sorry that you couldn't find what you were looking for. Could you please provide me with more details so that I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>45965.42299144676</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>w8Mr3Nikg0LOqPvwFtbM</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>rizmina</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>10.452</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.1742</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>FIoOwLCi8UvDCiBUKe4l</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>10919849</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Cinnamon grand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>45965.42287047454</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>e4Ub3ocfhi50BlmO7D0j</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Hi Rizmina, I'm sorry that you couldn't find what you were looking for. Could you please provide me with more details so that I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>45965.42299144676</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>wwq7aqloTQWj9Rnv49dN</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>sashf1869</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>26.017</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.4336166666666667</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>YKorMG4tSAJIMZHAiU0x</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>10919840</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Mala" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>45965.73221</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>ZJv9AWkL54k4TRLfeq2Y</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>*Malaysia Getaway Delight – 3 Nights* 
+Pack your bags for an unforgettable Malaysia escape! 
+Package Includes 
+•	3 Nights at 3★ Hotel (Ramada Encore or similar) – BB basis
+•	Private Airport Transfers (Pick up &amp; drop off)
+•	Kuala Lumpur Shared City Tour (3½ hrs.)
+•	Genting Highland Excursion
+Cost Per Person:
+Adult – *LKR 29,000 pp*
+Child – *LKR 21,750 pp*
+(Children below 3 years – FOC)
+📌Offer Highlights:
+Book By: *30th November*
+Travel Before: *20th December*
+Minimum: *2 Pax per booking*
+Experience the best of Malaysia with this limited-time offer before it’s gone! 🌆✨
+👉 Download our app to unlock more exclusive offers like this!
+https://aahaas-appqr4.aahaas.com
+_Uniquely Yours_</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>45965.73251112268</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>wwq7aqloTQWj9Rnv49dN</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>sashf1869</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>20.751</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.34585</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>32DO6qBPvTBhvlwVHDKX</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>10919840</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>45965.73227094908</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>ZJv9AWkL54k4TRLfeq2Y</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>*Malaysia Getaway Delight – 3 Nights* 
+Pack your bags for an unforgettable Malaysia escape! 
+Package Includes 
+•	3 Nights at 3★ Hotel (Ramada Encore or similar) – BB basis
+•	Private Airport Transfers (Pick up &amp; drop off)
+•	Kuala Lumpur Shared City Tour (3½ hrs.)
+•	Genting Highland Excursion
+Cost Per Person:
+Adult – *LKR 29,000 pp*
+Child – *LKR 21,750 pp*
+(Children below 3 years – FOC)
+📌Offer Highlights:
+Book By: *30th November*
+Travel Before: *20th December*
+Minimum: *2 Pax per booking*
+Experience the best of Malaysia with this limited-time offer before it’s gone! 🌆✨
+👉 Download our app to unlock more exclusive offers like this!
+https://aahaas-appqr4.aahaas.com
+_Uniquely Yours_</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>45965.73251112268</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>yIgW7kK7CY2iuZziZYth</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>tharushisp</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>102.768</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.7128</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>zSUWXZDPljCicXUa51Rg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>10919869</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>45965.57744380787</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>oIJ3sbVw4P76Fr2MaMj2</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Hi Tharushisp, I'm sorry that you couldn't find what you were looking for. Could you please provide me with more details about the type of buffet you are searching for? I'll do my best to assist you in finding the perfect option for you. Thank you!</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>45965.57863325231</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,105 +502,104 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1ZEiGOuOrYlVUCC7wVTw</t>
+          <t>0D1r2ZWgdQ4Wawyj2Rcd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hameedsiddeek</t>
+          <t>Shuhaib123</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>338.716</v>
+        <v>104.051</v>
       </c>
       <c r="D2" t="n">
-        <v>5.645266666666667</v>
+        <v>1.734183333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Zx6rHPKpa0Z0W8FCa9iB</t>
+          <t>w12jC4duNs7HnGY3M0ka</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4521</t>
+          <t>10919905</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "In" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45965.2589912037</v>
+        <v>45966.48629975694</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>gJumo4jYX2ZiahKlqSSg</t>
+          <t>PFAvrxO0gNXNhBeAROE3</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hi Ishameedsiddeek, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better?</t>
+          <t>Hi Shuhaib123! I apologize for the inconvenience. It seems like there may have been a technical issue with the search results. Let me assist you in finding information on Malaysia. Feel free to ask me any questions you may have about Malaysia or any other travel destination. I'm here to help!</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45965.26291152778</v>
+        <v>45966.48750405093</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2960hvB8Wyc0gcquldje</t>
+          <t>0HivBw4VkrirHaul6haf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MadhushaniSilva</t>
+          <t>rochel259</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.753</v>
+        <v>14.028</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3292166666666667</v>
+        <v>0.2338</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Jj1gSvnGHTJayEd3MerQ</t>
+          <t>rQFTVg6jmvC4DCc0pHTT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10919873</t>
+          <t>10912102</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">is this offer price available </t>
+          <t>Hi, I was searching for "Kuala" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45965.61364615741</v>
+        <v>45966.48377006945</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>edTjscz2YtxYMqZGY60u</t>
+          <t>OevEa4DNSpO4MD48UZgK</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi MadhushaniSilva, thank you for your interest in our offer.
-</t>
+          <t>Hi Rochel259, I'm sorry that you couldn't find what you were looking for. Let me assist you in finding information about Kuala Lumpur, Malaysia. Please let me know if there is anything specific you are looking for so I can help you better. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45965.61387478009</v>
+        <v>45966.48393243056</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -611,381 +610,358 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2960hvB8Wyc0gcquldje</t>
+          <t>0HivBw4VkrirHaul6haf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MadhushaniSilva</t>
+          <t>rochel259</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>257.217</v>
+        <v>11.192</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28695</v>
+        <v>0.1865333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>kHcrD6PY7HV3BNXy9C9s</t>
+          <t>5RCbcBP1EPbCAsVnhliG</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10919873</t>
+          <t>10912102</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">how to confirm my booking on 9th of november </t>
+          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45965.619776875</v>
+        <v>45966.48380289352</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>nSRS3haP1owVuQ6dl7hC</t>
+          <t>OevEa4DNSpO4MD48UZgK</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Will check the availability and let you know. 
-</t>
+          <t>Hi Rochel259, I'm sorry that you couldn't find what you were looking for. Let me assist you in finding information about Kuala Lumpur, Malaysia. Please let me know if there is anything specific you are looking for so I can help you better. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45965.62275392361</v>
+        <v>45966.48393243056</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2960hvB8Wyc0gcquldje</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MadhushaniSilva</t>
-        </is>
-      </c>
+          <t>0PKNLl0tjvW6b3Megi6P</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1101.931</v>
+        <v>100.723</v>
       </c>
       <c r="D5" t="n">
-        <v>18.36551666666667</v>
+        <v>1.678716666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Plu9jembtTA6PIWGtYPo</t>
+          <t>WnFPbWqmrDgNawXBoyIu</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10919873</t>
+          <t>AHS_Guest</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">two adults </t>
+          <t>Hi, I was searching for "Sr" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45965.64494313658</v>
+        <v>45966.68214063657</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>EeYdKXhi37NAY0wjd2kE</t>
+          <t>LvCFTqASmS709WWYhsxm</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi Ma'am, I just checked with my team. Unfortunately the dinner buffet at Sofia Colombo is not available on Sundays. 
-</t>
+          <t>Hi there! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45965.6576969676</v>
+        <v>45966.68330641204</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2960hvB8Wyc0gcquldje</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MadhushaniSilva</t>
-        </is>
-      </c>
+          <t>0PKNLl0tjvW6b3Megi6P</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>172.966</v>
+        <v>108.111</v>
       </c>
       <c r="D6" t="n">
-        <v>2.882766666666667</v>
+        <v>1.80185</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BSZGE9TaNDFr7zln0DWh</t>
+          <t>vpv886Db1YJK3hnETH5w</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10919873</t>
+          <t>AHS_Guest</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>sorry 8th of november fine</t>
+          <t>Hi, I was searching for "Banko" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45965.65837116898</v>
+        <v>45966.94636417824</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Qx2poYkdzd1BNgcaN8QO</t>
+          <t>6hdMBqfC1VG2VGfHT5Bq</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sorry, they are not operating
- on this saturday. But the Buffet is available on This Thursday. </t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Let me look into this for you and see if I can help. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45965.66037309028</v>
+        <v>45966.94761546297</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2960hvB8Wyc0gcquldje</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MadhushaniSilva</t>
-        </is>
-      </c>
+          <t>0PKNLl0tjvW6b3Megi6P</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>121.504</v>
+        <v>108.06</v>
       </c>
       <c r="D7" t="n">
-        <v>2.025066666666667</v>
+        <v>1.801</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NDU0esVUMMO16kSnbyBT</t>
+          <t>fAoYI9raWfQbflwLOtCy</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10919873</t>
+          <t>AHS_Guest</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>two adults date - 8th of November Dinner buffet</t>
+          <t>Hi, I was searching for "Bancok" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45965.65896679398</v>
+        <v>45966.94636476852</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Qx2poYkdzd1BNgcaN8QO</t>
+          <t>6hdMBqfC1VG2VGfHT5Bq</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sorry, they are not operating
- on this saturday. But the Buffet is available on This Thursday. </t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Let me look into this for you and see if I can help. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45965.66037309028</v>
+        <v>45966.94761546297</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2960hvB8Wyc0gcquldje</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MadhushaniSilva</t>
-        </is>
-      </c>
+          <t>0PKNLl0tjvW6b3Megi6P</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1744.6</v>
+        <v>86.226</v>
       </c>
       <c r="D8" t="n">
-        <v>29.07666666666666</v>
+        <v>1.4371</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EOoeymcgRYvlFPkqHAdz</t>
+          <t>ZFFmqPNatmSutjo3gPnR</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10919873</t>
+          <t>AHS_Guest</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">no this week Thursday not possible  </t>
+          <t>Hi, I was searching for "Tours" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45965.66769428241</v>
+        <v>45966.94661747685</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>dz5CryAGR41TxMaN6NND</t>
+          <t>6hdMBqfC1VG2VGfHT5Bq</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will check the availability with the hotel and get back to you. Could you kindly share an active whatsApp number with us?
-</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Let me look into this for you and see if I can help. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45965.68788641204</v>
+        <v>45966.94761546297</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2960hvB8Wyc0gcquldje</t>
+          <t>0vGwZFfLHiLXSKFW0XoM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MadhushaniSilva</t>
+          <t>dinus5277</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1722.498</v>
+        <v>14.744</v>
       </c>
       <c r="D9" t="n">
-        <v>28.7083</v>
+        <v>0.2457333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GOjIj2qh7qElQ9Frm1Wy</t>
+          <t>3J8kY57lU2hk1dik7unx</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10919873</t>
+          <t>10919898</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">how about next week any day </t>
+          <t>Hi, I was searching for "bentho" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45965.66795009259</v>
+        <v>45966.34916864584</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>dz5CryAGR41TxMaN6NND</t>
+          <t>vscnw2nduuoGyDUrylfC</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will check the availability with the hotel and get back to you. Could you kindly share an active whatsApp number with us?
-</t>
+          <t>Hi dinus5277! I'm sorry, but it seems that "bentho" doesn't match any of our current offerings. Is there anything else I can assist you with today?</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45965.68788641204</v>
+        <v>45966.34933929398</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2960hvB8Wyc0gcquldje</t>
+          <t>0vGwZFfLHiLXSKFW0XoM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MadhushaniSilva</t>
+          <t>dinus5277</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>53.275</v>
+        <v>14.319</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8879166666666667</v>
+        <v>0.23865</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>iWy44QbXtWsK32blCZuW</t>
+          <t>G7ZMzYuH51Ub9xzin4tw</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10919873</t>
+          <t>10919898</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">yes </t>
+          <t>Hi, I was searching for "bentota bea" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45965.69330857639</v>
+        <v>45966.35059111111</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>vdiXl1kzdiZq7HzY2Kyi</t>
+          <t>VC1vKNgJXwlafbF2c2yb</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alright noted is next Saturday ideal for you?
-</t>
+          <t>Hi dinus5277! I'm sorry, but it looks like we don't currently have any offerings that match what you're looking for. Is there anything else I can help you with today?</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45965.69392518519</v>
+        <v>45966.35075684028</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -996,1134 +972,1137 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2960hvB8Wyc0gcquldje</t>
+          <t>0z4iN8bsIjEkNItpjq2u</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MadhushaniSilva</t>
+          <t>Raizul</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>48.004</v>
+        <v>387.414</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8000666666666666</v>
+        <v>6.4569</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>IBIejdyGA575UYrbTAfo</t>
+          <t>1z3DPKKph4v7dtKgBPzV</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10919873</t>
+          <t>10919894</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0753402090</t>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45965.69336958334</v>
+        <v>45966.18823796296</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>vdiXl1kzdiZq7HzY2Kyi</t>
+          <t>wlLPlHkDe1PF05GlMoIH</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alright noted is next Saturday ideal for you?
-</t>
+          <t>Hi Raizul, I'm sorry that you couldn't find what you were looking for on our website. Can you please provide me with more details about your interests in Thailand so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45965.69392518519</v>
+        <v>45966.1927219213</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2yw9Mrvt4w15MO74rEz0</t>
+          <t>3fhb2wg0C5eC0RjHf4kE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dineth Pramuditha</t>
+          <t>hirup7325</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>119.835</v>
+        <v>103.929</v>
       </c>
       <c r="D12" t="n">
-        <v>1.99725</v>
+        <v>1.73215</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ZqT0GnxiBPv4gdaY9dCY</t>
+          <t>RdOs7pxLibJ0QGNPJRJE</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10914668</t>
+          <t>8325</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buff" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45965.91235655093</v>
+        <v>45966.75524666667</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>5CfBw09RtwKt7cpXu0Hy</t>
+          <t>FJr7slwS51OsbxaQxPo6</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Hi Dineth Pramuditha, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Buff" so I can assist you better? Thank you.</t>
+          <t xml:space="preserve">Hi sir, how may I help you today.
+</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45965.91374353009</v>
+        <v>45966.75644954861</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4FxmrGUsRwz9gI4qoDmf</t>
+          <t>3fhb2wg0C5eC0RjHf4kE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>l_chathuranga@icloud.com</t>
+          <t>hirup7325</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>104.84</v>
+        <v>52.237</v>
       </c>
       <c r="D13" t="n">
-        <v>1.747333333333333</v>
+        <v>0.8706166666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>yXEhM6MZr30V8NjdQT4V</t>
+          <t>IEyioUOk57xHmQYzzf27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10919877</t>
+          <t>8325</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malya" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Can i know about malaysia visa procedures and cost</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45965.64111460648</v>
+        <v>45966.7558449537</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ZQEHZ7Yae4A607zpdqhc</t>
+          <t>FJr7slwS51OsbxaQxPo6</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Hello l_chathuranga@icloud.com! I'm sorry, but I couldn't find any information on "Malya." Could you please provide me with more details so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">Hi sir, how may I help you today.
+</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45965.64232803241</v>
+        <v>45966.75644954861</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5LZNTAvB3gjuimQQf77r</t>
+          <t>3fhb2wg0C5eC0RjHf4kE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>nissy</t>
+          <t>hirup7325</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15.431</v>
+        <v>148.592</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2571833333333333</v>
+        <v>2.476533333333334</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>lkdRotVtpEaxxdUHyzG1</t>
+          <t>Dx3KzFMtIpYtVe3A7jTT</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10918719</t>
+          <t>8325</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Day oac" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Visa cost not included for the 29,000 right?</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45965.59062921297</v>
+        <v>45966.75819167824</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>KRmZWh4XD9WM4ZJ3nAQi</t>
+          <t>r3fDNBhaMwsq5hTQASfR</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Hi Nissy! I'm sorry, but I couldn't find any results for "Day oac." Could you please provide me with more information or clarify what you're looking for so I can better assist you? Thank you!</t>
+          <t xml:space="preserve">Visa cost is not included
+</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45965.5908078125</v>
+        <v>45966.75991149306</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5LZNTAvB3gjuimQQf77r</t>
+          <t>3fhb2wg0C5eC0RjHf4kE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>nissy</t>
+          <t>hirup7325</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8.393000000000001</v>
+        <v>117.903</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1398833333333333</v>
+        <v>1.96505</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICNguUUwz9PlJR5R4brY</t>
+          <t>kUIgdb7t7SDcZ4aPcNbS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10918719</t>
+          <t>8325</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Day package" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>We are planning to departure 20dec is it possible?</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45965.59133243056</v>
+        <v>45966.758546875</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>UEmgzwOzg2gGQnNRzwOU</t>
+          <t>r3fDNBhaMwsq5hTQASfR</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Hi Nissy! I'm sorry, but I couldn't find any results for "Day package." Can you please provide me with more details about what you're looking for so I can better assist you? Thank you!</t>
+          <t xml:space="preserve">Visa cost is not included
+</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45965.59142957176</v>
+        <v>45966.75991149306</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5LZNTAvB3gjuimQQf77r</t>
+          <t>3fhb2wg0C5eC0RjHf4kE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>nissy</t>
+          <t>hirup7325</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>112.703</v>
+        <v>201.503</v>
       </c>
       <c r="D16" t="n">
-        <v>1.878383333333333</v>
+        <v>3.358383333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fEYBIFQXMTXDaMVrKabE</t>
+          <t>K9xlMbkMg622jquMPCPj</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10918719</t>
+          <t>8325</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Daycation" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Can i know about malaysian visa requirement details</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45965.98070604166</v>
+        <v>45966.76022774306</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>JBAqpfOBCstn6sxWsuyd</t>
+          <t>DLpaoLtWjU8W8mUHwWzw</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Admin: Hi Nissy! I'm sorry, but I couldn't find any results for "Daycation." Can you please provide me with more details about what you're looking for so I can assist you better? Thank you for reaching out!</t>
+          <t xml:space="preserve">I'll check with the team and get back to you.
+</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45965.98201047454</v>
+        <v>45966.76255995371</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5LZNTAvB3gjuimQQf77r</t>
+          <t>3fhb2wg0C5eC0RjHf4kE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>nissy</t>
+          <t>hirup7325</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>77.53</v>
+        <v>59.077</v>
       </c>
       <c r="D17" t="n">
-        <v>1.292166666666667</v>
+        <v>0.9846166666666666</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SCKXzMVcWn5eeMwLbmLz</t>
+          <t>eAj5i2OmWqgGaZ1i5tmE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10918719</t>
+          <t>8325</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Day out" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45965.98111313657</v>
+        <v>45966.76187619213</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>JBAqpfOBCstn6sxWsuyd</t>
+          <t>DLpaoLtWjU8W8mUHwWzw</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Admin: Hi Nissy! I'm sorry, but I couldn't find any results for "Daycation." Can you please provide me with more details about what you're looking for so I can assist you better? Thank you for reaching out!</t>
+          <t xml:space="preserve">I'll check with the team and get back to you.
+</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45965.98201047454</v>
+        <v>45966.76255995371</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6J8N4680WaK9EkyvcEdA</t>
+          <t>3fhb2wg0C5eC0RjHf4kE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mahesh1991</t>
+          <t>hirup7325</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>119.169</v>
+        <v>150.93</v>
       </c>
       <c r="D18" t="n">
-        <v>1.98615</v>
+        <v>2.5155</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Awp6NfGyYCHB3vsVdaBz</t>
+          <t>flgpL1dA7SNAdDgeevNo</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10919890</t>
+          <t>8325</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Nuwa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Ok thanks</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45965.93113600695</v>
+        <v>45966.80488236111</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>YLaXzgiRlnIGiIg3VzAx</t>
+          <t>6rqEqiVeSjnuj0ENx3hy</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Hi mahesh1991, I'm sorry but I couldn't find any specific information on "Nuwa". Could you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>If you need any assistance let me know sir.</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45965.93251527777</v>
+        <v>45966.80662923611</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Df9CMX1fJElPal1faDbm</t>
+          <t>3fhb2wg0C5eC0RjHf4kE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sayuri_hewage</t>
+          <t>hirup7325</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>503.693</v>
+        <v>163.2</v>
       </c>
       <c r="D19" t="n">
-        <v>8.394883333333333</v>
+        <v>2.72</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BtpKSNEH7R9dV7AKPxvt</t>
+          <t>7JPwbZi7seNDk9VkPsg3</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5303</t>
+          <t>8325</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malasia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Can you give honey moon tour  packages ?</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45965.94463306713</v>
+        <v>45966.8196671412</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>tRcTaXh2GgBlF1pf9YUN</t>
+          <t>0ybui6zM6U8ZhgEqZwEU</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Hello sayuri_hewage! Thank you for reaching out. It seems like there might have been a small typo in your search. Did you mean "Malaysia"? Let me help you find some information on that destination. Feel free to ask if you need any assistance!</t>
+          <t>I'll check with the team and get back to you</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45965.95046284722</v>
+        <v>45966.8215560301</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FAfvnH3GUe25CpSkRkah</t>
+          <t>3fhb2wg0C5eC0RjHf4kE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>mikfe7602</t>
+          <t>hirup7325</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>94.869</v>
+        <v>118.566</v>
       </c>
       <c r="D20" t="n">
-        <v>1.58115</v>
+        <v>1.9761</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>jsXn9pCQlWEpU3A4N7Oq</t>
+          <t>7Gh6tEGMJ57lFKuCNCQW</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10916023</t>
+          <t>8325</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cina" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>In best price</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45965.52973688657</v>
+        <v>45966.82018373843</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>UbODy0r4JT4my4Xm0CCZ</t>
+          <t>0ybui6zM6U8ZhgEqZwEU</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Hi mikfe7602, thank you for reaching out to us. I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Cina" so that I can assist you better? Thank you.</t>
+          <t>I'll check with the team and get back to you</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45965.5308349074</v>
+        <v>45966.8215560301</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FAfvnH3GUe25CpSkRkah</t>
+          <t>3fhb2wg0C5eC0RjHf4kE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>mikfe7602</t>
+          <t>hirup7325</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>91.658</v>
+        <v>104.499</v>
       </c>
       <c r="D21" t="n">
-        <v>1.527633333333333</v>
+        <v>1.74165</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>g1rxcvg13FU0qfrawdbq</t>
+          <t>3JkwQDG1cjInhYQn89Nj</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10916023</t>
+          <t>8325</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinam" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Malaysia Singapore dubai</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45965.53085356481</v>
+        <v>45966.82034655093</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>jjFfbtR580Xuri5sbUKq</t>
+          <t>0ybui6zM6U8ZhgEqZwEU</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Hi mikfe7602, I apologize for the inconvenience. Can you please provide me with more details or a different spelling of "Cinam" or "Cinnnam" so that I can assist you in finding what you're looking for? Thank you.</t>
+          <t>I'll check with the team and get back to you</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45965.5319144213</v>
+        <v>45966.8215560301</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FAfvnH3GUe25CpSkRkah</t>
+          <t>3fhb2wg0C5eC0RjHf4kE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>mikfe7602</t>
+          <t>hirup7325</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>84.378</v>
+        <v>160.135</v>
       </c>
       <c r="D22" t="n">
-        <v>1.4063</v>
+        <v>2.668916666666667</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>vdLwxZLHNImAEUCBSFCD</t>
+          <t>QrmP1qu1TDdGa8B0e9Re</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10916023</t>
+          <t>8325</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinnnam" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45965.53093782407</v>
+        <v>45966.83271329861</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>jjFfbtR580Xuri5sbUKq</t>
+          <t>DjA1wIgmV8fCeVyzx7Bz</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Hi mikfe7602, I apologize for the inconvenience. Can you please provide me with more details or a different spelling of "Cinam" or "Cinnnam" so that I can assist you in finding what you're looking for? Thank you.</t>
+          <t>thank you for your inquiry.</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45965.5319144213</v>
+        <v>45966.83456671296</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FNIfTtyzVytH1WVr7rBk</t>
+          <t>3fhb2wg0C5eC0RjHf4kE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>hnimn5711</t>
+          <t>hirup7325</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>92.76300000000001</v>
+        <v>56.374</v>
       </c>
       <c r="D23" t="n">
-        <v>1.54605</v>
+        <v>0.9395666666666667</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>pMEFdhhMHswjnFBryGeE</t>
+          <t>2xxVaTqimh8k8PJqhIyG</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10919782</t>
+          <t>8325</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinnamon lak" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Any updates?</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45965.37488601852</v>
+        <v>45966.83391423611</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>uNiqUqjVPcU7WHEQPZEF</t>
+          <t>DjA1wIgmV8fCeVyzx7Bz</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Admin: Hi hnimn5711! Thank you for reaching out. I'm sorry you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Let me know how I can help.</t>
+          <t>thank you for your inquiry.</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45965.37595966435</v>
+        <v>45966.83456671296</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FedSeS3fslxe4jZcF4tt</t>
+          <t>4ZEY4ahEs5ZzRbGDieye</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>prran5532</t>
+          <t>tharan</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>111.055</v>
+        <v>125.688</v>
       </c>
       <c r="D24" t="n">
-        <v>1.850916666666667</v>
+        <v>2.0948</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>xWms1H6DTjd47irinGXX</t>
+          <t>ksYtD87Zlx55avEYAQPk</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10910682</t>
+          <t>4710</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Oersease" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Pedicure" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45965.86865712963</v>
+        <v>45966.77540398148</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2RQFc0RcEDNXXrm6HwDi</t>
+          <t>w8DwdAwilFc9WsNJfcHH</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Admin: Hi prran5532, I'm sorry but it seems like there might be a spelling error in your search. Can you please provide more details or try searching for a different keyword? I'll do my best to help you find what you're looking for.</t>
+          <t xml:space="preserve">Hi Tharan, I'm sorry we couldn't find what you were looking for. If there's anything else you need assistance with, feel free to let me know. I'm here to help.
+</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45965.86994248843</v>
+        <v>45966.77685870371</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FedSeS3fslxe4jZcF4tt</t>
+          <t>6zIq4QBZj1xRl2xXAHnX</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>prran5532</t>
+          <t>Tamari Seneviratne</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>106.215</v>
+        <v>130.18</v>
       </c>
       <c r="D25" t="n">
-        <v>1.77025</v>
+        <v>2.169666666666667</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>OLgXMrcNLfgz4EM1UnCv</t>
+          <t>Zr7CMSTEiYHmRFvC4l01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10910682</t>
+          <t>10919099</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Oversease" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lunch" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45965.86871314815</v>
+        <v>45966.75446733796</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2RQFc0RcEDNXXrm6HwDi</t>
+          <t>VTYuYAxvZLtExN8ehMb4</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Admin: Hi prran5532, I'm sorry but it seems like there might be a spelling error in your search. Can you please provide more details or try searching for a different keyword? I'll do my best to help you find what you're looking for.</t>
+          <t xml:space="preserve"> Hi Tamari Seneviratne, I apologize for the inconvenience. Our focus is on providing travel assistance, but I can recommend some great local restaurants for lunch during your trip. Let me know if you'd like some suggestions!</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45965.86994248843</v>
+        <v>45966.75597405092</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FedSeS3fslxe4jZcF4tt</t>
+          <t>6zIq4QBZj1xRl2xXAHnX</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>prran5532</t>
+          <t>Tamari Seneviratne</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>90.084</v>
+        <v>128.86</v>
       </c>
       <c r="D26" t="n">
-        <v>1.5014</v>
+        <v>2.147666666666667</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>dgITuXKmjGq0g3n1Bv8I</t>
+          <t>4cT3izUL9toZ4caY1z9g</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10910682</t>
+          <t>10919099</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Offers" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45965.86889984953</v>
+        <v>45966.75806851852</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2RQFc0RcEDNXXrm6HwDi</t>
+          <t>yNGxYYACiVD4hP9zK3uQ</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Admin: Hi prran5532, I'm sorry but it seems like there might be a spelling error in your search. Can you please provide more details or try searching for a different keyword? I'll do my best to help you find what you're looking for.</t>
+          <t>Hi Tamari Seneviratne, I apologize for any confusion. Our team is here to assist you with any travel-related inquiries you may have. Feel free to let us know your preferences or destinations you are interested in, and we will do our best to find you some great offers. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45965.86994248843</v>
+        <v>45966.7595599537</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FedSeS3fslxe4jZcF4tt</t>
+          <t>8dcc1qD5i6LwjJnXxvkO</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>prran5532</t>
+          <t>tcnpe5060</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>133.196</v>
+        <v>14.547</v>
       </c>
       <c r="D27" t="n">
-        <v>2.219933333333333</v>
+        <v>0.24245</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>QGVdA1YvmqIN1zZPRLdh</t>
+          <t>0b6Ss3ZnFU3xpljhOCiL</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10910682</t>
+          <t>10919686</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Flights" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Waters e" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45965.89201516204</v>
+        <v>45966.38395091435</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>5tONUohQeHu7leBje7QL</t>
+          <t>4wadRwrBonayInCKAZdK</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Hi prran5532, I'm sorry you're having trouble finding what you're looking for. Can you please provide more details about your search so I can assist you better? Thank you!</t>
+          <t>Hello tcnpe5060, thank you for reaching out. I'm here to help you find what you're looking for. Can you please provide me with more details or keywords related to your search for "Waters e"? I'll do my best to assist you.</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45965.89355678241</v>
+        <v>45966.3841192824</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GfQol7o6EKZOQYOQVxoS</t>
+          <t>8dcc1qD5i6LwjJnXxvkO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Shadini</t>
+          <t>tcnpe5060</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>44.682</v>
+        <v>96.443</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7447</v>
+        <v>1.607383333333333</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>u0Y3uGD7jOz0FbjjaMKj</t>
+          <t>45dmazF2kCqmnf7Fd9pd</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10918975</t>
+          <t>10919686</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>I need to plan a tour to another country</t>
+          <t>Hi, I was searching for "Waters" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45965.39265226852</v>
+        <v>45966.38451849537</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>ocV5pEsnhSU9hswVrBIR</t>
+          <t>sqA0Xds4QpC5h0NRF4GR</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve">May i know for which country are you looking forward to travel?
-</t>
+          <t xml:space="preserve"> Hi tcnpe5060, I apologize for the inconvenience. Can you please provide me with more details about your search for "Waters"? I'm here to help you find what you're looking for.</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45965.3931694213</v>
+        <v>45966.38563473379</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GfQol7o6EKZOQYOQVxoS</t>
+          <t>9iIULWkfFAfbl60tKRl8</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Shadini</t>
+          <t>nuwan28</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>226.278</v>
+        <v>446.617</v>
       </c>
       <c r="D29" t="n">
-        <v>3.7713</v>
+        <v>7.443616666666667</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>YiuJRks6I35vD6UqGtwX</t>
+          <t>OnjOohxJpRAN5c43aH9d</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10918975</t>
+          <t>10919354</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Which country you suggest to travel.budget countries for a family</t>
+          <t>Hi, I was searching for "City of sram" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45965.40864467592</v>
+        <v>45966.41042818287</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3E4BCllYtLzHBF9V2oGv</t>
+          <t>fjaKU3deIZG7GcWjcz4H</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">We will be dropping some budget friendly tour packages the upcoming days. Just for heads up the countries are Malaysia, Singapore, Maldives &amp; Thailand. We cannot provide you any further details. Please stay tuned and follow us in our social media to get more update in the near future.
-</t>
+          <t>Hi isnuwan28, I apologize for the confusion. "City of sram" doesn't seem to be a known destination. Could you provide more information or clarify your search so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45965.41126363426</v>
+        <v>45966.41559736111</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GfQol7o6EKZOQYOQVxoS</t>
+          <t>AYehqBLkoqbuW739a4P4</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Shadini</t>
+          <t>haseeffarook</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>37.633</v>
+        <v>99.098</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6272166666666668</v>
+        <v>1.651633333333333</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4Qliht6bPCZ6HA5iGeJY</t>
+          <t>PwfMlqNu2BllZ4TUqvaJ</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>10918975</t>
+          <t>4857</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>How about vietnam</t>
+          <t>Hi, I was searching for "Sooru" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45965.49508369213</v>
+        <v>45966.52168539352</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>gnRQ4S1JGOCQeqBdNOL6</t>
+          <t>1fyIu60QAskkLZZH0sZv</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">We are not offering a promo for vietnam
-</t>
+          <t>Hi Haseef Farook! Thank you for reaching out. I'm sorry, but I couldn't find any information on "Sooru." Could you please provide me with more details or clarify what you are looking for? I'm here to help!</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45965.49551925926</v>
+        <v>45966.52283236111</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HON64Vng92CVMxUTqiTr</t>
+          <t>E9e1pFskanOlxDMzGanB</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nabilah</t>
+          <t>Thiyamini</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>11.48</v>
+        <v>18.805</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1913333333333333</v>
+        <v>0.3134166666666667</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>uaYpqqKIk3yNvOlUGZUx</t>
+          <t>tnBwoOOPZkytwXf6lDIZ</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10917816</t>
+          <t>10919897</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffer" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thai" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45965.77745880787</v>
+        <v>45966.34347462963</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>rrgwT2sWNm7h4cdchIVK</t>
+          <t>B1P9M0X1dXNSpMm0cbCC</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Hi Nabilah! I'm sorry for the inconvenience. Could you please provide me with more details about what you are looking for? I'm here to help you find what you need.</t>
+          <t>Hi Thiyamini, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search for "Thai" so that I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45965.77759167824</v>
+        <v>45966.34369228009</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2134,50 +2113,50 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HON64Vng92CVMxUTqiTr</t>
+          <t>E9e1pFskanOlxDMzGanB</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nabilah</t>
+          <t>Thiyamini</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9.175000000000001</v>
+        <v>17.631</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1529166666666667</v>
+        <v>0.29385</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7hWpI5LKI7ceQt5LeOuT</t>
+          <t>o7KNUHEwhIk6gvp12f18</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10917816</t>
+          <t>10919897</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Okinawa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45965.78348866898</v>
+        <v>45966.34896876157</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>q2JN6wvV7uEdmpPiopBo</t>
+          <t>W0lgNLr7oJxen0XgycNl</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Admin: Hi Nabilah! I apologize for the confusion. Could you please provide me with more details about the type of buffet you are looking for? I'm here to assist you in finding the perfect dining option for your trip.</t>
+          <t>Can you please provide me with more details about what you are looking for in regards to "Okinawa" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>45965.78359486111</v>
+        <v>45966.34917282408</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2188,104 +2167,104 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IG9UZJwss3sTMcbRa1nG</t>
+          <t>GM8HCJWfVCk08vcmdIih</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>chint7236</t>
+          <t>ranki2870</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>13.246</v>
+        <v>113.623</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2207666666666667</v>
+        <v>1.893716666666667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Nhw4xWfewBEmW6CMg328</t>
+          <t>ar6Kc0xysklb3sgr8D5E</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10918822</t>
+          <t>10910798</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Mala" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinnamon" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45965.78326244213</v>
+        <v>45966.62071961805</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>UqWtEwdxw1ZWNbuMtaAH</t>
+          <t>lbJXP38xuLtccMbCmZsL</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Hello chint7236, I apologize for the inconvenience. Could you please provide me with more information about what you are looking for? This will help me assist you better. Thank you.</t>
+          <t>Hi ranki2870, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the specific "Cinnamon" you are searching for? This will help me assist you better. Thank you!</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>45965.78341575232</v>
+        <v>45966.62203469907</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IG9UZJwss3sTMcbRa1nG</t>
+          <t>JJ4T17SquEnOqJrY9bJx</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>chint7236</t>
+          <t>ravinduy</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>11.396</v>
+        <v>15.345</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1899333333333333</v>
+        <v>0.25575</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>uHhSUsa1tHOHJLAzjWeL</t>
+          <t>PED4u7qtaOLcPqVLXkeu</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10918822</t>
+          <t>10919916</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Maly" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Amaru" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45965.78328385417</v>
+        <v>45966.59481525463</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>UqWtEwdxw1ZWNbuMtaAH</t>
+          <t>3c83uGzijx35EthJeaxz</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Hello chint7236, I apologize for the inconvenience. Could you please provide me with more information about what you are looking for? This will help me assist you better. Thank you.</t>
+          <t>Hi Ravindu, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Amaru" or "Amari" so I can assist you better in finding the right information? Thank you!</t>
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>45965.78341575232</v>
+        <v>45966.59499285879</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2296,50 +2275,50 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IG9UZJwss3sTMcbRa1nG</t>
+          <t>JJ4T17SquEnOqJrY9bJx</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>chint7236</t>
+          <t>ravinduy</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.551</v>
+        <v>15.208</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09251666666666666</v>
+        <v>0.2534666666666667</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CH2p8LTe7s7303NvgmS2</t>
+          <t>KsmyqMabwkuteIfkpHrA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10918822</t>
+          <t>10919916</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Maley" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Amari" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45965.78335150463</v>
+        <v>45966.59481684028</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>UqWtEwdxw1ZWNbuMtaAH</t>
+          <t>3c83uGzijx35EthJeaxz</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Hello chint7236, I apologize for the inconvenience. Could you please provide me with more information about what you are looking for? This will help me assist you better. Thank you.</t>
+          <t>Hi Ravindu, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Amaru" or "Amari" so I can assist you better in finding the right information? Thank you!</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45965.78341575232</v>
+        <v>45966.59499285879</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2350,212 +2329,212 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>KJvgEjYd4xITGSdhlY2Q</t>
+          <t>L2QLfpuTAqx7FHV9KL4I</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Zameem Ismail</t>
+          <t>malithmark</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>91.89400000000001</v>
+        <v>14.259</v>
       </c>
       <c r="D36" t="n">
-        <v>1.531566666666667</v>
+        <v>0.23765</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>bEEdwY0S8j5otUS7tJwR</t>
+          <t>pGDHhNJ4MQzAFfA7UY9b</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>10919791</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Mala" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sofi" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45965.53194239584</v>
+        <v>45966.65197358796</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0SkqQxfrQy8Z2yULiW2A</t>
+          <t>NuR2ipR7R9fieetmOZqZ</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Hi Zameem Ismail, I'm sorry to hear that you couldn't find what you were looking for. Can you please provide me with more details about "Mala" so I can assist you better? Thank you!</t>
+          <t>Hi Malithmark, I'm sorry, but it seems like there might have been a misunderstanding. Can you please provide more details about what you're looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45965.53300598379</v>
+        <v>45966.65213862269</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MrJI0k2eTDXd8GJn1Lwi</t>
+          <t>L2QLfpuTAqx7FHV9KL4I</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ramzan Marzook</t>
+          <t>malithmark</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>100.094</v>
+        <v>14.202</v>
       </c>
       <c r="D37" t="n">
-        <v>1.668233333333333</v>
+        <v>0.2367</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CTubmCDsZ4QDFlkftxuV</t>
+          <t>tclGl1NYQlrJkZ0n5wDB</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>7338</t>
+          <t>10919791</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Lucn" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sofia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45965.43353678241</v>
+        <v>45966.65197424769</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>DrYGZNGPcYasdif6xJpq</t>
+          <t>NuR2ipR7R9fieetmOZqZ</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Hi Ramzan Marzook, I'm sorry for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you!</t>
+          <t>Hi Malithmark, I'm sorry, but it seems like there might have been a misunderstanding. Can you please provide more details about what you're looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>45965.43469527778</v>
+        <v>45966.65213862269</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MrJI0k2eTDXd8GJn1Lwi</t>
+          <t>OCC8Shcah9K3VOXA2Jy8</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ramzan Marzook</t>
+          <t>sajit1785</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>97.83499999999999</v>
+        <v>111.647</v>
       </c>
       <c r="D38" t="n">
-        <v>1.630583333333333</v>
+        <v>1.860783333333333</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>xRQHWN17sHfG1edyXu7I</t>
+          <t>E1HO61Y2X6cJmQhHV7eB</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>7338</t>
+          <t>10919925</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Lucc" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45965.43356292824</v>
+        <v>45966.71739150463</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>DrYGZNGPcYasdif6xJpq</t>
+          <t>Zua7DMSf6z1IpkgbmDYs</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Hi Ramzan Marzook, I'm sorry for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you!</t>
+          <t>Hello Sajit1785! I'm sorry that you couldn't find any results for "Thailand." Let me assist you with that. Thailand is a beautiful country known for its stunning beaches, rich culture, and delicious food. How can I help you further with your search for information on Thailand?</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>45965.43469527778</v>
+        <v>45966.71868371528</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MrJI0k2eTDXd8GJn1Lwi</t>
+          <t>OO7SqKk01qvpBT4sCAQP</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ramzan Marzook</t>
+          <t>akeel</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>89.74299999999999</v>
+        <v>164.737</v>
       </c>
       <c r="D39" t="n">
-        <v>1.495716666666667</v>
+        <v>2.745616666666666</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ohJblRBq5qFXabaB7AP2</t>
+          <t>5T7b7Ddalsm7zY2SfHrA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>7338</t>
+          <t>10912733</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Lunch buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>How to get a refund ?</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45965.43365658565</v>
+        <v>45966.63768221065</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>DrYGZNGPcYasdif6xJpq</t>
+          <t>9eTRvpxSdtSepHjxaQD6</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Hi Ramzan Marzook, I'm sorry for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you!</t>
+          <t>May I know for which order are you looking to get the refund for?</t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>45965.43469527778</v>
+        <v>45966.63958888889</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2566,50 +2545,51 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MrJI0k2eTDXd8GJn1Lwi</t>
+          <t>OO7SqKk01qvpBT4sCAQP</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ramzan Marzook</t>
+          <t>akeel</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>84.027</v>
+        <v>207.141</v>
       </c>
       <c r="D40" t="n">
-        <v>1.40045</v>
+        <v>3.45235</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>H54fQx7TGHEoBkjbsehe</t>
+          <t>udjEV7L5VFTNB2pywlbv</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>7338</t>
+          <t>10912733</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>VO7698</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45965.43372274306</v>
+        <v>45966.64020518518</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>DrYGZNGPcYasdif6xJpq</t>
+          <t>N2CloDrl3IymCaR6Y9Ew</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Hi Ramzan Marzook, I'm sorry for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you!</t>
+          <t>We sincerely apologize for the inconvenience and disappointment caused. This is the first instance we’ve received such feedback regarding this particular product, and we truly value you bringing it to our attention. However, as the booking was made at your own will and the cancellation deadline has already passed, we regret to inform you that we are unable to initiate a refund for this order.
+We genuinely appreciate your understanding in this matter and assure you that your feedback will be shared with our team to ensure a better experience in the future.</t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>45965.43469527778</v>
+        <v>45966.64260265046</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2620,50 +2600,51 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MrJI0k2eTDXd8GJn1Lwi</t>
+          <t>OO7SqKk01qvpBT4sCAQP</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ramzan Marzook</t>
+          <t>akeel</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>46.299</v>
+        <v>183.133</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7716499999999999</v>
+        <v>3.052216666666667</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>BiQ17JePtssaPMHXbVLO</t>
+          <t>pmoFxaBn3H9YB2b7PvOv</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>7338</t>
+          <t>10912733</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buff" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>We came to the place and it’s not ok</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45965.43415940972</v>
+        <v>45966.64048305555</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>DrYGZNGPcYasdif6xJpq</t>
+          <t>N2CloDrl3IymCaR6Y9Ew</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Hi Ramzan Marzook, I'm sorry for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you!</t>
+          <t>We sincerely apologize for the inconvenience and disappointment caused. This is the first instance we’ve received such feedback regarding this particular product, and we truly value you bringing it to our attention. However, as the booking was made at your own will and the cancellation deadline has already passed, we regret to inform you that we are unable to initiate a refund for this order.
+We genuinely appreciate your understanding in this matter and assure you that your feedback will be shared with our team to ensure a better experience in the future.</t>
         </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>45965.43469527778</v>
+        <v>45966.64260265046</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2674,320 +2655,320 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MrJI0k2eTDXd8GJn1Lwi</t>
+          <t>Ou77ZMIanQ7X4m1sfd16</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ramzan Marzook</t>
+          <t>Vidyantha</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>91.955</v>
+        <v>104.733</v>
       </c>
       <c r="D42" t="n">
-        <v>1.532583333333333</v>
+        <v>1.74555</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>E3N9fajDxXXVqSRCE1l1</t>
+          <t>yQuB42YdMuTN92GScvjf</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>7338</t>
+          <t>10919728</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Shear" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bankoo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45965.69553010417</v>
+        <v>45966.64649480324</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>pT7pm8vVWcePpB33bKxJ</t>
+          <t>QyNZ5ysUFRrqSXBc8r6E</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Admin: Hi Ramzan Marzook, I apologize for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you!</t>
+          <t xml:space="preserve"> Hi Vidyantha, I'm sorry you couldn't find any results for "Bankoo." Let's work together to find what you're looking for. Can you provide me with more details about your travel preferences or any specific locations you're interested in? I'm here to help you explore all your options.</t>
         </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>45965.69659439815</v>
+        <v>45966.64770699074</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q2Ky5Z2wz7xXjbmUkIuV</t>
+          <t>QB2K4iopX2qQtqh5SgNS</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>chathura0525</t>
+          <t>Sithaga</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>79.376</v>
+        <v>108.237</v>
       </c>
       <c r="D43" t="n">
-        <v>1.322933333333334</v>
+        <v>1.80395</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>IfT2l9gZB7zHKkn4pTVw</t>
+          <t>KsswJ37OIpQLf6MnNTa6</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>10916409</t>
+          <t>10918211</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Eliseo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dnei" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45965.61680113426</v>
+        <v>45966.46191865741</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>RYtFn9ehCsPqA723I6Tc</t>
+          <t>HDAkciFicaW7o5JqUYuM</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Hi chathura0525, I'm sorry that you couldn't find what you were looking for. Could you please provide me with more details so I can assist you in finding the perfect travel option for you? Thank you.</t>
+          <t>Hi Sithaga, I'm sorry but I couldn't find any results for "Dnei". Can you please provide me with more information or clarify what you're looking for so I can better assist you?</t>
         </is>
       </c>
       <c r="K43" s="2" t="n">
-        <v>45965.61771983797</v>
+        <v>45966.46317140046</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>R7wQietg05m1bEEaBHDG</t>
+          <t>TF5BhX4iGZq9jEXuMDAX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>newtharaka</t>
+          <t>Hiruni wijesuriya</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>94.004</v>
+        <v>104.646</v>
       </c>
       <c r="D44" t="n">
-        <v>1.566733333333333</v>
+        <v>1.7441</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0u8imlBlE8yXtBu7mv6i</t>
+          <t>F8fgQNGIct71WQFM5lOi</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6886</t>
+          <t>10917469</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Mala" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lunch buff" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45965.53112009259</v>
+        <v>45966.61071575231</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>uToIREWP2aVmHEkpVylw</t>
+          <t>J5EMueIh9uVtQLeTuRWF</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Hi newtharaka, I'm sorry, but we don't currently offer any packages or services related to "Mala." Is there something else I can assist you with today? Let me know how I can help!</t>
+          <t>Hi Hiruni! Thank you for reaching out. I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about the type of lunch buffet you are interested in? I'll do my best to assist you in finding the information you need.</t>
         </is>
       </c>
       <c r="K44" s="2" t="n">
-        <v>45965.53220810185</v>
+        <v>45966.61192693287</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TB9IyjSeszoPTb3cErff</t>
+          <t>UAVYycq32cDcaRVIBjOA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Soe</t>
+          <t>shahe9072</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1780.004</v>
+        <v>110.661</v>
       </c>
       <c r="D45" t="n">
-        <v>29.66673333333333</v>
+        <v>1.84435</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AawqPIl11vUFY8KIlzgK</t>
+          <t>AdnoseS9KbNdX81G0fSZ</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>10919862</t>
+          <t>10918900</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kashi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Seeo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45965.04021731482</v>
+        <v>45966.5031309375</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>VoYlqSdNWGa15fEpym2y</t>
+          <t>G2kxv7sdviZPbAEZCs9r</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Hi Soe, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about the specific "Kashi" you are referring to so that I can assist you better? Thank you!</t>
+          <t>Hi shahe9072, I apologize for any confusion. Can you please provide me with more details about what you are looking for with "Seeo"? This way, I can better assist you in finding what you need. Thank you!</t>
         </is>
       </c>
       <c r="K45" s="2" t="n">
-        <v>45965.06081921297</v>
+        <v>45966.50441173611</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TB9IyjSeszoPTb3cErff</t>
+          <t>UmwfD9seyE2r6W0pMPpg</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Soe</t>
+          <t>kisalwathsara@icloud.com</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1428.301</v>
+        <v>99.685</v>
       </c>
       <c r="D46" t="n">
-        <v>23.80501666666667</v>
+        <v>1.661416666666667</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gbg3VBoLyjtpyOzx1gY0</t>
+          <t>zjrHoOOK6mn5QAUxtWEh</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>10919862</t>
+          <t>10910239</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kashi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Rama" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>45965.04428795139</v>
+        <v>45966.6001128125</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>VoYlqSdNWGa15fEpym2y</t>
+          <t>mEpoZDfQHqDQ6LPLCodA</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Hi Soe, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about the specific "Kashi" you are referring to so that I can assist you better? Thank you!</t>
+          <t>Hi there! I'm sorry, but I couldn't find any information on "Rama." Can you please provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K46" s="2" t="n">
-        <v>45965.06081921297</v>
+        <v>45966.60126657407</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TD1GzjwDP1x79iecxULx</t>
+          <t>UmwfD9seyE2r6W0pMPpg</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LakminiAdikari</t>
+          <t>kisalwathsara@icloud.com</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>14.981</v>
+        <v>14.806</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2496833333333333</v>
+        <v>0.2467666666666667</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3YMARuS2QPnLnICzKHxE</t>
+          <t>ioQOyfiS3rzttEs9Xtxv</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>10917189</t>
+          <t>10910239</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ramad" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
-        <v>45965.72703293982</v>
+        <v>45966.64140693287</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>MHfjPN8yETvHDTit33Vv</t>
+          <t>Z1EzhcXuHbhg75Uqi0IX</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Hi LakminiAdikari, I'm sorry you couldn't find what you were looking for. Let me see if I can help you find the perfect buffet option for your trip. Can you please provide me with more details? Thank you!</t>
+          <t>Hi there! I'm sorry, but I couldn't find any information on "Ramad." Can you please provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K47" s="2" t="n">
-        <v>45965.72720633102</v>
+        <v>45966.64157829861</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2998,104 +2979,104 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>UJI5mus30kOZtfRg0o9B</t>
+          <t>UmwfD9seyE2r6W0pMPpg</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>syash5270</t>
+          <t>kisalwathsara@icloud.com</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>102.358</v>
+        <v>7.267</v>
       </c>
       <c r="D48" t="n">
-        <v>1.705966666666667</v>
+        <v>0.1211166666666667</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>xMFlePkhT20XNx3ngjma</t>
+          <t>4byjllWEvTHxjDGHMIzS</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10917442</t>
+          <t>10910239</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malays" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buf" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
-        <v>45965.67597745371</v>
+        <v>45966.64160707176</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>RsuSzV0lm7iwX2AzBRud</t>
+          <t>P1TuDsLoCGDcA69MwSWP</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Hi syash5270, I apologize for the inconvenience. It looks like there may have been a misunderstanding in your search. Could you please provide me with more information about what you are looking for so I can assist you better? Thank you!</t>
+          <t>Hi there! I'm sorry, but I couldn't find any information on "Buf." Can you please provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K48" s="2" t="n">
-        <v>45965.67716215278</v>
+        <v>45966.64169118056</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>V9uZg0UoaT6f7psM9fML</t>
+          <t>UmwfD9seyE2r6W0pMPpg</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Anjaleeperera</t>
+          <t>kisalwathsara@icloud.com</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>12.131</v>
+        <v>137.892</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2021833333333333</v>
+        <v>2.2982</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>bRKDnf5RJ7AvAFRx1BJ3</t>
+          <t>d7Qqnx1u5dlt4ZXDTFdD</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>10918874</t>
+          <t>10910239</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hot" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buf" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45965.45259802083</v>
+        <v>45966.6422922338</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>8kksqAKSv6LngjYrUKjG</t>
+          <t>oLlDx32rVdVzQ4F1U5XA</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Hi Anjaleeperera, I'm sorry that we couldn't find any results for "Hot". Can you provide me with more details about what you're looking for so I can assist you better? Let me know how I can help.</t>
+          <t>Hi there! I'm sorry, but I couldn't find any information on "Buf." Can you please provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K49" s="2" t="n">
-        <v>45965.45273842593</v>
+        <v>45966.64388820602</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -3106,483 +3087,482 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>VAowyYPsHSUQp0b1AvmI</t>
+          <t>UmwfD9seyE2r6W0pMPpg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Oshadhiii</t>
+          <t>kisalwathsara@icloud.com</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>97.628</v>
+        <v>690.813</v>
       </c>
       <c r="D50" t="n">
-        <v>1.627133333333333</v>
+        <v>11.51355</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1gh2FYLdZTdSAnoR5uku</t>
+          <t>CJGY7fjTBdxvJis0K7XQ</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>10919874</t>
+          <t>10910239</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ramadia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buf" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45965.6231095949</v>
+        <v>45966.64479392361</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>kiXNvWC4KJ0aJEg1KRW2</t>
+          <t>mHMY8RbhMqp0KJanEnE8</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Hi Oshadhiii, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Ramadia" or "Ranmal" so that I can assist you better? Thank you.</t>
+          <t>Hi there! I'm sorry, but I couldn't find any information on "Buf." Can you please provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K50" s="2" t="n">
-        <v>45965.62423954861</v>
+        <v>45966.65278944444</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>VAowyYPsHSUQp0b1AvmI</t>
+          <t>V60Y4Fg9irbxzpQKqL8S</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Oshadhiii</t>
+          <t>Philiocaly</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>91.809</v>
+        <v>253.188</v>
       </c>
       <c r="D51" t="n">
-        <v>1.53015</v>
+        <v>4.2198</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>EP6ZobEUQttGRBny0ojO</t>
+          <t>X5Lisimj4WWUp0KCDIrU</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>10919874</t>
+          <t>10919902</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ranmal" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bugfet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
-        <v>45965.62317694444</v>
+        <v>45966.4210371875</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>kiXNvWC4KJ0aJEg1KRW2</t>
+          <t>r5ipYwV7LNxJb7E91hne</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Hi Oshadhiii, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information about "Ramadia" or "Ranmal" so that I can assist you better? Thank you.</t>
+          <t>Hi Philiocaly, I'm sorry but I couldn't find any information on "Bugfet". Could you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K51" s="2" t="n">
-        <v>45965.62423954861</v>
+        <v>45966.42396760417</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>WWwCWLRozwghqvBhpgv0</t>
+          <t>VFntuFNk0LcW5sl5VZYM</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KalaniBandara</t>
+          <t>Dr Asha Balasuriya</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>12.742</v>
+        <v>137.436</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2123666666666667</v>
+        <v>2.2906</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>8iHdtsCFKSr9kz3zsJoC</t>
+          <t>uD97c2QWFSqfVXhTU5mH</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>10914165</t>
+          <t>10910017</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malsy" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Tinta" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
-        <v>45965.70534452546</v>
+        <v>45966.1839609375</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>NOKkSxtsttZh7B3KYia4</t>
+          <t>PFl4QQRNQauKGLCmkZc4</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Admin: Hi KalaniBandara, I'm sorry but I couldn't find any information on "Malay." Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Dr. Asha Balasuriya, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K52" s="2" t="n">
-        <v>45965.70549200231</v>
+        <v>45966.18555163194</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>WWwCWLRozwghqvBhpgv0</t>
+          <t>VFntuFNk0LcW5sl5VZYM</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>KalaniBandara</t>
+          <t>Dr Asha Balasuriya</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>9.65</v>
+        <v>129.277</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1608333333333333</v>
+        <v>2.154616666666667</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>m009crhidS1EJ7KGnj1S</t>
+          <t>NV7SleZ34I46uFnZmFcj</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10914165</t>
+          <t>10910017</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malay" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Movie" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
-        <v>45965.7053803125</v>
+        <v>45966.18405537037</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>NOKkSxtsttZh7B3KYia4</t>
+          <t>PFl4QQRNQauKGLCmkZc4</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Admin: Hi KalaniBandara, I'm sorry but I couldn't find any information on "Malay." Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Dr. Asha Balasuriya, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K53" s="2" t="n">
-        <v>45965.70549200231</v>
+        <v>45966.18555163194</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Z1ttdJfW8UkqkCuZ9N9p</t>
+          <t>VFntuFNk0LcW5sl5VZYM</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Dillonhris</t>
+          <t>Dr Asha Balasuriya</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>124.756</v>
+        <v>121.308</v>
       </c>
       <c r="D54" t="n">
-        <v>2.079266666666667</v>
+        <v>2.0218</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>7ercnAjrZIY5Y0c2YuOL</t>
+          <t>doW4xdmMslgXjAaIIALk</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>10919063</t>
+          <t>10910017</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thail" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
-        <v>45965.54250780093</v>
+        <v>45966.18414760417</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>JdsPtQmGuzMPQfcB4En2</t>
+          <t>PFl4QQRNQauKGLCmkZc4</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Hi Dillonhris! Thank you for reaching out. I'm sorry to hear that you couldn't find what you were looking for. Let me assist you in finding information about Malaysia. Please provide me with more details so I can help you better.</t>
+          <t>Hi Dr. Asha Balasuriya, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K54" s="2" t="n">
-        <v>45965.54395173611</v>
+        <v>45966.18555163194</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>b3zFVU3ELA5owPU7hK2m</t>
+          <t>VTpYN8DUsecMSPZNWGYH</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ChamilaS</t>
+          <t>Madhushanika</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>95.608</v>
+        <v>105.022</v>
       </c>
       <c r="D55" t="n">
-        <v>1.593466666666667</v>
+        <v>1.750366666666667</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>nAeUPgPdrUycPshTkInp</t>
+          <t>FZLnAM8EKWmBcF6Ss8P4</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10915479</t>
+          <t>6405</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "geral" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Tha" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
-        <v>45965.40400766204</v>
+        <v>45966.6110656713</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>pr4eJy8KIMmK2OXmIDwN</t>
+          <t>wZ2Y7CyqrvLP0ukdkY1z</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Hi ChamilaS, I'm sorry you couldn't find what you were looking for. Can you please provide more details or specific keywords so I can assist you better? Thank you!</t>
+          <t>Hi Madhushanika, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K55" s="2" t="n">
-        <v>45965.40511423611</v>
+        <v>45966.61228120371</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>b3zFVU3ELA5owPU7hK2m</t>
+          <t>dBKxsps3bu4rEGqiVQek</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ChamilaS</t>
+          <t>ayesha9149</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>87.45699999999999</v>
+        <v>103.275</v>
       </c>
       <c r="D56" t="n">
-        <v>1.457616666666667</v>
+        <v>1.72125</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>7ZYhrHqxEd6RWaO3nhZs</t>
+          <t>HJuRg8KkC48IHVNWFmCg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10915479</t>
+          <t>6933</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "cak" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
-        <v>45965.40410200231</v>
+        <v>45966.47727787037</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>pr4eJy8KIMmK2OXmIDwN</t>
+          <t>i5uBuwe4F1edeuUqNiCI</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Hi ChamilaS, I'm sorry you couldn't find what you were looking for. Can you please provide more details or specific keywords so I can assist you better? Thank you!</t>
+          <t>Hi Ayesha9149, I'm sorry but I couldn't find any specific information on "Bang." Could you please provide me with more details so I can better assist you in finding what you're looking for? Thank you!</t>
         </is>
       </c>
       <c r="K56" s="2" t="n">
-        <v>45965.40511423611</v>
+        <v>45966.47847318287</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>dLhPyJE8d0S3lWqnShov</t>
+          <t>dbaoUolZVQjag2Mz0BcP</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Isuru Premaratne</t>
+          <t>Ishara Shalinda Jayalath</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>113.23</v>
+        <v>15.679</v>
       </c>
       <c r="D57" t="n">
-        <v>1.887166666666667</v>
+        <v>0.2613166666666667</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>VuGvOfeppVDRed7gNX91</t>
+          <t>rmKdLoZlLjY93RrMaLMr</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>10919123</t>
+          <t>10919907</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Rmadaa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Banko" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H57" s="2" t="n">
-        <v>45965.87450403936</v>
+        <v>45966.54801777778</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>7eWYt4dipJaMpMtdcp6E</t>
+          <t>tGyKJmcSjuoKwV7QG1VE</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Hi Isuru! I'm sorry, but I couldn't find any information on "Rmadaa." Could you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Ishara Shalinda Jayalath, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for? I'd be happy to assist you in finding the information you need.</t>
         </is>
       </c>
       <c r="K57" s="2" t="n">
-        <v>45965.87581457176</v>
+        <v>45966.54819924769</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>dq3nuMQ1vMW8lhiopwC0</t>
+          <t>dbaoUolZVQjag2Mz0BcP</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Adhir</t>
+          <t>Ishara Shalinda Jayalath</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>11.22</v>
+        <v>12.534</v>
       </c>
       <c r="D58" t="n">
-        <v>0.187</v>
+        <v>0.2089</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>sFoj19ZwmlbPREAMtvtG</t>
+          <t>Vu1tyMsnLAsiVUujtKEa</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>10917111</t>
+          <t>10919907</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Day out" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Malas" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H58" s="2" t="n">
-        <v>45965.57131085648</v>
+        <v>45966.54842912037</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>ipwvvX02r0nj7qSON5G0</t>
+          <t>FCUvirPMSuiJVxC5MKeH</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Hi Adhir, I'm sorry you couldn't find what you were looking for. Let me assist you in finding the perfect "Day out" experience. Please provide me with more details so I can help you better.</t>
+          <t>Hi Ishara Shalinda Jayalath, I'm sorry that you couldn't find what you were looking for. Let me assist you in finding the information you need. Could you please provide me with more details about your search?</t>
         </is>
       </c>
       <c r="K58" s="2" t="n">
-        <v>45965.57144071759</v>
+        <v>45966.54857418982</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -3593,50 +3573,50 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>dq3nuMQ1vMW8lhiopwC0</t>
+          <t>dbaoUolZVQjag2Mz0BcP</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Adhir</t>
+          <t>Ishara Shalinda Jayalath</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8.839</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1473166666666667</v>
+        <v>0.15125</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PHUEKBWyNJV5xwjrnUOS</t>
+          <t>2f7qL8twXI39M3lAkY2i</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>10917111</t>
+          <t>10919907</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Day out" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Maly" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H59" s="2" t="n">
-        <v>45965.57193724537</v>
+        <v>45966.5484691551</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>NyLThXnBGJHtIOqtlH34</t>
+          <t>FCUvirPMSuiJVxC5MKeH</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Hi Adhir, I'm sorry you couldn't find what you were looking for. Let me see if I can help you find the perfect "Day out" experience. Please provide me with more details so I can assist you better.</t>
+          <t>Hi Ishara Shalinda Jayalath, I'm sorry that you couldn't find what you were looking for. Let me assist you in finding the information you need. Could you please provide me with more details about your search?</t>
         </is>
       </c>
       <c r="K59" s="2" t="n">
-        <v>45965.57203954861</v>
+        <v>45966.54857418982</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -3647,874 +3627,860 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>esqGYiVzLNoFVziNlfcG</t>
+          <t>dbaoUolZVQjag2Mz0BcP</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ashani Jayawardhana</t>
+          <t>Ishara Shalinda Jayalath</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>94.69499999999999</v>
+        <v>5.291</v>
       </c>
       <c r="D60" t="n">
-        <v>1.57825</v>
+        <v>0.08818333333333334</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>zRrk8yCCWmFa9sbhwFOO</t>
+          <t>kpvEXy9t2dCK9bMAbrwX</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>10919838</t>
+          <t>10919907</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Day o" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bkk" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H60" s="2" t="n">
-        <v>45965.62465613426</v>
+        <v>45966.54851295139</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>DV28dMWHon7xdbpeIHnW</t>
+          <t>FCUvirPMSuiJVxC5MKeH</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Hi Ashani, I'm sorry but I couldn't find any information on "Day o." Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t>Hi Ishara Shalinda Jayalath, I'm sorry that you couldn't find what you were looking for. Let me assist you in finding the information you need. Could you please provide me with more details about your search?</t>
         </is>
       </c>
       <c r="K60" s="2" t="n">
-        <v>45965.6257521412</v>
+        <v>45966.54857418982</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>fNNFKfajstK0NQC2p1Hg</t>
+          <t>eR2LOmcsypVjxJxA0Y9S</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>fatim6184</t>
+          <t>amand9308</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>16.797</v>
+        <v>108.668</v>
       </c>
       <c r="D61" t="n">
-        <v>0.27995</v>
+        <v>1.811133333333333</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>InGTnbyEE9mnVTs2plnc</t>
+          <t>89eLFuVDnPC2RFSYQFOz</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10919884</t>
+          <t>10919539</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sri lanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H61" s="2" t="n">
-        <v>45965.75563443287</v>
+        <v>45966.89177913195</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>HfNEOIyv7WwozF9tYXbT</t>
+          <t>u2CPs7SIWQPQGyIkiPZp</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Hi Fatim6184! Thank you for reaching out. It seems like there may have been a typo in your search. Did you mean "Malaysia"? Let me know how I can assist you with your travel plans to Malaysia!</t>
+          <t>Admin: Hi amand9308, I apologize for the inconvenience. I'm here to help you find what you're looking for. Can you please provide me with more details about your search for "Sri Lanka" so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K61" s="2" t="n">
-        <v>45965.75582884259</v>
+        <v>45966.89303686342</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>iCbroVgv1h9mjTNSe05f</t>
+          <t>esqGYiVzLNoFVziNlfcG</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>zaynaxx_</t>
+          <t>Ashani Jayawardhana</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>12.792</v>
+        <v>107.351</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2132</v>
+        <v>1.789183333333333</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>jRfEquV8XAQE4ZP3I47I</t>
+          <t>A7XfSn0AHWmxIfvaye66</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>10918987</t>
+          <t>10919838</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Golpa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H62" s="2" t="n">
-        <v>45965.49902428241</v>
+        <v>45966.68307642361</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>EEHZol5OsXnHzapuzXsX</t>
+          <t>uaxmKuqyytMZPUXQtzKi</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Admin: Hi zaynaxx_! Thank you for your interest in Malaysia. 
-</t>
+          <t>Hi Ashani! I'm sorry you couldn't find what you were looking for. Let me assist you in finding information on "Golpa." Please provide me with more details so I can help you better. Thank you!</t>
         </is>
       </c>
       <c r="K62" s="2" t="n">
-        <v>45965.49917233796</v>
+        <v>45966.68431891203</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>iPFZ2acAI7CIWyvYXsoe</t>
+          <t>fr8uLc2xLI1OAJfAT3bv</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>lgjsp99</t>
+          <t>varunak</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>121.345</v>
+        <v>99.934</v>
       </c>
       <c r="D63" t="n">
-        <v>2.022416666666667</v>
+        <v>1.665566666666667</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>K4ZsG6sFPcuQPQjhlEZp</t>
+          <t>OZxqMDhBo9jOt3T0PFn1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10910793</t>
+          <t>10919204</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hitonm" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H63" s="2" t="n">
-        <v>45965.49597798611</v>
+        <v>45966.6761728125</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>mMjA7j6kGwvztfxeEZkP</t>
+          <t>Ndv6bn8ASAJ6O6KvSldN</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Hi lgjsp99, I apologize for the inconvenience. It seems there may have been a technical glitch in our search system. Let me assist you in finding information about Malaysia. Can you please provide me with more details about what specifically you are looking for in Malaysia?</t>
+          <t>Hi Varunak, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K63" s="2" t="n">
-        <v>45965.49738244213</v>
+        <v>45966.67732945602</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ntsMNrUq46tzcPR2MlI5</t>
+          <t>fr8uLc2xLI1OAJfAT3bv</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Shalitha</t>
+          <t>varunak</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>95.276</v>
+        <v>94.111</v>
       </c>
       <c r="D64" t="n">
-        <v>1.587933333333333</v>
+        <v>1.568516666666667</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>P0rMEkUt81WkiwtK2KmD</t>
+          <t>XZo7X9WSfspq0TL53B9z</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10919866</t>
+          <t>10919204</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dayout" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H64" s="2" t="n">
-        <v>45965.51755859954</v>
+        <v>45966.67624020833</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>g5otjfDaazW3jQwZ3HRE</t>
+          <t>Ndv6bn8ASAJ6O6KvSldN</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Hi Shalitha, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Dayout" so that I can assist you better? Thank you!</t>
+          <t>Hi Varunak, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K64" s="2" t="n">
-        <v>45965.51866133102</v>
+        <v>45966.67732945602</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>pRaggzifr4HnrZ6qZ71v</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>fr8uLc2xLI1OAJfAT3bv</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>varunak</t>
+        </is>
+      </c>
       <c r="C65" t="n">
-        <v>15.142</v>
+        <v>141.521</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2523666666666667</v>
+        <v>2.358683333333333</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>tYrw8zg1HmssuCmXVJ6w</t>
+          <t>TCPLNuThHc5ypDFY59O1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>AHS_Guest</t>
+          <t>10919204</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Vzhhz</t>
+          <t>Hi, I was searching for "Cunnamon" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H65" s="2" t="n">
-        <v>45965.45213828704</v>
+        <v>45966.67772028935</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>iTsR4AYLLZOzmHI4M5A8</t>
+          <t>VjuqrpIpaTLku6AgWimW</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Hello! How can I assist you today?</t>
+          <t>Hi Varunak, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K65" s="2" t="n">
-        <v>45965.45231354167</v>
+        <v>45966.67935826389</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>pTEbNcsGvWVGNiKlNVO8</t>
+          <t>ggtxUxBnozDBbWSS9H4q</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>yehan5128</t>
+          <t>mnmnaflan06</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>94.416</v>
+        <v>99.931</v>
       </c>
       <c r="D66" t="n">
-        <v>1.5736</v>
+        <v>1.665516666666667</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MwpVG3msmJW5GsAyDsB2</t>
+          <t>HNTzP2gTJvFccslPBego</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10919882</t>
+          <t>10919909</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bugfets" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H66" s="2" t="n">
-        <v>45965.70430883102</v>
+        <v>45966.54405131945</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>iJy7CtX9i5YK1FwIRJHs</t>
+          <t>nphfH5dpbhVFHAsFZwR9</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Hi yehan5128! I'm sorry that you couldn't find what you were looking for. It seems like there might have been a small typo in your search. Did you mean "Buffets"? Let me know how I can assist you further!</t>
+          <t>Hi mnmnaflan06, I apologize for the inconvenience. It seems like there may have been a technical issue with the search results. Let me assist you in finding information about Malaysia. Please feel free to ask me any questions you may have. Thank you for reaching out.</t>
         </is>
       </c>
       <c r="K66" s="2" t="n">
-        <v>45965.70540160879</v>
+        <v>45966.54520792824</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>pTEbNcsGvWVGNiKlNVO8</t>
+          <t>kaGAm4yhmqsVBZUG16yj</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>yehan5128</t>
+          <t>sahan123</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>94.114</v>
+        <v>126.07</v>
       </c>
       <c r="D67" t="n">
-        <v>1.568566666666667</v>
+        <v>2.101166666666666</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Pm65JSmzwjOX7dhOF36G</t>
+          <t>9fpTxntuBKscctr1qGz0</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>10919882</t>
+          <t>10919918</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bugfe" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinnamon life" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H67" s="2" t="n">
-        <v>45965.70431232639</v>
+        <v>45966.62628922454</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>iJy7CtX9i5YK1FwIRJHs</t>
+          <t>HsA6nGHHkHAUr0DWC4pt</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Hi yehan5128! I'm sorry that you couldn't find what you were looking for. It seems like there might have been a small typo in your search. Did you mean "Buffets"? Let me know how I can assist you further!</t>
+          <t>Hi Isahan123, I'm sorry but we don't offer "Cinnamon life" as a travel destination. Is there anything else I can assist you with today? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K67" s="2" t="n">
-        <v>45965.70540160879</v>
+        <v>45966.62774836805</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>pTEbNcsGvWVGNiKlNVO8</t>
+          <t>kaGAm4yhmqsVBZUG16yj</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>yehan5128</t>
+          <t>sahan123</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>88.479</v>
+        <v>69.482</v>
       </c>
       <c r="D68" t="n">
-        <v>1.47465</v>
+        <v>1.158033333333333</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6EjOECBLRdFK8tILKbs3</t>
+          <t>4cRPQ96H9G34ttoz3Ub3</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>10919882</t>
+          <t>10919918</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffets" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinn" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H68" s="2" t="n">
-        <v>45965.7043775463</v>
+        <v>45966.62694417824</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>iJy7CtX9i5YK1FwIRJHs</t>
+          <t>HsA6nGHHkHAUr0DWC4pt</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Hi yehan5128! I'm sorry that you couldn't find what you were looking for. It seems like there might have been a small typo in your search. Did you mean "Buffets"? Let me know how I can assist you further!</t>
+          <t>Hi Isahan123, I'm sorry but we don't offer "Cinnamon life" as a travel destination. Is there anything else I can assist you with today? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K68" s="2" t="n">
-        <v>45965.70540160879</v>
+        <v>45966.62774836805</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>shahil</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>qMSVZ5mQrS9sDJr5AJrm</t>
+          <t>kaGAm4yhmqsVBZUG16yj</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Foretag</t>
+          <t>sahan123</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>93.131</v>
+        <v>5.252</v>
       </c>
       <c r="D69" t="n">
-        <v>1.552183333333333</v>
+        <v>0.08753333333333332</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>AXMh713fm7sKyDTn4ZLP</t>
+          <t>vhah30V6idyL2vqsGToH</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>10919918</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bali" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinn" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H69" s="2" t="n">
-        <v>45965.64221839121</v>
+        <v>45966.62768758102</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>xsdaxw9KNGHfnq4OwVba</t>
+          <t>HsA6nGHHkHAUr0DWC4pt</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Hi Foretag, I'm sorry that you couldn't find any results for Bali. It seems like there may have been a technical issue. Let me assist you in finding the information you need. Would you like help with booking a trip to Bali or do you have any specific questions about the destination?</t>
+          <t>Hi Isahan123, I'm sorry but we don't offer "Cinnamon life" as a travel destination. Is there anything else I can assist you with today? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K69" s="2" t="n">
-        <v>45965.64329629629</v>
+        <v>45966.62774836805</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>qMSVZ5mQrS9sDJr5AJrm</t>
+          <t>kaGAm4yhmqsVBZUG16yj</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Foretag</t>
+          <t>sahan123</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>86.581</v>
+        <v>141.111</v>
       </c>
       <c r="D70" t="n">
-        <v>1.443016666666667</v>
+        <v>2.35185</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0ClIksuxO0lmjAhjIuwA</t>
+          <t>1cEnHaQzbcRz9PHefJNa</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>10919918</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bali" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Lunch buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H70" s="2" t="n">
-        <v>45965.64229420139</v>
+        <v>45966.63438983796</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>xsdaxw9KNGHfnq4OwVba</t>
+          <t>kNXGKrzxFziTM8eCidPT</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Hi Foretag, I'm sorry that you couldn't find any results for Bali. It seems like there may have been a technical issue. Let me assist you in finding the information you need. Would you like help with booking a trip to Bali or do you have any specific questions about the destination?</t>
+          <t>Hi Isahan123,We do offer lunch buffet options at various destinations. Can you please provide me with more details such as your preferred location and date so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K70" s="2" t="n">
-        <v>45965.64329629629</v>
+        <v>45966.63602306713</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>rrGTVsbnMbsquTrfuBLc</t>
+          <t>mrBXHcywpTIbK8u4UAis</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sivav1739</t>
+          <t>gowsh6810</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>93.107</v>
+        <v>154.895</v>
       </c>
       <c r="D71" t="n">
-        <v>1.551783333333333</v>
+        <v>2.581583333333334</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>9AN6FbZrb0Ud6sjuPBRZ</t>
+          <t>li98EPkqsLTSEbl3kA47</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>8472</t>
+          <t>10919920</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sail" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Salon" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H71" s="2" t="n">
-        <v>45965.51361129629</v>
+        <v>45966.64476366898</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>KG8toqGkzqIrLKd55umF</t>
+          <t>KaVW7U5lguUD2dxCeiBz</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Hi sivav1739, I'm sorry that you couldn't find "Sail" in our search results. Can you please provide me with more details about what you are looking for so that I can assist you better? Thank you.</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Is there anything I can assist you with today? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K71" s="2" t="n">
-        <v>45965.51468892361</v>
+        <v>45966.64655643518</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>slBlpn4mqHSlOPoOBKKM</t>
+          <t>mrBXHcywpTIbK8u4UAis</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>surajdias</t>
+          <t>gowsh6810</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>12.824</v>
+        <v>37.671</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2137333333333333</v>
+        <v>0.62785</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>qDF66FK1v9JXIthm3rX7</t>
+          <t>tmxglUgAw99nCK8VlWfG</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>8173</t>
+          <t>10919920</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "singa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Spa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H72" s="2" t="n">
-        <v>45965.57518582176</v>
+        <v>45966.64612042824</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>od7DMy3iHL2nvTuXK9G2</t>
+          <t>KaVW7U5lguUD2dxCeiBz</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Hi Surajdias! I'm sorry to hear that you couldn't find what you were looking for. Can you please provide me with more details about "singa" so that I can assist you better? Thank you!</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Is there anything I can assist you with today? Let me know how I can help!</t>
         </is>
       </c>
       <c r="K72" s="2" t="n">
-        <v>45965.57533424768</v>
+        <v>45966.64655643518</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>slBlpn4mqHSlOPoOBKKM</t>
+          <t>nyeoxyIiaPbIoc3CnV6g</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>surajdias</t>
+          <t>SHAN A</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7.313</v>
+        <v>157.134</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1218833333333333</v>
+        <v>2.6189</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>FksRWd40YNDmM2uIuoUu</t>
+          <t>lPnQBd2b4GYvrwASoi13</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>8173</t>
+          <t>10919893</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "malay" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thail" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H73" s="2" t="n">
-        <v>45965.57543135417</v>
+        <v>45966.08275570602</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>fGLOZh8fC6pxeU4jltts</t>
+          <t>S2O1t9T9IUgjASzQvJlC</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Hi Surajdias! I'm sorry you couldn't find what you were looking for. Let me help you out with your search for "malay." Let me know more details so I can assist you better. Thank you!</t>
+          <t>Hi Shan A, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K73" s="2" t="n">
-        <v>45965.57551599537</v>
+        <v>45966.08457438657</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>slBlpn4mqHSlOPoOBKKM</t>
+          <t>nyeoxyIiaPbIoc3CnV6g</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>surajdias</t>
+          <t>SHAN A</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4.686</v>
+        <v>111.657</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0781</v>
+        <v>1.86095</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SUIssN00wOmovufw0Gkx</t>
+          <t>YQj5nHv6ndmIF7LfZuTn</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>8173</t>
+          <t>10919893</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "thai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Vietna" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H74" s="2" t="n">
-        <v>45965.57558690972</v>
+        <v>45966.08328206019</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>bPMyt6m6d146mZH0eoV2</t>
+          <t>S2O1t9T9IUgjASzQvJlC</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Malaysia Getaway Delight – 3 Nights 
-Pack your bags for an unforgettable Malaysia escape! 
-Package Includes 
-•	3 Nights at 3★ Hotel (Ramada Encore or similar) – BB basis
-•	Private Airport Transfers (Pick up &amp; drop off)
-•	Kuala Lumpur Shared City Tour (3½ hrs.)
-•	Genting Highland Excursion
-Cost Per Person:
-Adult – LKR 29,000 pp
-Child – LKR 21,750 pp
-(Children below 3 years – FOC)
-📌Offer Highlights:
-Book By: 30th November
-Travel Before: 20th December
-Minimum: 2 Pax per booking
-Experience the best of Malaysia with this limited-time offer before it’s gone! 🌆✨
-👉 Download our app to unlock more exclusive offers like this.
-</t>
+          <t>Hi Shan A, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K74" s="2" t="n">
-        <v>45965.57564114584</v>
+        <v>45966.08457438657</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>vTkSemJ1312N5LIoBPjI</t>
+          <t>nyeoxyIiaPbIoc3CnV6g</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>User_xOqlu</t>
+          <t>SHAN A</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>207.184</v>
+        <v>24.588</v>
       </c>
       <c r="D75" t="n">
-        <v>3.453066666666667</v>
+        <v>0.4098</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>kdMFbGkfcYK9BsF1Dsne</t>
+          <t>Fdtf0LNfcieO9Rd19fkC</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>10919888</t>
+          <t>10919893</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffer" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Vietnam" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H75" s="2" t="n">
-        <v>45965.86290770833</v>
+        <v>45966.08428980324</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>ejdjZUfWHiCa2G7LRiSb</t>
+          <t>S2O1t9T9IUgjASzQvJlC</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Hi User_xOqlu, I apologize for the inconvenience. It seems like we don't currently have any results for "Buffer" or "Chola" in our database. Can you provide more details or preferences so I can assist you better in finding what you're looking for? Thank you.</t>
+          <t>Hi Shan A, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K75" s="2" t="n">
-        <v>45965.86530567129</v>
+        <v>45966.08457438657</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -4525,410 +4491,1189 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>vTkSemJ1312N5LIoBPjI</t>
+          <t>o5GZzkp5uyTGIbodPl8s</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>User_xOqlu</t>
+          <t>AMILNISHANTHA</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>135.379</v>
+        <v>251.687</v>
       </c>
       <c r="D76" t="n">
-        <v>2.256316666666666</v>
+        <v>4.194783333333334</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>NPn94TDv9rfjRJElwnVo</t>
+          <t>WKBXVVYh58heMwWCE4cn</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>10919888</t>
+          <t>10913603</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Chola" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bank" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H76" s="2" t="n">
-        <v>45965.86373878472</v>
+        <v>45966.67670716436</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>ejdjZUfWHiCa2G7LRiSb</t>
+          <t>BSgUxrE2V6C3KnknseV3</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Hi User_xOqlu, I apologize for the inconvenience. It seems like we don't currently have any results for "Buffer" or "Chola" in our database. Can you provide more details or preferences so I can assist you better in finding what you're looking for? Thank you.</t>
+          <t>Hi AMILNISHANTHA, I apologize for the confusion. We specialize in travel services and do not offer banking services. Is there anything else I can assist you with today?</t>
         </is>
       </c>
       <c r="K76" s="2" t="n">
-        <v>45965.86530567129</v>
+        <v>45966.67962020834</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>vWJW8qpNDhdc51uxgCgh</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
+          <t>pBcWIfm5hMqUpU3wm5vd</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>dilandevan</t>
+        </is>
+      </c>
       <c r="C77" t="n">
-        <v>94.679</v>
+        <v>123.025</v>
       </c>
       <c r="D77" t="n">
-        <v>1.577983333333333</v>
+        <v>2.050416666666667</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>EWGQ3kmfO6YXJQAhVbsr</t>
+          <t>IA51hCOkQGJgHjnQ6f2j</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>AHS_Guest</t>
+          <t>10910242</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Privare" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H77" s="2" t="n">
-        <v>45965.44127010417</v>
+        <v>45966.55546359954</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>87wVxw70yJXgsecdXH3N</t>
+          <t>IRpkyV1WhtSqwSMzOfjx</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search so I can assist you better? Thank you!</t>
+          <t>Hi Dilandevan, I'm sorry that you couldn't find any results for Bangkok. Let me assist you with that. Can you please provide me with more details about what you are looking for in Bangkok? I'm here to help you with your travel plans.</t>
         </is>
       </c>
       <c r="K77" s="2" t="n">
-        <v>45965.44236592593</v>
+        <v>45966.5568875</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>w8Mr3Nikg0LOqPvwFtbM</t>
+          <t>szNmpOIHhRd7t7s7tmsU</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>rizmina</t>
+          <t>Mohomad Azath</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>14.679</v>
+        <v>122.228</v>
       </c>
       <c r="D78" t="n">
-        <v>0.24465</v>
+        <v>2.037133333333333</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>GItmnWOR37XHUmQ7bH5V</t>
+          <t>FqTtyvz98goIReQrexTL</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>10919849</t>
+          <t>10911164</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinamon" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinnamon la" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H78" s="2" t="n">
-        <v>45965.42282155093</v>
+        <v>45966.67901431713</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>e4Ub3ocfhi50BlmO7D0j</t>
+          <t>oasZnthz61twymCeSyI2</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Hi Rizmina, I'm sorry that you couldn't find what you were looking for. Could you please provide me with more details so that I can assist you better? Thank you!</t>
+          <t xml:space="preserve"> Hi MohomadAzath! I apologize for any inconvenience you may have experienced. Let me assist you in finding the information you need. Can you please provide me with more details about the "Cinnamon la" you are looking for?</t>
         </is>
       </c>
       <c r="K78" s="2" t="n">
-        <v>45965.42299144676</v>
+        <v>45966.68042899306</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>w8Mr3Nikg0LOqPvwFtbM</t>
+          <t>v6ofhm9HttJcwg7Bj4QA</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>rizmina</t>
+          <t>heshana</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>10.452</v>
+        <v>97.871</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1742</v>
+        <v>1.631183333333333</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FIoOwLCi8UvDCiBUKe4l</t>
+          <t>KXsdWFGvNHcOlM8IxGJz</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>10919849</t>
+          <t>10918917</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinnamon grand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kandy mi" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H79" s="2" t="n">
-        <v>45965.42287047454</v>
+        <v>45966.42392777777</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>e4Ub3ocfhi50BlmO7D0j</t>
+          <t>iz7dBkmpysPf06eaJ80j</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Hi Rizmina, I'm sorry that you couldn't find what you were looking for. Could you please provide me with more details so that I can assist you better? Thank you!</t>
+          <t>Hi Heshana, I'm sorry that you couldn't find what you were looking for. Can you provide me with more information about "Kandy mi" or "Kandy mis" so I can better assist you? Thank you!</t>
         </is>
       </c>
       <c r="K79" s="2" t="n">
-        <v>45965.42299144676</v>
+        <v>45966.42506054398</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>wwq7aqloTQWj9Rnv49dN</t>
+          <t>v6ofhm9HttJcwg7Bj4QA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>sashf1869</t>
+          <t>heshana</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>26.017</v>
+        <v>94.68300000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4336166666666667</v>
+        <v>1.57805</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>YKorMG4tSAJIMZHAiU0x</t>
+          <t>ny0wbrxdWidWRQw31Hqr</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>10919840</t>
+          <t>10918917</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Mala" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kandy mis" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H80" s="2" t="n">
-        <v>45965.73221</v>
+        <v>45966.42396467592</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>ZJv9AWkL54k4TRLfeq2Y</t>
+          <t>iz7dBkmpysPf06eaJ80j</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>*Malaysia Getaway Delight – 3 Nights* 
-Pack your bags for an unforgettable Malaysia escape! 
-Package Includes 
-•	3 Nights at 3★ Hotel (Ramada Encore or similar) – BB basis
-•	Private Airport Transfers (Pick up &amp; drop off)
-•	Kuala Lumpur Shared City Tour (3½ hrs.)
-•	Genting Highland Excursion
-Cost Per Person:
-Adult – *LKR 29,000 pp*
-Child – *LKR 21,750 pp*
-(Children below 3 years – FOC)
-📌Offer Highlights:
-Book By: *30th November*
-Travel Before: *20th December*
-Minimum: *2 Pax per booking*
-Experience the best of Malaysia with this limited-time offer before it’s gone! 🌆✨
-👉 Download our app to unlock more exclusive offers like this!
-https://aahaas-appqr4.aahaas.com
-_Uniquely Yours_</t>
+          <t>Hi Heshana, I'm sorry that you couldn't find what you were looking for. Can you provide me with more information about "Kandy mi" or "Kandy mis" so I can better assist you? Thank you!</t>
         </is>
       </c>
       <c r="K80" s="2" t="n">
-        <v>45965.73251112268</v>
+        <v>45966.42506054398</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>wwq7aqloTQWj9Rnv49dN</t>
+          <t>vQydir5iwFFDKN236PdS</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>sashf1869</t>
+          <t>Vijith Madushan</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>20.751</v>
+        <v>158.433</v>
       </c>
       <c r="D81" t="n">
-        <v>0.34585</v>
+        <v>2.64055</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>32DO6qBPvTBhvlwVHDKX</t>
+          <t>gzEN1A0usCFhaV6pcM7G</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>10919840</t>
+          <t>10918068</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinner by" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H81" s="2" t="n">
-        <v>45965.73227094908</v>
+        <v>45966.74370123843</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>ZJv9AWkL54k4TRLfeq2Y</t>
+          <t>8amU3P34WQwWS5OLZjTP</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>*Malaysia Getaway Delight – 3 Nights* 
-Pack your bags for an unforgettable Malaysia escape! 
-Package Includes 
-•	3 Nights at 3★ Hotel (Ramada Encore or similar) – BB basis
-•	Private Airport Transfers (Pick up &amp; drop off)
-•	Kuala Lumpur Shared City Tour (3½ hrs.)
-•	Genting Highland Excursion
-Cost Per Person:
-Adult – *LKR 29,000 pp*
-Child – *LKR 21,750 pp*
-(Children below 3 years – FOC)
-📌Offer Highlights:
-Book By: *30th November*
-Travel Before: *20th December*
-Minimum: *2 Pax per booking*
-Experience the best of Malaysia with this limited-time offer before it’s gone! 🌆✨
-👉 Download our app to unlock more exclusive offers like this!
-https://aahaas-appqr4.aahaas.com
-_Uniquely Yours_</t>
+          <t xml:space="preserve"> Hi Vijith Madushan, I'm here to help. Can you provide more details about what you're looking for so I can better assist you?</t>
         </is>
       </c>
       <c r="K81" s="2" t="n">
-        <v>45965.73251112268</v>
+        <v>45966.7455349537</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>yIgW7kK7CY2iuZziZYth</t>
+          <t>xIrF5dUc84bKC1VDPqS4</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>tharushisp</t>
+          <t>Roger</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>102.768</v>
+        <v>116.923</v>
       </c>
       <c r="D82" t="n">
-        <v>1.7128</v>
+        <v>1.948716666666667</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>zSUWXZDPljCicXUa51Rg</t>
+          <t>VhKL1UcY37U9jtqJgY4v</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>10919869</t>
+          <t>10910171</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H82" s="2" t="n">
-        <v>45965.57744380787</v>
+        <v>45966.62944171296</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>oIJ3sbVw4P76Fr2MaMj2</t>
+          <t>OGueUla46oTL3w5rQ0Kd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Hi Tharushisp, I'm sorry that you couldn't find what you were looking for. Could you please provide me with more details about the type of buffet you are searching for? I'll do my best to assist you in finding the perfect option for you. Thank you!</t>
+          <t>Hi Roger, I'm sorry that you couldn't find what you were looking for. Are you specifically searching for information about Bangkok? Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K82" s="2" t="n">
-        <v>45965.57863325231</v>
+        <v>45966.63079498843</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
+          <t>Ramiru</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>xiB4nNPSGGNWH0af0m1j</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>thecr3455</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>13.468</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.2244666666666667</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>bBQuz4ieCii4M2zqg9Bv</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>10919899</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Food" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>45966.35084778935</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>uXjzD1nHwYpL6wgbcGHz</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Hi thecr3455! I'm sorry that you couldn't find any results for "Food." Can you please provide me with more details about the type of food you are looking for or any specific preferences you have? I'll do my best to help you find what you're looking for.</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>45966.35100366898</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Alesha.H</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>xrJxs7QcmmrXRamoZxKI</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Anupaja</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>97.116</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.6186</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Ez3B1zRzUzIW2gtOxf1r</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>10919910</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Hambanthota s" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>45966.55128219907</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>zJOQXDgU8Q9BSuF8W7SD</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Hi Anupaja, I apologize for the inconvenience. It seems like there may have been a typo in your search. Were you looking for information about Hambantota in Sri Lanka? Let me know how I can assist you further.</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>45966.55240622685</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
           <t>Michelle Xavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>xrJxs7QcmmrXRamoZxKI</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Anupaja</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>94.09</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.568166666666667</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>WFge9nbofTFms8X0q9aF</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>10919910</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Sigiriya" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>45966.55246753472</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>NOCPApJcZHAW7D5xUQFR</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Hi Anupaja, I'm sorry you couldn't find what you were looking for. Let me help you with information about Sigiriya in Sri Lanka. What specific details are you interested in?</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>45966.55355653935</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Michelle Xavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>y5mmi8Q8OzoXCTws7F9e</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Pra</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>156.865</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.614416666666667</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>L6vMUomISpKYErZ8VfTK</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>10912407</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>45966.94485775463</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>CjNrqS6mkf19C6aYQ2Bv</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hi Pra, I'm sorry but I couldn't find any results for "Bang" in our system. Can you please provide more details or clarify what you're looking for so I can assist you better? Thank you
+</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>45966.94667332176</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>shamraz</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>yltRYMlrO7LqJoERbgqu</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>kavit5789</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>117.283</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.954716666666667</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>DE0VwP1AJKdvcmJgZt7B</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>10913067</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Travel" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>45966.49066429398</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Zl3REoRCCihhb6ENI5Bz</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Hi kavit5789, I'm sorry you couldn't find what you were looking for. Can you please provide more details about the type of travel or Thai experience you're interested in, so I can assist you better?</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>45966.49202173611</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Ramiru</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>yltRYMlrO7LqJoERbgqu</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>kavit5789</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>109.634</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.827233333333333</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>VIpnsJxWrsaFpdu33FA2</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>10913067</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Thai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>45966.49075282407</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Zl3REoRCCihhb6ENI5Bz</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Hi kavit5789, I'm sorry you couldn't find what you were looking for. Can you please provide more details about the type of travel or Thai experience you're interested in, so I can assist you better?</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>45966.49202173611</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Ramiru</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>yosIbxUON5mUypSL07sZ</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Wishmi</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>103.476</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.7246</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>rn45iCz3pefEnOY2IxJt</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>10918175</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Day out packa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>45966.54934653935</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>gCEuKSNkqCRwbOarMcPi</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Hi Wishmi, I apologize for the confusion. We do offer day out packages, could you please provide me with more details on what you are looking for so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>45966.55054417824</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Michelle Xavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>yosIbxUON5mUypSL07sZ</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Wishmi</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>102.91</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.715166666666667</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>llJzD8M9h5XOrM7WOPrZ</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>10918175</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Day out packake" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>45966.54935309027</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>gCEuKSNkqCRwbOarMcPi</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Hi Wishmi, I apologize for the confusion. We do offer day out packages, could you please provide me with more details on what you are looking for so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>45966.55054417824</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Michelle Xavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>yosIbxUON5mUypSL07sZ</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Wishmi</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>102.879</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.71465</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>qxFqT4rkZNiRs3Bei7tn</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>10918175</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Day out pa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>45966.54935344907</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>gCEuKSNkqCRwbOarMcPi</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Hi Wishmi, I apologize for the confusion. We do offer day out packages, could you please provide me with more details on what you are looking for so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>45966.55054417824</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Michelle Xavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>yosIbxUON5mUypSL07sZ</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Wishmi</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>102.181</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.703016666666667</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>i4sH6vNdKG8JFQjtcr0b</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>10918175</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Day out packa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>45966.54936152778</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>gCEuKSNkqCRwbOarMcPi</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Hi Wishmi, I apologize for the confusion. We do offer day out packages, could you please provide me with more details on what you are looking for so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>45966.55054417824</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Michelle Xavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>yosIbxUON5mUypSL07sZ</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Wishmi</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>100.81</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.680166666666667</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NgshvDc1hK1DbwZ6alit</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>10918175</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Day out packages" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>45966.54937739584</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>gCEuKSNkqCRwbOarMcPi</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Hi Wishmi, I apologize for the confusion. We do offer day out packages, could you please provide me with more details on what you are looking for so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>45966.55054417824</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Michelle Xavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>zM9JTEczGbwKUSOWvmfn</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>laksh6136</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>130.195</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.169916666666666</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>FOEmWmCT4ceJKPIfzx6F</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>10918408</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "High te" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>45966.79581430556</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>W5NPahUlTxvszNGa4bfn</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hi laksh6136, I'm sorry you couldn't find what you were looking for. Let me assist you in finding the best "High tea" options for you. Please provide me with more details so I can help you better.</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>45966.79732119213</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Ramiru</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>zM9JTEczGbwKUSOWvmfn</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>laksh6136</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>121.94</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.032333333333333</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>XGiOZB1kq7xInt98OpOy</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>10918408</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "High te" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>45966.79590984953</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>W5NPahUlTxvszNGa4bfn</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hi laksh6136, I'm sorry you couldn't find what you were looking for. Let me assist you in finding the best "High tea" options for you. Please provide me with more details so I can help you better.</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>45966.79732119213</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Ramiru</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>zR1IHZ2lpfnNCgo5OnvN</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Dinushapushpawansa</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>119.925</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.99875</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>F7G9izjThXs4CbR2I5in</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6703</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "Dubai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>45966.71615167824</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>6N3v9M74grzhDs3V11iA</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Hi Dinushapushpawansa, I'm sorry you couldn't find what you were looking for. Let me assist you in finding information about Dubai. Can you please provide me with more details on what you are specifically looking for in Dubai?</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>45966.71753969907</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Ramiru</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>zwRx6N2rpkM82NBlIBIJ</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>prabathenator</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>102.311</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.705183333333333</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>wgmE6Zc2DbNjwRjUbf14</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>10914809</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Hi, I was searching for "mal" but couldn't find any results. Can you help me find what I'm looking for?</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>45966.74458986111</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>CbiRlHzvlxRhWg34bsep</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Hi Prabathenator, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about what you're searching for so I can assist you better? Thank you!</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>45966.74577401621</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,162 +502,150 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0D1r2ZWgdQ4Wawyj2Rcd</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Shuhaib123</t>
-        </is>
-      </c>
+          <t>0PKNLl0tjvW6b3Megi6P</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>104.051</v>
+        <v>111.228</v>
       </c>
       <c r="D2" t="n">
-        <v>1.734183333333333</v>
+        <v>1.8538</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>w12jC4duNs7HnGY3M0ka</t>
+          <t>RZOwQbPBrF6XZxc4pFyF</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10919905</t>
+          <t>AHS_Guest</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "City of dreams" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45966.48629975694</v>
+        <v>45967.58920353009</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>PFAvrxO0gNXNhBeAROE3</t>
+          <t>pdJ4mwSjANYY8wGbIm5y</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Hi Shuhaib123! I apologize for the inconvenience. It seems like there may have been a technical issue with the search results. Let me assist you in finding information on Malaysia. Feel free to ask me any questions you may have about Malaysia or any other travel destination. I'm here to help!</t>
+          <t xml:space="preserve">Hi there! I'm sorry you couldn't find what you were looking for. Let me assist you in finding the perfect tour for your dream destination. </t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45966.48750405093</v>
+        <v>45967.59049089121</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0HivBw4VkrirHaul6haf</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rochel259</t>
-        </is>
-      </c>
+          <t>0PKNLl0tjvW6b3Megi6P</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>14.028</v>
+        <v>206.566</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2338</v>
+        <v>3.442766666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>rQFTVg6jmvC4DCc0pHTT</t>
+          <t>lNF6ZYIN4MJ7nrjEfXyR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10912102</t>
+          <t>AHS_Guest</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kuala" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinner buffer" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45966.48377006945</v>
+        <v>45967.5928031713</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>OevEa4DNSpO4MD48UZgK</t>
+          <t>4F4GSqt7F3uvbocPk0j6</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hi Rochel259, I'm sorry that you couldn't find what you were looking for. Let me assist you in finding information about Kuala Lumpur, Malaysia. Please let me know if there is anything specific you are looking for so I can help you better. Thank you for reaching out!</t>
+          <t>Hi there! I'm here to help you find the perfect dinner buffet for your upcoming trip. Can you please provide me with more details about your destination and preferences so I can assist you further?</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45966.48393243056</v>
+        <v>45967.59519398148</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0HivBw4VkrirHaul6haf</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>rochel259</t>
-        </is>
-      </c>
+          <t>0PKNLl0tjvW6b3Megi6P</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>11.192</v>
+        <v>202.897</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1865333333333333</v>
+        <v>3.381616666666666</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5RCbcBP1EPbCAsVnhliG</t>
+          <t>UFIVoRGCEcR7KdFS8rVg</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10912102</t>
+          <t>AHS_Guest</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinner buffet ci" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45966.48380289352</v>
+        <v>45967.59284563657</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>OevEa4DNSpO4MD48UZgK</t>
+          <t>4F4GSqt7F3uvbocPk0j6</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hi Rochel259, I'm sorry that you couldn't find what you were looking for. Let me assist you in finding information about Kuala Lumpur, Malaysia. Please let me know if there is anything specific you are looking for so I can help you better. Thank you for reaching out!</t>
+          <t>Hi there! I'm here to help you find the perfect dinner buffet for your upcoming trip. Can you please provide me with more details about your destination and preferences so I can assist you further?</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45966.48393243056</v>
+        <v>45967.59519398148</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
@@ -669,14 +657,14 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>100.723</v>
+        <v>1384.398</v>
       </c>
       <c r="D5" t="n">
-        <v>1.678716666666667</v>
+        <v>23.0733</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WnFPbWqmrDgNawXBoyIu</t>
+          <t>K97rfiWKohgbaMaIdbH6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -686,24 +674,24 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sr" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinner buffert" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45966.68214063657</v>
+        <v>45967.627485625</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>LvCFTqASmS709WWYhsxm</t>
+          <t>oabDqZiaKJhhW7lhfihR</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi there! I'd be happy to help you find the perfect dinner buffet for your upcoming trip. Can you please provide me with more details about your destination and preferences so I can assist you further?</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45966.68330641204</v>
+        <v>45967.64350875</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -719,14 +707,14 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>108.111</v>
+        <v>102.067</v>
       </c>
       <c r="D6" t="n">
-        <v>1.80185</v>
+        <v>1.701116666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>vpv886Db1YJK3hnETH5w</t>
+          <t>Gt6lxaqThWvG2piQOJA9</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -736,341 +724,348 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Banko" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinner" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45966.94636417824</v>
+        <v>45967.64232741898</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6hdMBqfC1VG2VGfHT5Bq</t>
+          <t>oabDqZiaKJhhW7lhfihR</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Let me look into this for you and see if I can help. Thank you for reaching out!</t>
+          <t>Hi there! I'd be happy to help you find the perfect dinner buffet for your upcoming trip. Can you please provide me with more details about your destination and preferences so I can assist you further?</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45966.94761546297</v>
+        <v>45967.64350875</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0PKNLl0tjvW6b3Megi6P</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>3mCovldKM2q1Q3V4qHGc</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>enosh1866</t>
+        </is>
+      </c>
       <c r="C7" t="n">
-        <v>108.06</v>
+        <v>113.975</v>
       </c>
       <c r="D7" t="n">
-        <v>1.801</v>
+        <v>1.899583333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fAoYI9raWfQbflwLOtCy</t>
+          <t>hXDNI3bkR0S8cEnIXYZa</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AHS_Guest</t>
+          <t>10910904</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bancok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Smh" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45966.94636476852</v>
+        <v>45967.74515291666</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6hdMBqfC1VG2VGfHT5Bq</t>
+          <t>gdbsw5knIA0iYw97DD1J</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Let me look into this for you and see if I can help. Thank you for reaching out!</t>
+          <t>Hi enosh1866, I apologize for not being able to find what you are looking for. Could you please provide me with more details or specific information so I can assist you better? Thank you for reaching out.</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45966.94761546297</v>
+        <v>45967.74647207176</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0PKNLl0tjvW6b3Megi6P</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>3mCovldKM2q1Q3V4qHGc</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>enosh1866</t>
+        </is>
+      </c>
       <c r="C8" t="n">
-        <v>86.226</v>
+        <v>109.295</v>
       </c>
       <c r="D8" t="n">
-        <v>1.4371</v>
+        <v>1.821583333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ZFFmqPNatmSutjo3gPnR</t>
+          <t>XRLeWBEqS2hodGk4cwXs</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AHS_Guest</t>
+          <t>10910904</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Tours" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Singa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45966.94661747685</v>
+        <v>45967.74520708333</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>6hdMBqfC1VG2VGfHT5Bq</t>
+          <t>gdbsw5knIA0iYw97DD1J</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Let me look into this for you and see if I can help. Thank you for reaching out!</t>
+          <t>Hi enosh1866, I apologize for not being able to find what you are looking for. Could you please provide me with more details or specific information so I can assist you better? Thank you for reaching out.</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45966.94761546297</v>
+        <v>45967.74647207176</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0vGwZFfLHiLXSKFW0XoM</t>
+          <t>58NhGNmKvNlBuecAyT9q</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dinus5277</t>
+          <t>bhagya senevirathna</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.744</v>
+        <v>129.793</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2457333333333333</v>
+        <v>2.163216666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3J8kY57lU2hk1dik7unx</t>
+          <t>eAIeLmlDzFPJR5ocDsiG</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10919898</t>
+          <t>10916085</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "bentho" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kandy" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45966.34916864584</v>
+        <v>45967.83963099537</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>vscnw2nduuoGyDUrylfC</t>
+          <t>lYxWFqCcUTn1GrTFme3V</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Hi dinus5277! I'm sorry, but it seems that "bentho" doesn't match any of our current offerings. Is there anything else I can assist you with today?</t>
+          <t>Hi Bhagya, I'm sorry that you couldn't find what you were looking for. Could you please provide me with more details about "Kandy" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45966.34933929398</v>
+        <v>45967.84113322917</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0vGwZFfLHiLXSKFW0XoM</t>
+          <t>58NhGNmKvNlBuecAyT9q</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>dinus5277</t>
+          <t>bhagya senevirathna</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14.319</v>
+        <v>50.282</v>
       </c>
       <c r="D10" t="n">
-        <v>0.23865</v>
+        <v>0.8380333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>G7ZMzYuH51Ub9xzin4tw</t>
+          <t>v4VqUO63PHgh3JsuEeen</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10919898</t>
+          <t>10916085</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "bentota bea" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>I need stay in kany on next saturday . So i nerd to fin place to stay</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45966.35059111111</v>
+        <v>45967.84055126157</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>VC1vKNgJXwlafbF2c2yb</t>
+          <t>lYxWFqCcUTn1GrTFme3V</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Hi dinus5277! I'm sorry, but it looks like we don't currently have any offerings that match what you're looking for. Is there anything else I can help you with today?</t>
+          <t>Hi Bhagya, I'm sorry that you couldn't find what you were looking for. Could you please provide me with more details about "Kandy" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45966.35075684028</v>
+        <v>45967.84113322917</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0z4iN8bsIjEkNItpjq2u</t>
+          <t>58NhGNmKvNlBuecAyT9q</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Raizul</t>
+          <t>bhagya senevirathna</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>387.414</v>
+        <v>296.815</v>
       </c>
       <c r="D11" t="n">
-        <v>6.4569</v>
+        <v>4.946916666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1z3DPKKph4v7dtKgBPzV</t>
+          <t>GtB6q46XMpfLNwjD9dSB</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10919894</t>
+          <t>10916085</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ka" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45966.18823796296</v>
+        <v>45967.84113423611</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>wlLPlHkDe1PF05GlMoIH</t>
+          <t>07GaMITqA145BsV8G37H</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Hi Raizul, I'm sorry that you couldn't find what you were looking for on our website. Can you please provide me with more details about your interests in Thailand so I can assist you better? Thank you!</t>
+          <t>Hi Bhagya, I apologize for the inconvenience. Let me assist you in finding a place to stay in Kandy on Saturday. Please provide me with your preferred check-in and check-out dates so I can look for available options for you. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45966.1927219213</v>
+        <v>45967.8445695949</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3fhb2wg0C5eC0RjHf4kE</t>
+          <t>58NhGNmKvNlBuecAyT9q</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>hirup7325</t>
+          <t>bhagya senevirathna</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>103.929</v>
+        <v>295.092</v>
       </c>
       <c r="D12" t="n">
-        <v>1.73215</v>
+        <v>4.9182</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RdOs7pxLibJ0QGNPJRJE</t>
+          <t>qq98KZ25fluD2D7nI4AD</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8325</t>
+          <t>10916085</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>Hi, I was searching for "Kan" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45966.75524666667</v>
+        <v>45967.84115417824</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>FJr7slwS51OsbxaQxPo6</t>
+          <t>07GaMITqA145BsV8G37H</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi sir, how may I help you today.
-</t>
+          <t>Hi Bhagya, I apologize for the inconvenience. Let me assist you in finding a place to stay in Kandy on Saturday. Please provide me with your preferred check-in and check-out dates so I can look for available options for you. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45966.75644954861</v>
+        <v>45967.8445695949</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1081,51 +1076,50 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3fhb2wg0C5eC0RjHf4kE</t>
+          <t>58NhGNmKvNlBuecAyT9q</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>hirup7325</t>
+          <t>bhagya senevirathna</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52.237</v>
+        <v>294.229</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8706166666666667</v>
+        <v>4.903816666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>IEyioUOk57xHmQYzzf27</t>
+          <t>UsFJKnStnDa87YA4k6My</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8325</t>
+          <t>10916085</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Can i know about malaysia visa procedures and cost</t>
+          <t>Hi, I was searching for "Kandy" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45966.7558449537</v>
+        <v>45967.84116416667</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>FJr7slwS51OsbxaQxPo6</t>
+          <t>07GaMITqA145BsV8G37H</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi sir, how may I help you today.
-</t>
+          <t>Hi Bhagya, I apologize for the inconvenience. Let me assist you in finding a place to stay in Kandy on Saturday. Please provide me with your preferred check-in and check-out dates so I can look for available options for you. Thank you for reaching out!</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45966.75644954861</v>
+        <v>45967.8445695949</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1136,106 +1130,104 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3fhb2wg0C5eC0RjHf4kE</t>
+          <t>5jtu2rMu10PMhexpSy72</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>hirup7325</t>
+          <t>gayat4778</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>148.592</v>
+        <v>103.694</v>
       </c>
       <c r="D14" t="n">
-        <v>2.476533333333334</v>
+        <v>1.728233333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dx3KzFMtIpYtVe3A7jTT</t>
+          <t>woq6yXrPdlLtHymPZ8k7</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8325</t>
+          <t>6238</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Visa cost not included for the 29,000 right?</t>
+          <t>Hi, I was searching for "Singa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45966.75819167824</v>
+        <v>45967.65635649305</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>r3fDNBhaMwsq5hTQASfR</t>
+          <t>6KfhLZqqRlRIJOFOwWiJ</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Visa cost is not included
-</t>
+          <t>Hi Gayat4778, I'm sorry you couldn't find what you were looking for. Can you provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45966.75991149306</v>
+        <v>45967.65755665509</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3fhb2wg0C5eC0RjHf4kE</t>
+          <t>8PCKw4SkGqPMVdOawdU9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>hirup7325</t>
+          <t>Janaka1997</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>117.903</v>
+        <v>246.392</v>
       </c>
       <c r="D15" t="n">
-        <v>1.96505</v>
+        <v>4.106533333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>kUIgdb7t7SDcZ4aPcNbS</t>
+          <t>xnFsNWRrrs9IzxIeNgzq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8325</t>
+          <t>7620</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>We are planning to departure 20dec is it possible?</t>
+          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45966.758546875</v>
+        <v>45967.48088071759</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>r3fDNBhaMwsq5hTQASfR</t>
+          <t>jw5z232o4zubfKGO68Yl</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Visa cost is not included
-</t>
+          <t>Hi Janaka1997! I'm sorry that you couldn't find what you were looking for. Let me assist you with that. Can you please provide me with more details about your search for Malaysia so I can better help you? Thank you!</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45966.75991149306</v>
+        <v>45967.48373247685</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1246,485 +1238,485 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3fhb2wg0C5eC0RjHf4kE</t>
+          <t>8PCKw4SkGqPMVdOawdU9</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>hirup7325</t>
+          <t>Janaka1997</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>201.503</v>
+        <v>101.961</v>
       </c>
       <c r="D16" t="n">
-        <v>3.358383333333333</v>
+        <v>1.69935</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>K9xlMbkMg622jquMPCPj</t>
+          <t>9tDR4wXTOmBoUdQ3fGz1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8325</t>
+          <t>7620</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Can i know about malaysian visa requirement details</t>
+          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45966.76022774306</v>
+        <v>45967.48387386574</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>DLpaoLtWjU8W8mUHwWzw</t>
+          <t>tvPiyOzRnK3w1iBbnTuE</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'll check with the team and get back to you.
-</t>
+          <t xml:space="preserve"> Hi Janaka1997! I apologize for the inconvenience. Can you please provide me with more details about your search for Malaysia so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45966.76255995371</v>
+        <v>45967.48505396991</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3fhb2wg0C5eC0RjHf4kE</t>
+          <t>9FmbrCNcbTr1U8tcMJoQ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>hirup7325</t>
+          <t>Chathura15</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>59.077</v>
+        <v>112.041</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9846166666666666</v>
+        <v>1.86735</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>eAj5i2OmWqgGaZ1i5tmE</t>
+          <t>BtmEXSkjK613ewG7Ry6c</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8325</t>
+          <t>10919945</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Hi, I was searching for "Mala" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45966.76187619213</v>
+        <v>45967.67869027777</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>DLpaoLtWjU8W8mUHwWzw</t>
+          <t>6r1BY7a88ClANIkNk1x1</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'll check with the team and get back to you.
-</t>
+          <t>Hi Chathura15, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Mala" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45966.76255995371</v>
+        <v>45967.67998704861</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3fhb2wg0C5eC0RjHf4kE</t>
+          <t>BkRTSNo0E3zfpKr70d4f</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>hirup7325</t>
+          <t>Abhishek Bamunuarachchi</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>150.93</v>
+        <v>131.913</v>
       </c>
       <c r="D18" t="n">
-        <v>2.5155</v>
+        <v>2.19855</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>flgpL1dA7SNAdDgeevNo</t>
+          <t>JUewxu6xDajdVRS69SlU</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8325</t>
+          <t>10919850</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Ok thanks</t>
+          <t>Hi, I was searching for "Amari" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45966.80488236111</v>
+        <v>45967.04881822917</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6rqEqiVeSjnuj0ENx3hy</t>
+          <t>BqPVwYk6WZ6sxYUzLByy</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>If you need any assistance let me know sir.</t>
+          <t>Hi Abhishek Bamunuarachchi, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search for "Amari" or "Hilton" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45966.80662923611</v>
+        <v>45967.050345</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3fhb2wg0C5eC0RjHf4kE</t>
+          <t>BkRTSNo0E3zfpKr70d4f</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>hirup7325</t>
+          <t>Abhishek Bamunuarachchi</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>163.2</v>
+        <v>125.999</v>
       </c>
       <c r="D19" t="n">
-        <v>2.72</v>
+        <v>2.099983333333333</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7JPwbZi7seNDk9VkPsg3</t>
+          <t>xHA00zUMf5hTltv64y5E</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8325</t>
+          <t>10919850</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Can you give honey moon tour  packages ?</t>
+          <t>Hi, I was searching for "Hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45966.8196671412</v>
+        <v>45967.04888667824</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0ybui6zM6U8ZhgEqZwEU</t>
+          <t>BqPVwYk6WZ6sxYUzLByy</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>I'll check with the team and get back to you</t>
+          <t>Hi Abhishek Bamunuarachchi, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search for "Amari" or "Hilton" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45966.8215560301</v>
+        <v>45967.050345</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3fhb2wg0C5eC0RjHf4kE</t>
+          <t>BkRTSNo0E3zfpKr70d4f</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>hirup7325</t>
+          <t>Abhishek Bamunuarachchi</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>118.566</v>
+        <v>105.421</v>
       </c>
       <c r="D20" t="n">
-        <v>1.9761</v>
+        <v>1.757016666666667</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7Gh6tEGMJ57lFKuCNCQW</t>
+          <t>dylDlPBWfGbL9bFGSNdL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8325</t>
+          <t>10919850</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>In best price</t>
+          <t>Hi, I was searching for "Blu" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45966.82018373843</v>
+        <v>45967.05140513889</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0ybui6zM6U8ZhgEqZwEU</t>
+          <t>0kfhJBlmfSVSgkTtR2rf</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>I'll check with the team and get back to you</t>
+          <t>Hi Abhishek Bamunuarachchi, I apologize for the inconvenience. Can you please provide me with more details about your search for "Blu" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45966.8215560301</v>
+        <v>45967.05262528935</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3fhb2wg0C5eC0RjHf4kE</t>
+          <t>BkRTSNo0E3zfpKr70d4f</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>hirup7325</t>
+          <t>Abhishek Bamunuarachchi</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>104.499</v>
+        <v>35.009</v>
       </c>
       <c r="D21" t="n">
-        <v>1.74165</v>
+        <v>0.5834833333333334</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3JkwQDG1cjInhYQn89Nj</t>
+          <t>Ra1uHoGylIlOMQ2PftQF</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8325</t>
+          <t>10919850</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Malaysia Singapore dubai</t>
+          <t>Hi, I was searching for "Shangrila" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45966.82034655093</v>
+        <v>45967.05222009259</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0ybui6zM6U8ZhgEqZwEU</t>
+          <t>0kfhJBlmfSVSgkTtR2rf</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>I'll check with the team and get back to you</t>
+          <t>Hi Abhishek Bamunuarachchi, I apologize for the inconvenience. Can you please provide me with more details about your search for "Blu" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45966.8215560301</v>
+        <v>45967.05262528935</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3fhb2wg0C5eC0RjHf4kE</t>
+          <t>HON64Vng92CVMxUTqiTr</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>hirup7325</t>
+          <t>Nabilah</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>160.135</v>
+        <v>116.146</v>
       </c>
       <c r="D22" t="n">
-        <v>2.668916666666667</v>
+        <v>1.935766666666667</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>QrmP1qu1TDdGa8B0e9Re</t>
+          <t>O0nYRiGrHchiQ1ZLmlkE</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>8325</t>
+          <t>10917816</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Hi, I was searching for "Cinno" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45966.83271329861</v>
+        <v>45967.75029517361</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>DjA1wIgmV8fCeVyzx7Bz</t>
+          <t>qHyYh5uQfysabzekjsvD</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>thank you for your inquiry.</t>
+          <t>Hi Nabilah! I appreciate your patience. Let me assist you in finding what you're looking for. Can you please provide me with more details about "Cinno" so I can help you better? Thank you!</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45966.83456671296</v>
+        <v>45967.75163945602</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3fhb2wg0C5eC0RjHf4kE</t>
+          <t>J77IWkPG5Da8n06R5pm7</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>hirup7325</t>
+          <t>Nabilah</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>56.374</v>
+        <v>215.592</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9395666666666667</v>
+        <v>3.5932</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2xxVaTqimh8k8PJqhIyG</t>
+          <t>6uYlSdBxRzUb3efNvkO3</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>8325</t>
+          <t>10917816</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Any updates?</t>
+          <t>How do I make a reservation for 5 pax</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45966.83391423611</v>
+        <v>45967.75502322917</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>DjA1wIgmV8fCeVyzx7Bz</t>
+          <t>zMQJtf6m9e6GWIDizdys</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>thank you for your inquiry.</t>
+          <t xml:space="preserve">Hi Nabilah, 
+Thank you for reaching out to make a reservation for 5 people. To assist you better, could you please provide me with the date and destination for your trip? Once I have this information, I will be able to check availability and provide you with the best options. Looking forward to hearing from you soon. 
+</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45966.83456671296</v>
+        <v>45967.75751850694</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4ZEY4ahEs5ZzRbGDieye</t>
+          <t>J77IWkPG5Da8n06R5pm7</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tharan</t>
+          <t>Nabilah</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>125.688</v>
+        <v>145.46</v>
       </c>
       <c r="D24" t="n">
-        <v>2.0948</v>
+        <v>2.424333333333334</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ksYtD87Zlx55avEYAQPk</t>
+          <t>QUots6om9XhaJR5Odjpq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4710</t>
+          <t>10917816</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Pedicure" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>I have entered the derails including names ages and phone numbers of each guest but the app does not proceed there on</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45966.77540398148</v>
+        <v>45967.76899861111</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>w8DwdAwilFc9WsNJfcHH</t>
+          <t>5sLFyfF96trnlA4OKD9o</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi Tharan, I'm sorry we couldn't find what you were looking for. If there's anything else you need assistance with, feel free to let me know. I'm here to help.
+          <t xml:space="preserve">Let me check and get back to you.
 </t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45966.77685870371</v>
+        <v>45967.77068217593</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1735,752 +1727,759 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6zIq4QBZj1xRl2xXAHnX</t>
+          <t>JPgUptKoGLHIEChIZg2v</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tamari Seneviratne</t>
+          <t>ImashaMHewa</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>130.18</v>
+        <v>119.566</v>
       </c>
       <c r="D25" t="n">
-        <v>2.169666666666667</v>
+        <v>1.992766666666667</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Zr7CMSTEiYHmRFvC4l01</t>
+          <t>n6OrN7aa5dTfyqYsKijO</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10919099</t>
+          <t>10917306</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Lunch" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45966.75446733796</v>
+        <v>45967.52876928241</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>VTYuYAxvZLtExN8ehMb4</t>
+          <t>7iyeQDkAlgv8wBCFf2GG</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Tamari Seneviratne, I apologize for the inconvenience. Our focus is on providing travel assistance, but I can recommend some great local restaurants for lunch during your trip. Let me know if you'd like some suggestions!</t>
+          <t xml:space="preserve">Hi, thank you for reaching out to us!
+</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45966.75597405092</v>
+        <v>45967.53015314815</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6zIq4QBZj1xRl2xXAHnX</t>
+          <t>JPgUptKoGLHIEChIZg2v</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tamari Seneviratne</t>
+          <t>ImashaMHewa</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>128.86</v>
+        <v>103.22</v>
       </c>
       <c r="D26" t="n">
-        <v>2.147666666666667</v>
+        <v>1.720333333333333</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4cT3izUL9toZ4caY1z9g</t>
+          <t>Qwx073OXWRwbBDaWZ0Es</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10919099</t>
+          <t>10917306</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Offers" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Can i knw the tour packages available these days</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45966.75806851852</v>
+        <v>45967.52895847222</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>yNGxYYACiVD4hP9zK3uQ</t>
+          <t>7iyeQDkAlgv8wBCFf2GG</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Hi Tamari Seneviratne, I apologize for any confusion. Our team is here to assist you with any travel-related inquiries you may have. Feel free to let us know your preferences or destinations you are interested in, and we will do our best to find you some great offers. Thank you for reaching out!</t>
+          <t xml:space="preserve">Hi, thank you for reaching out to us!
+</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45966.7595599537</v>
+        <v>45967.53015314815</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8dcc1qD5i6LwjJnXxvkO</t>
+          <t>JPgUptKoGLHIEChIZg2v</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tcnpe5060</t>
+          <t>ImashaMHewa</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>14.547</v>
+        <v>31.283</v>
       </c>
       <c r="D27" t="n">
-        <v>0.24245</v>
+        <v>0.5213833333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0b6Ss3ZnFU3xpljhOCiL</t>
+          <t>BvzkvebZOXEWe2HID6uD</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10919686</t>
+          <t>10917306</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Waters e" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Can i know the packages prices and details</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45966.38395091435</v>
+        <v>45967.52979107639</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4wadRwrBonayInCKAZdK</t>
+          <t>7iyeQDkAlgv8wBCFf2GG</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Hello tcnpe5060, thank you for reaching out. I'm here to help you find what you're looking for. Can you please provide me with more details or keywords related to your search for "Waters e"? I'll do my best to assist you.</t>
+          <t xml:space="preserve">Hi, thank you for reaching out to us!
+</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45966.3841192824</v>
+        <v>45967.53015314815</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8dcc1qD5i6LwjJnXxvkO</t>
+          <t>JPgUptKoGLHIEChIZg2v</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tcnpe5060</t>
+          <t>ImashaMHewa</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>96.443</v>
+        <v>162.436</v>
       </c>
       <c r="D28" t="n">
-        <v>1.607383333333333</v>
+        <v>2.707266666666667</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>45dmazF2kCqmnf7Fd9pd</t>
+          <t>FMfFj5pPLLluMuE97mMr</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10919686</t>
+          <t>10917306</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Waters" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Is this prices including tickets?</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45966.38451849537</v>
+        <v>45967.53151065972</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sqA0Xds4QpC5h0NRF4GR</t>
+          <t>s4mgA7LF0hdb2b5PzFyj</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi tcnpe5060, I apologize for the inconvenience. Can you please provide me with more details about your search for "Waters"? I'm here to help you find what you're looking for.</t>
+          <t xml:space="preserve">No, this is only for the tour package.
+</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45966.38563473379</v>
+        <v>45967.53339070602</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9iIULWkfFAfbl60tKRl8</t>
+          <t>JPgUptKoGLHIEChIZg2v</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>nuwan28</t>
+          <t>ImashaMHewa</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>446.617</v>
+        <v>55.885</v>
       </c>
       <c r="D29" t="n">
-        <v>7.443616666666667</v>
+        <v>0.9314166666666667</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>OnjOohxJpRAN5c43aH9d</t>
+          <t>lEav0tncuUYAqaSzuTXO</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10919354</t>
+          <t>10917306</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "City of sram" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>If we book this, you guys gonna help with tickets?</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45966.41042818287</v>
+        <v>45967.53274388889</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>fjaKU3deIZG7GcWjcz4H</t>
+          <t>s4mgA7LF0hdb2b5PzFyj</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Hi isnuwan28, I apologize for the confusion. "City of sram" doesn't seem to be a known destination. Could you provide more information or clarify your search so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">No, this is only for the tour package.
+</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45966.41559736111</v>
+        <v>45967.53339070602</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AYehqBLkoqbuW739a4P4</t>
+          <t>JPgUptKoGLHIEChIZg2v</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>haseeffarook</t>
+          <t>ImashaMHewa</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>99.098</v>
+        <v>45.564</v>
       </c>
       <c r="D30" t="n">
-        <v>1.651633333333333</v>
+        <v>0.7594</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PwfMlqNu2BllZ4TUqvaJ</t>
+          <t>GlnCq479l1I4onGNHPkh</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4857</t>
+          <t>10917306</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sooru" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Ohhh thanks let me check and get back</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45966.52168539352</v>
+        <v>45967.53371587963</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1fyIu60QAskkLZZH0sZv</t>
+          <t>6pBR9PBfhRPnUhlPx8jG</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Hi Haseef Farook! Thank you for reaching out. I'm sorry, but I couldn't find any information on "Sooru." Could you please provide me with more details or clarify what you are looking for? I'm here to help!</t>
+          <t xml:space="preserve">Yes, you can book it through our Aahaas app
+</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45966.52283236111</v>
+        <v>45967.53424324074</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>E9e1pFskanOlxDMzGanB</t>
+          <t>JjL0RZ6XJlwsTKOdR0yR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Thiyamini</t>
+          <t>GlobalCeylon</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>18.805</v>
+        <v>102.31</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3134166666666667</v>
+        <v>1.705166666666667</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>tnBwoOOPZkytwXf6lDIZ</t>
+          <t>5s7tcqCBO5MIRkLWHxEn</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10919897</t>
+          <t>10919942</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Global Ceylon" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45966.34347462963</v>
+        <v>45967.51357945602</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>B1P9M0X1dXNSpMm0cbCC</t>
+          <t>an6nbvrgon4cD3toODpK</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Hi Thiyamini, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search for "Thai" so that I can assist you better? Thank you!</t>
+          <t>Hi GlobalCeylon! I'm sorry, but it seems like we don't have any information on "Global Ceylon" at the moment. Can you please provide more details or let me know how I can assist you further?</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45966.34369228009</v>
+        <v>45967.51476359954</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>E9e1pFskanOlxDMzGanB</t>
+          <t>JjL0RZ6XJlwsTKOdR0yR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Thiyamini</t>
+          <t>GlobalCeylon</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>17.631</v>
+        <v>105.118</v>
       </c>
       <c r="D32" t="n">
-        <v>0.29385</v>
+        <v>1.751966666666667</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>o7KNUHEwhIk6gvp12f18</t>
+          <t>Ilxl1pnapmLxpQcuTCO1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10919897</t>
+          <t>10919942</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Okinawa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Spa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45966.34896876157</v>
+        <v>45967.58411732639</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>W0lgNLr7oJxen0XgycNl</t>
+          <t>yCoy5QOKydCx0r4INC0B</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Can you please provide me with more details about what you are looking for in regards to "Okinawa" so I can assist you better? Thank you!</t>
+          <t>Hi GlobalCeylon! I'm sorry, but it seems like we don't have any information on "Spa" at the moment. Can you please provide more details or let me know how I can assist you further?</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>45966.34917282408</v>
+        <v>45967.58533396991</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GM8HCJWfVCk08vcmdIih</t>
+          <t>JjL0RZ6XJlwsTKOdR0yR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ranki2870</t>
+          <t>GlobalCeylon</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>113.623</v>
+        <v>99.88</v>
       </c>
       <c r="D33" t="n">
-        <v>1.893716666666667</v>
+        <v>1.664666666666667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ar6Kc0xysklb3sgr8D5E</t>
+          <t>sjOjYKJPonFk40iNZXkn</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10910798</t>
+          <t>10919942</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinnamon" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Spa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45966.62071961805</v>
+        <v>45967.58417795139</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>lbJXP38xuLtccMbCmZsL</t>
+          <t>yCoy5QOKydCx0r4INC0B</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Hi ranki2870, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the specific "Cinnamon" you are searching for? This will help me assist you better. Thank you!</t>
+          <t>Hi GlobalCeylon! I'm sorry, but it seems like we don't have any information on "Spa" at the moment. Can you please provide more details or let me know how I can assist you further?</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>45966.62203469907</v>
+        <v>45967.58533396991</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>JJ4T17SquEnOqJrY9bJx</t>
+          <t>JjL0RZ6XJlwsTKOdR0yR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ravinduy</t>
+          <t>GlobalCeylon</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15.345</v>
+        <v>75.151</v>
       </c>
       <c r="D34" t="n">
-        <v>0.25575</v>
+        <v>1.252516666666667</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PED4u7qtaOLcPqVLXkeu</t>
+          <t>3dZsMiUt87tkuoc4WDAK</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10919916</t>
+          <t>10919942</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Amaru" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Spa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45966.59481525463</v>
+        <v>45967.58446416667</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3c83uGzijx35EthJeaxz</t>
+          <t>yCoy5QOKydCx0r4INC0B</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Hi Ravindu, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Amaru" or "Amari" so I can assist you better in finding the right information? Thank you!</t>
+          <t>Hi GlobalCeylon! I'm sorry, but it seems like we don't have any information on "Spa" at the moment. Can you please provide more details or let me know how I can assist you further?</t>
         </is>
       </c>
       <c r="K34" s="2" t="n">
-        <v>45966.59499285879</v>
+        <v>45967.58533396991</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JJ4T17SquEnOqJrY9bJx</t>
+          <t>NmlWheOC8deEBB1gupAW</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ravinduy</t>
+          <t>ravindu151</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>15.208</v>
+        <v>137.116</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2534666666666667</v>
+        <v>2.285266666666667</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KsmyqMabwkuteIfkpHrA</t>
+          <t>VkJXHwLQOnETGWi2SYXk</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10919916</t>
+          <t>10918881</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Amari" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Singa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45966.59481684028</v>
+        <v>45967.50003703704</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3c83uGzijx35EthJeaxz</t>
+          <t>ZuM4SBUmoJedmfpdGTRr</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Hi Ravindu, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Amaru" or "Amari" so I can assist you better in finding the right information? Thank you!</t>
+          <t xml:space="preserve">Hi, are you searching for Singapore?
+</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45966.59499285879</v>
+        <v>45967.50162402778</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>L2QLfpuTAqx7FHV9KL4I</t>
+          <t>PZH77pWTWTJb6UhPlR0X</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>malithmark</t>
+          <t>Danushka74</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>14.259</v>
+        <v>104.879</v>
       </c>
       <c r="D36" t="n">
-        <v>0.23765</v>
+        <v>1.747983333333333</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>pGDHhNJ4MQzAFfA7UY9b</t>
+          <t>3CJ9cccxObuxTKTdQRIe</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>10919791</t>
+          <t>10919947</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sofi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cin" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45966.65197358796</v>
+        <v>45967.63949158565</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>NuR2ipR7R9fieetmOZqZ</t>
+          <t>F4Ah7XqEEpjXfUKaYLB0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Hi Malithmark, I'm sorry, but it seems like there might have been a misunderstanding. Can you please provide more details about what you're looking for so I can assist you better? Thank you!</t>
+          <t>Hello Danushka74, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45966.65213862269</v>
+        <v>45967.64070546296</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>L2QLfpuTAqx7FHV9KL4I</t>
+          <t>PZH77pWTWTJb6UhPlR0X</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>malithmark</t>
+          <t>Danushka74</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>14.202</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2367</v>
+        <v>1.229333333333333</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>tclGl1NYQlrJkZ0n5wDB</t>
+          <t>uQmsq0pHidzCM1xTRrHb</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10919791</t>
+          <t>10919947</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sofia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinnamon la" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45966.65197424769</v>
+        <v>45967.63985175926</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>NuR2ipR7R9fieetmOZqZ</t>
+          <t>F4Ah7XqEEpjXfUKaYLB0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Hi Malithmark, I'm sorry, but it seems like there might have been a misunderstanding. Can you please provide more details about what you're looking for so I can assist you better? Thank you!</t>
+          <t>Hello Danushka74, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K37" s="2" t="n">
-        <v>45966.65213862269</v>
+        <v>45967.64070546296</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OCC8Shcah9K3VOXA2Jy8</t>
+          <t>PZH77pWTWTJb6UhPlR0X</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sajit1785</t>
+          <t>Danushka74</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>111.647</v>
+        <v>69.815</v>
       </c>
       <c r="D38" t="n">
-        <v>1.860783333333333</v>
+        <v>1.163583333333333</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>E1HO61Y2X6cJmQhHV7eB</t>
+          <t>NJ8zxGCTGjmPayz4fcx7</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10919925</t>
+          <t>10919947</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinnamon grans" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45966.71739150463</v>
+        <v>45967.63989741898</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Zua7DMSf6z1IpkgbmDYs</t>
+          <t>F4Ah7XqEEpjXfUKaYLB0</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Hello Sajit1785! I'm sorry that you couldn't find any results for "Thailand." Let me assist you with that. Thailand is a beautiful country known for its stunning beaches, rich culture, and delicious food. How can I help you further with your search for information on Thailand?</t>
+          <t>Hello Danushka74, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more information so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K38" s="2" t="n">
-        <v>45966.71868371528</v>
+        <v>45967.64070546296</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2491,916 +2490,925 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>OO7SqKk01qvpBT4sCAQP</t>
+          <t>PirEveXYrXbDBoZDc2CW</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>akeel</t>
+          <t>ezzra7989</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>164.737</v>
+        <v>128.704</v>
       </c>
       <c r="D39" t="n">
-        <v>2.745616666666666</v>
+        <v>2.145066666666667</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5T7b7Ddalsm7zY2SfHrA</t>
+          <t>RZ8w9LwhdRSAHBqDgLDC</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>10912733</t>
+          <t>7981</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>How to get a refund ?</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45966.63768221065</v>
+        <v>45967.86271204861</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>9eTRvpxSdtSepHjxaQD6</t>
+          <t>rcnFTOWA1yBOOyuAw7a7</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>May I know for which order are you looking to get the refund for?</t>
+          <t xml:space="preserve">Hi, thank you for reaching out to Aahaas.
+</t>
         </is>
       </c>
       <c r="K39" s="2" t="n">
-        <v>45966.63958888889</v>
+        <v>45967.86420167824</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>OO7SqKk01qvpBT4sCAQP</t>
+          <t>PirEveXYrXbDBoZDc2CW</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>akeel</t>
+          <t>ezzra7989</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>207.141</v>
+        <v>117.756</v>
       </c>
       <c r="D40" t="n">
-        <v>3.45235</v>
+        <v>1.9626</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>udjEV7L5VFTNB2pywlbv</t>
+          <t>eQvn69Nzd6O7HhsJ62i5</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>10912733</t>
+          <t>7981</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>VO7698</t>
+          <t>Can I know more about this?</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45966.64020518518</v>
+        <v>45967.86283876158</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>N2CloDrl3IymCaR6Y9Ew</t>
+          <t>rcnFTOWA1yBOOyuAw7a7</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>We sincerely apologize for the inconvenience and disappointment caused. This is the first instance we’ve received such feedback regarding this particular product, and we truly value you bringing it to our attention. However, as the booking was made at your own will and the cancellation deadline has already passed, we regret to inform you that we are unable to initiate a refund for this order.
-We genuinely appreciate your understanding in this matter and assure you that your feedback will be shared with our team to ensure a better experience in the future.</t>
+          <t xml:space="preserve">Hi, thank you for reaching out to Aahaas.
+</t>
         </is>
       </c>
       <c r="K40" s="2" t="n">
-        <v>45966.64260265046</v>
+        <v>45967.86420167824</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>OO7SqKk01qvpBT4sCAQP</t>
+          <t>QlbLJlDVCw2Hi3JzXmGk</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>akeel</t>
+          <t>minol7871</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>183.133</v>
+        <v>103.373</v>
       </c>
       <c r="D41" t="n">
-        <v>3.052216666666667</v>
+        <v>1.722883333333333</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>pmoFxaBn3H9YB2b7PvOv</t>
+          <t>tXEJegOIo4tSdUVQuYPX</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>10912733</t>
+          <t>2894</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>We came to the place and it’s not ok</t>
+          <t>Hi, I was searching for "Mal" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45966.64048305555</v>
+        <v>45967.91716979167</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>N2CloDrl3IymCaR6Y9Ew</t>
+          <t>NkxeflFwPqFgZSiOE7Eo</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>We sincerely apologize for the inconvenience and disappointment caused. This is the first instance we’ve received such feedback regarding this particular product, and we truly value you bringing it to our attention. However, as the booking was made at your own will and the cancellation deadline has already passed, we regret to inform you that we are unable to initiate a refund for this order.
-We genuinely appreciate your understanding in this matter and assure you that your feedback will be shared with our team to ensure a better experience in the future.</t>
+          <t xml:space="preserve">
+Hi Minol7871, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about "Mal" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K41" s="2" t="n">
-        <v>45966.64260265046</v>
+        <v>45967.91836623842</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ou77ZMIanQ7X4m1sfd16</t>
+          <t>QpxMzhjlvGCyJxRBezPs</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Vidyantha</t>
+          <t>induw1586</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>104.733</v>
+        <v>1673.626</v>
       </c>
       <c r="D42" t="n">
-        <v>1.74555</v>
+        <v>27.89376666666667</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>yQuB42YdMuTN92GScvjf</t>
+          <t>63R9kJcfEMguKVAV2U2Q</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>10919728</t>
+          <t>10914510</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bankoo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hambanthota" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45966.64649480324</v>
+        <v>45967.92490759259</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>QyNZ5ysUFRrqSXBc8r6E</t>
+          <t>j33omeLfTQCrsXmJtDeP</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Vidyantha, I'm sorry you couldn't find any results for "Bankoo." Let's work together to find what you're looking for. Can you provide me with more details about your travel preferences or any specific locations you're interested in? I'm here to help you explore all your options.</t>
+          <t>Hi induw1586! Thank you for reaching out. I apologize for any inconvenience. Hambantota is a beautiful city in Sri Lanka known for its stunning beaches and wildlife sanctuaries. How can I assist you with your travel plans to Hambantota?</t>
         </is>
       </c>
       <c r="K42" s="2" t="n">
-        <v>45966.64770699074</v>
+        <v>45967.94427826389</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>QB2K4iopX2qQtqh5SgNS</t>
+          <t>TuHIH4aQzBJMhf4W3Oe6</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sithaga</t>
+          <t>shafeek1974</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>108.237</v>
+        <v>358.609</v>
       </c>
       <c r="D43" t="n">
-        <v>1.80395</v>
+        <v>5.976816666666666</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KsswJ37OIpQLf6MnNTa6</t>
+          <t>PJDEjnwnt1dVMKAzTcsg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>10918211</t>
+          <t>10916180</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dnei" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sing" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45966.46191865741</v>
+        <v>45967.47271922453</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>HDAkciFicaW7o5JqUYuM</t>
+          <t>786ULG06YgKmkNriEqat</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Hi Sithaga, I'm sorry but I couldn't find any results for "Dnei". Can you please provide me with more information or clarify what you're looking for so I can better assist you?</t>
+          <t>Hi shafeek1974, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Sing" so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K43" s="2" t="n">
-        <v>45966.46317140046</v>
+        <v>45967.47686979167</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TF5BhX4iGZq9jEXuMDAX</t>
+          <t>UAVYycq32cDcaRVIBjOA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hiruni wijesuriya</t>
+          <t>shahe9072</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>104.646</v>
+        <v>104.688</v>
       </c>
       <c r="D44" t="n">
-        <v>1.7441</v>
+        <v>1.7448</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>F8fgQNGIct71WQFM5lOi</t>
+          <t>VCpMiWeAr1XeEPdsG9Gs</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>10917469</t>
+          <t>10918900</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Lunch buff" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45966.61071575231</v>
+        <v>45967.89406835648</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>J5EMueIh9uVtQLeTuRWF</t>
+          <t>jqyuBJRqK9Jm0bGnZZWF</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Hi Hiruni! Thank you for reaching out. I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about the type of lunch buffet you are interested in? I'll do my best to assist you in finding the information you need.</t>
+          <t xml:space="preserve">
+Hi shahe9072, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about the type of buffet you are in:searching for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K44" s="2" t="n">
-        <v>45966.61192693287</v>
+        <v>45967.89528002315</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>UAVYycq32cDcaRVIBjOA</t>
+          <t>UiRrzkhyhEQKuUEngPA6</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>shahe9072</t>
+          <t>AvinduD</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>110.661</v>
+        <v>109.423</v>
       </c>
       <c r="D45" t="n">
-        <v>1.84435</v>
+        <v>1.823716666666667</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AdnoseS9KbNdX81G0fSZ</t>
+          <t>9qvKHHm6pRFc7UIcCC1C</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>10918900</t>
+          <t>10919963</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Seeo" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45966.5031309375</v>
+        <v>45967.94314276621</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>G2kxv7sdviZPbAEZCs9r</t>
+          <t>6QXRSF82CRd00q24hplT</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Hi shahe9072, I apologize for any confusion. Can you please provide me with more details about what you are looking for with "Seeo"? This way, I can better assist you in finding what you need. Thank you!</t>
+          <t>Hi Avindu! I apologize for the inconvenience. It seems there may have been a search error. Thailand is a beautiful destination known for its stunning beaches, bustling markets, and rich culture. How can I assist you further in planning your trip to Thailand?</t>
         </is>
       </c>
       <c r="K45" s="2" t="n">
-        <v>45966.50441173611</v>
+        <v>45967.94440923611</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>UmwfD9seyE2r6W0pMPpg</t>
+          <t>V60Y4Fg9irbxzpQKqL8S</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>kisalwathsara@icloud.com</t>
+          <t>Philiocaly</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>99.685</v>
+        <v>102.612</v>
       </c>
       <c r="D46" t="n">
-        <v>1.661416666666667</v>
+        <v>1.7102</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>zjrHoOOK6mn5QAUxtWEh</t>
+          <t>iu6K5NCyWVUxvjMLIGkm</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>10910239</t>
+          <t>10919902</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Rama" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sushi" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>45966.6001128125</v>
+        <v>45967.91274085648</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>mEpoZDfQHqDQ6LPLCodA</t>
+          <t>cjv9hGHcw2eQkob2oD19</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry, but I couldn't find any information on "Rama." Can you please provide me with more details so I can assist you better?</t>
+          <t xml:space="preserve">
+Hi Philiocaly, I'm sorry but I couldn't find any information on "Kam" or "Sushi". Could you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K46" s="2" t="n">
-        <v>45966.60126657407</v>
+        <v>45967.91392849537</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>UmwfD9seyE2r6W0pMPpg</t>
+          <t>V60Y4Fg9irbxzpQKqL8S</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>kisalwathsara@icloud.com</t>
+          <t>Philiocaly</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>14.806</v>
+        <v>97.251</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2467666666666667</v>
+        <v>1.62085</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ioQOyfiS3rzttEs9Xtxv</t>
+          <t>ACmyiC3ICqD9HpwGF4Mk</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>10910239</t>
+          <t>10919902</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ramad" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kam" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
-        <v>45966.64140693287</v>
+        <v>45967.91280290509</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Z1EzhcXuHbhg75Uqi0IX</t>
+          <t>cjv9hGHcw2eQkob2oD19</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry, but I couldn't find any information on "Ramad." Can you please provide me with more details so I can assist you better?</t>
+          <t xml:space="preserve">
+Hi Philiocaly, I'm sorry but I couldn't find any information on "Kam" or "Sushi". Could you please provide me with more details so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K47" s="2" t="n">
-        <v>45966.64157829861</v>
+        <v>45967.91392849537</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>UmwfD9seyE2r6W0pMPpg</t>
+          <t>WVOyyMdsQBQA5b7t3mSd</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>kisalwathsara@icloud.com</t>
+          <t>Chirath2001</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>7.267</v>
+        <v>106.496</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1211166666666667</v>
+        <v>1.774933333333333</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4byjllWEvTHxjDGHMIzS</t>
+          <t>DikQtBM0UdgIpJgXj78Q</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10910239</t>
+          <t>10919301</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buf" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Colombo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
-        <v>45966.64160707176</v>
+        <v>45967.47661986111</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>P1TuDsLoCGDcA69MwSWP</t>
+          <t>LdHHlIqeaLTZoAsYK8HT</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry, but I couldn't find any information on "Buf." Can you please provide me with more details so I can assist you better?</t>
+          <t>Hi Chirath2001! I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about your search for "Colombo" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K48" s="2" t="n">
-        <v>45966.64169118056</v>
+        <v>45967.4778524537</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>UmwfD9seyE2r6W0pMPpg</t>
+          <t>WVOyyMdsQBQA5b7t3mSd</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>kisalwathsara@icloud.com</t>
+          <t>Chirath2001</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>137.892</v>
+        <v>99.97799999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>2.2982</v>
+        <v>1.6663</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>d7Qqnx1u5dlt4ZXDTFdD</t>
+          <t>Y75tbcPn5n4YKfXYP8lc</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>10910239</t>
+          <t>10919301</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buf" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Day oyt" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45966.6422922338</v>
+        <v>45967.48772567129</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>oLlDx32rVdVzQ4F1U5XA</t>
+          <t>sxnjLvzXr6brklIrM4nv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry, but I couldn't find any information on "Buf." Can you please provide me with more details so I can assist you better?</t>
+          <t>Hi Chirath2001! I apologize for any inconvenience. Can you please provide me with more details about your search for "Day oyt" or "Dinn" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K49" s="2" t="n">
-        <v>45966.64388820602</v>
+        <v>45967.48888282407</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>UmwfD9seyE2r6W0pMPpg</t>
+          <t>WVOyyMdsQBQA5b7t3mSd</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>kisalwathsara@icloud.com</t>
+          <t>Chirath2001</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>690.813</v>
+        <v>92.48399999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>11.51355</v>
+        <v>1.5414</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CJGY7fjTBdxvJis0K7XQ</t>
+          <t>keScE3GbUVhtk5ISYn67</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>10910239</t>
+          <t>10919301</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Buf" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinn" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45966.64479392361</v>
+        <v>45967.48781240741</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>mHMY8RbhMqp0KJanEnE8</t>
+          <t>sxnjLvzXr6brklIrM4nv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry, but I couldn't find any information on "Buf." Can you please provide me with more details so I can assist you better?</t>
+          <t>Hi Chirath2001! I apologize for any inconvenience. Can you please provide me with more details about your search for "Day oyt" or "Dinn" so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K50" s="2" t="n">
-        <v>45966.65278944444</v>
+        <v>45967.48888282407</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>V60Y4Fg9irbxzpQKqL8S</t>
+          <t>X0J5mpJzgpxjRRHCD2T5</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Philiocaly</t>
+          <t>Ramiru23</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>253.188</v>
+        <v>98.779</v>
       </c>
       <c r="D51" t="n">
-        <v>4.2198</v>
+        <v>1.646316666666667</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>X5Lisimj4WWUp0KCDIrU</t>
+          <t>MuhpPUwGQkOySnhMWxdj</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>10919902</t>
+          <t>10919193</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bugfet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinnamon" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
-        <v>45966.4210371875</v>
+        <v>45967.75557734954</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>r5ipYwV7LNxJb7E91hne</t>
+          <t>RG7i9l7n8bVoEfZUnxd0</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Hi Philiocaly, I'm sorry but I couldn't find any information on "Bugfet". Could you please provide me with more details so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">hi
+</t>
         </is>
       </c>
       <c r="K51" s="2" t="n">
-        <v>45966.42396760417</v>
+        <v>45967.756720625</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>VFntuFNk0LcW5sl5VZYM</t>
+          <t>X0J5mpJzgpxjRRHCD2T5</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dr Asha Balasuriya</t>
+          <t>Ramiru23</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>137.436</v>
+        <v>62.273</v>
       </c>
       <c r="D52" t="n">
-        <v>2.2906</v>
+        <v>1.037883333333333</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>uD97c2QWFSqfVXhTU5mH</t>
+          <t>7bmG1k84H4F09AflLnLq</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>10910017</t>
+          <t>10919193</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Tinta" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinn" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
-        <v>45966.1839609375</v>
+        <v>45967.75599987269</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>PFl4QQRNQauKGLCmkZc4</t>
+          <t>RG7i9l7n8bVoEfZUnxd0</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Hi Dr. Asha Balasuriya, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t xml:space="preserve">hi
+</t>
         </is>
       </c>
       <c r="K52" s="2" t="n">
-        <v>45966.18555163194</v>
+        <v>45967.756720625</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>VFntuFNk0LcW5sl5VZYM</t>
+          <t>X0J5mpJzgpxjRRHCD2T5</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Dr Asha Balasuriya</t>
+          <t>Ramiru23</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>129.277</v>
+        <v>98.711</v>
       </c>
       <c r="D53" t="n">
-        <v>2.154616666666667</v>
+        <v>1.645183333333333</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NV7SleZ34I46uFnZmFcj</t>
+          <t>IAzDXDglwH1sVK9mMF6K</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10910017</t>
+          <t>10919193</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Movie" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinnamon" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
-        <v>45966.18405537037</v>
+        <v>45967.7700475</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>PFl4QQRNQauKGLCmkZc4</t>
+          <t>7Ddekh03XB7J1SyPKK1i</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Hi Dr. Asha Balasuriya, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t xml:space="preserve">hi
+</t>
         </is>
       </c>
       <c r="K53" s="2" t="n">
-        <v>45966.18555163194</v>
+        <v>45967.77118998842</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>VFntuFNk0LcW5sl5VZYM</t>
+          <t>X0J5mpJzgpxjRRHCD2T5</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Dr Asha Balasuriya</t>
+          <t>Ramiru23</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>121.308</v>
+        <v>116.243</v>
       </c>
       <c r="D54" t="n">
-        <v>2.0218</v>
+        <v>1.937383333333333</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>doW4xdmMslgXjAaIIALk</t>
+          <t>tQJYY3o8M7rOxHVswj1w</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>10910017</t>
+          <t>10919193</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thail" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ramada" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
-        <v>45966.18414760417</v>
+        <v>45967.79526917824</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>PFl4QQRNQauKGLCmkZc4</t>
+          <t>GPwGAM8sUHmo0F9vqsVv</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Hi Dr. Asha Balasuriya, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t xml:space="preserve">hi
+</t>
         </is>
       </c>
       <c r="K54" s="2" t="n">
-        <v>45966.18555163194</v>
+        <v>45967.79661458333</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>VTpYN8DUsecMSPZNWGYH</t>
+          <t>X0J5mpJzgpxjRRHCD2T5</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Madhushanika</t>
+          <t>Ramiru23</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>105.022</v>
+        <v>70.13200000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>1.750366666666667</v>
+        <v>1.168866666666667</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FZLnAM8EKWmBcF6Ss8P4</t>
+          <t>Xk0cjkHRJ40lxGR8WiQq</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>6405</t>
+          <t>10919193</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Tha" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Ramad" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
-        <v>45966.6110656713</v>
+        <v>45967.79580287037</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>wZ2Y7CyqrvLP0ukdkY1z</t>
+          <t>GPwGAM8sUHmo0F9vqsVv</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Hi Madhushanika, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t xml:space="preserve">hi
+</t>
         </is>
       </c>
       <c r="K55" s="2" t="n">
-        <v>45966.61228120371</v>
+        <v>45967.79661458333</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -3411,50 +3419,50 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>dBKxsps3bu4rEGqiVQek</t>
+          <t>Z1ttdJfW8UkqkCuZ9N9p</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ayesha9149</t>
+          <t>Dillonhris</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>103.275</v>
+        <v>152.853</v>
       </c>
       <c r="D56" t="n">
-        <v>1.72125</v>
+        <v>2.54755</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>HJuRg8KkC48IHVNWFmCg</t>
+          <t>nzS4GkRFdirxLGZcGVGj</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>6933</t>
+          <t>10919063</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sing" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
-        <v>45966.47727787037</v>
+        <v>45967.48920694445</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>i5uBuwe4F1edeuUqNiCI</t>
+          <t>DHNUF0cnIKPnwBKVRhaE</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Hi Ayesha9149, I'm sorry but I couldn't find any specific information on "Bang." Could you please provide me with more details so I can better assist you in finding what you're looking for? Thank you!</t>
+          <t>Hi Dillonhris, I apologize for the inconvenience. Can you please provide me with more details about what you are looking for in Singapore? I'll do my best to assist you in finding the information you need.</t>
         </is>
       </c>
       <c r="K56" s="2" t="n">
-        <v>45966.47847318287</v>
+        <v>45967.49097607639</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -3465,320 +3473,320 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>dbaoUolZVQjag2Mz0BcP</t>
+          <t>ZARNjFFAMzezR37YStIX</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ishara Shalinda Jayalath</t>
+          <t>PBHAGYA</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15.679</v>
+        <v>167.878</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2613166666666667</v>
+        <v>2.797966666666666</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>rmKdLoZlLjY93RrMaLMr</t>
+          <t>wjZp8Aaz6gNu46MUmPIM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>10919907</t>
+          <t>6978</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Banko" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sofi" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H57" s="2" t="n">
-        <v>45966.54801777778</v>
+        <v>45967.39327427083</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>tGyKJmcSjuoKwV7QG1VE</t>
+          <t>hwJBVWcsgMd9oWiR5fMg</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Hi Ishara Shalinda Jayalath, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for? I'd be happy to assist you in finding the information you need.</t>
+          <t>Hi PBHAGYA, thank you for reaching out. I'm sorry, but I couldn't find any information on "Sofi" in our system. Can you please provide more details so I can better assist you?</t>
         </is>
       </c>
       <c r="K57" s="2" t="n">
-        <v>45966.54819924769</v>
+        <v>45967.39521730324</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>dbaoUolZVQjag2Mz0BcP</t>
+          <t>aljExj5IZ7Bhv6hgy739</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ishara Shalinda Jayalath</t>
+          <t>LakshiRobinson</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>12.534</v>
+        <v>117.938</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2089</v>
+        <v>1.965633333333333</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Vu1tyMsnLAsiVUujtKEa</t>
+          <t>tvKkzkeGs3HurdDPVVRb</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>10919907</t>
+          <t>6932</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malas" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Singapore" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H58" s="2" t="n">
-        <v>45966.54842912037</v>
+        <v>45967.77597862268</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>FCUvirPMSuiJVxC5MKeH</t>
+          <t>5R8X53MpcabHOc1ZTmDO</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Hi Ishara Shalinda Jayalath, I'm sorry that you couldn't find what you were looking for. Let me assist you in finding the information you need. Could you please provide me with more details about your search?</t>
+          <t>Hi Lakshi Robinson, I'm sorry to hear that you couldn't find any results for Singapore. Let me assist you with that. Could you please provide more details about your travel preferences or specific requirements for your trip to Singapore? Thank you.</t>
         </is>
       </c>
       <c r="K58" s="2" t="n">
-        <v>45966.54857418982</v>
+        <v>45967.77734364583</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>dbaoUolZVQjag2Mz0BcP</t>
+          <t>e2RRvPbCHdrnRwD8RZo0</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ishara Shalinda Jayalath</t>
+          <t>cgala7725</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>9.074999999999999</v>
+        <v>110.291</v>
       </c>
       <c r="D59" t="n">
-        <v>0.15125</v>
+        <v>1.838183333333333</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2f7qL8twXI39M3lAkY2i</t>
+          <t>XbgIOU1hgHDIZCrBVS3l</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>10919907</t>
+          <t>10919951</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Maly" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H59" s="2" t="n">
-        <v>45966.5484691551</v>
+        <v>45967.77097974537</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>FCUvirPMSuiJVxC5MKeH</t>
+          <t>3dbhGtTKTa75jdK9b0qF</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Hi Ishara Shalinda Jayalath, I'm sorry that you couldn't find what you were looking for. Let me assist you in finding the information you need. Could you please provide me with more details about your search?</t>
+          <t>Hi cgala7725, thank you for reaching out. I apologize for the inconvenience. We do offer travel packages to Thailand and have a variety of options available. Please let me know if you would like more information or assistance in planning your trip to Thailand.</t>
         </is>
       </c>
       <c r="K59" s="2" t="n">
-        <v>45966.54857418982</v>
+        <v>45967.77225626157</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>dbaoUolZVQjag2Mz0BcP</t>
+          <t>e2RRvPbCHdrnRwD8RZo0</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ishara Shalinda Jayalath</t>
+          <t>cgala7725</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5.291</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08818333333333334</v>
+        <v>1.637666666666667</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>kpvEXy9t2dCK9bMAbrwX</t>
+          <t>Op10oMJAOJhsi1DFBy0H</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>10919907</t>
+          <t>10919951</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bkk" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thai" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H60" s="2" t="n">
-        <v>45966.54851295139</v>
+        <v>45967.77111899306</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>FCUvirPMSuiJVxC5MKeH</t>
+          <t>3dbhGtTKTa75jdK9b0qF</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Hi Ishara Shalinda Jayalath, I'm sorry that you couldn't find what you were looking for. Let me assist you in finding the information you need. Could you please provide me with more details about your search?</t>
+          <t>Hi cgala7725, thank you for reaching out. I apologize for the inconvenience. We do offer travel packages to Thailand and have a variety of options available. Please let me know if you would like more information or assistance in planning your trip to Thailand.</t>
         </is>
       </c>
       <c r="K60" s="2" t="n">
-        <v>45966.54857418982</v>
+        <v>45967.77225626157</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>eR2LOmcsypVjxJxA0Y9S</t>
+          <t>e2RRvPbCHdrnRwD8RZo0</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>amand9308</t>
+          <t>cgala7725</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>108.668</v>
+        <v>104.421</v>
       </c>
       <c r="D61" t="n">
-        <v>1.811133333333333</v>
+        <v>1.74035</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>89eLFuVDnPC2RFSYQFOz</t>
+          <t>ibKe28xeTiV1IHhuXatY</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10919539</t>
+          <t>10919951</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sri lanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Pi" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H61" s="2" t="n">
-        <v>45966.89177913195</v>
+        <v>45967.77920917824</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>u2CPs7SIWQPQGyIkiPZp</t>
+          <t>cdfIJjzjmI7GJL7mkCMy</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Admin: Hi amand9308, I apologize for the inconvenience. I'm here to help you find what you're looking for. Can you please provide me with more details about your search for "Sri Lanka" so I can assist you better? Thank you.</t>
+          <t>Hi cgala7725, I'm sorry for the inconvenience. It seems like there may have been a misunderstanding in your search. If you need assistance with anything related to travel or vacations, feel free to let me know. I'm here to help!</t>
         </is>
       </c>
       <c r="K61" s="2" t="n">
-        <v>45966.89303686342</v>
+        <v>45967.78041775463</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>esqGYiVzLNoFVziNlfcG</t>
+          <t>e2RRvPbCHdrnRwD8RZo0</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ashani Jayawardhana</t>
+          <t>cgala7725</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>107.351</v>
+        <v>31.356</v>
       </c>
       <c r="D62" t="n">
-        <v>1.789183333333333</v>
+        <v>0.5226000000000001</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>A7XfSn0AHWmxIfvaye66</t>
+          <t>wgdScxRwvZXUB6Pcd5O2</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>10919838</t>
+          <t>10919951</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Golpa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Thailand" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H62" s="2" t="n">
-        <v>45966.68307642361</v>
+        <v>45967.78005483796</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>uaxmKuqyytMZPUXQtzKi</t>
+          <t>cdfIJjzjmI7GJL7mkCMy</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Hi Ashani! I'm sorry you couldn't find what you were looking for. Let me assist you in finding information on "Golpa." Please provide me with more details so I can help you better. Thank you!</t>
+          <t>Hi cgala7725, I'm sorry for the inconvenience. It seems like there may have been a misunderstanding in your search. If you need assistance with anything related to travel or vacations, feel free to let me know. I'm here to help!</t>
         </is>
       </c>
       <c r="K62" s="2" t="n">
-        <v>45966.68431891203</v>
+        <v>45967.78041775463</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3789,50 +3797,50 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>fr8uLc2xLI1OAJfAT3bv</t>
+          <t>esqGYiVzLNoFVziNlfcG</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>varunak</t>
+          <t>Ashani Jayawardhana</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>99.934</v>
+        <v>117.423</v>
       </c>
       <c r="D63" t="n">
-        <v>1.665566666666667</v>
+        <v>1.95705</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OZxqMDhBo9jOt3T0PFn1</t>
+          <t>20uLLsZyAMaT4e5mhHKz</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10919204</t>
+          <t>10919838</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hitonm" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hicki" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H63" s="2" t="n">
-        <v>45966.6761728125</v>
+        <v>45967.57501153935</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Ndv6bn8ASAJ6O6KvSldN</t>
+          <t>FL0U0U1wZI0rujrXwXtb</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Hi Varunak, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t xml:space="preserve"> Hi Ashani! I'm sorry you couldn't find what you were looking for. Let me assist you in finding information on "Hicki." Please provide me with more details so I can help you better. Thank you!</t>
         </is>
       </c>
       <c r="K63" s="2" t="n">
-        <v>45966.67732945602</v>
+        <v>45967.57637060186</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3843,104 +3851,104 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>fr8uLc2xLI1OAJfAT3bv</t>
+          <t>j1vd644FC3uUOZD39bxO</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>varunak</t>
+          <t>pams85326</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>94.111</v>
+        <v>104.01</v>
       </c>
       <c r="D64" t="n">
-        <v>1.568516666666667</v>
+        <v>1.7335</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>XZo7X9WSfspq0TL53B9z</t>
+          <t>HEVZc3abAKZDOXH2F2qd</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10919204</t>
+          <t>10914070</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Singapore" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H64" s="2" t="n">
-        <v>45966.67624020833</v>
+        <v>45967.58612700232</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Ndv6bn8ASAJ6O6KvSldN</t>
+          <t>Xyic0vV3WyIpWQBX4G7J</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Hi Varunak, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you.</t>
+          <t>Hello pams85326! I'm sorry that you couldn't find any results for "Singapore." Let me assist you with that. Singapore is a beautiful city-state known for its vibrant culture, delicious food, and stunning architecture. Whether you're looking for travel tips, hotel recommendations, or tour packages, I'm here to help you plan the perfect trip to Singapore. Let me know how I can assist you further!</t>
         </is>
       </c>
       <c r="K64" s="2" t="n">
-        <v>45966.67732945602</v>
+        <v>45967.58733082176</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Dishmi</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>fr8uLc2xLI1OAJfAT3bv</t>
+          <t>myEs7R78Fhu9DDzSUpQl</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>varunak</t>
+          <t>vageeshi</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>141.521</v>
+        <v>103.959</v>
       </c>
       <c r="D65" t="n">
-        <v>2.358683333333333</v>
+        <v>1.73265</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TCPLNuThHc5ypDFY59O1</t>
+          <t>zm8528CpPZ8uLFBywJ2N</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10919204</t>
+          <t>10919949</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cunnamon" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hightwa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H65" s="2" t="n">
-        <v>45966.67772028935</v>
+        <v>45967.73215658565</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>VjuqrpIpaTLku6AgWimW</t>
+          <t>Uvy4nE5GZbIvh9YHyNuc</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Hi Varunak, I apologize for the inconvenience. Could you please provide me with more details about what you are looking for so I can assist you better? Thank you.</t>
+          <t>Hi Vageeshi! I'm sorry, but it seems like there might have been a typo in your search. Can you please provide me with more details or clarify what you're looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K65" s="2" t="n">
-        <v>45966.67935826389</v>
+        <v>45967.73335981482</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3951,212 +3959,213 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ggtxUxBnozDBbWSS9H4q</t>
+          <t>myEs7R78Fhu9DDzSUpQl</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>mnmnaflan06</t>
+          <t>vageeshi</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>99.931</v>
+        <v>119.86</v>
       </c>
       <c r="D66" t="n">
-        <v>1.665516666666667</v>
+        <v>1.997666666666667</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>HNTzP2gTJvFccslPBego</t>
+          <t>uZVnch8vIHSJg8OFyd8l</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10919909</t>
+          <t>10919949</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hightea" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H66" s="2" t="n">
-        <v>45966.54405131945</v>
+        <v>45967.74168329861</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>nphfH5dpbhVFHAsFZwR9</t>
+          <t>lBy52IN1eeY1pbFTAZvA</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Hi mnmnaflan06, I apologize for the inconvenience. It seems like there may have been a technical issue with the search results. Let me assist you in finding information about Malaysia. Please feel free to ask me any questions you may have. Thank you for reaching out.</t>
+          <t>Admin: Hi Vageeshi! I'm sorry for the confusion earlier. Would you like help finding information on high tea experiences or venues? Let me know how I can assist you further.</t>
         </is>
       </c>
       <c r="K66" s="2" t="n">
-        <v>45966.54520792824</v>
+        <v>45967.74307056713</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>kaGAm4yhmqsVBZUG16yj</t>
+          <t>myEs7R78Fhu9DDzSUpQl</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>sahan123</t>
+          <t>vageeshi</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>126.07</v>
+        <v>95.39</v>
       </c>
       <c r="D67" t="n">
-        <v>2.101166666666666</v>
+        <v>1.589833333333333</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>9fpTxntuBKscctr1qGz0</t>
+          <t>actc0ImR9GA5HNAb1yaa</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>10919918</t>
+          <t>10919949</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinnamon life" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Couar" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H67" s="2" t="n">
-        <v>45966.62628922454</v>
+        <v>45967.88550905092</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>HsA6nGHHkHAUr0DWC4pt</t>
+          <t>A0IYAK1FKU62OQrXvxnr</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Hi Isahan123, I'm sorry but we don't offer "Cinnamon life" as a travel destination. Is there anything else I can assist you with today? Let me know how I can help!</t>
+          <t xml:space="preserve">
+Hi Vageeshi! I'm sorry, but I couldn't find any information on "Couar." Can you please provide me with more details or clarify what you're looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K67" s="2" t="n">
-        <v>45966.62774836805</v>
+        <v>45967.88661310185</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>kaGAm4yhmqsVBZUG16yj</t>
+          <t>nSmw1gXLpq4XCDxJClnT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>sahan123</t>
+          <t>Ruwaiziya</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>69.482</v>
+        <v>105.696</v>
       </c>
       <c r="D68" t="n">
-        <v>1.158033333333333</v>
+        <v>1.7616</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4cRPQ96H9G34ttoz3Ub3</t>
+          <t>Hi4KqhFR8QmASSqgv8Zn</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>10919918</t>
+          <t>10916414</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinn" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bffetu" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H68" s="2" t="n">
-        <v>45966.62694417824</v>
+        <v>45967.52550762732</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>HsA6nGHHkHAUr0DWC4pt</t>
+          <t>a05RWqkxmUq2rUdDG3oZ</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Hi Isahan123, I'm sorry but we don't offer "Cinnamon life" as a travel destination. Is there anything else I can assist you with today? Let me know how I can help!</t>
+          <t xml:space="preserve"> Hi Ruwaiziya, I'm sorry but I couldn't find any results for "Bffetu" in our database. Can you please provide me with more details or clarify what you're looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K68" s="2" t="n">
-        <v>45966.62774836805</v>
+        <v>45967.52673096065</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>kaGAm4yhmqsVBZUG16yj</t>
+          <t>pDInpatXzun6hjDUAG7K</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>sahan123</t>
+          <t>SunethGunathialke</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5.252</v>
+        <v>131.951</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08753333333333332</v>
+        <v>2.199183333333333</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>vhah30V6idyL2vqsGToH</t>
+          <t>ux17n2QrsYIhfNu69C2Q</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>10919918</t>
+          <t>10919029</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinn" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Singap" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H69" s="2" t="n">
-        <v>45966.62768758102</v>
+        <v>45967.74470699074</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>HsA6nGHHkHAUr0DWC4pt</t>
+          <t>ZwgAaYzZSSG3iZNaavMT</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Hi Isahan123, I'm sorry but we don't offer "Cinnamon life" as a travel destination. Is there anything else I can assist you with today? Let me know how I can help!</t>
+          <t>Hi SunethGunathialke! I'm sorry you couldn't find what you were looking for. Can you provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K69" s="2" t="n">
-        <v>45966.62774836805</v>
+        <v>45967.74623420139</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -4167,50 +4176,50 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>kaGAm4yhmqsVBZUG16yj</t>
+          <t>pDInpatXzun6hjDUAG7K</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sahan123</t>
+          <t>SunethGunathialke</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>141.111</v>
+        <v>131.741</v>
       </c>
       <c r="D70" t="n">
-        <v>2.35185</v>
+        <v>2.195683333333334</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1cEnHaQzbcRz9PHefJNa</t>
+          <t>ZjQ3TTiOfQmxfOd4rB7G</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>10919918</t>
+          <t>10919029</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Lunch buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sngi" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H70" s="2" t="n">
-        <v>45966.63438983796</v>
+        <v>45967.7447094213</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>kNXGKrzxFziTM8eCidPT</t>
+          <t>ZwgAaYzZSSG3iZNaavMT</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Hi Isahan123,We do offer lunch buffet options at various destinations. Can you please provide me with more details such as your preferred location and date so I can assist you better? Thank you!</t>
+          <t>Hi SunethGunathialke! I'm sorry you couldn't find what you were looking for. Can you provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K70" s="2" t="n">
-        <v>45966.63602306713</v>
+        <v>45967.74623420139</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -4221,158 +4230,158 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>mrBXHcywpTIbK8u4UAis</t>
+          <t>pSedBHcQjOtzojFlxX3c</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>gowsh6810</t>
+          <t>Jesica</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>154.895</v>
+        <v>1076.074</v>
       </c>
       <c r="D71" t="n">
-        <v>2.581583333333334</v>
+        <v>17.93456666666667</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>li98EPkqsLTSEbl3kA47</t>
+          <t>cXsqyc37NoFfPwjLRcL1</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>10919920</t>
+          <t>10918976</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Salon" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "High tea" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H71" s="2" t="n">
-        <v>45966.64476366898</v>
+        <v>45967.23867803241</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>KaVW7U5lguUD2dxCeiBz</t>
+          <t>96aMA66S4Q1rYYsXaFbb</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Is there anything I can assist you with today? Let me know how I can help!</t>
+          <t>Hi Jesica, I apologize for the inconvenience. It seems like there may have been a typo in your search query. Can you please provide more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K71" s="2" t="n">
-        <v>45966.64655643518</v>
+        <v>45967.2511325926</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>mrBXHcywpTIbK8u4UAis</t>
+          <t>pSedBHcQjOtzojFlxX3c</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>gowsh6810</t>
+          <t>Jesica</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>37.671</v>
+        <v>1075.958</v>
       </c>
       <c r="D72" t="n">
-        <v>0.62785</v>
+        <v>17.93263333333334</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>tmxglUgAw99nCK8VlWfG</t>
+          <t>V6ieSGLXW0olQhoTz8tU</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>10919920</t>
+          <t>10918976</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Spa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "High t" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H72" s="2" t="n">
-        <v>45966.64612042824</v>
+        <v>45967.238679375</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>KaVW7U5lguUD2dxCeiBz</t>
+          <t>96aMA66S4Q1rYYsXaFbb</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Hi there! I'm sorry you couldn't find what you were looking for. Is there anything I can assist you with today? Let me know how I can help!</t>
+          <t>Hi Jesica, I apologize for the inconvenience. It seems like there may have been a typo in your search query. Can you please provide more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K72" s="2" t="n">
-        <v>45966.64655643518</v>
+        <v>45967.2511325926</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>nyeoxyIiaPbIoc3CnV6g</t>
+          <t>pSedBHcQjOtzojFlxX3c</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SHAN A</t>
+          <t>Jesica</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>157.134</v>
+        <v>1058.595</v>
       </c>
       <c r="D73" t="n">
-        <v>2.6189</v>
+        <v>17.64325</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>lPnQBd2b4GYvrwASoi13</t>
+          <t>RH3f7p45H9AsMV8xK1ju</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>10919893</t>
+          <t>10918976</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thail" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "High" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H73" s="2" t="n">
-        <v>45966.08275570602</v>
+        <v>45967.23888033565</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>S2O1t9T9IUgjASzQvJlC</t>
+          <t>96aMA66S4Q1rYYsXaFbb</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Hi Shan A, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Jesica, I apologize for the inconvenience. It seems like there may have been a typo in your search query. Can you please provide more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K73" s="2" t="n">
-        <v>45966.08457438657</v>
+        <v>45967.2511325926</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -4383,50 +4392,50 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>nyeoxyIiaPbIoc3CnV6g</t>
+          <t>pSedBHcQjOtzojFlxX3c</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SHAN A</t>
+          <t>Jesica</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>111.657</v>
+        <v>1056.992</v>
       </c>
       <c r="D74" t="n">
-        <v>1.86095</v>
+        <v>17.61653333333333</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>YQj5nHv6ndmIF7LfZuTn</t>
+          <t>0IRNbHFFFKCvhQToRSuA</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>10919893</t>
+          <t>10918976</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Vietna" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hightea" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H74" s="2" t="n">
-        <v>45966.08328206019</v>
+        <v>45967.23889888889</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>S2O1t9T9IUgjASzQvJlC</t>
+          <t>96aMA66S4Q1rYYsXaFbb</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Hi Shan A, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Jesica, I apologize for the inconvenience. It seems like there may have been a typo in your search query. Can you please provide more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K74" s="2" t="n">
-        <v>45966.08457438657</v>
+        <v>45967.2511325926</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -4437,50 +4446,50 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>nyeoxyIiaPbIoc3CnV6g</t>
+          <t>pSedBHcQjOtzojFlxX3c</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SHAN A</t>
+          <t>Jesica</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>24.588</v>
+        <v>1042.918</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4098</v>
+        <v>17.38196666666666</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Fdtf0LNfcieO9Rd19fkC</t>
+          <t>HLsniHA7FmhBq1vearFg</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>10919893</t>
+          <t>10918976</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Vietnam" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buff" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H75" s="2" t="n">
-        <v>45966.08428980324</v>
+        <v>45967.23906178241</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>S2O1t9T9IUgjASzQvJlC</t>
+          <t>96aMA66S4Q1rYYsXaFbb</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Hi Shan A, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details so I can assist you better? Thank you!</t>
+          <t>Hi Jesica, I apologize for the inconvenience. It seems like there may have been a typo in your search query. Can you please provide more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K75" s="2" t="n">
-        <v>45966.08457438657</v>
+        <v>45967.2511325926</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -4491,158 +4500,158 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>o5GZzkp5uyTGIbodPl8s</t>
+          <t>pSedBHcQjOtzojFlxX3c</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AMILNISHANTHA</t>
+          <t>Jesica</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>251.687</v>
+        <v>1040.432</v>
       </c>
       <c r="D76" t="n">
-        <v>4.194783333333334</v>
+        <v>17.34053333333333</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>WKBXVVYh58heMwWCE4cn</t>
+          <t>SrLBvXQV2mwJ5bethQJU</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>10913603</t>
+          <t>10918976</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bank" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H76" s="2" t="n">
-        <v>45966.67670716436</v>
+        <v>45967.23909055556</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>BSgUxrE2V6C3KnknseV3</t>
+          <t>96aMA66S4Q1rYYsXaFbb</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Hi AMILNISHANTHA, I apologize for the confusion. We specialize in travel services and do not offer banking services. Is there anything else I can assist you with today?</t>
+          <t>Hi Jesica, I apologize for the inconvenience. It seems like there may have been a typo in your search query. Can you please provide more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K76" s="2" t="n">
-        <v>45966.67962020834</v>
+        <v>45967.2511325926</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>pBcWIfm5hMqUpU3wm5vd</t>
+          <t>pSedBHcQjOtzojFlxX3c</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>dilandevan</t>
+          <t>Jesica</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>123.025</v>
+        <v>739.402</v>
       </c>
       <c r="D77" t="n">
-        <v>2.050416666666667</v>
+        <v>12.32336666666667</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>IA51hCOkQGJgHjnQ6f2j</t>
+          <t>6grQkSQ3o9uOwwh2T5dY</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>10910242</t>
+          <t>10918976</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hìgh" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H77" s="2" t="n">
-        <v>45966.55546359954</v>
+        <v>45967.24257469908</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>IRpkyV1WhtSqwSMzOfjx</t>
+          <t>96aMA66S4Q1rYYsXaFbb</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Hi Dilandevan, I'm sorry that you couldn't find any results for Bangkok. Let me assist you with that. Can you please provide me with more details about what you are looking for in Bangkok? I'm here to help you with your travel plans.</t>
+          <t>Hi Jesica, I apologize for the inconvenience. It seems like there may have been a typo in your search query. Can you please provide more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K77" s="2" t="n">
-        <v>45966.5568875</v>
+        <v>45967.2511325926</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>szNmpOIHhRd7t7s7tmsU</t>
+          <t>qGFpmHbYhXIlZVJ9CY0v</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Mohomad Azath</t>
+          <t>MAFASMA</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>122.228</v>
+        <v>117.745</v>
       </c>
       <c r="D78" t="n">
-        <v>2.037133333333333</v>
+        <v>1.962416666666667</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FqTtyvz98goIReQrexTL</t>
+          <t>Y85qJw8qpFbXIUvG02R4</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>10911164</t>
+          <t>5121</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinnamon la" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Sing" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H78" s="2" t="n">
-        <v>45966.67901431713</v>
+        <v>45967.76472018519</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>oasZnthz61twymCeSyI2</t>
+          <t>iLgDrT6Ls2IidnkugtbX</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi MohomadAzath! I apologize for any inconvenience you may have experienced. Let me assist you in finding the information you need. Can you please provide me with more details about the "Cinnamon la" you are looking for?</t>
+          <t>Hi MAFASMA, I'm sorry but we currently don't have any information on "Sing". Can you please provide more details so we can better assist you in finding what you're looking for? Thank you!</t>
         </is>
       </c>
       <c r="K78" s="2" t="n">
-        <v>45966.68042899306</v>
+        <v>45967.76608297454</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -4653,429 +4662,452 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>v6ofhm9HttJcwg7Bj4QA</t>
+          <t>sxgZfTWjuhS7AVxTfkF9</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>heshana</t>
+          <t>prk1979</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>97.871</v>
+        <v>94.952</v>
       </c>
       <c r="D79" t="n">
-        <v>1.631183333333333</v>
+        <v>1.582533333333333</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>KXsdWFGvNHcOlM8IxGJz</t>
+          <t>Nomd3w3BPrrAHG37WznI</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>10918917</t>
+          <t>10910263</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kandy mi" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H79" s="2" t="n">
-        <v>45966.42392777777</v>
+        <v>45967.87419380787</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>iz7dBkmpysPf06eaJ80j</t>
+          <t>v7cbwo9Twr2lbNYVFUuB</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Hi Heshana, I'm sorry that you couldn't find what you were looking for. Can you provide me with more information about "Kandy mi" or "Kandy mis" so I can better assist you? Thank you!</t>
+          <t xml:space="preserve">Hi prk1979, I apologize for any inconvenience. Thank you for letting me know what you were looking for. I will do my best to assist you in finding information about Bangkok and Singapore. Please give me a moment to check for available options. Thank you for your patience
+</t>
         </is>
       </c>
       <c r="K79" s="2" t="n">
-        <v>45966.42506054398</v>
+        <v>45967.87529278935</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>v6ofhm9HttJcwg7Bj4QA</t>
+          <t>sxgZfTWjuhS7AVxTfkF9</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>heshana</t>
+          <t>prk1979</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>94.68300000000001</v>
+        <v>86.621</v>
       </c>
       <c r="D80" t="n">
-        <v>1.57805</v>
+        <v>1.443683333333333</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ny0wbrxdWidWRQw31Hqr</t>
+          <t>QkzkqZIs0YoTMGm91UeN</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>10918917</t>
+          <t>10910263</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kandy mis" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Singapore" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H80" s="2" t="n">
-        <v>45966.42396467592</v>
+        <v>45967.87429023148</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>iz7dBkmpysPf06eaJ80j</t>
+          <t>v7cbwo9Twr2lbNYVFUuB</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Hi Heshana, I'm sorry that you couldn't find what you were looking for. Can you provide me with more information about "Kandy mi" or "Kandy mis" so I can better assist you? Thank you!</t>
+          <t xml:space="preserve">Hi prk1979, I apologize for any inconvenience. Thank you for letting me know what you were looking for. I will do my best to assist you in finding information about Bangkok and Singapore. Please give me a moment to check for available options. Thank you for your patience
+</t>
         </is>
       </c>
       <c r="K80" s="2" t="n">
-        <v>45966.42506054398</v>
+        <v>45967.87529278935</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>vQydir5iwFFDKN236PdS</t>
+          <t>sxgZfTWjuhS7AVxTfkF9</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Vijith Madushan</t>
+          <t>prk1979</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>158.433</v>
+        <v>78.358</v>
       </c>
       <c r="D81" t="n">
-        <v>2.64055</v>
+        <v>1.305966666666667</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>gzEN1A0usCFhaV6pcM7G</t>
+          <t>JbgsdVVCExfNEn0dS21W</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>10918068</t>
+          <t>10910263</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dinner by" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Singa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H81" s="2" t="n">
-        <v>45966.74370123843</v>
+        <v>45967.87438586805</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>8amU3P34WQwWS5OLZjTP</t>
+          <t>v7cbwo9Twr2lbNYVFUuB</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Vijith Madushan, I'm here to help. Can you provide more details about what you're looking for so I can better assist you?</t>
+          <t xml:space="preserve">Hi prk1979, I apologize for any inconvenience. Thank you for letting me know what you were looking for. I will do my best to assist you in finding information about Bangkok and Singapore. Please give me a moment to check for available options. Thank you for your patience
+</t>
         </is>
       </c>
       <c r="K81" s="2" t="n">
-        <v>45966.7455349537</v>
+        <v>45967.87529278935</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>xIrF5dUc84bKC1VDPqS4</t>
+          <t>tKHzPj484IO78WbVQVR0</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Roger</t>
+          <t>sivav1739</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>116.923</v>
+        <v>111.339</v>
       </c>
       <c r="D82" t="n">
-        <v>1.948716666666667</v>
+        <v>1.85565</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>VhKL1UcY37U9jtqJgY4v</t>
+          <t>8OAQtKnVt5jRUmlsCpSj</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>10910171</t>
+          <t>8472</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bangkok" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi I received a notification regarding Singapore travel package can you share more information on that I can't find it on your app</t>
         </is>
       </c>
       <c r="H82" s="2" t="n">
-        <v>45966.62944171296</v>
+        <v>45967.471325625</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>OGueUla46oTL3w5rQ0Kd</t>
+          <t>cp8netjlzeg8rz2txzgB</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Hi Roger, I'm sorry that you couldn't find what you were looking for. Are you specifically searching for information about Bangkok? Let me know how I can assist you further.</t>
+          <t xml:space="preserve">Hi, thank you for reaching out to us! 
+</t>
         </is>
       </c>
       <c r="K82" s="2" t="n">
-        <v>45966.63079498843</v>
+        <v>45967.47261427083</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>xiB4nNPSGGNWH0af0m1j</t>
+          <t>tKHzPj484IO78WbVQVR0</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>thecr3455</t>
+          <t>sivav1739</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>13.468</v>
+        <v>213.78</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2244666666666667</v>
+        <v>3.563</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>bBQuz4ieCii4M2zqg9Bv</t>
+          <t>scS4lyDqA3N8CAglwsGB</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>10919899</t>
+          <t>8472</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Food" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>??</t>
         </is>
       </c>
       <c r="H83" s="2" t="n">
-        <v>45966.35084778935</v>
+        <v>45967.47318175926</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>uXjzD1nHwYpL6wgbcGHz</t>
+          <t>N2MMqYWVKTahdgBuygAz</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Hi thecr3455! I'm sorry that you couldn't find any results for "Food." Can you please provide me with more details about the type of food you are looking for or any specific preferences you have? I'll do my best to help you find what you're looking for.</t>
+          <t>Your Singapore Getaway Awaits! – 3 Nights / 4 Days ✨
+Make your Singapore plans come alive with this incredible short escape - a perfect blend of city fun, island vibes, and world-class attractions!
+📍Inclusions:
+Private Airport Transfers (Arrival &amp; Departure)
+Shared City Tour 
+Sentosa Island Experience 
+Universal Studios or Night Safari 
+ *LKR 21,000 Per Adult | LKR 15,750 Per Child* 
+ _Minimum 2 Pax Required Per Booking_ 
+📅 *Book By:* 30th November
+🗓️ *Travel Before:* 20th December
+ *Tentative Itinerary:* 
+ *Day 1:* Arrival in Singapore – Private transfer to hotel (hotel not included).
+ *Day 2:* Shared City Tour exploring the top highlights of Singapore.
+ *Day 3:* Visit Sentosa Island with shared transfers – beaches, fun &amp; adventure!
+ *Day 4:* Choose between Universal Studios or Night Safari, then enjoy your departure transfer.
+ _Only transfers are included | Entrance tickets are excluded_ 
+📲 Download the Aahaas App now and turn your Singapore travel dream into reality.
+Unreal price. Real experiences. Don’t miss it! 🚀
+https://aahaas-appqr4.aahaas.com
+ _Uniquely Yours_</t>
         </is>
       </c>
       <c r="K83" s="2" t="n">
-        <v>45966.35100366898</v>
+        <v>45967.47565606482</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Alesha.H</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>xrJxs7QcmmrXRamoZxKI</t>
+          <t>wxQc548v6KYEKwtieJOj</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Anupaja</t>
+          <t>bnime1744</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>97.116</v>
+        <v>116.861</v>
       </c>
       <c r="D84" t="n">
-        <v>1.6186</v>
+        <v>1.947683333333333</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ez3B1zRzUzIW2gtOxf1r</t>
+          <t>ZulFS655p79FczckE7yc</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>10919910</t>
+          <t>10919904</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hambanthota s" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Pearlb" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H84" s="2" t="n">
-        <v>45966.55128219907</v>
+        <v>45967.00832805556</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>zJOQXDgU8Q9BSuF8W7SD</t>
+          <t>Or6PZCdefeflU5JY6KPZ</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Hi Anupaja, I apologize for the inconvenience. It seems like there may have been a typo in your search. Were you looking for information about Hambantota in Sri Lanka? Let me know how I can assist you further.</t>
+          <t>Hi there! Thank you for reaching out. I apologize for the inconvenience, but could you please provide me with more details about what you are looking for? I'd be happy to assist you in finding the information you need.</t>
         </is>
       </c>
       <c r="K84" s="2" t="n">
-        <v>45966.55240622685</v>
+        <v>45967.00968061342</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>xrJxs7QcmmrXRamoZxKI</t>
+          <t>wxQc548v6KYEKwtieJOj</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Anupaja</t>
+          <t>bnime1744</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>94.09</v>
+        <v>114.952</v>
       </c>
       <c r="D85" t="n">
-        <v>1.568166666666667</v>
+        <v>1.915866666666667</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>WFge9nbofTFms8X0q9aF</t>
+          <t>JRuCrnGdmYCt2PBxdOEG</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>10919910</t>
+          <t>10919904</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Sigiriya" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Pearl b" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H85" s="2" t="n">
-        <v>45966.55246753472</v>
+        <v>45967.00835015046</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>NOCPApJcZHAW7D5xUQFR</t>
+          <t>Or6PZCdefeflU5JY6KPZ</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Hi Anupaja, I'm sorry you couldn't find what you were looking for. Let me help you with information about Sigiriya in Sri Lanka. What specific details are you interested in?</t>
+          <t>Hi there! Thank you for reaching out. I apologize for the inconvenience, but could you please provide me with more details about what you are looking for? I'd be happy to assist you in finding the information you need.</t>
         </is>
       </c>
       <c r="K85" s="2" t="n">
-        <v>45966.55355653935</v>
+        <v>45967.00968061342</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>y5mmi8Q8OzoXCTws7F9e</t>
+          <t>wxQc548v6KYEKwtieJOj</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Pra</t>
+          <t>bnime1744</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>156.865</v>
+        <v>110.284</v>
       </c>
       <c r="D86" t="n">
-        <v>2.614416666666667</v>
+        <v>1.838066666666667</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>L6vMUomISpKYErZ8VfTK</t>
+          <t>sAMP3X0ALv7uzLk87TF7</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>10912407</t>
+          <t>10919904</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Bang" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Parl" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H86" s="2" t="n">
-        <v>45966.94485775463</v>
+        <v>45967.00840417824</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>CjNrqS6mkf19C6aYQ2Bv</t>
+          <t>Or6PZCdefeflU5JY6KPZ</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi Pra, I'm sorry but I couldn't find any results for "Bang" in our system. Can you please provide more details or clarify what you're looking for so I can assist you better? Thank you
-</t>
+          <t>Hi there! Thank you for reaching out. I apologize for the inconvenience, but could you please provide me with more details about what you are looking for? I'd be happy to assist you in finding the information you need.</t>
         </is>
       </c>
       <c r="K86" s="2" t="n">
-        <v>45966.94667332176</v>
+        <v>45967.00968061342</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -5086,594 +5118,218 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>yltRYMlrO7LqJoERbgqu</t>
+          <t>wxQc548v6KYEKwtieJOj</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>kavit5789</t>
+          <t>bnime1744</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>117.283</v>
+        <v>101.078</v>
       </c>
       <c r="D87" t="n">
-        <v>1.954716666666667</v>
+        <v>1.684633333333333</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>DE0VwP1AJKdvcmJgZt7B</t>
+          <t>U4Iia9Ehs7cdKOTS0WxK</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>10913067</t>
+          <t>10919904</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Travel" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Pear" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H87" s="2" t="n">
-        <v>45966.49066429398</v>
+        <v>45967.00987619213</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Zl3REoRCCihhb6ENI5Bz</t>
+          <t>nDk8QYHZ1xGVg2ociXvZ</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Hi kavit5789, I'm sorry you couldn't find what you were looking for. Can you please provide more details about the type of travel or Thai experience you're interested in, so I can assist you better?</t>
+          <t>Hi there! I'm sorry you couldn't find what you were looking for. Could you provide me with more details so I can assist you better?</t>
         </is>
       </c>
       <c r="K87" s="2" t="n">
-        <v>45966.49202173611</v>
+        <v>45967.01104607639</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>yltRYMlrO7LqJoERbgqu</t>
+          <t>xrJxs7QcmmrXRamoZxKI</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>kavit5789</t>
+          <t>Anupaja</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>109.634</v>
+        <v>102.323</v>
       </c>
       <c r="D88" t="n">
-        <v>1.827233333333333</v>
+        <v>1.705383333333333</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>VIpnsJxWrsaFpdu33FA2</t>
+          <t>jOY4xvBhH6SyEy4ILZCb</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>10913067</t>
+          <t>10919910</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Thai" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Radd" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H88" s="2" t="n">
-        <v>45966.49075282407</v>
+        <v>45967.99362635417</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Zl3REoRCCihhb6ENI5Bz</t>
+          <t>Ow79LcPmJAPJeWH0XBDH</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Hi kavit5789, I'm sorry you couldn't find what you were looking for. Can you please provide more details about the type of travel or Thai experience you're interested in, so I can assist you better?</t>
+          <t xml:space="preserve">
+Hi Anupaja, I apologize for any inconvenience. It seems like there may have been a misunderstanding in your search. Can you please provide more details or clarify your search query so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K88" s="2" t="n">
-        <v>45966.49202173611</v>
+        <v>45967.99481064815</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>yosIbxUON5mUypSL07sZ</t>
+          <t>xrJxs7QcmmrXRamoZxKI</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Wishmi</t>
+          <t>Anupaja</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>103.476</v>
+        <v>97.872</v>
       </c>
       <c r="D89" t="n">
-        <v>1.7246</v>
+        <v>1.6312</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>rn45iCz3pefEnOY2IxJt</t>
+          <t>kal6D4uZ3nT6RxhZnkfm</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>10918175</t>
+          <t>10919910</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Day out packa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Radiss" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H89" s="2" t="n">
-        <v>45966.54934653935</v>
+        <v>45967.99367787037</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>gCEuKSNkqCRwbOarMcPi</t>
+          <t>Ow79LcPmJAPJeWH0XBDH</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Hi Wishmi, I apologize for the confusion. We do offer day out packages, could you please provide me with more details on what you are looking for so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">
+Hi Anupaja, I apologize for any inconvenience. It seems like there may have been a misunderstanding in your search. Can you please provide more details or clarify your search query so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K89" s="2" t="n">
-        <v>45966.55054417824</v>
+        <v>45967.99481064815</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>yosIbxUON5mUypSL07sZ</t>
+          <t>yiEIzzjNcVDr8F8FjZ6o</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Wishmi</t>
+          <t>sandeeprodrigo</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>102.91</v>
+        <v>137.18</v>
       </c>
       <c r="D90" t="n">
-        <v>1.715166666666667</v>
+        <v>2.286333333333333</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>llJzD8M9h5XOrM7WOPrZ</t>
+          <t>tioLJoWi2E1wKXIblfjZ</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>10918175</t>
+          <t>10911977</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Day out packake" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "phuket th" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H90" s="2" t="n">
-        <v>45966.54935309027</v>
+        <v>45967.53858956019</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>gCEuKSNkqCRwbOarMcPi</t>
+          <t>jyGhoyLX1AwFUp1oOTah</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Hi Wishmi, I apologize for the confusion. We do offer day out packages, could you please provide me with more details on what you are looking for so I can assist you better? Thank you!</t>
+          <t>Hi Sandeep Rodrigo, thank you for reaching out. I recommend checking our website's search bar for specific offers related to Phuket. Let me know if you need any further assistance.</t>
         </is>
       </c>
       <c r="K90" s="2" t="n">
-        <v>45966.55054417824</v>
+        <v>45967.54017729167</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>Michelle Xavier</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>yosIbxUON5mUypSL07sZ</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Wishmi</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>102.879</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1.71465</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>qxFqT4rkZNiRs3Bei7tn</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>10918175</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Day out pa" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H91" s="2" t="n">
-        <v>45966.54935344907</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>gCEuKSNkqCRwbOarMcPi</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Hi Wishmi, I apologize for the confusion. We do offer day out packages, could you please provide me with more details on what you are looking for so I can assist you better? Thank you!</t>
-        </is>
-      </c>
-      <c r="K91" s="2" t="n">
-        <v>45966.55054417824</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Michelle Xavier</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>yosIbxUON5mUypSL07sZ</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Wishmi</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>102.181</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1.703016666666667</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>i4sH6vNdKG8JFQjtcr0b</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>10918175</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Day out packa" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H92" s="2" t="n">
-        <v>45966.54936152778</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>gCEuKSNkqCRwbOarMcPi</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Hi Wishmi, I apologize for the confusion. We do offer day out packages, could you please provide me with more details on what you are looking for so I can assist you better? Thank you!</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="n">
-        <v>45966.55054417824</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Michelle Xavier</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>yosIbxUON5mUypSL07sZ</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Wishmi</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>100.81</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1.680166666666667</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>NgshvDc1hK1DbwZ6alit</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>10918175</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Day out packages" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H93" s="2" t="n">
-        <v>45966.54937739584</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>gCEuKSNkqCRwbOarMcPi</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Hi Wishmi, I apologize for the confusion. We do offer day out packages, could you please provide me with more details on what you are looking for so I can assist you better? Thank you!</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="n">
-        <v>45966.55054417824</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Michelle Xavier</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>zM9JTEczGbwKUSOWvmfn</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>laksh6136</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>130.195</v>
-      </c>
-      <c r="D94" t="n">
-        <v>2.169916666666666</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>FOEmWmCT4ceJKPIfzx6F</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>10918408</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "High te" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H94" s="2" t="n">
-        <v>45966.79581430556</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>W5NPahUlTxvszNGa4bfn</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Hi laksh6136, I'm sorry you couldn't find what you were looking for. Let me assist you in finding the best "High tea" options for you. Please provide me with more details so I can help you better.</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="n">
-        <v>45966.79732119213</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Ramiru</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>zM9JTEczGbwKUSOWvmfn</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>laksh6136</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>121.94</v>
-      </c>
-      <c r="D95" t="n">
-        <v>2.032333333333333</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>XGiOZB1kq7xInt98OpOy</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>10918408</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "High te" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H95" s="2" t="n">
-        <v>45966.79590984953</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>W5NPahUlTxvszNGa4bfn</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Hi laksh6136, I'm sorry you couldn't find what you were looking for. Let me assist you in finding the best "High tea" options for you. Please provide me with more details so I can help you better.</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="n">
-        <v>45966.79732119213</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Ramiru</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>zR1IHZ2lpfnNCgo5OnvN</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Dinushapushpawansa</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>119.925</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1.99875</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>F7G9izjThXs4CbR2I5in</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>6703</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "Dubai" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H96" s="2" t="n">
-        <v>45966.71615167824</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>6N3v9M74grzhDs3V11iA</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Hi Dinushapushpawansa, I'm sorry you couldn't find what you were looking for. Let me assist you in finding information about Dubai. Can you please provide me with more details on what you are specifically looking for in Dubai?</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="n">
-        <v>45966.71753969907</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Ramiru</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>zwRx6N2rpkM82NBlIBIJ</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>prabathenator</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>102.311</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1.705183333333333</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>wgmE6Zc2DbNjwRjUbf14</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>10914809</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Hi, I was searching for "mal" but couldn't find any results. Can you help me find what I'm looking for?</t>
-        </is>
-      </c>
-      <c r="H97" s="2" t="n">
-        <v>45966.74458986111</v>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>CbiRlHzvlxRhWg34bsep</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Hi Prabathenator, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about what you're searching for so I can assist you better? Thank you!</t>
-        </is>
-      </c>
-      <c r="K97" s="2" t="n">
-        <v>45966.74577401621</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Ramiru</t>
         </is>
       </c>
     </row>

--- a/Final20251002/exports/response_times_detailed.xlsx
+++ b/Final20251002/exports/response_times_detailed.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,100 +502,109 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0PKNLl0tjvW6b3Megi6P</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>0H2VuBDCyVvbqbiWFuuO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nawoda19</t>
+        </is>
+      </c>
       <c r="C2" t="n">
-        <v>111.228</v>
+        <v>44.985</v>
       </c>
       <c r="D2" t="n">
-        <v>1.8538</v>
+        <v>0.74975</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RZOwQbPBrF6XZxc4pFyF</t>
+          <t>LeiY9hsTJwX1zdTp9lwd</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AHS_Guest</t>
+          <t>10919045</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "City of dreams" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinn" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45967.58920353009</v>
+        <v>45968.67789586806</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>pdJ4mwSjANYY8wGbIm5y</t>
+          <t>zYAArwtbrfXbDwBlzETX</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi there! I'm sorry you couldn't find what you were looking for. Let me assist you in finding the perfect tour for your dream destination. </t>
+          <t xml:space="preserve">
+Hi Nawoda19, I'm sorry you couldn't find what you were looking for. Can you please provide me with more information about "Cinn" so I can assist you better?</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45967.59049089121</v>
+        <v>45968.67841652778</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0PKNLl0tjvW6b3Megi6P</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>0H2VuBDCyVvbqbiWFuuO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nawoda19</t>
+        </is>
+      </c>
       <c r="C3" t="n">
-        <v>206.566</v>
+        <v>14.512</v>
       </c>
       <c r="D3" t="n">
-        <v>3.442766666666667</v>
+        <v>0.2418666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>lNF6ZYIN4MJ7nrjEfXyR</t>
+          <t>pJdhVA3Jaw1JvlxyblA1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AHS_Guest</t>
+          <t>10919045</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dinner buffer" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Buffet" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45967.5928031713</v>
+        <v>45968.75357533565</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4F4GSqt7F3uvbocPk0j6</t>
+          <t>QsuoKc4Gwol0s01dovAE</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hi there! I'm here to help you find the perfect dinner buffet for your upcoming trip. Can you please provide me with more details about your destination and preferences so I can assist you further?</t>
+          <t>Hi Nawoda19, I apologize for the inconvenience. Can you please provide me with more details about the "Buffet" you are looking for so I can assist you further?</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45967.59519398148</v>
+        <v>45968.75374329861</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
@@ -607,14 +616,14 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>202.897</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>3.381616666666666</v>
+        <v>1.660833333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>UFIVoRGCEcR7KdFS8rVg</t>
+          <t>kS4hB7DMbWbfRJHxMDTp</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -624,210 +633,221 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dinner buffet ci" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "HoSri Lanka" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45967.59284563657</v>
+        <v>45968.03922138889</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4F4GSqt7F3uvbocPk0j6</t>
+          <t>pRoaxXErpygSvf5Z7RZc</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hi there! I'm here to help you find the perfect dinner buffet for your upcoming trip. Can you please provide me with more details about your destination and preferences so I can assist you further?</t>
+          <t>Hi there! I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your trip to Sri Lanka so I can help you find the perfect dinner buffet?</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45967.59519398148</v>
+        <v>45968.04037474537</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0PKNLl0tjvW6b3Megi6P</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>49NHNhO9WG5C2HRsRxvk</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rashmi Madurangi</t>
+        </is>
+      </c>
       <c r="C5" t="n">
-        <v>1384.398</v>
+        <v>38.039</v>
       </c>
       <c r="D5" t="n">
-        <v>23.0733</v>
+        <v>0.6339833333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>K97rfiWKohgbaMaIdbH6</t>
+          <t>Vc71kYNRvKW2XLozbDUu</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AHS_Guest</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dinner buffert" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45967.627485625</v>
+        <v>45968.38075765046</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>oabDqZiaKJhhW7lhfihR</t>
+          <t>wkLU6Odj3hZmcemLxKpr</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Hi there! I'd be happy to help you find the perfect dinner buffet for your upcoming trip. Can you please provide me with more details about your destination and preferences so I can assist you further?</t>
+          <t xml:space="preserve">Hello, Thank you for contacting team aahaas
+</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45967.64350875</v>
+        <v>45968.38119791666</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0PKNLl0tjvW6b3Megi6P</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>49NHNhO9WG5C2HRsRxvk</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rashmi Madurangi</t>
+        </is>
+      </c>
       <c r="C6" t="n">
-        <v>102.067</v>
+        <v>19.326</v>
       </c>
       <c r="D6" t="n">
-        <v>1.701116666666667</v>
+        <v>0.3221</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Gt6lxaqThWvG2piQOJA9</t>
+          <t>Hq5e658RHEJWpUXV0oqI</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AHS_Guest</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Dinner" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Can you share your hotline number</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45967.64232741898</v>
+        <v>45968.38154336806</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>oabDqZiaKJhhW7lhfihR</t>
+          <t>wyzfLZakneHEo6ZpIhZy</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Hi there! I'd be happy to help you find the perfect dinner buffet for your upcoming trip. Can you please provide me with more details about your destination and preferences so I can assist you further?</t>
+          <t xml:space="preserve">Sure, Kindly contact us on +94 71 174 4227
+</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45967.64350875</v>
+        <v>45968.38176704861</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3mCovldKM2q1Q3V4qHGc</t>
+          <t>49NHNhO9WG5C2HRsRxvk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>enosh1866</t>
+          <t>Rashmi Madurangi</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>113.975</v>
+        <v>8.132</v>
       </c>
       <c r="D7" t="n">
-        <v>1.899583333333333</v>
+        <v>0.1355333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>hXDNI3bkR0S8cEnIXYZa</t>
+          <t>2e61SMSjC4ol1iqDln2B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10910904</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Smh" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Thanks</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45967.74515291666</v>
+        <v>45968.38190805555</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>gdbsw5knIA0iYw97DD1J</t>
+          <t>4G3e0r302DyNjXsjHRXl</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hi enosh1866, I apologize for not being able to find what you are looking for. Could you please provide me with more details or specific information so I can assist you better? Thank you for reaching out.</t>
+          <t xml:space="preserve">No worries, Happy to assist!
+</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45967.74647207176</v>
+        <v>45968.38200217592</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3mCovldKM2q1Q3V4qHGc</t>
+          <t>4KqNtxjOjvy4tn9hcl2Z</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>enosh1866</t>
+          <t>subhash</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>109.295</v>
+        <v>11.684</v>
       </c>
       <c r="D8" t="n">
-        <v>1.821583333333333</v>
+        <v>0.1947333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>XRLeWBEqS2hodGk4cwXs</t>
+          <t>soBidcuk4wm28gRdQluh</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10910904</t>
+          <t>10919991</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -836,74 +856,75 @@
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45967.74520708333</v>
+        <v>45968.57450850694</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>gdbsw5knIA0iYw97DD1J</t>
+          <t>CdZuRY9ZnnrhJEo8flzm</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Hi enosh1866, I apologize for not being able to find what you are looking for. Could you please provide me with more details or specific information so I can assist you better? Thank you for reaching out.</t>
+          <t>Hi Subhash, I'm sorry but we currently do not have any information on "Singa." Is there anything else I can assist you with?</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45967.74647207176</v>
+        <v>45968.57464373842</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>58NhGNmKvNlBuecAyT9q</t>
+          <t>4KqNtxjOjvy4tn9hcl2Z</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bhagya senevirathna</t>
+          <t>subhash</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>129.793</v>
+        <v>114.822</v>
       </c>
       <c r="D9" t="n">
-        <v>2.163216666666667</v>
+        <v>1.9137</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>eAIeLmlDzFPJR5ocDsiG</t>
+          <t>iM70a5lz0xzX1z5hjnsZ</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10916085</t>
+          <t>10919991</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kandy" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dub" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45967.83963099537</v>
+        <v>45968.57501599537</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>lYxWFqCcUTn1GrTFme3V</t>
+          <t>6sLE3IpJRIGZBwYwIAzB</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Hi Bhagya, I'm sorry that you couldn't find what you were looking for. Could you please provide me with more details about "Kandy" so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">
+ Hi Subhash, I'm sorry but we currently do not have any information on "Dub." Is there anything else I can assist you with?</t>
         </is>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45967.84113322917</v>
+        <v>45968.5763449537</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -914,754 +935,763 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>58NhGNmKvNlBuecAyT9q</t>
+          <t>5d4PYDk3oF1kyeZ3rr1S</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bhagya senevirathna</t>
+          <t>sandaruadikari</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>50.282</v>
+        <v>109.227</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8380333333333333</v>
+        <v>1.82045</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>v4VqUO63PHgh3JsuEeen</t>
+          <t>DJs72k21ygN7z09kVcJC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10916085</t>
+          <t>10919425</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>I need stay in kany on next saturday . So i nerd to fin place to stay</t>
+          <t>Hi, I was searching for "Mira" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45967.84055126157</v>
+        <v>45968.84150895834</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>lYxWFqCcUTn1GrTFme3V</t>
+          <t>kG1bQicVF3issDExrr8n</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Hi Bhagya, I'm sorry that you couldn't find what you were looking for. Could you please provide me with more details about "Kandy" so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">
+Hi Sandaruadikari, I'm sorry but we don't currently have any results for "Mira." Is there anything else you're looking for that I can assist you with?</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45967.84113322917</v>
+        <v>45968.84277315973</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>58NhGNmKvNlBuecAyT9q</t>
+          <t>5jtu2rMu10PMhexpSy72</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bhagya senevirathna</t>
+          <t>gayat4778</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>296.815</v>
+        <v>100.363</v>
       </c>
       <c r="D11" t="n">
-        <v>4.946916666666667</v>
+        <v>1.672716666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GtB6q46XMpfLNwjD9dSB</t>
+          <t>9Un0yhE6KKZTnQdtksrl</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10916085</t>
+          <t>6238</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Ka" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Dinner b" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45967.84113423611</v>
+        <v>45968.65250905092</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>07GaMITqA145BsV8G37H</t>
+          <t>Elj9HMTELaoZpVUsRMD0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Hi Bhagya, I apologize for the inconvenience. Let me assist you in finding a place to stay in Kandy on Saturday. Please provide me with your preferred check-in and check-out dates so I can look for available options for you. Thank you for reaching out!</t>
+          <t>Hi Gayat4778, I'm sorry you couldn't find what you were looking for. Could you please provide me with more details so I can better assist you? Thank you!</t>
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45967.8445695949</v>
+        <v>45968.65367065973</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>58NhGNmKvNlBuecAyT9q</t>
+          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bhagya senevirathna</t>
+          <t>Ammar Anees</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>295.092</v>
+        <v>130.712</v>
       </c>
       <c r="D12" t="n">
-        <v>4.9182</v>
+        <v>2.178533333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>qq98KZ25fluD2D7nI4AD</t>
+          <t>4bWP3KsKufKN7LY5f1VV</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10916085</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kan" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hikka kayak" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45967.84115417824</v>
+        <v>45968.45887145834</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>07GaMITqA145BsV8G37H</t>
+          <t>OxixkvdhbcQxSMAI6xOg</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Hi Bhagya, I apologize for the inconvenience. Let me assist you in finding a place to stay in Kandy on Saturday. Please provide me with your preferred check-in and check-out dates so I can look for available options for you. Thank you for reaching out!</t>
+          <t xml:space="preserve">hi
+</t>
         </is>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45967.8445695949</v>
+        <v>45968.4603843287</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>58NhGNmKvNlBuecAyT9q</t>
+          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bhagya senevirathna</t>
+          <t>Ammar Anees</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>294.229</v>
+        <v>71.464</v>
       </c>
       <c r="D13" t="n">
-        <v>4.903816666666667</v>
+        <v>1.191066666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>UsFJKnStnDa87YA4k6My</t>
+          <t>7ZlU8bd0Dt7PwWptiOK9</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10916085</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Kandy" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hikka" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45967.84116416667</v>
+        <v>45968.45955719907</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>07GaMITqA145BsV8G37H</t>
+          <t>OxixkvdhbcQxSMAI6xOg</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Hi Bhagya, I apologize for the inconvenience. Let me assist you in finding a place to stay in Kandy on Saturday. Please provide me with your preferred check-in and check-out dates so I can look for available options for you. Thank you for reaching out!</t>
+          <t xml:space="preserve">hi
+</t>
         </is>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45967.8445695949</v>
+        <v>45968.4603843287</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5jtu2rMu10PMhexpSy72</t>
+          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>gayat4778</t>
+          <t>Ammar Anees</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>103.694</v>
+        <v>65.78400000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>1.728233333333333</v>
+        <v>1.0964</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>woq6yXrPdlLtHymPZ8k7</t>
+          <t>hk9c7COjJgIBIe9W6hZb</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6238</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Singa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Hikka kayak" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45967.65635649305</v>
+        <v>45968.45962293982</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>6KfhLZqqRlRIJOFOwWiJ</t>
+          <t>OxixkvdhbcQxSMAI6xOg</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Hi Gayat4778, I'm sorry you couldn't find what you were looking for. Can you provide me with more details so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">hi
+</t>
         </is>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45967.65755665509</v>
+        <v>45968.4603843287</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8PCKw4SkGqPMVdOawdU9</t>
+          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Janaka1997</t>
+          <t>Ammar Anees</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>246.392</v>
+        <v>52.824</v>
       </c>
       <c r="D15" t="n">
-        <v>4.106533333333333</v>
+        <v>0.8804</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>xnFsNWRrrs9IzxIeNgzq</t>
+          <t>4tMp3Vu0LTd5rbIktFxV</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7620</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kayaking by" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45967.48088071759</v>
+        <v>45968.45977293982</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>jw5z232o4zubfKGO68Yl</t>
+          <t>OxixkvdhbcQxSMAI6xOg</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Hi Janaka1997! I'm sorry that you couldn't find what you were looking for. Let me assist you with that. Can you please provide me with more details about your search for Malaysia so I can better help you? Thank you!</t>
+          <t xml:space="preserve">hi
+</t>
         </is>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45967.48373247685</v>
+        <v>45968.4603843287</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8PCKw4SkGqPMVdOawdU9</t>
+          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Janaka1997</t>
+          <t>Ammar Anees</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>101.961</v>
+        <v>43.102</v>
       </c>
       <c r="D16" t="n">
-        <v>1.69935</v>
+        <v>0.7183666666666666</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9tDR4wXTOmBoUdQ3fGz1</t>
+          <t>57tuZNAuSk4UPUDsHfTn</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7620</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kayaking" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45967.48387386574</v>
+        <v>45968.45988546297</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>tvPiyOzRnK3w1iBbnTuE</t>
+          <t>OxixkvdhbcQxSMAI6xOg</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Janaka1997! I apologize for the inconvenience. Can you please provide me with more details about your search for Malaysia so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">hi
+</t>
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45967.48505396991</v>
+        <v>45968.4603843287</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>shamraz</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9FmbrCNcbTr1U8tcMJoQ</t>
+          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chathura15</t>
+          <t>Ammar Anees</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>112.041</v>
+        <v>94.871</v>
       </c>
       <c r="D17" t="n">
-        <v>1.86735</v>
+        <v>1.581183333333333</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BtmEXSkjK613ewG7Ry6c</t>
+          <t>wiKgoeKSgmqHXBNrx5Nf</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10919945</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Mala" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kayak" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45967.67869027777</v>
+        <v>45968.46125497685</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6r1BY7a88ClANIkNk1x1</t>
+          <t>cjV9GxiTXnSY6Koeb4aX</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Hi Chathura15, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about "Mala" so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">hi
+</t>
         </is>
       </c>
       <c r="K17" s="2" t="n">
-        <v>45967.67998704861</v>
+        <v>45968.46235302083</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BkRTSNo0E3zfpKr70d4f</t>
+          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Abhishek Bamunuarachchi</t>
+          <t>Ammar Anees</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>131.913</v>
+        <v>105.917</v>
       </c>
       <c r="D18" t="n">
-        <v>2.19855</v>
+        <v>1.765283333333333</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>JUewxu6xDajdVRS69SlU</t>
+          <t>O6PdUikt5H7d6DbHCDTF</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10919850</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Amari" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Jillaa" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45967.04881822917</v>
+        <v>45968.46486652778</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>BqPVwYk6WZ6sxYUzLByy</t>
+          <t>WkVXDgbImwVECFWLaGmx</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Hi Abhishek Bamunuarachchi, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search for "Amari" or "Hilton" so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">hi
+</t>
         </is>
       </c>
       <c r="K18" s="2" t="n">
-        <v>45967.050345</v>
+        <v>45968.46609241898</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BkRTSNo0E3zfpKr70d4f</t>
+          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Abhishek Bamunuarachchi</t>
+          <t>Ammar Anees</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>125.999</v>
+        <v>96.86799999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>2.099983333333333</v>
+        <v>1.614466666666666</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>xHA00zUMf5hTltv64y5E</t>
+          <t>GBEa9yjlDyZqx68PD2EC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10919850</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Hilton" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Kay" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45967.04888667824</v>
+        <v>45968.46497126157</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>BqPVwYk6WZ6sxYUzLByy</t>
+          <t>WkVXDgbImwVECFWLaGmx</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Hi Abhishek Bamunuarachchi, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search for "Amari" or "Hilton" so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">hi
+</t>
         </is>
       </c>
       <c r="K19" s="2" t="n">
-        <v>45967.050345</v>
+        <v>45968.46609241898</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BkRTSNo0E3zfpKr70d4f</t>
+          <t>7XhOJ0OCQ2Q7sbWqJbxk</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Abhishek Bamunuarachchi</t>
+          <t>Ammar Anees</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>105.421</v>
+        <v>96.303</v>
       </c>
       <c r="D20" t="n">
-        <v>1.757016666666667</v>
+        <v>1.60505</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>dylDlPBWfGbL9bFGSNdL</t>
+          <t>yWGPRlOp9UpPXh1XGCyf</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10919850</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Blu" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Night cy" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45967.05140513889</v>
+        <v>45968.46748052083</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0kfhJBlmfSVSgkTtR2rf</t>
+          <t>hihwpQKLj0HmY81xraHd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Hi Abhishek Bamunuarachchi, I apologize for the inconvenience. Can you please provide me with more details about your search for "Blu" so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">hI
+</t>
         </is>
       </c>
       <c r="K20" s="2" t="n">
-        <v>45967.05262528935</v>
+        <v>45968.46859513889</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BkRTSNo0E3zfpKr70d4f</t>
+          <t>7plwNtolMZWmkIIojLkl</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Abhishek Bamunuarachchi</t>
+          <t>Chamoda</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35.009</v>
+        <v>163.614</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5834833333333334</v>
+        <v>2.7269</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ra1uHoGylIlOMQ2PftQF</t>
+          <t>vDmV8pGeGYM9BVLzjdAx</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10919850</t>
+          <t>6709</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Shangrila" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Air Asia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45967.05222009259</v>
+        <v>45968.88293322916</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0kfhJBlmfSVSgkTtR2rf</t>
+          <t>1kRysxvQFEzgijNtFXjj</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Hi Abhishek Bamunuarachchi, I apologize for the inconvenience. Can you please provide me with more details about your search for "Blu" so I can assist you better? Thank you!</t>
+          <t xml:space="preserve">Hi Chamoda, I'm sorry for any confusion. It seems like there may have been a misunderstanding. We currently do not offer services for Air Asia, but we have plenty of other options available for your travel needs. Let me know if there's anything else I can assist you with. Thank you!
+</t>
         </is>
       </c>
       <c r="K21" s="2" t="n">
-        <v>45967.05262528935</v>
+        <v>45968.88482690972</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>shamraz</t>
+          <t>shahil</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HON64Vng92CVMxUTqiTr</t>
+          <t>9C0qapLcUM3iAZkY3vPh</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nabilah</t>
+          <t>Mohamed Imtiyas</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>116.146</v>
+        <v>113.009</v>
       </c>
       <c r="D22" t="n">
-        <v>1.935766666666667</v>
+        <v>1.883483333333333</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>O0nYRiGrHchiQ1ZLmlkE</t>
+          <t>5IgaOcsaB9RXbeTgNhfR</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10917816</t>
+          <t>10919973</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Cinno" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Malaysia" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45967.75029517361</v>
+        <v>45968.32141488426</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>qHyYh5uQfysabzekjsvD</t>
+          <t>XTrr6H8nYDnlrT1gIIzR</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Hi Nabilah! I appreciate your patience. Let me assist you in finding what you're looking for. Can you please provide me with more details about "Cinno" so I can help you better? Thank you!</t>
+          <t>Hi Mohamed Imtiyas, I'm sorry that you couldn't find any results for Malaysia. Let me assist you with that. Malaysia is a beautiful country in Southeast Asia known for its diverse culture, stunning beaches, and vibrant cities. How can I help you with your travel plans to Malaysia today?</t>
         </is>
       </c>
       <c r="K22" s="2" t="n">
-        <v>45967.75163945602</v>
+        <v>45968.32272285879</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>J77IWkPG5Da8n06R5pm7</t>
+          <t>ElKtUmxV6Aoe57L1OydY</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nabilah</t>
+          <t>Masharika Zam Zam</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>215.592</v>
+        <v>132.625</v>
       </c>
       <c r="D23" t="n">
-        <v>3.5932</v>
+        <v>2.210416666666667</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6uYlSdBxRzUb3efNvkO3</t>
+          <t>NNT5by2Xe3MXu0wNA1ur</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10917816</t>
+          <t>10919636</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>How do I make a reservation for 5 pax</t>
+          <t>Hi, I was searching for "Buffets" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45967.75502322917</v>
+        <v>45968.71118170139</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>zMQJtf6m9e6GWIDizdys</t>
+          <t>qTBpaaH1ZNz3o8AxtdfM</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi Nabilah, 
-Thank you for reaching out to make a reservation for 5 people. To assist you better, could you please provide me with the date and destination for your trip? Once I have this information, I will be able to check availability and provide you with the best options. Looking forward to hearing from you soon. 
-</t>
+          <t>Hi Masharika Zam Zam,  Can you please provide me with more details about the type of buffet you are looking for? I'd be happy to assist you in finding the information you need. Thank you!</t>
         </is>
       </c>
       <c r="K23" s="2" t="n">
-        <v>45967.75751850694</v>
+        <v>45968.71271671297</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1672,706 +1702,718 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>J77IWkPG5Da8n06R5pm7</t>
+          <t>F2zeAbGvitIITXrl5kvu</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nabilah</t>
+          <t>User_0NWKy</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>145.46</v>
+        <v>15.101</v>
       </c>
       <c r="D24" t="n">
-        <v>2.424333333333334</v>
+        <v>0.2516833333333334</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>QUots6om9XhaJR5Odjpq</t>
+          <t>QnzYsvwvokf5sfM1uYMj</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10917816</t>
+          <t>10919996</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>I have entered the derails including names ages and phone numbers of each guest but the app does not proceed there on</t>
+          <t>Hi, I was searching for "Hotel" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45967.76899861111</v>
+        <v>45968.68618836805</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>5sLFyfF96trnlA4OKD9o</t>
+          <t>HwuLg2TPTV7vNhzPmi2o</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Let me check and get back to you.
-</t>
+          <t>Hi User_0NWKy, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the type of hotel you are searching for? I would be happy to assist you in finding the perfect accommodation for your needs.</t>
         </is>
       </c>
       <c r="K24" s="2" t="n">
-        <v>45967.77068217593</v>
+        <v>45968.68636314815</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>JPgUptKoGLHIEChIZg2v</t>
+          <t>F2zeAbGvitIITXrl5kvu</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ImashaMHewa</t>
+          <t>User_0NWKy</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>119.566</v>
+        <v>12.218</v>
       </c>
       <c r="D25" t="n">
-        <v>1.992766666666667</v>
+        <v>0.2036333333333333</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>n6OrN7aa5dTfyqYsKijO</t>
+          <t>NUiatKxRFgD9PcdlVTRN</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10917306</t>
+          <t>10919996</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>Hi, I was searching for "Hotel b" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45967.52876928241</v>
+        <v>45968.68654597222</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>7iyeQDkAlgv8wBCFf2GG</t>
+          <t>WIRcGq8LJJMLfmMMTSUl</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi, thank you for reaching out to us!
-</t>
+          <t>Hi User_0NWKy, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the type of accommodation you are searching for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K25" s="2" t="n">
-        <v>45967.53015314815</v>
+        <v>45968.68668738426</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>JPgUptKoGLHIEChIZg2v</t>
+          <t>F2zeAbGvitIITXrl5kvu</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ImashaMHewa</t>
+          <t>User_0NWKy</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>103.22</v>
+        <v>3.819</v>
       </c>
       <c r="D26" t="n">
-        <v>1.720333333333333</v>
+        <v>0.06365</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Qwx073OXWRwbBDaWZ0Es</t>
+          <t>B1shZjhwwlhqwRwVp12P</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10917306</t>
+          <t>10919996</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Can i knw the tour packages available these days</t>
+          <t>Hi, I was searching for "Buff" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45967.52895847222</v>
+        <v>45968.68664318287</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>7iyeQDkAlgv8wBCFf2GG</t>
+          <t>WIRcGq8LJJMLfmMMTSUl</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi, thank you for reaching out to us!
-</t>
+          <t>Hi User_0NWKy, I'm sorry you couldn't find what you were looking for. Can you please provide me with more details about the type of accommodation you are searching for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K26" s="2" t="n">
-        <v>45967.53015314815</v>
+        <v>45968.68668738426</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>JPgUptKoGLHIEChIZg2v</t>
+          <t>FSeBNwPd8JnuPviJxUjL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ImashaMHewa</t>
+          <t>Wmgkoshila</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>31.283</v>
+        <v>10.733</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5213833333333333</v>
+        <v>0.1788833333333333</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>BvzkvebZOXEWe2HID6uD</t>
+          <t>O4W4fp5SLemSxz2Dy7Bb</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10917306</t>
+          <t>10912433</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Can i know the packages prices and details</t>
+          <t>Hi, I was searching for "Cinn" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45967.52979107639</v>
+        <v>45968.60320854167</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>7iyeQDkAlgv8wBCFf2GG</t>
+          <t>v7jtqPmO4ZEJtXgRLq3D</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hi, thank you for reaching out to us!
-</t>
+          <t>Hello Wmgkoshila! Thank you for reaching out. I apologize for the inconvenience. Can you please provide me with more details about what you are looking for so I can assist you better? Thank you!</t>
         </is>
       </c>
       <c r="K27" s="2" t="n">
-        <v>45967.53015314815</v>
+        <v>45968.6033327662</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>JPgUptKoGLHIEChIZg2v</t>
+          <t>FZY69SVGbuYVihQHMl5t</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ImashaMHewa</t>
+          <t>mrilm9235</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>162.436</v>
+        <v>99.053</v>
       </c>
       <c r="D28" t="n">
-        <v>2.707266666666667</v>
+        <v>1.650883333333333</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FMfFj5pPLLluMuE97mMr</t>
+          <t>ZIcSR3vVlAGNihQhdxhb</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10917306</t>
+          <t>10919989</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Is this prices including tickets?</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45967.53151065972</v>
+        <v>45968.60065059028</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>s4mgA7LF0hdb2b5PzFyj</t>
+          <t>OycFvSwbHrfeWr7PGStb</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve">No, this is only for the tour package.
-</t>
+          <t>Hello Mrilm9235! How can I assist you today?</t>
         </is>
       </c>
       <c r="K28" s="2" t="n">
-        <v>45967.53339070602</v>
+        <v>45968.60179703704</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>JPgUptKoGLHIEChIZg2v</t>
+          <t>FZY69SVGbuYVihQHMl5t</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ImashaMHewa</t>
+          <t>mrilm9235</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>55.885</v>
+        <v>33.412</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9314166666666667</v>
+        <v>0.5568666666666666</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>lEav0tncuUYAqaSzuTXO</t>
+          <t>ix1EFHCahCPVXCdsm8A3</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10917306</t>
+          <t>10919989</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>If we book this, you guys gonna help with tickets?</t>
+          <t>What include and exclude to the package</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45967.53274388889</v>
+        <v>45968.60141032407</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>s4mgA7LF0hdb2b5PzFyj</t>
+          <t>OycFvSwbHrfeWr7PGStb</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">No, this is only for the tour package.
-</t>
+          <t>Hello Mrilm9235! How can I assist you today?</t>
         </is>
       </c>
       <c r="K29" s="2" t="n">
-        <v>45967.53339070602</v>
+        <v>45968.60179703704</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Michelle Xavier</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>JPgUptKoGLHIEChIZg2v</t>
+          <t>HVFSoYVM7wr8ta4PnmKQ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ImashaMHewa</t>
+          <t>mirasha</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>45.564</v>
+        <v>24.64</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7594</v>
+        <v>0.4106666666666667</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>GlnCq479l1I4onGNHPkh</t>
+          <t>JpEbTFA0qIpT0t4anS09</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>10917306</t>
+          <t>10918686</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ohhh thanks let me check and get back</t>
+          <t>Hi, I was searching for "Colombo" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45967.53371587963</v>
+        <v>45968.51623634259</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>6pBR9PBfhRPnUhlPx8jG</t>
+          <t>5V5V4U1EyznqHLiCBbbM</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yes, you can book it through our Aahaas app
-</t>
+          <t>Hi Mirasha, I'm sorry that you couldn't find what you were looking for. Can you please provide me with more details about your search for "Colombo" so I can assist you better? Thank you.</t>
         </is>
       </c>
       <c r="K30" s="2" t="n">
-        <v>45967.53424324074</v>
+        <v>45968.51652152778</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Ramiru</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>JjL0RZ6XJlwsTKOdR0yR</t>
+          <t>HVFSoYVM7wr8ta4PnmKQ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GlobalCeylon</t>
+          <t>mirasha</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>102.31</v>
+        <v>25.028</v>
       </c>
       <c r="D31" t="n">
-        <v>1.705166666666667</v>
+        <v>0.4171333333333333</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5s7tcqCBO5MIRkLWHxEn</t>
+          <t>UVn4wnzKYJLnbuueaceF</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10919942</t>
+          <t>10918686</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Global Ceylon" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi, I was searching for "Cinnamon" but couldn't find any results. Can you help me find what I'm looking for?</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45967.51357945602</v>
+        <v>45968.51820491898</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>an6nbvrgon4cD3toODpK</t>
+          <t>VmFdNkX5jcvdIDdEtd1N</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Hi GlobalCeylon! I'm sorry, but it seems like we don't have any information on "Global Ceylon" at the moment. Can you please provide more details or let me know how I can assist you further?</t>
+          <t xml:space="preserve">May i know which cinnamon hotel are you looking for?
+</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45967.51476359954</v>
+        <v>45968.51849459491</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Michelle Xavier</t>
+          <t>Alesha.H</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>JjL0RZ6XJlwsTKOdR0yR</t>
+          <t>HtmhaVgJ0EeO0uY9NJaT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GlobalCeylon</t>
+          <t>mrilm9235</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>105.118</v>
+        <v>103.455</v>
       </c>
       <c r="D32" t="n">
-        <v>1.751966666666667</v>
+        <v>1.72425</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ilxl1pnapmLxpQcuTCO1</t>
+          <t>kCXiW4DlO0laaZXZKS6D</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10919942</t>
+          <t>10919989</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Spa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45967.58411732639</v>
+        <v>45968.56456612269</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>yCoy5QOKydCx0r4INC0B</t>
+          <t>dphPwy35bJZ77UJUZniA</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Hi GlobalCeylon! I'm sorry, but it seems like we don't have any information on "Spa" at the moment. Can you please provide more details or let me know how I can assist you further?</t>
+          <t>Hello mrilm9235! How can I assist you today?</t>
         </is>
       </c>
       <c r="K32" s="2" t="n">
-        <v>45967.58533396991</v>
+        <v>45968.56576351852</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Dishmi</t>
+          <t>Ramiru</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>JjL0RZ6XJlwsTKOdR0yR</t>
+          <t>HtmhaVgJ0EeO0uY9NJaT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GlobalCeylon</t>
+          <t>mrilm9235</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>99.88</v>
+        <v>82.768</v>
       </c>
       <c r="D33" t="n">
-        <v>1.664666666666667</v>
+        <v>1.379466666666667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sjOjYKJPonFk40iNZXkn</t>
+          <t>7LHCKbEI07OZApH6TvAY</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10919942</t>
+          <t>10919989</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hi, I was searching for "Spa" but couldn't find any results. Can you help me find what I'm looking for?</t>
+          <t>Can you tell me what is included in this package pls</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45967.58417795139</v>
+        <v>45968.56480555556</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>yCoy5QOKydCx0r4INC0B</t>
+          <t>dphPwy35bJZ77UJUZniA</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Hi GlobalCeylon! I'm sorry, but it seems like we don't have any information on "Spa" at the moment.